--- a/Scrap/thundera.xlsx
+++ b/Scrap/thundera.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,15 +2494,43 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2022-11-30T01:34:43</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Senador Sérgio Petecão destina R$ 1 milhão para a implementação de um laboratório de análise de solo no Instituto Federal do Acre</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/senador-sergio-petecao-destina-r-1-milhao-para-a-implementacao-de-um-laboratorio-de-analise-de-solo-no-instituto-federal-do-acre/attachment/sergio-petecao-destina-r-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-acre/" rel="attachment wp-att-292710"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292710" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre.jpeg" alt="" width="900" height="600" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre.jpeg 900w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-300x200.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-768x512.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-750x500.jpeg 750w" sizes="(max-width: 900px) 100vw, 900px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O senador Sérgio Petecão (PSD-AC) anunciou nesta terça-feira (29) que vai destinar R$ 1 milhão para a implementação de um laboratório de análise de solo no Instituto Federal do Acre (Ifac). Segundo o parlamentar, o fato de o Estado do Acre não possui nenhum laboratório de ponta, dificulta a tarefa do produtor agrícola de ter um melhor resultado nas suas colheitas e no pleno aproveitamento da produtividade das terras.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Petecão afirma a intenção de que nos próximos anos o Acre possa desenvolver o seu potencial agropecuário, trazendo mais condições dos pequenos produtores aos grandes empresários do setor que mais contribui para a geração de emprego e renda no país.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O senador destaca que o Acre possui grande potencial para desenvolver melhor a vocação na produção agrícola e, ao mesmo tempo, assegurar a preservação de áreas de proteção ecológica. “Estive recentemente discutindo as questões climáticas na COP27, e ficou claro que o mundo olha para o Brasil como referência na preservação ambiental.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8220;Temos a missão de contrabalancear essa ideia com a de que também precisamos desenvolver o estado com a geração de empregos e renda provindas da agricultura, além de condições para assegurar saneamento, educação e saúde para as pessoas que moram na Amazônia”, disse.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Segundo a Embrapa, o laboratório de solos é destinado para dar suporte às pesquisas nas áreas de ciência do solo, como a fertilização de culturas agrícolas e pastagens, poluição do solo, manejo e conservação de solos e água, além de contribuir nas áreas de gestão ambiental e manejo florestal.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica/senador-sergio-petecao-destina-r-1-milhao-para-a-implementacao-de-um-laboratorio-de-analise-de-solo-no-instituto-federal-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>2022-11-29T17:59:01</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Ibama multa em R$ 22 mil o vereador Valdo do Ó, de Tarauacá, não quitou a dívida e justiça determina a penhora dos bens do vereador</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica-destaque/ibama-multa-em-r-22-mil-o-vereador-valdo-do-o-de-tarauaca-nao-quitou-a-divida-e-justica-determina-a-penhora-dos-bens-do-vereador/attachment/vereador-valdor-do-o/" rel="attachment wp-att-292703"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292703" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/vereador-Valdor-do-O.jpg" alt="" width="938" height="529" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/vereador-Valdor-do-O.jpg 938w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/vereador-Valdor-do-O-300x169.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/vereador-Valdor-do-O-768x433.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/vereador-Valdor-do-O-750x423.jpg 750w" sizes="(max-width: 938px) 100vw, 938px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;O Instituto Brasileiro do Meio Ambiente e dos Recursos Naturais Renováveis &amp;#8211; IBAMA, ajuizou processo de Execução Fiscal contra Valdozinho Vieira do Ó, vereador no município de Tarauacá pelo (PSDB), por suposto crime ambiental, consistente em &amp;#8220;desmatar sem autorização 4,5 de mata primária, entre os anos de 2004/2005&amp;#8221;.&lt;/strong&gt;&lt;/p&gt;
@@ -2520,24 +2548,24 @@
 </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica-destaque/ibama-multa-em-r-22-mil-o-vereador-valdo-do-o-de-tarauaca-nao-quitou-a-divida-e-justica-determina-a-penhora-dos-bens-do-vereador/</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>2022-11-29T14:59:59</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Em Capixaba, Sepa incentiva cadeia produtiva de mandioca, com casa de farinha na comunidade Capatará</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/geral/em-capixaba-sepa-incentiva-cadeia-produtiva-de-mandioca-com-casa-de-farinha-na-comunidade-capatara/attachment/equipe-da-sepa-e-agricultores-com-microtrator-utilizado-na-producao/" rel="attachment wp-att-292699"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292699" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao.jpeg" alt="" width="1280" height="853" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao.jpeg 1280w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao-300x200.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao-1024x682.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao-768x512.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao-750x500.jpeg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Equipe-da-Sepa-e-agricultores-com-microtrator-utilizado-na-producao-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Equipe da Sepa e agricultores com microtrator utilizado na produção &amp;#8211; Foto: Danna Anute&lt;/strong&gt;&lt;/p&gt;
@@ -2555,24 +2583,24 @@
 </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/geral/em-capixaba-sepa-incentiva-cadeia-produtiva-de-mandioca-com-casa-de-farinha-na-comunidade-capatara/</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2022-11-29T14:50:35</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Governo divulga resultado final da prova discursiva, convocação para prova de títulos e perícia médica</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/concurso/governo-divulga-resultado-final-da-prova-discursiva-convocacao-para-prova-de-titulos-e-pericia-medica/attachment/governo-divulga-resultado-final-da-prova-discursiva/" rel="attachment wp-att-292694"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292694" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Governo-divulga-resultado-final-da-prova-discursiva.gif" alt="" width="984" height="652" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Ainda, convoca candidatos para a perícia médica dos candidatos com deficiência &amp;#8211; Foto: Reprodução&lt;/strong&gt;&lt;/p&gt;
@@ -2587,24 +2615,24 @@
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/concurso/governo-divulga-resultado-final-da-prova-discursiva-convocacao-para-prova-de-titulos-e-pericia-medica/</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2022-11-29T14:42:28</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Unidade de Coordenação do Programa REM Acre inicia implementação do Plano de Monitoramento Avaliação e Aprendizados</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/unidade-de-coordenacao-do-programa-rem-acre-inicia-implementacao-do-plano-de-monitoramento-avaliacao-e-aprendizados/attachment/a-equipe-do-programa-rem-acre-fase-ii-recebeu-a-consultora-da-cooperacao-tecnica-alema/" rel="attachment wp-att-292690"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292690" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema.jpeg" alt="" width="1536" height="1152" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema.jpeg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema-300x225.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema-1024x768.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema-768x576.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema-750x563.jpeg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-equipe-do-Programa-REM-Acre-Fase-II-recebeu-a-consultora-da-Cooperacao-Tecnica-Alema-1140x855.jpeg 1140w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;A equipe do Programa REM Acre Fase II recebeu a consultora da Cooperação Técnica Alemã – GIZ Marisa Camargo &amp;#8211; Foto: Mayara Montenegro / REM&lt;/strong&gt;&lt;/p&gt;
@@ -2623,24 +2651,24 @@
 </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/politica/unidade-de-coordenacao-do-programa-rem-acre-inicia-implementacao-do-plano-de-monitoramento-avaliacao-e-aprendizados/</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2022-11-29T14:29:13</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Secretaria de Infraestrutura e Corpo de Bombeiros anunciam licitação para construção de tanque de mergulho</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/geral/secretaria-de-infraestrutura-e-corpo-de-bombeiros-anunciam-licitacao-para-construcao-de-tanque-de-mergulho/attachment/estado-construira-tanque-de-mergulho-para-o-corpo-de-bombeiros/" rel="attachment wp-att-292684"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292684" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros.jpg" alt="" width="1536" height="1152" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros.jpg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros-300x225.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros-1024x768.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros-768x576.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros-750x563.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Estado-construira-tanque-de-mergulho-para-o-Corpo-de-Bombeiros-1140x855.jpg 1140w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Estado construirá tanque de mergulho para o Corpo de Bombeiros &amp;#8211; Foto: cedida&lt;/strong&gt;&lt;/p&gt;
@@ -2658,24 +2686,24 @@
 </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/geral/secretaria-de-infraestrutura-e-corpo-de-bombeiros-anunciam-licitacao-para-construcao-de-tanque-de-mergulho/</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>2022-11-29T14:15:13</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Secretaria de Saúde alerta população sobre importância da imunização contra influenza no período chuvoso</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/saude/secretaria-de-saude-alerta-populacao-sobre-importancia-da-imunizacao-contra-influenza-no-periodo-chuvoso/attachment/a-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes/" rel="attachment wp-att-292678"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292678" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes.jpg" alt="" width="1536" height="1024" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes.jpg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-1024x683.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-768x512.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-750x500.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-1140x760.jpg 1140w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;A orientação é de que idosos, imunodeprimidos e gestantes, que podem ter um quadro mais grave caso sejam infectados pelo vírus da gripe, se vacinem. Foto: Odair Leal&lt;/strong&gt;&lt;/p&gt;
@@ -2691,24 +2719,24 @@
 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/saude/secretaria-de-saude-alerta-populacao-sobre-importancia-da-imunizacao-contra-influenza-no-periodo-chuvoso/</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>2022-11-28T12:36:20</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Dois homens são presos em Xapuri, um por estuprar a sobrinha de 7 anos e outro por abusar da filha adolescente de 12 anos</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/policia/dois-homens-sao-presos-em-xapuri-um-por-estuprar-a-sobrinha-de-7-anos-e-outro-por-abusar-da-filha-adolescente-de-12-anos/attachment/prisoes-ocorreram-em-xapuri-onde-os-homens-cometiam-os-crimes/" rel="attachment wp-att-292662"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292662" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prisoes-ocorreram-em-Xapuri-onde-os-homens-cometiam-os-crimes.gif" alt="" width="984" height="558" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;Prisões ocorreram em Xapuri, onde os homens cometiam os crimes &amp;#8211; Foto: Asscom/Polícia Civil&lt;/strong&gt;&lt;/p&gt;
@@ -2721,24 +2749,24 @@
 </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/policia/dois-homens-sao-presos-em-xapuri-um-por-estuprar-a-sobrinha-de-7-anos-e-outro-por-abusar-da-filha-adolescente-de-12-anos/</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>2022-11-28T11:56:40</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Captação de água em Rio Branco é reduzida em 40% após acúmulo de balseiros no flutuante da Estação de Tratamento de Água</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/geral/captacao-de-agua-em-rio-branco-e-reduzida-em-40-apos-acumulo-de-balseiros-no-flutuante-da-estacao-de-tratamento-de-agua/attachment/captacao-de-agua-em-rio-branco-e-reduzida-em-40-apos-acumulo-de-balseiros-no-flutuante-da-eta-i/" rel="attachment wp-att-292658"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292658" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Captacao-de-agua-em-Rio-Branco-e-reduzida-em-40-apos-acumulo-de-balseiros-no-flutuante-da-ETA-I.gif" alt="" width="1008" height="756" /&gt;&lt;/a&gt;&lt;/p&gt;
 &lt;p style="text-align: center;"&gt;&lt;strong&gt;O Rio Acre registrou, neste domingo (27), uma subida repentina saindo de 2,14 metros para 5,90 metros &amp;#8211;  Foto: Asscom / Prefeitura de Rio Branco&lt;/strong&gt;&lt;/p&gt;
@@ -2753,24 +2781,24 @@
 </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/geral/captacao-de-agua-em-rio-branco-e-reduzida-em-40-apos-acumulo-de-balseiros-no-flutuante-da-estacao-de-tratamento-de-agua/</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>2022-11-28T11:51:43</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Ciopaer é acionado para resgatar mãe de gêmeos recém-nascidos após parto no seringal Poronga, às margens do rio Iaco na floresta</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div id="chunk-e2b44"&gt;
 &lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="65" data-block-id="3"&gt;
@@ -2802,55 +2830,52 @@
 </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://3dejulhonoticias.com.br/geral/ciopaer-e-acionado-para-resgatar-mae-de-gemeos-recem-nascidos-apos-parto-no-seringal-poronga-as-margens-do-rio-iaco-na-floresta/</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2022-11-28T11:44:40</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Com aumento de mortes violentas devido à guerra de facções, Secretaria de Justiça e Segurança Pública instala gabinete de crise</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/policia/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-secretaria-de-justica-e-seguranca-publica-instala-gabinete-de-crise/attachment/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-seguranca-instala-gabinete-de-crise-no-acre/" rel="attachment wp-att-292648"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292648" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-Seguranca-instala-gabinete-de-crise-no-Acre.gif" alt="" width="1000" height="925" /&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p style="text-align: center;"&gt;&lt;strong&gt;Noite violenta em Rio Branco tem execuções, tentativa de homicídio e carro incendiado &amp;#8211; Foto: Iryá Rodrigues&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Após uma noite violenta no sábado (26), a Secretaria de Justiça e Segurança Pública do Acre informou que instalou um gabinete de crise para acompanhar concentrar e desenvolver melhor os casos no estado. Entre as ocorrências de sábado, teve execuções, tentativas de homicídio e um carro incendiando na Baixada da Sobral. A Segurança Pública confirmou, na sexta-feira (25) que o estado acreano voltava a sofrer com ondas de violência devido à guerra de facções.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;#8220;Da análise sobre as últimas ocorrências de crimes violentos intencionais, foi possível extrair que eles ocorrem em razão do enfrentamento entre organizações criminosas, enquanto que outros exigem das Forças de Segurança um aprofundamento maior para uma conclusão efetiva sobre do que se tratam&amp;#8221;, destaca a nota, assinada pela PM, Polícia Civil e Militar.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;A nota diz que foram analisadas as ocorrências, juntamente com o setor de inteligência das polícias e o gabinete deve reunir melhor essas informações e traçar o que deve ser feito. &amp;#8220;Com o apoio da Sejusp, estará fortalecendo o policiamento ostensivo nos bairros onde foram identificadas as maiores possibilidades de violência contra a vida. Como resultado da reunião foi também instituído um Gabinete de Crise para acompanhar, em tempo real, todos os fatos, e adotar providências por meio de recursos humanos e logísticos necessários para conter esses episódios de violência que assola o estado, neste momento&amp;#8221;, destaca o documento assinado por Luciano Fonseca, comandante-geral da PM-AC; Henrique Maciel, diretor-geral da Polícia Civil; e Paulo Cézar Rocha dos Santos, secretário de Justiça e Segurança Pública.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Kennedy Rafael dos Santos, de 19 anos, foi morto a tiros. Populares informaram à polícia que a vítima estava de moto, quando foi &amp;#8220;fechada&amp;#8221; por um carro preto, ouviram cerca de 5 disparos e viram duas pessoas correndo para esse carro preto e saindo rapidamente do local. Uma moradora que se encontrava em frente onde ocorreu o homicídio foi atingida de raspão na região do quadril. Ela foi atendida pelo Samu e encaminhada ao Pronto-Socorro e o quadro é estável.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Outra execução foi registrada no bairro do Amapá, em Rio Branco. Um homem foi morto a tiros dentro de uma casa no Ramal do Pica-Pau. Ele foi identificado como Elismar de Souza Cunha, de 33 anos, mais conhecido como &amp;#8220;Mazinho&amp;#8221;.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Segundo a Polícia Militar, populares informaram que cinco pessoas fortemente armadas e trajando coletes balísticos estavam em um carro Hyundai de cor prata, com marcas de tiros na lataria.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Os criminosos entraram na casa, onde estavam três pessoas, entre elas Mazinho. Um dos homens fugiu pela mata, ficando apenas a vítima e o dono da casa. Os autores chegaram gritando que seriam policiais e Mazinho foi obrigado a deitar e foi morto com oito tiros. Segundo a polícia, a vítima havia chegado na casa na manhã de sexta-feira (25), onde passaria uns dias. &lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/28/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-seguranca-instala-gabinete-de-crise-no-acre.ghtml"&gt;Veja mais no G1 Acre&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://3dejulhonoticias.com.br/policia/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-secretaria-de-justica-e-seguranca-publica-instala-gabinete-de-crise/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>2022-11-29T23:38:10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tragédia: Padrasto boliviano corta pescoço de criança acreana por vingança</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Uma criança de nacionalidade brasileira, de 12 anos, identificado pelas iniciais A.C.S, foi vítima de tentativa de homicídio pelo próprio padrasto, na madrugada de segunda-feira, 28, na Comunidade de Natureba, região do município de Bolpedra, na divisa entre Peru e Bolívia.&lt;/p&gt;
+&lt;p&gt;Segundo informações repassadas, o padrasto com nacionalidade boliviana, identificado por Manoel Messias Hurtado, de 33 anos, vivia com a mãe do menor, e na madrugada tiveram um discussão, onde a mãe do garoto foi retirada da residência com ajuda de conhecidos, sendo levada para um hotel da cidade. Revoltado, o homem se vingou na criança, cortando a garganta do menor e em seguida tentou contra a própria vida, cortando também seu pescoço.&lt;/p&gt;
+&lt;div class="tiled-gallery type-square tiled-gallery-unresized" data-original-width="696" data-carousel-extra='{&amp;quot;blog_id&amp;quot;:1,&amp;quot;permalink&amp;quot;:&amp;quot;https:\/\/ecosdanoticia.net.br\/2022\/11\/tragedia-padrasto-boliviano-corta-pescoco-de-crianca-acreana-por-vinganca\/&amp;quot;,&amp;quot;likes_blog_id&amp;quot;:119566796}' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 696px; height: 348px;" data-original-width="696" data-original-height="348" &gt; &lt;div class="gallery-group" style="width: 348px; height: 348px;" data-original-width="348" data-original-height="348" &gt; &lt;div class="tiled-gallery-item " itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://ecosdanoticia.net.br/2022/11/tragedia-padrasto-boliviano-corta-pescoco-de-crianca-acreana-por-vinganca/1-41/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="344"&gt; &lt;meta itemprop="height" content="344"&gt; &lt;img data-attachment-id="347512" data-orig-file="https://ecosdanoticia.net.br/wp-content/uploads/2022/11/1-3.jpg" data-orig-size="1170,616" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1" data-image-description="" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/1-3.jpg?fit=300%2C158&amp;#038;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/1-3.jpg?fit=696%2C366&amp;#038;ssl=1" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/1-3.jpg?w=344&amp;#038;h=344&amp;#038;crop=1&amp;#038;ssl=1" width="344" height="344" data-original-width="344" data-original-height="344" itemprop="http://schema.org/image" title="1" alt="1" style="width: 344px; height: 344px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;div class="gallery-group" style="width: 348px; height: 348px;" data-original-width="348" data-original-height="348" &gt; &lt;div class="tiled-gallery-item " itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://ecosdanoticia.net.br/2022/11/tragedia-padrasto-boliviano-corta-pescoco-de-crianca-acreana-por-vinganca/2-29/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="344"&gt; &lt;meta itemprop="height" content="344"&gt; &lt;img data-attachment-id="347513" data-orig-file="https://ecosdanoticia.net.br/wp-content/uploads/2022/11/2-4.jpg" data-orig-size="1126,1600" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="2" data-image-description="" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/2-4.jpg?fit=211%2C300&amp;#038;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/2-4.jpg?fit=696%2C988&amp;#038;ssl=1" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/11/2-4.jpg?w=344&amp;#038;h=344&amp;#038;crop=1&amp;#038;ssl=1" width="344" height="344" data-original-width="344" data-original-height="344" itemprop="http://schema.org/image" title="2" alt="2" style="width: 344px; height: 344px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Populares chegaram e encontraram o homem e a criança feridos. Imediatamente, ambos foram levados para o Hospital Roberto Galindo, localizado em Cobija. Um médico brasileiro, Yhago Frota, atendeu os dois feridos, e em seguida, encaminhou a criança para o Hospital Regional do Alto Acre, em Brasiléia, transferido para Rio Branco devido o caso ser grave.&lt;/p&gt;
+&lt;p&gt;Já o padrasto continuou internado na Bolívia, e seu quadro de saúde também é considerado grave. A Polícia boliviana e peruana acompanham o caso, já que o crime ocorreu na divisa entre os dois países.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/11/tragedia-padrasto-boliviano-corta-pescoco-de-crianca-acreana-por-vinganca/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>2022-11-29T21:50:07</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Urgente: Homem é morto a tiros e tem corpo desovado em matagal no Quinari</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O corpo de um homem de aproximadamente 36 anos foi encontrado possivelmente com marcas de tiros em um matagal, na noite desta terça-feira, 29, na Travessa Piracema, bairro Democracia, conhecido como &amp;#8220;Mutirão&amp;#8221;, localizado no município de Senador Guiomard, no inteiro do Acre.&lt;/p&gt;
 &lt;p&gt;Segundo a polícia, a vítima foi identificada por Francisco Martins do Nascimento, conhecido como &amp;#8220;Doca&amp;#8221; e foi encontrado por populares, que acionaram a corporação. A vítima possuía várias perfurações no corpo, possivelmente feitas por arma de fogo.&lt;/p&gt;
@@ -2864,24 +2889,24 @@
 </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/urgente-homem-e-morto-a-tiros-e-tem-corpo-desovado-em-matagal-no-quinari/</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>2022-11-29T20:36:38</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Após aparecer em jogo da seleção, Eduardo Bolsonaro diz que foi ao Catar entregar pen drive sobre &amp;#8216;situação do Brasil&amp;#8217;</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Após aparecer nas arquibancadas durante o jogo da seleção brasileira contra a seleção da Suíça, nesta segunda-feira (28), o deputado Eduardo Bolsonaro (PL-SP) disse que foi ao Catar entregar pen drives sobre a &amp;#8220;situação do Brasil&amp;#8221;.&lt;/p&gt;
 &lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
@@ -2896,24 +2921,24 @@
 </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/apos-aparecer-em-jogo-da-selecao-eduardo-bolsonaro-diz-que-foi-ao-catar-entregar-pen-drive-sobre-situacao-do-brasil/</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>2022-11-29T20:22:54</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Com superlotação, Educandário Santa Margarida faz bazar solidário para arcar com despesas de crianças</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com 53 crianças instaladas no abrigo, a direção do Educandário Santa Margarida, em Rio Branco, começou nesta terça-feira (29) um bazar solidário de móveis e eletrodomésticos para ajudar nas despesas das crianças.&lt;/p&gt;
 &lt;p&gt;Os produtos estão disponíveis para venda das 8h às 17h na Rua Boa Vista, 820, bairro Vitória, próximo ao 3º Batalhão da Polícia Militar da capital acreana. Os preços são acima de R$ 150.&lt;/p&gt;
@@ -2926,24 +2951,24 @@
 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/com-superlotacao-educandario-santa-margarida-faz-bazar-solidario-para-arcar-com-despesas-de-criancas/</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>2022-11-29T20:18:01</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Uso de máscara volta a ser obrigatório nas dependências do TRE no Acre</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com o aumento de casos de Covid-19 no Acre, o Tribunal Regional Eleitoral (TRE-AC) voltou a exigir o uso de máscara dentro das dependências do órgão do estado. Por meio de portaria, que entrou em vigor nessa segunda-feira (28), a exigência é válida para todos que frequentem qualquer instalação do TRE-AC e os cartórios eleitorais.&lt;/p&gt;
 &lt;p&gt;O órgão eleitoral destacou também que os protocolos sanitários vigentes devem ser seguidos para evitar a proliferação da Covid-19 no estado. Os cuidados com a higienização das mãos e o distanciamento social também devem ser mantidos.&lt;/p&gt;
@@ -2956,24 +2981,24 @@
 </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/uso-de-mascara-volta-a-ser-obrigatorio-nas-dependencias-do-tre-no-acre/</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>2022-11-29T20:11:02</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Justiça penhora bens de vereador de Tarauacá por não quitar multa de R$ 22 mil por desmatamento ilegal em Tarauacá</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O juiz Cláudio Gabriel de Paula Saide, da Vara Federal Cível e Criminal da SSJ de Cruzeiro do Sul-AC, resolveu deferir o processo do Instituto Brasileiro do Meio Ambiente e dos Recursos Naturais Renováveis &amp;#8211; IBAMA e resolveu penhorar bens materiais de Valdozinho Vieira do O, conhecido por Valdo do O, vereador no município de Tarauacá pelo PSDB.&lt;/p&gt;
 &lt;p&gt;De acordo com os autos do processo, Valdo é acusado por suposto crime ambiental, consistente em &amp;#8220;desmatar sem autorização 4,5 ha de mata primária, entre os anos de 2004/2005&amp;#8221; &amp;#8211; na Zona Rural de Tarauacá, no interior do Acre.&lt;/p&gt;
@@ -2983,24 +3008,24 @@
 </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/justica-penhora-bens-de-vereador-de-tarauaca-por-nao-quitar-multa-de-r-22-mil-por-desmatamento-ilegal-em-tarauaca/</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>2022-11-29T19:49:04</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Bebê é morto a facadas após o parto, e mãe é presa suspeita de infanticídio em SC</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Uma mulher de 19 anos foi presa em flagrante suspeita de matar o próprio filho a facadas logo após o parto em Tubarão, no Sul catarinense, na segunda-feira (28). Segundo a Polícia Civil, a suspeita deve ser ouvida oficialmente nesta terça-feira (29), após receber alta do hospital onde está internada.&lt;/p&gt;
 &lt;p&gt;De acordo com a delegada Vivian Selig, da Delegacia de Proteção à Criança, Adolescente, Mulher e Idoso (DPCami), a suspeita deu à luz sozinha em casa. Em seguida, ao perceber que sofria hemorragia, chamou um familiar e foi levada com filho para atendimento hospitalar.&lt;/p&gt;
@@ -3011,24 +3036,24 @@
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/bebe-e-morto-a-facadas-apos-o-parto-e-mae-e-presa-suspeita-de-infanticidio-em-sc/</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>2022-11-29T19:39:05</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Cientistas desenvolvem vacina solúvel que previne a infecção urinária</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Pesquisadores da Universidade Duke, nos Estados Unidos, elaboraram uma vacina que combate a infecção urinária. O imunizante é um comprimido sublingual e solúvel, e está na fase de testes em animais. Os primeiros resultados foram publicados na revista Science Advances no dia 23/11.&lt;/p&gt;
 &lt;p&gt;A proposta da vacina foi desenvolvida com a finalidade de reduzir o uso de antibióticos, que são o tratamento padrão para a condição. A nova fórmula expõe o sistema imunológico a moléculas encontradas nas bactérias que causam infecção urinária e, assim, criam uma defesa contra a doença.&lt;/p&gt;
@@ -3039,24 +3064,24 @@
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/cientistas-desenvolvem-vacina-soluvel-que-previne-a-infeccao-urinaria/</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>2022-11-29T19:03:25</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Menino de 9 anos é internado em UTI do Hospital da Criança do Acre com suspeita de meningite bacteriana</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Um menino de 9 anos está internado na Unidade de Terapia Intensiva (UTI) do Hospital da Criança com suspeita de meningite bacteriana. A criança deu entrada no Hospital de Urgência e Emergência de Rio Branco (Huerb) no último sábado (26), fez o exame e o resultado foi liquor sugestivo de meningite bacteriana.&lt;/p&gt;
 &lt;p&gt;A informação foi divulgada pela coordenação Área Técnica das Meningites do estado nesta terça-feira (29).&lt;/p&gt;
@@ -3077,24 +3102,24 @@
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/menino-de-9-anos-e-internado-em-uti-do-hospital-da-crianca-do-acre-com-suspeita-de-meningite-bacteriana/</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>2022-11-29T18:41:26</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>No Taquari, Polícia Civil prende homem em flagrante por integrar organização criminosa</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Na manhã desta terça-feira, a Polícia Civil do Acre por meio da Delegacia de Repressão ao Narcotráfico (DENARC) e Delegacia de Homicídios e Proteção a Pessoa(DHPP) prenderam, em flagrante, J. F. B. M. de 27 anos, por integrar organização criminosa.&lt;/p&gt;
 &lt;p&gt;A prisão do investigado se deu em cumprimento de mandado de busca e apreensão na região do bairro Taquarí em Rio Branco.&lt;/p&gt;
@@ -3104,75 +3129,1492 @@
 </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>https://ecosdanoticia.net.br/2022/11/no-taquari-policia-civil-prende-homem-em-flagrante-por-integrar-organizacao-criminosa/</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2022-11-29T18:08:08</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Internautas se rendem ao futebol da Inglaterra, e brasileiros demonstram preocupação</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Após a Inglaterra marcar seu terceiro gol na vitória por 3 a 0 contra o País de Gales, pelo grupo B da Copa do Mundo 2022, a web foi tomada por postagens se rendendo ao futebol dos ingleses, que se classificaram para as oitavas de final em primeiro lugar na sua chave. Alguns brasileiros, inclusive, demonstraram preocupação com a possibilidade do time do artilheiro Rashford cruzar o caminho do Brasil.&lt;/p&gt;
-&lt;p&gt;Caso a seleção brasileira termine a primeira fase como líder do grupo G (basta um empate contra Camarões, na próxima sexta-feira, para isso se confirmar), o confronto contra a Inglaterra se torna uma das possibilidades de final da Copa do Mundo do Catar.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Confira abaixo algumas reações na web sobre a vitória da Inglaterra por 3 a 0 contra o País de Gales e a classificação inglesa para as oitavas de final:&lt;/strong&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;Tô com muito medo da seleção da Inglaterra&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Carol 🙂 (@C_aarols) &lt;a href="https://twitter.com/C_aarols/status/1597695074703650816?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-11-29T18:39:49</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Criança de 9 anos dá entrada no PS de Rio Branco com suspeita de meningite; Sesacre monitora caso</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="intro-text"&gt;
+&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informou nesta terça-feira, 29, que uma criança de 9 anos, do sexo masculino, deu entrada no sábado, 26, no Pronto-Socorro de Rio Branco, com suspeita de meningite. A notificação foi registrada pelo Núcleo de Vigilância Hospitalar da unidade.&lt;/p&gt;
+&lt;/div&gt;
+&lt;p&gt;O líquor (fluido corporal estéril e de aparência clara que ocupa o espaço subaracnóideo no cérebro) do paciente é sugestivo de meningite bacteriana, aguardando o resultado de cultura que será realizada pelo Laboratório Central de Saúde Pública do Acre, o Lacen.&lt;/p&gt;
+&lt;p&gt;Pela gravidade do caso, o paciente foi transferido para a unidade de terapia intensiva (UTI) do Hospital da Criança.&lt;/p&gt;
+&lt;p&gt;No sábado, 26, e domingo, 27, já foi realizada a quimioprofilaxia dos contatos domiciliares.&lt;/p&gt;
+&lt;p&gt;Na segunda-feira, 28, foi feito o contato com a direção da escola para o levantamento dos contatos escolares mais próximos do caso, os quais também receberam a quimioprofilaxia.&lt;/p&gt;
+&lt;p&gt;O caso está em monitoramento, sendo que a vigilância epidemiológica está sendo realizada pelo município de Rio Branco.&lt;/p&gt;
+&lt;p&gt;As informações foram repassadas em nota, assinada pela enfermeira Helena Catão, responsável pela área técnica da Sesacre.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/crianca-de-9-anos-da-entrada-no-ps-de-rio-branco-com-suspeita-de-meningite-sesacre-monitora-caso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-11-29T16:46:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Acre registra 43 casos de covid-19 nesta terça-feira</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;De acordo com o boletim da Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), o Acre registrou 43 novos casos de covid-19, nesta terça-feira, 29. O número de infectados notificados é de 153.730 em todo o estado.&lt;/p&gt;
+&lt;p&gt;Até o momento, o Acre registra 360.512 notificações de contaminação pela doença, sendo que 206.767 casos foram descartados e 15 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen).&lt;/p&gt;
+&lt;p&gt;Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até a última atualização deste boletim.&lt;/p&gt;
+&lt;p&gt;Novos óbitos por consequência da doença não foram registrados, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/acre-registra-43-casos-de-covid-19-nesta-terca-feira/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-11-29T16:29:37</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Dos três senadores acreanos, dois são favoráveis à PEC da Transição que mantém Bolsa Família de R$ 600</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com 29 assinaturas, os aliados do presidente eleito, Luiz Inácio Lula da Silva (PT), no Senado, conseguiram, na manhã desta terça-feira, 29, dar início à análise da Proposta de Emenda à Constituição (PEC) da Transição. Entre outros pontos, o texto viabiliza o pagamento de R$ 600 de Bolsa Família (atual Auxílio Brasil), a partir de janeiro.&lt;/p&gt;
+&lt;p&gt;Entre os três senadores acreanos, dois foram favoráveis à PEC da Transição: Sérgio Petecão (PSD-AC) e a vice-governadora eleita, senadora Mailza Gomes (PP-AC). Apenas Eduardo Velloso (União Brasil) não assinou o documento.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Dignidade às pessoas. Assinei hoje a PEC que assegura a continuidade do pagamento de R$ 600 às famílias em situação de pobreza e que possuam filhos de até 6 anos de idade. A proposta permitirá a preservação de programas fundamentais, visando o bem-estar das pessoas&amp;#8221;, disse Petecão, por meio de suas redes sociais.&lt;/p&gt;
+&lt;div id="chunk-cdue5"&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;Dignidade às pessoas. Assinei hoje a PEC que assegura a continuidade do pagamento de R$ 600 às famílias em situação de pobreza e que possuam filhos de até 6 anos de idade. A proposta permitirá a preservação de programas fundamentais visando o bem-estar das pessoas. &lt;a href="https://twitter.com/hashtag/PEC?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#PEC&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/Acre?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#Acre&lt;/a&gt; &lt;a href="https://t.co/xY5KD9RcYH" target="_blank"&gt;pic.twitter.com/xY5KD9RcYH&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Petecão (@senadorpetecao) &lt;a href="https://twitter.com/senadorpetecao/status/1597665212681052162?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
 &lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="es" dir="ltr"&gt;Inglaterra, campeón mundial&lt;br /&gt;Qatar 2022&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Una gatita🐈‍⬛ que le gusta el mambo🎵 (@MissXMiau) &lt;a href="https://twitter.com/MissXMiau/status/1597695066730266624?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;Alguém elimina essa Inglaterra pfvr&lt;/p&gt;
-&lt;p&gt;&amp;mdash; hexa ✨🇧🇷 (@B0ladinhaa) &lt;a href="https://twitter.com/B0ladinhaa/status/1597694962753490944?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;Alguém Barra a Seleção da Inglaterra? &lt;a href="https://twitter.com/hashtag/Medooo?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Medooo&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/CopaMundialFIFA?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#CopaMundialFIFA&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/Inglaterra?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#Inglaterra&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&amp;mdash; ÁGUIA 🙏🌻🌵🕊🇧🇷HEXA (@neydeadm) &lt;a href="https://twitter.com/neydeadm/status/1597694857971380224?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="es" dir="ltr"&gt;Esta Inglaterra 🏴󠁧󠁢󠁥󠁮󠁧󠁿, si que impone!!!&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Alda Shelbyrduzko 🚬 (@AldaVerduzko) &lt;a href="https://twitter.com/AldaVerduzko/status/1597694865126481921?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="es" dir="ltr"&gt;Inglaterra será un hueso duro de roer en 8tavos&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Edward Suarez  (@EjesusSD) &lt;a href="https://twitter.com/EjesusSD/status/1597694175067402240?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="es" dir="ltr"&gt;Inglaterra va como avión, sigan así amiguitos jdkdkdkd van a ganar el Mundial🫶🏼 Inglaterra va a ser número 1&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Lizzy #LHNLZ (@LizzylvsOneD) &lt;a href="https://twitter.com/LizzylvsOneD/status/1597694213269098497?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;a inglaterra quer massacrar&lt;/p&gt;
-&lt;p&gt;&amp;mdash; mundinho richarlison br (@valney) &lt;a href="https://twitter.com/valney/status/1597694504382914560?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;Inglaterra vai dá trabalho na copa.&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Vinicius (@marcosv72849260) &lt;a href="https://twitter.com/marcosv72849260/status/1597694562142949377?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="es" dir="ltr"&gt;Va a ser el mundial de Inglaterra q lo sepáis después de la mala experiencia de la final de la euro..&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Joaquín  Ripoll (@RipollRipoll) &lt;a href="https://twitter.com/RipollRipoll/status/1597694889290272768?ref_src=twsrc%5Etfw"&gt;November 29, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Para uma PEC começar a tramitar no Senado, são necessárias as assinaturas de, pelo menos, um terço da composição da Casa, ou seja, de 27 dos 81 senadores.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-a78o4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="51" data-block-id="6"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A análise da proposta começará pela Comissão de Constituição e Justiça (CCJ) do Senado. Em seguida, o texto terá de passar pelo plenário principal da Casa, onde, para ser aprovado, terá de receber o apoio de, pelo menos, 49 senadores, em dois turnos de votação. Depois disso, seguirá para a Câmara.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;A reportagem tentou ouvir o senador em exercício, Eduardo Velloso, mas, até a atualização desta matéria, não teve retorno.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/politica/dos-tres-senadores-acreanos-dois-sao-favoraveis-a-pec-da-transicao-que-mantem-bolsa-familia-de-r-600/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:54:26</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Trabalhos do GT do Meio Ambiente de transição do governo Lula são coordenados por Jorge Viana</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A experiência do ex-senador Jorge Viana tem sido de grande valia, no grupo de transição da área de Meio Ambiente, do governo Lula. Jorge foi escolhido para coordenar o grupo de trabalho.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Hoje é dia de ouvir entidades da sociedade civil, aqui no trabalho da transição de governo do presidente Lula e Geraldo Alckmin. É um privilégio, para mim, ser o coordenador do trabalho da equipe do Meio Ambiente. Estamos organizando sugestões para os primeiros 100 dias de governo&amp;#8221;, destacou Jorge, em suas redes sociais.&lt;/p&gt;
+&lt;p&gt;No mesmo grupo, também participam os ex-ministros do Meio Ambiente: deputada federal eleita, Marina Silva (Rede-SP), Izabella Teixeira e Carlos Minc. &amp;#8220;O grupo é qualificadíssimo&amp;#8221;, frisou o petista.&lt;/p&gt;
+&lt;p&gt;Além de Jorge e Marina, outros três acreanos também integram a equipe de transição do governo Lula, em diferentes grupos de trabalho: deputado Leo de Brito (PT-AC), ex-governador Binho Marques (PT-AC) e Shirley Torres (PV-AC).&lt;/p&gt;
+&lt;blockquote class="instagram-media" data-instgrm-captioned data-instgrm-permalink="https://www.instagram.com/p/CljLVT4OgAN/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14" style=" background:#FFF; border:0; border-radius:3px; box-shadow:0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width:500px; min-width:326px; padding:0; width:99.375%; width:-webkit-calc(100% - 2px); width:calc(100% - 2px);"&gt;
+&lt;div style="padding:16px;"&gt; &lt;a href="https://www.instagram.com/p/CljLVT4OgAN/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" background:#FFFFFF; line-height:0; padding:0 0; text-align:center; text-decoration:none; width:100%;" target="_blank" rel="noopener"&gt; &lt;/p&gt;
+&lt;div style=" display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display:block; height:50px; margin:0 auto 12px; width:50px;"&gt;&lt;svg width="50px" height="50px" viewBox="0 0 60 60" version="1.1" xmlns="https://www.w3.org/2000/svg" xmlns:xlink="https://www.w3.org/1999/xlink"&gt;&lt;g stroke="none" stroke-width="1" fill="none" fill-rule="evenodd"&gt;&lt;g transform="translate(-511.000000, -20.000000)" fill="#000000"&gt;&lt;g&gt;&lt;path d="M556.869,30.41 C554.814,30.41 553.148,32.076 553.148,34.131 C553.148,36.186 554.814,37.852 556.869,37.852 C558.924,37.852 560.59,36.186 560.59,34.131 C560.59,32.076 558.924,30.41 556.869,30.41 M541,60.657 C535.114,60.657 530.342,55.887 530.342,50 C530.342,44.114 535.114,39.342 541,39.342 C546.887,39.342 551.658,44.114 551.658,50 C551.658,55.887 546.887,60.657 541,60.657 M541,33.886 C532.1,33.886 524.886,41.1 524.886,50 C524.886,58.899 532.1,66.113 541,66.113 C549.9,66.113 557.115,58.899 557.115,50 C557.115,41.1 549.9,33.886 541,33.886 M565.378,62.101 C565.244,65.022 564.756,66.606 564.346,67.663 C563.803,69.06 563.154,70.057 562.106,71.106 C561.058,72.155 560.06,72.803 558.662,73.347 C557.607,73.757 556.021,74.244 553.102,74.378 C549.944,74.521 548.997,74.552 541,74.552 C533.003,74.552 532.056,74.521 528.898,74.378 C525.979,74.244 524.393,73.757 523.338,73.347 C521.94,72.803 520.942,72.155 519.894,71.106 C518.846,70.057 518.197,69.06 517.654,67.663 C517.244,66.606 516.755,65.022 516.623,62.101 C516.479,58.943 516.448,57.996 516.448,50 C516.448,42.003 516.479,41.056 516.623,37.899 C516.755,34.978 517.244,33.391 517.654,32.338 C518.197,30.938 518.846,29.942 519.894,28.894 C520.942,27.846 521.94,27.196 523.338,26.654 C524.393,26.244 525.979,25.756 528.898,25.623 C532.057,25.479 533.004,25.448 541,25.448 C548.997,25.448 549.943,25.479 553.102,25.623 C556.021,25.756 557.607,26.244 558.662,26.654 C560.06,27.196 561.058,27.846 562.106,28.894 C563.154,29.942 563.803,30.938 564.346,32.338 C564.756,33.391 565.244,34.978 565.378,37.899 C565.522,41.056 565.552,42.003 565.552,50 C565.552,57.996 565.522,58.943 565.378,62.101 M570.82,37.631 C570.674,34.438 570.167,32.258 569.425,30.349 C568.659,28.377 567.633,26.702 565.965,25.035 C564.297,23.368 562.623,22.342 560.652,21.575 C558.743,20.834 556.562,20.326 553.369,20.18 C550.169,20.033 549.148,20 541,20 C532.853,20 531.831,20.033 528.631,20.18 C525.438,20.326 523.257,20.834 521.349,21.575 C519.376,22.342 517.703,23.368 516.035,25.035 C514.368,26.702 513.342,28.377 512.574,30.349 C511.834,32.258 511.326,34.438 511.181,37.631 C511.035,40.831 511,41.851 511,50 C511,58.147 511.035,59.17 511.181,62.369 C511.326,65.562 511.834,67.743 512.574,69.651 C513.342,71.625 514.368,73.296 516.035,74.965 C517.703,76.634 519.376,77.658 521.349,78.425 C523.257,79.167 525.438,79.673 528.631,79.82 C531.831,79.965 532.853,80.001 541,80.001 C549.148,80.001 550.169,79.965 553.369,79.82 C556.562,79.673 558.743,79.167 560.652,78.425 C562.623,77.658 564.297,76.634 565.965,74.965 C567.633,73.296 568.659,71.625 569.425,69.651 C570.167,67.743 570.674,65.562 570.82,62.369 C570.966,59.17 571,58.147 571,50 C571,41.851 570.966,40.831 570.82,37.631"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/g&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style=" color:#3897f0; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:550; line-height:18px;"&gt;View this post on Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg)"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style=" width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; line-height:17px; margin-bottom:0; margin-top:8px; overflow:hidden; padding:8px 0 7px; text-align:center; text-overflow:ellipsis; white-space:nowrap;"&gt;&lt;a href="https://www.instagram.com/p/CljLVT4OgAN/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:normal; line-height:17px; text-decoration:none;" target="_blank" rel="noopener"&gt;A post shared by Jorge Viana (@jorgevianaacre)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//platform.instagram.com/en_US/embeds.js"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/politica/trabalhos-do-gt-do-meio-ambiente-de-transicao-do-governo-lula-sao-coordenados-por-jorge-viana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:51:26</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Após audiência pública, prefeitura faz reunião para debater situação de lojistas do Aquiri Shopping</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Após a&lt;a href="https://agazetadoacre.com/2022/11/noticias/apos-empresa-assumir-direcao-lojistas-questionam-valor-de-aluguel-do-shopping-aquiri-em-audiencia-publica-na-camara/"&gt; audiência pública realizada na semana passada,&lt;/a&gt; na Câmara de Vereadores de Rio Branco, uma reunião com representantes da gestão municipal debateu medidas para encontrar uma solução para ajudar os lojistas do Aquiri Shopping, que reclamam dos preços dos alugueis, após a gestão do local passar para a administração privada.&lt;/p&gt;
+&lt;p&gt;O empreendimento de comércio popular passou a ser administrado por uma empresa de Minas Gerais. Com isso, foi repassada a responsabilidade de cuidar do local ao setor privado, isso após dois anos da Lei ser sancionada pelo Executivo. Os lojistas reclamam que deixaram de ser concessionários para serem locatários.&lt;/p&gt;
+&lt;p&gt;Por isso, após o debate na câmara, a gestão do município tem debatido para encontrar uma forma de garantir os direitos dos lojistas, para que não percam nada durante essa transição.&lt;/p&gt;
+&lt;p&gt;“A partir daqui, começamos a trabalhar uma saída para poder resolver a questão, que envolve o art 17, da lei complementar 92, buscando, com isso, garantir que os direitos permaneçam, nessa transição de gestão. Então, vamos começar a trabalhar naquilo que é determinação do prefeito Tião Bocalom, de garantir o direito dos lojistas”, disse o chefe do Gabinete Militar, cel Ezequiel Bino.&lt;/p&gt;
+&lt;p&gt;A empresa ganhou o processo licitatório, recentemente, e assinou a documentação de transição com a Prefeitura de Rio Branco, no início deste mês. A implantação da nova gestão deve ser concluída, no mês de dezembro.&lt;/p&gt;
+&lt;p&gt;A lei que terceiriza a administração foi sancionada pela ex-prefeita de Rio Branco, Socorro Neri. Antes da sanção, o Projeto de Lei chegou a ser retirado de pauta na Câmara de vereadores, a pedido dos camelôs, que queriam ser ouvidos e pediam alterações nesse PL.&lt;/p&gt;
+&lt;p&gt;O procurador-geral adjunto do município, James Antunes, disse que, quando uma lei não é bem esclarecida, faz-se necessária uma nova legislação.&lt;/p&gt;
+&lt;p&gt;“Quando a lei causa várias interpretações, ela deverá ser esclarecida. Geralmente, se esclarece quando se faz uma nova legislação”, pontuou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/apos-audiencia-publica-prefeitura-faz-reuniao-para-debater-situacao-de-lojistas-do-aquiri-shopping/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:43:19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Sambistas do Acre se reúnem no sábado para celebrar o Dia Nacional do Samba</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p dir="ltr"&gt;O gênero mais popular do Brasil tem um dia para chamar de seu. O samba, criado no País e difundido por todo o mundo através do Carnaval, é popularmente celebrado no dia 2 de dezembro. Para festejar a data, sambistas e compositores acreanos se reúnem no próximo sábado, 3, numa grande roda de samba na casa de eventos culturais Garage 69.&lt;/p&gt;
+&lt;p dir="ltr"&gt;O evento contará com tradicionais nomes do gênero no Acre como Brunno Damasceno e Anderson Liguth, e terá o protagonismo do samba feminino com a cantora Camile Castro e o grupo Moças do Samba, formado pelas artistas e pesquisadoras Sandra Buh, Carol Di Deus e Narjara Saab. A roda também contará com as participações especiais do compositor Edy Bastos e do premiado cantor Sérgio Souto.&lt;/p&gt;
+&lt;p dir="ltr"&gt;Segundo o produtor de eventos Jefferson Linhares, a ideia é proporcionar um encontro de gerações para celebrar o ritmo que dá alegria ao povo brasileiro. “Somos reconhecidos como o País do Samba, logo, uma data tão especial não poderia passar em branco. Esta será uma grande festa de amor à música popular e aos nossos músicos do estado”, enfatizou Linhares.&lt;/p&gt;
+&lt;p dir="ltr"&gt;Interessados podem comprar ingressos pelo site &lt;a href="http://sympla.com.br/" target="_blank" rel="noopener" data-saferedirecturl="https://www.google.com/url?q=http://sympla.com.br&amp;amp;source=gmail&amp;amp;ust=1669840408501000&amp;amp;usg=AOvVaw2dhiVkyVpuGMaKJJSVsdCi"&gt;sympla.com.br&lt;/a&gt; ou nos pontos de venda: Casa da Sogra do Centro, ISAO Gestão de Pessoas, Auto Posto Leblon, Coelhão Lanches, Pixel Steak Burger e na sala da CAAAC na OAB/AC. Mais informações também podem ser conferidas no perfil @garage69ac no Instagram ou pelo WhatsApp, 68 99928-2108.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://ecosdanoticia.net.br/2022/11/internautas-se-rendem-ao-futebol-da-inglaterra-e-brasileiros-demonstram-preocupacao/</t>
+&lt;p dir="ltr"&gt;
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/sambistas-do-acre-se-reunem-no-sabado-para-celebrar-o-dia-nacional-do-samba/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:34:43</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Neymar, Antony e Paquetá tiveram sintomas gripais ou virose, mas seleção dispensa teste de covid-19</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os &lt;b&gt;sintomas&lt;/b&gt; &lt;b&gt;gripais&lt;/b&gt; que ao menos três dos 26 atletas da &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-brasileira-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;seleção brasileira&lt;/b&gt;&lt;/a&gt; apresentaram na primeira semana na &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/copa-do-mundo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Copa do Mundo do Catar&lt;/b&gt;&lt;/a&gt; não foram suficientes para que eles eles passassem poro testes covid-19, segundo avaliação dos médicos que compõem a delegação em Doha. Por isso, a junta médica fez a avaliação de que Neymar, Antony e Lucas Paquetá não precisavam ser submetidos ao exames para a detecção da doença.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“Não passou nem perto essa questão de fazer teste de covid-19”, disse o coordenador da seleção brasileira, Juninho Paulista. Em recuperação de lesão ligamentar no tornozelo direito, Neymar teve febre no dia da partida do Brasil contra a Suíça, mas já está bem.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“O Neymar apresentou um episódio de febre que já está controlado. Isso não interfere no seu processo de recuperação do tornozelo”, limitou-se a dizer o médico da seleção, Rodrigo Lasmar., que ficou incumbido de se aprofundar sobre os quadros gripais dos atletas, mas não o fez.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O médico confirmou que tanto Neymar como Danilo estão fora do duelo com Camarões, o último da fase de grupos, sexta-feira, 2, no Estádio Lusail. Alex Sandro teve lesão muscular no quadril e também não enfrenta o rival africano.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os jogadores ficam em quartos individuais, mas fazem todas as atividades no hotel, como as refeições, juntos, além dos treinamentos no Grand Hamad Stadium. “Tivemos alguns casos de virose, como o Antony. Alguma coisa nesse sentido. Nada que pudesse influenciar na participação deles, tanto que o Antony entrou e entrou bem (na partida)”, afirmou o auxiliar César Sampaio.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O protocolo da Fifa não exige exame de covid-19 nem o uso de máscaras, acessório pouco visto em Doha. O governo do Catar também retirou desde o início do mês a obrigatoriedade de exames de covid para os torcedores, jornalistas e todos que fossem ao país árabe acompanhar a Copa do Mundo. Também não existe exigência de comprovantes de vacinação.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Na avaliação dos médicos do Brasil, os quadros de gripe são resultado do clima no Catar, seco e quente. A capital Doha apresenta altas temperaturas, mesmo no outono, e os atletas tiveram dificuldade na adaptação, uma vez que, antes de chegar ao país-sede da Copa do Mundo, passaram cinco dias treinando em Turim, na Itália, cujos termômetros marcaram temperaturas inferiores a 10ºC e umidade superior a 90%.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O choque térmico causado pela variação brusca de temperatura nos ambientes em Doha, com o frio do ar-condicionado em lugares fechados e o calor em locais abertos, também atrapalhou os atletas.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Na Itália, os membros da delegação disseram que não havia problema algum em treinar no frio de Turim nessa época do ano e depois seguir para Doha, com temperaturas opostas. Mas eles esperavam uma temperatura maior do que a que encontraram na cidade italiana e menor do que a que enfrentam na capital catariana, com mais de 30ºC durante o dia.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Nos estádios, a temperatura é menor, já que sete das oito arenas são climatizadas com um moderno sistema de ar refrigeração. O Brasil venceu a Sérvia no Lusail sob 23ºC. No Estádio 974, a temperatura estava em 26º no momento do jogo contra os suíços, um pouco mais alta porque a arena é a única sem o sistema de ar condicionado, alimentado por energia solar, pois ficar perto da praia e recebe a brisa do mar. Cabe lembrar que as duas partidas foram disputadas à noite. O primeiro compromisso começou às 22h e o segundo, às 19h, no horário local.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“O clima influencia do primeiro para o segundo tempo. Eles baixam muito o nível de intensidade, o jogo fica mais monótono”, avaliou Sampaio. “A saúde do atleta é fundamental para que ele possa ter um bom desempenho, ainda mais aqui, em um país diferente.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os casos não causam preocupação no departamento médico, que acompanha cada situação de perto e os trata como uma “indisposição”.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Em recuperação de lesão no tornozelo direito há cinco dias, Neymar sentiu uma indisposição na tarde desta segunda-feira, dia 28, quando, sem ele, a seleção brasileira derrotou a Suíça e garantiu vaga de forma antecipada às oitavas de final da Copa do Mundo. Vini Jr entregou que o camisa 10 teve febre. Neymar não esteve no estádio.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O caso de gripe não preocupa, garantiu a CBF. Neymar permaneceu no hotel para dar sequência ao tratamento da torção em seu tornozelo direito que o tirou da partida diante dos suíços e assistiu de lá à seleção vencer por 1 a 0. Antony perdeu dois treinamentos devido a um mal-estar e apresentou sintomas gripais, assim como Lucas Paquetá, que permaneceu no hotel no dia seguinte à vitória sobre a Sérvia.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;A comissão técnica não se preocupa porque tanto Paquetá quanto Antony treinaram posteriormente e participaram da partida contra a Suíça. O meio-campista foi titular e saiu no intervalo. O atacante entrou na etapa final. “Foi mais um enjoo, a garganta, ar condicionado, outros jogadores estavam assim. E é difícil eu ficar doente”, descreveu Antony sobre o resfriado que o acometeu.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Como a seleção já está classificada e joga por um empate diante de Camarões na última rodada da fase de grupos para confirmar a primeira colocação (o jogo será na sexta-feira, no Lusail), Tite vai preservar seus principais jogadores e escalar uma equipe alternativa. “Não vamos correr o risco de perder o jogador por não estar bem fisicamente ou por lesão”, reiterou Sampaio.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/copa-2022/neymar-antony-e-paqueta-tiveram-sintomas-gripais-ou-virose-mas-selecao-dispensa-teste-de-covid-19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:10:26</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>WhatsApp libera oficialmente mensagem para você mesmo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A partir desta segunda-feira (28), o WhatsApp começa a liberar uma atualização que permitirá ao usuário do app em celulares Android e iOS enviar mensagens para si mesmo.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;A novidade chegará a todos os usuários nas próximas semanas. Falar consigo mesmo será possível por meio de um contato registrado no seu nome. O recurso permite ainda transferir arquivos, por exemplo, da versão Web para o celular (e vice-versa).&lt;/p&gt;
+&lt;h2 class="article-sub-heading"&gt;Como enviar mensagem para você mesmo:&lt;/h2&gt;
+&lt;div class="article-list-slot"&gt;
+&lt;ul&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Abra o WhatsApp;&lt;/li&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Crie uma nova conversa;&lt;/li&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Você verá seu contato no topo da lista;&lt;/li&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Clique no seu nome/número e envie a mensagem&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/guia-gazeta-2/2o-guia-gazeta/whatsapp-libera-oficialmente-mensagem-para-voce-mesmo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:06:47</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>&amp;#8216;BBB 23&amp;#8217; tem o primeiro nome confirmado após fechar com cantor sertanejo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/boninho_p2574" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Boninho&lt;/a&gt; segue convocando famosos para o Camarote do &amp;#8220;&lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/bbb-23-big-brother-brasil-23_p554874" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;BBB 23&lt;/a&gt; &amp;#8221; que &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/bbb-23-globo-anuncia-mudancas-no-reality-show-data-de-estreia-e-valor-do-premio-detalhes_a359287/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;estreia apenas na segunda semana de janeiro&lt;/a&gt;. &lt;strong&gt;Depois de Rodolffo no &amp;#8220;BBB 21&lt;/strong&gt;&amp;#8221; e &lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/naiara-azevedo_p547716" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Naiara Azevedo&lt;/a&gt; no &amp;#8220;BBB 22&amp;#8221;, Boninho resolveu &lt;strong&gt;preencher a vaga&lt;/strong&gt; de sertanejo da edição com um cantor famoso. De acordo com Leo Dias, colunista do Metrópoles, não se &lt;strong&gt;trata de uma especulação e sim certeza.&lt;/strong&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O &lt;strong&gt;primeiro confirmado&lt;/strong&gt; para o Camarote do &amp;#8220;BBB 23&amp;#8221; após alguns &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/bbb-23-famosos-cotados-roberta-miranda-comenta-entrada-no-camarote-do-reality_a366149/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;famosos ficarem em evidência para o elenco&lt;/a&gt; do programa, &lt;strong&gt;incluindo a mãe de &lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/ludmilla_p3444" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Ludmilla&lt;/a&gt;&lt;/strong&gt;, que é um &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/bbb-23-mae-de-ludmilla-entra-na-mira-de-boninho-e-e-cotada-para-camarote-do-programa_a366983/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;nome dado como quase certo nos bastidores do programa&lt;/a&gt;, é Lucas Lucco.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Recém-separado &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/maira-cardi-reage-a-encontro-polemico-de-arthur-aguiar-com-ex-bbbs-apos-separacao_a362996/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;assim como o atual campeão do reality show&lt;/a&gt; global, &lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/lucas-lucco_p3210" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Lucas Lucco&lt;/a&gt; é pai de um menino. O nome de &lt;strong&gt;Lucas já havia sido ventilado para o ano passado&lt;/strong&gt;, porém a participação acabou não dando certo.&lt;/p&gt;
+&lt;h2 class="article-sub-heading"&gt;João Guilherme diz não para o &amp;#8216;BBB 23&amp;#8217; e explica o motivo&lt;/h2&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Filho do cantor &lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/leonardo_p2428" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Leonardo&lt;/a&gt;, que &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/leonardo-expoe-relacao-com-filho-joao-guilherme-apos-briga-na-familia-por-causa-de-politica_a366977/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;se pronunciou após polêmica política envolvendo o filho&lt;/a&gt;, &lt;a tabindex="0" href="https://www.purepeople.com.br/famosos/joao-guilherme-avila_p537462" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;João Guilherme&lt;/a&gt; comentou sobre os rumores de que &lt;strong&gt;estaria no elenco do Camarote do &amp;#8220;BBB 23&amp;#8221;&lt;/strong&gt;. O nome de João Guilherme foi anunciado &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/bbb-23-joao-guilherme-bruna-griphao-e-evelyn-bastos-sao-cotados-para-o-programa-da-globo_a363776/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;ao lado de uma ex-atriz mirim e uma rainha de bateria&lt;/a&gt;. Enquanto fazia sua &lt;strong&gt;estreia no SPFW,&lt;/strong&gt; o ator &lt;strong&gt;explicou melhor seus planos para o ano&lt;/strong&gt; que vem.&lt;/p&gt;
+&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Em entrevista ao TV Fama, o ator contou que não estará no programa e disse os motivos. &amp;#8220;Esse ano eu ainda acho que não. &lt;strong&gt;Estou trabalhando, gravando um novo projeto&lt;/strong&gt;, muito interessante, de série para esse fim de ano e fico até março do ano que vem gravando. Então, a agenda está lotada&amp;#8221;, declarou Além do ator, &lt;strong&gt;outra atriz da Globo&lt;/strong&gt; estaria sendo &lt;a tabindex="0" href="https://www.purepeople.com.br/noticia/bbb-23-ex-atriz-de-malhacao-encanta-boninho-e-garante-vaga-no-camarote-do-programa_a365942/1" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;cogitada como grande aposta de Boninho&lt;/a&gt; para o programa.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;João Guilherme também contou sobre sua estreia no SPFW e agradeceu pela oportunidade. &amp;#8220;&lt;strong&gt;Foi muito legal, é assim que eu defino.&lt;/strong&gt; Sendo sincero, não vemos muita coisa. Estamos &lt;strong&gt;desfilando&lt;/strong&gt;, não podemos olhar para o lado, então não dá para &lt;strong&gt;saber se as pessoas estão gostando&lt;/strong&gt;. Só ouvimos uma trilha &lt;strong&gt;maravilhosa&lt;/strong&gt;, que dá &lt;strong&gt;muita inspiração&lt;/strong&gt;, faz total diferença na hora que você está passeando, te dá uma inspiração mesmo. Começou um funk na hora em que &lt;strong&gt;eu estava voltando e achei ótimo&lt;/strong&gt;&amp;#8220;,&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/colunistas/guia-gazeta/8o-guia-gazeta/bbb-23-tem-o-primeiro-nome-confirmado-apos-fechar-com-cantor-sertanejo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:56:56</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Jéssica Ingrede acompanha treino da Seleção Brasileira, conhece Tite e Roberto Carlos</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A digital influencer Jéssica Ingrede está cada vez mais perto de realizar o seu grande sonho, que é conhecer o jogador Neymar de perto. Nesta terça-feira, 29, a acreana acompanhou o treino dos reservas da Seleção Brasileira, tirou foto com jogadores e conheceu o técnico Tite.&lt;/p&gt;
+&lt;p&gt;Além de Tite, Jéssica conheceu o pentacampeão latareal-esquerdo, Roberto Carlos. &amp;#8220;Um sequência um pouco pesada. Vou nem mais usar essa blusa, a missão é pegar o autógrafo de todos os jogadores e colocar essa blusa em um lindo quadro&amp;#8221;, disse a acreana em suas redes sociais.&lt;/p&gt;
+&lt;p&gt;Jéssica venceu um concurso da Confederação Brasileira de Futebol (CBF) para fazer parte da rede de influencers, que estão acompanhando a Copa do Mundo ao vivo e em cores, e transmitindo tudo por suas redes sociais na internet.&lt;/p&gt;
+&lt;p&gt;O resultado tem sido tão positivo, que desde que venceu o concurso, o número de seguidores de Jéssica Ingrede só cresce. No último domingo, 27, a acreana ultrapassou os 300 mil seguidores no Instagram – rede social em que a acreana trabalha e faz sucesso.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-660601 gallery-columns-2 gallery-size-full'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525.jpg"&gt;&lt;img width="1080" height="1090" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-297x300.jpg 297w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-594x600.jpg 594w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-150x151.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-768x775.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-96x96.jpg 96w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-75x75.jpg 75w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-2-e1669751055525-750x757.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-3-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-1-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-8-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-7-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-6-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-5-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4.jpg"&gt;&lt;img width="1080" height="1350" src="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4.jpg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4.jpg 1080w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4-240x300.jpg 240w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4-480x600.jpg 480w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4-768x960.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4-150x188.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/jessica_ingrede_selecao_brasileira-4-750x938.jpg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/jessica-ingrede-acompanha-treino-da-selecao-brasileira-conhece-tite-e-roberto-carlos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:19:23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Caminhonete é apreendida com mais de 181 quilos de drogas em rodovia do Acre</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;ma abordagem de rotina da Polícia Rodoviária Federal (PRF-AC) na manhã desta segunda-feira (28) acabou com a apreensão de mais de 181 quilos de drogas. Duas pessoas foram presas e levadas para a sede da Polícia Federal de Rio Branco para os procedimentos cabíveis.&lt;/p&gt;
+&lt;p&gt;A PRF-AC informou que parou uma caminhonete na BR-364. Durante a revista, os policiais encontraram o entorpecente escondido no compartimento da estrutura da carroceria. A polícia não detalhou de cidade o carro tinha saído e qual o destino final da droga.&lt;/p&gt;
+&lt;p&gt;Foram apreendidos, no total, 167,42 kg de pasta base e 14,46 kg de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;Mais droga apreendida&lt;br /&gt;
+No último sábado (26), durante patrulhamento na BR-364, foi feita a abordagem a um caminhão-cegonha encontrados 63,5 quilos de drogas escondidos em dois veículos que estavam sendo transportados.&lt;/p&gt;
+&lt;p&gt;Parte da droga estava escondida no compartimento da porta dos carros. No total foram apreendidos 63,5 kgs, sendo 46,76 kgs de pasta base e 15,74 kgs de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;A droga e os dois veículos foram encaminhados à Polícia Federal de Rio Branco-AC para as medidas cabíveis. A PRF não informou se houve prisões.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/caminhonete-e-apreendida-com-mais-de-181-quilos-de-drogas-em-rodovia-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:12:28</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Única casa lotérica do Jordão está fechada e falta de atendimentos prejudica beneficiários de auxílios</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-3mq4a"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="51" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;M&lt;/span&gt;oradores que recebem auxílios estão sem conseguir sacar os benefícios e nem fazer pagamentos na cidade do Jordão, uma das regiões isoladas do interior do Acre com acesso apenas por barco ou avião. É que a única lotérica da cidade está com os atendimentos suspensos há cerca de 15 dias.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-6c4pt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A reportagem entrou em contato com a Caixa Econômica Federal por e-mail solicitando uma resposta sobre a suspensão dos atendimentos na Casa Lotérica Cantinho da Sorte e aguarda retorno.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-9ir6q"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O taxista Roberto Rodrigues viu o número de corridas baixar quando a lotérica parou de funcionar. Ele conta que a maioria dos clientes que utiliza o serviço é da zona rural e pega corrida para ir até a zona urbana sacar dinheiro ou pagar contas na lotérica.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7nmi1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-rsvs"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="71" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Essas pessoas mexem com benefícios, usam aqueles cartões sem chip e não conseguem passar na maquininha, só sacam o dinheiro em espécie na casa lotérica e não estão conseguindo. Estou prejudicado porque não estou conseguindo também pegar minha renda que ajuda no sustento da minha família. Essa é só uma das coisas, mas não é apenas eu. Cerca de 70% da população do Jordão está sendo prejudicada com isso&amp;#8221;, lamentou.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-dmth3"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Rodrigues falou que há na cidade alguns postos de outros representantes bancários. Contudo, os benefícios sociais são retirados apenas na Caixa Econômica Federal. A esposa do taxista é uma das clientes do banco.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5t97l"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="44" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;É tudo na lotérica. Disseram no início, anunciaram em um grupo de WhatsApp que iam fechar por uma semana para fazer manuntenção, mas não explicaram qual era essa manuntenção, a gente pergunta e falam que não tem previsão de quando vai voltar&amp;#8221;, disse.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7e7lh"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O autônomo Hiago Fontenele Viana teve que passar o cartão do Auxílio Brasil na máquina de cartões de um comerciante para poder pegar o dinheiro e conseguir pagar algumas contas. A esposa de Viana vende roupas íntimas e também precisa da casa lotérica para receber os pagamentos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-c1j6d"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="54" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Estamos deixando de ter movimento, de ter nosso dinheiro e sanar nossas dívidas por causa desse problema. Minha esposa semana passada teve que pagar a pessoa que fornece [roupa íntima] para ela e se não fosse eu tirando o benefício pelo celular, pegando emprestado com outras pessoas, ficaria uma dívida muito grande&amp;#8221;, relatou.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-i9e3"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="12"&gt;
+&lt;div id="banner_materia__cfc4fc85-3861-4865-b374-d74e0cea3cd8" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__cfc4fc85-3861-4865-b374-d74e0cea3cd8" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-aokln"&gt;
+&lt;div class="block-podcast"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/unica-casa-loterica-do-jordao-esta-fechada-e-falta-de-atendimentos-prejudica-beneficiarios-de-auxilios/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:05:43</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Promotor processa prefeitura de Tarauacá e juiz determina readequação de abrigo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h1 class="post-title" style="text-align: justify;"&gt;&lt;span style="font-family: 'book antiqua', palatino, serif;"&gt;&lt;strong&gt;Após ação do MPAC, Justiça determina readequação de abrigo para crianças e adolescentes&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;O Ministério Público do Estado do Acre (MPAC) conseguiu decisão favorável do Poder Judiciário ao pedido de readequação na estrutura do abrigo “Renascer”, que acolhe crianças e adolescentes em situação de risco e vulnerabilidade social, no município de Tarauacá.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Em ação civil pública com pedido de tutela antecipada, o promotor de Justiça &lt;strong&gt;Júlio César Medeiros&lt;/strong&gt; pediu a readequação da estrutura física do abrigo, adequação da equipe técnica, terapêutica ou similares e tratamento existencial adequado.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Para apoiar a ação, o promotor de Justiça apresentou um relatório técnico de uma visita realizada no abrigo, na qual foram verificadas diversas dificuldades enfrentadas pelas crianças e adolescentes por conta da falta de manutenção do prédio e falta de atendimentos em áreas como psicologia e assistência social.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Acolhendo ao pedido do MPAC, a Vara Cível da Comarca de Tarauacá condenou o município, determinando que seja construído no prazo de dois anos um novo abrigo num lugar seguro, onde a alagação não atinja, ou que sejam realizadas reformas no local onde ele se encontra atualmente.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Além de readequação da estrutura física, a decisão prevê, ainda, a contratação de profissionais em diversas áreas para atuarem no programa de acolhimento institucional, garantindo a oferta de atendimento adequado às crianças e adolescentes.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Em caso de descumprimento em relação ao que foi &lt;span style="color: #000000;"&gt;estabelecido na sentença, será aplicada ao município multa diária no valor de R$ 20.000,00 (vinte mil reais), convertida em favor das melhorias do abrigo. &lt;/span&gt;&lt;span style="font-size: 12pt; color: #000000;"&gt;Com informações: &lt;span style="font-family: 'book antiqua', palatino, serif;"&gt;&lt;a style="color: #000000;" href="https://www.mpac.mp.br/tarauaca-apos-acao-do-mpac-justica-determina-readequacao-de-abrigo-para-criancas-e-adolescentes/"&gt;Agência de Notícias do MPAC&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Para ler o docum&lt;span style="color: #000000;"&gt;ento &lt;a style="color: #000000;" href="https://www.mpac.mp.br/wp-content/uploads/manifestacao-abrigo.pdf"&gt;clique aqui&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/promotor-processa-prefeitura-de-tarauaca-e-juiz-determina-readequacao-de-abrigo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:04:04</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Polícia prende suspeito de matar colono a tiros e esganado no interior do Acre</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-ds1o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;F&lt;/span&gt;rancisco Campos Barbosa, mais conhecido como Chico Abreu, foi achado morto em uma ramal na divisa do município de Xapuri e Epitaciolândia, no interior do Acre. De acordo com a polícia, os familiares disseram que procuravam por ele desde a última sexta-feira (25), mas achavam que ele havia saído para caçar.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-9531i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Já no domingo (27), uma equipe da Polícia Civil, coordenada pelo delegado Luis Tonini, foi até o local, que é de difícil acesso, e resgatou o corpo do colono.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6f09"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="72" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Fomos com uma equipe e encontramos. Os familiares achavam que ele estava em uma caça, junto com esse rapaz que era caseiro com ele, mas no domingo [27] o sobrinho da vítima foi para lá e viu o corpo, que estava meio afastado estava a 100, 50 metros da casa, uma área de capinzal. Ele também sentiu o mau cheiro e viu que se tratava do tio dele”, explica o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ulaq"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5nuf0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Então, a equipe da Polícia Civil foi acionada e o corpo levado ao Instituto Médico Legal (IML), onde foi constatado que Barbosa foi morto com um tiro nas costas e também foi enforcado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-fpt13"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="8"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/RGZ4P2lCAfNNy7bNvMLvR_SirKg=/0x0:1599x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/R/E/4d7QGFT82ClCefDo4IIA/whatsapp-image-2022-11-29-at-09.46.34.jpeg?w=740&amp;#038;ssl=1" alt="Delegado Tonini coordenou as buscas pelo corpo no interior do Acre  — Foto: Polícia Civil " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Delegado Tonini coordenou as buscas pelo corpo no interior do Acre — Foto: Polícia Civil&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2fmli"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O suspeito, Benigno Queiroz Sales, de 36 anos, conhecido como ‘Banana’, foi preso ainda na segunda-feira (28) em Epitaciolândia. O delegado informou que algumas informações apontavam que ele estava armado em uma área de mata e a Polícia Militar foi acionada.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8sq1b"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi preso sem arma, mas depois indicou onde estava escondida a arma do crime. Ele também confessou e disse ao delegado que matou a vítima para se defender.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5p97l"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="11"&gt;
+&lt;div id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6u5ff"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Ele disse que se defendeu porque vítima quando bebia ficava bastante agressiva, mas a gente não acredita nessa versão porque ele estava envolvido em um furto em uma casa perto de onde aconteceu o crime e também já era investigado por estupro em Epitaciolândia”, diz.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b4jrt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi transferido para a delegacia de Xapuri, onde deve ser indiciado por latrocínio. Como o crime foi na divisa, a responsabilidade da investigação ficou com o delegado Gustavo Neves. O g1 tentou ouvi-lo, mas não obteve retorno até esta publicação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqk7n"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="14"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/pYQYz4hgZLrhVFS73MLSvxAQDsg=/0x0:679x838/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/w/k/v9tmgzSmyzoVi8kR8Zfg/preso1.jpg?w=740&amp;#038;ssl=1" alt="Benigno Queiroz Sales, de 36 anos, foi preso pelo crime  — Foto: Arquivo pessoal " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Benigno Queiroz Sales, de 36 anos, foi preso pelo crime — Foto: Arquivo pessoal&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/policia-prende-suspeito-de-matar-colono-a-tiros-e-esganado-no-interior-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-11-29T10:56:18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Após morte de colega, motoristas de aplicativo protestam por segurança em frente à delegacia de Rio Branco</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-gf43"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;A&lt;/span&gt;pós a morte do motorista de aplicativo José Francisco Rodrigues das Chaga, de 31 anos, um grupo de 50 motoristas protestou por mais segurança em frente à Delegacia de Flagrantes de Rio Branco, no bairro Estação Experimental. O ato ocorreu na tarde desta segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-7f8d2"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="39" data-block-id="6"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O corpo de José Francisco foi achado no Ramal Santo Onofre, no Apolônio Sales, na capital acreana, na madrugada desta segunda. Segundo informações da Polícia Militar, ele estava desaparecido e a família já havia registrado o sumiço pelo 190.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6hd4i"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="7"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1su31"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="86" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Estamos aqui para protestar e mostrar para a sociedade e o poder público que nós, motoristas de aplicativos, estamos vulneráveis nesse trânsito, na segurança do nosso estado e não é a primeira morte, sabemos que houve mais mortes ano passado. Só essa semana foram três assaltos, estávamos agora aqui e teve um mototaxista fazendo um boletim de ocorrência, então, ontem [domingo, 27] tivemos um assalto no Bahia Nova, que a pessoa está hospitalizada ainda. Então, estamos reivindicando segurança do Estado&amp;#8221;, pediu o motorista Francisco Silva.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-drrrc"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="9"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/3cWhH64mEuDO-81nOKTUYP1FxH4=/0x0:388x409/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/d/T/wfAf74SSASxeuM4ylBdQ/whatsapp-image-2022-11-28-at-13.03.53.jpeg?w=740&amp;#038;ssl=1" alt="José Francisco Rodrigues das Chaga, de 31 anos, foi morto na madrugada desta segunda-feira (28) — Foto: Arquivo pessoal " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;José Francisco Rodrigues das Chaga, de 31 anos, foi morto na madrugada desta segunda-feira (28) — Foto: Arquivo pessoal&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1dcsi"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Eliane Pinheiro também foi para frente da Defla pedir mais segurança para a categoria. Ela destacou que a má situação das ruas em alguns bairros ajudam na ação dos criminosos porque os condutores têm dificuldade em trafegar no local.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7u44c"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="11"&gt;
+&lt;div id="banner_materia__37db7768-965d-4846-8e3a-2123f2b06165" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__37db7768-965d-4846-8e3a-2123f2b06165" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-d312s"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="82" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;É muito complicado porque vivemos uma situação na cidade de muita insegurança, então, o motorista de aplicativo não sabe quem é o passageiro que vai pegar. Tem muitas plataformas que não dizem ao certo o destino final do passageiro. Às vezes, chegamos em um lugar e já em uma tocaia, assalto. Há a situação das ruas, a trafegabilidade nos deixa um pouco inseguros por conta dos buracos, ruas que você não consegue trafegar por conta do mau trabalho da prefeitura&amp;#8221;, criticou.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b5ac9"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="13"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/G9GbWsA31IPgyrjj6S-A6FLzE_U=/0x0:1600x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/L/q/bLFgzaSUWLLA7VtoStnw/whatsapp-image-2022-11-28-at-15.08.39.jpeg?w=740&amp;#038;ssl=1" alt="Motoristas foram orientados por um policial durante protesto na Defla — Foto: Consuela Gonzalez/Rede Amazônica Acre" data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Motoristas foram orientados por um policial durante protesto na Defla — Foto: Consuela Gonzalez/Rede Amazônica Acre&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="2" data-block-id="14"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Suspeitos presos&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7tchf"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo a PM, o corpo de José Francisco tinha marcas de perfurações. Contudo, apenas a perícia vai poder confirmar a causa da morte. Uma equipe do Serviço de Atendimento Móvel de Urgência (Samu) foi acionada e constatou a morte da vítima. Policiais da Delegacia de Homicídios e Proteção à Pessoa (DHPP) também estiveram no local, assim como a perícia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-bpbiq"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="16"&gt;
+&lt;div id="banner_materia__d73fc7c2-8029-47bf-8776-8aca1bf9d840" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__d73fc7c2-8029-47bf-8776-8aca1bf9d840" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8dsgo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="21" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O veículo da vítima foi encontrado no início do ramal e encaminhado para o pátio do Departamento de Trânsito (Detran).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-10ui4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="38" data-block-id="18"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A Polícia Civil informou que prendeu um suspeito do crime, que confessou ter matado a vítima. O suspeito tem 21 anos e foi conduzido pela Polícia Militar nesta segunda para a Defla por uma ocorrência de furto.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1c65n"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="60" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“No entanto, os policiais civis da equipe de pronto emprego, após as diligências preliminares sobre o caso, identificaram o conduzido como o autor do homicídio de José Francisco Rodrigues das Chagas, de 31 anos. Diante das informações obtidas através das investigações iniciais, foi possível efetuar a prisão em flagrante do suspeito, que também confessou o crime”, diz a nota.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-t2l4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="20"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No início da tarde, um segundo suspeito também foi preso. Ele tem 22 anos e, segundo a Polícia Civil agiu com o comparsa para cometer o latrocínio, roubo seguido de morte. A identificação dele foi entregue pelo primeiro suspeito preso.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-apov8"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="9" data-block-id="21"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;em&gt;Colaborou a repórter Consuela Gonzalez, da Rede Amazônica Acre.&lt;/em&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/apos-morte-de-colega-motoristas-de-aplicativo-protestam-por-seguranca-em-frente-a-delegacia-de-rio-branco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-11-29T10:36:14</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>IBAMA processa vereador Valdor do Ó requerendo R$22 mil por suposto crime ambiental</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Instituto Brasileiro do Meio Ambiente e dos Recursos Naturais Renováveis &amp;#8211; IBAMA, ajuizou processo de Execução Fiscal contra VALDOZINHO VIEIRA DO Ó, vereador no município de Tarauacá pelo PSDB (Partido da Social Democracia Brasileira), por suposto crime ambiental, consistente em &amp;#8220;&lt;em&gt;desmatar sem autorização 4,5 ha de mata primária, entre os anos de 2004/2005&lt;/em&gt;&amp;#8220;.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;Após aplicada a multa pelo IBAMA, o vereador não quitou o débito (dívida ativa). &lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;O Juiz Federal CLAUDIO GABRIEL DE PAULA SAIDE, da Vara Federal Criminal de Cruzeiro do Sul, determinou a penhora dos bens do vereador. O processo tramita em caráter público, podendo ser acessado por qualquer cidadão. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;No caso, o juiz federal decretou a penhora de uma moto modelo YAMAHA/LANDER XTZ250, placa: QLY0701; um  caminhão, marca/modelo: FORD/F4000 4X4, placa: NPB1357; e uma caminhonete, marca/modelo: MMC/L200 4X4 GLS, placa: MZW8398.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;A determinação, segundo o juiz federal, “&lt;em&gt;é para garantir a execução, cujo débito exequendo até a data de 17/12/2021, importa no valor de R$22.289,78, a ser atualizado na data da sua quitação&lt;/em&gt;”.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="66927" data-permalink="https://www.acre.com.br/ibama-processa-vereador-valdor-do-o-requerendo-r21-mil-por-crime-ambiental/decisao-valdor-do-o/" data-orig-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?fit=716%2C590&amp;amp;ssl=1" data-orig-size="716,590" data-comments-opened="1" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Decisão Valdor do Ó" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?fit=300%2C247&amp;amp;ssl=1" data-large-file="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?fit=716%2C590&amp;amp;ssl=1" decoding="async" loading="lazy" class="alignnone wp-image-66927" src="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?resize=740%2C609&amp;#038;ssl=1" alt="" width="740" height="609" srcset="https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?resize=300%2C247&amp;amp;ssl=1 300w, https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/Decisao-Valdor-do-O.jpg?w=716&amp;amp;ssl=1 716w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;Segundo o processo, o vereador poderá, efetivada a penhora, após ser imediatamente intimado, &lt;/span&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;apresentar embargos à execução, no prazo de 30 (trinta) dias. Os bens penhorados poderão ainda ficar depositados em mãos do vereador e, no caso de recusa deste, em mãos de terceira pessoa, sob o compromisso de guardá-lo e conservá-lo, diz trecho do documento.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;O vereador é executado no valor aproximado de R$22 mil reais, em decorrência de multa por “DESMATAR SEM AUTORIZAÇÃO 4,5 HA DE MATA PRIMÁRIA, ENTRE OS ANOS DE 2004/2005”, na localidade COLÔNIA SANTO ANTÔNIO, LOTES 10 E 11, PA ARENA, BR 364, ICM 25, TRC/FEIJÓ, ZONA RURAL, EM TARAUACÁ/AC&amp;#8221;, segundo informou o IBAMA.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;O processo tramita na Vara Federal Cível e Criminal da SSJ de Cruzeiro do Sul-AC. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;O &lt;strong&gt;Acre.com.br&lt;/strong&gt; tentou contato com o vereador na manhã desta terça-feira, 29, dia da última Sessão Ordinária do ano, onde o parlamentar esteve presente. O jornal telefonou para o número 68 999xx-xx91; mesmo após várias tentativas, o parlamentar não atendeu as ligações. O jornal permanece à disposição para ouvir a versão do parlamentar, querendo enviar nota ao e-mail contato@acre.com.br &lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;a href="https://wp.me/a9yZOd-hpw"&gt;&lt;span style="font-size: 10pt; font-family: 'book antiqua', palatino, serif; color: #000000;"&gt;Autos nº. 0701530-83.2022.8.01.0014&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/ibama-processa-vereador-valdor-do-o-requerendo-r21-mil-por-crime-ambiental/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:21:13</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Polícia Militar apreende mais de dois quilos de entorpecentes em Feijó</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;P&lt;/span&gt;oliciais militares do sétimo batalhão, apreenderam mais de dois quilos de entorpecentes, após denúncia anônima, sexta-feira, 25, em Feijó.&lt;/p&gt;
+&lt;p&gt;Os militares receberam denúncia anônima dando conta que um indivíduo supostamente teria saído de casa para transportar entorpecentes para outro endereço. Com base nas informações e características do homem os militares fizeram patrulhamento e encontraram um suspeito, foi realizada a abordagem e busca pessoal, sendo encontrado 2, 057 quilogramas de substância aparentando ser oxidado de cocaína e pequena quantia em dinheiro.&lt;/p&gt;
+&lt;p&gt;Os militares encaminharam o envolvido, juntamente com entorpecente apreendido à delegacia para serem tomadas as providências cabíveis ao fato.&lt;/p&gt;
+&lt;p&gt;Assessoria de Comunicação da PMAC&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/policia-militar-apreende-mais-de-dois-quilos-de-entorpecentes-em-feijo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:18:42</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mulher é vítima de bala perdida durante tiroteio na Cidade do Povo</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Por Angélica Florêncio/Ecos da Notícia 26/11/2022&lt;/p&gt;
+&lt;p&gt;Uma mulher identificada por Maria José, de 38 anos, foi ferida com um tiro no abdômen durante um tiroteio neste sábado, 26. A vítima foi atingida na mesma ocorrência, que um jovem acabou sendo executado. Os crimes ocorreram no Conjunto Habitacional Cidade do Povo, no Segundo Distrito de Rio Branco.&lt;/p&gt;
+&lt;p&gt;A viatura de suporte avançado do Serviço de Atendimento Móvel de Urgência (Samu) que foi acionada para socorrer o jovem, que acabou morrendo no local, se deslocou para atender essa vítima de bala perdida. Maria José, após ser ferida, foi pedir ajuda na UPA da Cidade do Povo, sendo atendida pelos paramédicos do Samu que já estavam no local&lt;/p&gt;
+&lt;p&gt;A vítima foi atendida e encaminhada ao Pronto Socorro de Rio Branco, onde deu entrada em estado de saúde estável.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/mulher-e-vitima-de-bala-perdida-durante-tiroteio-na-cidade-do-povo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:10:48</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Homem tem casa invadida e é morto a tiros em Rio Branco</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="font-weight: 400"&gt;&lt;span class="wpsdc-drop-cap"&gt;H&lt;/span&gt;omem é morto com seis tiros na tarde deste sábado, dia 26, na Travessa da Amizade, no Ramal do Pica-pau, na região do Amapá.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Segundo informações, que dois homens se passando por policiais chegaram ao local em um carro HB20.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Renderam a vítima, ao percebeu que não era polícia, ele correu para dentro da casa, mais foi perseguido e morto por seis tiros que morreu no local.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Os bandidos entraram no carro e fugiram, tomando rumos ignorados.&lt;/p&gt;
+&lt;p&gt;Boca no Trombone Ac&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/homem-tem-casa-invadida-e-e-morto-a-tiros-em-rio-branco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:02:44</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Homem sofre tentativa de homicídio quando caminhava em Rio Branco e amigos reclamam de “covardia”</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;m homem identificado apenas como Alessandro, 30 anos, foi vítima de uma tentativa de homicídio na noite deste sábado (26), na Rua Padre José, no bairro Triângulo Novo, na região do Segundo Distrito de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações da polícia, Alessandro estava caminhando em via pública, quando foi surpreendido por dois criminosos que estavam em uma motocicleta e o passageiro, de posse de uma arma de fogo, se aproximou da vítima e disparou três vezes, sendo que um atingiu a perna, outro na boca e mais um no testículos do homem. Após a ação, os criminosos fugiram do local.&lt;/p&gt;
+&lt;p&gt;Populares ajudaram o homem e acionaram ambulância do Serviço de Atendimento Móvel de Urgência (Samu), que enviou uma ambulâncias de suporte avançada para avaliação e estabilização do quadro clínico da vítima. Após o atendimento Alessandro foi encaminhado ao pronto-socorro de Rio Branco, em estado de saúde grave.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do 2° Batalhão também estiveram no local, colheram informações dos criminosos e realizaram ronda na região, mas não tiveram êxito.&lt;/p&gt;
+&lt;p&gt;Uma equipe de agentes de Polícia Civil da Equipe de Pronto Emprego (EPE) e agentes da Delegacia de Homicídio e Proteção à Pessoa (DHPP) colheram as informações e o caso será investigado.&lt;/p&gt;
+&lt;p&gt;A reportagem teve acesso a um vídeo gravado após Alessandro ser ferido a tiros, onde amigos da vítima reclamavam de “covardia” e diziam “Até quando?”.&lt;/p&gt;
+&lt;p&gt;Por Ithamar Souza, Na Hora da Notícia&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/homem-sofre-tentativa-de-homicidio-quando-caminhava-em-rio-branco-e-amigos-reclamam-de-covardia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022-11-29T18:04:40</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Criança está em  UTI com suspeita de meningite no Acre</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Governo do Acre emitiu nota nesta terça-feira (29) informando que apura possível contágio por meningite em um menino de 9 anos de idade em Rio Branco. Ele foi levado para  UTI no Hospital da Criança após passar pelo Pronto Socorro. &lt;/p&gt;
+&lt;p&gt;Veja a nota: &lt;/p&gt;
+&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que uma criança de 9 anos, do sexo masculino, deu entrada no sábado, 26, no Pronto-Socorro de Rio Branco, tendo como hipótese diagnóstica inicial de meningite. A notificação foi registrada pelo Núcleo de Vigilância Hospitalar da unidade.&lt;/p&gt;
+&lt;p&gt;O líquor (fluido corporal estéril e de aparência clara que ocupa o espaço subaracnóideo no cérebro) do paciente é sugestivo de meningite bacteriana, aguardando o resultado de cultura que será realizada pelo Laboratório Central de Saúde Pública do Acre, o Lacen.&lt;/p&gt;
+&lt;p&gt;Pela gravidade do caso, o paciente foi transferido para a unidade de terapia intensiva (UTI) do Hospital da Criança.&lt;/p&gt;
+&lt;p&gt;No sábado, 26, e domingo, 27, já foi realizada a quimioprofilaxia dos contatos domiciliares.&lt;/p&gt;
+&lt;p&gt;Na segunda-feira, 28, foi feito o contato com a direção da escola para o levantamento dos contatos escolares mais próximos do caso, os quais também receberam a quimioprofilaxia.&lt;/p&gt;
+&lt;p&gt;O caso está em monitoramento, sendo que a vigilância epidemiológica está sendo realizada pelo município de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Enfermeira Helena Catão&lt;br /&gt;
+Responsável pela área técnica das meningites no estado&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/45621/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022-11-29T16:21:17</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Inglaterra vence País de Gales e avança na Copa do Mundo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Inglaterra está nas oitavas de final da  Copa do Mundo. Nesta terça-feira, o English Team confirmou a vaga ao derrotar o País de Gales por 3 a 0 no Ahmad Bin Ali Stadium, pela última rodada do Grupo B do Mundial. Rashford (2) e Phil Foden garantiram a vitória da equipe comandada por Gareth Southgate.  &lt;/p&gt;
+&lt;p&gt;Com o resultado, aliás, a Inglaterra chegou aos sete pontos e assegurou a primeira colocação do Grupo B. Já o País de Gales permaneceu com um ponto na lanterna do grupo e se despediu da Copa do Mundo.&lt;/p&gt;
+&lt;p&gt;Agora, o English Team vira a chave para as oitavas de final. Os ingleses voltam a campo no próximo domingo, às 16h (de Brasília), para enfrentar Senegal no Al Bayt Stadium.&lt;/p&gt;
+&lt;p&gt;A maior parte do primeiro tempo foi morna no Ahmad Ali Bin Stadium. A Inglaterra teve 61% de posse de bola, ditou o ritmo, mas apresentava dificuldade para criar grandes chances de gol. A principal veio aos nove minutos, Harry Kane descolou ótima enfiada de bola para Marcus Rashford, que ficou cara a cara com o goleiro. No entanto, Ward fechou os espaços e fez a defesa. &lt;/p&gt;
+&lt;p&gt;Depois disso, os ingleses só voltaram a incomodar aos 37 minutos. Após boa jogada pelo lado direito de Jude Bellingham e Kyle Walker, a bola chegou até Phil Foden, que recebeu bom passe já dentro da área. Ele encheu o é de perna esquerda, mas mandou para fora.&lt;/p&gt;
+&lt;p&gt;País de Gales, por sua vez, foi praticamente uma espectadora dentro de campo. Viu a Inglaterra jogar e só conseguiu criar uma oportunidade nos acréscimos do primeiro tempo. Aos 49 minutos, Joe Allen recebeu na entrada da área finalizou forte, mas a bola subiu demais e mandou por cima da meta defendida por Jordan Pickford.   &lt;/p&gt;
+&lt;p&gt;No retorno do intervalo, a Inglaterra finalmente acordou e fez dois gols num intervalo de apenas dois minutos. Aos cinco, Rashford cobrou falta com categoria para vencer o goleiro Ward e estufar as redes do País de Gales. &lt;/p&gt;
+&lt;p&gt;Já aos sete, Rashford desarmou Ben Davies, e a bola sobrou para Harry Kane. O centroavante logo levantou a cabeça e cruzou rasteiro na pequena área para Phil Foden, que apareceu sozinho para completar e fazer o segundo da Inglaterra. &lt;/p&gt;
+&lt;p&gt;Logo depois disso, o País de Gales começou a se soltar e a finalizar mais, o que obrigou Pickford a finalmente trabalhar. Entretanto, isso durou muito pouco. A Inglaterra retomou rapidamente o controle da partida e até ampliou a vantagem. Aos 23, Rashford recebeu bom lançamento pelo lado direito, invadiu a área, cortou a marcação e chutou forte. A bola bateu no goleiro Ward e entrou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/inglaterra-vence-pais-de-gales-e-avanca-na-copa-do-mundo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022-11-29T16:07:30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pesquisador faz as contas e diz que bambu do Acre pode render R$25 mil por família</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="font-weight: 300;"&gt;O Estado do Acre tem a maior mancha contínua de bambu nativo do Brasil, com 11 milhões de hectares de floresta com a presença da planta. O assunto foi um dos destaques do IV Seminário Nacional do Bambu, realizado nos dias 16 e 18 de novembro, em Pirenópolis, Goiás.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;O evento contou com a participação do pesquisador da Embrapa Acre, Eufran Amaral, que apresentou o mapeamento da ocorrência da planta no estado e resultados de pesquisa desenvolvidos pela Empresa. &amp;#8220;Muitas das espécies encontradas ainda são novas para a ciência. Também enfocamos, na palestra, as potencialidades de uso já matriculadas na regulamentação pioneira no Acre, uma referência para outros Estados. Também fomos eleitos membros do Conselho Fiscal da Rede Brasileira do Bambu, o que implica em novas oportunidades para o tema Bambu do Acre no contexto nacional&amp;#8221;, ressalta.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;Uma portaria normativa, de 2017, institui o termo de referência para licenciamento ambiental da atividade de exploração e manejo de bambu no Acre, além do Zoneamento Ecológico e Econômico (ZEE). “ Sem a exploração sustentável do bambu, estima-se que deixem circular 6,4 bilhões de recursos no Acre. Seria um aporte de mais de 50% no Produto Interno Bruto (PIB) atual, e seis vezes o PIB agropecuário acreano. Novas pesquisas e inovação devem ser viabilizadas de maneira focada e sinérgica para avançar no manejo do bambu existente nas florestas acreanas”, declara Amaral.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;Segundo o pesquisador, o uso sustentável desses recursos naturais é uma alternativa para fortalecer a economia local, com ganhos ambientais e sociais, pois beneficiaria pessoas que moram em projetos de assentamentos rurais, e possibilitaria a criação de cooperativas de produtos, geração de energia e construção Civil. “Estima-se que pode render cerca de 25.000,00 por família”, afirma.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;Os municípios do estado do Acre com maiores áreas de bambu são Feijó, Sena Madureira, Tarauacá, seguidos de Marechal Thaumaturgo, Manoel Urbano e Rio Branco. As florestas de bambu abrangem cerca de 62% do território acreano, com ocorrência dominante e pura no sub-bosque em cerca de 28% do território.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;&lt;b&gt;visão de futuro&lt;/b&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 300;"&gt; &lt;/span&gt;O aproveitamento do bambu nativo do Acre pode contribuir para a melhoria da qualidade de vida da população rural e urbana, uma vez que gera emprego e renda, e reduz os passivos ambientais através da recuperação de áreas degradadas e da cobertura florestal de áreas desmatadas. De uso múltiplo, a planta pode ser aproveitada na indústria de alimentos, na construção civil, indústria de cosméticos e segmentos de móvelaria e artesanato entre outras aplicações.&lt;/p&gt;
+&lt;p style="font-weight: 300;"&gt;O processo de produção da madeira de bambu inclui manejar, colher, produzir e secar as retiradas da planta. Sua transformação envolve etapas como classificação, beneficiamento e embalagem. A fase de comércio envolve o transporte, distribuição, estratégias de marketing e outros procedimentos essenciais para conquistar compradores. “O bambu é um produto bioeconômico, ou seja, representa um capital sustentável que reúne diferentes setores da economia e está entre as alternativas de produção sustentável indicadas pelo Zoneamento Ecológico Econômico. Entretanto, necessita de investimentos iniciais como mão de obra e mapeamento local”, diz Amaral.&lt;/p&gt;
+&lt;p&gt;Texto e Foto: Embrapa&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/pesquisador-faz-as-contas-e-diz-que-bambu-do-acre-pode-render-r25-mil-por-familia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:04:34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Incorporados 237 alunos  ao Corpo de Bombeiros do Acre</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;header class="entry-header"&gt;
+&lt;div class="entry-meta"&gt;&lt;span style="color: #181818; font-family: 'Merriweather Sans'; font-size: 1.125rem;"&gt;O governo do Acre publicou no Diário Oficial do Estado (DOE) desta terça-feira, 29, a incorporação dos 237 alunos relacionados para ingressar no Curso de Formação de Soldados às fileiras do Corpo de Bombeiros Militar do Estado do Acre (CBM/AC).&lt;/span&gt;&lt;/div&gt;
+&lt;/header&gt;
+&lt;div class="entry-content"&gt;
+&lt;p&gt;A incorporação dos alunos dá seguimento às propostas que o governo traçou no início da gestão, de fortalecer e reestruturar as forças de segurança do Estado do Acre.&lt;/p&gt;
+&lt;p&gt;Além disso, é uma conquista importante para a população acreana, que a partir de agora pode contar com a manutenção dos serviços já prestados pelo CBM/AC, além de uma ampliação dos que já vêm sendo realizados.&lt;/p&gt;
+&lt;p&gt;A publicação homologa a matrícula dos alunos a contar do dia 21 de novembro do ano vigente.&lt;/p&gt;
+&lt;p&gt;Confira a publicação na íntegra:&lt;/p&gt;
+&lt;p&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/DO16697406277368.pdf"&gt;DOE16697406277368&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/incorporados-237-alunos-ao-corpo-de-bombeiros-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:53:00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Acre tem 49 novos casos de Covid-19 nesta terça-feira (29)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 43 novos casos de coronavírus nesta terça-feira, 29 de novembro. O número de infectados notificados é de 153.730 em todo o estado.&lt;/p&gt;
+&lt;p&gt;Até o momento, o Acre registra 360.512 notificações de contaminação pela doença, sendo que 206.767 casos foram descartados e 15 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até o fechamento deste boletim.&lt;/p&gt;
+&lt;p&gt;Os dados da vacinação contra a covid-19 no Acre podem ser acessados no Painel de Monitoramento da Vacinação, disponível no endereço eletrônico: http://covid19.ac.gov.br/vacina/inicio. As informações são atualizadas na plataforma do Ministério da Saúde (MS) e estão sujeitas a alterações constantes, em razão das informações inseridas a partir de cada município.&lt;/p&gt;
+&lt;p&gt;Nenhum óbito foi notificado nesta terça-feira, 29, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/acre-tem-49-novos-casos-de-covid-19-nesta-terca-feira-29/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:41:36</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Daniel Zen apela por debate urgente sobre a LOA de 2023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O deputado Daniel Zen disse nesta terça-feira (29)  em sessão ordinária da Assembleia Legislativa que há de se destacar o arcabouço legal criado pelo Poder Legislativo em favor da pessoa com transtorno autista (TEA).&lt;br /&gt;
+Ele pediu aos colegas que avancem no debate sobre a Lei de Orçamento Anual,  já que o tema ainda carece de ser debatido com a sociedade em geral.&lt;br /&gt;
+Zen exemplificou que algumas políticas, como a de proteção aos direitos da mulher, ficou quase sem recursos e sobrevive de emendas parlamentares. “Precisa de ter orçamento próprio na LOA”,  afirmou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/daniel-zen-apela-por-debate-urgente-sobre-a-loa-de-2023/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:38:30</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Tchê destaca CNH Social e diz que vai ampliar programa</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em pronunciamento na sessão desta terça-feira (29), na Assembleia Legislativa do Acre (Aleac), o deputado Luis Tchê (PDT), destacou a importância da CNH Social, um Programa Popular de Formação, Qualificação e Habilitação Profissional de Condutores de Veículos Automotores, por meio da Secretaria de Justiça e Segurança Pública, através do Departamento Estadual de Trânsito do Acre (Detran-AC).&lt;/p&gt;
+&lt;p&gt;Ainda segundo o parlamentar, a CNH Social é o maior programa de inclusão do governo Gladson Cameli. “Fico muito feliz ao saber que uma ideia que surgiu aqui, nesta tribuna, através de uma indicação minha, tem dado certo e tem beneficiado pessoas carentes de todos os 22 municípios do Acre. Agradeço, ainda, ao Detran por ter construído essa ideia junto com a gente desde o início”, disse.&lt;/p&gt;
+&lt;p&gt;O pedetista frisou que somente esse ano, mais de 2.000 carteiras foram liberadas e distribuídas para pessoas de baixa renda dos 22 municípios acreanos. Disse ainda, que já está garantido no orçamento de 2023 R$ 9 milhões para a liberação de novas CNH.&lt;/p&gt;
+&lt;p&gt;“No orçamento do ano que vem, já está garantido R$ 9 milhões para a liberação de novas carteiras, mas, esse valor não dá para atender o número de CNH que pretendemos garantir.  Neste caso, vou apresentar uma emenda ao orçamento para que esse valor aumente. Tenho certeza que o governador será favorável a isso”, disse.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/tche-destaca-cnh-social-e-diz-que-vai-ampliar-programa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:36:29</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Deputado pede ação emergencial contra crimes em Acrelândia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em discurso na sessão desta terça-feira (29), na Assembleia Legislativa do Acre (Aleac), o deputado Edvaldo Magalhães (PCdoB), fez um apelo ao secretário de Segurança Pública do Estado e às instituições ligadas ao setor, para que reforcem o policiamento no município de Acrelândia. A preocupação do parlamentar, é com o aumento do número de crimes de homicídios, assaltos, roubos e furtos no município.&lt;/p&gt;
+&lt;p&gt;O oposicionista frisou, ainda, que, em média, são três assaltos por semana, que têm como alvo o roubo de caminhonetes, que são levadas para a Bolívia utilizando a rota por Plácido de Castro. Edvaldo Magalhães pontuou que o problema é recorrente e há dois meses os moradores vivem esta tensão diária.&lt;/p&gt;
+&lt;p&gt;“Não sou daqueles que no debate da segurança pública procura ensinar padre nosso ao vigário, mas, há um problema gravíssimo ocorrendo em Acrelândia que se aprofunda a cada dia. Não é normal, não é comum que num município pequeno como aquele, haja no mínimo três vezes por semana, assalto com roubo de caminhonete, e na maioria das vezes, com sequestro e espancamento de proprietários. É necessário que se faça um esforço concentrado ali o mais rápido possível”, alertou.&lt;/p&gt;
+&lt;p&gt;Ainda segundo Magalhães, os assaltos ocorrem no setor rural de Acrelândia. “Todo mundo sabe de onde parte as ordens, o caminho, o destino, a rota. Ora se sabe a rota, se sabe o objetivo do assalto, a motivação, a troca dos veículos por drogas. As pistas estão todas ali. Então peço que se faça um esforço concentrado na cidade. Os índices são alarmantes e pede um combate firme, com recursos materiais e financeiros. Não dá para se deslocar um policial militar para fazer a segurança da cabeceira de uma ponte sem que ele tenha pelo menos como se esconder da chuva”, enfatizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/dedeputado-pede-acao-emergencial-contra-crimes-em-acrelandia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2022-11-29T14:34:25</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Samir reclama da burocracia na gestão de Tião Bocalom</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Na sessão desta terça-feira (29) o vereador Samir Bestene (Progressistas) lamentou a demora em finalizar da reforma da ponte localizado no Ramal Barro Vermelho, segundo o parlamentar,as reformas iniciaram dia 20 de novembro, porém, até o momento não foram concluídas e cobrou agilidade da Secretaria Municipal de Infraestrutura e Mobilidade Urbana (SEINFRA).&lt;/p&gt;
+&lt;p&gt;‘’A gente espera que realmente a gestão possa olhar com carinho para aqueles moradores, até porque é de extrema necessidade essa ponte para eles justamente escoar seus produtos. Eu não entendo às vezes porque se trava tanto na SEINFRA algumas situações, coisas básicas, simples de se resolver infelizmente a burocracia fazendo com que a população sofra tanto’’, lamentou.&lt;/p&gt;
+&lt;p&gt;Em outra pauta, informou que o Plano Diretor do Executivo, ainda não teria chegado a Casa Legislativa para que seja avaliado e discutido pelo parlamento mirim. Em parte o vereador Fábio Araújo (PDT) sugeriu para que faça um encaminhamento para que seja colocada uma data para que esse Plano chegue a Casa.&lt;/p&gt;
+&lt;p&gt;‘’Para a gente poder realmente beneficiar a nossa cidade, aqueles que mais precisam isso nós deixa triste a gente não vê esse Plano Diretor chegar aqui para realmente solucionar os problemas, como é o caso dessas pontes. Esse encaminhamento do vereador Fábio é muito importante para ver data em relação a isso.’’&lt;/p&gt;
+&lt;p&gt;Ao final, destacou Audiência Pública realizada na última sexta-feira (25), que tratou a respeito da terceirização da administração do Aquiri Shopping, na pauta foi discutido com os lojistas e representantes do Executivo o valor que será cobrando pelo aluguel e a situação de deixarem de ser permissionário para locatário.&lt;/p&gt;
+&lt;p&gt;‘’Nós discutimos o interesse daquelas pessoas que estavam presentes, vimos a angustia que eles têm passado com essa privatização ou terceirização da administração do shopping e eu fico feliz com todas essas discussões e Audiências realizadas na Casa do povo, é a sensibilidade do prefeito Tião Bocalom que ficou de rever os principais pontos que eles estão reivindicando’’, concluiu.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/samir-reclama-da-burocracia-na-gestao-de-tiao-bocalom/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2022-11-29T07:48:59</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Oficina “Mundo do Trabalho” atende estagiários na capital</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A prefeitura de Rio Branco, por meio da Secretaria Municipal de Assistência Social e Direitos Humanos (SASDH), realizou nesta sexta-feira (25), a “Oficina de Empregabilidade: Orientações para o mundo do trabalho”, no Centro da Juventude, para os estagiários da secretaria.&lt;/p&gt;
+&lt;p&gt;A parceria com o programa ACESSUAS – Trabalho, do Governo Federal e desenvolvida na capital pela SASDH, abordou os temas:&lt;/p&gt;
+&lt;p&gt;– As mudanças no mundo do trabalho e como adaptar-se, trabalhando a automotivação;&lt;/p&gt;
+&lt;p&gt;– Habilidades e competências pessoais e profissionais;&lt;/p&gt;
+&lt;p&gt;– Postura profissional e imagem pessoal – uma construção de currículo;&lt;/p&gt;
+&lt;p&gt;– Processo de entrevista de emprego.&lt;/p&gt;
+&lt;p&gt;O público alvo são os jovens que queiram ingressar no mercado de trabalho, ou que já tenham iniciado. Ao todo 40 estagiários participaram das aulas e receberam certificado de 8h de oficina. Além da SASDH, os estagiários das demais secretarias do município também receberão a capacitação.&lt;/p&gt;
+&lt;p&gt;A psicóloga e mediadora das aulas, Dandara Viana explica que as oficinas são para preparar o jovem ao mercado de trabalho, orientando em como fazer um bom currículo e entrevista de emprego, tanto de forma presencial ou online.&lt;/p&gt;
+&lt;p&gt;“O objetivo é fazer um mapeamento e ajudar essas pessoas em suas áreas de interesse profissional e encaminhando para cursos profissionalizantes para que futuramente elas estejam exercendo trabalhos dentro da sua área de identificação, tendo mais facilidade.”&lt;/p&gt;
+&lt;p&gt;Para a jovem Sandra Theodoro, 24 anos, a oficina lhe fez sentir confiante em ingressar no mercado.&lt;/p&gt;
+&lt;p&gt;“Eu não sabia que precisava de tantos cuidados, e ao mesmo tempo ser algo tão simples. Foi muito esclarecedor e acredito que a partir deste momento saio preparada para grandes oportunidades.”&lt;/p&gt;
+&lt;p&gt;A estagiária do curso de Licenciatura em Geografia aproveita para também agradecer à prefeitura pela oportunidade de capacitação. “Acho muito importante que a prefeitura esteja sempre trazendo oportunidades de capacitação, não só para nós, estagiários, mas também para o público em geral. Isso nos motiva a querer continuar buscando os nossos objetivos”, finalizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/29/oficina-mundo-do-trabalho-atende-estagiarios-de-rio-branco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2022-11-29T22:06:27</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Corpo de homem é localizado com marcas de tiros em Senador Guiomard</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285259" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08.jpeg?resize=740%2C416&amp;#038;ssl=1" alt="" width="740" height="416" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08.jpeg?w=1280&amp;amp;ssl=1 1280w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08.jpeg?resize=300%2C169&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08.jpeg?resize=660%2C371&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08.jpeg?resize=768%2C432&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;O corpo de um homem de aproximadamente 36 anos foi encontrado possivelmente com marcas de tiros em um matagal, na noite desta terça-feira, 29, na Travessa Piracema, bairro Democracia, conhecido como &amp;#8220;Mutirão&amp;#8221;, localizado no município de Senador Guiomard, no inteiro do Acre.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class=" wp-image-285260 alignleft" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.22.jpeg?resize=193%2C253&amp;#038;ssl=1" alt="" width="193" height="253" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.22.jpeg?w=475&amp;amp;ssl=1 475w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.22.jpeg?resize=229%2C300&amp;amp;ssl=1 229w" sizes="(max-width: 193px) 100vw, 193px" data-recalc-dims="1" /&gt;Segundo apurado, a vítima foi identificada por Francisco Martins do Nascimento e foi encontrada por populares , que acionaram a policia. A vítima possuía sinais de perfurações no corpo, possivelmente feitas por arma de fogo.&lt;/p&gt;
+&lt;p&gt;Testemunhas informaram que o homem é morador do Loteamento Pirandirã e teria saído de casa conduzindo uma motocicleta Titan de cor vermelha, para ir até o bairro Democracia comprar entorpecentes. Horas depois, por volta das 20h, a vítima já foi encontrada por moradores da região jogado às margens da estrada, em uma área de mata.&lt;/p&gt;
+&lt;p&gt;A Polícia Militar e o Serviço de Atendimento Móvel de Urgência (Samu) foram acionados para atender a ocorrência e quando chegaram no local, só constataram a morte de Francisco. Segundo as autoridades, o corpo já apresentava bastante rigidez, configurando que o homem estava morto cerca de 2 horas, antes de ser encontrado por populares.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285261" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?resize=740%2C416&amp;#038;ssl=1" alt="" width="740" height="416" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?resize=300%2C169&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?resize=660%2C371&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?resize=768%2C432&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?resize=1536%2C864&amp;amp;ssl=1 1536w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09-1.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;A motocicleta do rapaz não foi encontrada no local. O que leva a suspeitar que o Francisco possa ter sido vítima de assalto, vindo a reagir, e por isso foi morto. Moradores informaram que a vítima teria corrido cerca de 100 metros para pedir ajuda, mas perdeu as forças e caiu, morrendo no local, antes da chegada do socorro.&lt;/p&gt;
+&lt;p&gt;O caso ficará a cargo da Delegacia do Município de Senador Guiomard/AC.&lt;/p&gt;
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 335px;" data-original-width="740" data-original-height="335" &gt; &lt;div class="gallery-group images-2" style="width: 295px; height: 335px;" data-original-width="295" data-original-height="335" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-2.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="291"&gt; &lt;meta itemprop="height" content="164"&gt; &lt;img data-attachment-id="285263" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-2.jpeg" data-orig-size="1280,720" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.08" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-2.jpeg?fit=300%2C169&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-2.jpeg?fit=660%2C371&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-2.jpeg?w=291&amp;#038;h=164&amp;#038;ssl=1" width="291" height="164" data-original-width="291" data-original-height="164" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.08" alt="WhatsApp Image 2022-11-29 at 21.56.08" style="width: 291px; height: 164px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="291"&gt; &lt;meta itemprop="height" content="163"&gt; &lt;img data-attachment-id="285264" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09.jpeg" data-orig-size="1600,900" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.09" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09.jpeg?fit=300%2C169&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09.jpeg?fit=660%2C371&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.09.jpeg?w=291&amp;#038;h=163&amp;#038;ssl=1" width="291" height="163" data-original-width="291" data-original-height="163" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.09" alt="WhatsApp Image 2022-11-29 at 21.56.09" style="width: 291px; height: 163px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 445px; height: 335px;" data-original-width="445" data-original-height="335" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="441"&gt; &lt;meta itemprop="height" content="331"&gt; &lt;img data-attachment-id="285266" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10.jpeg" data-orig-size="1000,750" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.10" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10.jpeg?fit=300%2C225&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10.jpeg?fit=660%2C495&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10.jpeg?w=441&amp;#038;h=331&amp;#038;ssl=1" width="441" height="331" data-original-width="441" data-original-height="331" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.10" alt="WhatsApp Image 2022-11-29 at 21.56.10" style="width: 441px; height: 331px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 239px;" data-original-width="740" data-original-height="239" &gt; &lt;div class="gallery-group images-1" style="width: 422px; height: 239px;" data-original-width="422" data-original-height="239" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-1.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="418"&gt; &lt;meta itemprop="height" content="235"&gt; &lt;img data-attachment-id="285262" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-1.jpeg" data-orig-size="1280,720" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.08 (1)" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-1.jpeg?fit=300%2C169&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-1.jpeg?fit=660%2C371&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.08-1.jpeg?w=418&amp;#038;h=235&amp;#038;ssl=1" width="418" height="235" data-original-width="418" data-original-height="235" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.08 (1)" alt="WhatsApp Image 2022-11-29 at 21.56.08 (1)" style="width: 418px; height: 235px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 318px; height: 239px;" data-original-width="318" data-original-height="239" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.11.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="314"&gt; &lt;meta itemprop="height" content="235"&gt; &lt;img data-attachment-id="285267" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.11.jpeg" data-orig-size="1000,750" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.11" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.11.jpeg?fit=300%2C225&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.11.jpeg?fit=660%2C495&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.11.jpeg?w=314&amp;#038;h=235&amp;#038;ssl=1" width="314" height="235" data-original-width="314" data-original-height="235" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.11" alt="WhatsApp Image 2022-11-29 at 21.56.11" style="width: 314px; height: 235px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 556px;" data-original-width="740" data-original-height="556" &gt; &lt;div class="gallery-group images-1" style="width: 740px; height: 556px;" data-original-width="740" data-original-height="556" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10-1.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="736"&gt; &lt;meta itemprop="height" content="552"&gt; &lt;img data-attachment-id="285265" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10-1.jpeg" data-orig-size="1000,750" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 21.56.10 (1)" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10-1.jpeg?fit=300%2C225&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10-1.jpeg?fit=660%2C495&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-21.56.10-1.jpeg?w=736&amp;#038;h=552&amp;#038;ssl=1" width="736" height="552" data-original-width="736" data-original-height="552" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 21.56.10 (1)" alt="WhatsApp Image 2022-11-29 at 21.56.10 (1)" style="width: 736px; height: 552px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/corpo-de-homem-e-localizado-com-marcas-de-tiros-em-senador-guiomard/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022-11-29T21:27:12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Tragédia no Peru: Padrasto corta pescoço de enteado acreano de 12 anos e depois tenta tirar a vida por não aceitar separação</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="font-weight: 400;"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285250" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=740%2C411&amp;#038;ssl=1" alt="" width="740" height="411" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?w=2312&amp;amp;ssl=1 2312w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=300%2C167&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=660%2C367&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=768%2C427&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=1536%2C853&amp;amp;ssl=1 1536w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?resize=2048%2C1137&amp;amp;ssl=1 2048w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?w=1480&amp;amp;ssl=1 1480w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.14.53_01.jpeg?w=2220&amp;amp;ssl=1 2220w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;Um adolescente natural do município de Epitaciolândia, A.C.S., de 12 anos, se encontra na Capital do Acre, na ala de emergência do Hospital de Criança, sob cuidados na tentativa de salvarem sua vida após sofrer tentativa de homicídio por parte do padrasto.&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;O caso teria acontecido durante na madrugada de domingo para segunda passado, na comunidade de Nareuda, região do Município de Bolpebra, da divisa entre o Peru e Bolívia. Segundo foi informado ao jornal oaltoacre, a mãe da criança vivia com o padrasto de nacionalidade boliviana, identificado pelo nome de Manoel Messias Hurtado, de 33 anos.&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;O casal teria brigado e com ajuda de terceiros, a mulher teria sido levada para um hotel afim de evitar mais brigas entre os dois. Quando voltaram à casa, encontraram a criança com o pescoço cortado pelo padrasto que também teria feito o mesmo, cortando sua garganta na tentativa de tirar sua própria vida.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285249" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?resize=740%2C404&amp;#038;ssl=1" alt="" width="740" height="404" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?w=1738&amp;amp;ssl=1 1738w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?resize=300%2C164&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?resize=660%2C360&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?resize=768%2C419&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?resize=1536%2C838&amp;amp;ssl=1 1536w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/Captura-de-Tela-2022-11-29-as-21.00.45_1.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;Imagem mostram a criança e o padrasto com ferimentos. Ambos foram levados para o hospital Roberto Galindo na cidade de Cobija, já no lado boliviano. Um médico brasileiro, Yhago Frota, foi que atendeu os dois feridos na Comunidade, falou sobre o estado de saúde.&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;Após receber os primeiros socorros e ter nacionalidade brasileira, a criança foi levada para o hospital regional do Alto Acre em Brasiléia, sendo transferida para a Capital às pressas devido seu caso ser considerado grave.&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;O padrasto ficou internado em Cobija e seu estado de saúde também é grave mesmo após receber os primeiros socorros, ficando em observação à espera de uma melhora.&lt;/p&gt;
+&lt;p style="font-weight: 400;"&gt;Mais informações a qualquer momento.&lt;/p&gt;
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 490px;" data-original-width="740" data-original-height="490" &gt; &lt;div class="gallery-group images-1" style="width: 370px; height: 490px;" data-original-width="370" data-original-height="490" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.40.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="366"&gt; &lt;meta itemprop="height" content="486"&gt; &lt;img data-attachment-id="285251" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.40.jpeg" data-orig-size="963,1280" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 19.44.40" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.40.jpeg?fit=226%2C300&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.40.jpeg?fit=660%2C877&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.40.jpeg?w=366&amp;#038;h=486&amp;#038;ssl=1" width="366" height="486" data-original-width="366" data-original-height="486" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 19.44.40" alt="WhatsApp Image 2022-11-29 at 19.44.40" style="width: 366px; height: 486px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 370px; height: 490px;" data-original-width="370" data-original-height="490" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.42.jpeg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="366"&gt; &lt;meta itemprop="height" content="486"&gt; &lt;img data-attachment-id="285253" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.42.jpeg" data-orig-size="963,1280" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 19.44.42" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.42.jpeg?fit=226%2C300&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.42.jpeg?fit=660%2C877&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.42.jpeg?w=366&amp;#038;h=486&amp;#038;ssl=1" width="366" height="486" data-original-width="366" data-original-height="486" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 19.44.42" alt="WhatsApp Image 2022-11-29 at 19.44.42" style="width: 366px; height: 486px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 583px;" data-original-width="740" data-original-height="583" &gt; &lt;div class="gallery-group images-1" style="width: 740px; height: 583px;" data-original-width="740" data-original-height="583" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.41_01.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="736"&gt; &lt;meta itemprop="height" content="579"&gt; &lt;img data-attachment-id="285254" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.41_01.jpg" data-orig-size="963,757" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="WhatsApp Image 2022-11-29 at 19.44.41_01" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.41_01.jpg?fit=300%2C236&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.41_01.jpg?fit=660%2C519&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-19.44.41_01.jpg?w=736&amp;#038;h=579&amp;#038;ssl=1" width="736" height="579" data-original-width="736" data-original-height="579" itemprop="http://schema.org/image" title="WhatsApp Image 2022-11-29 at 19.44.41_01" alt="WhatsApp Image 2022-11-29 at 19.44.41_01" style="width: 736px; height: 579px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+&lt;p&gt;#&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/tragedia-no-peru-padrasto-corta-pescoco-de-enteado-acreano-de-12-anos-e-depois-tenta-tirar-a-vida-por-nao-aceitar-separacao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:47:46</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Saúde recomenda urgência na imunização das crianças acreanas contra a covid-19</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Desde o início da pandemia, ao menos 2.500 crianças de 0 a 19 anos tiveram covid-19 no Brasil. Dessas, 300, entre 5 e 11 anos, morreram em decorrência da doença. E pelo menos 1.400 foram diagnosticadas com a síndrome inflamatória multissistêmica associada ao novo coronavírus. Atualmente, é o público infantil que corre mais risco diante de novas variantes altamente transmissíveis, como a ômicron, por não estarem protegidas, segundo dados do Ministério da Saúde.&lt;/p&gt;
+&lt;p&gt;Diante do novo aumento de casos em vários estados brasileiros, o governo do Acre, por meio da Secretaria de Saúde (Sesacre), recomenda aos pais e responsáveis que crianças a partir de 6 meses sejam vacinadas contra o coronavírus, uma vez que o índice de imunização infantil está baixo no estado.&lt;/p&gt;
+&lt;div id="attachment_285246" style="width: 726px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-285246" decoding="async" loading="lazy" class="size-full wp-image-285246" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=716%2C428&amp;#038;ssl=1" alt="" width="716" height="428" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?w=716&amp;amp;ssl=1 716w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=300%2C179&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=660%2C395&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=590%2C354&amp;amp;ssl=1 590w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 716px) 100vw, 716px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-285246" class="wp-caption-text"&gt;Vacinação de bebês contra a covid-19, com a Pfizer Baby. Foto: Agência Brasil&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;De acordo com o médico da família Oswaldo Leal, a vacinação sempre foi uma fortaleza do sistema de saúde brasileiro, mesmo antes do SUS. Historicamente, durante décadas foram registradas excelentes coberturas vacinais, protegendo a população de dezenas de doenças infecciosas e potencialmente letais.&lt;/p&gt;
+&lt;p&gt;“A disseminação de notícias falsas sobre a vacina contra a covid gerou um ambiente de desconfiança na população, com impacto também na queda da cobertura de outras vacinas. O que está acontecendo é muito grave e podemos ter muito em breve o retorno de doenças que já não víamos há muito tempo”, adverte.&lt;/p&gt;
+&lt;p&gt;Nas últimas semanas, houve um leve aumento nos casos positivos da doença. Apesar disso, o Estado do Acre ainda se encontra no nível baixo da Classificação de Risco. “Mesmo assim é de extrema importância que as crianças sejam imunizadas, pois apesar de a nova variante do vírus não ter sido detectada, procurará aqueles que ainda não estão protegidos. Por isso as crianças não imunizadas podem virar um alvo em potencial do vírus”, salienta Oswaldo Leal.&lt;/p&gt;
+&lt;figure id="attachment_584686" class="wp-caption aligncenter" aria-describedby="caption-attachment-584686"&gt;
+&lt;p&gt;&lt;div id="attachment_584686" style="width: 725px" class="wp-caption aligncenter"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg" target="_blank" rel="noopener"&gt;&lt;img aria-describedby="caption-attachment-584686" decoding="async" loading="lazy" class="wp-image-584686 size-full" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" alt="" width="715" height="429" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg 715w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13-300x180.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;p id="caption-attachment-584686" class="wp-caption-text"&gt;Médico da família Oswaldo Leal. Foto: cedida&lt;/p&gt;&lt;/div&gt;&lt;/figure&gt;
+&lt;p&gt;O médico ressalta que as reações adversas graves são extremamente raras em crianças e podem ser revertidas. As reações leves incluem dor no local de realização da vacina e febre baixa, com duração de um a dois dias, semelhante às demais vacinas feitas no público de 6 meses a 2 anos.&lt;/p&gt;
+&lt;p&gt;“Na presença de reações atribuídas à vacina, os pais devem procurar a unidade em que a criança foi vacinada ou, na impossibilidade, uma unidade de saúde próxima de onde mora para atendimento médico. Esses casos são notificados e investigados. A família recebe retorno da investigação, que é realizada pelo Crie [Centro de Referência para Imunobiológicos Especiais]”, esclarece.&lt;/p&gt;
+&lt;figure id="attachment_584687" class="wp-caption aligncenter" aria-describedby="caption-attachment-584687"&gt;
+&lt;p&gt;&lt;div id="attachment_584687" style="width: 653px" class="wp-caption aligncenter"&gt;&lt;a href="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg" target="_blank" rel="noopener"&gt;&lt;img aria-describedby="caption-attachment-584687" decoding="async" loading="lazy" class="wp-image-584687 size-full" src="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" alt="" width="643" height="477" data-src="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg 643w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14-300x223.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;p id="caption-attachment-584687" class="wp-caption-text"&gt;Vacina Pfizer Baby, para crianças de 6 meses a 2 anos. Foto: Agência Brasil&lt;/p&gt;&lt;/div&gt;&lt;figcaption id="caption-attachment-584687" class="wp-caption-text"&gt;
+A vacinação  contra o novo coronavírus é segura e eficaz e constitui a melhor forma de proteção de crianças de uma forma geral. “Não há motivos para desconfiar das vacinas. Apelo para que pais ou responsáveis levem seus filhos para vacinação. Esse é um ato de amor e de cuidado”, certifica Leal.&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/saude-recomenda-urgencia-na-imunizacao-das-criancas-acreanas-contra-a-covid-19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:45:38</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Arrecadação sobe 7,97% e atinge recorde de R$ 205,4 bi para outubro</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h1 class="toolkit-title"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-237943" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?w=1170&amp;amp;ssl=1 1170w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2021/10/economia_1609210409_0.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h1&gt;
+&lt;h2 class="toolkit-subtitle mt-5"&gt;No período acumulado de janeiro a outubro de 2022, a arrecadação alcançou o valor de R$ 1,8 trilhão, crescimento de 9,35%&lt;/h2&gt;
+&lt;p data-reader-unique-id="30"&gt;A &lt;a href="https://noticias.r7.com/economia/arrecadacao-das-receitas-federais-fica-acima-de-r-163-trilhoes-ate-setembro-25102022" data-reader-unique-id="31" target="_blank" rel="noopener"&gt;&lt;strong data-reader-unique-id="32"&gt;arrecadação de impostos e contribuições federais&lt;/strong&gt;&lt;/a&gt; no Brasil somou R$ 205,4 bilhões em outubro, crescimento de 7,97%. Trata-se do melhor resultado para o mês desde 1995, ano que marca o início da série histórica, segundo dados divulgados nesta terça-feira (29) pela Receita Federal. Em relação a setembro deste ano, houve aumento real de 22,84% no recolhimento de impostos.&lt;/p&gt;
+&lt;p data-reader-unique-id="33"&gt;No período acumulado de janeiro a outubro de 2022, a arrecadação alcançou o valor de R$ 1,8 trilhão, crescimento de 9,35%, também com o desempenho mais forte para o período de toda a série histórica.&lt;/p&gt;
+&lt;p data-reader-unique-id="41"&gt;Quanto às receitas administradas pela Receita Federal, o valor arrecadado em outubro de 2022 foi de R$ 185,2 bilhões, uma alta real de 7,39%, enquanto no período acumulado de janeiro a julho de 2022 a arrecadação alcançou R$ 1,7 trilhão com alta real de 7,62%.&lt;/p&gt;
+&lt;p data-reader-unique-id="61"&gt;Segundo a Receita Federal, o acréscimo observado no período pode ser explicado, principalmente, pelo crescimento dos recolhimentos de IRPJ (Imposto sobre a Renda das Pessoas Jurídicas) e CSLL (Contribuição Social sobre o Lucro Líquido).&lt;/p&gt;
+&lt;p data-reader-unique-id="62"&gt;O Imposto de Renda das Pessoas Jurídicas e a Contribuição Social Sobre o Lucro Líquido&lt;br data-reader-unique-id="63" /&gt;totalizaram uma arrecadação de R$ 53,8 bilhões, com crescimento real de 13,01%. Esse resultado&lt;br data-reader-unique-id="64" /&gt;explica-se pelos acréscimos reais de 11,24% na arrecadação da estimativa mensal, de 23,06% na&lt;br data-reader-unique-id="65" /&gt;arrecadação do balanço trimestral e de 10,50% na arrecadação do lucro presumido. Houve pagamentos atípicos de, aproximadamente, R$ 3 bilhões, por empresas ligadas ao setor de commodities.&lt;/p&gt;
+&lt;p data-reader-unique-id="70"&gt;A Receita Previdenciária teve arrecadação de R$ 44,9 bilhões, com acréscimo real de 6,33%. Esse resultado se deve, principalmente, ao aumento real de 15,90% da massa salarial.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/arrecadacao-sobe-797-e-atinge-recorde-de-r-2054-bi-para-outubro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:41:17</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Barroso arquiva ações contra Bolsonaro por suposta interferência na Petrobras</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="attachment_133964" style="width: 709px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-133964" decoding="async" loading="lazy" class="size-full wp-image-133964" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2018/08/x43923664461_891b83b761_o.jpg.pagespeed.ic_.fbQjiS29_f.jpg?resize=699%2C420&amp;#038;ssl=1" alt="" width="699" height="420" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2018/08/x43923664461_891b83b761_o.jpg.pagespeed.ic_.fbQjiS29_f.jpg?w=699&amp;amp;ssl=1 699w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2018/08/x43923664461_891b83b761_o.jpg.pagespeed.ic_.fbQjiS29_f.jpg?resize=300%2C180&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2018/08/x43923664461_891b83b761_o.jpg.pagespeed.ic_.fbQjiS29_f.jpg?resize=660%2C397&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2018/08/x43923664461_891b83b761_o.jpg.pagespeed.ic_.fbQjiS29_f.jpg?resize=696%2C418&amp;amp;ssl=1 696w" sizes="(max-width: 699px) 100vw, 699px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-133964" class="wp-caption-text"&gt;O ministro Luís Roberto Barroso, durante sessão do TSE &amp;#8211; Divulgação/TSE/07-08-2018&lt;/p&gt;&lt;/div&gt;
+&lt;h2 class="toolkit-subtitle mt-5"&gt;O magistrado seguiu o parecer da PGR, que não viu indícios de ilegalidade no caso&lt;/h2&gt;
+&lt;p data-reader-unique-id="78"&gt;O ministro Luís Roberto Barroso, do STF (Supremo Tribunal Federal), arquivou nesta terça-feira (29) duas ações apresentadas na &lt;a href="https://noticias.r7.com/economia/apos-fala-de-bolsonaro-petrobras-afirma-que-nao-antecipa-reajustes-29062022" data-reader-unique-id="79" target="_blank" rel="noopener"&gt;Corte contra o presidente Jair Bolsonaro por suposta interferência na Petrobras&lt;/a&gt;. O magistrado seguiu o pedido da PGR (Procuradoria-Geral da República), que não viu ilegalidade no caso.&lt;/p&gt;
+&lt;p data-reader-unique-id="80"&gt;Na decisão, o ministro afirmou que não cabe ao Poder Judiciário abrir inquérito de ofício, ou seja, sem a solicitação do Ministério Público. As ações tinham sido apresentadas por um grupo de senadores, com base em reportagens publicadas na imprensa.&lt;/p&gt;
+&lt;p data-reader-unique-id="88"&gt;De acordo com as acusações, o ex-presidente da Petrobras Roberto Castelo Branco teria dito que tem em seu celular mensagens que incriminariam Bolsonaro. As ações protocoladas no Supremo pediam a abertura de uma investigação sobre o caso, com o consequente recolhimento do aparelho celular para a avaliação de eventuais mensagens.&lt;/p&gt;
+&lt;p data-reader-unique-id="108"&gt;&amp;#8220;A orientação jurisprudencial do Supremo Tribunal Federal é no sentido de que, tendo o titular da ação penal formado sua opinião e concluído pela inexistência de elementos que justifiquem a instauração de inquérito, não cabe ao Poder Judiciário fazê-lo&amp;#8221;, escreveu Barroso.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/barroso-arquiva-acoes-contra-bolsonaro-por-suposta-interferencia-na-petrobras/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:39:02</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PL diz que vai adotar medidas para contestar decisões judiciais &amp;#8216;sem sofrer retaliação&amp;#8217;</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="attachment_285237" style="width: 781px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-285237" decoding="async" loading="lazy" class="size-full wp-image-285237" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/jair-bolsonaro-filiacao-pl-30112021105359195.jpeg?resize=740%2C403&amp;#038;ssl=1" alt="" width="740" height="403" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/jair-bolsonaro-filiacao-pl-30112021105359195.jpeg?w=771&amp;amp;ssl=1 771w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/jair-bolsonaro-filiacao-pl-30112021105359195.jpeg?resize=300%2C163&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/jair-bolsonaro-filiacao-pl-30112021105359195.jpeg?resize=660%2C360&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/jair-bolsonaro-filiacao-pl-30112021105359195.jpeg?resize=768%2C418&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-285237" class="wp-caption-text"&gt;Jair Bolsonaro na cerimônia de filiação ao PL ao lado de Valdemar Costa Neto&lt;br /&gt;Reprodução&lt;/p&gt;&lt;/div&gt;
+&lt;p class="subhead" data-reader-unique-id="subheadElement"&gt;&lt;strong&gt;Ministro do TSE considerou que partido agiu por litigância de má-fé e terá que pagar, sozinho, multa de R$ 22,9 milhões&lt;/strong&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="17"&gt;Comandado por Valdemar Costa Neto, o Partido Liberal (PL) afirmou, em comunicado divulgado nesta terça-feira (29), que adotará todas as medidas adequadas para preservar o direito &amp;#8220;constitucional e democrático&amp;#8221; de contestar decisões judiciais &amp;#8220;sem sofrer retaliação&amp;#8221;. A sigla, contudo, não explicou como vai fazer.&lt;/p&gt;
+&lt;p data-reader-unique-id="18"&gt;&amp;#8220;O Partido Liberal vai adotar todas as medidas adequadas para preservar a liberdade, o direito à livre atividade parlamentar e partidária, o direito à liberdade de expressão e, mais ainda, o direito constitucional e democrático de contestar decisões judiciais sem sofrer qualquer retaliação&amp;#8221;, disse a legenda.&lt;/p&gt;
+&lt;p data-reader-unique-id="19"&gt;Recentemente, o &lt;a href="https://noticias.r7.com/prisma/blog-do-nolasco/videos/pl-diz-que-vai-entrar-com-acao-para-que-tse-desconsidere-votos-de-urnas-antigas-19112022" target="_blank" rel="noopener" data-reader-unique-id="20"&gt;partido contestou o pleito de 2022&lt;/a&gt; e acionou o Tribunal Superior Eleitoral (TSE) para que os votos depositados em urnas de modelos anteriores a 2020, no segundo turno da eleição, fossem desconsiderados.&lt;/p&gt;
+&lt;p data-reader-unique-id="40"&gt;Inicialmente, o presidente da Corte, ministro Alexandre de Moraes, informou que a medida deveria valer também para o primeiro turno, uma vez que as mesmas urnas foram utilizadas no período. O PL, contudo, reafirmou o pedido relacionado apenas ao segundo turno, e &lt;a href="https://noticias.r7.com/brasilia/moraes-nega-pedido-do-pl-e-condena-o-partido-a-multa-de-r-229-milhoes-24112022" target="_blank" rel="noopener" data-reader-unique-id="41"&gt;Moraes, por sua vez, negou a ação.&lt;/a&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="42"&gt;Além disso, Moraes aplicou multa de R$ 22,9 milhões à coligação de Bolsonaro, que reúne ainda PP e Republicanos, e bloqueou o fundo partidário das legendas. Os &lt;a href="https://noticias.r7.com/brasilia/moraes-desbloqueia-fundo-partidario-do-republicanos-e-do-pp-25112022" target="_blank" rel="noopener" data-reader-unique-id="43"&gt;partidos, porém, afirmaram reconhecer o resultado eleitoral e foram retirados da suspensão.&lt;/a&gt; A dívida, então, ficou apenas com o PL.&lt;/p&gt;
+&lt;p data-reader-unique-id="44"&gt;&amp;#8220;Ambos os partidos — Progressistas e Republicanos — afirmaram, expressamente, que reconheceram publicamente por seus dirigentes a vitória da Coligação Brasil da Esperança nas urnas, conforme declarações publicadas na imprensa e que, em momento algum, questionaram a integridade das urnas eletrônicas, diferentemente do que foi apresentado única e exclusivamente pelo Partido Liberal&amp;#8221;, destaca um trecho da decisão.&lt;/p&gt;
+&lt;p data-reader-unique-id="45"&gt;O ministro considerou que o PL agiu por litigância de má-fé e classificou o pedido como &amp;#8220;esdrúxulo e ilícito, ostensivamente atentatório ao Estado democrático de Direito e realizado de maneira inconsequente com a finalidade de incentivar movimentos criminosos e antidemocráticos&amp;#8221;. A litigância de má-fé ocorre quando uma das partes em um processo judicial age com deslealdade, altera os fatos ou atua para conseguir um objetivo ilegal.&lt;/p&gt;
+&lt;p data-reader-unique-id="56"&gt;Moraes determinou, também, que a Corregedoria-Geral Eleitoral, ao considerar &amp;#8220;o possível cometimento de crimes comuns e eleitorais com a finalidade de tumultuar o próprio regime democrático brasileiro&amp;#8221;, instaure um procedimento administrativo para apurar a responsabilidade, &amp;#8220;em eventual desvio de finalidade na utilização da estrutura partidária&amp;#8221;, de Valdemar da Costa Neto e de &lt;a href="https://noticias.r7.com/brasilia/presidente-de-entidade-convidada-pelo-pl-para-auditar-eleicao-diz-que-urna-pode-ser-fraudada-29062022" target="_blank" rel="noopener" data-reader-unique-id="57"&gt;Carlos César Moretzsohn Rocha, dono do Instituto Voto Legal,&lt;/a&gt; contratado pelo partido para fazer a auditoria do resultado das eleições.&lt;/p&gt;
+&lt;p data-reader-unique-id="58"&gt;Em entrevista ao &lt;strong data-reader-unique-id="59"&gt;R7&lt;/strong&gt;, &lt;a href="https://noticias.r7.com/brasilia/presidente-de-entidade-convidada-pelo-pl-para-auditar-eleicao-diz-que-urna-pode-ser-fraudada-29062022" target="_blank" rel="noopener" data-reader-unique-id="60"&gt;Carlos Rocha afirmou que as urnas podem ser fraudadas&lt;/a&gt;, defendeu a participação das Forças Armadas no pleito eleitoral, sugeriu a criação de um documento eletrônico para cada voto e busca tranquilizar a sociedade sobre o assunto, sem tumultuar o pleito.&lt;/p&gt;
+&lt;p data-reader-unique-id="61"&gt;&amp;#8220;Sim, [a urna] é passível de fraude, em tese. Do ponto de vista de ataque, todo equipamento eletrônico tem risco de invasão. Não existem equipamentos perfeitos, que não tenham erros. Se existe equipamento, existe falha eletrônica. Se existe programa, existe erro. Se existem pessoas envolvidas, existem falhas humanas e intenções malignas&amp;#8221;, disse Rocha ao &lt;strong data-reader-unique-id="62"&gt;R7&lt;/strong&gt;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/pl-diz-que-vai-adotar-medidas-para-contestar-decisoes-judiciais-sem-sofrer-retaliacao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:37:32</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Prefeitura de Rio Branco realiza a 12ª Conferência Municipal dos Direitos da Criança e do Adolescente</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="attachment_285225" style="width: 1290px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-285225" decoding="async" loading="lazy" class="size-full wp-image-285225" src="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.webp" alt="" width="1280" height="853" srcset="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.webp 1280w, https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg-300x200.webp 300w, https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg-660x440.webp 660w, https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg-768x512.webp 768w" sizes="(max-width: 740px) 100vw, 740px" /&gt;&lt;p id="caption-attachment-285225" class="wp-caption-text"&gt;Objetivo é promover diálogos e palestras voltados para garantia dos direitos das crianças e adolescentes (Foto: Rodrigo Cavalcante/Assecom)&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;O prefeito de Rio Branco, Tião Bocalom, acompanhado da vice-prefeita, Marfisa Galvão, participou na manhã desta terça-feira (29) da abertura da 12ª Conferência Municipal dos Direitos da Criança e do Adolescente, no Teatro da Universidade Federal do Acre (Ufac).&lt;/p&gt;
+&lt;p&gt;A conferência, que ocorre nos dias 29 e 30 de novembro, tem como objetivo promover diálogos e palestras voltadas para a garantia dos direitos que resguardam as crianças e adolescentes.&lt;/p&gt;
+&lt;figure id="attachment_64911" class="wp-caption alignright" aria-describedby="caption-attachment-64911"&gt;
+&lt;p&gt;&lt;div id="attachment_64911" style="width: 310px" class="wp-caption alignright"&gt;&lt;img aria-describedby="caption-attachment-64911" decoding="async" loading="lazy" class="wp-image-64911 size-medium" src="https://i0.wp.com/www.riobranco.ac.gov.br/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-2.jpg?resize=300%2C200" alt="" width="300" height="200" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-64911" class="wp-caption-text"&gt;Sarah: “Ações vão ser trabalhadas para a melhoria de atividades de assistência, saúde e educação de todas as áreas” (Foto: Rodrigo Cavalcante/Assecom)&lt;/p&gt;&lt;/div&gt;&lt;figcaption id="caption-attachment-64911" class="wp-caption-text"&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A temática deste ano escolhida pelo Conselho Municipal dos Direitos da Criança e do Adolescente (CMDCA) foi a “Situação dos Direitos Humanos de crianças e adolescentes em tempos de pandemia de Covid-19: Violação e vulnerabilidades, ações necessárias para reparação e garantia de políticas de Proteção Integral, com respeito à diversidade”.&lt;/p&gt;
+&lt;figure id="attachment_64923" class="wp-caption alignleft" aria-describedby="caption-attachment-64923"&gt;
+&lt;p&gt;&lt;div id="attachment_64923" style="width: 310px" class="wp-caption alignleft"&gt;&lt;img aria-describedby="caption-attachment-64923" decoding="async" loading="lazy" class="wp-image-64923 size-medium" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2015/09/P1120348.jpg?resize=300%2C169&amp;#038;ssl=1" alt="" width="300" height="169" data-recalc-dims="1" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2015/09/P1120348.jpg?resize=300%2C169&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2015/09/P1120348.jpg?resize=660%2C371&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2015/09/P1120348.jpg?resize=900%2C506&amp;amp;ssl=1 900w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2015/09/P1120348.jpg?w=1063&amp;amp;ssl=1 1063w" sizes="(max-width: 300px) 100vw, 300px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-64923" class="wp-caption-text"&gt;Juliana: “A conferência é muito importante para que possamos sentir o que foi feito, os avanços necessários, onde podemos reparar” (Foto: Rodrigo Cavalcante/Assecom)&lt;/p&gt;&lt;/div&gt;&lt;figcaption id="caption-attachment-64923" class="wp-caption-text"&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;De acordo com a presidente do CMDCA, Sarah Farhat, esse é o primeiro encontro após a pandemia de Covid-19, onde município, Ministério Público e demais órgãos se unem para apresentar e debater soluções, a fim de restituir os direitos das crianças e adolescentes no pós-pandemia.&lt;/p&gt;
+&lt;p&gt;“Essa conferência vai ser um marco onde ações vão ser trabalhadas para a melhoria de atividades de assistência, saúde e educação de todas as áreas. Contamos aqui com a participação de mais de 400 pessoas e com a ilustre presença do nosso prefeito e de secretarias”, enfatizou.&lt;/p&gt;
+&lt;p&gt;A defensora pública de Direitos Humanos, Juliana Caobianco, enfatizou a importância desse encontro para buscar soluções aos problemas já existentes, que em decorrência da pandemia se agravaram, como a insegurança alimentar e a saúde mental.&lt;/p&gt;
+&lt;p&gt;“A conferência é muito importante para que possamos sentir o que foi feito, os avanços necessários, onde podemos reparar e todas essas mazelas que a pandemia deixou e ainda deixam em nossas crianças. É urgente que discutam e apresentem propostas”, explicou.&lt;/p&gt;
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="740" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 740px; height: 331px;" data-original-width="740" data-original-height="331" &gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 331px;" data-original-width="494" data-original-height="331" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-3.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="327"&gt; &lt;img data-attachment-id="285226" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-3.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-3.jpg" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-3.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-3.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-3.jpg.jpg?w=490&amp;#038;h=327&amp;#038;ssl=1" width="490" height="327" data-original-width="490" data-original-height="327" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-3.jpg" alt="conferencia-direitos-criancas-e-adolesRC-3.jpg" style="width: 490px; height: 327px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 331px;" data-original-width="246" data-original-height="331" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-4.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="285227" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-4.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-4.jpg" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-4.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-4.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-4.jpg.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-4.jpg" alt="conferencia-direitos-criancas-e-adolesRC-4.jpg" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="285228" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-6.jpg" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-6.jpg.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-6.jpg" alt="conferencia-direitos-criancas-e-adolesRC-6.jpg" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 331px;" data-original-width="740" data-original-height="331" &gt; &lt;div class="gallery-group images-2" style="width: 246px; height: 331px;" data-original-width="246" data-original-height="331" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-8.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="285229" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-8.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-8.jpg" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-8.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-8.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-8.jpg.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-8.jpg" alt="conferencia-direitos-criancas-e-adolesRC-8.jpg" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-9.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="161"&gt; &lt;img data-attachment-id="285230" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-9.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-9.jpg" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-9.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-9.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-9.jpg.jpg?w=242&amp;#038;h=161&amp;#038;ssl=1" width="242" height="161" data-original-width="242" data-original-height="161" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-9.jpg" alt="conferencia-direitos-criancas-e-adolesRC-9.jpg" style="width: 242px; height: 161px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 494px; height: 331px;" data-original-width="494" data-original-height="331" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-10.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="490"&gt; &lt;meta itemprop="height" content="327"&gt; &lt;img data-attachment-id="285231" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-10.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-10.jpg" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-10.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-10.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-10.jpg.jpg?w=490&amp;#038;h=327&amp;#038;ssl=1" width="490" height="327" data-original-width="490" data-original-height="327" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-10.jpg" alt="conferencia-direitos-criancas-e-adolesRC-10.jpg" style="width: 490px; height: 327px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 740px; height: 166px;" data-original-width="740" data-original-height="166" &gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-11.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="285232" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-11.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;1&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-11.jpg" data-image-description="" data-medium-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-11.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-11.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-11.jpg.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-11.jpg" alt="conferencia-direitos-criancas-e-adolesRC-11.jpg" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 247px; height: 166px;" data-original-width="247" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-12.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="243"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="285233" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-12.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-12.jpg" data-image-description="" data-medium-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-12.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-12.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-12.jpg.jpg?w=243&amp;#038;h=162&amp;#038;ssl=1" width="243" height="162" data-original-width="243" data-original-height="162" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-12.jpg" alt="conferencia-direitos-criancas-e-adolesRC-12.jpg" style="width: 243px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 246px; height: 166px;" data-original-width="246" data-original-height="166" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-13.jpg.jpg?ssl=1" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="242"&gt; &lt;meta itemprop="height" content="162"&gt; &lt;img data-attachment-id="285234" data-orig-file="https://oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-13.jpg.jpg" data-orig-size="1280,853" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="conferencia-direitos-criancas-e-adolesRC-13.jpg" data-image-description="" data-medium-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-13.jpg.jpg?fit=300%2C200&amp;#038;ssl=1" data-large-file="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-13.jpg.jpg?fit=660%2C440&amp;#038;ssl=1" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/conferencia-direitos-criancas-e-adolesRC-13.jpg.jpg?w=242&amp;#038;h=162&amp;#038;ssl=1" width="242" height="162" data-original-width="242" data-original-height="162" itemprop="http://schema.org/image" title="conferencia-direitos-criancas-e-adolesRC-13.jpg" alt="conferencia-direitos-criancas-e-adolesRC-13.jpg" style="width: 242px; height: 162px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/prefeitura-de-rio-branco-realiza-a-12a-conferencia-municipal-dos-direitos-da-crianca-e-do-adolescente/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:22:08</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Alex Sandro aumenta lista de desfalques do Brasil</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285221" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/alex-sandro-aumenta-lista-de-desfalques-do-brasil.jpg?resize=740%2C493&amp;#038;ssl=1" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/alex-sandro-aumenta-lista-de-desfalques-do-brasil.jpg?w=1240&amp;amp;ssl=1 1240w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/alex-sandro-aumenta-lista-de-desfalques-do-brasil.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/alex-sandro-aumenta-lista-de-desfalques-do-brasil.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/alex-sandro-aumenta-lista-de-desfalques-do-brasil.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;OGol&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;Danilo e Neymar seguem fora e agora Tite terá de lidar com novo problema no elenco. Alex Sandro, com lesão muscular no quadril esquerdo, está fora do jogo contra Camarões.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;A ausência contra Camarões não seria um problema para Tite. O planejamento da comissão técnica já era gerir o desgaste do elenco, com o Brasil classificado para as oitavas de final. No entanto, o lateral esquerdo pode ser desfalque por mais tempo. O substituto natural do atleta é Alex Telles, que jogou os minutos finais da vitória sobre a Suíça.&lt;/p&gt;
+&lt;p data-reader-unique-id="3"&gt;No lado direito, Danilo segue sendo desfalque. A opção de Tite contra os suíços foi improvisar Éder Militão. Contra Camarões o substituto não está ainda definido, com a possibilidade de Dani Alves ganhar uma oportunidade para provar que ainda tem condições de atuar pela seleção.&lt;/p&gt;
+&lt;p data-reader-unique-id="4"&gt;Neymar, que chegou a partilhar imagens preocupantes do seu tornozelo inchado, segue também em tratamento e sem previsão de retorno. Fred foi quem ocupou sua vaga no último jogo.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/alex-sandro-aumenta-lista-de-desfalques-do-brasil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:20:24</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Copa do Mundo tem primeiros confrontos das oitavas definidos</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285218" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos.jpg?resize=740%2C493&amp;#038;ssl=1" alt="" width="740" height="493" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos.jpg?w=1240&amp;amp;ssl=1 1240w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;OGol&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;No primeiro dia de jogos da terceira rodada da Copa do Mundo, os grupos A e B foram encerreados, confirmando assim as equipes classificadas e os primeiros confrontos das oitavas de final. Além disso, quatro equipes se despediram do mundial com os jogos desta terça.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;Nessa rodada, as partidas de um mesmo grupo acontecem de forma simultânea. No Grupo A, a Holanda enfrentou o já eliminado Catar e venceu com tranquilidade, mesmo que longe de mostrar o futebol esperado antes da Copa do Mundo. Os gols foram marcados por Gakpo e De Jong (&lt;a href="https://www.ogol.com.br/news.php?id=425122" target="_blank" rel="noopener" data-reader-unique-id="3"&gt;&lt;strong data-reader-unique-id="4"&gt;saiba como foi&lt;/strong&gt;&lt;/a&gt;).&lt;/p&gt;
+&lt;p data-reader-unique-id="5"&gt;A emoção desse grupo ficou por conta do outro duelo, em que Senegal, que precisava a todo custo da vitória venceu o Equador por 2 a 1. Os sul-americanos poderiam se classificar com o empate, mas não conseguiram segurar o resultado. Com isso, Senegal voltou a avançar para as oitavas pela primeira vez desde 2002 (&lt;a href="https://www.ogol.com.br/news.php?id=425130" target="_blank" rel="noopener" data-reader-unique-id="6"&gt;&lt;strong data-reader-unique-id="7"&gt;saiba como foi&lt;/strong&gt;&lt;/a&gt;).&lt;/p&gt;
+&lt;p data-reader-unique-id="8"&gt;Nos jogos seguintes, a Inglaterra foi confirmar a sua classificação em um jogo dominante contra País de Gales. No primeiro tempo, os ingleses foram pouco criativos diante da retranca adversária, mas na segunda etapa marcaram três vezes (e teve chances para mais). Rashford foi o grande destaque, com duas bolas na rede (&lt;a href="https://www.ogol.com.br/news.php?id=425170" target="_blank" rel="noopener" data-reader-unique-id="9"&gt;&lt;strong data-reader-unique-id="10"&gt;saiba como foi&lt;/strong&gt;&lt;/a&gt;).&lt;/p&gt;
+&lt;p data-reader-unique-id="11"&gt;Em um duelo direto pela segunda vaga, a seleção dos Estados Unidos precisou superar o Irã e conseguiu pelo placar mínimo, com gol de Pulisic no primeiro tempo. A segunda etapa foi de pura pressão do time asiático, que precisava do empate e quase conseguiu nos acréscimos. No final, a vaga ficou com os norte-americanos (&lt;a href="https://www.ogol.com.br/news.php?id=425166" target="_blank" rel="noopener" data-reader-unique-id="12"&gt;&lt;strong data-reader-unique-id="13"&gt;saiba como foi&lt;/strong&gt;&lt;/a&gt;).&lt;/p&gt;
+&lt;h3 data-reader-unique-id="14"&gt;&lt;strong data-reader-unique-id="15"&gt;As oitavas de final&lt;/strong&gt;&lt;/h3&gt;
+&lt;p data-reader-unique-id="16"&gt;Com as definições dos dois grupos, foram definidos os dois primeiros jogos das oitavas de final. Abrindo a fase, Holanda e Estados Unidos se enfrentam no próximo sábado, 13, às 12h (horário de Brasília). No dia seguinte, o domingo, 14, Inglaterra e Senegal jogarão às 16h.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/copa-do-mundo-tem-primeiros-confrontos-das-oitavas-definidos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2022-11-29T19:16:29</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Com pouco tempo de descanso, Brasil deve ter time reserva contra Camarões</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285214" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-con.jpg?resize=740%2C493&amp;#038;ssl=1" alt="" width="740" height="493" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-con.jpg?w=1240&amp;amp;ssl=1 1240w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-con.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-con.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-con.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;Com o primeiro lugar do Grupo G praticamente garantido, o Brasil já pensa nas oitavas de final e por isso deve escalar um time completamente reserva para o jogo da próxima sexta-feira contra Camarões, pela terceira rodada da fase de grupos da Copa do Mundo. De acordo com o ge, a comissão já avisou aos jogadores da intenção no treino de hoje.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;Se avançar em primeiro lugar, o Brasil enfrenta o segundo colocado do Grupo H, em jogo que deve acontecer na segunda-feira. Ou seja, menos de 72 horas do duelo contra Camarões.&lt;/p&gt;
+&lt;p data-reader-unique-id="3"&gt;Tite já não tem à disposição Neymar, Danilo, ambos com problema no tornozelo, e Alex Sandro, com uma lesão muscular no quadril, e ainda há outros jogadores que passaram por quadro febril ou de mal-estar na última semana. Com isso, o time que vai a campo contra Camarões deve começar a ser montado no treino de quarta-feira.&lt;/p&gt;
+&lt;p data-reader-unique-id="4"&gt;Com isso, um provável time teria: Ederson, Daniel Alves, Militão, Bremer e Alex Telles; Fabinho e Bruno Guimarães; Antony, Rodrygo, Gabriel Jesus e Martinelli.&lt;/p&gt;
+&lt;p data-reader-unique-id="5"&gt;Se essa escalação for a campo, os únicos jogadores a não terem entrado em campo serão o goleiro Weverton, o meia Everton Ribeiro e o atacante Pedro, todos que atuam no futebol brasileiro.&lt;/p&gt;
+&lt;p data-reader-unique-id="5"&gt;Fonte: OGol&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/com-pouco-tempo-de-descanso-brasil-deve-ter-time-reserva-contra-camaroes/</t>
         </is>
       </c>
     </row>
@@ -3187,7 +4629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3415,46 +4857,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-28T11:44:40</t>
+          <t>2022-11-29T21:50:07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Com aumento de mortes violentas devido à guerra de facções, Secretaria de Justiça e Segurança Pública instala gabinete de crise</t>
+          <t>Urgente: Homem é morto a tiros e tem corpo desovado em matagal no Quinari</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/policia/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-secretaria-de-justica-e-seguranca-publica-instala-gabinete-de-crise/attachment/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-seguranca-instala-gabinete-de-crise-no-acre/" rel="attachment wp-att-292648"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292648" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-Seguranca-instala-gabinete-de-crise-no-Acre.gif" alt="" width="1000" height="925" /&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p style="text-align: center;"&gt;&lt;strong&gt;Noite violenta em Rio Branco tem execuções, tentativa de homicídio e carro incendiado &amp;#8211; Foto: Iryá Rodrigues&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Após uma noite violenta no sábado (26), a Secretaria de Justiça e Segurança Pública do Acre informou que instalou um gabinete de crise para acompanhar concentrar e desenvolver melhor os casos no estado. Entre as ocorrências de sábado, teve execuções, tentativas de homicídio e um carro incendiando na Baixada da Sobral. A Segurança Pública confirmou, na sexta-feira (25) que o estado acreano voltava a sofrer com ondas de violência devido à guerra de facções.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&amp;#8220;Da análise sobre as últimas ocorrências de crimes violentos intencionais, foi possível extrair que eles ocorrem em razão do enfrentamento entre organizações criminosas, enquanto que outros exigem das Forças de Segurança um aprofundamento maior para uma conclusão efetiva sobre do que se tratam&amp;#8221;, destaca a nota, assinada pela PM, Polícia Civil e Militar.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;A nota diz que foram analisadas as ocorrências, juntamente com o setor de inteligência das polícias e o gabinete deve reunir melhor essas informações e traçar o que deve ser feito. &amp;#8220;Com o apoio da Sejusp, estará fortalecendo o policiamento ostensivo nos bairros onde foram identificadas as maiores possibilidades de violência contra a vida. Como resultado da reunião foi também instituído um Gabinete de Crise para acompanhar, em tempo real, todos os fatos, e adotar providências por meio de recursos humanos e logísticos necessários para conter esses episódios de violência que assola o estado, neste momento&amp;#8221;, destaca o documento assinado por Luciano Fonseca, comandante-geral da PM-AC; Henrique Maciel, diretor-geral da Polícia Civil; e Paulo Cézar Rocha dos Santos, secretário de Justiça e Segurança Pública.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Kennedy Rafael dos Santos, de 19 anos, foi morto a tiros. Populares informaram à polícia que a vítima estava de moto, quando foi &amp;#8220;fechada&amp;#8221; por um carro preto, ouviram cerca de 5 disparos e viram duas pessoas correndo para esse carro preto e saindo rapidamente do local. Uma moradora que se encontrava em frente onde ocorreu o homicídio foi atingida de raspão na região do quadril. Ela foi atendida pelo Samu e encaminhada ao Pronto-Socorro e o quadro é estável.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Outra execução foi registrada no bairro do Amapá, em Rio Branco. Um homem foi morto a tiros dentro de uma casa no Ramal do Pica-Pau. Ele foi identificado como Elismar de Souza Cunha, de 33 anos, mais conhecido como &amp;#8220;Mazinho&amp;#8221;.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Segundo a Polícia Militar, populares informaram que cinco pessoas fortemente armadas e trajando coletes balísticos estavam em um carro Hyundai de cor prata, com marcas de tiros na lataria.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Os criminosos entraram na casa, onde estavam três pessoas, entre elas Mazinho. Um dos homens fugiu pela mata, ficando apenas a vítima e o dono da casa. Os autores chegaram gritando que seriam policiais e Mazinho foi obrigado a deitar e foi morto com oito tiros. Segundo a polícia, a vítima havia chegado na casa na manhã de sexta-feira (25), onde passaria uns dias. &lt;a href="https://g1.globo.com/ac/acre/noticia/2022/11/28/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-seguranca-instala-gabinete-de-crise-no-acre.ghtml"&gt;Veja mais no G1 Acre&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://3dejulhonoticias.com.br/policia/com-aumento-de-mortes-violentas-devido-a-guerra-de-faccoes-secretaria-de-justica-e-seguranca-publica-instala-gabinete-de-crise/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-11-29T21:50:07</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Urgente: Homem é morto a tiros e tem corpo desovado em matagal no Quinari</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O corpo de um homem de aproximadamente 36 anos foi encontrado possivelmente com marcas de tiros em um matagal, na noite desta terça-feira, 29, na Travessa Piracema, bairro Democracia, conhecido como &amp;#8220;Mutirão&amp;#8221;, localizado no município de Senador Guiomard, no inteiro do Acre.&lt;/p&gt;
 &lt;p&gt;Segundo a polícia, a vítima foi identificada por Francisco Martins do Nascimento, conhecido como &amp;#8220;Doca&amp;#8221; e foi encontrado por populares, que acionaram a corporação. A vítima possuía várias perfurações no corpo, possivelmente feitas por arma de fogo.&lt;/p&gt;
@@ -3468,9 +4879,192 @@
 </t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/11/urgente-homem-e-morto-a-tiros-e-tem-corpo-desovado-em-matagal-no-quinari/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:19:23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caminhonete é apreendida com mais de 181 quilos de drogas em rodovia do Acre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;ma abordagem de rotina da Polícia Rodoviária Federal (PRF-AC) na manhã desta segunda-feira (28) acabou com a apreensão de mais de 181 quilos de drogas. Duas pessoas foram presas e levadas para a sede da Polícia Federal de Rio Branco para os procedimentos cabíveis.&lt;/p&gt;
+&lt;p&gt;A PRF-AC informou que parou uma caminhonete na BR-364. Durante a revista, os policiais encontraram o entorpecente escondido no compartimento da estrutura da carroceria. A polícia não detalhou de cidade o carro tinha saído e qual o destino final da droga.&lt;/p&gt;
+&lt;p&gt;Foram apreendidos, no total, 167,42 kg de pasta base e 14,46 kg de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;Mais droga apreendida&lt;br /&gt;
+No último sábado (26), durante patrulhamento na BR-364, foi feita a abordagem a um caminhão-cegonha encontrados 63,5 quilos de drogas escondidos em dois veículos que estavam sendo transportados.&lt;/p&gt;
+&lt;p&gt;Parte da droga estava escondida no compartimento da porta dos carros. No total foram apreendidos 63,5 kgs, sendo 46,76 kgs de pasta base e 15,74 kgs de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;A droga e os dois veículos foram encaminhados à Polícia Federal de Rio Branco-AC para as medidas cabíveis. A PRF não informou se houve prisões.&lt;/p&gt;
+</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/urgente-homem-e-morto-a-tiros-e-tem-corpo-desovado-em-matagal-no-quinari/</t>
+          <t>https://www.acre.com.br/caminhonete-e-apreendida-com-mais-de-181-quilos-de-drogas-em-rodovia-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:04:04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polícia prende suspeito de matar colono a tiros e esganado no interior do Acre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-ds1o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;F&lt;/span&gt;rancisco Campos Barbosa, mais conhecido como Chico Abreu, foi achado morto em uma ramal na divisa do município de Xapuri e Epitaciolândia, no interior do Acre. De acordo com a polícia, os familiares disseram que procuravam por ele desde a última sexta-feira (25), mas achavam que ele havia saído para caçar.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-9531i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Já no domingo (27), uma equipe da Polícia Civil, coordenada pelo delegado Luis Tonini, foi até o local, que é de difícil acesso, e resgatou o corpo do colono.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6f09"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="72" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Fomos com uma equipe e encontramos. Os familiares achavam que ele estava em uma caça, junto com esse rapaz que era caseiro com ele, mas no domingo [27] o sobrinho da vítima foi para lá e viu o corpo, que estava meio afastado estava a 100, 50 metros da casa, uma área de capinzal. Ele também sentiu o mau cheiro e viu que se tratava do tio dele”, explica o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ulaq"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5nuf0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Então, a equipe da Polícia Civil foi acionada e o corpo levado ao Instituto Médico Legal (IML), onde foi constatado que Barbosa foi morto com um tiro nas costas e também foi enforcado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-fpt13"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="8"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/RGZ4P2lCAfNNy7bNvMLvR_SirKg=/0x0:1599x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/R/E/4d7QGFT82ClCefDo4IIA/whatsapp-image-2022-11-29-at-09.46.34.jpeg?w=740&amp;#038;ssl=1" alt="Delegado Tonini coordenou as buscas pelo corpo no interior do Acre  — Foto: Polícia Civil " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Delegado Tonini coordenou as buscas pelo corpo no interior do Acre — Foto: Polícia Civil&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2fmli"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O suspeito, Benigno Queiroz Sales, de 36 anos, conhecido como ‘Banana’, foi preso ainda na segunda-feira (28) em Epitaciolândia. O delegado informou que algumas informações apontavam que ele estava armado em uma área de mata e a Polícia Militar foi acionada.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8sq1b"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi preso sem arma, mas depois indicou onde estava escondida a arma do crime. Ele também confessou e disse ao delegado que matou a vítima para se defender.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5p97l"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="11"&gt;
+&lt;div id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6u5ff"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Ele disse que se defendeu porque vítima quando bebia ficava bastante agressiva, mas a gente não acredita nessa versão porque ele estava envolvido em um furto em uma casa perto de onde aconteceu o crime e também já era investigado por estupro em Epitaciolândia”, diz.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b4jrt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi transferido para a delegacia de Xapuri, onde deve ser indiciado por latrocínio. Como o crime foi na divisa, a responsabilidade da investigação ficou com o delegado Gustavo Neves. O g1 tentou ouvi-lo, mas não obteve retorno até esta publicação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqk7n"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="14"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/pYQYz4hgZLrhVFS73MLSvxAQDsg=/0x0:679x838/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/w/k/v9tmgzSmyzoVi8kR8Zfg/preso1.jpg?w=740&amp;#038;ssl=1" alt="Benigno Queiroz Sales, de 36 anos, foi preso pelo crime  — Foto: Arquivo pessoal " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Benigno Queiroz Sales, de 36 anos, foi preso pelo crime — Foto: Arquivo pessoal&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/policia-prende-suspeito-de-matar-colono-a-tiros-e-esganado-no-interior-do-acre/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:10:48</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Homem tem casa invadida e é morto a tiros em Rio Branco</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p style="font-weight: 400"&gt;&lt;span class="wpsdc-drop-cap"&gt;H&lt;/span&gt;omem é morto com seis tiros na tarde deste sábado, dia 26, na Travessa da Amizade, no Ramal do Pica-pau, na região do Amapá.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Segundo informações, que dois homens se passando por policiais chegaram ao local em um carro HB20.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Renderam a vítima, ao percebeu que não era polícia, ele correu para dentro da casa, mais foi perseguido e morto por seis tiros que morreu no local.&lt;/p&gt;
+&lt;p style="font-weight: 400"&gt;Os bandidos entraram no carro e fugiram, tomando rumos ignorados.&lt;/p&gt;
+&lt;p&gt;Boca no Trombone Ac&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/homem-tem-casa-invadida-e-e-morto-a-tiros-em-rio-branco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-11-27T02:02:44</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Homem sofre tentativa de homicídio quando caminhava em Rio Branco e amigos reclamam de “covardia”</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;m homem identificado apenas como Alessandro, 30 anos, foi vítima de uma tentativa de homicídio na noite deste sábado (26), na Rua Padre José, no bairro Triângulo Novo, na região do Segundo Distrito de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações da polícia, Alessandro estava caminhando em via pública, quando foi surpreendido por dois criminosos que estavam em uma motocicleta e o passageiro, de posse de uma arma de fogo, se aproximou da vítima e disparou três vezes, sendo que um atingiu a perna, outro na boca e mais um no testículos do homem. Após a ação, os criminosos fugiram do local.&lt;/p&gt;
+&lt;p&gt;Populares ajudaram o homem e acionaram ambulância do Serviço de Atendimento Móvel de Urgência (Samu), que enviou uma ambulâncias de suporte avançada para avaliação e estabilização do quadro clínico da vítima. Após o atendimento Alessandro foi encaminhado ao pronto-socorro de Rio Branco, em estado de saúde grave.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do 2° Batalhão também estiveram no local, colheram informações dos criminosos e realizaram ronda na região, mas não tiveram êxito.&lt;/p&gt;
+&lt;p&gt;Uma equipe de agentes de Polícia Civil da Equipe de Pronto Emprego (EPE) e agentes da Delegacia de Homicídio e Proteção à Pessoa (DHPP) colheram as informações e o caso será investigado.&lt;/p&gt;
+&lt;p&gt;A reportagem teve acesso a um vídeo gravado após Alessandro ser ferido a tiros, onde amigos da vítima reclamavam de “covardia” e diziam “Até quando?”.&lt;/p&gt;
+&lt;p&gt;Por Ithamar Souza, Na Hora da Notícia&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/homem-sofre-tentativa-de-homicidio-quando-caminhava-em-rio-branco-e-amigos-reclamam-de-covardia/</t>
         </is>
       </c>
     </row>
@@ -3485,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3518,73 +5112,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29T16:22:16</t>
+          <t>2022-11-29T12:39:49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acre confirma 43 novos casos de coronavírus nesta terça</t>
+          <t>Saúde recomenda urgência na imunização das crianças acreanas contra a covid-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 43 novos casos de coronavírus nesta terça-feira, 29 de novembro. O número de infectados notificados é de 153.730 em todo o estado.&lt;/p&gt;
-&lt;p&gt;Até o momento, o Acre registra 360.512 notificações de contaminação pela doença, sendo que 206.767 casos foram descartados e 15 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até o fechamento deste boletim.&lt;/p&gt;
-&lt;p&gt;Os dados da vacinação contra a covid-19 no Acre podem ser acessados no Painel de Monitoramento da Vacinação, disponível no endereço eletrônico: &lt;a href="http://covid19.ac.gov.br/vacina/inicio"&gt;http://covid19.ac.gov.br/vacina/inicio&lt;/a&gt;. As informações são atualizadas na plataforma do Ministério da Saúde (MS) e estão sujeitas a alterações constantes, em razão das informações inseridas a partir de cada município.&lt;/p&gt;
-&lt;p&gt;Nenhum óbito foi notificado nesta terça-feira, 29, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://correio68.com/2022/11/29/acre-confirma-43-novos-casos-de-coronavirus-nesta-terca/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-11-29T13:26:23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sesacre recomenda urgência na imunização das crianças acreanas contra a Covid-19</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Desde o início da pandemia, ao menos 2.500 crianças de 0 a 19 anos tiveram covid-19 no Brasil. Dessas, 300, entre 5 e 11 anos, morreram em decorrência da doença. E pelo menos 1.400 foram diagnosticadas com a síndrome inflamatória multissistêmica associada ao novo coronavírus. Atualmente, é o público infantil que corre mais risco diante de novas variantes altamente transmissíveis, como a ômicron, por não estarem protegidas, segundo dados do Ministério da Saúde.&lt;/p&gt;
-&lt;p&gt;Diante do novo aumento de casos em vários estados brasileiros, o governo do Acre, por meio da Secretaria de Saúde (Sesacre), recomenda aos pais e responsáveis que crianças a partir de 6 meses sejam vacinadas contra o coronavírus, uma vez que o índice de imunização infantil está baixo no estado.&lt;/p&gt;
-&lt;p&gt;De acordo com o médico da família Oswaldo Leal, a vacinação sempre foi uma fortaleza do sistema de saúde brasileiro, mesmo antes do SUS. Historicamente, durante décadas foram registradas excelentes coberturas vacinais, protegendo a população de dezenas de doenças infecciosas e potencialmente letais.&lt;/p&gt;
-&lt;p&gt;“A disseminação de notícias falsas sobre a vacina contra a covid gerou um ambiente de desconfiança na população, com impacto também na queda da cobertura de outras vacinas. O que está acontecendo é muito grave e podemos ter muito em breve o retorno de doenças que já não víamos há muito tempo”, adverte.&lt;/p&gt;
-&lt;p&gt;Nas últimas semanas, houve um leve aumento nos casos positivos da doença. Apesar disso, o Estado do Acre ainda se encontra no nível baixo da Classificação de Risco. “Mesmo assim é de extrema importância que as crianças sejam imunizadas, pois apesar de a nova variante do vírus não ter sido detectada, procurará aqueles que ainda não estão protegidos. Por isso as crianças não imunizadas podem virar um alvo em potencial do vírus”, salienta Oswaldo Leal.&lt;/p&gt;
-&lt;figure id="attachment_584686" class="wp-caption aligncenter" aria-describedby="caption-attachment-584686"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-584686 size-full" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg 715w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13-300x180.jpeg 300w" alt="" width="715" height="429" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg 715w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13-300x180.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-584686" class="wp-caption-text"&gt;Médico da família Oswaldo Leal. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O médico ressalta que as reações adversas graves são extremamente raras em crianças e podem ser revertidas. As reações leves incluem dor no local de realização da vacina e febre baixa, com duração de um a dois dias, semelhante às demais vacinas feitas no público de 6 meses a 2 anos.&lt;/p&gt;
-&lt;p&gt;“Na presença de reações atribuídas à vacina, os pais devem procurar a unidade em que a criança foi vacinada ou, na impossibilidade, uma unidade de saúde próxima de onde mora para atendimento médico. Esses casos são notificados e investigados. A família recebe retorno da investigação, que é realizada pelo Crie [Centro de Referência para Imunobiológicos Especiais]”, esclarece.&lt;/p&gt;
-&lt;figure id="attachment_584687" class="wp-caption aligncenter" aria-describedby="caption-attachment-584687"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-584687 size-full" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg 643w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14-300x223.jpeg 300w" alt="" width="643" height="477" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg 643w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14-300x223.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-584687" class="wp-caption-text"&gt;Vacina Pfizer Baby, para crianças de 6 meses a 2 anos. Foto: Agência Brasil&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;A vacinação  contra o novo coronavírus é segura e eficaz e constitui a melhor forma de proteção de crianças de uma forma geral. “Não há motivos para desconfiar das vacinas. Apelo para que pais ou responsáveis levem seus filhos para vacinação. Esse é um ato de amor e de cuidado”, certifica Leal.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://correio68.com/2022/11/29/sesacre-recomenda-urgencia-na-imunizacao-das-criancas-acreanas-contra-a-covid-19/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-11-29T12:39:49</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saúde recomenda urgência na imunização das crianças acreanas contra a covid-19</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61203" src="http://yaconews.com/wp-content/uploads/2022/11/images-15.jpeg" alt="" width="716" height="428" srcset="http://yaconews.com/wp-content/uploads/2022/11/images-15.jpeg 716w, http://yaconews.com/wp-content/uploads/2022/11/images-15-300x179.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/images-15-696x416.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/images-15-703x420.jpeg 703w" sizes="(max-width: 716px) 100vw, 716px" /&gt;&lt;/p&gt;
 &lt;p&gt;Desde o início da pandemia, ao menos 2.500 crianças de 0 a 19 anos tiveram covid-19 no Brasil. Dessas, 300, entre 5 e 11 anos, morreram em decorrência da doença. E pelo menos 1.400 foram diagnosticadas com a síndrome inflamatória multissistêmica associada ao novo coronavírus. Atualmente, é o público infantil que corre mais risco diante de novas variantes altamente transmissíveis, como a ômicron, por não estarem protegidas, segundo dados do Ministério da Saúde.&lt;/p&gt;
@@ -3600,133 +5136,108 @@
 </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/11/saude-recomenda-urgencia-na-imunizacao-das-criancas-acreanas-contra-a-covid-19/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-11-29T16:46:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Acre registra 43 casos de covid-19 nesta terça-feira</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;De acordo com o boletim da Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), o Acre registrou 43 novos casos de covid-19, nesta terça-feira, 29. O número de infectados notificados é de 153.730 em todo o estado.&lt;/p&gt;
+&lt;p&gt;Até o momento, o Acre registra 360.512 notificações de contaminação pela doença, sendo que 206.767 casos foram descartados e 15 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen).&lt;/p&gt;
+&lt;p&gt;Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até a última atualização deste boletim.&lt;/p&gt;
+&lt;p&gt;Novos óbitos por consequência da doença não foram registrados, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/acre-registra-43-casos-de-covid-19-nesta-terca-feira/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-11-29T15:34:43</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Neymar, Antony e Paquetá tiveram sintomas gripais ou virose, mas seleção dispensa teste de covid-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os &lt;b&gt;sintomas&lt;/b&gt; &lt;b&gt;gripais&lt;/b&gt; que ao menos três dos 26 atletas da &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-brasileira-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;seleção brasileira&lt;/b&gt;&lt;/a&gt; apresentaram na primeira semana na &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/copa-do-mundo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Copa do Mundo do Catar&lt;/b&gt;&lt;/a&gt; não foram suficientes para que eles eles passassem poro testes covid-19, segundo avaliação dos médicos que compõem a delegação em Doha. Por isso, a junta médica fez a avaliação de que Neymar, Antony e Lucas Paquetá não precisavam ser submetidos ao exames para a detecção da doença.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“Não passou nem perto essa questão de fazer teste de covid-19”, disse o coordenador da seleção brasileira, Juninho Paulista. Em recuperação de lesão ligamentar no tornozelo direito, Neymar teve febre no dia da partida do Brasil contra a Suíça, mas já está bem.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“O Neymar apresentou um episódio de febre que já está controlado. Isso não interfere no seu processo de recuperação do tornozelo”, limitou-se a dizer o médico da seleção, Rodrigo Lasmar., que ficou incumbido de se aprofundar sobre os quadros gripais dos atletas, mas não o fez.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O médico confirmou que tanto Neymar como Danilo estão fora do duelo com Camarões, o último da fase de grupos, sexta-feira, 2, no Estádio Lusail. Alex Sandro teve lesão muscular no quadril e também não enfrenta o rival africano.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os jogadores ficam em quartos individuais, mas fazem todas as atividades no hotel, como as refeições, juntos, além dos treinamentos no Grand Hamad Stadium. “Tivemos alguns casos de virose, como o Antony. Alguma coisa nesse sentido. Nada que pudesse influenciar na participação deles, tanto que o Antony entrou e entrou bem (na partida)”, afirmou o auxiliar César Sampaio.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O protocolo da Fifa não exige exame de covid-19 nem o uso de máscaras, acessório pouco visto em Doha. O governo do Catar também retirou desde o início do mês a obrigatoriedade de exames de covid para os torcedores, jornalistas e todos que fossem ao país árabe acompanhar a Copa do Mundo. Também não existe exigência de comprovantes de vacinação.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Na avaliação dos médicos do Brasil, os quadros de gripe são resultado do clima no Catar, seco e quente. A capital Doha apresenta altas temperaturas, mesmo no outono, e os atletas tiveram dificuldade na adaptação, uma vez que, antes de chegar ao país-sede da Copa do Mundo, passaram cinco dias treinando em Turim, na Itália, cujos termômetros marcaram temperaturas inferiores a 10ºC e umidade superior a 90%.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O choque térmico causado pela variação brusca de temperatura nos ambientes em Doha, com o frio do ar-condicionado em lugares fechados e o calor em locais abertos, também atrapalhou os atletas.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Na Itália, os membros da delegação disseram que não havia problema algum em treinar no frio de Turim nessa época do ano e depois seguir para Doha, com temperaturas opostas. Mas eles esperavam uma temperatura maior do que a que encontraram na cidade italiana e menor do que a que enfrentam na capital catariana, com mais de 30ºC durante o dia.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Nos estádios, a temperatura é menor, já que sete das oito arenas são climatizadas com um moderno sistema de ar refrigeração. O Brasil venceu a Sérvia no Lusail sob 23ºC. No Estádio 974, a temperatura estava em 26º no momento do jogo contra os suíços, um pouco mais alta porque a arena é a única sem o sistema de ar condicionado, alimentado por energia solar, pois ficar perto da praia e recebe a brisa do mar. Cabe lembrar que as duas partidas foram disputadas à noite. O primeiro compromisso começou às 22h e o segundo, às 19h, no horário local.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“O clima influencia do primeiro para o segundo tempo. Eles baixam muito o nível de intensidade, o jogo fica mais monótono”, avaliou Sampaio. “A saúde do atleta é fundamental para que ele possa ter um bom desempenho, ainda mais aqui, em um país diferente.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Os casos não causam preocupação no departamento médico, que acompanha cada situação de perto e os trata como uma “indisposição”.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Em recuperação de lesão no tornozelo direito há cinco dias, Neymar sentiu uma indisposição na tarde desta segunda-feira, dia 28, quando, sem ele, a seleção brasileira derrotou a Suíça e garantiu vaga de forma antecipada às oitavas de final da Copa do Mundo. Vini Jr entregou que o camisa 10 teve febre. Neymar não esteve no estádio.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O caso de gripe não preocupa, garantiu a CBF. Neymar permaneceu no hotel para dar sequência ao tratamento da torção em seu tornozelo direito que o tirou da partida diante dos suíços e assistiu de lá à seleção vencer por 1 a 0. Antony perdeu dois treinamentos devido a um mal-estar e apresentou sintomas gripais, assim como Lucas Paquetá, que permaneceu no hotel no dia seguinte à vitória sobre a Sérvia.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;A comissão técnica não se preocupa porque tanto Paquetá quanto Antony treinaram posteriormente e participaram da partida contra a Suíça. O meio-campista foi titular e saiu no intervalo. O atacante entrou na etapa final. “Foi mais um enjoo, a garganta, ar condicionado, outros jogadores estavam assim. E é difícil eu ficar doente”, descreveu Antony sobre o resfriado que o acometeu.&lt;/p&gt;
+&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Como a seleção já está classificada e joga por um empate diante de Camarões na última rodada da fase de grupos para confirmar a primeira colocação (o jogo será na sexta-feira, no Lusail), Tite vai preservar seus principais jogadores e escalar uma equipe alternativa. “Não vamos correr o risco de perder o jogador por não estar bem fisicamente ou por lesão”, reiterou Sampaio.&lt;/p&gt;
+</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/saude-recomenda-urgencia-na-imunizacao-das-criancas-acreanas-contra-a-covid-19/</t>
+          <t>https://agazetadoacre.com/2022/11/noticias/copa-2022/neymar-antony-e-paqueta-tiveram-sintomas-gripais-ou-virose-mas-selecao-dispensa-teste-de-covid-19/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-29T16:21:44</t>
+          <t>2022-11-29T19:47:46</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Boletim da Sesacre informa mais 43 casos de infecção pelo novo coronavírus</t>
+          <t>Saúde recomenda urgência na imunização das crianças acreanas contra a covid-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 43 novos casos de coronavírus nesta terça-feira, 29 de novembro. O número de infectados notificados é de 153.730 em todo o estado.&lt;/p&gt;
-&lt;p&gt;Até o momento, o Acre registra 360.512 notificações de contaminação pela doença, sendo que 206.767 casos foram descartados e 15 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até o fechamento deste boletim.&lt;/p&gt;
-&lt;p&gt;Os dados da vacinação contra a covid-19 no Acre podem ser acessados no Painel de Monitoramento da Vacinação, disponível no endereço eletrônico:&amp;nbsp;&lt;a href="http://covid19.ac.gov.br/vacina/inicio"&gt;http://covid19.ac.gov.br/vacina/inicio&lt;/a&gt;. As informações são atualizadas na plataforma do Ministério da Saúde (MS) e estão sujeitas a alterações constantes, em razão das informações inseridas a partir de cada município.&lt;/p&gt;
-&lt;p&gt;Nenhum óbito foi notificado nesta terça-feira, 29, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
-&lt;p&gt;Sobre os casos de covid-19 no estado, acesse:&lt;br&gt;&lt;a href="https://agencia.ac.gov.br/boletim-sesacre-desta-terca-feira-29-sobre-o-coronavirus-5/boletim_ac_covid_29_11_2022/"&gt;BOLETIM_AC_COVID_29_11_2022&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Sobre a ocupação de leitos no estado, acesse:&lt;br&gt;&lt;a href="http://covid19.ac.gov.br/monitoramento/leitos"&gt;http://covid19.ac.gov.br/monitoramento/leitos&lt;/a&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Desde o início da pandemia, ao menos 2.500 crianças de 0 a 19 anos tiveram covid-19 no Brasil. Dessas, 300, entre 5 e 11 anos, morreram em decorrência da doença. E pelo menos 1.400 foram diagnosticadas com a síndrome inflamatória multissistêmica associada ao novo coronavírus. Atualmente, é o público infantil que corre mais risco diante de novas variantes altamente transmissíveis, como a ômicron, por não estarem protegidas, segundo dados do Ministério da Saúde.&lt;/p&gt;
+&lt;p&gt;Diante do novo aumento de casos em vários estados brasileiros, o governo do Acre, por meio da Secretaria de Saúde (Sesacre), recomenda aos pais e responsáveis que crianças a partir de 6 meses sejam vacinadas contra o coronavírus, uma vez que o índice de imunização infantil está baixo no estado.&lt;/p&gt;
+&lt;div id="attachment_285246" style="width: 726px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-285246" decoding="async" loading="lazy" class="size-full wp-image-285246" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=716%2C428&amp;#038;ssl=1" alt="" width="716" height="428" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?w=716&amp;amp;ssl=1 716w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=300%2C179&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=660%2C395&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=590%2C354&amp;amp;ssl=1 590w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/images-15.jpeg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 716px) 100vw, 716px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-285246" class="wp-caption-text"&gt;Vacinação de bebês contra a covid-19, com a Pfizer Baby. Foto: Agência Brasil&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;De acordo com o médico da família Oswaldo Leal, a vacinação sempre foi uma fortaleza do sistema de saúde brasileiro, mesmo antes do SUS. Historicamente, durante décadas foram registradas excelentes coberturas vacinais, protegendo a população de dezenas de doenças infecciosas e potencialmente letais.&lt;/p&gt;
+&lt;p&gt;“A disseminação de notícias falsas sobre a vacina contra a covid gerou um ambiente de desconfiança na população, com impacto também na queda da cobertura de outras vacinas. O que está acontecendo é muito grave e podemos ter muito em breve o retorno de doenças que já não víamos há muito tempo”, adverte.&lt;/p&gt;
+&lt;p&gt;Nas últimas semanas, houve um leve aumento nos casos positivos da doença. Apesar disso, o Estado do Acre ainda se encontra no nível baixo da Classificação de Risco. “Mesmo assim é de extrema importância que as crianças sejam imunizadas, pois apesar de a nova variante do vírus não ter sido detectada, procurará aqueles que ainda não estão protegidos. Por isso as crianças não imunizadas podem virar um alvo em potencial do vírus”, salienta Oswaldo Leal.&lt;/p&gt;
+&lt;figure id="attachment_584686" class="wp-caption aligncenter" aria-describedby="caption-attachment-584686"&gt;
+&lt;p&gt;&lt;div id="attachment_584686" style="width: 725px" class="wp-caption aligncenter"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg" target="_blank" rel="noopener"&gt;&lt;img aria-describedby="caption-attachment-584686" decoding="async" loading="lazy" class="wp-image-584686 size-full" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" alt="" width="715" height="429" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg?resize=715%2C429" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13.jpeg 715w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-13-300x180.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;p id="caption-attachment-584686" class="wp-caption-text"&gt;Médico da família Oswaldo Leal. Foto: cedida&lt;/p&gt;&lt;/div&gt;&lt;/figure&gt;
+&lt;p&gt;O médico ressalta que as reações adversas graves são extremamente raras em crianças e podem ser revertidas. As reações leves incluem dor no local de realização da vacina e febre baixa, com duração de um a dois dias, semelhante às demais vacinas feitas no público de 6 meses a 2 anos.&lt;/p&gt;
+&lt;p&gt;“Na presença de reações atribuídas à vacina, os pais devem procurar a unidade em que a criança foi vacinada ou, na impossibilidade, uma unidade de saúde próxima de onde mora para atendimento médico. Esses casos são notificados e investigados. A família recebe retorno da investigação, que é realizada pelo Crie [Centro de Referência para Imunobiológicos Especiais]”, esclarece.&lt;/p&gt;
+&lt;figure id="attachment_584687" class="wp-caption aligncenter" aria-describedby="caption-attachment-584687"&gt;
+&lt;p&gt;&lt;div id="attachment_584687" style="width: 653px" class="wp-caption aligncenter"&gt;&lt;a href="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg" target="_blank" rel="noopener"&gt;&lt;img aria-describedby="caption-attachment-584687" decoding="async" loading="lazy" class="wp-image-584687 size-full" src="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" alt="" width="643" height="477" data-src="https://i2.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg?resize=643%2C477" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14.jpeg 643w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/images-14-300x223.jpeg 300w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;p id="caption-attachment-584687" class="wp-caption-text"&gt;Vacina Pfizer Baby, para crianças de 6 meses a 2 anos. Foto: Agência Brasil&lt;/p&gt;&lt;/div&gt;&lt;figcaption id="caption-attachment-584687" class="wp-caption-text"&gt;
+A vacinação  contra o novo coronavírus é segura e eficaz e constitui a melhor forma de proteção de crianças de uma forma geral. “Não há motivos para desconfiar das vacinas. Apelo para que pais ou responsáveis levem seus filhos para vacinação. Esse é um ato de amor e de cuidado”, certifica Leal.&lt;/figcaption&gt;&lt;/figure&gt;
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/boletim-da-sesacre-informa-mais-43-casos-de-infeccao-pelo-novo-coronavirus/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-11-29T07:35:52</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>O que explica o aumento de casos de Covid-19 no Brasil</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;h1&gt;&lt;/h1&gt;
-&lt;p&gt;&lt;img decoding="async" src="https://www.cnnbrasil.com.br/wp-content/uploads/sites/12/2022/03/petropolis_centro_02.jpg?w=876&amp;amp;h=484&amp;amp;crop=1" alt="Tendência de crescimento da Covid-19 no país ganhou força entre o final de outubro e o início de novembro"&gt;Tendência de crescimento da Covid-19 no país ganhou força entre o final de outubro e o início de novembroTomaz Silva/Agência Brasil&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Novas ondas de&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/covid-19/"&gt;&lt;strong&gt;Covid-19&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;são motivadas por causas multifatoriais, incluindo características da circulação do vírus e do comportamento populacional. Nas últimas semanas, o Brasil registrou um aumento significativo no número de casos da doença causada pelo coronavírus.&lt;/p&gt;
-&lt;p&gt;Dados do Conselho Nacional de Secretários de Saúde (&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/conselho-nacional-de-secretarios-de-saude-conass/"&gt;Conass&lt;/a&gt;) divulgados no sábado (26) mostram que o país mantém uma média móvel de 22 mil casos diários. O índice, que avalia a média de casos dos últimos sete dias e permite o dimensionamento do&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/cenario-epidemiologico/"&gt;cenário epidemiológico&lt;/a&gt;, é um dos maiores registrados desde agosto.&lt;/p&gt;
-&lt;p&gt;Estados de todas as regiões brasileiras registraram&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/estados-de-todas-as-regioes-do-pais-tem-alta-de-casos-de-covid-19-aponta-fiocruz/"&gt;aumento de casos no início de novembro&lt;/a&gt;, frente ao mês anterior, de acordo com levantamento da Fundação Oswaldo Cruz (Fiocruz).&lt;/p&gt;
-&lt;p&gt;Especialistas consultados pela&amp;nbsp;&lt;strong&gt;CNN&lt;/strong&gt;&amp;nbsp;ajudam a contextualizar o&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/estados-de-todas-as-regioes-do-pais-tem-alta-de-casos-de-covid-19-aponta-fiocruz/"&gt;aumento das infecções no país&lt;/a&gt;&amp;nbsp;e fazem estimativas sobre o contexto da doença com a aproximação das férias e festas de fim de ano.&lt;/p&gt;
-&lt;h2&gt;Impacto da variante Ômicron&lt;/h2&gt;
-&lt;p&gt;Há exatamente um ano, em novembro de 2021, a Organização Mundial da Saúde (OMS)&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/oms-classifica-linhagem-b-1-1-529-chamada-omicron-como-variante-de-preocupacao/"&gt;classificou a cepa Ômicron do coronavírus&lt;/a&gt;&amp;nbsp;como uma “variante de preocupação”.&lt;/p&gt;
-&lt;p&gt;Evidências emergentes foram rapidamente compartilhadas por cientistas de Botswana, Hong Kong e África do Sul e discutidas em uma reunião especial do Grupo Consultivo Técnico para Evolução de Vírus (TAG-VE) da OMS.&lt;/p&gt;
-&lt;p&gt;Os especialistas presentes na reunião se preocuparam com o grande número de mutações presentes na variante, que diferia muito das outras cepas detectadas até então. Os primeiros dados mostraram a rápida disseminação da Ômicron em algumas províncias da África do Sul e um risco aumentado de reinfecção em comparação com as variantes que circulavam anteriormente.&lt;/p&gt;
-&lt;p&gt;Naquele momento, a OMS destacava que o mundo estava lidando com algo novo, diferente e para o qual deveria se preparar rapidamente.&lt;/p&gt;
-&lt;p&gt;Rapidamente, cientistas identificaram que a linhagem era significativamente mais transmissível do que a Delta, a variante de preocupação que predominava no mundo até então. Em 4 semanas, conforme a onda da Ômicron viajava pelo mundo, ela substituiu a Delta como a variante dominante.&lt;/p&gt;
-&lt;p&gt;Países que até aquele momento tiveram sucesso em manter o controle da Covid-19 por meio de medidas sociais e de saúde pública se depararam com dificuldades. Para os indivíduos, o impacto foi maior entre os que não foram vacinados, com aumento de hospitalizações e de mortes em vários lugares do mundo.&lt;/p&gt;
-&lt;p&gt;Até março de 2022, a OMS e seus parceiros estimavam que quase 90% da população global tinha anticorpos contra o coronavírus, seja por vacinação ou infecção natural.&lt;/p&gt;
-&lt;p&gt;No geral, porém, a nova variante causou doenças menos graves do que a Delta em média, o que intrigou cientistas. Segundo a OMS, uma série de fatores provavelmente desempenhou um papel importante, como o fato de que o vírus se replicou com mais eficiência nas vias aéreas superiores e a imunidade da população aumentou constantemente em todo o mundo devido à vacinação e a infecções.&lt;/p&gt;
-&lt;h2&gt;Aspectos do vírus&lt;/h2&gt;
-&lt;p&gt;A tendência de crescimento da Covid-19 no país ganhou força entre o final de outubro e o início de novembro, como lembra o pesquisador José Eduardo Levi, da Universidade de São Paulo (USP).&lt;/p&gt;
-&lt;p&gt;“Até hoje, todas as ondas de Covid-19 no país estiveram associadas a uma nova variante. Esse ano agora tem como peculiaridade que essas variantes são todas derivadas da Ômicron”, afirma. “A Ômicron original causou o pico de casos em janeiro, depois tivemos a BA.2, que é uma segunda Ômicron, que foi o pico em abril e maio. Depois, tivemos uma outra onda com pico em junho, causada pela BA.5, derivada de Ômicron”, descreve Levi.&lt;/p&gt;
-&lt;p&gt;Segundo o pesquisador, que também atua nas áreas de pesquisa e desenvolvimento da Rede Dasa, a nova onda da doença está relacionada a subvariantes derivadas da BA.5, incluindo a BQ.1 e outras duas: BA.5.3.1 e BA.5.2.1.&lt;/p&gt;
-&lt;p&gt;“A&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/bq-1-o-que-se-sabe-sobre-a-variante-da-omicron-e-a-possibilidade-de-nova-onda-da-covid-19/"&gt;BQ.1&lt;/a&gt;&amp;nbsp;está tendendo a predominar a partir de novembro, devemos chegar ao fim do mês com 100% de BQ.1, apontam os dados de genômica e de exames de diagnóstico molecular da Dasa”, diz.&lt;/p&gt;
-&lt;p&gt;A BQ.1 carrega mutações em pontos importantes do vírus, como a proteína Spike, que podem contribuir para o aumento da transmissibilidade e na capacidade de infecção pelo coronavírus. A OMS estima que essas mutações adicionais tenham conferido uma vantagem de escape imunológico sobre outras sublinhagens circulantes da Ômicron, o que indica a necessidade de avaliação sobre um risco maior de reinfecção pela BQ.1.&lt;/p&gt;
-&lt;p&gt;“A Ômicron e suas subvariantes demonstraram sua capacidade muito efetiva de mudar geneticamente, de se replicar e ter erros nessa replicação e, com isso, formar vírus geneticamente diferentes que os fazem escapar da nosso sistema imune, ou seja, tanto pela infecção natural quanto pela vacinação. Nossos anticorpos deixam de reconhecer de uma forma plena essas subvariantes e, com isso, você consegue ter a infecção de uma forma leve, com uma capacidade muito grande de transmissibilidade, o que faz com que o vírus circule tanto”, afirma a médica infectologista Rosana Richtmann, do Hospital Emílio Ribas, de São Paulo.&lt;/p&gt;
-&lt;h2&gt;Fator comportamental&lt;/h2&gt;
-&lt;p&gt;Além das características intrínsecas do vírus, como&amp;nbsp;&lt;strong&gt;uma maior capacidade de transmissibilidade das subvariantes em circulação&lt;/strong&gt;,&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/comportamento/"&gt;fatores comportamentais&lt;/a&gt;&amp;nbsp;da população também podem contribuir para o aumento no número de casos.&lt;/p&gt;
-&lt;p&gt;“O aumento da circulação do&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/sars-cov-2/"&gt;SARS-CoV-2&lt;/a&gt;&amp;nbsp;no Brasil é multifatorial. Primeiro, nós flexibilizamos as medidas de controle. Segundo, nós tivemos eventos como, por exemplo, as eleições, que facilitaram o encontro entre pessoas. Terceiro, temos uma população com doses de reforço muito baixas”, avalia Rosana.&lt;/p&gt;
-&lt;p&gt;Dados do Programa Nacional de Imunizações (PNI) apontam que&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/por-que-nao-se-deve-esperar-para-tomar-doses-de-reforco-contra-a-covid-19/"&gt;mais de 77 milhões de brasileiros não receberam a primeira dose de reforço&lt;/a&gt;&amp;nbsp;das vacinas contra a Covid-19. Já 24 milhões de pessoas poderiam ter recebido a segunda dose de reforço contra a doença, mas ainda não se vacinaram.&lt;/p&gt;
-&lt;p&gt;O esquema de vacinação primário contra a Covid-19 contempla duas doses para a maior parte das vacinas disponíveis, incluindo as da Pfizer, AstraZeneca e Coronavac, aplicadas no Brasil.&lt;/p&gt;
-&lt;p&gt;O pesquisador da USP também afirma que o contexto das eleições no Brasil pode ter proporcionado o ambiente ideal para a transmissão do vírus.&lt;/p&gt;
-&lt;p&gt;“Toda onda é facilitada pelo componente comportamental. Aqui no Brasil, estimamos que tenham sido as aglomerações principalmente eleitorais, grandes comícios, que facilitam muito a disseminação de variantes que por si só já são mais transmissíveis, por que foram selecionadas em um ambiente de pessoas vacinadas e com exposição prévia inclusive à Ômicron”, diz Levi.&lt;/p&gt;
-&lt;h2&gt;Sintomas comuns das novas variantes&lt;/h2&gt;
-&lt;p&gt;O médico infectologista Álvaro Furtado, do Hospital das Clínicas da&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/universidade-de-sao-paulo-usp/"&gt;Universidade de São Paulo&lt;/a&gt;&amp;nbsp;(USP), relata que tem sido observado um aumento no número de pacientes com suspeita de Covid-19. No entanto, Furtado ressalta que o número de internações não tem acompanhado o mesmo ritmo de crescimento das infecções, até o momento.&lt;/p&gt;
-&lt;p&gt;“Estamos observando um número maior de casos, mas a maioria sem gravidade. Os sintomas mais comuns são muito simples, como coriza e dor de garganta. Os pacientes não tem apresentado falta de ar ou critérios que indiquem a necessidade de internação hospitalar, com exceção de pessoas com alterações no sistema imunológico”, afirma.&lt;/p&gt;
-&lt;p&gt;A infectologista do Emílio Ribas também relata que os&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/sintomas/"&gt;&lt;strong&gt;sintomas&lt;/strong&gt;&lt;/a&gt;&amp;nbsp;associados aos casos recentes tem sido semelhantes aos já identificados ao longo da pandemia.&lt;/p&gt;
-&lt;p&gt;“Em termos de sintomatologia das subvariantes da Ômicron – a BQ.1 e a BA.5 que são as mais comuns atualmente, eu diria que os sintomas são semelhantes ao que a gente sempre viu, mas a fadiga, o cansaço, chama muito atenção. O paciente pode ter coriza nasal, dor de garganta, dor de cabeça, febrícula, calafrio, mas o que realmente está chamando atenção dessa vez é esse cansaço”, diz.&lt;/p&gt;
-&lt;h2&gt;Festas de fim de ano&lt;/h2&gt;
-&lt;p&gt;O surgimento de novas variantes do coronavírus e o consequente aumento no número de casos apontam que, em momentos de alta circulação viral, pode ser necessário reforçar medidas de prevenção aprendidas ao longo da pandemia.&lt;/p&gt;
-&lt;p&gt;Os especialistas destacam que as&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/saude/nova-onda-de-covid-19-especialistas-apontam-regras-de-etiqueta-respiratoria/"&gt;medidas chamadas não farmacológicas&lt;/a&gt;&amp;nbsp;reduzem os riscos da transmissão da Covid-19 e de outras doenças como a gripe e resfriados. Além do uso de máscara, medidas de higiene como a lavagem das mãos, o uso de álcool gel e distanciamento de pessoas sintomáticas contribuem para reduzir os riscos da infecção.&lt;/p&gt;
-&lt;p&gt;“Nos momentos de onda, é melhor voltar com essas&amp;nbsp;&lt;a href="https://www.cnnbrasil.com.br/tudo-sobre/prevencao/"&gt;medidas de prevenção&lt;/a&gt;“, diz Levi. “Com a aproximação das festas de fim de ano, é fundamental sempre pensar, em primeiro lugar, nos idosos, pessoas com mais de 70 e 80 anos, principalmente. Para que elas usem máscara e fiquem a certa distância. Além disso, que esses eventos, na medida do possível, aconteçam em ambiente arejado, a céu aberto, aquilo que falamos ao longo de toda a pandemia”, conclui.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://jornalopiniao.net/o-que-explica-o-aumento-de-casos-de-covid-19-no-brasil/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-11-29T14:15:13</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Secretaria de Saúde alerta população sobre importância da imunização contra influenza no período chuvoso</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/saude/secretaria-de-saude-alerta-populacao-sobre-importancia-da-imunizacao-contra-influenza-no-periodo-chuvoso/attachment/a-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes/" rel="attachment wp-att-292678"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292678" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes.jpg" alt="" width="1536" height="1024" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes.jpg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-1024x683.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-768x512.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-750x500.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/A-orientacao-e-de-que-idosos-imunodeprimidos-e-gestantes-1140x760.jpg 1140w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p style="text-align: center;"&gt;&lt;strong&gt;A orientação é de que idosos, imunodeprimidos e gestantes, que podem ter um quadro mais grave caso sejam infectados pelo vírus da gripe, se vacinem. Foto: Odair Leal&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Com o início do período chuvoso, o governo do Acre, por meio da Secretaria de Saúde (Sesacre), alerta a população nesta segunda-feira, 28, sobre a importância de realizar a imunização contra a influenza. Com as chuvas, ocorre a diminuição das temperaturas e o aumento no número dos casos de gripe.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Com a pandemia, as pessoas deram prioridade ao imunizante da covid-19 e as outras vacinas podem ter sido negligenciadas. É o caso do imunizante que protege contra o vírus influenza. E não está tarde para ir atrás dessa vacina. O recado é especialmente importante para idosos, imunodeprimidos e gestantes, que podem ter um quadro mais grave caso sejam infectados pelo vírus da gripe.  &lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;De acordo a coordenadora do Programa Nacional de Imunização no Acre (PNI), Renata Quiles, as vacinas estão disponíveis em todas as unidades de saúde do estado. “A população, a partir de 6 meses de idade, já pode ser vacinada contra a influenza. Temos no estoque estadual 42 mil doses, e todas as unidades estão abastecidas”, esclarece.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Outras medidas de prevenção permanecem essenciais, como usar máscara, evitar aglomerações, higienizar as mãos e manter os ambientes ventilados. Essas atitudes protegem contra o coronavírus e qualquer tipo de influenza. &lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Segundo o Ministério da Saúde, não há necessidade de aguardar um intervalo mínimo entre as vacinas de covid-19 e as demais utilizadas no Brasil. Dessa forma, elas podem ser aplicadas de forma simultânea. &lt;/strong&gt;&lt;/p&gt;
-&lt;h4&gt;&lt;span style="font-size: 18pt;"&gt;&lt;strong&gt;O vírus&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
-&lt;p&gt;&lt;strong&gt;A gripe é uma infecção do sistema respiratório, provocada pelo vírus da influenza. Existem quatro tipos de vírus influenza: A, B, C e D. Os vírus influenza A e B são responsáveis por epidemias em períodos específicos, sendo o vírus influenza A responsável pelas grandes pandemias.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/saude/secretaria-de-saude-alerta-populacao-sobre-importancia-da-imunizacao-contra-influenza-no-periodo-chuvoso/attachment/renata-quiles-coordenadora-do-programa-nacional-de-imunizacao/" rel="attachment wp-att-292679"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292679" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao.jpg" alt="" width="1200" height="800" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao.jpg 1200w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao-300x200.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao-1024x683.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao-768x512.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao-750x500.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Renata-Quiles-coordenadora-do-Programa-Nacional-de-Imunizacao-1140x760.jpg 1140w" sizes="(max-width: 1200px) 100vw, 1200px" /&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p style="text-align: center;"&gt;&lt;strong&gt;Renata Quiles, coordenadora do Programa Nacional de Imunização (PNI) &amp;#8211; Foto: Odair Leal / Sesacre&lt;/strong&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://3dejulhonoticias.com.br/saude/secretaria-de-saude-alerta-populacao-sobre-importancia-da-imunizacao-contra-influenza-no-periodo-chuvoso/</t>
+          <t>https://oaltoacre.com/saude-recomenda-urgencia-na-imunizacao-das-criancas-acreanas-contra-a-covid-19/</t>
         </is>
       </c>
     </row>

--- a/Scrap/thundera.xlsx
+++ b/Scrap/thundera.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,1692 +426,5651 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gladson Cameli se encontra com presidente eleito Lula ao entregar Carta da Amazônia</t>
+          <t>2022-12-01T08:40:18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/11/16/gladson-cameli-se-encontra-com-presidente-eleito-lula-ao-entregar-carta-da-amazonia/</t>
+          <t>PIB do Brasil desacelera, mas cresce 0,4%, abaixo das previsões</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Produto Interno Bruto (PIB) variou 0,4% na passagem do segundo para o terceiro trimestre, e, com esse resultado, chega ao maior patamar da série histórica, iniciada em 1996. Na comparação com o trimestre anterior, é a quinta taxa positiva do indicador. O PIB, soma dos bens e serviços finais produzidos no país, totalizou R$ 2,544 trilhões em valores correntes no terceiro trimestre. Os dados são do Sistema de Contas Nacionais Trimestrais, divulgado nesta quinta-feira (1º) pelo IBGE.&lt;/p&gt;
+&lt;p&gt;Além de atingir o maior nível da série, o PIB ficou 4,5% acima do patamar pré-pandemia, registrado no quarto trimestre de 2019. No terceiro trimestre, a variação positiva foi influenciada pelos resultados dos Serviços (1,1%) e da Indústria (0,8%), enquanto a Agropecuária recuou 0,9%.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/pib-do-brasil-desacelera-mas-cresce-04-abaixo-das-previsoes/</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/03/brasil-economia-pib-02042009-001.jpg?fit=1024%2C683&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gladson Cameli fará motocarreata para Bolsonaro e votará em Cruzeiro do Sul</t>
+          <t>2022-12-01T08:29:03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/10/25/gladson-cameli-fara-motocarreata-para-bolsonaro-e-votara-em-cruzeiro-do-sul/</t>
+          <t>MEC reconhece a qualidade de Ensino a Distância do Centro Universitário Uninorte</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Centro Universitário Uninorte busca oferecer a melhor formação para os seus acadêmicos, não importando qual tipo de modalidade escolhida. Foi o que ocorreu com os Cursos Superiores em Tecnologia (CST) oferecidos pela Uninorte, são eles: Curso Superior de Tecnologia em Marketing; em Ciências Contábeis, em Recursos Humanos; em Processos Gerenciais; em Logística; em Gestão Financeira; em Administração; e em Gestão Comercial.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489225" data-permalink="https://ac24horas.com/2022/12/01/mec-reconhece-a-qualidade-de-ensino-a-distancia-do-centro-universitario-uninorte/laboratorio_103_bloco_d_uninorte-1/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?fit=4160%2C3120&amp;amp;ssl=1" data-orig-size="4160,3120" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Laboratório_103_Bloco_D_Uninorte (1)" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?fit=300%2C225&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?fit=740%2C555&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489225" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?resize=740%2C555&amp;#038;ssl=1" alt="" width="740" height="555" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?w=4160&amp;amp;ssl=1 4160w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?resize=768%2C576&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?resize=1536%2C1152&amp;amp;ssl=1 1536w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?resize=2048%2C1536&amp;amp;ssl=1 2048w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?w=1480&amp;amp;ssl=1 1480w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Laboratorio_103_Bloco_D_Uninorte-1.png?w=2220&amp;amp;ssl=1 2220w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Nos cursos de Educação a Distância ofertados pelo Centro Universitário Uninorte, foi reconhecido pelo MEC, a excelência de sua estrutura, pois além de uma excelente plataforma educacional e aulas ao vivo, os acadêmicos têm acesso a biblioteca virtual e a biblioteca física, que dispõe de computadores para que os acadêmicos possam estudar. É importante ressaltar a qualidade do corpo docente e do apoio ao acadêmico, quando necessário, para orientações sobre toda sua jornada na educação a distância.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489226" data-permalink="https://ac24horas.com/2022/12/01/mec-reconhece-a-qualidade-de-ensino-a-distancia-do-centro-universitario-uninorte/estudio_ead_uninorte-2/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?fit=4160%2C3120&amp;amp;ssl=1" data-orig-size="4160,3120" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="Estudio_EaD_Uninorte (2)" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?fit=300%2C225&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?fit=740%2C555&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489226" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?resize=740%2C555&amp;#038;ssl=1" alt="" width="740" height="555" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?w=4160&amp;amp;ssl=1 4160w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?resize=768%2C576&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?resize=1536%2C1152&amp;amp;ssl=1 1536w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?resize=2048%2C1536&amp;amp;ssl=1 2048w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?w=1480&amp;amp;ssl=1 1480w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Estudio_EaD_Uninorte-2.png?w=2220&amp;amp;ssl=1 2220w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Quer conhecer detalhadamente os demais cursos de graduação EAD da Uninorte? &lt;a href="https://go.vestnorte.com.br/uninorte-geral/?utm_source=google&amp;amp;utm_medium=cpc&amp;amp;utm_content=Tradicional&amp;amp;utm_campaign=presencial&amp;amp;gclid=Cj0KCQiAvqGcBhCJARIsAFQ5ke6LNy4AXCvyJhtqEKV8avEkqeX8qn_MtdJ1WgaNmRvUD2rSBYT68Y4aAqBSEALw_wcB"&gt;Você pode fazer isso clicando aqui.&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/mec-reconhece-a-qualidade-de-ensino-a-distancia-do-centro-universitario-uninorte/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/Biblioteca_PedroMartinello_Uninorte-4.png?fit=4160%2C3120&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vagner Sales não quer Jéssica no governo de Gladson Cameli</t>
+          <t>2022-12-01T08:26:08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/10/12/jessica-sales-volta-a-trabalhar-em-hospital-e-vagner-sales-nao-a-quer-no-governo-de-gladson/</t>
+          <t>Polícia aperta cerco e prende envolvido em onda de assaltos na região de fronteira</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A força-tarefa do Sistema Integrado de Segurança Pública do Acre em ação na região dos municípios de Acrelândia e Plácido de Castro, a cerca de 100 quilômetros de Rio Branco, nas divisas de Rondônia e da Bolívia, já atinge resultados positivos.&lt;/p&gt;
+&lt;p&gt;A ação visa conter uma onda de assaltos que vêm ocorrendo na zona rural daqueles municípios, o roubo de veículos com sequestros relâmpagos de moradores. O clima de terror é tanto na área que famílias já abandonaram propriedades na região.&lt;/p&gt;
+&lt;p&gt;O cerco ao crime organizado vem sendo cuidadosamente realizado por uma força-tarefa das polícias Civil e Militar do Acre, com um patrulhamento diuturnamente nas estradas estaduais e nos ramais da região desde o dia 7 de novembro.&lt;/p&gt;
+&lt;p&gt;De acordo com as informações divulgadas pela Secretaria de Segurança (Sejusp), mais de 210 abordagens a veículos foram realizadas pela Polícia Militar ao longo de toda a madrugada, o dia e a noite da última terça-feira, 29.&lt;/p&gt;
+&lt;p&gt;“Posso dizer que nos últimos cinco dias o resultado foi excelente. Não tivemos mais nenhuma ocorrência neste período e vamos continuar assim, porque o patrulhamento não para e não tem prazo determinado para terminar”, afirmou o coronel Emílio Virgílio, diretor Operacional da PM/AC, em matéria da Agência de Notícias do Acre.&lt;/p&gt;
+&lt;p&gt;“Nossos esforços são para manter a integridade da população com a presença das forças policiais na região durante 24 horas, todos os dias. Com essas ações, asseguramos a presença do Estado, devolvendo a tranquilidade para as pessoas”, ressaltou o secretário de Justiça e Segurança Pública, coronel Paulo Cézar Rocha dos Santos.&lt;/p&gt;
+&lt;p&gt;Nesta quarta-feira, uma equipe da Sejusp, chefiada pela secretária-adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de uma reunião com comandantes e chefes das instituições de Segurança e representantes das comunidades de ambos os municípios. A pauta serviu para apresentar de que forma as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;p&gt;“Estaremos juntos aos moradores destes municípios, oferecendo nossa mão amiga e combatendo com veemência qualquer tipo de ilícito na região”, destacou a delegada.&lt;/p&gt;
+&lt;p&gt;Horas depois, uma ação integrada da Polícia Civil, Polícia Militar e Choque conseguiram efetuar a prisão de um suspeito de integrar a organização criminosa especializada em roubo de caminhonetes que vem atuando na região.&lt;/p&gt;
+&lt;p&gt;De acordo com o delegado Diones Lucas, de Acrelândia, o homem, que não teve a identidade divulgada por força da Lei de Abuso de Autoridade, está envolvido em pelo menos cinco dos roubos ocorridos recentemente.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/policia-aperta-cerco-e-prende-envolvido-em-onda-de-assaltos-na-regiao-de-fronteira/</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461-1.jpg?fit=1024%2C461&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gladson Cameli só perdeu a eleição em Jordão e Santa Rosa do Purus</t>
+          <t>2022-12-01T08:19:36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/10/04/gladson-cameli-so-perdeu-a-eleicao-nos-municipios-de-jordao-e-santa-rosa-do-purus/</t>
+          <t>Sine do Acre oferta 51 vagas de emprego nesta quinta-feira, em Rio Branco</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Sistema Nacional de Empregos do Acre (Sine), está disponibilizando 51 vagas de emprego para várias áreas em Rio Branco, nesta quinta-feira, 1° de dezembro.&lt;/p&gt;
+&lt;p&gt;As oportunidades de trabalho são rotativas, ou seja, são divulgadas para o dia, podendo ou não estar mais disponíveis para a data seguinte. O atendimento está sendo feito exclusivamente via telefone, mas presencialmente continua sendo na Organização em Centros de Atendimento (OCA).&lt;/p&gt;
+&lt;p&gt;Para se candidatar, é necessário que o candidato esteja com o cadastro atualizado. Aqueles que precisam fazer o registro na instituição, devem ter em mãos os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;O cidadão poderá verificar se a vaga ainda está disponível através dos telefones (68) 3224-5094 (68) 3224-1519, (68) 3223-6502 ou (68) 0800 647 8182.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489222" data-permalink="https://ac24horas.com/2022/12/01/sine-do-acre-oferta-51-vagas-de-emprego-nesta-quinta-feira-em-rio-branco/attachment/1669899112381/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?fit=1024%2C686&amp;amp;ssl=1" data-orig-size="1024,686" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669899112381" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?fit=300%2C201&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?fit=740%2C496&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489222" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?resize=740%2C496&amp;#038;ssl=1" alt="" width="740" height="496" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669899112381.jpg?resize=768%2C515&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/sine-do-acre-oferta-51-vagas-de-emprego-nesta-quinta-feira-em-rio-branco/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/07/carteira-de-trabalho.jpg?fit=1000%2C666&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Petecão lamenta derrota nas urnas e parabeniza Gladson Cameli</t>
+          <t>2022-12-01T08:16:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/10/02/petecao-lamenta-derrota-nas-urnas-e-parabeniza-gladson/</t>
+          <t>Acre tem quinta-feira quente, com chuvas passageiras e pontuais, diz previsão</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O tempo quente, mas ventilado, com sol e nuvens, predomina no Acre nesta quinta-feira, 1° de dezembro. Os termômetros marcam a máxima de 36°C na maioria dos municípios.&lt;/p&gt;
+&lt;p&gt;Em Rio Branco, Brasileia e Sena Madureira, a partir da tarde e, principalmente, durante a noite para o dia seguinte, ocorrem chuvas, que podem ser fortes e acompanhadas de raios e ventanias.&lt;/p&gt;
+&lt;p&gt;Já em Cruzeiro do Sul e Tarauacá, deve ter chuvas passageiras e pontuais, com possibilidade de temporais isolados. Os ventos sopram, ininterruptamente, entre fracos e moderados.&lt;/p&gt;
+&lt;p&gt;Temperaturas:&lt;/p&gt;
+&lt;p&gt;– Rio Branco, Senador Guiomard, Bujari e Porto Acre, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 33 e 35ºC;&lt;/p&gt;
+&lt;p&gt;– Brasileia, Epitaciolândia, Xapuri, Capixaba, Assis Brasil e Santa Rosa do Purus, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 34 e 36ºC;&lt;/p&gt;
+&lt;p&gt;– Plácido de Castro e Acrelândia, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 33 e 35ºC;&lt;/p&gt;
+&lt;p&gt;– Sena Madureira e Manuel Urbano, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 34 e 36ºC;&lt;/p&gt;
+&lt;p&gt;– Tarauacá e Feijó, com mínimas oscilando entre 23 e 25ºC, e máximas, entre 35 e 37ºC;&lt;/p&gt;
+&lt;p&gt;– Cruzeiro do Sul, Mâncio Lima e Rodrigues Alves, com mínimas oscilando entre 23 e 25ºC, e máximas, entre 34 e 36ºC;&lt;/p&gt;
+&lt;p&gt;– Marechal Thaumaturgo, Porto Walter e Jordão, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 34 e 36ºC.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/acre-tem-quinta-feira-quente-com-chuvas-passageiras-e-pontuais-diz-previsao/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/10/TEMPO_JURUA-SERGIO.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gladson Cameli é reeleito governador do Acre no primeiro turno</t>
+          <t>2022-12-01T08:09:57</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/10/02/gladson-cameli-e-reeleito-governador-do-acre-no-primeiro-turno/</t>
+          <t>Alexandre de Moraes manda apreender caminhão de filho de ex-vereadora no Acre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um mandado de busca e apreensão emitido no último dia 22 pelo ministro Alexandre Moraes, do Supremo Tribunal Federal (STF) contra um caminhão de placas MSE7E16, de propriedade de Bruno Santos de Freitas, foi cumprido nesta quarta-feira (30) pela Polícia Federal, segundo informações a que o &lt;em&gt;&lt;strong&gt;ac24horas&lt;/strong&gt;&lt;/em&gt; teve acesso.&lt;/p&gt;
+&lt;p&gt;O dono do caminhão é filho da ex-vereadora Rosa, de Acrelândia, que foi quem tornou o fato público. Em áudio, ela diz que o motivo da apreensão do veículo é uma acusação de o filho ter participado de uma manifestação antidemocrática, o que ela nega que tenha ocorrido.&lt;/p&gt;
+&lt;p&gt;“É o primeiro caminhão que foi preso no Acre. E não estava participando de manifestação, não. Estava carregado com carga viva, aí foi pego lá e o camarada mandou prender, o senhor Alexandre de Moraes”, ela diz.&lt;/p&gt;
+&lt;p&gt;No mandado de busca e apreensão, o ministro recomenda à PF “evitar exposição indevida, especialmente no cumprimento da medida, abstendo-se de toda e qualquer indiscrição, inclusive midiática”.&lt;/p&gt;
+&lt;p&gt;No começo de novembro, a Polícia Rodoviária Federal (PRF) encaminhou ao Supremo Tribunal Federal (STF) uma lista com 40 pessoas físicas e 10 jurídicas identificadas e multadas por terem organizado bloqueios rodoviários em vários estados após o 2º turno das eleições.&lt;/p&gt;
+&lt;p&gt;Nesta lista, constava uma única empresa do Acre, A D RAbelo ME, também de Acrelândia, que teve um caminhão identificado nos bloqueios ocorridos naquela cidade, mas não havia nenhuma referência ao caminhão apreendido nesta quarta-feira.&lt;/p&gt;
+&lt;p&gt;As identificações feitas pela PRF foram fruto de um monitoramento realizado pela PRF entre o dia 30 de outubro e 6 de novembro direcionado a responsáveis pelos bloqueios em rodovias exigindo um golpe militar para anular o resultado das eleições.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489214" data-permalink="https://ac24horas.com/2022/12/01/alexandre-de-moraes-manda-apreender-caminhao-de-filho-de-ex-vereadora-de-acrelandia/whatsapp-image-2022-11-30-at-21-55-47-1/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?fit=720%2C1280&amp;amp;ssl=1" data-orig-size="720,1280" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-11-30 at 21.55.47 (1)" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?fit=169%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?fit=506%2C900&amp;amp;ssl=1" loading="lazy" class="aligncenter wp-image-1489214" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?resize=740%2C1315&amp;#038;ssl=1" alt="" width="740" height="1315" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?w=720&amp;amp;ssl=1 720w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?w=169&amp;amp;ssl=1 169w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-21.55.47-1.jpeg?w=506&amp;amp;ssl=1 506w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/alexandre-de-moraes-manda-apreender-caminhao-de-filho-de-ex-vereadora-de-acrelandia/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/MORAES-CAMINHAO.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gladson Cameli é o entrevistado do ac24horas nesta quarta</t>
+          <t>2022-12-01T08:05:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/09/07/gladson-cameli-e-o-entrevistado-do-ac24horas-nesta-quarta-feira-7/</t>
+          <t>Mais uma vez sem acertadores, Mega-Sena paga R$ 100 milhões no sorteio de sábado (3)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Nenhuma aposta acertou as seis dezenas do concurso 2544 da Mega-Sena e o prêmio acumulou para R$ 100 milhões. O sorteio foi realizado na noite desta quarta-feira (30), em São Paulo.&lt;/p&gt;
+&lt;p&gt;Os números sorteados foram:  &lt;strong&gt;25 &amp;#8211; 38 &amp;#8211; 45 &amp;#8211; 5 3- 55 &amp;#8211; 56.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Mas houve outras premiações: 71 apostas ganhadoras com 5 acertos levaram R$ 61.889,52; e com 4 acertos são 6.119 apostas ganhadoras, que levam R$ 1.025,88.&lt;/p&gt;
+&lt;p&gt;O próximo sorteio está previsto para o sábado (3).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/mais-uma-vez-sem-acertadores-mega-sena-paga-r100-milhoes-no-sorteio-de-sabado-3/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/12/MEGA-SENA-21.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Solidariedade aprova apoio a Gladson Cameli e defende respeito a Márcio Bittar</t>
+          <t>2022-12-01T07:59:33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/07/28/solidariedade-aprova-apoio-a-gladson-cameli-e-defende-respeito-a-marcio-bittar/</t>
+          <t xml:space="preserve">Tchê ameaça ir à justiça pela presidência da Aleac caso sua candidatura seja rifada </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“SE NÃO CUMPRIREM o Regimento Interno, que estabelece que tem que respeitar a proporcionalidade, na composição da mesa diretora, o PDT vai levar a eleição para a presidência da ALEAC aos tribunais”. &lt;/span&gt;&lt;span style="font-weight: 400;"&gt; A advertência foi feita ontem ao BLOG pelo deputado Luiz Tchê (PDT), que é postulante a comandar a Casa na próxima legislatura. Como é que o PSDB, com apenas o deputado Luiz Gonzaga, pode ficar com a presidência, e o PDT com uma bancada de quatro parlamentares pode ficar fora da presidência? Foi a indagação feita por Tchê. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Ele falou não existir nenhum acordo firmado pelo qual Luiz Gonzaga (PSDB) será o próximo presidente e Nicolau Junior (PP) o primeiro secretário. “Tenho conversado com vários deputados que negam terem prometido voto a esta chapa. Não é momento para discutir mesa diretora, cuja eleição costuma ser decidida nos 45 minutos do segundo tempo. Na hora certa vou apresentar um projeto de gestão, que visa incluir na mesa diretora os novos deputados, temos que quebrar o costume de só se prestigiar os deputados mais antigos”, destacou Tchê. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A eleição para a futura mesa diretora está marcada para o dia 2 de fevereiro do próximo ano.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;NÃO VAI SE METER&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O DEPUTADO Luiz Tchê (PDT) não acredita que o governador Gladson vá se meter na eleição da ALEAC, porque os dois deputados candidatos são da sua base. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;JUNTO E MISTURADO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O QUE ERA esperado aconteceu. O PT, PSB e PCdoB anunciaram apoio à candidatura do Papa do Centrão, deputado federal Artur Lyra (PP), a novo mandado na presidência da Câmara Federal. Tudo junto e misturado. Às favas a ética, para o Lula manter a governabilidade.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;MUITA INGENUIDADE&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;É muita ingenuidade política se imaginar que um político tarimbado como o Lula, não conseguiria maioria na Câmara Federal e Senado. O poder é um atrativo afrodisíaco.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;POUCOS NÃO MUDARÃO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A MAIORIA dos deputados federais e senadores eleitos vai formar na base do Lula, porque vivem em órbita do poder. Muito poucos colocam a ideologia acima de tudo.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;NUNCA APONTO O DEDO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;NUNCA me antecipo no julgamento de uma denúncia antes de da justiça se pronunciar. O vereador Célio Gadelha (MDB) teve seu nome enxovalhado, acusado de comprar votos, saiu a sentença e foi absolvido. Mas, nada vai restaurar o sofrimento seu e da sua família. Por isso, minha cautela se justifica.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;APOSTA ERRADA&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A OPOSIÇÃO fez uma aposta ousada e que se mostrou errada, ao imaginar que cada grupo com candidatura própria poderia derrotar o Gladson. Pulverizaram os votos e nem chegaram ao segundo turno. Inês é morta.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;DIPLOMAÇÃO MARCADA&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A JUSTIÇA ELEITORAL marcou para 12 de dezembro a diplomação da chapa Lula presidente e Geraldo Alckmin vice-presidente. E, a posse do Lula não tem volta.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;DIPLOMAÇÃO NO ACRE&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;JÁ NO ACRE, a diplomação do governador Gladson Cameli e dos novos parlamentares acontecerá dia 15 de dezembro.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;ERRO INFANTIL&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A ALA RADICAL do bolsonarismo foi infantil ao jogar com a tese de que acampar na porta dos quartéis jogaria as Forças Armadas numa aventura de um golpe militar.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;VOTO AONDE MAIS PRECISA&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;É NO SENADO aonde o Lula vai mais precisar de apoio para compor uma base majoritária. Exatamente, por isso, é que, o senador Petecão (PSD) terá prestígio no governo petista, por um princípio básico: tem voto.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;REI MORTO, REI POSTO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O DEPUTADO Luiz Gonzaga (PSDB) pode ser o novo presidente do PSDB. Conversa no sentido acontece hoje com o presidente nacional da sigla, Bruno Guimarães. O fato do PSDB não ter feito nenhum deputado federal, isso queimou o presidente do partido, o Correinha.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;VIROU UM NANICO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;PELO fato de ter elegido apenas o deputado Luiz Gonzaga (PSDB), o PSDB virou no estado um partido nanico. O deputado Luiz Gonzaga disse ontem ao BLOG que assumir a presidência neste contexto é um desafio, mas vai aceitar a missão da direção nacional.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;PESO ZERO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;PARA AUMENTAR o Fundo Eleitoral, o que pesa é o partido ter deputados federais. E, o estado ficou no zero. Recursos não faltaram para os candidatos a federal, mas as votações foram pífias.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;BOA SACUDIDA&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;QUEM DEU uma boa sacudida no DERACRE com a sua gestão, foi o diretor geral Petronio Antunes. Talvez, por isso, seu nome aparece na relação dos cotados a ficar.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;OLHO ABERTO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;HOUVE uma renovação completa da bancada federal do estado. Uma varrida nos atuais oito deputados federais. Para saber se foi para melhor ou não, deve se esperar os seus mandatos começarem para avaliar as atuações.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O QUE MEDE SÃO OS PROJETOS&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O QUE mede a qualificação de um parlamentar federal não é distribuir emendas para os afilhados políticos, mas os projetos que apresentar ao longo do mandato.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;ANTES DE TUDO, RECONHECIMENTO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A IDA do Rômulo Grandidier para o Gabinete Civil, será uma espécie de reconhecimento do Gladson para com o seu delicado trabalho nos bastidores da campanha.  &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;JÁ ACONTECEU&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;FALA-SE no grupo de transição do governo Lula em se adotar o orçamento participativo, ouvindo as comunidades antes de aplicar recursos do governo. Isso já aconteceu no estado, na primeira gestão do Flaviano Melo na PMRB, quando quem ditava as prioridades eram os movimentos comunitários.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;NADA DE NOVO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O deputado eleito Emerson Jarude (MDB) ser empossado de forma definitiva no cargo de presidente municipal do MDB, não será nada novo. Ele já exerce a presidência interinamente. Toda renovação é salutar.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;PECADO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;SE HÁ um pecado que o MDB cometeu ao longo dos últimos anos, foi não investir na renovação partidária.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;COMEÇAR AGORA&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;SE PENSA em disputar a PMRB com candidatura própria, o MDB tem de começar a se organizar a partir de agora.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;FRASE MARCANTE&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“AS DIFICULDADES são como as montanhas. Só se aplainam quando avançamos sobre elas”. Émile Zola.&lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/tche-ameaca-ir-a-justica-pela-presidencia-da-aleac-caso-sua-candidatura-seja-rifada/</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2019/06/TRCHETCHE_900.jpg?fit=900%2C550&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carta aberta ao governador Gladson Cameli</t>
+          <t>2022-12-01T07:55:44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/07/19/carta-aberta-ao-governador-gladson-cameli/</t>
+          <t>Bolsonaristas voltam a deixar o Acre isolado após novos bloqueios na BR-364, em Rondônia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um grupo de manifestantes bolsonaristas que estão acampados às margens da rodovia da BR-364, em Rondônia, em protesto contra o resultado das eleições que ocorreram há um mês, resolveram, mais uma vez, bloquear a rodovia federal em dois trechos no estado vizinho do Acre. A informação foi confirmada pela assessoria da Polícia Rodoviária Federal (PRF) na manhã desta quinta-feira, 1°.&lt;/p&gt;
+&lt;p&gt;De acordo com a nota, o grupo de manifestantes bloqueou trechos nos municípios de Ariquemes e Cacoal, ambos no interior rondoniense.&lt;/p&gt;
+&lt;p&gt;A PRF reiterou também os recentes acontecimentos na região. Segundo os agentes, o local do atropelamento é uma área de concentração de manifestantes, que fica às margens da rodovia. Após o acidente, policiais rodoviários compareceram à área após várias ligações das testemunhas informando que o caminhoneiro teria atropelado uma mulher e fugido sem prestar socorro. A Polícia Militar (PM) em Cacoal também foi acionada e conforme informações preliminares repassadas pela PRF, &amp;#8220;os militares localizaram o indivíduo e estão com ele sob custódia, em um bairro próximo ao local do evento crítico&amp;#8221;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/bolsonaristas-voltam-a-deixar-o-acre-isolado-apos-novos-bloqueios-na-br-364-em-rondonia/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/BR-URGENTE.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Evento que deveria empossar Gladson Cameli na presidência do Progressistas é cancelado</t>
+          <t>2022-12-01T07:50:33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/07/05/evento-que-deveria-empossar-gladson-cameli-na-presidencia-do-progressistas-e-cancelado/</t>
+          <t xml:space="preserve">Na pandemia, PIB do Acre caiu 4,2%; sétima maior queda dentre os estados </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;No último dia 04/11, o IBGE divulgou, através do Sistema de Contas Regionais, o PIB de 2020, ano em que a pandemia de COVID-19 impactou a economia mundial. O estudo, que é elaborado em parceria com os Órgãos Estaduais de Estatística, Secretarias Estaduais de Governo e a Superintendência da Zona Franca de Manaus (Suframa), mostrou que o Acre apresentou queda no volume de 4,2% em relação a 2019, ficando acima da média de queda do Brasil, que foi de 3.3%. Mesmo com a queda, a participação do Acre na economia brasileira manteve-se em 0,2%.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489198" data-permalink="https://ac24horas.com/2022/12/01/na-pandemia-pib-do-acre-caiu-42-setima-maior-queda-dentre-os-estados/pib1-2/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?fit=1493%2C524&amp;amp;ssl=1" data-orig-size="1493,524" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;Bruno Roberto Cavalcante Vaz&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1669879422&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="PIB1" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?fit=300%2C105&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?fit=740%2C260&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489198" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?resize=740%2C260&amp;#038;ssl=1" alt="" width="740" height="260" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?w=1493&amp;amp;ssl=1 1493w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB1.jpg?resize=768%2C270&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Somente dois estados tiveram aumento do Produto Interno Bruto (PIB), Mato Grosso do Sul (0,2%) e Roraima (0,1%). O Mato Grosso apresentou estabilidade (0,0%). Os demais apresentaram quedas em seus volumes em relação a 2019.  A maior queda foi no Rio Grande do Sul (7,2%) e no Ceará (5,7%).&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Conforme demonstrado no gráfico a seguir, na Região Norte, as maiores quedas do volume do PIB ocorreram em Rondônia (4,4%) e no Acre (4,2%). Somente Roraima apresentou variação positiva (0,1%).&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489199" data-permalink="https://ac24horas.com/2022/12/01/na-pandemia-pib-do-acre-caiu-42-setima-maior-queda-dentre-os-estados/pib2/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?fit=1434%2C509&amp;amp;ssl=1" data-orig-size="1434,509" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;Bruno Roberto Cavalcante Vaz&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1669879455&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="PIB2" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?fit=300%2C106&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?fit=740%2C262&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489199" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?resize=740%2C263&amp;#038;ssl=1" alt="" width="740" height="263" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?w=1434&amp;amp;ssl=1 1434w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB2.jpg?resize=768%2C273&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Conforme o IBGE, o PIB do Estado do Acre foi estimado em R$ 16,5 bilhões. Verificou-se queda em todos os setores. O setor que mais variou negativamente foi o da Agropecuária (17,4%), seguido pelo da Indústria (7,3%). Até mesmo o setor de Serviços apresentou queda de 3,1%.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489200" data-permalink="https://ac24horas.com/2022/12/01/na-pandemia-pib-do-acre-caiu-42-setima-maior-queda-dentre-os-estados/pib3/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?fit=1458%2C385&amp;amp;ssl=1" data-orig-size="1458,385" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;Bruno Roberto Cavalcante Vaz&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;1669879490&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="PIB3" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?fit=300%2C79&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?fit=740%2C196&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489200" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?resize=740%2C195&amp;#038;ssl=1" alt="" width="740" height="195" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?w=1458&amp;amp;ssl=1 1458w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB3.jpg?resize=768%2C203&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Agropecuária caiu 17,4% e foi o setor com maior retração. Sua participação no valor adicionado bruto do PIB caiu de 7,5% (2019) para 6,6% (2020).&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Diz o IBGE: &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“&amp;#8230;a Agropecuária apresentou a maior retração, com queda em volume de -17,4%, em 2020, em relação a 2019. A participação da atividade no total do valor adicionado bruto do estado foi de 6,6%, o que representou uma perda de 0,8 ponto percentual, em comparação ao ano anterior. O resultado foi influenciado, sobretudo, pela retração verificada na produção de Agricultura, inclusive o apoio à agricultura e a pós-colheita, atrelada ao desempenho da produção da mandioca, cultivo de grande relevância na agricultura do estado. Vale ressaltar que, o cultivo de soja vem expandindo sua produção no estado, entretanto, o impacto do crescimento em termo de volume não foi suficiente para garantir uma variação positiva do valor adicionado bruto da atividade, em 2020. Já a Pecuária, inclusive o apoio à Pecuária, apresentou variação positiva de 7,2%, em termo de volume, influenciada pela criação de bovinos, principal segmento da atividade. A participação dessa atividade na economia do estado apresentou ganho de 1,1 pontos percentual, passando de 5,0% em 2019, para 6,1%, em 2020.” (Fonte: IBGE &amp;#8211; Sistema de Contas Regionais: Brasil – 2020 &amp;#8211; Principais destaque por Unidade da Federação – acesso em 04/11/2022).&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Volume da produção da Indústria registra queda de 7,3% entre 2019 e 2020. No entanto, a sua participação no valor adicionado bruto subiu de 7,2% (2019) para 8,1% (2020).&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Diz o IBGE: &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“A Indústria apresentou variação negativa de 7,3%, em termos de volume, entre 2019 e 2020, e representou 8,1% do valor adicionado bruto, em 2020. A queda na produção da Indústria foi motivada pelo desempenho da atividade de Construção, que registrou variação em volume de -11,3%, seguido por Indústrias de transformação, cuja variação foi de -6,7%; as duas atividades somadas representaram 73,3% da atividade industrial do Estado. Por outro lado, a atividade Eletricidade e gás, água, esgoto, atividades de gestão de resíduos e descontaminação apresentou resultado positivo, com crescimento em volume de 1,8% e ganho de participação, saindo de 1,2%, em 2019, para 2,1%, em 2020.” (Fonte: IBGE &amp;#8211; Sistema de Contas Regionais: Brasil – 2020 &amp;#8211; Principais destaque por Unidade da Federação – acesso em 04/11/2022).&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Volume de Serviços caiu 3,1%. A sua participação no valor adicionado bruto do PIB permaneceu em 85,3% (2019 e 2020).&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Diz o IBGE: &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“O grupo de atividades de Serviços é o maior da economia do estado e correspondeu a 85,3% do valor adicionado bruto, em 2020. No mesmo ano, o grupo de Serviços registrou queda em volume de 3,1%. Considerando a participação em relação ao total do valor adicionado bruto, a Administração, defesa, educação e saúde públicas e seguridade social foi atividade que mais contribuiu para este resultado, pois, com participação de 40,8% na economia, a atividade apresentou queda de volume de 4,8%. Outras atividades que contribuíram para a queda deste grupo foram:  Alojamento e alimentação (-28,9%); Artes, cultura, esporte e recreação e outras atividades de serviços (-19,0%) e Educação e saúde privadas (-1,4%). Em contrapartida, quatro atividades apresentaram crescimento em volume, foram elas: Atividades profissionais, científicas e técnicas, administrativas e serviços complementares (9,7%); Atividades financeiras, de seguros e serviços relacionados (6,3%); Comércio, manutenção e reparação de veículos automotores e motocicletas (2,7%) e aatividades imobiliárias (0,9%).”  &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Em 10 anos, os setores da Agropecuária e da Indústria reduziram suas participações no valor adicionado bruto do PIB em detrimento do aumento do setor de Serviços.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Conforme demonstrado no gráfico a seguir, a participação do setor de serviços no PIB acreano subiu 10 pontos em 10 anos. Logicamente que o crescimento foi em detrimento da queda da participação dos setores da agropecuária (-3,8 p.p.) e da indústria (-6,2 p.p.). &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Conforme BAUMANN (2022), é importante ressaltar que o papel das atividades de serviços na economia mundial contemporânea, além do atendimento ao consumo final das sociedades, tem sido de facilitar as transações econômicas, seja proporcionando os insumos essenciais ao setor manufatureiro, contribuindo com a expansão de polos de desenvolvimento. A competição nos mercados mundiais leva à necessidade do consumo crescente de serviços, de uma forma mais barata, veloz e eficiente. No Acre, é preciso avançar no crescimento da inovação tecnológica e organizacional na área de serviços, tanto nos serviços públicos como nos serviços privados. Essa parece ser uma tarefa inadiável.&lt;/span&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Orlando Sabino escreve às quintas-feiras no ac24horas.&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/na-pandemia-pib-do-acre-caiu-42-setima-maior-queda-dentre-os-estados/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/PIB-ACRE-2.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
+          <t>2022-12-01T08:55:06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli/</t>
+          <t>Governo do Acre publica resultado final do concurso do ISE; confira lista</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;A Secretaria de Estado de Planejamento e Gestão (Seplag) publicou no Diário Oficial do Acre desta quinta-feira (1) o resultado final da prova de títulos do concurso do Instituto Socioeducativo do Acre (Ise-Acre).&lt;/span&gt;&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+&lt;/span&gt;&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+&lt;/span&gt;&lt;span style="font-weight: 400;"&gt;O edital do concurso foi divulgado em dezembro do ano passado com &lt;/span&gt;&lt;span style="font-weight: 400;"&gt;322 vagas, sendo 5% reservadas para pessoas com deficiência, distribuídas em cargos de nível médio e superior &lt;/span&gt;&lt;span style="font-weight: 400;"&gt;para assistente social, psicólogo e técnico administrativo e operacional e agente socioeducativo.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Os candidatos poderão obter informações gerais referentes ao Concurso Público através do site &lt;a href="http://www.ibade.org.br"&gt;www.ibade.org.br&lt;/a&gt; ou por meio dos telefones: 0800 668 2175, (21) 3674-9190 &amp;#8211; Rio de Janeiro, ou pelo e-mail atendimento@ibade.org.br. &lt;/span&gt;&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+&lt;/span&gt;&lt;span style="font-weight: 400;"&gt;&lt;br /&gt;
+&lt;/span&gt;&lt;span style="font-weight: 400;"&gt;Confira a relação dos candidatos na seguinte ordem: cargo, vaga, inscrição, nome do candidato e nota, em ordem alfabética:&lt;/span&gt;&lt;/p&gt;
+&lt;a href="https://contilnetnoticias.com.br/wp-content/uploads/2022/12/edital-ise.pdf" class="pdfemb-viewer" style="" data-width="max" data-height="max"  data-toolbar="bottom" data-toolbar-fixed="off"&gt;edital-ise&lt;br/&gt;&lt;/a&gt;
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/governo-do-acre-publica-resultado-final-do-concurso-do-ise-confira-lista/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/06/ISE-AC.jpeg?fit=1280%2C828&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gladson Cameli se reúne primeiro escalão para estabelecer metas do novo governo</t>
+          <t>2022-12-01T08:45:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/11/gladson-se-reune-rimeiro-escalao-para-estabelecer-metas-do-novo-governo/</t>
+          <t>Carolina Dieckmann faz apelo nas redes após ter fotos íntimas vazadas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://www.metropoles.com/tag/carolina-dieckmann" target="_blank" rel="noopener"&gt;Carolina Dieckmann&lt;/a&gt; usou as redes sociais nessa quarta-feira (30/11) para fazer um desabafo. Vítima do crime de vazamento de fotos íntimas há uma década, a artista lutou para que fosse criada uma lei que protegesse outras pessoas que possam sofrer o mesmo. E assim foi feito, ganhando o nome dela.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="4967896" data-gtm-vis-first-on-screen-8752935_845="4967897" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;“Em 2011, eu passei por um processo doloroso. A minha intimidade foi invadida e isso gerou uma grande discussão pública. Eu tive fotos roubadas e fui extorquida. Ou eu pagava a quantia pedida ou as minhas fotos seriam publicadas”, começou dizendo.&lt;/p&gt;
+&lt;p&gt;Leia a matéria completa no &lt;a href="https://www.otvfoco.com.br/carolina-dieckmann-vitima-de-crime-grave-faz-apelo-doloroso/?utm_source=Metropoles" target="_blank" rel="noopener"&gt;TV Foco&lt;/a&gt;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/carolina-dieckmann-faz-apelo-nas-redes-apos-ter-fotos-intimas-vazadas/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/CAROL-DICK.jpg?fit=600%2C400&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bomba: Gladson Cameli e Ana Paula estão em fase de separação; veja detalhes</t>
+          <t>2022-12-01T08:44:49</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/bomba-gladson-cameli-e-ana-paula-estao-em-fase-de-separacao-veja-detalhes/</t>
+          <t>Lollapalooza 2023: veja line-up e como comprar ingressos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="mc-column content-text active-extra-styles active-capital-letter" data-block-type="unstyled" data-block-weight="98" data-block-id="1"&gt;
+&lt;p class="content-text__container theme-color-primary-first-letter" data-track-category="Link no Texto" data-track-links=""&gt;O Lolla Day, tipo de ingresso que dá acesso a um dia do festival Lollapalooza Brasil 2023, já está à venda. Os tickets, cujo preços começam em R$ 550, podem ser adquiridos na plataforma online Tickets For Fun e na bilheteria do Teatro Renault.&lt;/p&gt;
+&lt;p class="content-text__container theme-color-primary-first-letter" data-track-category="Link no Texto" data-track-links=""&gt;Nesta quarta-feira (19), o festival anunciou o line-up dividido por dia. Billie Eilish e Lil Nas X são as atrações principais do primeiro dia do Lolla 2023 e se apresentam na sexta-feira, 24 de março. Blink-182 e Tame Impala tocam no sábado (25), e Drake e Rosalía encerram a programação no domingo (26).&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="55" data-block-id="2"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;The 1975, Melanie Martinez, Aurora, Tove Lo, Armin Van Buuren, Jamie XX e Conan Gray também são alguns nomes que complementam a 10ª edição do Lollapalooza. Entre as atrações brasileiras estão Ludmilla, L7nnon, Filipe Ret, Pitty, Pedro Sampaio, Anavitória e Paralamas do Sucesso. Confira, no tutorial a seguir, como comprar o ingresso Lolla Day.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="4"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/wmytjDmo_v0D_EqRRL6rRdEShPY=/0x0:1344x542/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/z/7/wOBVH2SJa0E75WIdq8YA/capa.jpg?resize=648%2C261&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/jxHhIksw0SJcgTmtpUBBv25QfOo=/0x0:1344x542/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/z/7/wOBVH2SJa0E75WIdq8YA/capa.jpg 1000w, https://i0.wp.com/s2.glbimg.com/wmytjDmo_v0D_EqRRL6rRdEShPY=/0x0:1344x542/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/z/7/wOBVH2SJa0E75WIdq8YA/capa.jpg?resize=648%2C261&amp;#038;ssl=1 984w, https://s2.glbimg.com/RPDY2bSsBBqaruWMC2lzQ4D4Chk=/0x0:1344x542/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/z/7/wOBVH2SJa0E75WIdq8YA/capa.jpg 640w, https://s2.glbimg.com/y7HcNkoNLuKFH8d-Y1WXYK3PfSI=/0x0:1344x542/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/z/7/wOBVH2SJa0E75WIdq8YA/capa.jpg 600w" alt="Line-up oficial separada por dia do Lollapalooza Brasil 2023 — Foto: Divulgação/Lollapalooza Brasil" width="648" height="261" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Line-up oficial separada por dia do Lollapalooza Brasil 2023 — Foto: Divulgação/Lollapalooza Brasil&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="4" data-block-id="6"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;&lt;strong&gt;Serviço: Lollapalooza Brasil 2023&lt;/strong&gt;&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="20" data-block-id="7"&gt;
+&lt;ul class="content-unordered-list"&gt;
+&lt;li&gt;&lt;strong&gt;Datas:&lt;/strong&gt; 24, 25 e 26 de março de 2023&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Local: &lt;/strong&gt;Autódromo de Interlagos, em São Paulo&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;Abertura dos portões: &lt;/strong&gt;11h&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="7" data-block-id="9"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;&lt;strong&gt;Preços dos ingressos do Lollapalooza Brasil 2023&lt;/strong&gt;&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-text" data-block-type="table-plugin" data-block-id="10"&gt;
+&lt;div class="column medium-centered medium-22 large-20"&gt;
+&lt;div class="show-table content-media content-media--normal"&gt;
+&lt;p class="mc-column show-table__title"&gt;Preço dos ingressos do Lollapalooza Brasil 2023&lt;/p&gt;
+&lt;div class="show-table__centralized"&gt;
+&lt;div class="show-table__container"&gt;
+&lt;table class="show-table__content
+ show-table__content--highlight-top        "&gt;&lt;/p&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Ingresso&lt;/td&gt;
+&lt;td&gt;Descrição&lt;/td&gt;
+&lt;td&gt;Preço&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Lolla Day&lt;/td&gt;
+&lt;td&gt;Dá acesso a um dia do festival, que podem ser escolhidos entre sexta, sábado ou domingo&lt;/td&gt;
+&lt;td&gt;A partir de R$ 550&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Lolla Pass&lt;/td&gt;
+&lt;td&gt;Dá acesso aos três dias de festival&lt;/td&gt;
+&lt;td&gt;A partir de R$ 990&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Lolla Comfort Pass&lt;/td&gt;
+&lt;td&gt;Dá acesso a pontos de descanso, bares e cashback para alimentos, bebida e mercadorias durante os três dias de festival&lt;/td&gt;
+&lt;td&gt;A partir de R$ 1.620&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Lolla Premium Pass&lt;/td&gt;
+&lt;td&gt;Fornece experiência premium durante os três dias de festival, com open bar e food, translado de ida e volta e diversos benefícios&lt;/td&gt;
+&lt;td&gt;A partir de R$ 3.700&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;div class="show-table__footer"&gt;
+&lt;div class="show-table__source"&gt;Fonte: Lollapalooza Brasil&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="8" data-block-id="11"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Como comprar ingresso online para o Lolla Day&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="16" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 1. Acesse a página oficial do evento (https://www.lollapaloozabr.com/) e selecione &amp;#8220;Ingressos&amp;#8221; no canto superior direito;&lt;/p&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="13"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/0rBWhzk8lArFLvY_rj-B6sT-nMc=/0x0:1345x601/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/c/lDtbWLTfimBYAefHrqAg/passo-1.jpg?resize=648%2C289&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/PiHaYlOEpDhydLb9FTGOt-nlsos=/0x0:1345x601/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/c/lDtbWLTfimBYAefHrqAg/passo-1.jpg 1000w, https://i0.wp.com/s2.glbimg.com/0rBWhzk8lArFLvY_rj-B6sT-nMc=/0x0:1345x601/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/c/lDtbWLTfimBYAefHrqAg/passo-1.jpg?resize=648%2C289&amp;#038;ssl=1 984w, https://s2.glbimg.com/_VahgtzQcwpRXeLU6oe9Kf9JZsI=/0x0:1345x601/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/c/lDtbWLTfimBYAefHrqAg/passo-1.jpg 640w, https://s2.glbimg.com/q0k5M6r7hO9jkYZM-pJBDPzrksc=/0x0:1345x601/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/c/lDtbWLTfimBYAefHrqAg/passo-1.jpg 600w" alt="Página oficial do Lollapalooza Brasil 2023 para compra de ingressos — Foto: Reprodução/Gabrielle Garcia" width="648" height="289" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Página oficial do Lollapalooza Brasil 2023 para compra de ingressos — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 2. Na página que irá abrir, selecione o dia desejado. Escolha entre sexta, sábado ou domingo. Em seguida, selecione o tipo de ingresso e use os botões de &amp;#8220;+&amp;#8221; e &amp;#8220;-&amp;#8221; para definir a quantidade de bilhetes. Depois, continue em &amp;#8220;Comprar&amp;#8221;, no canto inferior direito;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="15"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/WUIseyD4q8Jet0zQpk-Q8DXi0so=/0x0:1359x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/b/G/uW60k4Rja9L4IVZ2Gd7A/passo-2.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/JhHGo_-V1JprjICuHuU8vSuFK48=/0x0:1359x655/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/b/G/uW60k4Rja9L4IVZ2Gd7A/passo-2.jpg 1000w, https://i0.wp.com/s2.glbimg.com/WUIseyD4q8Jet0zQpk-Q8DXi0so=/0x0:1359x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/b/G/uW60k4Rja9L4IVZ2Gd7A/passo-2.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/Yn8AU4aycCZiNyfb4L8VUH9Nj14=/0x0:1359x655/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/b/G/uW60k4Rja9L4IVZ2Gd7A/passo-2.jpg 640w, https://s2.glbimg.com/P1ZEdgdFfFZYuY7sfQHrX4BBN_M=/0x0:1359x655/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/b/G/uW60k4Rja9L4IVZ2Gd7A/passo-2.jpg 600w" alt="Seleção da quantidade de ingressos para o Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Seleção da quantidade de ingressos para o Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 3. Confira o resumo da compra e, se estiver tudo certo, marque a caixa &amp;#8220;Declaro que li, compreendi e estou de acordo (&amp;#8230;)&amp;#8221; e siga em &amp;#8220;Finalizar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="18"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/8Tbx9gqseRmMMiCHzEUoP3otFhA=/0x0:1365x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/N/f/a8xsmoRcKBa4DyAdfYWA/passo-3.jpg?resize=648%2C310&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/Zw7bvQLSECISgXdta8B7B4B9vkE=/0x0:1365x655/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/N/f/a8xsmoRcKBa4DyAdfYWA/passo-3.jpg 1000w, https://i0.wp.com/s2.glbimg.com/8Tbx9gqseRmMMiCHzEUoP3otFhA=/0x0:1365x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/N/f/a8xsmoRcKBa4DyAdfYWA/passo-3.jpg?resize=648%2C310&amp;#038;ssl=1 984w, https://s2.glbimg.com/hC9-m3L5tYEGqnXEe8Doz_ma2DA=/0x0:1365x655/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/N/f/a8xsmoRcKBa4DyAdfYWA/passo-3.jpg 640w, https://s2.glbimg.com/N3pXs_PfBkyNBodBo4cgV2E2Zuk=/0x0:1365x655/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/N/f/a8xsmoRcKBa4DyAdfYWA/passo-3.jpg 600w" alt="Compra de ingressos online para o Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="310" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Compra de ingressos online para o Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="21" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 4. Em seguida, para acessar sua conta no site Tickets for Fun, digite o seu e-mail e clique em &amp;#8220;Continuar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="20"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/f1Ow9eVCvUwCp6pkidiTKH8nM3A=/0x0:1365x657/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/q/r2yipERlymFMiSvT0G9g/passo-4.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/RfMCazuLnszwWNScI7o_boGciN4=/0x0:1365x657/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/q/r2yipERlymFMiSvT0G9g/passo-4.jpg 1000w, https://i0.wp.com/s2.glbimg.com/f1Ow9eVCvUwCp6pkidiTKH8nM3A=/0x0:1365x657/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/q/r2yipERlymFMiSvT0G9g/passo-4.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/5OnjA2Td9885yIQrQroctqbjU9Q=/0x0:1365x657/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/q/r2yipERlymFMiSvT0G9g/passo-4.jpg 640w, https://s2.glbimg.com/Fp-iSPmVySyA5Y_AimPicozgtxY=/0x0:1365x657/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/g/q/r2yipERlymFMiSvT0G9g/passo-4.jpg 600w" alt="Usuário deve inserir e-mail para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Usuário deve inserir e-mail para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="25" data-block-id="21"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 5. Será necessário realizar a autenticação da conta. Escolha entre o seu e-mail e telefone celular para receber o PIN e vá em &amp;#8220;Enviar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="22"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/7WQ4gMfSYSNXsk8FYLuO-I0I4jQ=/0x0:1363x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/o/d/G9cNfbQKqaasEdIHWY1w/passo-5.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/EElyJ7aixkmlfcQoE9nPJ5MEOKs=/0x0:1363x655/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/o/d/G9cNfbQKqaasEdIHWY1w/passo-5.jpg 1000w, https://i0.wp.com/s2.glbimg.com/7WQ4gMfSYSNXsk8FYLuO-I0I4jQ=/0x0:1363x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/o/d/G9cNfbQKqaasEdIHWY1w/passo-5.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/RFKvHsJnSB5dEpFlB8mR94Mo31A=/0x0:1363x655/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/o/d/G9cNfbQKqaasEdIHWY1w/passo-5.jpg 640w, https://s2.glbimg.com/oLaVxCn5haKdaZdmeAbYXXV1_1o=/0x0:1363x655/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/o/d/G9cNfbQKqaasEdIHWY1w/passo-5.jpg 600w" alt="Autenticação de conta no site Tickets for Fun — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Autenticação de conta no site Tickets for Fun — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="15" data-block-id="24"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 6. Em seguida, digite o código PIN de quatro dígitos e confirme em &amp;#8220;Validar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="25"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/U6aflpUMU_N6IlfiJpLTvK0m5bs=/0x0:1363x657/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/A/q/XZXE0EQjiKbw73FMBWAQ/passo-6.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/4DQOWbJq7VK6937QtjwTWkXqYQQ=/0x0:1363x657/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/A/q/XZXE0EQjiKbw73FMBWAQ/passo-6.jpg 1000w, https://i0.wp.com/s2.glbimg.com/U6aflpUMU_N6IlfiJpLTvK0m5bs=/0x0:1363x657/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/A/q/XZXE0EQjiKbw73FMBWAQ/passo-6.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/l6pDHLjhhI9tMcFbIeKQKWLw6Fk=/0x0:1363x657/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/A/q/XZXE0EQjiKbw73FMBWAQ/passo-6.jpg 640w, https://s2.glbimg.com/8eLQPd0LrCxWlXZSCr9clFnvbWU=/0x0:1363x657/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/A/q/XZXE0EQjiKbw73FMBWAQ/passo-6.jpg 600w" alt="Informar código de autenticação no site Tickets for Fun — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Informar código de autenticação no site Tickets for Fun — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="38" data-block-id="26"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 7. Você será redirecionado automaticamente para confirmar os seus dados pessoais, como nome, data de nascimento, telefone, e-mail e endereço. Verifique se todas as informações estão corretas e role a página para baixo. Depois, clique em &amp;#8220;Pagar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="27"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/tC2vVbJ2pWNcJeVJ5-JPKJ5kKBk=/0x0:1364x652/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/y/s/ApJcPsThWRO6AeKhj6SA/passo-7.jpg?resize=648%2C309&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/TNB42q_WsYuUSLcrzI9Bs8b7TZs=/0x0:1364x652/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/y/s/ApJcPsThWRO6AeKhj6SA/passo-7.jpg 1000w, https://i0.wp.com/s2.glbimg.com/tC2vVbJ2pWNcJeVJ5-JPKJ5kKBk=/0x0:1364x652/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/y/s/ApJcPsThWRO6AeKhj6SA/passo-7.jpg?resize=648%2C309&amp;#038;ssl=1 984w, https://s2.glbimg.com/y7iTMcCaLWhBteRMX013iF7wIT8=/0x0:1364x652/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/y/s/ApJcPsThWRO6AeKhj6SA/passo-7.jpg 640w, https://s2.glbimg.com/d5fZQbEYvt_U0_ybxkBDApelA7U=/0x0:1364x652/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/y/s/ApJcPsThWRO6AeKhj6SA/passo-7.jpg 600w" alt="Página de identificação para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="309" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Página de identificação para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="41" data-block-id="28"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 8. Escolha o método de entrega do ingresso. Neste exemplo, escolhemos &amp;#8220;Entrega em domicílio&amp;#8221;. Você pode selecionar um endereço já cadastrado ou inserir um novo. A taxa de entrega será calculada conforme o endereço informado. Feito isso, prossiga em &amp;#8220;Continuar&amp;#8221;;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="29"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/4cu_jher_RnyNxLshr2utPFDgPY=/0x0:1365x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/2/9/prsTk8TtiqavUIsbXOdA/passo-8.jpg?resize=648%2C310&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/pD1B21Q81DhcIJIw7_oW_dktpt8=/0x0:1365x655/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/2/9/prsTk8TtiqavUIsbXOdA/passo-8.jpg 1000w, https://i0.wp.com/s2.glbimg.com/4cu_jher_RnyNxLshr2utPFDgPY=/0x0:1365x655/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/2/9/prsTk8TtiqavUIsbXOdA/passo-8.jpg?resize=648%2C310&amp;#038;ssl=1 984w, https://s2.glbimg.com/1hkBpEGP4uMxF_fMPom9pG2wwDU=/0x0:1365x655/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/2/9/prsTk8TtiqavUIsbXOdA/passo-8.jpg 640w, https://s2.glbimg.com/wSssXUG56dpRYCSHcBUP0DjKk6Q=/0x0:1365x655/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/2/9/prsTk8TtiqavUIsbXOdA/passo-8.jpg 600w" alt="Selecionando uma forma de recebimento dos tickets para o Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="310" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Selecionando uma forma de recebimento dos tickets para o Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="17" data-block-id="31"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 9. No resumo da compra, confira todos os detalhes, incluindo valores, taxas de serviço e entrega;&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="32"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/q-qg9NVhTZarjr3QzN_oBfDfwUs=/0x0:1359x653/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/X/e/B8Rcu5RaSvoVOTFOTiVQ/passo-9.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/ZU57mngaS1y4bBiicGF-akTuGxc=/0x0:1359x653/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/X/e/B8Rcu5RaSvoVOTFOTiVQ/passo-9.jpg 1000w, https://i0.wp.com/s2.glbimg.com/q-qg9NVhTZarjr3QzN_oBfDfwUs=/0x0:1359x653/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/X/e/B8Rcu5RaSvoVOTFOTiVQ/passo-9.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/xvzjfG8UQbIcCv_4RVe1P0XrP4w=/0x0:1359x653/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/X/e/B8Rcu5RaSvoVOTFOTiVQ/passo-9.jpg 640w, https://s2.glbimg.com/rjPYbP_6qovE1_o1Ig0uXrd1FsI=/0x0:1359x653/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/X/e/B8Rcu5RaSvoVOTFOTiVQ/passo-9.jpg 600w" alt="Resumo da compra de ingressos para o Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Resumo da compra de ingressos para o Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="50" data-block-id="33"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Passo 10. Feito isso, role a página para baixo e informe o número, data de validade e código de segurança do seu cartão de crédito, selecione o número de parcelas e clique em &amp;#8220;Pagar&amp;#8221;. Pronto. Os seus ingressos foram adquiridos, e você receberá a confirmação de compra no e-mail cadastrado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="34"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;
+&lt;p&gt;&lt;figure style="width: 648px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/ssnIrkS1kaolr6ysEreeKixsi4g=/0x0:1359x653/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/w/t/nhnRumT6ARMMbDkRZSeA/passo-10.jpg?resize=648%2C311&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/Kcv6-T9_GcooDfEElvl1hGkVWak=/0x0:1359x653/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/w/t/nhnRumT6ARMMbDkRZSeA/passo-10.jpg 1000w, https://i0.wp.com/s2.glbimg.com/ssnIrkS1kaolr6ysEreeKixsi4g=/0x0:1359x653/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/w/t/nhnRumT6ARMMbDkRZSeA/passo-10.jpg?resize=648%2C311&amp;#038;ssl=1 984w, https://s2.glbimg.com/DiqZesQr1TGVGrBGk5lWgn8_GWU=/0x0:1359x653/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/w/t/nhnRumT6ARMMbDkRZSeA/passo-10.jpg 640w, https://s2.glbimg.com/FagOnDaYChuZSTQxFHaiplDnhRA=/0x0:1359x653/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_08fbf48bc0524877943fe86e43087e7a/internal_photos/bs/2022/w/t/nhnRumT6ARMMbDkRZSeA/passo-10.jpg 600w" alt="Informar dados de pagamento para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia" width="648" height="311" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Informar dados de pagamento para compra de ingressos do Lolla Day — Foto: Reprodução/Gabrielle Garcia&lt;/figcaption&gt;&lt;/figure&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/lollapalooza-2023-veja-line-up-e-como-comprar-ingressos/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/LOLLA.jpg?fit=1000%2C666&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dança das cadeiras: Gladson Cameli faz quase 20 nomeações e exonerações; veja lista</t>
+          <t>2022-12-01T08:40:44</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/danca-das-cadeiras-gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes-veja-lista/</t>
+          <t>Roberto Carlos homenageia Erasmo em especial de fim de ano da Globo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Tradição é tradição. &lt;a href="https://www.metropoles.com/tag/roberto-carlos" target="_blank" rel="noopener"&gt;Roberto Carlos&lt;/a&gt; subiu ao palco do Qualistage, na noite da última terça-feira (29/11), para gravar seu especial de fim de ano para a TV Globo. A gravação contou com as participações da atriz Lucy Alves, a Brisa de Travessia, da dupla &lt;a href="https://www.instagram.com/maiara/?hl=pt" target="_blank" rel="noopener"&gt;Maiara&lt;/a&gt; e Maraisa e do grupo Raça Negra. Um dos momentos de maior emoção foi a homenagem a Erasmo Carlos, que faleceu em 22 de novembro.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="3263178" data-gtm-vis-first-on-screen-8752935_845="3263178" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Com Amigo, canção-síntese da irmandade que uniu por anos os parceiros musicais, Roberto homenageou seu “irmão camarada”. Enquanto o maestro Eduardo Lages dedilhava ao piano a introdução, uma gravação com a voz de Erasmo foi ouvida, emocionando os presentes:&lt;/p&gt;
+&lt;p&gt;“Queria te dizer que, nas próximas encarnações, se você deixar, quero de novo ser seu compadre, seu parceiro e seu amigo. Valeu, bicho!”&lt;/p&gt;
+&lt;p&gt;Filho e empresário de Erasmo, &lt;strong&gt;Leo Esteves&lt;/strong&gt; esteve presente e, emocionado, bradou: “Viva Erasmo Carlos!”. O empresário é a prova de que quem sai aos seus não degenera. Antes de uma gravação começar, foi cumprido por muitos dos fãs da dupla e atendeu a todos com cordialidade, posando também para fotos.&lt;/p&gt;
+&lt;p&gt;Um momento que pegou Leo de surpresa foi quando Lucy Alves cantou com Roberto “De volta pro aconchego” (Dominguinhos e Nando Cordel). A música marcou os últimos momentos de Erasmo com a mulher, &lt;strong&gt;Fernanda&lt;/strong&gt; .&lt;/p&gt;
+&lt;p&gt;Sim, a emoção pautou boa parte da gravação, mas também houve espaço para a descontração. E ela ficou por conta de Maraísa, que ao lado da irmã, Maiara, cantou com Roberto “Eu te amo, te amo, te amo”.&lt;/p&gt;
+&lt;p&gt;– Você casou? – perguntou a cantora de bate-pronto.&lt;/p&gt;
+&lt;p&gt;– De novo? – retrucou Roberto na esportiva.&lt;/p&gt;
+&lt;p&gt;Ao anunciar a presença da mãe, &lt;strong&gt;Almira&lt;/strong&gt; , a cantora manteve o bom humor: “Sua sogra está aí”.&lt;/p&gt;
+&lt;p&gt;O grupo Raça Negra também participou do especial, dividindo com o anfitrião os vocais de “O portão”, mostrando que o &lt;em&gt;swing&lt;/em&gt; não ficou de fora da celebração. A atração vai ao ar no dia 23 de dezembro e tem tudo para renovar, nos corações dos telespectadores, as esperanças por tempos melhores. Como comentou &lt;strong&gt;Luiz Carlos&lt;/strong&gt; , vocalista do Raça Negra, “o ano que vem será melhor”. E será mesmo.&lt;/p&gt;
+&lt;p&gt;Crédito das imagens: Ricardo Portilho&lt;/p&gt;
+&lt;figure class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-13346" src="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Maiara-Maraisa-e-Roberto-300x259.jpg?resize=696%2C602&amp;#038;ssl=1" sizes="(max-width: 900px) 100vw, 900px" srcset="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Maiara-Maraisa-e-Roberto-300x259.jpg?resize=696%2C602&amp;#038;ssl=1 300w, https://newmag.com.br/wp-content/uploads/2022/11/Maiara-Maraisa-e-Roberto-1024x885.jpg 1024w, https://newmag.com.br/wp-content/uploads/2022/11/Maiara-Maraisa-e-Roberto-768x664.jpg 768w, https://newmag.com.br/wp-content/uploads/2022/11/Maiara-Maraisa-e-Roberto.jpg 1284w" alt="" width="696" height="602" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Maiara e Maraísa com Roberto: descontração e ‘Eu te amo, te amo, te amo’&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="wp-image-13345" src="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Show-do-Roberto-300x152.jpg?resize=696%2C353&amp;#038;ssl=1" sizes="(max-width: 900px) 100vw, 900px" srcset="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Show-do-Roberto-300x152.jpg?resize=696%2C353&amp;#038;ssl=1 300w, https://newmag.com.br/wp-content/uploads/2022/11/Show-do-Roberto.jpg 720w" alt="" width="696" height="353" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;figure id="attachment_13343" class="wp-caption alignnone" aria-describedby="caption-attachment-13343"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-13343" src="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Leo-Esteves-posa-com-fa-300x213.jpg?resize=696%2C494&amp;#038;ssl=1" sizes="(max-width: 900px) 100vw, 900px" srcset="https://i0.wp.com/newmag.com.br/wp-content/uploads/2022/11/Leo-Esteves-posa-com-fa-300x213.jpg?resize=696%2C494&amp;#038;ssl=1 300w, https://newmag.com.br/wp-content/uploads/2022/11/Leo-Esteves-posa-com-fa.jpg 720w" alt="" width="696" height="494" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-13343" class="wp-caption-text"&gt;Leo Esteves, filho de Erasmo: cordialidade de pai para filho&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/roberto-carlos-homenageia-erasmo-em-especial-de-fim-de-ano-da-globo/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/06/roberto-carlos-7.jpeg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+          <t>2022-12-01T08:36:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+          <t>Sine Acre divulga mais de 50 vagas de emprego na quinta-feira; confira</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O Sistema Nacional de Emprego do Acre (Sine) divulga 51 vagas de emprego para diversas áreas nesta quinta-feira (1) em Rio Branco e Cruzeiro do Sul.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Para se candidatar às vagas, que podem ser rotativas, os candidatos devem ter um cadastro no Sine. Para fazer, é preciso levar Carteira de Trabalho, comprovante de endereço e escolaridade, RG/CPF e título de eleitor para realizar o cadastro.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;As vagas disponíveis são para açougueiro, auxiliar de marceneiro, babá, cobrador interno (PCD), copeira (Cruzeiro do Sul), corretor de imóveis, cozinheiro geral, designer gráfico, embalador a mão (PCD), empregada doméstica, empregada doméstica (para morar), gerente comercial, manicure, marceneiro, mecânico de manutenção de ar condicionado, montador, montador de comandos e sinalização, oficial de serviços diversos na manutenção de edificações (Cruzeiro do Sul), oficial de serviços gerais na manutenção de edificações, operador de caixa (PCD), operador de câmera de vídeo, operador de retro-escavadeira, pedreiro, polidor de automóveis, professor de espanhol, professor de inglês, repositor em supermercado (PCD), soldador, técnico de edificações, trabalhador agropecuário em geral (Cruzeiro do Sul), vendedor de serviços, vendedor interno e vendedor pracista.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O atendimento ocorre por telefone, onde o Sine fornece mais informações sobre as oportunidades divulgadas. Para conferir se as vagas ainda estão disponíveis, basta entrar em contato através dos telefones 0800 647 8182 ou (68) 3224-5094.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Confira as vagas.&lt;/strong&gt;&lt;/p&gt;
+&lt;a href="https://contilnetnoticias.com.br/wp-content/uploads/2022/12/PAINEL-DE-VAGAS-DO-DIA-01-DE-DEZEMBRO-DE-2022.pdf" class="pdfemb-viewer" style="" data-width="max" data-height="max"  data-toolbar="bottom" data-toolbar-fixed="off"&gt;PAINEL DE VAGAS DO DIA 01 DE DEZEMBRO DE 2022&lt;br/&gt;&lt;/a&gt;
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/sine-acre-divulga-mais-de-50-vagas-de-emprego-na-quinta-feira-confira/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/07/carteira-trabalho.jpg?fit=1920%2C1080&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AO VIVO: ContilNet e SansFilmes entrevistam Gladson Cameli, governador reeleito</t>
+          <t>2022-12-01T08:29:31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/ao-vivo-contilnet-e-sansfilmes-entrevistam-gladson-cameli-governador-reeleito/</t>
+          <t>Jovem é alvejado com vários tiros em Sena; polícia investiga caso</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A manhã desta quinta-feira (1), começou agitada em Sena Madureira. Um homem identificado até agora como Gabriel foi atingido a tiros no bairro Ana Vieira.&lt;/p&gt;
+&lt;p&gt;Um vídeo que circula nas redes sociais mostra a vítima caída no chão, todo ensanguentado e reclamando de dores. Pelo o que foi apurado, um dos disparos atingiu a cabeça de Gabriel, mas teria sido de raspão.&lt;/p&gt;
+&lt;p&gt;Após efetuar os disparos, o infrator se evadiu do local e até o presente momento não foi encontrado pela Polícia. Gabriel, por sua vez, foi socorrido e encaminhado ao Pronto Socorro do Hospital João Câncio Fernandes, em Sena.&lt;/p&gt;
+&lt;figure id="attachment_794972" aria-describedby="caption-attachment-794972" style="width: 880px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-794972 size-full" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=696%2C1148&amp;#038;ssl=1" alt="" width="696" height="1148" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?w=880&amp;amp;ssl=1 880w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=303%2C500&amp;amp;ssl=1 303w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=727%2C1200&amp;amp;ssl=1 727w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=152%2C250&amp;amp;ssl=1 152w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=768%2C1267&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=150%2C248&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=300%2C495&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=600%2C990&amp;amp;ssl=1 600w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=696%2C1148&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=255%2C420&amp;amp;ssl=1 255w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/senamadureira-e1669901345831.jpeg?resize=509%2C840&amp;amp;ssl=1 509w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-794972" class="wp-caption-text"&gt;Foto: ContilNet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Apesar dos ferimentos à bala, ele conseguiu sobreviver.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/jovem-e-alvejado-com-varios-tiros-em-sena-policia-investiga-caso/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/07/policia-1.jpg?fit=1600%2C900&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jesus Sérgio e Maria Lucinéia dão votação expressiva ao governador Gladson Cameli em Tarauacá</t>
+          <t>2022-12-01T08:15:43</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/jesus-sergio-e-maria-lucineia-dao-votacao-expressiva-ao-governador-gladson-cameli-em-tarauaca/</t>
+          <t>Após procedimento malsucedido, Naldo precisa tomar “azulzinho”</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com a esposa confinada &lt;a href="https://www.instagram.com/moranguinhoreal/" target="_blank" rel="noopener"&gt;Moranguinho&lt;/a&gt; em&lt;a href="https://www.metropoles.com/tag/a-fazenda-14" target="_blank" rel="noopener"&gt; A Fazenda 14&lt;/a&gt;, o cantor &lt;a href="https://www.instagram.com/naldobenny/" target="_blank" rel="noopener"&gt;Naldo Benny&lt;/a&gt; assumiu que está tomando viagra e revelou o motivo. Acontece que após um procedimento estético no nariz malsucedido, Naldo sofreu um princípio de necrose no nariz e acabou quase perdendo parte do rosto.&lt;/p&gt;
+&lt;div class="m-news-list-content m-related-news"&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="3173994" data-gtm-vis-first-on-screen-8752935_845="3173994" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;“Fiz um procedimento no nariz que não ficou legal. Fiquei realmente muito preocupado. Tive uma intercorrência no procedimento”, falou o cantor.&lt;/p&gt;
+&lt;p&gt;Leia a matéria completa no &lt;a href="https://www.otvfoco.com.br/com-esposa-confinada-naldo-esta-tomando-azulzinho-e-da-motivo/?utm_source=Metropoles" target="_blank" rel="noopener"&gt;TV Foco&lt;/a&gt;.&lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/apos-procedimento-malsucedido-naldo-precisa-tomar-azulzinho/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/NALDO.jpg?fit=600%2C400&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Com quase 57% dos votos, Gladson Cameli é reeleito governador do Acre</t>
+          <t>2022-12-01T08:14:37</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/com-quase-57-dos-votos-gladson-cameli-e-reeleito-governador-do-acre/</t>
+          <t>Aprovado? Beleza de filho do Tite vira assunto entre internautas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="texto"&gt;O gol de Casemiro &lt;a href="https://www.correiobraziliense.com.br/esportes/2022/11/5055096-tite-ativa-modo-corinthians-e-brasil-vence-suica-e-avanca-as-oitravas.html" target="_blank" rel="noopener noreferrer"&gt;no jogo do Brasil contra a Suíça, na segunda-feira (28/11),&lt;/a&gt; rendeu uma cena que viralizou nas redes sociais: o abraço de comemoração entre o técnico Tite e o filho, Matheus Bachi, de 33 anos. Muito além do carinho envolvido, o momento também repercutiu na internet por causa da beleza do auxiliar da Seleção.&lt;/p&gt;
+&lt;p class="texto"&gt;No Twitter, as menções ao Matheus chegaram aos assuntos mais comentados da segunda (28/11). &amp;#8220;É o filho do Tite que vai levar o Hexa e metade do coração do Brasil&amp;#8221;, disse um perfil. &amp;#8220;O filho do Tite é lindo demais&amp;#8221;, comentou outro.&lt;/p&gt;
+&lt;p class="texto"&gt;Indagações sobre o status de relacionamento de Matheus também dispararam no Twitter. No entanto, ele é casado com a influenciadora Fernanda Silva Bachi e pai de dois filhos, Lucca e Leonardo. No Instagram, Matheus compartilha momentos em família e amigos, futebol, viagens e comidas preferidas.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://midias.correiobraziliense.com.br/_midias/jpg/2022/11/30/8d9e37fb_1925_436c_8766_1392a281ab58-26960018.jfif" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://midias.correiobraziliense.com.br/_midias/jpg/2022/11/30/98b9f58c_a229_4872_b6f5_3bbfc05355b0-26960019.jfif" /&gt;&lt;img decoding="async" src="https://midias.correiobraziliense.com.br/_midias/jpg/2022/11/30/42656c86_b64e_44da_9442_38a9460b26fb__1_-26960021.jfif" /&gt;&lt;/p&gt;
+&lt;p class="texto"&gt;Em 2015, ele integrou a comissão técnica do Corinthians e, em seguida, começou a trabalhar na Seleção Brasileira. Tite chegou a ser questionado sobre nepotismo, mas rebateu e ressaltou as qualidades do filho. &amp;#8220;Eu tenho muito orgulho da capacidade que o Matheus tem. Ele está guinado em posições que tem condições para estar&amp;#8221;, disse o técnico em coletiva de imprensa em 2019.&lt;/p&gt;
+&lt;h3&gt;Veja os tuítes:&lt;/h3&gt;
+&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
+&lt;p lang="pt" dir="ltr"&gt;mds o filho do tite é a cara do meu futuro esposo 😱😍🗣 &lt;a href="https://t.co/ErGtUQHK09"&gt;pic.twitter.com/ErGtUQHK09&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;mdash; Otariano (@otarianonews) &lt;a href="https://twitter.com/otarianonews/status/1597954175085981697?ref_src=twsrc%5Etfw"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
+&lt;p lang="pt" dir="ltr"&gt;Tite, sobre a comemoração do gol do Brasil com o seu filho, Matheus:&lt;/p&gt;
+&lt;p&gt; &amp;#8211; Todo mundo sabe que sou, por excelência, humanista. Antes do atleta existe o ser humano.  (&amp;#8230;) Eu tenho a felicidade de ter um grande profissional e um filho que eu amo do lado. &lt;a href="https://twitter.com/hashtag/EsportudoNaCopa?src=hash&amp;amp;ref_src=twsrc%5Etfw"&gt;#EsportudoNaCopa&lt;/a&gt; &lt;a href="https://t.co/x1943Fsb3R"&gt;pic.twitter.com/x1943Fsb3R&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;mdash; Goleada Info 🏆🇧🇷 (@goleada_info) &lt;a href="https://twitter.com/goleada_info/status/1597314830352134145?ref_src=twsrc%5Etfw"&gt;November 28, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/aprovado-beleza-de-filho-do-tite-vira-assunto-entre-internautas/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/1_34152751_2df1_4ca4_b8ae_7edbb4746015-26959968.jpg?fit=1200%2C862&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gladson Cameli está reeleito governador do Acre, diz DataFolha</t>
+          <t>2022-12-01T08:10:52</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/gladson-cameli-esta-reeleito-governador-do-acre-diz-datafolha/</t>
+          <t>Vídeo: Chico Buarque faz homenagem emocionante a Gal Costa em show</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Após &lt;a href="https://www.metropoles.com/entretenimento/musica/chico-buarque-cancela-shows-apos-morte-de-gal-costa-sem-condicoes" target="_blank" rel="noopener"&gt;cancelar uma sequência de shows por causa da morte de Gal Costa&lt;/a&gt;, o cantor Chico Buarque retomou a turnê em Brasília, nessa terça-feira (29/11), com uma homenagem à lenda da MPB.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="2865666" data-gtm-vis-first-on-screen-8752935_845="2865667" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Embora Folhetim seja uma das composições de Chico mais associadas a Gal, o cantor optou Mil Perdões. A canção escrita em 1980 para o filme &lt;a href="https://pt.wikipedia.org/wiki/Perdoa-me_por_Me_Tra%C3%ADres_(filme)" target="_blank" rel="noopener"&gt;Perdoa-me Por me Traíres (1980)&lt;/a&gt;, foi escolhida pela saudosa artista para abrir o álbum Baby Gal (1983).&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="2865666" data-gtm-vis-first-on-screen-8752935_845="2865667" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;&lt;img decoding="async" class="aligncenter" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/11/09152206/Chico-Buarque-e-Gal-Costa.jpg?w=696&amp;#038;ssl=1" alt="Chico Buarque e Gal Costa" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
+&lt;p lang="pt" dir="ltr"&gt;Chico Buarque mudou o repertório de seu show &amp;#39;Que tal um samba?&amp;#39; para fazer uma singela homenagem a Gal Costa. Com a imagem da cantora projetada, ele interpretou a canção &amp;#39;Mil Perdões&amp;#39;, de sua autoria, um grande sucesso na voz da amiga baiana.&lt;br /&gt;A homenagem fará parte do roteiro. &lt;a href="https://t.co/rvIc0itzC5"&gt;pic.twitter.com/rvIc0itzC5&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;mdash; Maria Bethânia e Chico Buarque (@BethaniaeChico) &lt;a href="https://twitter.com/BethaniaeChico/status/1597790991238320128?ref_src=twsrc%5Etfw"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p&gt;Durante a homenagem a imagem de Gal Costa foi exibida em um telão.&lt;/p&gt;
+&lt;div class="m-news-list-content m-related-news"&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_866="2889329" data-gtm-vis-first-on-screen-8752935_866="2889329" data-gtm-vis-total-visible-time-8752935_866="100" data-gtm-vis-has-fired-8752935_866="1" data-gtm-vis-recent-on-screen-8752935_862="2889335" data-gtm-vis-first-on-screen-8752935_862="2889335" data-gtm-vis-total-visible-time-8752935_862="100" data-gtm-vis-has-fired-8752935_862="1"&gt;&lt;a href="https://www.metropoles.com/colunas/guilherme-amado/chico-buarque-decide-nao-cantar-mais-musica-criticada-por-feministas" target="_blank" rel="noopener"&gt;Chico Buarque&lt;/a&gt; havia suspendido a agenda após testar positivo para Covid-19, mas tomou uma decisão de cancelar a agenda definitivamente após receber a notícia do &lt;a href="https://www.metropoles.com/entretenimento/musica/morre-gal-costa-icone-da-mpb-aos-77-anos" target="_blank" rel="noopener"&gt;falecimento de Gal, aos 77 anos&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;“Ainda que se recuperasse a tempo de realizar os shows, o impacto da notícia da morte de Gal Costa, esta manhã, deixou o cantor e compositor sem condições emocionais de seguir com a agenda. Novas informações sobre as apresentações serão anunciadas em breve”, diz comunicado divulgado pela assessoria da artista.&lt;/p&gt;
+&lt;div id="taboola-mid-article" class="TABOOLA trc_related_container trc_spotlight_widget trc_elastic trc_elastic_ab_thumbnails-c-3x1_abp-mode " data-placement-name="Mid Article"&gt;
+&lt;div class="trc_rbox_container"&gt;
+&lt;div&gt;
+&lt;div id="trc_wrapper_44569" class="trc_rbox ab_thumbnails-c-3x1_abp-mode trc-content-sponsored "&gt;
+&lt;div id="trc_header_44569" class="trc_rbox_header trc_rbox_border_elm"&gt;
+&lt;div class="trc_header_ext"&gt;
+&lt;p&gt;“Ainda que se recuperasse a tempo de realizar os shows, o impacto da notícia da morte de Gal Costa, esta manhã, deixou o cantor e compositor sem condições emocionais de seguir com a agenda. Novas informações sobre as apresentações serão anunciadas em breve”, diz comunicado divulgado pela assessoria da artista.&lt;/p&gt;
+&lt;div class="m-social-coluna"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/video-chico-buarque-faz-homenagem-emocionante-a-gal-costa-em-show/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/CHICO-GAL.jpg?fit=600%2C400&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pesquisa Delta: Gladson Cameli tem 53% dos votos contra 19% de Jorge Viana</t>
+          <t>2022-12-01T08:09:11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/10/pesquisa-delta-gladson-cameli-tem-53-dos-votos-contra-19-de-jorge-viana/</t>
+          <t>Shakira é flagrada com possível novo affair em praia espanhola</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Quase cinco meses após &lt;a href="https://www.metropoles.com/colunas/futebol_etc/e-oficial-apos-rumores-de-traicao-shakira-e-pique-anunciam-separacao" target="_blank" rel="noopener"&gt;a separação de Gerard Piqué&lt;/a&gt;, a cantora &lt;a href="https://www.metropoles.com/entretenimento/musica/musica-de-shakira-com-indireta-para-pique-lidera-em-10-paises" target="_blank" rel="noopener"&gt;Shakira&lt;/a&gt; pode estar vivendo um novo amor. A artista foi flagrada em uma praia espanhola acompanhada dos &lt;a href="https://www.metropoles.com/celebridades/shakira-e-pique-firmam-acordo-sobre-custodia-dos-filhos-apos-separacao" target="_blank" rel="noopener"&gt;filhos&lt;/a&gt; e também de um homem, apontado como possível affair da voz do hit Waka Waka.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="2735463" data-gtm-vis-first-on-screen-8752935_845="2735463" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Shakira esteve em Cantábria, na região norte da &lt;a href="https://www.metropoles.com/esportes/tecnico-da-espanha-espera-confronto-com-brasil-nas-quartas-de-final" target="_blank" rel="noopener"&gt;Espanha&lt;/a&gt;, nessa segunda (28/11) e foi vista pelo paparazzi Jordin Martin, que trabalha para o hispânico El Gordo y La Flaca. O loiro misterioso que estava com ela foi identificado como instrutor de surfe, mas também é citado como possível romance da cantora pela imprensa colombiana.&lt;/p&gt;
+&lt;div class="m-carousel-post" data-gtm-vis-recent-on-screen-8752935_885="2736595" data-gtm-vis-first-on-screen-8752935_885="2736595" data-gtm-vis-total-visible-time-8752935_885="100" data-gtm-vis-has-fired-8752935_885="1"&gt;
+&lt;div class="siema m-siema-single-item rendered"&gt;
+&lt;div&gt;
+&lt;div class="siema-item"&gt;&lt;img decoding="async" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/11/30134316/shakira-1-2-1024x581.jpg?resize=696%2C395&amp;#038;ssl=1" alt="Programa televisivo espanhol mostra Shakira sentada em prancha de surfe no mar com seu professor ao lado - Metrópoles" data-recalc-dims="1" /&gt;&lt;/div&gt;
+&lt;div&gt;&lt;img decoding="async" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/11/30134302/shakira-10-1024x576.jpg?resize=696%2C392&amp;#038;ssl=1" alt="Programa televisivo espanhol mostra Shakira sentada em prancha de surfe no mar com seu professor ao lado - Metrópoles" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/11/30134312/shakira-2-2-1024x576.jpg?resize=696%2C392&amp;#038;ssl=1" alt="Programa televisivo espanhol mostra Shakira sentada em prancha de surfe no mar com seu professor ao lado - Metrópoles" data-recalc-dims="1" /&gt;&lt;/div&gt;
+&lt;div&gt;
+&lt;p&gt;“Ficou muito claro que Shakira e seu treinador se dão muito bem. Ele sempre zela por ela em todos os momentos, a ajudando com o traje, segurando a mão dela. Em determinado momento, ela se agarrou a ele para não cair. O jovem também tirou um tempinho para fotografar Shakira com os filhos, mostrando que ele se dá bem não só com a cantora, mas também com as crianças”, avaliou o fotógrafo em uma entrada no programa.&lt;/p&gt;
+&lt;blockquote class="instagram-media" style="background: #FFF; border: 0; border-radius: 3px; box-shadow: 0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width: 540px; min-width: 326px; padding: 0; width: calc(100% - 2px);" data-instgrm-captioned="" data-instgrm-permalink="https://www.instagram.com/reel/Clhtu0DDKsF/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14"&gt;
+&lt;div style="padding: 16px;"&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div style="display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: block; height: 50px; margin: 0 auto 12px; width: 50px;"&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style="color: #3897f0; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: 550; line-height: 18px;"&gt;Ver essa foto no Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style="width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; line-height: 17px; margin-bottom: 0; margin-top: 8px; overflow: hidden; padding: 8px 0 7px; text-align: center; text-overflow: ellipsis; white-space: nowrap;"&gt;&lt;a style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: normal; line-height: 17px; text-decoration: none;" href="https://www.instagram.com/reel/Clhtu0DDKsF/?utm_source=ig_embed&amp;amp;utm_campaign=loading" target="_blank" rel="noopener"&gt;Uma publicação compartilhada por ElGordoyLaFlaca (@elgordoylaflaca)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_862="2784877" data-gtm-vis-first-on-screen-8752935_862="2784877" data-gtm-vis-total-visible-time-8752935_862="100" data-gtm-vis-has-fired-8752935_862="1" data-gtm-vis-recent-on-screen-8752935_866="2784880" data-gtm-vis-first-on-screen-8752935_866="2784880" data-gtm-vis-total-visible-time-8752935_866="100" data-gtm-vis-has-fired-8752935_866="1"&gt;Ele afirmou ainda que a cantora estava “calma e relaxada” e ressaltou que ela estava “na mesma casa onde costumava passar férias” com o ex-marido. Jordi garantiu também que o jovem viajou no avião privado com a família e tinha acesso livre à residência.&lt;/p&gt;
+&lt;p&gt;Vale ressaltar que o El Gordo y La Flaca foi o programa que deu o furo da separação de Shakira e Gerard Piqué. Além disso, também foram os primeiros a anunciar o namoro do &lt;a href="https://www.metropoles.com/esportes/futebol/em-meio-a-separacao-de-shakira-pique-anuncia-aposentadoria-do-futebol" target="_blank" rel="noopener"&gt;ex-jogador&lt;/a&gt; com a modelo &lt;a href="https://www.instagram.com/clarachiamartireal/" target="_blank" rel="noopener"&gt;Clara Chía Marti&lt;/a&gt;.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://contilnetnoticias.com.br/2022/12/shakira-e-flagrada-com-possivel-novo-affair-em-praia-espanhola/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/DGD.jpg?fit=600%2C400&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>“As urnas mostraram a cada um o tamanho que realmente tem”, diz Gladson Cameli</t>
+          <t>2022-12-01T08:50:43</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/10/03/as-urnas-mostraram-a-cada-um-o-tamanho-que-realmente-tem-diz-gladson-cameli/</t>
+          <t>Guerra do crime: estudante é morto com tiro na cabeça após ser perguntado se pertencia a alguma facção</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-c387j"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Um estudante que não teve a identidade revelada foi morto com um tiro na cabeça no centro de Manoel Urbano, na tarde desta quarta-feira (30).&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Segundo informações, ele havia acabado de sair da escola e ainda estava de farda e mochila quando foi abordado por um homem que ainda não foi localizado. O rapaz teria perguntado se ele pertencia a alguma facção criminosa. Em seguida, o adolescente foi fatalmente baleado.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O criminoso fugiu logo em seguida e seu paradeiro é procurado. Segundo a polícia, a vítima era membro de uma organização criminosa e já havia postado fotos com armas de fogo. O Samu foi acionado, mas apenas atestou o óbito.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O caso está sendo investigado pela Polícia Civil.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/12/01/guerra-do-crime-estudante-e-morto-com-tiro-na-cabeca-apos-ser-perguntado-se-pertencia-a-alguma-faccao/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2020/08/Violencia-mais-um-homicidio-e-tentativa-de-assassinato-em-Linhares.jpg?fit=594%2C320&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gladson Cameli é reeleito governador do Acre em 1º turno</t>
+          <t>2022-12-01T07:59:20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/10/02/gladson-cameli-e-reeleito-governador-do-acre-em-1o-turno/</t>
+          <t>Diplomação de Gladson e Mailza está marcada para o dia 15</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-fr829"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="49" data-block-id="3"&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O TRE (Tribunal Regional Eleitoral) marcou para o dia 15 de novembro a diplomação do governador reeleito Gladson Cameli (PP) e de sua futura vice, a senadora Mailza Gomes (PP).&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;A cerimônia ocorrerá às 10h no plenário do TRE, localizado no Portal da Amazônia, na capital acreana. Além do governador e da vice, serão diplomados também o senador eleito Alan Rick (União Brasil) e os deputados federais e estaduais.&lt;/p&gt;
+&lt;div id="chunk-a3894"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="37" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A diplomação é o ato pelo qual a Justiça Eleitoral atesta que o candidato ou a candidata foi efetivamente eleito ou eleita pelo povo e, por isso, está apto ou apta a tomar posse no cargo. A nível nacional, a diplomação do presidente eleito Luiz Inácio Lula da Silva (PT) ocorrerá no dia 12.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-d6rfa"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="19" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Nessa ocasião, ocorre a entrega dos diplomas, que são assinados, conforme o caso, pelo presidente do tribunal eleitoral competente.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/12/01/diplomacao-de-gladson-e-mailza-esta-marcada-para-o-dia-15/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/12/imagem24.webp?fit=984%2C657&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Imege: pesquisa aponta vitória de Gladson Cameli em 1º turno; confira</t>
+          <t>2022-11-30T16:46:41</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/30/imege-pesquisa-aponta-vitoria-de-gladson-cameli-em-1o-turno-confira/</t>
+          <t>Comissão da Câmara aprova doação de 155 mil hectares de terras da União para o Acre</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="entry-content"&gt;
+&lt;p&gt;O governo do Acre alcançou mais uma vitória visando conseguir que a União doe, para o Estado, 155 mil hectares de terras remanescentes da Gleba Seringal Afluente, entre Feijó e Tarauacá, para implantar uma unidade de conservação sustentável na região. Um projeto de decreto legislativo com esse objetivo foi aprovado pela Comissão de Agricultura, Pecuária, Abastecimento e Desenvolvimento Rural da Câmara dos Deputados, na última quarta-feira, 23.&lt;/p&gt;
+&lt;p&gt;O projeto, de nº 335/21 e que já foi aprovado no Senado, é de autoria da senadora e vice-governadora eleita Mailza Assis da Silva e atende pedido do governo do Acre. “A doação dessas terras para o Estado já tem posição favorável do Ministério da Economia e do Conselho de Defesa Nacional, mas também precisa da aprovação da Câmara, além do Senado, porque abrange área de fronteira”, explicou o representante do governo em Brasília, Ricardo França, que trata do assunto na capital federal.&lt;/p&gt;
+&lt;p&gt;A implantação da unidade de conservação integra ações da segunda fase do Programa de Desenvolvimento Sustentável do Acre, o PDSA II, desenvolvido em parceria com o Banco Interamericano de Desenvolvimento (BID).&lt;/p&gt;
+&lt;p&gt;Conforme Ricardo França, além de contribuir com os objetivos do programa, a implantação da unidade de conservação é compromisso assumido pelo Estado em contrato de empréstimo feito em 2013 junto ao BID, no valor de US$ 120 milhões, sendo US$ 72 milhões financiados pelo banco e US$ 48 milhões de contrapartida do governo.&lt;/p&gt;
+&lt;p&gt;O problema, explicou o representante, é que as terras indicadas pelos gestores daquela época para implantar a unidade de conservação pertencem à União, o que inviabiliza a ação. “O governo vem buscando a doação dessas terras para regularizar a situação e poder implantar a unidade, avançando, cada vez mais, no desenvolvimento sustentável do Acre, além de cumprir com o compromisso com o Banco Mundial e evitar que o Estado fique inadimplente”, explica.&lt;/p&gt;
+&lt;figure id="attachment_660825" class="wp-caption alignnone" aria-describedby="caption-attachment-660825"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-660825 size-large" src="https://i0.wp.com/agazetadoacre.com/wp-content/uploads/2022/11/mapa-600x424.jpeg.webp?resize=600%2C424&amp;#038;ssl=1" sizes="(max-width: 600px) 100vw, 600px" srcset="https://i0.wp.com/agazetadoacre.com/wp-content/uploads/2022/11/mapa-600x424.jpeg.webp?resize=600%2C424&amp;#038;ssl=1 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa-300x212.jpeg.webp 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa-768x543.jpeg.webp 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa-150x106.jpeg.webp 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa-120x86.jpeg.webp 120w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa-750x530.jpeg.webp 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/mapa.jpeg.webp 1024w" alt="" width="600" height="424" data-pin-no-hover="true" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;h4&gt;Articulações&lt;/h4&gt;
+&lt;p&gt;Foi com esse objetivo que o governo solicitou a apresentação do projeto de decreto legislativo pela senadora Mailza Assis da Silva. “À exemplo da parceria e apoio costumeiro ao governo em favor do Estado, a senadora atendeu o pedido e se empenhou pela aprovação da medida no Senado”, afirmou Ricardo França.&lt;/p&gt;
+&lt;p&gt;A necessidade foi relatada por França para o relator do projeto na Comissão de Agricultura da Câmara, deputado Pedro Lupion, pedindo a urgência e aprovação da proposta, conforme ocorreu na quarta-feira. O projeto ainda será analisado pelas comissões de Finanças e Tributação e de Constituição e Justiça e de Cidadania da Câmara, seguindo depois para análise pelo plenário.&lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/comissao-da-camara-aprova-doacao-de-155-mil-hectares-de-terras-da-uniao-para-o-acre/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/floresta-1024x570-1.jpeg?fit=1024%2C570&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gladson Cameli decide não participar do debate da TV Gazeta</t>
+          <t>2022-11-30T16:32:20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/29/gladson-cameli-decide-nao-participar-do-debate-da-tv-gazeta/</t>
+          <t>Acre confirma 245 novos casos de Covid-19 nesta quarta</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 245 novos casos de coronavírus nesta quarta-feira, 30 de novembro. O número de infectados notificados é de 153.975 em todo o estado.&lt;/p&gt;
+&lt;p&gt;Até o momento, o Acre registra 360.777 notificações de contaminação pela doença, sendo que 206.785 casos foram descartados e 17 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até o fechamento deste boletim.&lt;/p&gt;
+&lt;p&gt;Os dados da vacinação contra a covid-19 no Acre podem ser acessados no Painel de Monitoramento da Vacinação, disponível no endereço eletrônico: &lt;a href="http://covid19.ac.gov.br/vacina/inicio"&gt;http://covid19.ac.gov.br/vacina/inicio&lt;/a&gt;. As informações são atualizadas na plataforma do Ministério da Saúde (MS) e estão sujeitas a alterações constantes, em razão das informações inseridas a partir de cada município.&lt;/p&gt;
+&lt;p&gt;Nenhum óbito foi notificado nesta quarta-feira, 30, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/acre-confirma-245-novos-casos-de-covid-19-nesta-quarta/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/02/Covid19-Teste-antigeno-Sangue-Coronavirus-sergio-lima-poder360-848x477-2.jpeg?fit=848%2C477&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>O fenômeno Gladson Cameli</t>
+          <t>2022-11-30T15:12:42</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/20/o-fenomeno-gladson-cameli/</t>
+          <t>MPF entra com ação contra o Governo Federal para recuperação da BR-317</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-5p2e2"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="66" data-block-id="3"&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O MPF (Ministério Público Federal) ajuizou uma ação para que a União, o DNIT (Departamento Nacional de Infraestrutura de Transportes) e o Estado do Acre para que façam os reparos necessários à manutenção, fiscalização e conservação da BR-317.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Além disso, o MPF deu um prazo de 120 dias para que sejam reativadas as balanças de pesagem em Plácido de Castro e Assis Brasil, para garantir a segurança dos usuários que trafegam na rodovia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-8s02o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="62" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Os órgãos também devem apresentar e implantar, em 120 dias, plano de rotina de fiscalização permanente de transporte terrestre com excesso de peso nessas balanças, além de apresentar, no prazo de 180 dias, estudo técnico que dimensione a quantidade necessária de balanças de pesagem veicular na extensão da rodovia, com base nas peculiaridades do solo amazônico, a ser avaliado em perícia judicial.&amp;#8221;&lt;/p&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Além das reparações, o DNIT e a União também deverão pagar uma indenização por danos materiais e morais às vítimas de acidentes que tiverem como causa principal as más condições de trafegabilidade e sinalização da rodovia. Além do pagamento de um dano moral coletivo em no mínimo R$ 10 milhões, a ser revertido em projetos de memória às vítimas, educação rodoviária e ações educativas a respeito da melhoria da trafegabilidade nas rodovias federais.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-etp7"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="86" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“A malha rodoviária da BR-317, leva em conta não apenas o aspecto de integração social e desenvolvimento regional, mas também questões de segurança militar, principalmente diante da área fronteiriça, onde reiteradamente são registrados ilícitos transnacionais. Seu colapso, portanto, causaria danos monumentais e imediatos ao eixo de integração continental, de maneira que o escoamento e abastecimento da cadeia produtiva, com destaque ao interior do estado do Acre, bem como a trafegabilidade dos usuários restariam prejudicados” afirma Lucas Costa Almeida Dias, procurador da República autor da ação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6ud3m"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="27" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Diante do quadro apurado, o MPF pede que a Justiça Federal conceda tutela de urgência, para que a União e o Dnit sejam condenados às seguintes obrigações:&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="198" data-block-id="14"&gt;
+&lt;p&gt;&amp;#8211; Efetuar os reparos necessários dos trechos mais críticos, segundo apontado pela PRF, bem como a limpeza das laterais (acostamento) nos trechos compreendidos entre os kms 320 e 331 e kms 334 e 348 e a implementação de sinalização vertical de advertência no km 117;&lt;/p&gt;
+&lt;p&gt;&amp;#8211; Elaborar executar, no prazo de 90 dias, plano de ação destinado à recuperação, manutenção e conservação periódica da BR-317, com a realização dos seguintes serviços: colocação e recuperação de tachinhas no pavimento; caiação; limpeza da pista, com a retirada de animais mortos, roça, capina e poda de árvores, para evitar que a vegetação encubra a rodovia e as placas de sinalização restantes, limpeza e recuperação de dispositivos de drenagem; recomposição de defensas metálicas e terminais de impactos; recomposição de placas e adequação de sinalização, horizontal e vertical&lt;/p&gt;
+&lt;p&gt;&amp;#8211; Elaborar e executar, no prazo de 90 dias, plano de ação para executar obras emergenciais de pavimentação asfáltica, com tapa buracos e implementação de iluminação;&lt;/p&gt;
+&lt;p&gt;&amp;#8211; Apresentar, em 90 dias, plano de fiscalização dos serviços prestados pelas empresas concessionárias responsáveis pela execução de obras na BR-317, e atestar a qualidade e resistência impostas nos pontos mais críticos do trecho entre Rio Branco e Assis Brasil, mencionados nesta ACP.&lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/mpf-entra-com-acao-contra-o-governo-federal-para-recuperacao-da-br-317/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/br-317-fim-do-mundo.webp?fit=857%2C489&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ipec: pesquisa aponta vitória de Gladson Cameli em 1º turno com 54%</t>
+          <t>2022-11-30T14:54:38</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/19/ipec-pesquisa-aponta-vitoria-de-gladson-cameli-em-1o-turno-com-54/</t>
+          <t>Governo vai convocar 181 professores do cadastro de reserva</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em uma audiência pública realizada nesta quarta-feira, 30, na Assembleia Legislativa do Acre (Aleac), o secretário de Planejamento (Seplag), coronel Ricardo Brandão, deu a garantia que o governo do Estado irá realizar, até o primeiro trimestre do ano que vem, a convocação de 181 professores do cadastro de reserva.&lt;/p&gt;
+&lt;p&gt;Ao longo dos últimos quatro anos, o governo do Estado já realizou a convocação de 800 professores efetivos, dos 1.026 que foram aprovados em um concurso público realizado no final de 2018. De acordo com o secretário, já foi solicitada a convocação de 57 professores, dos 181 que estão no cadastro.&lt;/p&gt;
+&lt;p&gt;A convocação dos outros 127 professores, ainda de acordo com o secretário, deverá ser realizada nos primeiros meses de 2023. Para isso, a validade do concurso, que havia encerrado em julho de 2021, foi prorrogada até o mês de abril de 2023.&lt;/p&gt;
+&lt;p&gt;“Com a prorrogação da validade do concurso até abril de 2023, já temos um planejamento para realizar a convocação dos 181 professores efetivos. Já pedimos a convocação de 54 profissionais e os outros 127 deverão ser convocados até o primeiro trimestre do ano que vem”, informou Ricardo Brandão.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/governo-vai-convocar-181-professores-do-cadastro-de-reserva/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/prof5.jpg?fit=1280%2C853&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Perfil: Gladson Cameli dispara na liderança e fica com 24% de vantagem em cima de Jorge Viana</t>
+          <t>2022-11-30T11:29:59</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/12/perfil-gladson-cameli-dispara-na-lideranca-e-fica-24-de-vantagem-em-cima-de-jorge-viana/</t>
+          <t>Do Acre para o Catar: Jéssica Ingride acompanha treino da Seleção Brasileira</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A digital influencer Jéssica Ingrede está cada vez mais perto de realizar o seu grande sonho, que é conhecer o jogador Neymar de perto. Nesta terça-feira, 29, a acreana acompanhou o treino dos reservas da Seleção Brasileira, tirou foto com jogadores e conheceu o técnico Tite.&lt;/p&gt;
+&lt;p&gt;Além de Tite, Jéssica conheceu o pentacampeão latareal-esquerdo, Roberto Carlos. “Um sequência um pouco pesada. Vou nem mais usar essa blusa, a missão é pegar o autógrafo de todos os jogadores e colocar essa blusa em um lindo quadro”, disse a acreana em suas redes sociais.&lt;/p&gt;
+&lt;p&gt;Jéssica venceu um concurso da Confederação Brasileira de Futebol (CBF) para fazer parte da rede de influencers, que estão acompanhando a Copa do Mundo ao vivo e em cores, e transmitindo tudo por suas redes sociais na internet.&lt;/p&gt;
+&lt;p&gt;O resultado tem sido tão positivo, que desde que venceu o concurso, o número de seguidores de Jéssica Ingrede só cresce. No último domingo, 27, a acreana ultrapassou os 300 mil seguidores no Instagram – rede social em que a acreana trabalha e faz sucesso.&lt;/p&gt;
+&lt;p&gt;*As informações são da Gazeta do Acre&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/do-acre-para-o-catar-jessica-ingride-acompanha-treino-da-selecao-brasileira/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-11.28.04.jpeg?fit=362%2C253&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Justiça Eleitoral decide hoje se aceita candidatura de Mailza como vice de Gladson Cameli</t>
+          <t>2022-11-30T11:04:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/12/justica-eleitoral-decide-hoje-se-aceita-candidatura-de-mailza-como-vice-de-gladson-cameli/</t>
+          <t>Mega-Sena acumula e sorteia prêmio de R$ 65 milhões nesta quarta</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="post-item-wrap"&gt;
+&lt;p&gt;Os acreanos têm até às 17h desta quarta-feira (30) para concorrer à Mega-Sena com prêmio acumulado estimado em R$ 65 milhões. O sorteio deste do concurso 2544 ocorre na noite desta quarta, em São Paulo. &lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=730&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=730&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;As apostas podem ser feitas nas casas lotéricas credenciadas pela Caixa, em todo o país ou pela internet. A aposta simples, com seis dezenas marcadas, custa R$ 4,50.&lt;/p&gt;
+&lt;p&gt;No concurso anterior, 138 pessoas acertaram cinco números e receberão R$ 29.679,12. Já 7.475 apostadores acertaram cinco números e receberão R$ 782,74.&lt;/p&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/mega-sena-acumula-e-sorteia-premio-de-r-65-milhoes-nesta-quarta/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/cedulas-de-dinheiro-real-moeda-brasileira_1022821-e1596109466518.jpg?fit=1059%2C677&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TSE defere candidatura de Nilson Euclides ao Governo e apenas Gladson Cameli aguarda julgamento do registro</t>
+          <t>2022-11-30T10:17:01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/09/02/tse-defere-candidatura-de-nilson-euclides-ao-governo-e-apenas-gladson-cameli-aguarda-julgamento-do-registro/</t>
+          <t>Vigia de carros é assassinado a facadas em frente ao Pronto Socorro de Rio Branco</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um homem identificado como João Paulo Camilo de Souza, de 38 anos, foi morto na madrugada desta quarta-feira (30) na avenida Getúlio Vargas, em frente ao Pronto Socorro de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações da polícia, Camilo foi encontrado caído ao chão com marcas de sangue no peito. Ele era conhecido nas redondezas, pois fazia &amp;#8220;bico&amp;#8221; vigiando carros aos arredores do Pronto Socorro. O Samu chegou a ser acionado, mas a vítima já estava sem vida.&lt;/p&gt;
+&lt;p&gt;Testemunhas afirmam ter visto um desentendimento entre a vítima e um rapaz por conta de drogas. Armado com uma faca, o agressor teria desferido dois golpes, um no tórax de Camilo, ferimento que alcançou o coração; e outro na cabeça. Em seguida, o autor das facadas fugiu do local.&lt;/p&gt;
+&lt;p&gt;Junto com a vítima, foram encontradas uma carteira de cigarros, quantia em dinheiro e ao lado estavam duas facas de mesa. Ainda segundo a polícia, Camilo tinha passagens pela polícia por roubo.&lt;/p&gt;
+&lt;p&gt;O caso está sendo investigado pela DHPP (Delegacia de Homicídios e Proteção à Pessoa).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/vigia-de-carros-e-assassinado-a-facadas-em-frente-ao-pronto-socorro-de-rio-branco/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/PS_1.webp?fit=2560%2C1707&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&amp;#8220;Não me arrependo de ter apoiado Socorro Neri em 2020&amp;#8221;, diz Gladson Cameli</t>
+          <t>2022-11-30T10:00:02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://correio68.com/2022/08/31/nao-me-arrependo-de-ter-apoiado-socorro-neri-em-2020-diz-gladson-cameli/</t>
+          <t>Tchê apresenta emenda no orçamento que vai dobrar de 2 para 4 mil o número de pessoas contempladas pela CNH Social</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O deputado estadual Luís Tchê (PDT) apresentou na Assembleia Legislativa do Acre (Aleac) uma proposta de emenda modificativa para dobrar o número de contemplados do programa CNH Social, que concede carteiras de habilitação gratuitas para a população de baixa renda.&lt;/p&gt;
+&lt;p&gt;Somente neste ano de 2022, mais de 2 mil acreanos foram beneficiados pelo programa e o Orçamento do Estado para 2023 prevê a liberação de verba para que os contemplados sejam 3 mil. Tchê, no entanto, frizou a importância do programa e propôs que o número chegue a 4 mil contemplados:&lt;/p&gt;
+&lt;p&gt;“No orçamento do ano que vem, já está garantido R$ 9 milhões para a liberação de novas carteiras, mas, esse valor não dá para atender o número de CNH que pretendemos garantir. Neste caso, vou apresentar uma emenda ao orçamento para que esse valor aumente. Tenho certeza que o governador será favorável a isso”, disse.&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;&lt;strong&gt;→ &lt;a href="https://www.correio68.com/2021/12/16/projeto-de-luis-tche-que-concede-cnh-gratuita-para-pessoas-de-baixa-renda-e-aprovado-na-aleac/"&gt;Indicação de Tchê que concede CNH gratuita é aprovada na Aleac&lt;/a&gt;&lt;/strong&gt;&lt;br /&gt;
+&lt;strong&gt;→ &lt;a href="https://www.correio68.com/2021/12/23/gladson-atende-pedido-de-deputado-tche-e-sanciona-cnh-gratuita-para-pessoas-de-baixa-renda/"&gt;Gladson atende pedido de Tchê e sanciona Lei que cria CNH Social&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr /&gt;
+&lt;p&gt;Na sessão da Aleac desta terça-feira (29), o parlamentar afirmou que a CNH Social é o maior programa de inclusão do governo Gladson Cameli (PP):&lt;/p&gt;
+&lt;p&gt;“Fico muito feliz ao saber que uma ideia que surgiu aqui, nesta tribuna, através de uma indicação minha, tem dado certo e tem beneficiado pessoas carentes de todos os 22 municípios do Acre. Agradeço, ainda, ao Detran por ter construído essa ideia junto com a gente desde o início”, disse.&lt;/p&gt;
+&lt;p&gt;A CNH se tornou um dos grandes instrumentos para geração de renda da população acreana, mas seus altos custos com escolas especializadas e documentação acabam se tornando um grande empecilho para que pessoas de baixa renda possam fazer essa aquisição. Foi com essa visão que Tchê apresentou ao governador Gladson Cameli a proposta que leva até essas pessoas a tão sonhada carteira de habilitação, de forma gratuita.&lt;/p&gt;
+&lt;figure style="width: 595px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="w-100 img-thumbnail wp-post-image jetpack-lazy-image jetpack-lazy-image--handled" src="https://i0.wp.com/www.correio68.com/wp-content/uploads/2022/01/cnh.png?fit=730%2C415&amp;amp;ssl=1" sizes="max-width(320px) 73vw, max-width(640px) 470px, max-width(768px) 65vw, max-width(1024px) 48vw, max-width(1280px) 595px, 595px" srcset="https://i0.wp.com/www.correio68.com/wp-content/uploads/2022/01/cnh.png?w=941&amp;amp;ssl=1 941w, https://i0.wp.com/www.correio68.com/wp-content/uploads/2022/01/cnh.png?resize=300%2C171&amp;amp;ssl=1 300w, https://i0.wp.com/www.correio68.com/wp-content/uploads/2022/01/cnh.png?resize=768%2C437&amp;amp;ssl=1 768w" alt="" width="595" height="339" data-lazy-loaded="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Gladson e Tchê durante assinatura do decreto que beneficiou mais de 2 mil acreanos com CNH gratuita em 2022 — Foto/Divulgação.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A CNH Social é dividida em três modos: estudantil, para pessoas de 18 a 25 anos que estudaram em escolas públicas; urbana e rural. Através do Instagram, o pedetista disse que não medirá esforços para que o programa continue crescendo e chegando a cada vez mais acreanos que precisem.&lt;/p&gt;
+&lt;blockquote class="instagram-media" data-instgrm-captioned data-instgrm-permalink="https://www.instagram.com/reel/Cljdiwoj0ip/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14" style=" background:#FFF; border:0; border-radius:3px; box-shadow:0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width:658px; min-width:326px; padding:0; width:99.375%; width:-webkit-calc(100% - 2px); width:calc(100% - 2px);"&gt;
+&lt;div style="padding:16px;"&gt; &lt;a href="https://www.instagram.com/reel/Cljdiwoj0ip/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" background:#FFFFFF; line-height:0; padding:0 0; text-align:center; text-decoration:none; width:100%;" target="_blank"&gt; &lt;/p&gt;
+&lt;div style=" display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display:block; height:50px; margin:0 auto 12px; width:50px;"&gt;&lt;svg width="50px" height="50px" viewBox="0 0 60 60" version="1.1" xmlns="https://www.w3.org/2000/svg" xmlns:xlink="https://www.w3.org/1999/xlink"&gt;&lt;g stroke="none" stroke-width="1" fill="none" fill-rule="evenodd"&gt;&lt;g transform="translate(-511.000000, -20.000000)" fill="#000000"&gt;&lt;g&gt;&lt;path d="M556.869,30.41 C554.814,30.41 553.148,32.076 553.148,34.131 C553.148,36.186 554.814,37.852 556.869,37.852 C558.924,37.852 560.59,36.186 560.59,34.131 C560.59,32.076 558.924,30.41 556.869,30.41 M541,60.657 C535.114,60.657 530.342,55.887 530.342,50 C530.342,44.114 535.114,39.342 541,39.342 C546.887,39.342 551.658,44.114 551.658,50 C551.658,55.887 546.887,60.657 541,60.657 M541,33.886 C532.1,33.886 524.886,41.1 524.886,50 C524.886,58.899 532.1,66.113 541,66.113 C549.9,66.113 557.115,58.899 557.115,50 C557.115,41.1 549.9,33.886 541,33.886 M565.378,62.101 C565.244,65.022 564.756,66.606 564.346,67.663 C563.803,69.06 563.154,70.057 562.106,71.106 C561.058,72.155 560.06,72.803 558.662,73.347 C557.607,73.757 556.021,74.244 553.102,74.378 C549.944,74.521 548.997,74.552 541,74.552 C533.003,74.552 532.056,74.521 528.898,74.378 C525.979,74.244 524.393,73.757 523.338,73.347 C521.94,72.803 520.942,72.155 519.894,71.106 C518.846,70.057 518.197,69.06 517.654,67.663 C517.244,66.606 516.755,65.022 516.623,62.101 C516.479,58.943 516.448,57.996 516.448,50 C516.448,42.003 516.479,41.056 516.623,37.899 C516.755,34.978 517.244,33.391 517.654,32.338 C518.197,30.938 518.846,29.942 519.894,28.894 C520.942,27.846 521.94,27.196 523.338,26.654 C524.393,26.244 525.979,25.756 528.898,25.623 C532.057,25.479 533.004,25.448 541,25.448 C548.997,25.448 549.943,25.479 553.102,25.623 C556.021,25.756 557.607,26.244 558.662,26.654 C560.06,27.196 561.058,27.846 562.106,28.894 C563.154,29.942 563.803,30.938 564.346,32.338 C564.756,33.391 565.244,34.978 565.378,37.899 C565.522,41.056 565.552,42.003 565.552,50 C565.552,57.996 565.522,58.943 565.378,62.101 M570.82,37.631 C570.674,34.438 570.167,32.258 569.425,30.349 C568.659,28.377 567.633,26.702 565.965,25.035 C564.297,23.368 562.623,22.342 560.652,21.575 C558.743,20.834 556.562,20.326 553.369,20.18 C550.169,20.033 549.148,20 541,20 C532.853,20 531.831,20.033 528.631,20.18 C525.438,20.326 523.257,20.834 521.349,21.575 C519.376,22.342 517.703,23.368 516.035,25.035 C514.368,26.702 513.342,28.377 512.574,30.349 C511.834,32.258 511.326,34.438 511.181,37.631 C511.035,40.831 511,41.851 511,50 C511,58.147 511.035,59.17 511.181,62.369 C511.326,65.562 511.834,67.743 512.574,69.651 C513.342,71.625 514.368,73.296 516.035,74.965 C517.703,76.634 519.376,77.658 521.349,78.425 C523.257,79.167 525.438,79.673 528.631,79.82 C531.831,79.965 532.853,80.001 541,80.001 C549.148,80.001 550.169,79.965 553.369,79.82 C556.562,79.673 558.743,79.167 560.652,78.425 C562.623,77.658 564.297,76.634 565.965,74.965 C567.633,73.296 568.659,71.625 569.425,69.651 C570.167,67.743 570.674,65.562 570.82,62.369 C570.966,59.17 571,58.147 571,50 C571,41.851 570.966,40.831 570.82,37.631"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/g&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style=" color:#3897f0; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:550; line-height:18px;"&gt;View this post on Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #F4F4F4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg)"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style=" width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style=" width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style=" background-color: #F4F4F4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; line-height:17px; margin-bottom:0; margin-top:8px; overflow:hidden; padding:8px 0 7px; text-align:center; text-overflow:ellipsis; white-space:nowrap;"&gt;&lt;a href="https://www.instagram.com/reel/Cljdiwoj0ip/?utm_source=ig_embed&amp;amp;utm_campaign=loading" style=" color:#c9c8cd; font-family:Arial,sans-serif; font-size:14px; font-style:normal; font-weight:normal; line-height:17px; text-decoration:none;" target="_blank"&gt;A post shared by José Luis Tchê (@joseluistche)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//platform.instagram.com/en_US/embeds.js"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/tche-apresenta-emenda-para-dobrar-contemplados-da-cnh-social/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-11.33.42.jpeg?fit=1024%2C731&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gladson Cameli critica protestos pós-2º turno e quer diálogo com Lula</t>
+          <t>2022-12-01T08:29:51</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/11/gladson-cameli-critica-protestos-pos-2o-turno-e-quer-dialogo-com-lula/</t>
+          <t>Jorge Viana diz que GT de transição detectou arco de desmatamento no AC, RO e AM e 60 garimpos ilegais em áreas indígenas</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Olá, boa noite!&lt;/p&gt;
+&lt;p&gt;Segue matéria do ex-senador Jorge Viana, coordenador do GT do Meio Ambiente na Transição.&lt;/p&gt;
+&lt;p&gt;Agradeço pela divulgação, caso possa divulgar.&lt;/p&gt;
+&lt;p&gt;*Jorge Viana avalia trabalhos da transição durante entrevista à Globo News*&lt;/p&gt;
+&lt;p&gt;Coordenador do Grupo de Trabalho do Meio Ambiente, o ex-senador Jorge Viana (PT), concedeu entrevista à Globo News na tarde desta quarta-feira, 30, para falar sobre o andamento dos trabalhos do grupo que está coordenando em Brasília, composto também pelos ex-ministros do Meio Ambiente, Marina Silva, Izabella Teixeira e Carlos Minc.&lt;br /&gt;
+Jorge Viana informou que o grupo está fechando a primeira versão, do primeiro relatório para entregar na coordenação-geral da equipe de transição.&lt;/p&gt;
+&lt;p&gt;“O presidente Lula assumiu dois grandes compromissos. Um é uma questão de vida para ele, que é auxiliar às famílias carentes, enfrentar o problema da fome. E o outro, também lida com vida, inclusive do planeta, que ele assumiu internacionalmente de enfrentar o desmatamento, a questão do clima e empoderar o enfrentamento dessa agenda no novo governo”.&lt;/p&gt;
+&lt;p&gt;Viana falou do desafio que de coordenar o grupo de transição do Meio Ambiente. Segundo ele, é uma missão com desafio enorme. “Mas, não é tão complexa porque temos aqui um grupo muito qualificado que está nos auxiliando, mesmo tendo dificuldades para adquirir dados do atual governo”, destacou.&lt;/p&gt;
+&lt;p&gt;O ex-senador pontuou ainda que enfrentar o desmatamento é talvez a ação mais importante que o governo do presidente Lula precisará fazer a partir de janeiro de 2023. “Mas, nós vamos montar uma estratégia de enfrentar. Já em janeiro acredito que tem condição de algumas ações fortes serem implementadas”, assegurou.&lt;/p&gt;
+&lt;p&gt;Jorge Viana revelou que há registraram 60 garimpos ilegais dentro das áreas indígenas. Em sete delas, ele informou que a situação é gravíssima. “Então, temos desmatamento em unidades de conservação, não cabe isso, dentro de áreas da União. Têm ações que certamente da para começar já no primeiro dia e dar uma satisfação para a sociedade”, frisou.&lt;/p&gt;
+&lt;p&gt;O coordenador acrescentou ainda que tem um novo arco do desmatamento na divisa do Acre, Rondônia e sul do Amazonas. E, ressaltou que há ainda déficit de 2.130 servidores devido ao desmonte que o governo de Bolsonaro promoveu na área ambiental.&lt;/p&gt;
+&lt;p&gt;“O presidente Lula vai trazer, certamente, nos primeiros dias de governo, o Fundo Amazônia de volta. São R$ 3 bilhões que vão auxiliar no enfrentamento ao desmatamento. Temos que ter uma recomposição orçamentária, mas o mais importante é revogar medidas que abriram a porteira para o desmatamento ilegal”, avalia.&lt;/p&gt;
+&lt;p&gt;Jorge Viana disse ainda que o Brasil está enfrentando é um desmatamento ilegal num patamar muito elevado. “Esse governo ficou quatro anos com crescimento de desmatamento. É uma necessidade o enfretamento dessa situação, inclusive para quem cria, para quem produz. Porque está dando insegurança jurídica para quem trabalha e produz. Os recursos precisam ser garantidos para o novo governo, por isso nós vamos apresentar um item importante que é a reforma orçamentária funcional e uma decisão política que já foi tomada  pelo presidente Lula de enfrentar o desmatamento. Mudar essa agenda e fazer com que o Brasil possa cumprir seus compromissos de redução de emissões e o Acordo do Clima de Paris”, finalizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/12/jorge-viana-diz-que-gt-de-transicao-detectou-arco-de-desmatamento-no-ac-ro-e-am-e-60-garimpos-ilegais-em-areas-indigenas/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/45D96A5F-7111-4F84-8014-12084B6BA937.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gladson Cameli é sensato ao não apoiar manifestações antidemocráticas, diz colunista</t>
+          <t>2022-12-01T08:16:19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/11/gladson-cameli-e-sensato-ao-nao-apoiar-manifestacoes-antidemocraticas-diz-colunista/</t>
+          <t>Bolsonaristas voltam a deixar o Acre isolado após novos bloqueios na BR-364 em Rondônia</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;em&gt;Imagem ilustrativa/Foto: Getty Images&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Um grupo de manifestantes bolsonaristas que estão acampados às margens da rodovia da BR-364, em Rondônia, em protesto contra o resultado das eleições que ocorreram há um mês, resolveram, mais uma vez, bloquear a rodovia federal em dois trechos no estado vizinho do Acre. A informação foi confirmada pela assessoria da Polícia Rodoviária Federal (PRF) na manhã desta quinta-feira, 1°.&lt;/p&gt;
+&lt;p&gt;De acordo com a nota, o grupo de manifestantes bloqueou trechos nos municípios de Ariquemes e Cacoal, ambos no interior rondoniense.&lt;/p&gt;
+&lt;p&gt;A PRF reiterou também os recentes acontecimentos na região. Segundo os agentes, o local do atropelamento é uma área de concentração de manifestantes, que fica às margens da rodovia. Após o acidente, policiais rodoviários compareceram à área após várias ligações das testemunhas informando que o caminhoneiro teria atropelado uma mulher e fugido sem prestar socorro. A Polícia Militar (PM) em Cacoal também foi acionada e conforme informações preliminares repassadas pela PRF, &amp;#8220;os militares localizaram o indivíduo e estão com ele sob custódia, em um bairro próximo ao local do evento crítico&amp;#8221;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/12/bolsonaristas-voltam-a-deixar-o-acre-isolado-apos-novos-bloqueios-na-br-364-em-rondonia/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/C760067C-1247-407D-BAD2-ED4A61E31BD8.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Governo pretende realizar novos concursos na saúde, educação e Polícia Pena, diz Gladson Cameli</t>
+          <t>2022-12-01T08:07:55</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/governo-pretende-realizar-novos-concursos-na-saude-educacao-e-policia-pena-diz-gladson-cameli/</t>
+          <t>Caminhoneiro fura bloqueio de bolsonaristas e deixa mulher gravemente ferida</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Na noite desta quarta-feira, 30, em um trecho que estava novamente bloqueado na BR-364 em Cacoal (RO), um caminhoneiro tentou passar à força, avançando sobre barracas, barreiras, veículos e manifestantes, deixando pelo menos uma mulher gravemente ferida no local.&lt;/p&gt;
+&lt;p&gt;Um vídeo mostra o motorista tentando furar o bloqueio e tendo seu utilitário atingido por pedras – há ainda relatos de tiros.&lt;/p&gt;
+&lt;p&gt;Ao fim da gravação, uma pessoa fica caída no asfalto e outra, que está filmando, diz que ela acabou falecendo no local devido ao ocorrido &amp;#8211; contudo, o fato ainda não foi confirmado.&lt;/p&gt;
+&lt;p&gt;Ao G1 de Rondônia, a&lt;br /&gt;
+A Polícia Rodoviária Federal (PRF), disse que local do atropelamento é uma área de concentração de manifestantes, que fica às margens da rodovia. Os policiais rodoviários compareceram à área após várias ligações das testemunhas informando que o caminhoneiro teria atropelado uma mulher e fugido sem prestar socorro.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/12/caminhoneiro-fura-bloqueio-de-bolsonaristas-e-deixa-mulher-gravemente-ferida/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/F79A2C05-3003-45F8-98D4-A0B00D56BA6E.png</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
+          <t>2022-12-01T07:44:55</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
+          <t>Alexandre de Moraes manda apreender caminhão de filho de ex-vereadora no Acre</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um mandado de busca e apreensão emitido no último dia 22 pelo ministro Alexandre Moraes, do Supremo Tribunal Federal (STF) contra um caminhão de placas MSE7E16, de propriedade de Bruno Santos de Freitas, foi cumprido nesta quarta-feira (30) pela Polícia Federal, segundo informações a que o ac24horas teve acesso.&lt;/p&gt;
+&lt;p&gt;O dono do caminhão é filho da ex-vereadora Rosa, de Acrelândia, que foi quem tornou o fato público. Em áudio, ela diz que o motivo da apreensão do veículo é uma acusação de o filho ter participado de uma manifestação antidemocrática, o que ela nega que tenha ocorrido.&lt;/p&gt;
+&lt;p&gt;“É o primeiro caminhão que foi preso no Acre. E não estava participando de manifestação, não. Estava carregado com carga viva, aí foi pego lá e o camarada mandou prender, o senhor Alexandre de Moraes”, ela diz.&lt;/p&gt;
+&lt;p&gt;No mandado de busca e apreensão, o ministro recomenda à PF “evitar exposição indevida, especialmente no cumprimento da medida, abstendo-se de toda e qualquer indiscrição, inclusive midiática”.&lt;/p&gt;
+&lt;p&gt;No começo de novembro, a Polícia Rodoviária Federal (PRF) encaminhou ao Supremo Tribunal Federal (STF) uma lista com 40 pessoas físicas e 10 jurídicas identificadas e multadas por terem organizado bloqueios rodoviários em vários estados após o 2º turno das eleições.&lt;/p&gt;
+&lt;p&gt;Nesta lista, constava uma única empresa do Acre, A D RAbelo ME, também de Acrelândia, que teve um caminhão identificado nos bloqueios ocorridos naquela cidade, mas não havia nenhuma referência ao caminhão apreendido nesta quarta-feira.&lt;/p&gt;
+&lt;p&gt;As identificações feitas pela PRF foram fruto de um monitoramento realizado pela PRF entre o dia 30 de outubro e 6 de novembro direcionado a responsáveis pelos bloqueios em rodovias exigindo um golpe militar para anular o resultado das eleições.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/12/alexandre-de-moraes-manda-apreender-caminhao-de-filho-de-ex-vereadora-no-acre/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/camihhao.jpg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ney Amorim é convidado a fazer parte da equipe de Gladson Cameli em 2023</t>
+          <t>2022-12-01T07:35:22</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/ney-amorim-e-convidado-a-fazer-parte-da-equipe-de-gladson-cameli-em-2023/</t>
+          <t>Liderada por Mailza, bancada do PP no Senado é a favor do auxílio de R$ 600 e acréscimo de R$ 150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Bancada Progressista no Senado Federal, que tem como líder a senadora Mailza (PP-AC), se manifestou em nota acerca do posicionamento da legenda quanto à PEC da Transição, que garante a continuidade do benefício social de R$ 600.&lt;/p&gt;
+&lt;p&gt;O partido também quer discutir o valor acrescido de R$ 150 às mães com filhos de até 6 anos de idade, aumento do salário mínimo e tempo de vigência da proposta.&lt;/p&gt;
+&lt;p&gt;Confira:&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Nota – 30/11/2022&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Em sintonia com a Presidência do Progressistas, a bancada do partido no Senado Federal decidiu, por unanimidade, manifestar-se nos seguintes termos:&lt;/em&gt;&lt;br /&gt;
+&lt;em&gt;1- Pela *aprovação* da PEC da Transição que concede o valor de R$ 200 a mais para que se atinja benefício social de R$ 600;&lt;/em&gt;&lt;br /&gt;
+&lt;em&gt;2- Pela discussão acerca de R$ 150 por criança, destinados às mães com filhos até 6 anos de idade;&lt;/em&gt;&lt;br /&gt;
+&lt;em&gt;3- Pela *aprovação* do aumento real do salário mínimo.&lt;/em&gt;&lt;br /&gt;
+&lt;em&gt;4- Pela vigência de *1 ano* dos efeitos da PEC.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/12/liderada-por-mailza-bancada-do-pp-no-senado-e-a-favor-do-auxilio-de-r-600-e-acrescimo-de-r-150/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2021/01/mailza.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>&amp;#8220;As urnas mostraram a cada um o tamanho que realmente tem&amp;#8221;, diz Gladson Cameli</t>
+          <t>2022-11-30T23:28:42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/as-urnas-mostraram-a-cada-um-o-tamanho-que-realmente-tem-diz-gladson-cameli/</t>
+          <t>Estado entrega revitalização do armazém de Senador Guiomard</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um ambiente adequado e acessível, com a capacidade para comportar 60 mil sacas de grãos, o armazém de Senador Guiomard irá beneficiar mais de 40 produtores da região. Com o recurso do Estado, a Companhia de Armazéns Gerais e Entrepostos do Acre (Cageacre) entregou a revitalização do galpão, nesta quarta-feira, 30.&lt;/p&gt;
+&lt;p&gt;“Essa reforma é um presente para todos os produtores, e a equipe da Cageacre trabalhou com empenho para revitalizar o galpão de armazenamento de Senador Guiomard”, destacou o presidente da Cageacre, Jessé Cruz.&lt;/p&gt;
+&lt;p&gt;O gestor ainda frisou que a Cageacre segue avançando com duas ordens de serviço para a revitalização de armazens em Cruzeiro do Sul e Manoel Urbano. O armazém integra os blocos de vestuário e escritório, e tem compartimentos como a moega, um componente direcionado ao recebimento de insumos como grãos e farinhas.&lt;/p&gt;
+&lt;p&gt;“O governo tem demonstrado comprometimento com o setor produtivo do Acre, e investirá na pasta para os próximos quatro anos. A gestão governamental continuará atuando com responsabilidade e ações efetivas para promover políticas públicas para a agricultura familiar”, destacou o secretário-chefe da Casa Civil, Jonathan Donadoni.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone wp-image-281054 size-large" src="http://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-1024x683.jpeg" alt="" width="696" height="464" srcset="https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-1024x683.jpeg 1024w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-300x200.jpeg 300w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-768x512.jpeg 768w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-150x100.jpeg 150w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-600x400.jpeg 600w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-696x464.jpeg 696w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-1392x928.jpeg 1392w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18-1068x712.jpeg 1068w, https://folhadoacre.com.br/wp-content/uploads/2022/11/FBA95A02-70B9-497A-9B0E-670DEB349F18.jpeg 1500w" sizes="(max-width: 696px) 100vw, 696px" /&gt;&lt;/p&gt;
+&lt;p&gt;O novo espaço de armazenamento de grãos em Senador Guiomard beneficiará muitos produtores no período de safra e dará um fluxo dinâmico para os pequenos e médios produtores, na cidade e nas mediações.&lt;/p&gt;
+&lt;p&gt;Com o galpão de armazenamento da Cageacre, o produtor rural irá ter uma maior agilidade no transporte e nas descargas de grãos.&lt;/p&gt;
+&lt;p&gt;“Hoje é um dia de festa para os produtores rurais e para o governador Gladson Cameli. A revitalização do armazém comporta uma estrutura de qualidade e isso fortalece o agronegócio no Acre”, disse o titular da Sepa, Edivan Azevedo.&lt;/p&gt;
+&lt;p&gt;Na oportunidade, o presidente da Associação da Cageacre, Ademir Menezes, relatou: “Vi o esforço dos servidores da instituição em fazer o melhor para todos. Meu sentimento é de agradecimento por fazer parte dessa história, um novo momento para o agronegócio no Acre”.&lt;/p&gt;
+&lt;p&gt;Entre as autoridades estava o vice-prefeito José Claudinei Rabelo, mais conhecido como Ney do Miltão; vereadores do município, como Leyryana de Oliveira, a Leiri do Mixico; e o presidente do Instituto de Defesa Agropecuária e Florestal, Francisco Thum.&lt;/p&gt;
+&lt;p&gt;O empreendimento custou R$ 4 milhões para os cofres públicos, e também teve recurso do deputado Luiz Tchê, no valor de R$ 100 mil.&lt;/p&gt;
+&lt;p&gt;Na entrega da obra estiveram reunidas no dispositivo de honra mais de 10 autoridades, entre políticos e servidores estaduais. No local, os servidores puderam prestigiar as mudanças e benfeitorias no armazém de grãos, que não tinha restruturação predial há mais de 30 anos.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/11/estado-entrega-revitalizacao-do-armazem-de-senador-guiomard/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/B5C33AB4-EA26-4B0D-B223-9B6E9C468118.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gladson Cameli é reeleito governador do Acre com mais de 56% dos votos válidos</t>
+          <t>2022-11-30T14:56:28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/gladson-cameli-e-reeleito-governador-do-acre-com-mais-de-56-dos-votos-validos/</t>
+          <t>Comissão da câmara federal aprova doação de terras da União para o Acre</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governo do Acre alcançou mais uma vitória visando conseguir que a União doe, para o Estado, 155 mil hectares de terras remanescentes da Gleba Seringal Afluente, entre Feijó e Tarauacá, para implantar uma unidade de conservação sustentável na região. Um projeto de decreto legislativo com esse objetivo foi aprovado pela Comissão de Agricultura, Pecuária, Abastecimento e Desenvolvimento Rural da Câmara dos Deputados, na última quarta-feira, 23.&lt;/p&gt;
+&lt;p&gt;O projeto, de nº 335/21 e que já foi aprovado no Senado, é de autoria da senadora e vice-governadora eleita Mailza Assis da Silva e atende pedido do governo do Acre. “A doação dessas terras para o Estado já tem posição favorável do Ministério da Economia e do Conselho de Defesa Nacional, mas também precisa da aprovação da Câmara, além do Senado, porque abrange área de fronteira”, explicou o representante do governo em Brasília, Ricardo França, que trata do assunto na capital federal.&lt;/p&gt;
+&lt;p&gt;A implantação da unidade de conservação integra ações da segunda fase do Programa de Desenvolvimento Sustentável do Acre, o PDSA II, desenvolvido em parceria com o Banco Interamericano de Desenvolvimento (BID).&lt;/p&gt;
+&lt;p&gt;Conforme Ricardo França, além de contribuir com os objetivos do programa, a implantação da unidade de conservação é compromisso assumido pelo Estado em contrato de empréstimo feito em 2013 junto ao BID, no valor de US$ 120 milhões, sendo US$ 72 milhões financiados pelo banco e US$ 48 milhões de contrapartida do governo.&lt;/p&gt;
+&lt;p&gt;O problema, explicou o representante, é que as terras indicadas pelos gestores daquela época para implantar a unidade de conservação pertencem à União, o que inviabiliza a ação. “O governo vem buscando a doação dessas terras para regularizar a situação e poder implantar a unidade, avançando, cada vez mais, no desenvolvimento sustentável do Acre, além de cumprir com o compromisso com o Banco Mundial e evitar que o Estado fique inadimplente”, explica.&lt;/p&gt;
+&lt;h4&gt;Articulações&lt;/h4&gt;
+&lt;p&gt;Foi com esse objetivo que o governo solicitou a apresentação do projeto de decreto legislativo pela senadora Mailza Assis da Silva. “À exemplo da parceria e apoio costumeiro ao governo em favor do Estado, a senadora atendeu o pedido e se empenhou pela aprovação da medida no Senado”, afirmou Ricardo França.&lt;/p&gt;
+&lt;p&gt;A necessidade foi relatada por França para o relator do projeto na Comissão de Agricultura da Câmara, deputado Pedro Lupion, pedindo a urgência e aprovação da proposta, conforme ocorreu na quarta-feira. O projeto ainda será analisado pelas comissões de Finanças e Tributação e de Constituição e Justiça e de Cidadania da Câmara, seguindo depois para análise pelo plenário.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/11/comissao-da-camara-federal-aprova-doacao-de-terras-da-uniao-para-o-acre/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/D9450B68-C571-4474-B073-28344B1575AA.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gladson Cameli chegará a Rio Branco para apuração dos votos acompanhado da primeira dama</t>
+          <t>2022-11-30T14:52:05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/gladson-cameli-chegara-a-rio-branco-para-apuracao-dos-votos-acompanhado-da-primeira-dama/</t>
+          <t>Prefeitura de Rio Branco faz o plantio de 2 mil mudas de plantas próximo ao Igarapé Sobral, bairro João Paulo II</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Prefeitura de Rio Branco, por meio da Secretaria Municipal de Meio Ambiente (Semeia), fez nesta quarta-feira, 30, na Área de Preservação Permanente (APP) do Igarapé Sobral, o plantio de duas mil mudas distribuídas entre 10 espécies florestais e 14 frutíferas. A ação ambiental, com início em frente a creche Maria Silvestre de França, localizada na Rua Sérvia, bairro João Paulo II, Loteamento Cabreúva, foi realizada com apoio da comunidade local, em parceria com escolas, creches e associações comunitárias.&lt;/p&gt;
+&lt;p&gt;A atividade faz parte da implementação das ações de “Reflorestamento de Áreas de Preservação Permanente (APP) de Rio Branco”, que a Semeia vem realizando, com o intuito de reflorestar nove hectares naquela região, aonde ainda existem áreas indicadas para plantio devido a inexistência de árvores em longos trechos, apesar da ocupação irregular de algumas famílias. De acordo com a gestão municipal, essa é uma das formas de dar resposta a sociedade rio-branquense frente às secas severas enfrentadas pela população, uma vez que o poder público tem o dever de proteger os recursos e ecossistemas naturais.&lt;/p&gt;
+&lt;p&gt;“Essa é mais uma ação que mostra o nosso compromisso com o meio ambiente, não somente na palavra, mas na prática. Ficamos tristes quando assumimos a prefeitura, e saiu uma reportagem onde mostrava que Rio Branco era a pior capital, nos últimos 20 anos, de plantio de árvores na zona urbana. Muito se falou em cuidar dessa questão, em ter um olha diferenciado, porém, é na nossa gestão que as ações estão sendo realizadas de forma concreta. Esse plantio vai ser um exemplo não somente para o Brasil, mas para o mundo”, destacou Bocalom.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/11/prefeitura-de-rio-branco-faz-o-plantio-de-2-mil-mudas-de-plantas-proximo-ao-igarape-sobral-bairro-joao-paulo-ii/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/7B3BCC60-C29A-4873-91CF-881C4CCBCFE5.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ao lado da mãe e filho, Gladson Cameli vota em Cruzeiro do Sul</t>
+          <t>2022-11-30T13:23:55</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/10/ao-lado-da-mae-e-filho-gladson-cameli-vota-em-cruzeiro-do-sul/</t>
+          <t>Governo vai convocar 181 professores do cadastro de reserva</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em uma audiência pública realizada nesta quarta-feira, 30, na Assembleia Legislativa do Acre (Aleac), o secretário de Planejamento (Seplag), coronel Ricardo Brandão, deu a garantia que o governo do Estado irá realizar, até o primeiro trimestre do ano que vem, a convocação de 181 professores do cadastro de reserva.&lt;/p&gt;
+&lt;p&gt;Ao longo dos últimos quatro anos, o governo do Estado já realizou a convocação de 800 professores efetivos, dos 1.026 que foram aprovados em um concurso público realizado no final de 2018. De acordo com o secretário, já foi solicitada a convocação de 57 professores, dos 181 que estão no cadastro.&lt;/p&gt;
+&lt;p&gt;A convocação dos outros 127 professores, ainda de acordo com o secretário, deverá ser realizada nos primeiros meses de 2023. Para isso, a validade do concurso, que havia encerrado em julho de 2021, foi prorrogada até o mês de abril de 2023.&lt;/p&gt;
+&lt;p&gt;“Com a prorrogação da validade do concurso até abril de 2023, já temos um planejamento para realizar a convocação dos 181 professores efetivos. Já pedimos a convocação de 54 profissionais e os outros 127 deverão ser convocados até o primeiro trimestre do ano que vem”, informou Ricardo Brandão.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/11/governo-vai-convocar-181-professores-do-cadastro-de-reserva/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/11/92101A08-13CC-4E0B-912F-CFD4C17F1F30.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mesmo ausente do debate, Gladson Cameli é o assunto principal</t>
+          <t>2022-11-30T13:20:14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/09/mesmo-ausente-do-debate-gladson-cameli-e-o-assunto-principal/</t>
+          <t>Ifac tem funcionamento comprometido após bloqueio de mais de R$ 5 milhões pelo governo Bolsonaro</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;em&gt;Bloqueio de cerca de R$ 1,9 milhões nas contas do Ifac, além de R$ 3 milhões de Termo de Execução Descentralizada, prejudica as ações desenvolvidas na instituição&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;O novo bloqueio orçamentário por parte do Governo Federal, anunciado pelo Conselho Nacional das Instituições da Rede Federal (Conif) e que atinge as Instituições de Ensino Superior, trará sérios prejuízos para o Instituto Federal do Acre (Ifac).&lt;/p&gt;
+&lt;p&gt;Realizado na segunda-feira (28.11), em pleno horário do jogo do Brasil na Copa do Mundo, o bloqueio nas contas das instituições de ensino superior do país, atingiu o Ifac no equivalente a R$ 1.939.452,91, em relação a repasses realizados pelo governo federal.&lt;/p&gt;
+&lt;p&gt;Além disso, R$ 3.113.041,39, que são oriundos de Termos de Execução Descentralizada (TED) e que tinham sido definidos para liberação até o final de 2022 com a Secretaria de Educação Profissional, Científica e Tecnológica (Setec), serão bloqueados.&lt;/p&gt;
+&lt;p&gt;Os valores bloqueados mostram que as ações desenvolvidas pelo Ifac nas áreas do Ensino, Pesquisa e Extensão, além do pagamento de segurança, limpeza, energia elétrica, diárias e passagens sofrerão um grande impacto neste final de ano.&lt;/p&gt;
+&lt;p&gt;A reitora Rosana Cavalcante dos Santos e o pró-Reitor de Planejamento e Desenvolvimento Institucional (Prodin), Ubiracy da Silva Dantas, fizeram uma avaliação do impacto no dia a dia da instituição.&lt;/p&gt;
+&lt;p&gt;“Desde as aulas práticas, que terão que ser desmarcadas, até a mudança da Reitoria para o novo prédio, prevista para este final de ano, sofrerão com o bloqueio. Além disso, despesas essenciais para o funcionamento do Ifac estão comprometidas, inviabilizando o papel primordial da nossa instituição, que é oferecer educação pública, gratuita, de qualidade e inclusiva para a sociedade”, destacou Rosana Cavalcante dos Santos.&lt;/p&gt;
+&lt;p&gt;“Estes recursos, oriundos de TEDs, têm destinação certa: a instalação dos Laboratórios IFMaker, aquisição de mobiliários para a nova Reitoria e para a realização de cursos voltados para a Educação de Jovens e Adultos. Com o bloqueio, o Ifac não poderá realizar estas ações, prejudicando não só a instituição, como também a sociedade”, destacou Ubiracy Dantas.&lt;/p&gt;
+&lt;p&gt;Veja abaixo, o quadro com os valores de Termos de Execução Descentralizadas (TED) que o Ifac tem para receber até dezembro de 2022:&lt;/p&gt;
+&lt;p&gt;&amp;#8211; Laboratórios IFMaker: R$ 468.499,52&lt;br /&gt;
+&amp;#8211; Mobiliários para Reitoria: R$ 1.067.541,87&lt;br /&gt;
+&amp;#8211; Educação de Jovens e Adultos: R$ 1.577.00,00&lt;br /&gt;
+&amp;#8211; Total: R$ 3.113.041,39&lt;/p&gt;
+&lt;p&gt;Com a decisão do Governo Federal, por meio do Ministério da Educação (MEC), de retirar todos os limites de empenho distribuídos e não utilizados pelas instituições, enquanto define um valor efetivo para o bloqueio orçamentário, o Ifac terá que refazer e reavaliar todos os empenhos.&lt;/p&gt;
+&lt;p&gt;“Diárias e passagens também serão canceladas, caso não tenham sido realizadas, com prejuízo para alguns eventos fundamentais planejados para este final de ano. Vamos rever somente os prioritários e os demais, iremos cancelar”, enfatiza Ubiracy Dantas.&lt;/p&gt;
+&lt;p&gt;Dentre os diversos prejuízos que o Ifac terá, destaca-se, ainda, a perda de contratos e que deverão ser licitados novamente, caso não seja revisto o bloqueio orçamentário.&lt;/p&gt;
+&lt;p&gt;Esta não é a primeira vez que o Ifac e as instituições de ensino superior têm recursos bloqueados. Desde maio deste ano, por exemplo, o Ifac tem sofrido com bloqueios orçamentários.&lt;/p&gt;
+&lt;p&gt;Veja abaixo o histórico de bloqueios em 2022 apresentado pela Prodin:&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone wp-image-281018 size-full" src="http://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac.jpg" alt="" width="768" height="423" srcset="https://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac.jpg 768w, https://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac-300x165.jpg 300w, https://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac-150x83.jpg 150w, https://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac-600x330.jpg 600w, https://folhadoacre.com.br/wp-content/uploads/2022/11/bloqueiosifac-696x383.jpg 696w" sizes="(max-width: 768px) 100vw, 768px" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/2022/11/ifac-tem-funcionamento-comprometido-apos-bloqueio-de-mais-de-r-5-milhoes-pelo-governo-bolsonaro/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/06/ifacbolsonaro.jpg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
+          <t>2022-12-01T08:50:07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli-2/</t>
+          <t>Em Manoel Urbano jovem e morto com tiro na cabeça</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61356" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png" alt="" width="708" height="325" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png 708w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141-300x138.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141-696x319.png 696w" sizes="(max-width: 708px) 100vw, 708px" /&gt;&lt;/p&gt;
+&lt;p&gt;Um jovem, que ainda não teve o nome revelado, foi morto com um tiro na cabeça  em Manoel Urbano, interior do Acre, no final da tarde desta quarta-feira 30.&lt;/p&gt;
+&lt;p&gt;A vítima tinha saído da escola e ainda usava o uniforme e uma mochila nas costas no momento do crime.&lt;/p&gt;
+&lt;p&gt;Acordo com a polícia militar , disse que, segundo testemunha no local, o jovem estava acompanhado de um outro rapaz ainda não identificado. Essa pessoa teria perguntado se ele fazia parte de alguma facção, após dada a resposta ele foi alvejado com um tiro na cabeça.&lt;/p&gt;
+&lt;p&gt;O criminoso se invadido ao local correndo após homicídio e é procurado pela PM. Ainda segundo a polícia, o menor era envolvido com crime organizado e já teria publicado fotos com armas de fogo.&lt;/p&gt;
+&lt;p&gt;O adolescente morreu antes de receber ajuda médica no local do crime. A equipe da polícia civil está na região em busca dos suspeito levantando informações sobre o assassinato.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/em-manoel-urbano-jovem-e-morto-com-tiro-na-cabeca/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Senador eleito Alan Rick é recebido pela equipe de transição de Gladson Cameli</t>
+          <t>2022-12-01T08:42:46</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/senador-eleito-alan-rick-e-recebido-pela-equipe-de-transicao-de-gladson-cameli/</t>
+          <t>Urgente em Sena Madureira Jovem é alvejado com tiro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61351" src="http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-22-24.jpg" alt="" width="606" height="808" srcset="http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-22-24.jpg 606w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-22-24-225x300.jpg 225w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-22-24-315x420.jpg 315w" sizes="(max-width: 606px) 100vw, 606px" /&gt;&lt;/p&gt;
+&lt;p&gt;Segundo informações uma tentativa de homicídio logo pela manhã desta quinta-feira(01), no bairro Ana Vieira.&lt;/p&gt;
+&lt;p&gt;Um jovem identificado por Gabriel, foi alvejado com tiros nesta manhã.&lt;/p&gt;
+&lt;p&gt;Segundo a Policia, duas  pessoas foram atingidas por disparo de tiros de arma de fogo no Ana Vieira, o nome da segunda vitima não foi informado até o presente momento.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61353" src="http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12.jpg" alt="" width="1080" height="1123" srcset="http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12.jpg 1080w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-289x300.jpg 289w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-985x1024.jpg 985w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-768x799.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-696x724.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-1068x1111.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12-404x420.jpg 404w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/p&gt;
+&lt;div style="width: 368px;" class="wp-video"&gt;&lt;!--[if lt IE 9]&gt;&lt;script&gt;document.createElement('video');&lt;/script&gt;&lt;![endif]--&gt;
+&lt;video class="wp-video-shortcode" id="video-61350-1" width="368" height="752" preload="metadata" controls="controls"&gt;&lt;source type="video/mp4" src="http://yaconews.com/wp-content/uploads/2022/12/VID-20221130-WA0100-1.mp4?_=1" /&gt;&lt;a href="http://yaconews.com/wp-content/uploads/2022/12/VID-20221130-WA0100-1.mp4"&gt;http://yaconews.com/wp-content/uploads/2022/12/VID-20221130-WA0100-1.mp4&lt;/a&gt;&lt;/video&gt;&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/urgente-em-sena-madureira-jovem-e-alvejado-com-tiro/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/photo_2022-12-01_10-41-12.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
+          <t>2022-12-01T08:19:43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+          <t>Após ter veículo atacado, caminhoneiro atropela manifestante em bloqueio na BR-364</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61348" src="http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO.jpeg" alt="" width="1080" height="656" srcset="http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO.jpeg 1080w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-300x182.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-1024x622.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-768x466.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-696x423.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-1068x649.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO-691x420.jpeg 691w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/p&gt;
+&lt;p&gt;O motorista de uma carreta acelerou o veículo na direção de um grupo de bolsonaristas e acabou atropelando uma mulher na BR-364, em Cacoal (RO), na noite desta quarta-feira (30). Um vídeo feito no momento do acidente também mostra a carreta arrastando lonas que eram usadas nas barracas e várias pessoas correndo assustadas.&lt;/p&gt;
+&lt;p&gt;Segundo a Polícia Rodoviária Federal (PRF), o local do atropelamento é uma área de concentração de manifestantes, que fica às margens da rodovia.&lt;/p&gt;
+&lt;p&gt;Os policiais rodoviários compareceram à área após várias ligações das testemunhas informando que o caminhoneiro teria atropelado uma mulher e fugido sem prestar socorro.&lt;/p&gt;
+&lt;p&gt;A Polícia Militar (PM) em Cacoal também foi acionada e conforme informações preliminares repassadas pela PRF, os militares localizaram o indivíduo e estão com ele sob custódia, em um bairro próximo ao local do evento crítico.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/apos-ter-veiculo-atacado-caminhoneiro-atropela-manifestante-em-bloqueio-na-br-364/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/CARRETEIRO.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
+          <t>2022-12-01T07:57:14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
+          <t>Fundhacre entrega equipamentos para o serviço de fisioterapia e para o Programa de Obesidade da unidade hospitalar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61344" src="http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1.jpg" alt="" width="1536" height="1024" srcset="http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-1024x683.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-768x512.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-696x464.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-1068x712.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1-630x420.jpg 630w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
+&lt;p&gt;Foi realizada nesta quarta-feira, 30, na Fundação Hospital Estadual do Acre (Fundhacre), a entrega de novos equipamentos que passarão a contribuir no serviço de fisioterapia da unidade.&lt;/p&gt;
+&lt;p&gt;“Esse é um compromisso do governo do Estado no melhoramento dos serviços em saúde aqui do hospital. São equipamentos que estarão contribuindo no atendimento ao paciente. Nosso objetivo é sempre o bem-estar dos usuários, é prestar um serviço de qualidade”, enfatizou o presidente da Fundação, João Paulo Silva.&lt;/p&gt;
+&lt;figure id="attachment_585226" class="wp-caption aligncenter" aria-describedby="caption-attachment-585226"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585226 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8257-scaled.jpg 2048w" alt="" width="1024" height="683" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585226" class="wp-caption-text"&gt;Fundhacre entrega equipamentos para o serviço de fisioterapia e obesidade da unidade hospitalar. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A aquisição dos equipamentos de fisioterapia ocorreu por meio de recursos próprios no valor de mais de R$ 80 mil.  Foram entregues: caneleira profissional, látex band, máscara de alta concentração adulto, máscara facial Airfit F20 média, máscara facial total Fitlife SE grande, máscara para traqueostomia adulto, mine byke, mini byke compacta neurodyn aussie sport, óculos vr realidade virtual 3D, powerbreathe cassic medic, powerbreathe plus medic.&lt;/p&gt;
+&lt;p&gt;“Gratidão é algo que nunca devemos deixar de ter. Sou grato por fazer parte dessa equipe e, principalmente, por essa gestão, que nos olhou e atendeu a demanda dos fisioterapeutas”, afirmou o coordenador do serviço de Fisioterapia, Carlos Eduardo Alves.&lt;/p&gt;
+&lt;figure id="attachment_585247" class="wp-caption aligncenter" aria-describedby="caption-attachment-585247"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585247 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8304-scaled.jpg 2048w" alt="" width="1024" height="683" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585247" class="wp-caption-text"&gt;Ato de entrega contou com a presença da chefe de Planejamento, Duciana Araújo, do chefe de enfermagem, Durival Brito, e do diretor Rogério Aguiar. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Já as três balanças destinadas para o Programa de Obesidade foram adquiridas por meio de convênio do Ministério da Saúde, no montante de mais de R$ 4 mil. “Tudo o que acontece na Fundhacre, todas essas melhorias e aquisição desses equipamentos, é fruto do empenho do governo. Aqui externo meu agradecimento por todos os investimentos no programa. Quem ganha é a nossa população”, afirmou o coordenador do Programa de Obesidade, Alysson Morais.&lt;/p&gt;
+&lt;p&gt;O ato de entrega contou com a presença da chefe de Planejamento, Duciana Araújo, chefe de Enfermagem, Durival Brito, e do diretor Rogério Aguiar.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/fundhacre-entrega-equipamentos-para-o-servico-de-fisioterapia-e-para-o-programa-de-obesidade-da-unidade-hospitalar/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/MG_8304-1536x1024-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
+          <t>2022-12-01T07:50:22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
+          <t>Em apenas um dia, força-tarefa aborda 210 veículos e resultado de operações já é positivo em Acrelândia e Plácido de Castro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61341" src="http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg" alt="" width="1536" height="1024" srcset="http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-1024x683.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-768x512.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-696x464.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-1068x712.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-630x420.jpg 630w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Após cinco dias de intensas operações, com o patrulhamento e a parada de picapes, carros de passeio e motocicletas, operação sufoca a bandidagem e devolve a paz a moradores das duas cidades&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Ao menos 210 abordagens a veículos e motocicletas foram realizadas pela Polícia Militar do Estado do Acre (PM/AC) ao longo de toda a madrugada, o dia e a noite desta terça-feira, 29, na região dos municípios de Acrelândia e Plácido de Castro, na parte mais oriental do estado, a 100 quilômetros de Rio Branco e próximos às divisas de Rondônia e da Bolívia, respectivamente.&lt;/p&gt;
+&lt;figure id="attachment_585293" class="wp-caption alignnone" aria-describedby="caption-attachment-585293"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585293 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585293" class="wp-caption-text"&gt;Barreira da Polícia Militar montada na cabeceira da ponte de acesso à vila boliviana Evo Morales, porte de entrada para o país vizinho pelo município de Plácido de Castro. Cerco é total na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As ações do governo do Estado do Acre, por meio da Secretaria de Estado de Justiça e Segurança Pública (Sejusp), têm gerado resultados positivos, os de conter o roubo de veículos de moradores da região com sequestros relâmpagos.&lt;/p&gt;
+&lt;figure id="attachment_585281" class="wp-caption alignnone" aria-describedby="caption-attachment-585281"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585281 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg 1280w" alt="" width="1024" height="766" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg 1280w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585281" class="wp-caption-text"&gt;Ações rendem resultados positivos. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O cerco ao crime organizado vem sendo cuidadosamente realizado por uma força-tarefa das polícias Civil e Militar do Estado do Acre, com um patrulhamento diuturnamente nas estradas estaduais e nos ramais da região desde o dia 7 de novembro.&lt;/p&gt;
+&lt;figure id="attachment_585294" class="wp-caption alignnone" aria-describedby="caption-attachment-585294"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585294 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585294" class="wp-caption-text"&gt;Ônibus da Sejusp serve como base móvel para as operações na região de Acrelândia e Plácido de Castro; presença das Forças de Segurança não tem prazo para término. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Posso dizer que nos últimos cinco dias o resultado é excelente. Não tivemos mais nenhuma ocorrência neste período e vamos continuar assim, porque o patrulhamento não para e não tem prazo determinado para terminar”, afirmou o coronel Emílio Virgílio, diretor Operacional da PM/AC.&lt;/p&gt;
+&lt;figure id="attachment_585276" class="wp-caption alignnone" aria-describedby="caption-attachment-585276"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585276 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-768x576.jpeg 768w" alt="" width="1024" height="768" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-768x576.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585276" class="wp-caption-text"&gt;Equipe da Sejusp, chefiada pela secretária adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de reunião com comandantes e chefes das instituições de Segurança. Na pauta, as ações na região de Acrelândia e Plácido de Castro. Foto: Asscom/Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As rondas por estradas de terra batida começam pela manhã, com três guarnições da Polícia Militar, e seguem pela tarde e pela noite, entrando na madrugada até pela manhã, novamente, quando novas equipes assumem. A ordem da cúpula da Segurança é não deixar nenhum veículo sem ser fiscalizado.&lt;/p&gt;
+&lt;figure id="attachment_585295" class="wp-caption alignleft" aria-describedby="caption-attachment-585295"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585295" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg 576w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-169x300.jpg 169w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-768x1366.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-864x1536.jpg 864w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg 899w" alt="" width="285" height="506" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg 576w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-169x300.jpg 169w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-768x1366.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-864x1536.jpg 864w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg 899w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585295" class="wp-caption-text"&gt;Barreira policial na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Nossos esforços são para manter a integridade da população com a presença das forças policiais na região durante 24 horas, todos os dias. Com essas ações, asseguramos a presença do Estado, devolvendo a tranquilidade para as pessoas”, ressalta o secretário de Justiça e Segurança Pública, coronel Paulo Cézar Rocha dos Santos.&lt;/p&gt;
+&lt;figure id="attachment_585280" class="wp-caption alignnone" aria-describedby="caption-attachment-585280"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585280 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1536x1148.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg 1600w" alt="" width="1024" height="765" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1536x1148.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585280" class="wp-caption-text"&gt;Van da Polícia Militar em trecho de estrada que liga Acrelândia a Plácido de Castro. Cerco total a criminosos. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Nesta quarta-feira, uma equipe da Sejusp, chefiada pela secretária-adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de uma reunião com comandantes e chefes das instituições de Segurança e representantes das comunidades de ambos os municípios. A pauta serviu para apresentar de que forma as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;figure id="attachment_585299" class="wp-caption alignnone" aria-describedby="caption-attachment-585299"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585299 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585299" class="wp-caption-text"&gt;Barreira da Polícia Militar montada na cabeceira da ponte de acesso à vila boliviana Evo Morales, porte de entrada para o país vizinho pelo município de Plácido de Castro. Cerco é total na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Estaremos juntos aos moradores destes municípios, oferecendo nossa mão amiga e combatendo com veemência qualquer tipo de ilícito na região”, destaca, por sua vez, a secretária adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira. Nesta quarta-feira, Márdhia e os comandantes e chefes das instituições de Segurança estiveram reunidos com representantes das comunidades de ambos os municípios, para apresentar de que formas as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;h4&gt;Ações consistem em barreiras nas estradas e fiscalização na ponte para a Vila Evo Morales, na Bolívia&lt;/h4&gt;
+&lt;p&gt;Conforme o coordenador Operacional da Sejusp, coronel Glayson Dantas, há um cerco tático no trevo de Senador Guiomard (a 25 quilômetros de Rio Branco), com abordagens contínuas – em regime de 24 horas –, enquanto que foram fixadas operações na ponte de acesso à vila Evo Morales, na Bolívia, fronteira com a cidade de Plácido de Castro, para onde os criminosos tentam levar os veículos roubados.&lt;/p&gt;
+&lt;figure id="attachment_585300" class="wp-caption alignnone" aria-describedby="caption-attachment-585300"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585300 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg 1920w" alt="Operação noturna de Acrelândia e Plácido de Castro; cerco na região tem por objetivo conter roubos de veículos e sequestros relâmpagos. Foto: Dhárcules Pinheiro/Asscom Sejusp" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585300" class="wp-caption-text"&gt;Operação noturna de Acrelândia e Plácido de Castro. Cerco na região tem por objetivo conter roubos de veículos e sequestros relâmpagos. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Foi desse modo que, ainda na primeira quinzena de novembro, uma radiopatrulha da Polícia Militar interceptou uma picape que estava sendo roubada de Acrelândia. Os criminosos a levavam para a Bolívia, quando se depararam com a viatura. Após perseguição, os ladrões pararam o carro e fugiram entrando na mata, às margens da rodovia que dá acesso a Plácido de Castro.&lt;/p&gt;
+&lt;figure id="attachment_585282" class="wp-caption alignnone" aria-describedby="caption-attachment-585282"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585282 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg 1920w" alt="" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585282" class="wp-caption-text"&gt;Viaturas da Polícia Militar em operação na região de Plácido de Castro e Acrelândia. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Ressaltamos que toda a área está sendo monitorada e fiscalizada, tanto pela Polícia Militar, quanto pela Polícia Civil. Não há ramais que não estejam sendo patrulhados a qualquer hora do dia, da noite ou da madrugada. E, além dos cercos nos pontos estratégicos, estamos também com guarnições na ponte que dá acesso à vila boliviana”, ressalta Dantas.&lt;/p&gt;
+&lt;figure id="attachment_585309" class="wp-caption alignnone" aria-describedby="caption-attachment-585309"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585309 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg 2048w" alt="" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg 2048w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585309" class="wp-caption-text"&gt;Policial do Grupo Especial de Fronteira, o Gefron, na região do posto fiscal da Tucandeira. Cerco contra o crime também na região da BR-364. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;No posto fiscal da Tucandeira, localizado na BR-364, no trecho para Porto Velho, outras duas guarnições do Grupo Especial de Fronteiras (Gefron) também permanecem de plantão nos períodos diurno e noturno, podendo se deslocar para qualquer ocorrência, a qualquer momento.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/em-apenas-um-dia-forca-tarefa-aborda-210-veiculos-e-resultado-de-operacoes-ja-e-positivo-em-acrelandia-e-placido-de-castro/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
+          <t>2022-12-01T07:47:21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/10/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
+          <t>Em Feijó, Policia  prende em flagrante dupla por tráfico de drogas e apreende 14 mil reais</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61338" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539.png" alt="" width="706" height="504" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539.png 706w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539-300x214.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539-696x497.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539-588x420.png 588w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539-100x70.png 100w" sizes="(max-width: 706px) 100vw, 706px" /&gt;&lt;/p&gt;
+&lt;p&gt;Durante a operação realizada na manhã desta quarta-feira, 30, em Feijó, a Polícia Civil prendeu duas pessoas pelo crime de tráfico de drogas, sendo apreendido um quilo e meio de maconha e quatorze mil reais.&lt;/p&gt;
+&lt;p&gt;A ação se deu em decorrência do cumprimento do mandado de busca domiciliar na casa da flagranteada R.P.S, de 30 anos.&lt;/p&gt;
+&lt;p&gt;De acordo com as investigações, R.P.S é contumaz na prática do crime de tráfico de drogas, juntamente com seu companheiro A.N, de 24 anos de idade, tendo sido cumprido outros mandados de busca na casa da presa anteriormente, por ser local conhecido como ponto de venda de droga.&lt;/p&gt;
+&lt;div id="v-zPbtfmwh-1" class="video-player"&gt;&lt;iframe loading="lazy" title="Reprodutor de vídeo VideoPress" src="https://videopress.com/embed/zPbtfmwh?hd=1&amp;amp;cover=1&amp;amp;loop=0&amp;amp;autoPlay=0&amp;amp;permalink=1&amp;amp;muted=0&amp;amp;controls=1&amp;amp;playsinline=0&amp;amp;useAverageColor=0" width="696" height="392" frameborder="0" allowfullscreen="allowfullscreen" aria-label="Reprodutor de vídeo VideoPress" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;p&gt;A.N é egresso do sistema fechado pelo crime de tráfico de drogas e, atualmente, encontra-se inserido no sistema de monitoramento eletrônico.&lt;/p&gt;
+&lt;p&gt;Os presos foram conduzidos a delegacia para lavratura de auto de prisão em flagrante e em seguida colocados a disposição da justiça.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/em-feijo-policia-prende-em-flagrante-dupla-por-trafico-de-drogas-e-apreende-14-mil-reais/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-094539.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gladson Cameli faz quase 20 nomeações e exonerações</t>
+          <t>2022-12-01T07:25:48</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/10/gladson-cameli-faz-quase-20-nomeacoes-e-exoneracoes/</t>
+          <t>PONTO DE VISTA: Salários atrasados em Sena; Que tal o povo aprender a votar?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="554" height="554" src="http://yaconews.com/wp-content/uploads/2022/12/images2852928329.jpeg" alt="" class="wp-image-61334" srcset="http://yaconews.com/wp-content/uploads/2022/12/images2852928329.jpeg 554w, http://yaconews.com/wp-content/uploads/2022/12/images2852928329-300x300.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/12/images2852928329-150x150.jpeg 150w, http://yaconews.com/wp-content/uploads/2022/12/images2852928329-420x420.jpeg 420w" sizes="(max-width: 554px) 100vw, 554px" /&gt;&lt;/figure&gt;
+&lt;p&gt;Bom dia, boa tarde, boa noite:&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;O estado do Acre é movimentado mau politicamente, acaba uma eleição e já se está pensando na próxima, os acordos políticos não param, que o diga Jenilson Leite que após a derrota para o senado já pensa na prefeitura de Rio Branco, precisa trabalhar muito sem contar que ainda precisa enfrentar um dos melhores nomes da política acreana, Emerson Jarude, e o MDB já está com o brilho nos olhos.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;FIDELIDADE&lt;/strong&gt;!&lt;/p&gt;
+&lt;p&gt;Quem anda chateado com as escolhas feitas por alguns candidatos de seu partido é o PSD de Sérgio Petecão, sim ele mesmo, que não demonstra sua fidelidade aos eleitores de seu estado demonstrado isso em algumas votações no senado federal a exemplo o marco do saneamento básico.&lt;br /&gt;Sena Madureira!&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;O vale o IACO respira política, o prefeito Mazinho Serafim anda meio enrolado com os salários dos funcionários atrasados, foi querer agradar seus vereadores agora está perdendo o sono, já não basta os processos que já tem no TCE ainda quer mais? Uma coisa é certa, o homem tem coragem de mamar em onça. Serafim precisará fazer mágica para manter uma das únicas promessas que vinha cumprindo (salários em dia) acho meio difícil fechar as contas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;CMSM&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Na coluna da semana passada tinha falado sobre o projeto da merenda escolar que foi aprovado por unanimidade pelo parlamento mirim, Serafim vetou o mesmo e no dia 30/12/2022 o veto foi a apreciação na Câmara, e um show de horrores foi protagonizado pelos vereadores da base aliada de Mazinho. &lt;/p&gt;
+&lt;p&gt;O mais engraçado de tudo isso foram as tentativas dos aliasdos do prefeito em justificar o injustificável. A falta de preparo dos parlamentares ficou explícito! A maioria nem leu o projeto, pois, se tivessem lido verificariam primeiro se havia recurso pra bancar um café para as crianças.&lt;br /&gt;&lt;/p&gt;
+&lt;p&gt;O presidente da CCJRF foi cirúrgico ao explicar e desmontar os argumentos dos aliados de Serafim já que não se tratava de obrigação de proporcionar o café da manhã e sim quando houvesse recursos proporcionariam a refeição que seria fundamental para a clientela.  Mas o prefeito precisa primeiro garantir os salários dos pais desses alunos para poder proporcionar uma refeição antes de saírem de casa. O problema é de quem não tem nem isso. Triste!&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;PRESIDÊNCIA DA CMSM&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A disputa dentro pelo apoio do prefeito Mazinho para concorrer a presidência da câmara já está grande, o processo de &amp;#8220;queima e derruba o amigo” já começou e acredita-se que quem ganhará essa briga será a vereadora. Deus nos proteja!&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;VETO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O semblante de um vereador na hora da votação do veto não sai do meu campo de visão já que a tristeza saltava aos olhos, não tinham justificativas, pois já tinham votado a favor do projeto.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;RECLAMAÇÃO&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Vários funcionários públicos estão reclamando dos salários atrasados, alguns têm razão, outros não, pois entraram pela janela em época de eleição e tendo quase certeza que isso podia acontecer. Mas como dizem alguns: “É melhor ter pra receber que pra pagar.” Agora aguenta, sem ter a quem reclamar, pois seus padrinhos são vassalos do executivo, ficam chorando aos pés dos únicos que podem fazer, a oposição! Que tal começarmos a aprender a votar?&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;QUE DEUS NOS LIVRE DE TODO MAL&lt;/em&gt;&lt;/strong&gt;!&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/ponto-de-vista-salarios-atrasados-em-em-sena-que-tal-o-povo-aprender-a-votar/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/images2852928329.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
+          <t>2022-11-30T18:07:05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/10/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
+          <t>FPM: prefeituras recebem cerca de R$ 2,8 bi nesta quarta-feira (30), 18,8% a mais do que no mesmo período do ano passado</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61330" src="http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm.jpg" alt="" width="1920" height="1080" srcset="http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm.jpg 1920w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-300x169.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-1024x576.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-768x432.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-1536x864.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-696x392.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-1068x601.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm-747x420.jpg 747w" sizes="(max-width: 1920px) 100vw, 1920px" /&gt;&lt;/p&gt;
+&lt;p&gt;A União vai repassar às prefeituras cerca de 18,8% a mais referentes à terceira parcela de novembro do Fundo de Participação dos Municípios (FPM), nesta quarta-feira (30). Ao todo, os cofres municipais de todo o país vão partilhar mais de R$ 2,8 bilhões. No mesmo período do ano passado, os municípios receberam em torno de R$ 2,3 bilhões.&lt;/p&gt;
+&lt;p&gt;Mesmo se levada em conta a inflação de 6,47% medida pelo IPCA nos últimos 12 meses, as prefeituras vão ter um aumento real de receita de 12,3% a partir do FPM. Já para o Fundo de Manutenção e Desenvolvimento da Educação Básica e de Valorização dos Profissionais da Educação (Fundeb) serão destinados cerca de R$ 707 milhões.&lt;/p&gt;
+&lt;p&gt;Segundo Cesar Lima, especialista em orçamento público, o maior volume de recursos que os municípios vão receber em comparação ao ano passado se deve ao aumento da arrecadação do governo federal com o Imposto de Renda (IR).&lt;/p&gt;
+&lt;p&gt;“A atividade econômica tem melhorado, o nível geral de emprego tem melhorado e tudo isso reflete no FPM, porque o IR é o principal componente. Apesar das desonerações que foram feitas no IPI, nós temos essa curva ascendente do FPM, o que é muito salutar para os nossos municípios”, afirma.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/11/fpm-prefeituras-recebem-cerca-de-r-28-bi-nesta-quarta-feira-30-188-a-mais-do-que-no-mesmo-periodo-do-ano-passado/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/11/16102020_fpm.jpg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+          <t>2022-11-30T17:31:59</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/10/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+          <t>Comissão da câmara federal aprova doação de terras da União para o Acre</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61327" src="http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg" alt="" width="1024" height="768" srcset="http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-300x225.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-768x576.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-696x522.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-560x420.jpeg 560w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-80x60.jpeg 80w, http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-265x198.jpeg 265w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/p&gt;
+&lt;p&gt;O governo do Acre alcançou mais uma vitória visando conseguir que a União doe, para o Estado, 155 mil hectares de terras remanescentes da Gleba Seringal Afluente, entre Feijó e Tarauacá, para implantar uma unidade de conservação sustentável na região. Um projeto de decreto legislativo com esse objetivo foi aprovado pela Comissão de Agricultura, Pecuária, Abastecimento e Desenvolvimento Rural da Câmara dos Deputados, na última quarta-feira, 23.&lt;/p&gt;
+&lt;figure id="attachment_584724" class="wp-caption aligncenter" aria-describedby="caption-attachment-584724"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="size-full wp-image-584724" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26-300x212.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26-768x543.jpeg 768w" alt="" width="1024" height="724" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26-300x212.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26-768x543.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-584724" class="wp-caption-text"&gt;Mapa da área da Gleba Seringal Afluente. Foto: Cedida.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O projeto, de nº 335/21 e que já foi aprovado no Senado, é de autoria da senadora e vice-governadora eleita Mailza Assis da Silva e atende pedido do governo do Acre. “A doação dessas terras para o Estado já tem posição favorável do Ministério da Economia e do Conselho de Defesa Nacional, mas também precisa da aprovação da Câmara, além do Senado, porque abrange área de fronteira”, explicou o representante do governo em Brasília, Ricardo França, que trata do assunto na capital federal.&lt;/p&gt;
+&lt;p&gt;A implantação da unidade de conservação integra ações da segunda fase do Programa de Desenvolvimento Sustentável do Acre, o PDSA II, desenvolvido em parceria com o Banco Interamericano de Desenvolvimento (BID).&lt;/p&gt;
+&lt;p&gt;Conforme Ricardo França, além de contribuir com os objetivos do programa, a implantação da unidade de conservação é compromisso assumido pelo Estado em contrato de empréstimo feito em 2013 junto ao BID, no valor de US$ 120 milhões, sendo US$ 72 milhões financiados pelo banco e US$ 48 milhões de contrapartida do governo.&lt;/p&gt;
+&lt;figure id="attachment_584727" class="wp-caption aligncenter" aria-describedby="caption-attachment-584727"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-584727 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-768x576.jpeg 768w" alt="" width="1024" height="768" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1-768x576.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-584727" class="wp-caption-text"&gt;A implantação da unidade de conservação integra ações da segunda fase do Programa de Desenvolvimento Sustentável do Acre. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O problema, explicou o representante, é que as terras indicadas pelos gestores daquela época para implantar a unidade de conservação pertencem à União, o que inviabiliza a ação. “O governo vem buscando a doação dessas terras para regularizar a situação e poder implantar a unidade, avançando, cada vez mais, no desenvolvimento sustentável do Acre, além de cumprir com o compromisso com o Banco Mundial e evitar que o Estado fique inadimplente”, explica.&lt;/p&gt;
+&lt;h4&gt;Articulações&lt;/h4&gt;
+&lt;p&gt;Foi com esse objetivo que o governo solicitou a apresentação do projeto de decreto legislativo pela senadora Mailza Assis da Silva. “À exemplo da parceria e apoio costumeiro ao governo em favor do Estado, a senadora atendeu o pedido e se empenhou pela aprovação da medida no Senado”, afirmou Ricardo França.&lt;/p&gt;
+&lt;p&gt;A necessidade foi relatada por França para o relator do projeto na Comissão de Agricultura da Câmara, deputado Pedro Lupion, pedindo a urgência e aprovação da proposta, conforme ocorreu na quarta-feira. O projeto ainda será analisado pelas comissões de Finanças e Tributação e de Constituição e Justiça e de Cidadania da Câmara, seguindo depois para análise pelo plenário.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/11/comissao-da-camara-federal-aprova-doacao-de-terras-da-uniao-para-o-acre/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gladson Cameli tem encontro com Bolsonaro e reafirma apoio para a reeleição do presidente</t>
+          <t>2022-11-30T16:14:17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/10/gladson-cameli-tem-encontro-com-bolsonaro-e-reafirma-apoio-para-a-reeleicao-do-presidente/</t>
+          <t>Vereadores da base de Mazinho “mandam pro espaço” Projeto do café da manhã nas Escolas de Sena</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="394" src="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-1024x394.jpg" alt="" class="wp-image-61324" srcset="http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-1024x394.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-300x116.jpg 300w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-768x296.jpg 768w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-696x268.jpg 696w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-1068x411.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058-1090x420.jpg 1090w, http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058.jpg 1280w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
+&lt;p&gt;Um Projeto de Lei de autoria do vereador Pantico (PP) que trata sobre a implantação do café da manhã para estudantes da Rede Municipal de Sena Madureira foi vetado pelo prefeito Mazinho Serafim (UB). Em datas anteriores, o mesmo tinha sido aprovado por unanimidade, em votação na Câmara Municipal.&lt;/p&gt;
+&lt;p&gt;Na noite desta terça-feira (29), os vereadores tiveram a oportunidade de derrubar o veto do prefeito, entretanto, não foi isso o que aconteceu. Com maioria na Câmara, Mazinho conseguiu vencer mais uma e manter o seu veto ao Projeto. Sendo assim, não haverá a oferta do café da manhã para os estudantes.&lt;/p&gt;
+&lt;p&gt;Autor da proposta, o vereador Pantico lamentou a decisão de seus colegas. “Vale frisar que esse Projeto foi aprovado por unanimidade. Agora, os mesmos vereadores que votaram a favor resolveram mudar de ideia e acompanhar o veto do prefeito. Sabemos que muitos alunos são de baixa renda e, por vezes, saem de suas casas, pela manhã, sem tomar café. Assim, não tem como manter o mesmo rendimento daqueles que estão bem alimentados”, frisou.&lt;/p&gt;
+&lt;p&gt;O placar final da votação: 7 votos para manter o veto; 5 votos para derrubar o veto do prefeito.&lt;/p&gt;
+&lt;p&gt;Os vereadores da base do prefeito que votaram pela manutenção do veto: Dos Anjos (MDB), Alípio Gomes (MDB), Ivoneide Bernardino (MDB), Tom (MDB), Carlos Belisa (MDB), Canário (PTB) e Sidiney Araújo (PP). Votaram para derrubar o veto: Elvis Dany (PP), Pantico (PP), José Costa (PTB), Charmes Diniz (PP) e Denis Araújo (PSDB).&lt;/p&gt;
+&lt;p&gt;Ao justificar seu voto, o vereador Dos Anjos, aliado de Mazinho, disse que votou pela manutenção do veto porque buscou informações junto à Prefeitura e não tem recursos para arcar com as despesas do café da manhã para os alunos.&lt;/p&gt;
+&lt;p&gt;Canário também justificou seu voto: “Se o vereador tivesse mostrado de onde vai sair o dinheiro, eu votaria a favor”, disse ele.&lt;/p&gt;
+&lt;p&gt;Com a manutenção do veto, a situação nas escolas da rede municipal de Sena Madureira continua como está, ou seja, sem oferecer o café da manhã para os alunos.&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/11/vereadores-da-base-de-mazinho-mandam-pro-espaco-projeto-do-cafe-da-manha-nas-escolas-de-sena/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/11/IMG-20221130-WA0058.jpg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
+          <t>2022-11-30T17:27:25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+          <t>&lt;strong&gt;Mesa Brasil do Sesc e Fiat Comauto doam 635 quilos de alimentos no mês de novembro&lt;/strong&gt;</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="680" src="https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33-1024x680.jpeg" alt="" class="wp-image-98315" srcset="https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33-1024x680.jpeg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33-300x200.jpeg 300w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33-768x510.jpeg 768w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33-1536x1020.jpeg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.33.jpeg 1600w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
+&lt;p&gt;O Mesa Brasil do Sesc e a Fiat Comauto entregaram, na terça-feira, 29, 635 quilos de alimentos transformados em cestas básicas, a entidades atendidas pelo Programa Mesa Brasil em Rio Branco. Os mantimentos foram coletados por meio da ação “A Paixão Alimenta”, promovida ao longo dos meses de novembro e dezembro.&lt;/p&gt;
+&lt;p&gt;Em novembro, a ação coletou os alimentos não-perecíveis nas próprias concessionárias, de modo que os produtos foram repassados ao Mesa Brasil do Sesc.&lt;/p&gt;
+&lt;p&gt;Duas instituições foram contempladas: a Associação Amigos do Peito, casa de acolhimento que recebeu 341 quilos de alimentos; &amp;nbsp;e a Associação&amp;nbsp; dos Pais e Amigos&amp;nbsp; dos Excepcionais (APAE), com 294 quilos de alimentos não-perecíveis.&lt;/p&gt;
+&lt;p&gt;De acordo com o sócio-administrador da Fiat Comauto, Leonel Soncin Junior, a empresa se compromete com a relevância social.&lt;/p&gt;
+&lt;p&gt;“Desde o início, a marca age em prol de uma mobilidade mais inclusiva, contribuindo para reduzir problemas sociais. Portanto, fazer a diferença é algo que sempre nos acompanhou. O “Paixão Alimenta” foi ao encontro desse propósito”, destaca.&lt;/p&gt;
+&lt;p&gt;A coordenadora do Mesa Brasil no Acre, Marizete Melo, acompanhada pela assistente social do programa, Eliana Lima, reforça que esta é mais uma parceria com frutos.&lt;/p&gt;
+&lt;p&gt;“Quanto mais parceiros, mais pessoas iremos assistir. Neste momento pandêmico, de tantas pessoas que estão passando necessidade, só temos a agradecer e dizer que a base de sustentação do Mesa Brasil são as parcerias. Ficamos muito felizes e estamos aqui hoje fechando essa parceria nacional de sensibilização aos colaboradores e clientes com alimentos não-perecíveis”, finaliza.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="680" src="https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57-1024x680.jpeg" alt="" class="wp-image-98314" srcset="https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57-1024x680.jpeg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57-300x200.jpeg 300w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57-768x510.jpeg 768w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57-1536x1020.jpeg 1536w, https://jornalopiniao.net/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-29-at-12.00.57.jpeg 1600w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/mesa-brasil-do-sesc-e-fiat-comauto-doam-635-quilos-de-alimentos-no-mes-de-novembro/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+          <t>2022-11-30T16:48:23</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+          <t>Ifac tem funcionamento comprometido após bloqueio orçamentário</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O novo bloqueio orçamentário por parte do Governo Federal, anunciado pelo Conselho Nacional das Instituições da Rede Federal (Conif) e que atinge as Instituições de Ensino Superior, trará sérios prejuízos para o Instituto Federal do Acre (Ifac).&lt;/p&gt;
+&lt;p&gt;Realizado na segunda-feira (28.11), em pleno horário do jogo do Brasil na Copa do Mundo, o bloqueio nas contas das instituições de ensino superior do país, atingiu o Ifac no equivalente a R$ 1.939.452,91, em relação a repasses realizados pelo governo federal.&lt;/p&gt;
+&lt;p&gt;Além disso, R$ 3.113.041,39, que são oriundos de Termos de Execução Descentralizada (TED) e que tinham sido definidos para liberação até o final de 2022 com a Secretaria de Educação Profissional, Científica e Tecnológica (Setec), serão bloqueados.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os valores bloqueados mostram que as ações desenvolvidas pelo Ifac nas áreas do Ensino, Pesquisa e Extensão, além do pagamento de segurança, limpeza, energia elétrica, diárias e passagens sofrerão um grande impacto neste final de ano.&lt;/p&gt;
+&lt;p&gt;A reitora Rosana Cavalcante dos Santos e o pró-Reitor de Planejamento e Desenvolvimento Institucional (Prodin), Ubiracy da Silva Dantas, fizeram uma avaliação do impacto no dia a dia da instituição.&lt;/p&gt;
+&lt;p&gt;“Desde as aulas práticas, que terão que ser desmarcadas, até a mudança da Reitoria para o novo prédio, prevista para este final de ano, sofrerão com o bloqueio. Além disso, despesas essenciais para o funcionamento do Ifac estão comprometidas, inviabilizando o papel primordial da nossa instituição, que é oferecer educação pública, gratuita, de qualidade e inclusiva para a sociedade”, destacou Rosana Cavalcante dos Santos.&lt;/p&gt;
+&lt;p&gt;“Estes recursos, oriundos de TEDs, têm destinação certa: a instalação dos Laboratórios IFMaker, aquisição de mobiliários para a nova Reitoria e para a realização de cursos voltados para a Educação de Jovens e Adultos. Com o bloqueio, o Ifac não poderá realizar estas ações, prejudicando não só a instituição, como também a sociedade”, destacou Ubiracy Dantas.&lt;/p&gt;
+&lt;p&gt;Veja abaixo, o quadro com os valores de Termos de Execução Descentralizadas (TED) que o Ifac tem para receber até dezembro de 2022:&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&amp;#8211; Laboratórios IFMaker: R$ 468.499,52&lt;/em&gt;&lt;br&gt;&lt;em&gt;&amp;#8211; Mobiliários para Reitoria: R$ 1.067.541,87&lt;/em&gt;&lt;br&gt;&lt;em&gt;&amp;#8211; Educação de Jovens e Adultos: R$ 1.577.00,00&lt;/em&gt;&lt;br&gt;&lt;strong&gt;&lt;em&gt;&amp;#8211; Total: R$ 3.113.041,39&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Com a decisão do Governo Federal, por meio do Ministério da Educação (MEC), de retirar todos os limites de empenho distribuídos e não utilizados pelas instituições, enquanto define um valor efetivo para o bloqueio orçamentário, o Ifac terá que refazer e reavaliar todos os empenhos.&lt;/p&gt;
+&lt;p&gt;“Diárias e passagens também serão canceladas, caso não tenham sido realizadas, com prejuízo para alguns eventos fundamentais planejados para este final de ano. Vamos rever somente os prioritários e os demais, iremos cancelar”, enfatiza Ubiracy Dantas.&lt;/p&gt;
+&lt;p&gt;Dentre os diversos prejuízos que o Ifac terá, destaca-se, ainda, a perda de contratos e que deverão ser licitados novamente, caso não seja revisto o bloqueio orçamentário.&lt;/p&gt;
+&lt;p&gt;Esta não é a primeira vez que o Ifac e as instituições de ensino superior têm recursos bloqueados. Desde maio deste ano, por exemplo, o Ifac tem sofrido com bloqueios orçamentários.&lt;/p&gt;
+&lt;p&gt;Veja abaixo o histórico de bloqueios em 2022 apresentado pela Prodin:&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://ci5.googleusercontent.com/proxy/NMuuMYmpVdL04CBnDkzTF-mtBrT6WeRqCd67xPvboy_c2D4bfjmE-BOU1YVvH8rX5vaaTNGG_mk0UneYG54cGNBm7Rzc3aD-jyiBpkV7KgysfAZabvNMGIyWiGOu3BiPihnWUECK9GYtl4paGxNGyZ_BItBxP4xXfWXzi8_78kynJPv5RGBVg2ek237xiD09_PBPRhMSM0CA42S_G51W1F208IxZIsMVg42hCv9w7qAuepRKPJ7HpZ4t3HtOBoo=s0-d-e1-ft#https://www.ifac.edu.br/noticias/2022/novembro/ifac-tem-funcionamento-comprometido-apos-bloqueio-orcamentario/unnamed.png/@@images/d78a8ce4-323c-422c-a0ea-a4e47ff07433.png" alt="unnamed.png" title="unnamed.png" /&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8212;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/ifac-tem-funcionamento-comprometido-apos-bloqueio-orcamentario/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
+          <t>2022-11-30T16:44:34</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
+          <t>Comissão da Câmara aprova doação de terras da União para o Acre</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-03-at-10.17.29-1.jpeg?resize=696%2C522&amp;amp;ssl=1" alt="" title="WhatsApp-Image-2021-12-03-at-10.17.29-1" /&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;O governo do Acre alcançou mais uma vitória visando conseguir que a União doe, para o Estado, 155 mil hectares de terras remanescentes da Gleba Seringal Afluente, entre Feijó e Tarauacá, para implantar uma unidade de conservação sustentável na região. Um projeto de decreto legislativo com esse objetivo foi aprovado pela Comissão de Agricultura, Pecuária, Abastecimento e Desenvolvimento Rural da Câmara dos Deputados, na última quarta-feira, 23.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2021-12-05-at-12.23.26.jpeg?w=696" alt="" /&gt;&lt;/figure&gt;
+&lt;p&gt;O projeto, de nº 335/21 e que já foi aprovado no Senado, é de autoria da senadora e vice-governadora eleita Mailza Assis da Silva e atende pedido do governo do Acre. “A doação dessas terras para o Estado já tem posição favorável do Ministério da Economia e do Conselho de Defesa Nacional, mas também precisa da aprovação da Câmara, além do Senado, porque abrange área de fronteira”, explicou o representante do governo em Brasília, Ricardo França, que trata do assunto na capital federal.&lt;/p&gt;
+&lt;p&gt;A implantação da unidade de conservação integra ações da segunda fase do Programa de Desenvolvimento Sustentável do Acre, o PDSA II, desenvolvido em parceria com o Banco Interamericano de Desenvolvimento (BID).&lt;/p&gt;
+&lt;p&gt;Conforme Ricardo França, além de contribuir com os objetivos do programa, a implantação da unidade de conservação é compromisso assumido pelo Estado em contrato de empréstimo feito em 2013 junto ao BID, no valor de US$ 120 milhões, sendo US$ 72 milhões financiados pelo banco e US$ 48 milhões de contrapartida do governo.&lt;/p&gt;
+&lt;p&gt;O problema, explicou o representante, é que as terras indicadas pelos gestores daquela época para implantar a unidade de conservação pertencem à União, o que inviabiliza a ação. “O governo vem buscando a doação dessas terras para regularizar a situação e poder implantar a unidade, avançando, cada vez mais, no desenvolvimento sustentável do Acre, além de cumprir com o compromisso com o Banco Mundial e evitar que o Estado fique inadimplente”, explica.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Articulações&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Foi com esse objetivo que o governo solicitou a apresentação do projeto de decreto legislativo pela senadora Mailza Assis da Silva. “À exemplo da parceria e apoio costumeiro ao governo em favor do Estado, a senadora atendeu o pedido e se empenhou pela aprovação da medida no Senado”, afirmou Ricardo França.&lt;/p&gt;
+&lt;p&gt;A necessidade foi relatada por França para o relator do projeto na Comissão de Agricultura da Câmara, deputado Pedro Lupion, pedindo a urgência e aprovação da proposta, conforme ocorreu na quarta-feira. O projeto ainda será analisado pelas comissões de Finanças e Tributação e de Constituição e Justiça e de Cidadania da Câmara, seguindo depois para análise pelo plenário.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/comissao-da-camara-aprova-doacao-de-terras-da-uniao-para-o-acre/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Em debate, Jorge Viana diz que existe o Acre real, da fome, do caos na saúde pública, da corrupção e o Acre inventado por Gladson Cameli e garante criar o maior programa de obras e infraestrutura para o estado voltar a crescer</t>
+          <t>2022-11-30T16:23:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/em-debate-jorge-viana-diz-que-existe-o-acre-real-da-fome-do-caos-na-saude-publica-da-corrupcao-e-o-acre-inventado-por-gladson-cameli-e-garante-criar-o-maior-programa-de-obras-e-infraestrutura-para/</t>
+          <t>TSE marca diplomação de Lula e Alckmin para 12 de dezembro</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="800" height="533" src="https://jornalopiniao.net/wp-content/uploads/2022/04/tagreuters.com2022binary_LYNXNPEI370UI-BASEIMAGE.jpg" alt="" class="wp-image-91153" srcset="https://jornalopiniao.net/wp-content/uploads/2022/04/tagreuters.com2022binary_LYNXNPEI370UI-BASEIMAGE.jpg 800w, https://jornalopiniao.net/wp-content/uploads/2022/04/tagreuters.com2022binary_LYNXNPEI370UI-BASEIMAGE-300x200.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/04/tagreuters.com2022binary_LYNXNPEI370UI-BASEIMAGE-768x512.jpg 768w" sizes="(max-width: 800px) 100vw, 800px" /&gt;&lt;figcaption class="wp-element-caption"&gt;REUTERS/Carla Carniel&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O Tribunal Superior Eleitoral (TSE) confirmou que a diplomação do presidente eleito, Luiz Inácio Lula da Silva, e do vice-presidente eleito, Geraldo Alckmin, será realizada no dia 12 de dezembro, às 14h, no plenário da Corte. &lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496076&amp;amp;o=node"&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496076&amp;amp;o=node"&gt;&lt;/p&gt;
+&lt;p&gt;A diplomação é uma cerimônia organizada pela Justiça Eleitoral para formalizar a escolha dos eleitos nas eleições e marca do fim do processo eleitoral. Com o diploma eleitoral em mãos, os eleitos podem tomar posse no dia 1° de janeiro de 2023. O documento será assinado e entregue pelo presidente do TSE, ministro Alexandre de Moraes&lt;/p&gt;
+&lt;p&gt;O TSE é responsável pela diplomação dos candidatos à Presidência da República. Os deputados, senadores e governadores são diplomados pelos tribunais regionais eleitorais (TREs).&lt;/p&gt;
+&lt;p&gt;De acordo com o tribunal, a cerimônia seguirá recomendações sanitárias, como uso de máscara de proteção facial e distanciamento social.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/tse-marca-diplomacao-de-lula-e-alckmin-para-12-de-dezembro/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pesquisa Ipec no Acre: Gladson Cameli tem 51% e Jorge Viana 27%</t>
+          <t>2022-11-30T15:25:28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/pesquisa-ipec-no-acre-gladson-cameli-tem-51-e-jorge-viana-27/</t>
+          <t>Presidente em exercício da Aleac, Jenilson recebe MPAC em audiência pública</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="696" height="408" src="https://jornalopiniao.net/wp-content/uploads/2022/11/aleac2022.webp" alt="" class="wp-image-98302" srcset="https://jornalopiniao.net/wp-content/uploads/2022/11/aleac2022.webp 696w, https://jornalopiniao.net/wp-content/uploads/2022/11/aleac2022-300x176.webp 300w" sizes="(max-width: 696px) 100vw, 696px" /&gt;&lt;/figure&gt;
+&lt;p&gt;O presidente em exercício da Assembleia Legislativa do Acre, deputado estadual Jenilson Leite (PSB), conduziu uma audiência pública, na manhã desta quarta-feira (30), com a participação de representantes do Ministérios Público do Acre (MPAC), que apresentaram os projetos que atualmente são desenvolvidos pela Instituição e pedir apoio do legislativo.&lt;/p&gt;
+&lt;p&gt;Representando o procurador-geral do MPAC, Danilo Lovisaro, a doutora Marcela Cristina falou sobre os 127 projetos que o MPAC desenvolve atualmente e pediu a colaboração da Assembleia Legislativa para &lt;/p&gt;
+&lt;p&gt;“Em nome do MP trago hoje a apresentação de projetos institucionais. A elaboração de ideações é a parte em que eu gostaria de pedir, na medida do possível, a colaboração dos senhores para aumentar a capacidade de efetivação dos direitos dos cidadãos. Temos atualmente 127 projetos em andamento, por isso pedimos a atenção para alguns especiais e, assim, possamos efetivá-los da melhor forma”, explicou.&lt;/p&gt;
+&lt;p&gt;Entre os projetos estão o conjunto de ações do GT-TEA, que visa promover o diálogo com a sociedade e poder público, para fazer um diagnóstico da realidade em relação ao atendimento a pessoas autistas no Estado, construindo uma plataforma de trabalho articulada entre diferentes setores.&lt;/p&gt;
+&lt;p&gt;Também o projeto “Proteja Mulher”, que tem como intuito mobilizar e articular os diferentes níveis de governo e sociedade para o reconhecimento acerca da realidade da violência doméstica e do feminicídio, além da elaboração de uma agenda comum para o enfrentamento a essas violações de direitos.&lt;/p&gt;
+&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.09.37.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.09.37.jpeg?resize=696%2C420&amp;amp;ssl=1" alt="" class="wp-image-794693" /&gt;&lt;/a&gt;&lt;/figure&gt;
+&lt;p&gt;O deputado Jenilson parabenizou o MPAC pelas ações desenvolvidas. &lt;/p&gt;
+&lt;blockquote class="wp-block-quote"&gt;
+&lt;p&gt;&amp;#8220;Uma instituição que para além de se preocupar com a sua atividade judicial, que não é pouca coisa está se dispondo a desenvolver um projeto que poderia estar sendo desenvolvido de forma conjunta pela Secretaria Estadual de Saúde juntamente com as secretarias municipais de saúde, que representa mais à frente um resultado que pode levar à criação de um sistema de saúde com a capilarizarão maior, com a capacidade de diagnóstico maior, mais ágil no tempo ainda que as crianças respondem melhor às terapias de forma que daqui alguns anos a gente tenha um estado do Acre com uma política pública voltada para essa área do cuidado com as crianças com transtorno do espectro autista muito mais eficiente, que ao final , as crianças começarem a crescer, elas se beneficiam muito das terapias que são colocadas ainda no início da identificação dos problemas. Então, parabéns ao Ministério Público pela iniciativa”, destacou o presidente.&lt;/p&gt;
+&lt;/blockquote&gt;
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/presidente-em-exercicio-da-aleac-jenilson-recebe-mpac-em-audiencia-publica/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Disputa ao governo tem Gladson Cameli, Mara Rocha, Jorge Viana e Márcio Bittar no páreo</t>
+          <t>2022-11-30T15:17:40</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/disputa-ao-governo-tem-gladson-cameli-mara-rocha-jorge-viana-e-marcio-bittar-no-pareo/</t>
+          <t>Leo de Brito reúne especialistas do Acre e recebe contribuições para a transição do governo Lula</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Os Grupos Técnicos do governo de transição têm adotado a prática de reuniões com representantes de instituições e da sociedade civil para escuta e coleta de propostas que possam contribuir com o novo governo.&lt;/p&gt;
+&lt;p&gt;Neste sentido, o deputado federal Leo de Brito (PT-AC), membro do Grupo Técnico de Ciência, Tecnologia e Inovação da Transição, promoveu nesta terça-feira, 29, um encontro com pesquisadores, especialistas e representantes de diversas instituições do Acre e da sociedade civil para debater os desafios da área.&lt;/p&gt;
+&lt;p&gt;“Reunimos um quórum muito qualificado do nosso estado para discutir a problemática e possíveis soluções para essa área tão importante e estratégica para o desenvolvimento de um país. Uma das recomendações do presidente Lula é de possamos ouvir o máximo de pessoas e receber colaborações para o processo de reconstrução do Brasil”, salientou o parlamentar.&lt;/p&gt;
+&lt;div class="wp-block-image"&gt;
+&lt;figure class="aligncenter"&gt;&lt;img decoding="async" src="https://agazetadoacre.com/wp-content/uploads/2022/11/leo_de_brito-2.jpeg.webp" alt="" class="wp-image-660782" /&gt;&lt;/figure&gt;&lt;/div&gt;
+&lt;p&gt;Leo de Brito, que teve seu nome anunciado pelo coordenador da Transição, vice-presidente eleito Geraldo Alckmin dia 22 de novembro, explicou que o GT da Ciência, Tecnologia e Inovação foi subdividido em 14 áreas e que os trabalhos estão em fase de diagnóstico para compor o relatório final que será entregue na primeira quinzena de dezembro.&lt;/p&gt;
+&lt;p&gt;Representando a Embrapa Acre, o pesquisador Eufran Amaral destacou os prejuízos causados pelo processo de desmonte e os sucessivos cortes de recursos para investimentos em ciência e tecnologia nos últimos anos.&lt;/p&gt;
+&lt;p&gt;“Para se ter uma ideia, hoje a Embrapa Acre trabalha com 30% dos recursos de 10 anos atrás, é urgente a previsibilidade dos recursos para as instituições, assim como investimentos e financiamentos específicos para pesquisa, fortalecimento de laboratórios, entre outras ações estratégicas para essa área, só assim vamos poder contribuir com o desenvolvimento do nosso país”.&lt;/p&gt;
+&lt;p&gt;Josimar Batista, vice-reitor da Universidade Federal do Acre, também deu ênfase aos prejuízos causados pelos contingenciamentos de recursos para a educação e a falta de investimentos para a ciência e a pesquisa.&lt;/p&gt;
+&lt;p&gt;“É urgente a recomposição do fomento para a ciência e tecnologia, também é necessário um olhar diferenciado para a soberania da Amazônia e sua sustentabilidade, assim como forte investimento e melhoria nos nossos laboratórios que hoje estão sucateados, maquinários obsoletos pela falta de fomento. Nós temos um quadro técnico de docentes e pesquisadores qualificados e atuantes, mas que não encontram amparo e apoio para fomento em razão dessa escassez de recursos e falta de investimentos”.&lt;/p&gt;
+&lt;p&gt;Outro ponto levantado pelo vice-reitor da Ufac se refere aos programas de Bolsas Estudantis e a necessidade de restabelecimento de parceria e investimento em pesquisa também por parte do governo do Estado.&lt;/p&gt;
+&lt;p&gt;Participaram do encontro representantes da Universidade Federal do Acre, Embrapa, Instituto Federal do Acre, Sebrae, Tribunal de Contas do Acre, entre outras instituições.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/leo-de-brito-reune-especialistas-do-acre-e-recebe-contribuicoes-para-a-transicao-do-governo-lula/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ney Amorim pode ser o vice de Gladson Cameli&lt;br&gt;se Alan Rick for impedido</t>
+          <t>2022-11-30T12:06:50</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/ney-amorim-pode-ser-o-vice-de-gladson-camelise-alan-rick-for-impedido/</t>
+          <t>Vereador denuncia que duas secretarias municipais de Boca do Acre tiveram energia cortada</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Através de suas redes sociais, o vereador Jansen Almeida, informou que duas secretarias municipais importantes do Poder Executivo de Boca do Acre, tiveram o fornecimento de energia elétrica interrompido, por falta de pagamento. Ou seja, como se diz popularmente, a luz foi cortada nas secretarias de Saúde e Assistência Social.&lt;/p&gt;
+&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="792" src="https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0013-1024x792.jpg" alt="" class="wp-image-98296" srcset="https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0013-1024x792.jpg 1024w, https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0013-300x232.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0013-768x594.jpg 768w, https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0013.jpg 1170w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;figcaption class="wp-element-caption"&gt;Eu&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Outro prédio que é responsabilidade do município e que também teve a energia cortada, é a Rodoviária Municipal, que se tornou ponto oficial dos taxistas que fazem o trajeto Boca do Acre/Rio Branco.&lt;/p&gt;
+&lt;p&gt;Jansen garantiu que tinha todas as confirmações do que estava sendo afirmado. Em suas postagens nas redes sociais, o parlamentar de oposição pedia intervenção estadual urgente, diante da falta de governabilidade do prefeito de Boca do Acre.&lt;/p&gt;
+&lt;p&gt;Em conversa com o Jornal Opinião, Jansen disse que o problema não é só o corte da energia, mas a paralisação de serviços essenciais que são feitos pelas secretarias. &lt;/p&gt;
+&lt;p&gt;O vereador lembrou ainda que a sede do Piquiá da Secretaria Municipal de Cultura, que agora está funcionando em prédio alugado, no Centro da Cidade, também está sem energia elétrica.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/vereador-denuncia-que-duas-secretarias-municipais-de-boca-do-acre-tiveram-energia-cortada/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disputa eleitoral: Márcio Bittar refuta escolha de Alan Rick para vice de Gladson Cameli</t>
+          <t>2022-11-30T12:03:25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/disputa-eleitoral-marcio-bittar-refuta-escolha-de-alan-rick-para-vice-de-gladson-cameli/</t>
+          <t>Depois de passar por transplante de fígado, Michel tem alta da Fundhacre</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="825" height="768" src="https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0012.jpg" alt="" class="wp-image-98293" srcset="https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0012.jpg 825w, https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0012-300x279.jpg 300w, https://jornalopiniao.net/wp-content/uploads/2022/11/IMG-20221130-WA0012-768x715.jpg 768w" sizes="(max-width: 825px) 100vw, 825px" /&gt;&lt;/figure&gt;
+&lt;p&gt;O filho de Boca do Acre, Francisco Michel Fernandes de Souza, 47 anos, mais conhecido no município amazonense somente por “Michel”, recebeu alta da Fundação Hospital Estadual do Acre (FUNDHACRE), após de ter cumprido 11 dias de internação, depois da transplantação de fígado, ou seja, o bocacrense, que tinha seu quadro de saúde bastante agravado, ganhou vida nova após receber o órgão.&lt;/p&gt;
+&lt;p&gt;“Primeiro agradeço a Deus, acima de tudo, em segundo a equipe do transplante, da UTI, das enfermarias, por todo acolhimento e cuidado, e por nunca terem me abandonado. Agora serão dois aniversários, o de nascimento e o de renascimento”, disse Michel.&lt;/p&gt;
+&lt;p&gt;Michel teve o procedimento realizado no último dia 8 de novembro. Francisco Michel é o receptor de número 60, no Acre, a receber um fígado. “O receptor vem retomando aos poucos sua rotina, está sendo uma excelente recuperação, seguindo os devidos cuidados e orientações médicas após o sucesso do seu procedimento cirúrgico. Agora, após sua alta, passa pelo atendimento ambulatorial com a equipe de transplantes”, destaca a coordenadora do transplante de fígado na Fundhacre, enfermeira Valéria Monteiro. &lt;/p&gt;
+&lt;p&gt;O receptor já estava internado na unidade desde o dia 24 de outubro, devido a complicações do quadro clínico. Estava sob os cuidados da equipe de infectologia e assistencial da unidade, agora, pós-transplantado, passa pelo atendimento no ambulatório. “Após a minha alta espero ter muita saúde para poder trabalhar e ter disposição para tocar minha vida normalmente como era anos atrás”, disse o receptor. &lt;/p&gt;
+&lt;p&gt;O ambulatório conta com uma equipe multidisciplinar especializada em transplantes, com atendimento de enfermagem, psicologia e apoio administrativo para agendamento de exames. Toda organização e logística para execução dos transplantes de fígado é um compromisso e cuidado do governo do Estado, que tem atuado de forma assídua, juntamente com as instituições de saúde e equipe do Transplante Hepático do Acre, coordenada pelo cirurgião Tércio Genzini.&lt;/p&gt;
+&lt;p&gt;“Nosso compromisso com a sociedade é de melhoramento dos nossos serviços, com a garantia da assistência à nossa população”, destacou a presidente em exercício da Fundhacre, Duciana Araújo.Michel foi o segundo bocacrense a receber um transplante de fígado no Acre. &lt;/p&gt;
+&lt;p&gt;Antes dele, o também filho de Boca do Acre, Gomes Silva de Souza Campos, 20 anos, também recebeu um órgão saudável, depois de ter sido acometido por uma cirrose hepática causada por consumo excessivo de álcool. O procedimento cirúrgico do jovem aconteceu no mês de maio deste ano.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/depois-de-passar-por-transplante-de-figado-michel-tem-alta-da-fundhacre/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Deputado Alan Rick é escolhido como vice de Gladson Cameli</t>
+          <t>2022-11-30T06:56:17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/deputado-alan-rick-e-escolhido-como-vice-de-gladson-cameli/</t>
+          <t>Alunos da rede municipal de ensino participam de oficina em referência ao Dia da Consciência Negra</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;h1&gt;&lt;/h1&gt;
+&lt;figure class="wp-block-image" id="attachment_64850"&gt;&lt;img decoding="async" src="https://i2.wp.com/www.riobranco.ac.gov.br/wp-content/uploads/2022/11/Dia-da-Consciencia-Negra-1.jpg?resize=650%2C366" alt="" class="wp-image-64850"/&gt;&lt;figcaption class="wp-element-caption"&gt;&lt;em&gt;Data instituída em homenagem ao quilombola brasileiro, Zumbi dos Palmares (Foto: Assecom)&lt;/em&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;No dia 20 de novembro, foi comemorado o Dia da Consciência Negra, instituído como forma de homenagear o quilombola brasileiro, Zumbi dos Palmares. O líder marcou a história pela luta e defesa dos direitos de seu povo. Zumbi faleceu no dia 20 de novembro de 1695.&lt;/p&gt;
+&lt;p&gt;Em alusão à data, foi desenvolvida na semana passada uma oficina no auditório da secretaria municipal de Educação (Seme), com a participação de alunos do 5º ano da Escola Mário Lobão. Na oportunidade, o professor Bruno Vitorino, contou sobre a trajetória de Zumbi dos Palmares e ensinou aos alunos o passo a passo para confeccionarem bonecos(as) guerreiros(as) feitos de materiais recicláveis.&lt;/p&gt;
+&lt;p&gt;De acordo com o professor Bruno, desenvolver esse trabalho como educador visa sempre buscar a questão cultural que existe no Brasil e no mundo.&lt;/p&gt;
+&lt;p&gt;“Quando falamos em Consciência Negra, a gente tem que conscientizar as crianças dessa questão da representatividade. Mas não pode ser algo que obrigue os estudantes a gostarem de tal cultura. A gente tem que, de alguma forma, demonstrar como isso pode ser legal, bonito e atrativo de se fazer”, disse o professor.&lt;/p&gt;
+&lt;p&gt;A professora Pâmela Rodrigues da Escola Municipal Maria Lúcia apresentou um pouco da história da boneca Abayomi. Disse que, segundo as histórias contadas, quando os negros eram capturados e colocados nos navios, muitas vezes as crianças ficavam assustadas com o que estava acontecendo. Então, suas mães, na intenção de acalmá-las, rasgavam tiras de suas vestes e faziam uma boneca. No entanto, quando chegavam a seu destino, muitas vezes eram separadas de sua família e a única lembrança que restava era a boneca de tiras, que, como eram pequenas, as crianças escondiam na mão fechada para ninguém ver e castigar.&lt;/p&gt;
+&lt;p&gt;“Abayomi é um símbolo de proteção, amor, amizade e de resistência, onde depois de muito tempo, algumas famílias acabaram se reencontrando justamente por causa da boneca”, comentou a professora.&lt;/p&gt;
+&lt;p&gt;Para a professora do setor Étnico Racial da Seme, Helenice Brito, trabalhar esse tema com os alunos foi muito especial, principalmente com a questão de ensinar um pouco da história e sobre o porquê do Dia da Consciência Negra. “Do mesmo modo, foi gratificante compartilhar as informações e ver o interesse no olhar de cada um. Isso não tem preço”, declarou.&lt;/p&gt;
+&lt;p&gt;Durante a oficina, alguns servidores também aprenderam a confeccionar a boneca Abayomi.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/alunos-da-rede-municipal-de-ensino-participam-de-oficina-em-referencia-ao-dia-da-consciencia-negra/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Para o Sintae/AC, gestão Gladson Cameli valorizou os trabalhadores administrativos da Educação</t>
+          <t>2022-11-30T06:53:27</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://jornalopiniao.net/para-o-sintae-ac-gestao-gladson-cameli-valorizou-os-trabalhadores-administrativos-da-educacao/</t>
+          <t>MEC divulga prazos para inscrições no Sisu, Prouni e Fies em 2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;h2&gt;&lt;/h2&gt;
+&lt;p&gt;&lt;audio src="https://tts-app.ebc.com.br/media/tts/194279.mp3"&gt;&lt;/audio&gt;&lt;/p&gt;
+&lt;p&gt;O Ministério da Educação (MEC) tornou público os calendários para as inscrições nos primeiros processos seletivos de 2023 do Sistema de Seleção Unificada (Sisu), do Programa Universidade para Todos (Prouni) e do Fundo de Financiamento Estudantil (Fies). A pasta também informou que os três editais, que detalharão o cronograma completo e as regras de cada um, serão publicados em janeiro.&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496069&amp;amp;o=node"&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496069&amp;amp;o=node"&gt;&lt;/p&gt;
+&lt;p&gt;Já o resultado da edição deste ano do Exame Nacional do Ensino Médio (Enem), que interfere nos processos seletivos, será divulgado em fevereiro. Os estudantes poderão ter acesso às suas notas pela internet.&lt;/p&gt;
+&lt;p&gt;As inscrições para o Sisu, dedicado a selecionar estudantes para universidades e instituições públicas de ensino superior em todo o país, serão realizadas entre 28 de fevereiro e 3 de março. A classificação se dá com base no desempenho do Enem de 2022. O resultado final será divulgado em 7 de março.&lt;/p&gt;
+&lt;p&gt;No caso do Prouni, por meio do qual são ofertadas bolsas de estudo para alunos de baixa renda estudarem em universidades particulares, as inscrições se iniciam em 7 de março e se encerram em 10 de março. São válidas para o processo seletivo as notas do Enem de 2022 e de 2021. O resultado da primeira chamada será divulgado em 14 de março e da segunda chamada no dia 28 de março.&lt;/p&gt;
+&lt;p&gt;Já o Fies estará com inscrições abertas entre 14 e 17 de março. Trata-se de um fundo voltado para o financiamento integral ou parcial das mensalidades do curso de escolha do beneficiado. Dessa forma, o aluno pode arcar com custos de forma reduzida ou apenas após completar sua formação. Podem participar do processo seletivo os estudantes que realizaram alguma edição do Enem realizada desde 2010. O resultado da chamada única será conhecido em 21 de março.&lt;/p&gt;
+&lt;p&gt;Todos os processos de inscrição ocorrem exclusivamente pela internet. Ainda não há informações relacionadas ao quantitativo de vagas de cada processo seletivo. O MEC informou que elas serão divulgadas em datas mais próximas à abertura das inscrições.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://jornalopiniao.net/mec-divulga-prazos-para-inscricoes-no-sisu-prouni-e-fies-em-2023/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Deputada Maria Antônia e ex-prefeito Dêda não têm medido esforços para fortalecer as relações com o secretariado do governo Gladson Cameli</t>
+          <t>2022-11-30T19:25:15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica/deputada-maria-antonia-e-ex-prefeito-deda-nao-tem-medido-esforcos-para-fortalecer-as-relacoes-com-o-secretariado-do-governo-gladson-cameli/</t>
+          <t>Ex-prefeito Dêda recebe em seu gabinete assessores do governo Gladson Cameli para uma reunião voltada a governabilidade</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/attachment/ex-prefeito-deda-11/" rel="attachment wp-att-292763"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292763" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg" alt="" width="750" height="420" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-11-300x168.jpg 300w" sizes="(max-width: 750px) 100vw, 750px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Na manhã desta quarta-feira (30), o ex-prefeito Dêda recebeu no seu gabinete político dois assessores do governo para uma reunião política voltada para a discussão sobre as inúmeras demandas do estado e uma possível forma em auxiliar na governabilidade.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Na oportunidade, Dêda falou da importância do diálogo, pois entende que conversando se encontra a solução para muitos problemas, sobretudo o fortalecimento das relações entre os poderes. Dêda pela experiência que tem no meio político tem feito algumas orientações para que as coisas aconteçam da melhor forma possível.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O mesmo completou ainda falando da felicidade e da honra em receber equipes do governo para conversar e trocar ideias sobretudo, tratar dos bastidores da política local no Acre.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/attachment/ex-prefeito-deda-4/" rel="attachment wp-att-292762"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292762" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda.jpg" alt="" width="1200" height="1600" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda.jpg 1200w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-225x300.jpg 225w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-768x1024.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-1152x1536.jpg 1152w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-750x1000.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/ex-prefeito-Deda-1140x1520.jpg 1140w" sizes="(max-width: 1200px) 100vw, 1200px" /&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/ex-prefeito-deda-recebe-em-seu-gabinete-assessores-do-governo-gladson-cameli-para-uma-reuniao-voltada-a-governabilidade/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ainda não deu pitaco: Prestes a assumir o segundo mandato, governador Gladson Cameli ainda não definiu o perfil de seu novo secretariado</t>
+          <t>2022-11-30T19:17:21</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/ainda-nao-deu-pitaco-prestes-a-assumir-o-segundo-mandato-governador-gladson-cameli-ainda-nao-definiu-o-perfil-de-seu-novo-secretariado/</t>
+          <t>Presidente em exercício da Aleac, Jenilson Lride recebe MPAC em audiência pública para debater apoio a projetos</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/presidente-em-exercicio-da-aleac-jenilson-lride-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos/attachment/presidente-em-exercicio-da-aleac-jenilson-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos/" rel="attachment wp-att-292757"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292757" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos-.jpg" alt="" width="1280" height="750" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos-.jpg 1280w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos--300x176.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos--1024x600.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos--768x450.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos--750x439.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos--1140x668.jpg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O presidente em, exercício da Assembleia Legislativa do Acre, deputado estadual Jenilson Leite (PSB), conduziu uma audiência pública, na manhã desta quarta-feira (30), com a participação de representantes do Ministérios Público do Acre (MPAC), que apresentaram os projetos que atualmente são desenvolvidos pela Instituição e pedir apoio do legislativo.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Representando o procurador-geral do MPAC, Danilo Lovisaro, a doutora Marcela Cristina falou sobre os 127 projetos que o MPAC desenvolve atualmente e pediu a colaboração da Assembleia Legislativa para que eles sigam em andamento.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Em nome do MP trago hoje a apresentação de projetos institucionais. A elaboração de ideações é a parte em que eu gostaria de pedir, na medida do possível, a colaboração dos senhores para aumentar a capacidade de efetivação dos direitos dos cidadãos. Temos atualmente 127 projetos em andamento, por isso pedimos a atenção para alguns especiais e, assim, possamos efetivá-los da melhor forma”, explicou.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Entre os projetos estão o conjunto de ações do GT-TEA, que visa promover o diálogo com a sociedade e poder público, para fazer um diagnóstico da realidade em relação ao atendimento a pessoas autistas no Estado, construindo uma plataforma de trabalho articulada entre diferentes setores.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Também o projeto “Proteja Mulher”, que tem como intuito mobilizar e articular os diferentes níveis de governo e sociedade para o reconhecimento acerca da realidade da violência doméstica e do feminicídio, além da elaboração de uma agenda comum para o enfrentamento a essas violações de direitos.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O deputado Jenilson parabenizou o MPAC pelas ações desenvolvidas.”Uma instituição que para além de se preocupar com a sua atividade judicial, que não é pouca coisa está se dispondo a desenvolver um projeto que poderia estar sendo desenvolvido de forma conjunta pela Secretaria Estadual de Saúde juntamente com as secretarias municipais de saúde, que representa mais à frente um resultado que pode levar à criação de um sistema de saúde com a capilarização maior, com a capacidade de diagnóstico maior, mais ágil no tempo ainda que as crianças respondem melhor às terapias de forma que daqui alguns anos a gente tenha um estado do Acre com uma política pública voltada para essa área do cuidado com as crianças com transtorno do espectro autista muito mais eficiente, que ao final , as crianças começarem a crescer, elas se beneficiam muito das terapias que são colocadas ainda no início da identificação dos problemas. Então, parabéns ao Ministério Público pela iniciativa”, destacou o presidente.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/presidente-em-exercicio-da-aleac-jenilson-lride-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos/attachment/presidente-em-exercicio-da-aleac-jenilson-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos-2/" rel="attachment wp-att-292758"&gt;&lt;img loading="lazy" class="aligncenter  wp-image-292758" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos.jpg" alt="" width="959" height="579" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos.jpg 702w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Presidente-em-exercicio-da-Aleac-Jenilson-recebe-MPAC-em-audiencia-publica-para-debater-apoio-a-projetos-300x181.jpg 300w" sizes="(max-width: 959px) 100vw, 959px" /&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/presidente-em-exercicio-da-aleac-jenilson-lride-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ao participar de encontro com presidente Lula, Gladson Cameli dá demonstração de que a eleição acabou e agora é hora de firmar parcerias</t>
+          <t>2022-11-30T16:22:09</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/ao-participar-de-encontro-com-presidente-lula-gladson-cameli-da-demonstracao-de-que-a-eleicao-acabou-e-agora-e-hora-de-firmar-parcerias/</t>
+          <t>Chapa Aliança Por Brasileia apresenta Reinado Gadelha como presidente, Rogério Pontes vice, Jurandir 1º Secretário e Marinete 2º Secretária</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/chapa-alianca-por-brasileia-apresenta-reinado-gadelha-como-presidente-rogerio-pontes-vice-jurandir-1o-secretario-e-marinete-2o-secretaria/attachment/vereadores-do-municipio-de-brasileia/" rel="attachment wp-att-292751"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292751" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia.jpg" alt="" width="750" height="420" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-300x168.jpg 300w" sizes="(max-width: 750px) 100vw, 750px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A disputa que visa a renovação da mesa diretora da Câmara de Vereadores do Município De Brasileia já começou e a primeira chapa já deu a largada ao apresentar nesta quarta-feira (30) o seu Requerimento de Registro Eleitoral à presidência atual que tem como chefe do Poder Legislativo a Vereadora Arlete Amaral.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A chapa I denominada de Aliança Por Brasileia que busca a vitória para o biênio 2023/2024 é composta pelos seguintes vereadores: Reinaldo da Silva Gadelha (Presidente); Rogério Pontes de Souza (Vice-Presidente); Jurandir Queiroz de Oliveira (1º Secretário) e Marinete Mesquita de Castro ( 2º Secretária).&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/chapa-alianca-por-brasileia-apresenta-reinado-gadelha-como-presidente-rogerio-pontes-vice-jurandir-1o-secretario-e-marinete-2o-secretaria/attachment/vereadores-do-municipio-de-brasileia-2/" rel="attachment wp-att-292753"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292753" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2.jpg" alt="" width="1600" height="901" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2.jpg 1600w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-300x169.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-1024x577.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-768x432.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-1536x865.jpg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-750x422.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-2-1140x642.jpg 1140w" sizes="(max-width: 1600px) 100vw, 1600px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Vale destacar que a referida chapa é formada por vereadores de oposição a prefeita Fernanda Hassem. A votação para a escolha da nova mesa diretora deve acontecer durante a realização da última sessão do corrente ano que deverá ocorrer dia 13 de dezembro. Até lá, a chapa concorrente de base da prefeito deve se apresentar.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;Presidente: Reinaldo Gadelha&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;Vice-Presidente: Rogério Pontes&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;1º Secretário: Jurandir Queiroz&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;2º Secretário: Marinete Mesquita&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/chapa-alianca-por-brasileia-apresenta-reinado-gadelha-como-presidente-rogerio-pontes-vice-jurandir-1o-secretario-e-marinete-2o-secretaria/attachment/vereadores-do-municipio-de-brasileia-11/" rel="attachment wp-att-292752"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292752" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11.jpg" alt="" width="1044" height="1464" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11.jpg 1044w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11-214x300.jpg 214w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11-730x1024.jpg 730w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11-768x1077.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11-360x504.jpg 360w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vereadores-do-Municipio-De-Brasileia-11-750x1052.jpg 750w" sizes="(max-width: 1044px) 100vw, 1044px" /&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica/chapa-alianca-por-brasileia-apresenta-reinado-gadelha-como-presidente-rogerio-pontes-vice-jurandir-1o-secretario-e-marinete-2o-secretaria/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli abandona obra de reforma do único Ginásio de Esporte em Marechal Thaumaturgo e gera revolta nos desportistas local</t>
+          <t>2022-11-30T15:12:47</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/governador-gladson-cameli-abandona-obra-de-reforma-do-unico-ginasio-de-esporte-em-marechal-thaumaturgo-e-gera-revolta-nos-desportistas-local/</t>
+          <t>&amp;#8220;Muito me estranha vê servidores aplaudindo uma gestão que lhes roubam, quase R$ 1 milhão da educação desapareceu&amp;#8221;, diz vereadora Marinete</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Veja o Vídeo:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;iframe loading="lazy" title="&amp;quot;Muito me estranha vê servidores aplaudindo uma gestão que lhes roubam,, diz vereadora Marinete." width="740" height="416" src="https://www.youtube.com/embed/En2f0grTLJQ?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Durante a sessão que aconteceu na Câmara de Vereadores do município de Brasileia, a vereadora Marinete Mesquita não poupou palavras para falar da incompetência e irresponsabilidade que pairam sobre a gestão da prefeita Fernanda Hassem.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Marinete destacou que muito lhe estranha vê servidores da educação aplaudindo uma gestão que lhes roubam, a exemplo do que aconteceu no ano de 2021 quando aproximadamente R$ 1 milhão de reais que era para ter sido transformado em abono para a educação, mas ao invés disso simplesmente desapareceu.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Mesquita ressaltou também que a educação não foi a única prejudicada, a Câmara aprovou projetos voltados para os fazedores de cultura, onde era para ter se desenvolvido um projeto no período de comemoração do aniversário da Cidade e nada falou-se. A Câmara também permitiu que a gestão da prefeita Fernanda trabalhasse com mais de R$ 1 milhão de reais no ano de 2022, e a parlamentar se deparou com os servidores da Cultura no gabinete da presidente Arlete Amaral pediu colaboração para que fosse possível fazer um domingo de laser. A pergunta que fica é onde foi parar o dinheiro da cultura?&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Veja o Vídeo:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;iframe loading="lazy" title="&amp;quot;Muito me estranha vê servidores aplaudindo uma gestão que lhes roubam,, diz vereadora Marinete." width="740" height="416" src="https://www.youtube.com/embed/En2f0grTLJQ?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica-destaque/muito-me-estranha-ve-servidores-aplaudindo-uma-gestao-que-lhes-roubam-quase-r-1-milhao-da-educacao-desapareceu-diz-vereadora-marinete/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Deputado bolsonaristas eleito, Coronel Ulysses, é investigado por contrato suspeito de mais de 27 milhões com governo de Gladson Cameli</t>
+          <t>2022-11-30T14:27:59</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/deputado-bolsonaristas-eleito-coronel-ulysses-e-investigado-por-contrato-suspeito-de-mais-de-27-milhoes-com-governo-de-gladson-cameli/</t>
+          <t>Prefeitura ultrapassa marca de 22 pontos de internet via satélite instaladas em localidades rurais de Porto Walter</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica-2/prefeitura-ultrapassa-marca-de-22-pontos-de-internet-via-satelite-instaladas-em-localidades-rurais-de-porto-walter/attachment/prefeitura-de-porto-walter-11/" rel="attachment wp-att-292736"&gt;&lt;img loading="lazy" class="aligncenter  wp-image-292736" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-11.jpg" alt="" width="1013" height="675" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-11.jpg 683w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-11-300x200.jpg 300w" sizes="(max-width: 1013px) 100vw, 1013px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O município de Porto Walter atingiu nesta Quarta-feira (30), a marca de 22 pontos de internet via satélite instaladas em escolas e comunidades rurais de diversas localidades do município após o Prefeito César Andrade criar a Divisão de Tecnologia da Informação, da Secretaria de Educação.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Mais uma ação definiu a instalação de 04 pontos essa semana. Dentro do programa estão sendo contempladas escolas rurais de difícil acesso e comunidades isoladas do município, onde já foram contempladas 22 localidades em apenas 02 anos de gestão do Prefeito César Andrade e do vice Guarsônio Melo.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Segundo o Chefe da DTI, Jhones Correia, o município saiu de 02 para 22 pontos ativos e operantes.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Apenas dois pontos eram ativos, o da Comunidade Besouro e Vitória. E essa preocupação em conectar as comunidades com o mundo tecnológico fez com que a gestão garantisse a reativação de 04 pontos e a instalação de 16 antenas. A meta do Prefeito César é conectar o maior número possível de comunidades”, afirmou.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Para ter acesso à rede mundial de computadores, os moradores da Comunidade Foz do Natal precisavam sair da comunidade e subir o rio até a Comunidade Vitória. Trajeto esse que agora ficou para trás.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Meus filhos já saíram daqui e foram até a Comunidade Vitória para pesquisar, na internet, os trabalhos da escola. Agora eles vão fazer tudo aqui, sem sair de casa. Eu agradeço muito ao Prefeito pelas ações”, comemora Maria.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O Prefeito César Andrade comemorou as conquistas por meio de suas redes sociais.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica-2/prefeitura-ultrapassa-marca-de-22-pontos-de-internet-via-satelite-instaladas-em-localidades-rurais-de-porto-walter/attachment/prefeitura-de-porto-walter-7/" rel="attachment wp-att-292737"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292737" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter.jpg" alt="" width="971" height="1024" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter.jpg 971w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-284x300.jpg 284w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-768x810.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Prefeitura-de-Porto-Walter-750x791.jpg 750w" sizes="(max-width: 971px) 100vw, 971px" /&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/tudo-sobre-politica-2/prefeitura-ultrapassa-marca-de-22-pontos-de-internet-via-satelite-instaladas-em-localidades-rurais-de-porto-walter/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sem pressão depois de uma vitória, Governador Gladson Cameli terá liberdade de sobra para escolher o secretariado do seu novo governo</t>
+          <t>2022-11-30T14:22:06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/sem-pressao-depois-de-uma-vitoria-governador-gladson-cameli-tera-liberdade-de-sobra-para-escolher-o-secretariado-do-seu-novo-governo/</t>
+          <t>Deputada Mara Rocha destina mais de R$ 28 milhões para que o Hospital de Amor possa ampliar sua atuação no Estado</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/deputada-mara-rocha-destina-mais-de-r-28-milhoes-para-que-o-hospital-de-amor-possa-ampliar-sua-atuacao-no-estado/attachment/deputada-mara-rocha-do-acre-brasil-3/" rel="attachment wp-att-292732"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292732" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil.jpg" alt="" width="1920" height="1080" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil.jpg 1920w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-300x169.jpg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-1024x576.jpg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-768x432.jpg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-1536x864.jpg 1536w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-750x422.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/deputada-mara-rocha-do-acre-brasil-1140x641.jpg 1140w" sizes="(max-width: 1920px) 100vw, 1920px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="text-align: center;"&gt;&lt;strong&gt;Mara Rocha destina Emendas de Bancada e Individual e garante atendimento de Quimioterapia na Unidade do Hospital de Amor, no Acre &amp;#8211; Foto: Reprodução&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A Deputada Mara Rocha ocupou a tribuna da Câmara para anunciar a destinação de R$ 25 milhões em emenda de Bancada e mais R$ 3.750.000,00, totalizando R$ 28.750.000,00 para que o Hospital de Amor possa ampliar sua atuação no Estado do Acre.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Com esses recursos, a Unidade do Hospital de Amor no Acre irá levar tratamento quimioterápico, aos mais de mil pacientes acreanos que, atualmente, recebem tratamento no Hospital de Rondônia.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Essa importante notícia acontece após reuniões entre o Vice-Governador do Acre, Major Rocha, a Deputada Mara Rocha e o Presidente do Hospital de Amor, Dr. Henrique Prata. Durante as tratativas, o Vice-Governador solicitou à parlamentar a alocação dos recursos, no que foi atendido.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Com esse recurso o Hospital de Amor do Acre prestará tratamento quimioterápico, permitindo que os pacientes acreanos, que buscam tratamento na unidade do Hospital de Rondônia, possam receber a quimioterapia no seu Estado, ao lado da sua família, com apoio médico e familiar’, enfatizou a Parlamentar.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Segundo Mara Rocha, a intenção era levar além da quimioterapia, o tratamento de Radioterapia para os pacientes oncológicos do Acre, mas, infelizmente, a Radioterapia exige um montante muito maior de recursos para a construção de estrutura hospitalar específica para o procedimento.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Hoje me sinto muito feliz em dar essa excelente notícia para todos os acreanos, que terão acesso mais rápido a tratamentos de ponta, oferecidos por um Hospital, que é referência no tratamento oncológico, lembrando que quem tem câncer tem pressa. Agradeço, ainda, ao Vice-Governador Major Rocha pela iniciativa da proposta e ao Dr. Henrique Prata pelo compromisso em levar o tratamento de quimioterapia para a unidade do Hospital do Amor no Acre”, finalizou Mara Rocha.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/deputada-mara-rocha-destina-mais-de-r-28-milhoes-para-que-o-hospital-de-amor-possa-ampliar-sua-atuacao-no-estado/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>No governo Gladson Cameli, alunos da escola Valéria Bispo Sabala do ramal do 18 estão há 10 dias sem estudar por falta de transporte</t>
+          <t>2022-11-30T14:08:44</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/no-governo-gladson-cameli-alunos-da-escola-valeria-bispo-sabala-do-ramal-do-18-estao-ha-10-dias-sem-estudar-por-falta-de-transporte/</t>
+          <t>Leo de Brito reúne especialistas do Acre para debater Ciência, Tecnologia e Inovação e recebe contribuições para a transição do governo Lula</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/leo-de-brito-reune-especialistas-do-acre-para-debater-ciencia-tecnologia-e-inovacao-e-recebe-contribuicoes-para-a-transicao-do-governo-lula/attachment/leo-de-brito-126/" rel="attachment wp-att-292728"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292728" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Leo-de-Brito.jpg" alt="" width="750" height="420" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Leo-de-Brito.jpg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Leo-de-Brito-300x168.jpg 300w" sizes="(max-width: 750px) 100vw, 750px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Os Grupos Técnicos do governo de transição têm adotado a prática de reuniões com representantes de instituições e da sociedade civil para escuta e coleta de propostas que possam contribuir com o novo governo.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Neste sentido, o deputado federal Leo de Brito (PT-AC), membro do Grupo Técnico de Ciência, Tecnologia e Inovação da Transição, promoveu nesta terça-feira, 29, um encontro com pesquisadores, especialistas e representantes de diversas instituições do Acre e da sociedade civil para debater os desafios da área.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Reunimos um quórum muito qualificado do nosso estado para discutir a problemática e possíveis soluções para essa área tão importante e estratégica para o desenvolvimento de um país. Uma das recomendações do presidente Lula é de possamos ouvir o máximo de pessoas e receber colaborações para o processo de reconstrução do Brasil”, salientou o parlamentar.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Leo de Brito, que teve seu nome anunciado pelo coordenador da Transição, vice-presidente eleito Geraldo Alckmin dia 22 de novembro, explicou que o GT da Ciência, Tecnologia e Inovação foi subdividido em 14 áreas e que os trabalhos estão em fase de diagnóstico para compor o relatório final que será entregue na primeira quinzena de dezembro.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Representando a Embrapa Acre, o pesquisador Eufran Amaral destacou os prejuízos causados pelo processo de desmonte e os sucessivos cortes de recursos para investimentos em ciência e tecnologia nos últimos anos.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“Para se ter uma ideia, hoje a Embrapa Acre trabalha com 30% dos recursos de 10 anos atrás, é urgente a previsibilidade dos recursos para as instituições, assim como investimentos e financiamentos específicos para pesquisa, fortalecimento de laboratórios, entre outras ações estratégicas para essa área, só assim vamos poder contribuir com o desenvolvimento do nosso país”.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Josimar Batista, vice-reitor da Universidade Federal do Acre, também deu ênfase aos prejuízos causados pelos contingenciamentos de recursos para a educação e a falta de investimentos para a ciência e a pesquisa.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;“É urgente a recomposição do fomento para a ciência e tecnologia, também é necessário um olhar diferenciado para a soberania da Amazônia e sua sustentabilidade, assim como forte investimento e melhoria nos nossos laboratórios que hoje estão sucateados, maquinários obsoletos pela falta de fomento. Nós temos um quadro técnico de docentes e pesquisadores qualificados e atuantes, mas que não encontram amparo e apoio para fomento em razão dessa escassez de recursos e falta de investimentos”.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Outro ponto levantado pelo vice-reitor da Ufac se refere aos programas de Bolsas Estudantis e a necessidade de restabelecimento de parceria e investimento em pesquisa também por parte do governo do Estado.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Participaram do encontro representantes da Universidade Federal do Acre, Embrapa, Instituto Federal do Acre, Sebrae, Tribunal de Contas do Acre, entre outras instituições.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica/leo-de-brito-reune-especialistas-do-acre-para-debater-ciencia-tecnologia-e-inovacao-e-recebe-contribuicoes-para-a-transicao-do-governo-lula/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A esperança da população de Rodrigues Alves em ter sua tão sonhada Ponte, vai depender da vitória de Lula, Gladson Cameli e Bolsonaro passaram 4 anos enganando os rodriguesalvenses</t>
+          <t>2022-11-30T10:44:47</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/a-esperanca-da-populacao-de-rodrigues-alves-em-ter-sua-tao-sonhada-ponte-vai-depender-da-vitoria-de-lula-gladson-cameli-e-bolsonaro-passaram-4-anos-enganando-os-rodriguesalvenses/</t>
+          <t>Briga acirrada entre os vereadores Raimundo Neném (PSB) e Raimundo Castro (PSDB) pela presidência da Câmara de Rio Branco</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/briga-acirrada-entre-os-vereadores-raimundo-nenem-e-raimundo-castro-pela-presidencia-da-camara-de-rio-branco/attachment/briga-acirrada-entre-raimundo-nenem-e-raimundo-castro-pela-presidencia-da-camara-de-rio-branco/" rel="attachment wp-att-292718"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292718" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco.jpeg" alt="" width="1080" height="656" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco.jpeg 1080w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco-300x182.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco-1024x622.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco-768x466.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Briga-acirrada-entre-Raimundo-Nenem-e-Raimundo-Castro-pela-presidencia-da-Camara-de-Rio-Branco-750x456.jpeg 750w" sizes="(max-width: 1080px) 100vw, 1080px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A sessão desta quinta-feira (1), escolherá o novo presidente da câmara de vereadores da capital Rio Branco, motivo este que tem gerado uma briga entre os vereadores Raimundo Neném e Raimundo Castro.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fora da disputa pela reeleição o atual presidente N. Lima (PP) foi isolado da possibilidade, acusado de comandar o parlamento com autoritarismo pelos colegas. Na disputa estão Raimundo Neném (PSB) e Raimundo Castro (PSDB), atual líder do prefeito na casa.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Favorito para ganhar a queda de Braço, Raimundo Neném afirma ter apoio da maioria e pode sair da sessão de quinta-feira, como novo presidente do legislativo municipal da capital.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica/briga-acirrada-entre-os-vereadores-raimundo-nenem-psb-e-raimundo-castro-psdb-pela-presidencia-da-camara-de-rio-branco/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>No Governo Gladson Cameli biblioteca pública fecha suas portas em Rio Branco; FEM informou que foi fechada por problemas de ordem técnica</t>
+          <t>2022-11-30T10:30:13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica-destaque/no-governo-gladson-cameli-biblioteca-publica-fecha-suas-portas-em-rio-branco-fem-informou-que-foi-fechada-por-problemas-de-ordem-tecnica/</t>
+          <t>Vote na enquete e escolha os melhores deputados estaduais da última legislatura da Assembleia Legislativa do Acre</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/tudo-sobre-politica/vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-assembleia-legislativa-do-acre/attachment/vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-aleac/" rel="attachment wp-att-292714"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292714" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC.jpeg" alt="" width="1200" height="1196" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC.jpeg 1200w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-300x300.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-1024x1021.jpeg 1024w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-150x150.jpeg 150w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-768x765.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-80x80.jpeg 80w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-75x75.jpeg 75w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-750x748.jpeg 750w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-ALEAC-1140x1136.jpeg 1140w" sizes="(max-width: 1200px) 100vw, 1200px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O Site 3 de Julho fez uma enquete para os nossos leitores opinar sobre quais deputados que foram destaques na Assembleia Legislativa do Acre, na Legislatura que se encerra em janeiro de 2023.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Entre na enquete e vote, para saber quais dos nossos 24 parlamentares estão com melhor desempenho. Ao final da enquete iremos detalhar os cinco mais votados pelos leitores.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;a href="https://www.ferendum.com/pt/PID1779605PSD291714899?_gl=1*1w2kz54*_ga*MzYzMTcyMTIxLjE2Njk3Mjg2Njk.*_ga_338RVXJ5F7*MTY2OTcyODY2OC4xLjEuMTY2OTcyOTQzNy4wLjAuMA.."&gt;Clique aqui na enquete e escolha os melhores deputados&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/tudo-sobre-politica/vote-na-enquete-e-escolha-os-melhores-deputados-estaduais-da-ultima-legislatura-da-assembleia-legislativa-do-acre/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Direção regional do PSD no Acre vai expulsar prefeito, vices e vereadores “traíras” que praticaram infidelidade e apoiaram Gladson Cameli</t>
+          <t>2022-11-30T01:34:43</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://3dejulhonoticias.com.br/politica/direcao-regional-do-psd-no-acre-vai-expulsar-prefeito-vices-e-vereadores-trairas-que-praticaram-infidelidade-e-apoiaram-gladson-cameli/</t>
+          <t>Senador Sérgio Petecão destina R$ 1 milhão para a implementação de um laboratório de análise de solo no Instituto Federal do Acre</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://3dejulhonoticias.com.br/politica/senador-sergio-petecao-destina-r-1-milhao-para-a-implementacao-de-um-laboratorio-de-analise-de-solo-no-instituto-federal-do-acre/attachment/sergio-petecao-destina-r-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-acre/" rel="attachment wp-att-292710"&gt;&lt;img loading="lazy" class="aligncenter size-full wp-image-292710" src="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre.jpeg" alt="" width="900" height="600" srcset="https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre.jpeg 900w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-300x200.jpeg 300w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-768x512.jpeg 768w, https://3dejulhonoticias.com.br/wp-content/uploads/2022/11/Sergio-Petecao-destina-R-1-milhao-para-construcao-de-laboratorio-de-analise-de-solo-no-Acre-750x500.jpeg 750w" sizes="(max-width: 900px) 100vw, 900px" /&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O senador Sérgio Petecão (PSD-AC) anunciou nesta terça-feira (29) que vai destinar R$ 1 milhão para a implementação de um laboratório de análise de solo no Instituto Federal do Acre (Ifac). Segundo o parlamentar, o fato de o Estado do Acre não possui nenhum laboratório de ponta, dificulta a tarefa do produtor agrícola de ter um melhor resultado nas suas colheitas e no pleno aproveitamento da produtividade das terras.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Petecão afirma a intenção de que nos próximos anos o Acre possa desenvolver o seu potencial agropecuário, trazendo mais condições dos pequenos produtores aos grandes empresários do setor que mais contribui para a geração de emprego e renda no país.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;O senador destaca que o Acre possui grande potencial para desenvolver melhor a vocação na produção agrícola e, ao mesmo tempo, assegurar a preservação de áreas de proteção ecológica. “Estive recentemente discutindo as questões climáticas na COP27, e ficou claro que o mundo olha para o Brasil como referência na preservação ambiental.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8220;Temos a missão de contrabalancear essa ideia com a de que também precisamos desenvolver o estado com a geração de empregos e renda provindas da agricultura, além de condições para assegurar saneamento, educação e saúde para as pessoas que moram na Amazônia”, disse.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Segundo a Embrapa, o laboratório de solos é destinado para dar suporte às pesquisas nas áreas de ciência do solo, como a fertilização de culturas agrícolas e pastagens, poluição do solo, manejo e conservação de solos e água, além de contribuir nas áreas de gestão ambiental e manejo florestal.&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://3dejulhonoticias.com.br/politica/senador-sergio-petecao-destina-r-1-milhao-para-a-implementacao-de-um-laboratorio-de-analise-de-solo-no-instituto-federal-do-acre/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>COP27: Governador Gladson Cameli se reúne com investidores americanos e propõe projeto para ampliar o desenvolvimento sustentável</t>
+          <t>2022-12-01T08:50:38</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/cop27-governador-gladson-cameli-se-reune-com-investidores-americanos-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
+          <t>Copa do Mundo: Daniel Alves celebra jogar pela Seleção e diz: &amp;#8216;Se tiver que tocar pandeiro, eu vou ser o melhor pandeirista&amp;#8217;</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Daniel Alves vai ser titular na partida contra o Camarões nesta sexta-feira pela terceira rodada do Grupo G do Mundial. Aos 39 anos, o lateral se tornará o jogador mais velho a representar a Seleção Brasileira em uma Copa do Mundo. Em coletiva nesta quinta-feira, o jogador celebrou a marca.&lt;/p&gt;
+&lt;p&gt;&amp;#8211; Pra mim representa o fato de poder estar vestindo a camisa da Seleção Brasileira. Não importa a competição, se é amistoso… o que importa é representar seu país, disputar uma Copa do Mundo. Pra mim é um motivo de orgulho ainda estar representado a Seleção. São muitos anos e é uma satisfação muito grande poder encerrar este ciclo jogando uma Copa do Mundo &amp;#8211; disse.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O lateral ainda comentou sobre seu papel dentro da Seleção Brasileira e brincou com as críticas que vem recebendo por conta da convocação à Copa do Mundo.&lt;/p&gt;
+&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&amp;#8211; Acho que minha missão na seleção é entregar o meu melhor. São 26 jogadores com capacidade de entregar. Nos dois jogos que eu não estive nosso time foi bem. Esse é o plano passado aqui. Estou a serviço da Seleção Brasileira. Se tiver que tocar pandeiro eu vou ser o melhor pandeirista que você já viu. Às vezes não é só jogar futebol. A Seleção Brasileira vai além do campo. Todo mundo é importante dentro da sua missão. O futebol foi mudando, os jogadores mudaram suas características. Sei o meu momento, sei o que entrego para a seleção, sei que alguns jogadores podem estar melhores &amp;#8211; declarou.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;&lt;strong&gt;Lance!&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/copa-do-mundo-daniel-alves-celebra-jogar-pela-selecao-e-diz-se-tiver-que-tocar-pandeiro-eu-vou-ser-o-melhor-pandeirista/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/10.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli deve se encontrar com Lula durante a COP 27, no Egito</t>
+          <t>2022-12-01T08:32:36</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-deve-se-encontrar-com-lula-durante-a-cop-27-no-egito/</t>
+          <t>Em Rio Branco; artista plástico apresenta exposição Fragmentados</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A exposição Fragmentados, do artista plástico Darci Seles, será inaugurada nesta quinta-feira, 1º, no hall do prédio da Justiça Federal, às 10h da manhã, em Rio Branco.  As obras estarão disponíveis para visitação até o dia 16 de dezembro.&lt;/p&gt;
+&lt;p&gt;Ao todo serão 25 quadros com temáticas variadas. A organização da mostra é da Associação dos Artistas Plásticos (AAP) e conta com parceria da Justiça Federal e da Fundação de Cultura Elias Mansour (FEM), que fica responsável pelo apoio da articulação e montagem da estrutura para apresentação da exposição de Darci Seles.&lt;/p&gt;
+&lt;figure id="attachment_585011" class="wp-caption aligncenter" aria-describedby="caption-attachment-585011"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1.jpeg"&gt;&lt;img decoding="async" class="wp-image-585011 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1-768x1024.jpeg?resize=696%2C928" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1-768x1024.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1-225x300.jpeg 225w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1-1152x1536.jpeg 1152w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-12.45.21-1.jpeg 1200w" alt="" width="696" height="928" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585011" class="wp-caption-text"&gt;A nova mostra é resultado de várias exposições realizadas em locais e datas diferentes. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“&lt;strong&gt;Esta é a segunda exposição que realizo sobre Fragmentados, com esse aparato de obras que fazem partes de outros trabalhos que fiz ao longo dos anos&lt;/strong&gt;”, explica Darci Seles.&lt;/p&gt;
+&lt;h4&gt;Exposição Fragmentados&lt;/h4&gt;
+&lt;p&gt;Fragmentados é o resultado de várias exposições realizadas em locais e datas diferentes, em que Darci Seles expõe a união de obras apresentadas em várias técnicas, estilos e temas, em que o artista transmite cores e alegrias.&lt;/p&gt;
+&lt;h4&gt;Biografia&lt;/h4&gt;
+&lt;p&gt;Darci Seles é natural de Mato Grosso, mas adotou o Acre como sua terra, local em que reside e produz sua arte. Entre suas telas encontram-se diversas técnicas e temas, haja vista o autor ser um estudioso e autodidata.&lt;/p&gt;
+&lt;p&gt;Seles já realizou exposições individuais e coletivas em várias cidades brasileiras e na Áustria, Peru, Tailândia, China e França. Atua também em outras áreas, produzindo cenários, figurinos, maquiagens artísticas e já trabalhou como ator de teatro e cinema.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+&lt;h1 class="entry-title"&gt;&lt;/h1&gt;
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/em-rio-branco-artista-plastico-apresenta-exposicao-fragmentados/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/09.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sobre encontro com Lula: “Estou preparado para ir como Gladson Cameli, governador de todos os acreanos”</t>
+          <t>2022-12-01T08:27:05</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/sobre-encontro-com-lula-estou-preparado-para-ir-como-gladson-cameli-governador-de-todos-os-acreanos/</t>
+          <t>Treinamento: Fundhacre capacita técnicos que atuam nas enfermarias do hospital</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Equipes que compõem o quadro de técnicos de enfermagem e enfermeiros da Fundação Hospital Estadual do Acre (Fundhacre) participaram nesta quarta-feira, 30, de treinamento voltado ao banho no leito a seco para pacientes internados.&lt;/p&gt;
+&lt;p&gt;Essa prática de enfermagem é considerada uma opção terapêutica que apresenta benefícios clínicos aos pacientes, tais como o estímulo à circulação, indução de conforto e relaxamento.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Hoje o treinamento de banho a seco esteve voltado para pacientes acamados e que têm dificuldades para realizar o banho no chuveiro. É um método excelente, que diminui o tempo, e promove qualidade no serviço&lt;/strong&gt;”, disse Wanise Moraes, que atua há 26 anos como enfermeira.&lt;/p&gt;
+&lt;figure id="attachment_585321" class="wp-caption aligncenter" aria-describedby="caption-attachment-585321"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-scaled.jpg"&gt;&lt;img decoding="async" class="wp-image-585321 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-scaled.jpg 2048w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1024x683.jpg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8208-scaled.jpg 2048w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585321" class="wp-caption-text"&gt;Essa prática de enfermagem é considerada uma opção terapêutica que apresenta benefícios clínicos aos pacientes. Fotos: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O treinamento ocorreu nas enfermarias da unidade hospitalar e teve como objetivo mostrar o cuidado que a ferramenta proporciona ao paciente, benefícios como menor tempo de duração e exposição do paciente ao ambiente hospitalar, quando comparado ao banho no leito convencional.&lt;/p&gt;
+&lt;figure id="attachment_585322" class="wp-caption aligncenter" aria-describedby="caption-attachment-585322"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-scaled.jpg"&gt;&lt;img decoding="async" class="wp-image-585322 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-scaled.jpg 2048w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1024x683.jpg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/MG_8198-scaled.jpg 2048w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585322" class="wp-caption-text"&gt;O treinamento ocorreu nas enfermarias da unidade hospitalar e teve como objetivo mostrar o cuidado que a ferramenta proporciona ao paciente. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“&lt;strong&gt;Já tinha visto esse método, achei muito bom. Além da qualidade e tempo, evita bactérias no paciente&lt;/strong&gt;”, disse Francisca Pereira, técnica de enfermagem há 11 anos.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Fonte: Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/treinamento-fundhacre-capacita-tecnicos-que-atuam-nas-enfermarias-do-hospital/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/08.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli se reúne com equipe de secretários e presidentes de autarquias para estabelecer metas do novo governo</t>
+          <t>2022-12-01T08:19:31</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-se-reune-com-equipe-de-secretarios-e-presidentes-de-autarquias-para-estabelecer-metas-do-novo-governo/</t>
+          <t>Manoel Soares chama atenção na web, confira as melhores do apresentador</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Olha E-L-E! Aos 43 anos de idade, o &lt;b data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;,&amp;quot;t&amp;quot;:14}"&gt;&lt;a tabindex="0" href="https://www.instagram.com/p/Cipw2K9OUP3/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:14,&amp;quot;b&amp;quot;:1}"&gt;apresentador&lt;/a&gt;&lt;/b&gt; Manoel Soares está fazendo o maior sucesso no programa matinal, &lt;i&gt;Encontro&lt;/i&gt;. O profissional caiu na graça do público e também faz o maior sucesso em suas redes sociais, onde é seguido por mais de 500 mil internautas. Para quem não sabe, Manoel é um jornalista brasileiro, ativista social e co-fundador da Central Única das Favelas. Alé, disso, ele já escreveu livros para o público infanto-juvenil.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Estrelando&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/manoel-soares-chama-atencao-na-web-confira-as-melhores-do-apresentador/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/07.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
+          <t>2022-12-01T08:08:51</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil-2/</t>
+          <t>Bolsonaristas voltam a deixar o Acre isolado após novos bloqueios na BR-364 em Rondônia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um grupo de manifestantes bolsonaristas que estão acampados às margens da rodovia da BR-364, em Rondônia, em protesto contra o resultado das eleições que ocorreram há um mês, resolveram, mais uma vez, bloquear a rodovia federal em dois trechos no estado vizinho do Acre. A informação foi confirmada pela assessoria da Polícia Rodoviária Federal (PRF) na manhã desta quinta-feira, 1°.&lt;/p&gt;
+&lt;p&gt;De acordo com a nota, o grupo de manifestantes bloqueou trechos nos municípios de Ariquemes e Cacoal, ambos no interior rondoniense.&lt;/p&gt;
+&lt;p&gt;A PRF reiterou também os recentes acontecimentos na região. Segundo os agentes, o local do atropelamento é uma área de concentração de manifestantes, que fica às margens da rodovia. Após o acidente, policiais rodoviários compareceram à área após várias ligações das testemunhas informando que o caminhoneiro teria atropelado uma mulher e fugido sem prestar socorro. A Polícia Militar (PM) em Cacoal também foi acionada e conforme informações preliminares repassadas pela PRF, &amp;#8220;o&lt;strong&gt;s militares localizaram o indivíduo e estão com ele sob custódia, em um bairro próximo ao local do evento crítico&lt;/strong&gt;&amp;#8220;.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/bolsonaristas-voltam-a-deixar-o-acre-isolado-apos-novos-bloqueios-na-br-364-em-rondonia/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/06.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
+          <t>2022-12-01T07:43:18</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/11/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
+          <t>&amp;#8220;Só ele podia ter razão&amp;#8221;: Ana Hickmann desabafa sobre crise na relação</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Ana Hickmann abriu o coração sobre o seu casamento com o empresário Alexandre Correa. Em um vídeo em seu canal no Youtube, a apresentadora da RecordTV relembrou uma crise que enfrentou no início do relacionamento.&lt;/p&gt;
+&lt;p&gt;Sem papas na língua, a famosa contou que os dois brigavam muito no início por conta de suas personalidades fortes. “Quando nos conhecemos, éramos muito jovens. Eu era muito insegura e ele, pelo fato de ter dez anos a mais, achava que só ele podia ter razão”, revelou Hickmann.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Aí foi quando a gente começou a brigar mais&lt;/strong&gt;”, completou a apresentadora. Juntos há mais de 20 anos, Ana Hickmann e o empresário se casaram quando ela tinha apenas 16 anos.&lt;/p&gt;
+&lt;p&gt;Na sequência, ela declarou que os dois eram impacientes na época. “Por cada um tentar colocar o seu lado da moeda e às vezes não saber ouvir o outro lado. Um sem paciência e o outro pavio curto… A gente acaba às vezes falando coisas assim”, explicou a apresentadora.&lt;/p&gt;
+&lt;p&gt;Vale lembrar que o casal oficializou a união no civil no ano de 1988 e, por ser menor de idade, a modelo precisou de autorização de seus pais. Ana Hickmann e Alexandre Correa são pais de Alexandre Júnior, de 8 anos de idade.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Fonte: Jetss&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/so-ele-podia-ter-razao-ana-hickmann-desabafa-sobre-crise-na-relacao/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/05.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>“Sou Bolsonaro de manhã, de tarde e de noite”, diz Gladson Cameli durante megacarreata em apoio à reeleição do presidente</t>
+          <t>2022-12-01T07:38:39</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/10/sou-bolsonaro-de-manha-de-tarde-e-de-noite-diz-gladson-cameli-durante-megacarreata-em-apoio-a-reeleicao-do-presidente/</t>
+          <t xml:space="preserve">Em Rio Branco; Programa Acre pela Vida leva serviços à comunidade do Alto Alegre </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Dia da Família é mais que um momento de brincadeiras no Centro de Educação Infantil David Rodrigues, é uma oportunidade de aproximar a comunidade ao espaço de estudo das crianças, possibilitando tempo de qualidade entre os professores, alunos e familiares. A unidade escolar fica em Rio Branco no bairro Alto Alegre.&lt;/p&gt;
+&lt;p&gt;A atividade realizada nesta quarta-feira, 30, é um evento apoiado pelo Programa Acre pela Vida, uma iniciativa da Secretaria de Justiça e Segurança Pública do Estado do Acre (Sejusp), que visa apoiar e desenvolver ações voltadas para a comunidade.&lt;/p&gt;
+&lt;p&gt;“Este evento é uma atividade cultural que tem o objetivo de promover um dia de recreação às crianças e suas famílias, aproximando a comunidade das forças de segurança”, disse a coordenadora do Acre pela Vida, e atual secretária adjunta da Sejusp, delegada Márdhia El-Shawwa.&lt;/p&gt;
+&lt;p&gt;A mãe de dois filhos, Maria Erlande Barbosa, de 30 anos, fala da importância desses eventos na escola, expondo que nunca perde a oportunidade de estar nesses momentos recreativos.&lt;/p&gt;
+&lt;p&gt;“Procuro sempre estar nesses eventos da escola porque é um momento de entretenimento para as crianças e também para os pais, além da gente poder ficar mais próximo dos professores dos nossos filhos”, disse Erlane.&lt;/p&gt;
+&lt;figure id="attachment_585264" class="wp-caption aligncenter" aria-describedby="caption-attachment-585264"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538.jpg"&gt;&lt;img decoding="async" class="wp-image-585264 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585264" class="wp-caption-text"&gt;Maria Erlande Barbosa com seu filho mais novo, o pequeno Pedro Caleb, de 3 anos. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O momento era de descontração para os pequenos alunos, que variam de 2 a 5 anos de idade, que dançavam ao som da banda de música da Polícia Militar do Estado do Acre (PMAC), conhecida como A Furiosa.&lt;/p&gt;
+&lt;figure id="attachment_585289" class="wp-caption aligncenter" aria-describedby="caption-attachment-585289"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639.jpg"&gt;&lt;img decoding="async" class="wp-image-585289 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585289" class="wp-caption-text"&gt;Banda da PMAC animou a festa. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O Centro de Educação Infantil David Rodrigues faz do Dia da Família uma ação cultural para aproximar os familiares dos alunos à escola, e assim, proporcionar um ambiente de confiança e satisfação para os pequenos. “Se a família está no espaço e interage e demostra afetividade pelos profissionais, automaticamente a criança também vai se sentir segura e acolhida”, explica a diretora do centro, Evaneide Machado.&lt;/p&gt;
+&lt;figure id="attachment_585253" class="wp-caption aligncenter" aria-describedby="caption-attachment-585253"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835.jpg"&gt;&lt;img decoding="async" class="wp-image-585253 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585253" class="wp-caption-text"&gt;Diretora do Centro Educativo Infantil David Rodrigues, Evaneide Machado, acompanhada de alunos e familiares. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Além de proporcionar lanches, músicas e brincadeiras, a ação também contou com a presença do Departamento Estadual de Trânsito (Detran), que ofereceu aos pequenos teatro infantil, momentos de atuação no trânsito, com uma minicidade onde as crianças podiam conduzir um meio de transporte dentro de um perímetro, seguindo as coordenadas de trânsito.&lt;/p&gt;
+&lt;p&gt;A Secretaria de Estado de Assistência Social, dos Direitos Humanos e de Políticas para as Mulheres (SEASDHM), também estava no local. “Estamos fazendo esse trabalho na escola para trazer dignidade, pacificar o bairro, trazendo um trabalho voltado à área de assistência social”, disse a diretora de Direitos Humanos e de Políticas para Mulheres da SEASDHM, Claire Cameli.&lt;/p&gt;
+&lt;figure id="attachment_585259" class="wp-caption aligncenter" aria-describedby="caption-attachment-585259"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605.jpg"&gt;&lt;img decoding="async" class="wp-image-585259 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585259" class="wp-caption-text"&gt;Diretora de Diretor Humanos e de Políticas para Mulheres, Claire Cameli, e a secretária adjunta da Sejusp, Márdhia El-Shawwa. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Além de levar ao conhecimento pautas de assistência social, a SEASDHM também atuou com o Ônibus Lilás, realizando atendimentos de mulheres vítimas de violência, com uma equipe técnica capacitada para atender essas pessoas, incluindo psicólogo, assistente social e técnico da área jurídica, para que as mulheres pudessem ser amparadas e direcionadas.&lt;/p&gt;
+&lt;figure id="attachment_585252" class="wp-caption aligncenter" aria-describedby="caption-attachment-585252"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428.jpg"&gt;&lt;img decoding="async" class="wp-image-585252 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585252" class="wp-caption-text"&gt;Atendimento no Ônibus Lilás. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Outros órgãos também estavam presentes, como a Polícia Civil, oferecendo no local, serviços como, tirar a carteira de identidade, certidão de nascimento, além de um espaço para os pequenos tirarem fotos com objetos da polícia, tendo motos e quadrículos como parte do cenário.&lt;/p&gt;
+&lt;figure id="attachment_585258" class="wp-caption aligncenter" aria-describedby="caption-attachment-585258"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414.jpg"&gt;&lt;img decoding="async" class="wp-image-585258 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585258" class="wp-caption-text"&gt;Emissão da carteira de identidade. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt;"&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/em-rio-branco-programa-acre-pela-vida-leva-servicos-a-comunidade-do-alto-alegre/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/04.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Homenagem a conduta ética de médicos do estado do Acre tem a participação do Governador Gladson Cameli</t>
+          <t>2022-12-01T07:34:02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/10/homenagem-a-conduta-etica-de-medicos-do-estado-do-acre-tem-a-participacao-do-governador-gladson-cameli/</t>
+          <t>Sine Acre disponibiliza 51 vagas de emprego nesta quinta-feira</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Diversas vagas de trabalho estão disponíveis nesta quinta-feira, 01, em Rio Branco, pelo Sistema de Emprego do Acre (Sine). Ao todo são 51 vagas oferecidas.&lt;/p&gt;
+&lt;p&gt;Os interessados precisam ter cadastro junto ao Sine. Aqueles que ainda não têm precisarão levar os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;Lembrando que as vagas são rotativas, ou seja, vale somente para o dia da divulgação.&lt;br /&gt;
+O atendimento ocorre por telefone, por meio do qual o interessado pode verificar se a vaga ainda está disponível. Os números são: (68) 3224-5094 (68) 3224-1519, (68) 3223-6502 ou (68) 0800 647 8182.&lt;/p&gt;
+&lt;p&gt;Se o candidato preferir o atendimento presencial, pode comparecer na Central de Serviço Público – OCA Rio Branco.&lt;/p&gt;
+&lt;figure id="attachment_347912" aria-describedby="caption-attachment-347912" style="width: 984px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="347912" data-permalink="https://ecosdanoticia.net.br/2022/12/sine-acre-disponibiliza-51-vagas-de-emprego-nesta-quinta-feira/03-236/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?fit=984%2C731&amp;amp;ssl=1" data-orig-size="984,731" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="03" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Imagem: Divulgação/Sine Acre&amp;lt;/p&amp;gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?fit=300%2C223&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?fit=696%2C517&amp;amp;ssl=1" decoding="async" class="wp-image-347912 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=696%2C517&amp;#038;ssl=1" alt="" width="696" height="517" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?w=984&amp;amp;ssl=1 984w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=300%2C223&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=768%2C571&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=150%2C111&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=485%2C360&amp;amp;ssl=1 485w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=696%2C517&amp;amp;ssl=1 696w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03.jpg?resize=265%2C198&amp;amp;ssl=1 265w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-347912" class="wp-caption-text"&gt;Imagem: Divulgação/Sine Acre&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/sine-acre-disponibiliza-51-vagas-de-emprego-nesta-quinta-feira/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03a.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>&amp;#8220;Divergências estão superadas, e o que passou, passou!&amp;#8221;, afirmam Gladson Cameli e Tião Bocalom após as eleições</t>
+          <t>2022-12-01T07:28:01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/10/divergencias-estao-superadas-e-o-que-passou-passou-afirmam-gladson-cameli-e-tiao-bocalom-apos-as-eleicoes/</t>
+          <t>Mega-Sena acumula e prêmio pode chegar a R$ 100 milhões</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Nenhuma aposta acertou as seis dezenas do concurso 2.544 da Mega-Sena, cujo prêmio na faixa principal estava estimado em R% 65 milhões. O sorteio foi realizado na noite dessa quarta-feira (30), no Espaço da Sorte, na cidade de São Paulo.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;De acordo com a Caixa, o prêmio para o concurso 2.545, que será realizado no próximo sábado (3), deverá pagar R$ 100 milhões. Foram sorteadas as seguintes dezenas: 25 – 38 – 45 – 53 – 55 – 56.&lt;/p&gt;
+&lt;p&gt;A quina registrou 71 apostas vencedoras, cada uma vai pagar um prêmio de R$ 61.889,52. Já a quadra teve 6.119 ganhadores. Eles vão receber individualmente R$ 1.025,88.&lt;/p&gt;
+&lt;p&gt;As apostas podem ser feitas até as 19h (horário de Brasília) do dia do sorteio, nas casas lotéricas credenciadas pela Caixa, em todo país ou pela internet. A aposta simples, com seis dezenas marcadas, custa R$ 4.50.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/mega-sena-acumula-e-premio-pode-chegar-a-r-100-milhoes/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/02.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente em evento internacional</t>
+          <t>2022-12-01T07:22:44</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/10/governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente-em-evento-internacional/</t>
+          <t>Desigualdades e estigmas prolongam pandemia de Aids</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Atingir o compromisso global de encerrar a pandemia de aids até 2030 passa pelo combate às desigualdades e estigmas que acompanham essa emergência de saúde pública desde o seu surgimento, há 41 anos, destaca o relatório Desigualdades Perigosas, divulgado esta semana pelo Programa das Nações Unidas sobre HIV/Aids (Unaids) para marcar o Dia Mundial de Luta Contra a Aids, celebrado hoje (1°). Especialistas e ativistas reforçam que, mesmo com o avanço dos medicamentos disponíveis, a discriminação contra grupos vulneráves e pessoas que vivem com HIV reduz o acesso à saúde, impede o diagnóstico precoce e causa mortes por aids que poderiam ser evitadas com tratamento.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Em mensagem divulgada para marcar a data de combate à doença, o secretário-geral das Nações Unidas, António Guterres, alertou que o mundo ainda está distante de eliminar a Aids até 2030 e afirmou que as desigualdades perpetuam a pandemia da doença.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;&lt;strong&gt;São necessárias melhores legislações e a implantação de políticas e práticas voltadas para eliminar o estigma e a discriminação que afetam as pessoas que vivem com HIV, sobretudo aquelas em situação de vulnerabilidade. Todas as pessoas têm o direito de ser respeitadas e incluídas&lt;/strong&gt;&amp;#8220;, disse.&lt;/p&gt;
+&lt;p&gt;Segundo o Unaids, 38,4 milhões de pessoas viviam com HIV em todo o mundo em 2021. Esse número é maior que a população do Canadá ou que a soma de todos os habitantes dos estados do Rio de Janeiro e Minas Gerais. No Brasil, o número de pessoas vivendo com HIV passava de 900 mil no ano passado, de acordo com o Ministério da Saúde, e, desse total, cerca de 77% tratavam a infecção com antiretrovirais. A efetividade do tratamento disponível gratuitamente no país é reiterada pelo percentual de 94% de pessoas com carga viral indetectável entre as que fazem uso dos medicamentos contra o HIV. Quando o paciente em tratamento atinge esse nível de carga viral, ele deixa de transmitir o HIV em relações sexuais.&lt;/p&gt;
+&lt;p&gt;Desde o início da pandemia de Aids, em 1980, até dezembro de 2020, o Brasil já teve mais de 1 milhão de casos da doença, que causaram 360 mil mortes. A taxa de detecção vem caindo no Brasil desde o ano de 2012, quando houve 22 casos para cada 100 mil habitantes. Em 2020, essa proporção havia chegado a 14,1 por 100 mil, o que também pode estar relacionado à subnotificação causada pela pandemia de covid-19.&lt;/p&gt;
+&lt;h2&gt;HIV ou Aids?&lt;/h2&gt;
+&lt;p&gt;O vírus da imunodeficiência humana (HIV) é um agente infeccioso que pode entrar no corpo humano por meio do sexo vaginal, oral e anal sem camisinha; por meio do uso de seringas e outros objetos cortantes ou perfurantes contaminados; pela transfusão de sangue contaminado; e da mãe infectada para seu filho durante a gravidez, o parto e a amamentação, se não for realizado o tratamento preventivo. Quando se instala no corpo humano, esse vírus tem um tempo prolongado de incubação, que pode durar vários anos, e sua atividade ataca o sistema imunológico, responsável por defender o organismo. Se essa infecção não for detectada e controlada a tempo com o uso de antirretrovirais, o HIV pode enfraquecer as defesas do corpo humano a ponto de causar a Síndrome da Imunodeficiência Humana (aids). Portanto, a sigla HIV se refere ao vírus, e a sigla Aids, à doença causada pelo agravamento da infecção pelo HIV.&lt;/p&gt;
+&lt;p&gt;O uso de preservativos masculinos e femininos e gel lubrificante estão entre as principais ações preventivas contra o HIV. Também já estão disponíveis a Profilaxia Pré-Exposição (PrEP), que consiste no uso de antirretrovirais para prevenir a infecção caso a pessoa venha a ser exposta ao vírus, e a Profilaxia Pós-Exposição (PEP), que pode impedir a infecção caso seja administrada até 72 horas após a exposição. Mesmo no caso de haver uso dessas profilaxias, a camisinha continua importante, pois previne também outras infecções sexualmente transmissíveis, como a sífilis e as hepatites virais.&lt;/p&gt;
+&lt;p&gt;Ao menos 30 dias após uma possível exposição ao HIV, é fundamental fazer um teste para a detecção do vírus, exame que pode ser realizado em unidades da rede pública e nos centros de Testagem e Aconselhamento (CTA). O diagnóstico precoce da infecção e o início rápido do tratamento protegem o sistema imunológico da pessoa infectada, já que esse será o alvo do HIV quando a carga viral aumentar.&lt;/p&gt;
+&lt;p&gt;Diretor médico associado de HIV da GSK/ViiV Healthcare, Rodrigo Zili explica que os antiretrovirais usados hoje para o tratamento das pessoas que vivem com HIV são menos tóxicos para o corpo humano, causam menos efeitos colaterais e são administrados em quantidade bem menor de comprimidos. A farmacêutica é a fornecedora do Dolutegravir e outros medicamentos usados no Sistema Único de Saúde (SUS) para combater o vírus. Desde 1996, o Brasil distribui gratuitamente os antirretrovirais a todas as pessoas que vivem com HIV e necessitam de tratamento, contando atualmente com 22 medicamentos em 38 apresentações farmacêuticas diferentes.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;O tratamento hoje é muito menos tóxico. Nem se usa mais a palavra coquetel, porque não é um conjunto enorme de remédios como se tinha antigamente. E, se a pessoa descobre o HIV a tempo de não ter desenvolvido a imunodeficiência, ela tem chance muito grande de ter uma vida totalmente normal tomando remédios diariamente&lt;/strong&gt;”, afirma o infectologista. Ele reforça que a pessoa com HIV pode ter expectativa de vida até maior do que pessoas que não foram infectadas pelo vírus. “&lt;strong&gt;Essa pessoa que está em tratamento está acompanhando todas as doenças praticamente. Então, ela faz &lt;em&gt;check-ups&lt;/em&gt; periódicos, faz exames periódicos, tem aconselhamento para manter um estilo de vida saudável, e acaba podendo ter uma vida mais saudável do que alguém que não tem HIV e não faz acompanhamento médico”&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;Mesmo com esses avanços no tratamento contra o HIV e a disponibilidade gratuita dos medicamentos, o acesso à saúde ainda é marcado por desigualdades, pondera Zili. “Por mais que se tenha um programa 100% público, o acesso à informação e aos serviços não é totalmente igualitário”, lembra o infectologista.&lt;/p&gt;
+&lt;h2&gt;Questões sociais&lt;/h2&gt;
+&lt;p&gt;O coordenador do Grupo Pela Vidda-RJ, Márcio Villard, avalia que o combate terapêutico à Aids avançou mais do que a superação dos preconceitos que afetam as pessoas que vivem com HIV. Mesmo com medicamentos menos tóxicos e uma expectativa de vida maior, questões sociais afastam pessoas com HIV de uma vida plena.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Quando a gente fala em qualidade de vida, não pode entender somente a questão terapêutica e biomédica. É preciso também entender as questões sociais que envolvem a pessoa com HIV, porque enfrentamos ainda muitos problemas relacionados a estigmas, preconceitos e exclusão social que interferem na qualidade de vida&lt;/strong&gt;”, afirma. &amp;#8220;&lt;strong&gt;O que acontece é que o HIV sempre traz consigo uma condenação. De alguma forma, a sociedade vai te condenar, seja pelo seu estilo de vida, seja pela sua orientação sexual, seja por você pertencer a um determinado grupo da sociedade. Praticamente ninguém escapa, até uma criança que nasce com HIV vai ser estigmatizada por isso. Infelizmente, esse cenário não mudou&lt;/strong&gt;&amp;#8220;.&lt;/p&gt;
+&lt;p&gt;O ativista explica que a estigmatização das pessoas com HIV tem raízes ligadas à LGBTfobia, já que os primeiros surtos de HIV se deram na população homossexual, bissexual e transexual nos Estados Unidos, e a imprensa da década de 80 reforçou a associação entre a população LGBTI e o HIV, chamando a aids até mesmo de câncer &lt;em&gt;gay&lt;/em&gt;.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Isso começou nos Estados Unidos, se espalhou pelo mundo e acabou virando um selo. Aqui no Brasil, até o ano passado, homossexuais não podiam doar sangue, independentemente de ter ou não o vírus&lt;/strong&gt;”.&lt;/p&gt;
+&lt;p&gt;O Pela Vidda-RJ foi fundado em 1989 pelo sociólogo e ativista Hebert Daniel e atua desde então na luta por direitos das pessoas que vivem com HIV. Às 11h de hoje, o grupo vai promover ato público na Praça Mauá, no centro do Rio de Janeiro, com o tema Viver com o HIV é possível. Com o preconceito, não. Entre as principais demandas atuais da população que vive com HIV, Villard conta que estão a assistência jurídica para garantir direitos previdenciários e trabalhistas. Os problemas incluem processos seletivos que eliminam candidatos que testam positivo para HIV, enquanto essa testagem é vedada por lei em qualquer exame admissional, periódico ou demissional. Fora esses direitos, as pessoas com HIV também procuram a organização não governamental para receber acolhimento afetivo.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;A maior dificuldade ainda é a questão do estigma. Quando a pessoa tem esse diagnóstico, ela tem dificuldade de lidar com ele. E, ao se colocar para a família, no trabalho e para os amigos, vai enfrentar discriminação. São raros os casos em que a pessoa consegue viver tranquilamente, independentemente de sua sorologia&lt;/strong&gt;”.&lt;/p&gt;
+&lt;h2&gt;Angústia e cura&lt;/h2&gt;
+&lt;p&gt;A dificuldade de encontrar informação e acolhimento depois do diagnóstico foi o que moveu o influenciador João Geraldo Netto a compartilhar sua experiência na internet desde 2008.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;&lt;strong&gt;Inicialmente, eu falava de uma maneira mais oculta, não falava especificamente que eu vivia com o vírus. Mas aí eu senti a necessidade de falar sobre isso mais abertamente. Eu descobri que, falando, eu me curava de certa forma. Sentia algo muito positivo quando falava sobre os dramas, os medos que eu tinha de fazer tratamento, de morrer, de adoecer. E eu vi que aquilo era muito bem recebido. Isso foi me dando força&lt;/strong&gt;&amp;#8220;, conta.&lt;/p&gt;
+&lt;p&gt;O jornalista acrescenta que a maioria das pessoas que entram em contato nas redes sociais está angustiada, seja porque acredita que se expôs ao risco de infecção ou porque já recebeu o diagnóstico e está tentando lidar com ele. João Geraldo acredita que o peso social do HIV afasta as pessoas do teste e do diagnóstico precoce, porque muitas não se percebem parte de um suposto grupo social que poderia ser infectado e outras preferem não saber o resultado do teste por medo.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;A questão do preconceito é algo tão forte que atrapalha de fazer o teste, de procurar ajuda e tratamento e impede que a pessoa tome o medicamento todo dia. Então, o grande problema do HIV hoje não é mais um problema clínico, é um problema social&lt;/strong&gt;”, diz. “&lt;strong&gt;As pessoas que chegam ao meu canal mais angustiadas são aquelas que passaram por situação que consideram moralmente errada e acreditam que é uma punição para elas. E a pior punição que elas conseguem imaginar é uma doença como a Aids. Então, isso é muito doloroso, sabe? Porque você vê que está conversando com uma pessoa que acha que a pior coisa que pode acontecer na vida é o que você tem&lt;/strong&gt;”.&lt;/p&gt;
+&lt;p&gt;Em suas postagens nas redes sociais, o influenciador comenta sobre HIV e temas do dia a dia e de sua vida pessoal, como fotos de viagens, reuniões com amigos e declarações de amor ao namorado. Em um de seus perfis, chamado Superindetectável, ele deixa a seguinte mensagem: “&lt;strong&gt;Respira fundo! Pela frente ainda tem muito mundo. Agora pode não estar, mas tudo pode ficar bem&lt;/strong&gt;”.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/desigualdades-e-estigmas-prolongam-pandemia-de-aids/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/01.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli se reúne com equipe de transição para discutir mudanças administrativas do próximo mandato</t>
+          <t>2022-12-01T08:25:44</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/11/noticias/politica/governador-gladson-cameli-se-reune-com-equipe-de-transicao-para-discutir-mudancas-administrativas-do-proximo-mandato/</t>
+          <t>Grupo armado tenta invadir casa de policial militar que reage e atira nos criminosos na Baixada</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um policial militar que não teve a identidade revelada, foi rendido ao chegar em casa, na Baixada, por cerca de cinco homens, na noite desta quarta-feira, 30, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Conforme informações da PM, o militar estava chegando na residência após mais um dia de plantão, quando ouviu uma voz masculina o chamando, e ao se virar, se deparou com cinco homens, que deram ordem para ele colocar as mãos para cima e não reagir. Como ele estava armado, reagiu a tentativa de invasão à residência e começou a atirar nos cinco indivíduos que saíram correndo pelas ruas da região. Os criminosos chegaram no local a pé e fugiram da mesma forma.&lt;/p&gt;
+&lt;p&gt;Imediatamente, o militar pediu ajuda aos vizinhos, que acionaram o Copom e informaram que um policial estava sendo atacado. Rapidamente, várias viaturas foram enviadas até o local da ocorrência para dar suporte ao colega de farda.&lt;/p&gt;
+&lt;p&gt;Na fuga, os bandidos deixaram para trás, algumas sandálias e camisas que eles usavam para esconder o rosto. A polícia acredita ser pessoas que estavam circulando com apoio de algum veículo, mas, quando eles chegaram, eles estavam a pé. Na ação, ninguém se feriu, porque o policial agiu, e não permitiu que os criminosos invadissem a residência onde estava sua família.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/policia/grupo-armado-tenta-invadir-casa-de-policial-militar-que-reage-e-atira-nos-criminosos-na-baixada/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/invasao.jpg</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Na COP 27, Gladson Cameli entrega carta da Amazônia a Lula e destaca sustentabilidade e valorização humana</t>
+          <t>2022-12-01T08:08:10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/11/noticias/658567/</t>
+          <t>Adolescente é executado com tiro na cabeça ao sair da escola em Manoel Urbano</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O adolescente identificado inicialmente apenas por Darlisson, foi vítima de uma execução na tarde dessa quarta-feira, 30, na cidade de Manoel Urbano, interior do Acre, ao sair da escola em que estudava.&lt;/p&gt;
+&lt;p&gt;De acordo com informações repassadas por populares, o adolescentede 15 anos foi morto com um tiro na cabeça ao ser abordado por um criminoso que antes de disparar perguntou se ele fazia parte de alguma facção. O crime ocorreu na região central da cidade.&lt;/p&gt;
+&lt;p&gt;Moradores que testemunharam o crime, acionaram o Serviço de Atendimento Móvel de Urgência (Samu), porém o adolescente foi a óbito antes de receber atendimento médico. Segundo testemunhas, ele tinha envolvimento com facções e já havia tirado fotos segurando arma de fogo.&lt;/p&gt;
+&lt;p&gt;Após cometer o homicídio, o homem saiu correndo e não foi localizado pela polícia. O crime abalou a população do pequeno município.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/policia/adolescente-e-executado-com-tiro-na-cabeca-ao-sair-da-escola-em-manoel-urbano/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/adolescente.jpg</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gladson Cameli se reúne com representantes do governo americano e propõe projeto para ampliar o desenvolvimento sustentável</t>
+          <t>2022-12-01T07:19:39</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/11/noticias/gladson-cameli-se-reune-com-representantes-do-governo-americano-e-propoe-projeto-para-ampliar-o-desenvolvimento-sustentavel/</t>
+          <t>Feira de Quintal reúne 30 expositores de diversos segmentos em sua 7ª edição, neste final de semana em Rio Branco</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Oferecendo aos acreanos uma iniciativa empreendedora com foco no conceito de consumo colaborativo, a 7° edição da Feira de Quintal será promovida no próximo fim de semana, em Rio Branco, nos dias 2 e 3 de dezembro, na Rua Quintino Bocaiúva, 1606, Bosque, das 17 às 21 horas.&lt;/p&gt;
+&lt;p&gt;A feira agrega pequenos empreendedores, dando espaço e promovendo o apoio mútuo para que todos tenham oportunidades de mostrar seus produtos e talentos.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;As experiências trocadas nas seis edições passadas foram muito gratificantes, além de expor, vender e proporcionar renda extra para as pessoas, a gente conseguiu criar um grupo de parceiros onde as pessoas se ajudam, um divulga o trabalho do outro, indica seus serviços, e aos poucos a gente vai criando uma rede de apoio ao pequeno empreendedor&amp;#8221;, explica uma das organizadoras do evento, Emanuelle Fernandes de Souza.&lt;/p&gt;
+&lt;p&gt;Aproximadamente, 30 expositores de segmentos variados — decoração, comidas típicas doces e salgadas, arte, artesanato em madeira, couro, resina e tecido, acessórios, produtos naturais, soluções ecologicamente corretas para o dia-a-dia, plantas, bazares e outlet de roupas femininas — devem participar do evento.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Tem tanta gente fazendo coisas incríveis e com pouca visibilidade. Rio Branco tem artesãos e artesãs que são verdadeiros artistas plásticos, transformando coisas simples em peças únicas e de muita qualidade. As boleiras, doceiras e quituteiras, então, fazem verdadeira alquimia, para driblar os preços altos dos insumos e oferecer produtos gostosos, criativos, com qualidade e a preços acessíveis&amp;#8221;, destaca Emanuelle.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-660833 gallery-columns-2 gallery-size-full'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-2/'&gt;&lt;img width="1156" height="521" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2.jpeg 1156w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-300x135.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-600x270.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-768x346.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-150x68.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-750x338.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-2-1140x514.jpeg 1140w" sizes="(max-width: 1156px) 100vw, 1156px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-1/'&gt;&lt;img width="1280" height="853" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-300x200.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-600x400.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-768x512.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-150x100.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-750x500.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-1-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-12/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-12-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-11/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-11-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-10/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-10-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-9/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-9-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-8/'&gt;&lt;img width="1280" height="853" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-300x200.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-600x400.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-768x512.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-150x100.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-750x500.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-8-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-7/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-7-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-6/'&gt;&lt;img width="1280" height="720" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-300x169.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-600x338.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-768x432.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-150x84.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-750x422.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-6-1140x641.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-5/'&gt;&lt;img width="1280" height="853" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-300x200.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-600x400.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-768x512.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-150x100.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-750x500.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-5-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/attachment/feira-de-quintal-3/'&gt;&lt;img width="1280" height="853" src="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3.jpeg" class="attachment-full size-full" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3.jpeg 1280w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-300x200.jpeg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-600x400.jpeg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-768x512.jpeg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-150x100.jpeg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-750x500.jpeg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-3-1140x760.jpeg 1140w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/feira-de-quintal-reune-empreendimentos-em-sua-setima-edicao-nesta-sexta-feira-e-sabado/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/feira-de-quintal-4.jpeg</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>&amp;#8220;Diminuir o desemprego&amp;#8221;, diz Gladson Cameli sobre o que acredita ser seu maior desafio para o segundo mandato</t>
+          <t>2022-12-01T07:00:21</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/11/noticias/diminuir-o-desemprego-diz-gladson-cameli-sobre-o-que-acredita-ser-seu-maior-desafio-para-o-segundo-mandato/</t>
+          <t>Sine oferta 51 vagas de empregos no Acre, nesta quinta-feira 1º</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com vagas para a capital a acreana, Rio Branco, e também Cruzeiro do Sul, no interior, o Sistema Nacional de Emprego (Sine) oferta 51 oportunidades de emprego, nesta quinta-feira, 1º, para profissionais com nível fundamental, médio e superior e também para pessoas com deficiência (PCD). É exigido no mínimo seis meses de experiência.&lt;/p&gt;
+&lt;p&gt;O candidato a vaga deve atualizar o cadastro no Sine. Quem não tiver cadastro na instituição deve levar os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;O órgão do Governo Federal se dispõe a encaminhar cinco pessoas à empresa contratante, a fim de que o empregador possa escolher aquela que vai preencher a vaga disponibilizada.&lt;/p&gt;
+&lt;p&gt;O atendimento está sendo feito exclusivamente por telefone. Os interessados devem entrar em contato pelos números: (68) 3223-6502; 3224-5094; 3224-1519 ou pelo 0800 647-8182.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone wp-image-660874 size-large" src="https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-600x437.png" alt="" width="600" height="437" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-600x437.png 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-300x218.png 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-768x559.png 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-150x109.png 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-120x86.png 120w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-750x546.png 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1-1140x829.png 1140w, https://agazetadoacre.com/wp-content/uploads/2022/11/sin1.png 1160w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/sine-oferta-51-vagas-de-empregos-no-acre-nesta-quinta-feira-1o/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/soldador.jpg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Após vitória de Lula, Gladson Cameli emite nota e diz que está pronto para trabalhar em &amp;#8216;harmonia&amp;#8217;</t>
+          <t>2022-12-01T07:00:06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/apos-vitoria-de-lula-gladson-cameli-emite-nota-e-diz-que-esta-pronto-para-trabalhar-em-harmonia/</t>
-        </is>
-      </c>
+          <t>Prefeitura Municipal de Rio Branco – Acre – Avisos -01/12/2022</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/Publicacoes-Legais-01-12-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli vota em Cruzeiro do Sul: &amp;#8216;Bolsonaro é a melhor opção para o Acre e o Brasil&amp;#8217;</t>
+          <t>2022-11-30T17:36:39</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/politica/governador-gladson-cameli-vota-em-cruzeiro-do-sul-bolsonaro-e-a-melhor-opcao-para-o-acre-e-o-brasil/</t>
+          <t>Familiares e amigos de paciente do Acre com câncer fazem campanha para custear gastos com o tratamento em RO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Repórter cinematográfico e fotógrafo da Secretaria de Comunicação do Acre (Secom), Pedro Devani, pede ajuda para continuar com o tratamento de saúde da esposa, Mellyssa Ugalde, de 41 anos, diagnosticada com câncer de mama, no início deste ano. Após a análise, ela foi encaminhada do Hospital de Amor de Rio Branco, para a unidade de Porto Velho, onde já foram feitos alguns exames e cirurgia. Mas, ela precisa fazer três meses de quimioterapia.&lt;/p&gt;
+&lt;p&gt;“Foi feita a biópsia, e deu como câncer maligno, a cirurgia foi feita em setembro. Tivemos um retorno em outubro, e outro no começo de novembro, quando foi feito biópsia com o material retirado do seio dela, o nódulo, e deu um resultado positivo para uma proteína que faz a doença se espalhar. Daí, é preciso fazer três meses de quimioterapia, e 15 dias de radioterapia no Hospital de Amor, em Porto Velho”, frisou Devani.&lt;/p&gt;
+&lt;p&gt;O fotógrafo ressaltou que é preciso viajar uma vez por semana à capital rondoniense para fazer as sessões de quimioterapia e radioterapia, e sai muito alto o custo, para ir e voltar.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Por essa razão, os amigos tiveram a ideia de fazer essa vaquinha pelas redes sociais para ajudar no custeio até o Estado vizinho, e também na alimentação. Peço ajuda de todos, pois essa doença está afetando muito a nossa família”, concluiu o fotógrafo.&lt;/p&gt;
+&lt;p&gt;As doações, de qualquer valor, podem ser feitas por meio do PIX: (68) 99955-2905 (Mellyssa Maria Pereira Ugalde)&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/geral/familiares-e-amigos-de-paciente-do-acre-com-cancer-fazem-campanha-para-custear-gastos-com-o-tratamento-em-ro/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/pedro-esposa.jpg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gladson Cameli viaja para Cruzeiro do Sul, onde vota, e manda recado: ‘vamos cumprir nossa obrigação’</t>
+          <t>2022-11-30T17:32:55</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-viaja-para-cruzeiro-do-sul-onde-vota-e-manda-recado-vamos-cumprir-nossa-obrigacao/</t>
+          <t>Neymar faz trabalho em piscina do hotel; Danilo treina no campo e avança em recuperação</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;ENVIADO ESPECIAL A DOHA &amp;#8211; Enquanto &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/tite/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Tite &lt;/b&gt;&lt;/a&gt;comandava um treino fechado à imprensa no gramado do &lt;b&gt;Grand Hamad Stadium&lt;/b&gt;, &lt;a tabindex="0" href="https://tudo-sobre.estadao.com.br/neymar" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Neymar &lt;/b&gt;&lt;/a&gt;permaneceu no hotel em que está hospedada a delegação e deu mais um passo em seu trabalho de recuperação da lesão no tornozelo direito sofrida na estreia da &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-brasileira-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;seleção brasileira&lt;/b&gt;&lt;/a&gt; na &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/copa-do-mundo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Copa do Mundo&lt;/b&gt;&lt;/a&gt;, a vitória por &lt;b&gt;2 a 0&lt;/b&gt; sobre a &lt;a tabindex="0" href="https://tudo-sobre.estadao.com.br/selecao-servia-de-futebol-masculino" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Sérvia&lt;/b&gt;&lt;/a&gt;.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Nas imagens divulgadas pela &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/cbf-confederacao-brasileira-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;CBF&lt;/b&gt;&lt;/a&gt;, Neymar aparece sorrindo e aparentemente relaxado. O atleta fez exercícios na piscina ao lado de &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/Alex-Sandro/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Alex Sandro&lt;/b&gt;&lt;/a&gt;, que teve uma contusão muscular no quadril diante da &lt;a tabindex="0" href="https://tudo-sobre.estadao.com.br/selecao-suica-masculina-de-futebol" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Suíça&lt;/b&gt;&lt;/a&gt;. Ambos não enfrentam &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-camaronesa-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Camarões &lt;/b&gt;&lt;/a&gt;sexta-feira, 2, no &lt;b&gt;Estádio Lusail&lt;/b&gt;, assim como &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/danilo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Danilo&lt;/b&gt;&lt;/a&gt;, outro lesionado.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Neymar e Alex Sandro fizeram exercícios leves na piscina do hotel e aumentaram a esperança da comissão técnica, que está confiante em tê-los no duelo das oitavas de final do Mundial catariano. O trabalho debaixo d’água serve para relaxar o músculo, fortalecer as articulações e aliviar dores.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Neymar relatou à comissão técnica que está se sentindo bem, quase sem dores no tornozelo direito, e que o inchaço diminuiu.&lt;/p&gt;
+&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Ele teve constatada uma lesão ligamentar, além de um pequeno édema ósseo no local, resultado da entrada que sofreu na partida diante da Sérvia. Mesmo machucado, o atacante permaneceu em campo por mais 11 minutos e teve participação no segundo gol de Richarlison.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Desde então, o craque da equipe tem “dormido” na sala de fisioterapia para acelerar o processo de reabilitação para reforçar o Brasil no mata-mata do torneio. Também tem feito uso de aparelhos tecnológicos, como a criosauna e uma bota ortopédica que mistura crioterapia e compressaterapia.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Do trio de machucados da seleção brasileira, Danilo é quem está mais perto de voltar. O lateral-direito, que também teve uma contusão ligamentar em seu tornozelo, mas no esquerdo, já iniciou a transição do departamento médico para o campo nesta quarta-feira. Ele fez exercícios na academia e depois um trabalho separado dos outros atletas no gramado do centro de treinamento sob a supervisão dos preparadores físicos.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Como o Brasil já está garantido nas oitavas depois das vitórias sobre sérvios e suíços, Tite confirmou que usará uma escalação formada somente por reservas diante dos camaroneses. Ele tem três dúvidas sobre quem escalará como segundo volante, meio-campista e centroavante. Basta um ponto para que o time termine na liderança do Grupo G.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/colunistas/guia-gazeta/9o-guia-gazeta/neymar-faz-trabalho-em-piscina-do-hotel-danilo-treina-no-campo-e-avanca-em-recuperacao/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/AA14KqoQ.jpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gladson Cameli cria comissão de transição do governo e nomeia equipe responsável</t>
+          <t>2022-11-30T17:28:15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/gladson-cameli-cria-comissao-de-transicao-do-governo-e-nomeia-equipe-responsavel/</t>
+          <t>Cristiano Ronaldo acerta com novo clube e terá salário de incríveis R$ 1 bilhão por ano, informa jornal</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Ao que parece, o futuro de &lt;a tabindex="0" href="https://somosfanaticos.fans/br/cristiano-ronaldo-t2" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Cristiano Ronaldo&lt;/a&gt; está perto de ser oficializado. O jogador está livre no &lt;a tabindex="0" href="https://somosfanaticos.fans/br/transferencias" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;mercado&lt;/a&gt; desde a última semana, quando, depois de várias polêmicas, teve seu contrato rescindido pelo Manchester United.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Desde então, muito se especula sobre o futuro do jogador, com rumores envolvendo clubes como Chelsea, Newcastle e até mesmo o Barcelona. Porém, de acordo com o jornal Marca, o futuro do craque será bem longe da Europa.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Isso porque, segundo a fonte, Cristiano Ronaldo está prestes a assinar pelo Al-Nassr, da Arábia Saudita. Lá, o português terá um salário de incríveis 200 milhões de euros anuais que, em reais, equivalem a mais de 1 bilhão.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;O jornalista Rodrigo Romano ainda repercute que, em Doha, já dão o acordo do craque como fechado. Cristiano jogará ao lado de nomes como os de David Ospina, Anderson Talisca e Vincent Aboubakar.&lt;/p&gt;
+&lt;div&gt;
+&lt;div class="ck-twitter"&gt;
+&lt;div class="article-clear-div"&gt;&lt;/div&gt;
+&lt;div class="twitter-slot"&gt;
+&lt;div class="twitter-tweet twitter-tweet-rendered"&gt;&lt;iframe id="twitter-widget-0" class="" title="Twitter Tweet" src="https://platform.twitter.com/embed/Tweet.html?dnt=false&amp;amp;embedId=twitter-widget-0&amp;amp;features=eyJ0ZndfdGltZWxpbmVfbGlzdCI6eyJidWNrZXQiOlsibGlua3RyLmVlIiwidHIuZWUiLCJ0ZXJyYS5jb20uYnIiLCJ3d3cubGlua3RyLmVlIiwid3d3LnRyLmVlIiwid3d3LnRlcnJhLmNvbS5iciJdLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X2hvcml6b25fdGltZWxpbmVfMTIwMzQiOnsiYnVja2V0IjoidHJlYXRtZW50IiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9lZGl0X2JhY2tlbmQiOnsiYnVja2V0Ijoib24iLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X3JlZnNyY19zZXNzaW9uIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH0sInRmd19jaGluX3BpbGxzXzE0NzQxIjp7ImJ1Y2tldCI6ImNvbG9yX2ljb25zIiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9yZXN1bHRfbWlncmF0aW9uXzEzOTc5Ijp7ImJ1Y2tldCI6InR3ZWV0X3Jlc3VsdCIsInZlcnNpb24iOm51bGx9LCJ0Zndfc2Vuc2l0aXZlX21lZGlhX2ludGVyc3RpdGlhbF8xMzk2MyI6eyJidWNrZXQiOiJpbnRlcnN0aXRpYWwiLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X2V4cGVyaW1lbnRzX2Nvb2tpZV9leHBpcmF0aW9uIjp7ImJ1Y2tldCI6MTIwOTYwMCwidmVyc2lvbiI6bnVsbH0sInRmd19kdXBsaWNhdGVfc2NyaWJlc190b19zZXR0aW5ncyI6eyJidWNrZXQiOiJvbiIsInZlcnNpb24iOm51bGx9LCJ0ZndfdmlkZW9faGxzX2R5bmFtaWNfbWFuaWZlc3RzXzE1MDgyIjp7ImJ1Y2tldCI6InRydWVfYml0cmF0ZSIsInZlcnNpb24iOm51bGx9LCJ0Zndfc2hvd19ibHVlX3ZlcmlmaWVkX2JhZGdlIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9lZGl0X2Zyb250ZW5kIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH19&amp;amp;frame=false&amp;amp;hideCard=false&amp;amp;hideThread=false&amp;amp;id=1597903100093747202&amp;amp;lang=pt&amp;amp;origin=https%3A%2F%2Fsomosfanaticos.fans%2Fbr%2Ftransferencias%2FCristiano-Ronaldo-acerta-com-novo-clube-e-tera-salario-de-incriveis-R-1-bilhao-mensais-informa-jornal-20221130-0005.html&amp;amp;sessionId=d6b5eb5dee3d84dc479ab7b48f89945500e1f7a1&amp;amp;theme=light&amp;amp;widgetsVersion=a3525f077c700%3A1667415560940&amp;amp;width=550px" frameborder="0" scrolling="no" allowfullscreen="allowfullscreen" data-tweet-id="1597903100093747202" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Porém, a tendência é de que a negociação seja oficializa após o fim da Copa do Mundo para Portugal. A equipe faz uma das melhores campanhas do torneio, tendo sido, ao lado de Brasil e França, o único a vencer os dois primeiros jogos.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;strong&gt;Leitura recomendada:&lt;/strong&gt;&lt;/p&gt;
+&lt;div class="article-list-slot"&gt;
+&lt;ul&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a tabindex="0" href="https://somosfanaticos.fans/br/futeboleuropeu/Gigante-europeu-anuncia-decisao-final-para-a-contratacao-de-Cristiano-Ronaldo-20221129-0025.html?utm_source=msn_com&amp;amp;utm_medium=referral&amp;amp;utm_campaign=must_read" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Gigante europeu anuncia decisão final para a contratação de Cristiano Ronaldo&lt;/a&gt;&lt;/li&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a tabindex="0" href="https://somosfanaticos.fans/br/selecaobrasileira/Bruno-Fernandes-celebra-vitoria-de-Portugal-na-Copa-do-Mundo-e-fala-sobre-primeiro-gol-Era-pra-ser-um-cruzamento-20221128-0041.html?utm_source=msn_com&amp;amp;utm_medium=referral&amp;amp;utm_campaign=must_read" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Bruno Fernandes celebra vitória de Portugal na Copa do Mundo, e fala sobre primeiro gol &amp;#8220;Era pra ser um cruzamento&amp;#8221;&lt;/a&gt;&lt;/li&gt;
+&lt;li data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a tabindex="0" href="https://somosfanaticos.fans/br/transferencias/Descartado-pelo-Real-Madrid-Cristiano-Ronaldo-cogita-dar-troco-e-assinar-com-outro-gigante-espanhol-agente-pressiona-20221128-0021.html?utm_source=msn_com&amp;amp;utm_medium=referral&amp;amp;utm_campaign=must_read" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Descartado pelo Real Madrid, Cristiano Ronaldo cogita &amp;#8216;dar troco&amp;#8217; e assinar com outro g&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/guia-gazeta-2/4o-guia-gazeta/cristiano-ronaldo-acerta-com-novo-clube-e-tera-salario-de-incriveis-r-1-bilhao-por-ano-informa-jornal/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/AA14JAqk.jpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Em evento internacional, Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
+          <t>2022-11-30T17:25:22</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/em-evento-internacional-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
+          <t>Hospital atualiza estado de saúde de Pelé</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Na tarde desta quarta-feira (30), o &lt;strong&gt;Hospital Albert Einstein&lt;/strong&gt; divulgou um boletim médico atualizando o estado de saúde do &lt;strong&gt;Rei do Futebol.&lt;/strong&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Internado desde terça-feira (29), para uma reavaliação, Pelé foi levado está em um “quarto comum, sem necessidade de internação em uma unidade semi-intensiva ou UTI.&amp;#8221;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Segundo o boletim, o &lt;strong&gt;eterno camisa 10 está estável.&lt;/strong&gt; “O ex-jogador está com pleno controle das funções vitais e condição clínica estável”, escreveu a equipe médica.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Mais cedo, a filha do ex-jogador publicou um comunicado tranquilizando fãs, após noticias afirmarem que o ídolo de 82 anos estava com um quadro de saúde preocupante.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;“Olá, amigos. A mídia está surtando novamente e eu quero vir aqui abafar um pouquinho. Meu pai está internado e com a medicação regulada. Não há emergência. Os meus irmãos estão no Brasil e eu irei no Ano Novo. Agradecemos o carinho e o amor que vocês transmitem”, ressaltou Kelly Nascimento.&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;strong&gt;Confira a íntegra do Boletim Médico: &lt;/strong&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;Edson Arantes do Nascimento foi internado no Hospital Israelita Albert Einstein ontem (29) para uma reavaliação do tratamento quimioterápico do tumor de colón identificado em setembro de 2021. &lt;/em&gt;&lt;/p&gt;
+&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;Após avaliação médica, o paciente foi levado a um quarto comum, sem necessidade de internação em uma unidade semi-intensiva ou UTI. O ex-jogador está com pleno controle das funções vitais e condição clínica estável. &lt;/em&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;Dr. Fabio Nasri, geriatra e endocrinologista no Hospital Israelita Albert Einstein &lt;/em&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;Dr. Rene Gansl, oncologista no Hospital Israelita Albert Einstein &lt;/em&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;em&gt;Dr. Miguel Cendoroglo Neto, Diretor-Superinte&lt;/em&gt;&lt;i&gt;ndente Médico e Serviços Hospitalares do&lt;/i&gt;&lt;/p&gt;
+&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;i&gt;Hospital Israelita Albert Einstein&lt;/i&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/guia-gazeta-2/1o-guia-gazeta/hospital-atualiza-estado-de-saude-de-pele/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/AA14KFty-e1669847076348.jpg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+          <t>2022-11-30T17:01:12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://agazetadoacre.com/2022/10/noticias/geral/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+          <t>Sebrae promove Seminário e Rodada de Crédito em Brasileia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Nos dias 29 e 30 de novembro, o Sebrae no Acre realizou Seminário e Rodada de Acesso ao Crédito em Brasileia, por meio do programa Sebrae Mais Finanças. A iniciativa busca auxiliar na ampliação de acesso aos recursos e serviços financeiros, além de promover orientação de gestão financeira, para contribuir na geração de um ambiente de negócios mais competitivo.&lt;/p&gt;
+&lt;p&gt;O evento contou com apoio do Senac, e com a presença das seguintes instituições financeiras: Banco do Brasil, Caixa Econômica Federal, Banco da Amazônia, Bradesco, Sicredi e Sicoob.&lt;/p&gt;
+&lt;p&gt;Obter crédito é a principal dificuldade dos empresários, o que faz com o que o crescimento das empresas fique limitado. Diante disso, o Sebrae atuou para aproximar as empresas locais das instituições financeiras, ofertando também suporte a eles, como consultorias financeiras e atendimentos relacionados a outras áreas de seus negócios.&lt;/p&gt;
+&lt;p&gt;“Essa iniciativa parte de uma necessidade do nosso cliente, que é obter acesso a crédito. Identificamos essa necessidade em pesquisas, e a nossa diretoria técnica nos orientou a buscar as instituições financeiras para que fosse realizado o evento. Convidamos todas as instituições financeiras para participarem, para que o empresário possa obter crédito na medida que ele precisa, atendendo a necessidade que ele tem”, destacou o analista do Sebrae no Acre, Aldemar Maciel.&lt;/p&gt;
+&lt;p&gt;No Seminário de Crédito, os bancos apresentaram seus principais produtos e serviços financeiros aos empresários. Na Rodada de Crédito, foi feita a aproximação do empresário com um agente financeiro, para que ele possa investir em seu negócio ou quitar débitos acumulados.&lt;/p&gt;
+&lt;p&gt;“É uma chance de crescimento, porque o que está faltando para a nossa região é oportunidade, muitas vezes temos um capital de giro muito pequeno e não tem como crescer da forma que queremos. Para mim proposta foi boa, a gente tem uma explicação melhor do que deve ser feito para chegar até o crédito, isso para mim foi muito bom”, declarou o empresário José Nogueira, da Relojoaria Cites-Cel.&lt;/p&gt;
+&lt;p&gt;Os consultores do Sebrae darão suporte e orientações aos empreendedores antes, durante e depois da Rodada de Crédito, para a melhor utilização das opções disponíveis para cada negócio.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone size-large wp-image-660868" src="https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-600x333.jpg" alt="" width="600" height="333" srcset="https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-600x333.jpg 600w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-300x167.jpg 300w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-768x427.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-1536x853.jpg 1536w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-2048x1137.jpg 2048w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-150x83.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-750x417.jpg 750w, https://agazetadoacre.com/wp-content/uploads/2022/11/256A9813-1140x633.jpg 1140w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/11/noticias/sebrae-promove-seminario-e-rodada-de-credito-em-brasileia/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/256A9827-scaled.jpg</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gladson Cameli cria comissão de transição governamental do AC e nomeia integrantes</t>
+          <t>2022-11-30T12:16:31</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/gladson-cameli-cria-comissao-de-transicao-governamental-do-ac-e-nomeia-integrantes/</t>
+          <t>Quatro acusados de asssassinar sargento da PM são absolvidos no Bujari</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;M&lt;/span&gt;ais quatro acusados pelo assassinato do sargento da Polícia Militar Francisco Oliveira de Souza foram absolvidos. A decisão foi do Conselho de Sentença da Vara do Tribunal do Júri do município do Bujari durante sessão realizada na terça-feira, 29.&lt;/p&gt;
+&lt;p&gt;Durante o julgamento, o Promotor Antônio Alcestes, por falta de provas, pediu a absolvição dos quatro réus. Um quinto acusado já havia sido inocentado da acusação em júri realizado há cerca de 3 anos.&lt;/p&gt;
+&lt;p&gt;O sargento da Polícia Militar Francisco Oliveira de Souza foi assassinado a golpes de faca nas costas. O crime aconteceu na noite de 2 de agosto de 2015, no Ramal do Ouro, zona Rural do Bujari.&lt;/p&gt;
+&lt;p&gt;De acordo com informações, o militar tinha ido à região pescar, mas ao ir a um bar da localidade acabou morto após um desentendimento. O militar tinha 15 anos na corporação e na época trabalha no Centro Integrado de Operações de Segurança Pública (CIOSP).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/quatro-acusados-de-asssassinar-sargento-da-pm-sao-absolvidos-no-bujari/</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.42.17.jpeg?fit=768%2C433&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Gladson Cameli, do PP, é reeleito governador do Acre</t>
+          <t>2022-11-30T12:03:29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/gladson-cameli-do-pp-e-reeleito-governador-do-acre/</t>
+          <t>Homem é achado morto a tiros em área de mata no interior do Acre</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-frfm4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;F&lt;/span&gt;rancisco Martins do Nascimento, de 38 anos, foi morto a tiros na noite dessa terça-feira (29), na Travessa Iracema, bairro Democracia, na cidade de Senador Guiomard, no interior do Acre.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-idhs"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Conforme o delegado da cidade, Carlos Bayma, a informação é de que a vítima estava em uma casa com uma outra pessoa para observar a movimentação de integrantes de uma facção rival. Mas, acabaram sendo descobertos e tiveram a casa invadida.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-rknd"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A vítima foi atingida com vários tiros, conseguiu correr em direção a uma área de mata, mas acabou não resistindo aos ferimentos. Uma equipe do Serviço de Atendimento Móvel de Urgência (Samu) foi acionada, mas apenas constatou o óbito.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-coht4"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7bku"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="68" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Estamos com a investigação em andamento. O que temos até agora é isso, que se trata de conflito entre facções criminosas. Pelo que levantamos, no mínimo, duas pessoas participaram desse homicídio. Como foi encontrado sangue em um local oposto ao que a vítima foi achada, nós acreditamos que havia uma outra pessoa com ele e que também ficou ferida. Mas, ela ainda não foi localizada”, disse o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-4bafi"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="44" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O local do crime foi isolado para o trabalho da perícia e o corpo da vítima foi levado ao Instituto Médico Legal (IML) de Rio Branco para os devidos procedimentos. Até a manhã desta quarta (30) ninguém tinha sido preso suspeito do homicídio.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="9"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Gabinete de crise&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cg7rg"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A Segurança Pública confirmou, na sexta-feira (25), que o estado acreano voltava a sofrer com ondas de violência devido à guerra de facções. Segundo a Secretaria de Justiça e Segurança Pública, grupos criminosos estão disputando território.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3uei0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Por conta da situação, a Sejusp instalou um gabinete de crise para acompanhar, concentrar e desenvolver melhor os casos no estado. O gabinete foi instalado na segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/homem-e-achado-morto-a-tiros-em-area-de-mata-no-interior-do-acre/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-30-at-08.09.26.webp?fit=984%2C587&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Pesquisa Ipec no Acre: Gladson Cameli tem 54% e Jorge Viana 25%</t>
+          <t>2022-11-30T12:01:22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/pesquisa-ipec-no-acre-gladson-cameli-tem-54-e-jorge-viana-25/</t>
+          <t>Flanelinha é assassinado a facadas em frente ao Pronto-Socorro de Rio Branco</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-3iqqg"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; flanelinha João Paulo Camelo de Souza, de 38 anos, foi assassinado na madrugada desta quarta-feira (30) na Avenida Getúlio Vargas, em frente ao Pronto Socorro de Rio Branco.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-5mo9r"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="55" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O delegado Lucas Pereira, da Delegacia de Homicídio e Proteção à Pessoa, disse que, a princípio, o crime não teria ligação foi facções criminosas. Mas, que ainda não está descartada nenhuma hipótese. Ele também afirmou que já tem qual a motivação do crime, mas que prefere não divulgar no momento para não atrapalhar as investigações.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-9rt3o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="59" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“A equipe de pronto emprego da Polícia Civil compareceu ao local dos fatos, realizou as diligências preliminares, a perícia também esteve lá e, com base nos dados colhidos, nós instauramos o inquérito policial para dar seguimento às investigações. Já constatamos a motivação do crime e em breve estaremos com autoria identificada e tomando as medidas cabíveis”, afirmou o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-e4lbv"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-kfe1"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Próximo ao corpo da vítima foram encontradas duas facas de serrinha que podem ter sido usadas no crime. Após o trabalho da perícia, Souza foi levado ao Instituto Médico Legal (IML) da capital.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/flanelinha-e-assassinado-a-facadas-em-frente-ao-pronto-socorro-de-rio-branco/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/iml-1.webp?fit=984%2C738&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Governador do Acre, Gladson Cameli, registra sua candidatura para tentar reeleição</t>
+          <t>2022-11-30T11:59:37</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/governador-do-acre-gladson-cameli-registra-sua-candidatura-para-tentar-reeleicao/</t>
+          <t>Em ação para conter avanço da violência, polícia prende três membros de organização criminosa no AC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-77lsi"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Acre tem registrado o aumento da violência nos últimos dias devido à guerra de facções criminosas por território no estado. Desde a semana passada, houve aumento das execuções, ataques, tentativas de homicídios e assaltos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-4bs7n"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O ápice foi no sábado (26), quando Rio Branco teve uma noite violenta. A Secretaria de Justiça e Segurança Pública (Sejusp) implantou um gabinete de crise, onde concentra o efetivos das polícias e traça metas para conter o avanço do crime no estado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b03tg"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="7"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b7ekh"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="25" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em uma das ações, nessa terça-feira (29), delegacias de forma integrada cumpriram mandados judiciais contra organizações criminosas e prenderam três membros do crime organizado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f077c"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="24" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Pedro Paulo Buzolin, diretor de Polícia Civil da Capital e do Interior (DPCI), disse que oito mandados de busca e apreensão foram cumpridos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-a1a5f"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="100" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Uma ação conjunta de algumas delegacias da Polícia Civil, entre elas a Draco [Delegacia de Repressão às Ações Criminosas Organizadas]; a Denarc [ Delegacia de Repressão ao Narcotráfico] e a DHPP [Delegacia de Homicídios e Proteção à Pessoa] lograram êxito em prender três pessoas em flagrante durante cumprimento de oito ordens judiciais de busca e apreensão. Esses mandados foram cumpridos, parte deles no bairro Taquari, pela parte da manhã e à tarde realizamos uma ação na Cidade do Povo, onde prendemos duas pessoas em flagrante delito pelos crimes de integrar organização criminosa e posso ilegal de munições”, destaca.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ff189"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="25" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A operação, segundo o delegado, faz parte das medidas tomadas pelo gabinete de crise para identificar e prender os mandantes e executores do crime.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8rfkc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="57" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“São ações que foram desencadeadas para tentar conter essa onda de violência que vem ocorrendo no estado do Acre. Essas ações enfraquecem as organizações criminosas, retira de circulação o poder bélico dessas organizações e, com certeza, a Polícia Civil e Militar irão intensificar as ações neste final de ano para trazer tranquilidade à população acreana”, destaca.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7hp11"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="13"&gt;
+&lt;div id="banner_materia__d9cbc1c7-055e-4a09-a015-67ff77be7f85" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__d9cbc1c7-055e-4a09-a015-67ff77be7f85" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b3n2n"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="37" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ele diz ainda que as pessoas presas já tinham passagem pela polícia e estavam envolvidas diretamente em ações criminosas. “Esse ápice de violência, essas mortes demonstram desentendimento das organizações, a busca por domínio de território”, pontua.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="15"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Gabinete de crise&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-68f71"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="16"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A Secretaria de Justiça e Segurança Pública do Acre informou que instalou um gabinete de crise para acompanhar concentrar e desenvolver melhor os casos no estado. O gabinete foi instalado na segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3k1ae"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="29" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A DHPP fica focada em investigar os casos de homicídio e prender quem orquestra os ataques, mas o delegado destacou que, paralelo a isso, outra medidas são tomadas.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Mortes&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-n4rv"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="84" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Kennedy Rafael dos Santos, de 19 anos, foi morto a tiros no sábado (26). Populares informaram à polícia que a vítima estava de moto, quando foi &amp;#8220;fechada&amp;#8221; por um carro preto, ouviram cerca de 5 disparos e viram duas pessoas correndo para esse carro preto e saindo rapidamente do local. Uma moradora que se encontrava em frente onde ocorreu o homicídio foi atingida de raspão na região do quadril. Ela foi atendida pelo Samu e encaminhada ao Pronto-Socorro e o quadro é estável.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqn22"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="20"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Outra execução foi registrada no bairro do Amapá, em Rio Branco. Um homem foi morto a tiros dentro de uma casa no Ramal do Pica-Pau. Ele foi identificado como Elismar de Souza Cunha, de 33 anos, mais conhecido como &amp;#8220;Mazinho&amp;#8221;.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6bgsm"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="21"&gt;
+&lt;div id="banner_materia__241151c0-8e49-4956-9eba-8aeebd3c3abe" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__241151c0-8e49-4956-9eba-8aeebd3c3abe" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f9sbo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo a Polícia Militar, populares informaram que cinco pessoas fortemente armadas e trajando coletes balísticos estavam em um carro Hyundai de cor prata, com marcas de tiros na lataria.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3q33q"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="65" data-block-id="23"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Os criminosos entraram na casa, onde estavam três pessoas, entre elas Mazinho. Um dos homens fugiu pela mata, ficando apenas a vítima e o dono da casa. Os autores chegaram gritando que seriam policiais e Mazinho foi obrigado a deitar e foi morto com oito tiros. Segundo a polícia, a vítima havia chegado na casa na manhã de sexta-feira (25), onde passaria uns dias.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="2" data-block-id="24"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Carro incendiado&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ao2ng"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="62" data-block-id="25"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O mesmo carro usado para matar Mazinho no Ramal do Pica-Pau foi incendiado na Baixada da Sobral, bairro Bom Sucesso. Segundo informações, homens atearam fogo no veículo e fugiram. A Polícia Militar informou que não tinha ninguém no carro e que foi o mesmo veículo usado no homicídio. O carro foi guinchado e levado à Divisão Especializada em Investigações Criminais (Deic).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="26"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Tentativas de homicídios&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7g8o0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="90" data-block-id="27"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Na Sobral, um motorista de aplicativo foi vítima de tentativa de homicídio. Ela estava trabalhando e, após percorrer algumas quadras no bairro Bahia Nova, próximo a parada final do bairro, vários homens tentaram pará-lo e ao desobedecer ao pedido, escutou disparos de arma de fogo. Ele foi atingido na região lombar esquerda. O veículo aparentemente foi atingido com três disparos. O homem foi para a UPA da Sobral e de lá encaminhado ao Pronto-Socorro. Essa ocorrência foi registrada já na madrugada de domingo. Ele foi identificado como Aldemir Cordeiro.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7vav1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="28"&gt;
+&lt;div id="banner_materia__9dc830f2-edb8-47a0-a7d3-bb9d6fee914c" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__9dc830f2-edb8-47a0-a7d3-bb9d6fee914c" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_6__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ag1dt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="58" data-block-id="29"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Antes disso, também na noite de sábado, Alexandre da Silva, de 30 anos, foi atingido por tiros na rua Padre José, bairro Triângulo Novo. A esposa da vítima disse que seu marido havia sido ameaçado de morte dias atrás e que, segundo informações de populares, o crime havia sido cometido por um morador da Cidade do Povo.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="30"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Guerra de facções&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5gdch"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="77" data-block-id="31"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A onda de mortes violentas se intensificou novamente no Acre nos últimos dias e tem mobilizado autoridades da Segurança Pública para tentar conter o avanço do crime organizado no estado, que tem avançado não só com relação às mortes violentas, mas também outros crimes, como sequestros e roubos. O secretário de Segurança e Justiça do Acre, coronel Paulo Cézar, confirmou que as ordens dos confrontos partem de presídios do estado e também do país vizinho, Bolívia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-etvul"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="32"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O clima de tensão começou a se intensificar, no começo de novembro, na região do Alto Acre, onde em um fim de semana chegaram a ser registradas três mortes violentas. Já na última semana, foram ao menos nove mortes, tanto na capital como no interior do estado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8hbql"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="33"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Sendo que na quinta-feira (24), a Baixada da Sobral registrou três homicídios em dias seguidos e, no mesmo dia, mais um homem foi morto em Senador Guiomard. O confronto então acendeu um alerta de que as facções estão novamente com conflito.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ff4mo"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="34"&gt;
+&lt;div id="banner_materia__ed21b2ab-7c45-4692-8681-1fb5425b7d27" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__ed21b2ab-7c45-4692-8681-1fb5425b7d27" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_7__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-eet7a"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="19" data-block-id="35"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O secretário destacou que a Inteligência da Segurança identificou que há um movimento entre os chefes de facção.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cd1oc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="70" data-block-id="36"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“A Inteligência identificou que há um movimento envolvendo lideranças criminosas, crime organizado, principalmente narcotráfico. As ações já estão sendo deflagradas, não só ao que tange o policiamento ostensivo, mas áreas que foram identificadas como propícias a ocorrência de execuções, crimes violentos contra a vida, bem como na área investigativa, no sentido de se antecipar a essa práticas, isolando as lideranças criminosas que têm determinado essas práticas delituosas em nosso estado.”&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-mkht"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="33" data-block-id="37"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Três pontos, segundo ele, foram reforçados: foi ampliada a identificação desses indivíduos e ampliado o contato com as agências nacionais de inteligência, enquanto que o número de policiais envolvidos nas investigações foi redobrado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-d5d90"&gt;
+&lt;div class="show-chart mc-column content-media content-media--normal" data-block-type="backstage-chart" data-block-id="38"&gt;
+&lt;div class="show-chart__title"&gt;Mortes violentos no Acre mês a mês&lt;/div&gt;
+&lt;div class="show-chart__subtitle"&gt;Dados são de janeiro a outubro de 2022&lt;/div&gt;
+&lt;div id="show-chart__d5d90" data-highcharts-chart="0"&gt;
+&lt;div id="highcharts-fsifx2p-0" class="highcharts-container "&gt;Mortes violentasJaneiroFevereiroMarçoAbrilMaioJunhoJulhoAgostoSetembroOutubro101520255&lt;/p&gt;
+&lt;div class="highcharts-label highcharts-tooltip"&gt;
+&lt;div&gt;Julho&lt;br /&gt;
+● Mortes violentas : 22&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="show-chart__credits"&gt;Fonte: Sejusp&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-dbkdr"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="39"&gt;
+&lt;div id="banner_materia__0e58d151-c551-4513-b460-6e1fc2883811" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__0e58d151-c551-4513-b460-6e1fc2883811" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_8__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b1ip4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="9" data-block-id="40"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;em&gt;Colaborou Luana Dourado, da CBN Amazônia Rio Branco.&lt;/em&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/em-acao-para-conter-avanco-da-violencia-policia-prende-tres-membros-de-organizacao-criminosa-no-ac/</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-30-at-10.19.01.webp?fit=984%2C537&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Novo secretário de Gladson Cameli participou dos governos do PT e foi preso na operação G7</t>
+          <t>2022-11-30T11:56:40</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/novo-secretario-de-gladson-cameli-participou-dos-governos-do-pt-e-foi-preso-na-operacao-g7/</t>
+          <t>Mãe de menino internado em UTI do AC com meningite diz que ele é vacinado: ‘não temos noção de onde ele se contaminou’</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-8c1re"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; pequeno Davi Lucca Guimarães Torres, de 9 anos, segue em estado greve na Unidade de Terapia Intensiva (UTI) do Hospital da Criança com meningite bacteriana.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-anudo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="51" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A criança deu entrada no Hospital de Urgência e Emergência de Rio Branco (Huerb) no último sábado (26), fez o exame, que confirmou o diagnóstico de meningite bacteriana. Agora, a Secretaria de Saúde aguarda o resultado de mais um exame para tentar identificar a bactéria causadora do quadro clínico de meningite.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5dara"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ao &lt;strong&gt;g1&lt;/strong&gt;, a mãe da criança, a autônoma Bruna Ketlhen Barbosa lembrou que na última sexta-feira (25) o filho começou a reclamar de dores na barriga, depois apresentou febre, dor de cabeça e, em algumas horas, passou a ter vômitos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3qku6"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5fd2j"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Com os sintomas se intensificando, ela disse que levou Davi para o Pronto-socorro da capital e lá, o médico viu que era grave a situação e logo solicitou uma vaga de UTI do Hospital da Criança, que atualmente funciona no Into-AC.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b94vd"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="110" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Foi tudo muito rápido, os atendentes do PS foram muito atenciosos com a gente, o médico plantonista também. Chegamos lá por volta de 9h de sábado [26] e 10h eles já tinham conseguido um leito de UTI pra ele. O Davi já não estava mais respondendo, por isso, foi entubado imediatamente no PS mesmo. Os médicos dizem que é bem grave, segue entubado, é uma doença muito grave, são pelo menos 14 dias de tratamento, falta ainda sair o resultado do exame, mas já está tomando medicação. Nessa terça [29], um exame constatou um inchaço no cérebro dele e disseram que foi o dia mais delicado”, disse a mãe.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5e1p"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A autônoma contou ainda que a criança está com a carteira de vacina completa e que não faz ideal de como pode ter contraído a doença. Ela afirmou ainda que nenhum outro parente ou conhecido apresentou sintomas da doença.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7fci5"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="81" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Coração fica apertado, tem momentos que a gente fraqueja, mas acredito que Deus já tem a cura dele, ele vai sair de lá. Essa é nossa confiança. Não faço ideia de como isso aconteceu, ninguém que teve contato com ele teve sintomas. O Davi estava totalmente vacinado, o quadro dele de vacinas está completo. Só falta tomar vacina de 11 anos, porque ainda está com 9 anos. A gente não tem nem noção de onde ele se contaminou”, afirmou Bruna.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="12"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Meningite&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cctne"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A meningite é um processo inflamatório das meninges, membranas que envolvem o cérebro e a medula espinhal. Ela é causada por diversos agentes infecciosos (bactérias, vírus e fungos).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-34jun"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="56" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em 2019, a Secretaria de Saúde do Acre (Sesacre) confirmou um caso de meningite bacteriana no estado. Um homem de 58 anos deu entrava com suspeita da doença no hospital do município de Senador Guiomard, no interior do estado. Após a suspeita, ele foi transferido para o Hospital de Urgência e Emergência de Rio Branco (Huerb).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6qv78"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="22" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A meningocócica é uma meningite bacteriana e, junto com a pneumocócica, é considerada uma das formas mais graves e preocupantes da doença.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-83nnn"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="16"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A meningite tem uma alta taxa de mortalidade e sequelas, como surdez, perda dos movimentos e danos ao sistema nervoso. As crianças são a faixa etária mais atingida, e os pacientes devem ter um acompanhamento por pelo menos seis meses depois da doença.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7n3ld"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="27" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A doença é transmitida quando pequenas gotas de saliva da pessoa infectada entram em contato com as mucosas do nariz ou da boca de um indivíduo saudável.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Sintomas e diagnóstico&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1d2ad"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Os principais sintomas da meningite são dor de cabeça, febre e confusão mental. Nem sempre há rigidez na nuca, e o teste não pode ser feito por um leigo apenas ao baixar a cabeça – só um médico pode avaliar o quadro corretamente.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8uf72"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="20"&gt;
+&lt;div id="banner_materia__55b9482a-79b5-4301-8675-46ea84a200ac" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__55b9482a-79b5-4301-8675-46ea84a200ac" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f9p1v"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="29" data-block-id="21"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O diagnóstico &amp;#8220;padrão ouro&amp;#8221; ocorre pelo exame do líquor, líquido que banha o sistema nervoso. A cor do líquor já indica se a meningite é por bactéria ou vírus.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/mae-de-menino-internado-em-uti-do-ac-com-meningite-diz-que-ele-e-vacinado-nao-temos-nocao-de-onde-ele-se-contaminou/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-30-at-09.47.17.webp?fit=984%2C782&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Em live, Gladson Cameli afirma que está curado da covid-19 e relata “sensação horrível”</t>
+          <t>2022-11-30T02:18:30</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/em-live-gladson-cameli-afirma-que-esta-curado-da-covid-19-e-relata-sensacao-horrivel/</t>
+          <t>Suspeitos de matar motorista de aplicativo em Rio Branco devem ser indiciados por latrocínio, diz polícia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-gf43"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="63" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;A&lt;/span&gt; morte do motorista de aplicativo José Francisco Rodrigues das Chagas, de 31 anos, está sendo investigada pela Polícia Civil, em Rio Branco. Horas após o crime, dois suspeitos foram presos e confessaram o crime na Delegacia de Flagrantes. De acordo com o delegado Lucas Pereira, que investiga o caso, os dois acharam que matando a vítima seria mais fácil de fugir.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-91uv1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8ji34"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="93" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“No caso foi latrocínio, roubo seguido de morte. Não conseguimos constatar envolvimento de facção criminosa, mas não descartamos. O que concluímos, com dados preliminares, foi que duas pessoas chamaram esse motorista e, ao pegarem esse motorista, o abordaram, subtraíram bens dele e quando viram a oportunidade de matar ele para facilitar a fuga, eles o fizeram e foram conduzidos para a Defla. Lá confessaram o ato e já foram presos logo em seguida, então uma resposta efetiva e rápida da polícia para levarmos um pouco de justiça para a família dele”, disse.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cpvs1"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="39" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O corpo de José Francisco foi achado no Ramal Santo Onofre, no Apolônio Sales, na capital acreana, na madrugada desta segunda. Segundo informações da Polícia Militar, ele estava desaparecido e a família já havia registrado o sumiço pelo 190.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2g4dg"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="9"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/s7b9Tm_SbSKhtAqn7TKy6BjsSLo=/0x0:1600x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/6/e/9NHS4WQKO6Hu0HiyBKHw/whatsapp-image-2022-11-28-at-14.53.32.jpeg?w=740&amp;#038;ssl=1" alt="Grupo protestou em frente à Defla por mais segurança no trânsito de Rio Branco — Foto: Consuela Gonzalez/Rede Amazônica Acre" data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Grupo protestou em frente à Defla por mais segurança no trânsito de Rio Branco — Foto: Consuela Gonzalez/Rede Amazônica Acre&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="11"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Insegurança&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7o9hc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No fim de semana, um motorista de aplicativo, identificado como Aldemir Cordeiro, também foi baleado em uma noite em que várias ocorrências foram registradas na capital. Ele estava trabalhando e, após percorrer algumas quadras no bairro Bahia Nova, próximo a parada final do bairro, vários homens tentaram pará-lo e ao desobedecer ao pedido, escutou disparos de arma de fogo.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-a2jrv"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ele foi atingido na região lombar esquerda. O veículo aparentemente foi atingido com três disparos. O homem foi para a UPA da Sobral e de lá encaminhado ao Pronto-Socorro. Essa ocorrência foi registrada já na madrugada de domingo (27).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1et3u"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="37" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Com esses casos de insegurança, um grupo de 50 motoristas de aplicativo protestou por mais segurança em frente à Delegacia de Flagrantes de Rio Branco, no bairro Estação Experimental. O ato ocorreu na tarde desta segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-49n2i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="90" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Estamos aqui para protestar e mostrar para a sociedade e o poder público que nós, motoristas de aplicativos, estamos vulneráveis nesse trânsito, na segurança do nosso estado e não é a primeira morte, sabemos que houve mais mortes ano passado. Só essa semana foram três assaltos, estávamos agora aqui e teve um mototaxista fazendo um boletim de ocorrência, então, ontem [domingo, 27] tivemos um assalto no Bahia Nova, que a pessoa está hospitalizada ainda. Então, estamos reivindicando segurança do Estado&amp;#8221;, pediu o motorista Francisco Silva, que esteve no ato.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6mbl0"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="16"&gt;
+&lt;div id="banner_materia__ea5b4c42-bbd7-437a-a0bc-687819eb2491" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__ea5b4c42-bbd7-437a-a0bc-687819eb2491" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3q6qe"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="17"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/bm0wwbOpa_u8EAU_SUk3nyiY4Mk=/0x0:3264x3264/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/N/5/1jwhDRS2i6OuONgucYAg/acusados-uber.jpg?w=740&amp;#038;ssl=1" alt="Dois foram presos por ter matado motorista de aplicativo em  Rio Branco  — Foto: Reprodução" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;Dois foram presos por ter matado motorista de aplicativo em Rio Branco — Foto: Reprodução&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="2" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Suspeitos presos&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7tchf"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo a PM, o corpo de José Francisco tinha marcas de perfurações. Contudo, apenas a perícia vai poder confirmar a causa da morte. Uma equipe do Serviço de Atendimento Móvel de Urgência (Samu) foi acionada e constatou a morte da vítima. Policiais da Delegacia de Homicídios e Proteção à Pessoa (DHPP) também estiveram no local, assim como a perícia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8dsgo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="70" data-block-id="20"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O veículo da vítima foi encontrado no início do ramal e encaminhado para o pátio do Departamento de Trânsito (Detran). Dois suspeitos foram presos pelo crime, sendo que o primeiro, de 21 anos, confessou e indiciou onde e quem seria o comparsa. Já no início da tarde, o segundo envolvido, de 22 anos, foi preso e levado à Defla, onde também confessou a participação. Os nomes não foram divulgados.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5t3lj"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="21"&gt;
+&lt;div id="banner_materia__c9471860-8c2f-4484-9eab-3ee158d933b8" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__c9471860-8c2f-4484-9eab-3ee158d933b8" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_6__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-10ui4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="60" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“No entanto, os policiais civis da equipe de pronto emprego, após as diligências preliminares sobre o caso, identificaram o conduzido como o autor do homicídio de José Francisco Rodrigues das Chagas, de 31 anos. Diante das informações obtidas através das investigações iniciais, foi possível efetuar a prisão em flagrante do suspeito, que também confessou o crime”, diz a nota.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/suspeitos-de-matar-motorista-de-aplicativo-em-rio-branco-devem-ser-indiciados-por-latrocinio-diz-policia/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-28-at-13.03.53.webp?fit=984%2C1037&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gladson Cameli entrega nova OCA para a população do município de Cruzeiro do Sul</t>
+          <t>2022-11-29T11:19:23</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/gladson-cameli-entrega-nova-oca-para-a-populacao-do-municipio-de-cruzeiro-do-sul/</t>
+          <t>Caminhonete é apreendida com mais de 181 quilos de drogas em rodovia do Acre</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;ma abordagem de rotina da Polícia Rodoviária Federal (PRF-AC) na manhã desta segunda-feira (28) acabou com a apreensão de mais de 181 quilos de drogas. Duas pessoas foram presas e levadas para a sede da Polícia Federal de Rio Branco para os procedimentos cabíveis.&lt;/p&gt;
+&lt;p&gt;A PRF-AC informou que parou uma caminhonete na BR-364. Durante a revista, os policiais encontraram o entorpecente escondido no compartimento da estrutura da carroceria. A polícia não detalhou de cidade o carro tinha saído e qual o destino final da droga.&lt;/p&gt;
+&lt;p&gt;Foram apreendidos, no total, 167,42 kg de pasta base e 14,46 kg de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;Mais droga apreendida&lt;br /&gt;
+No último sábado (26), durante patrulhamento na BR-364, foi feita a abordagem a um caminhão-cegonha encontrados 63,5 quilos de drogas escondidos em dois veículos que estavam sendo transportados.&lt;/p&gt;
+&lt;p&gt;Parte da droga estava escondida no compartimento da porta dos carros. No total foram apreendidos 63,5 kgs, sendo 46,76 kgs de pasta base e 15,74 kgs de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;A droga e os dois veículos foram encaminhados à Polícia Federal de Rio Branco-AC para as medidas cabíveis. A PRF não informou se houve prisões.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/caminhonete-e-apreendida-com-mais-de-181-quilos-de-drogas-em-rodovia-do-acre/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/droga-apreendida.webp?fit=984%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gladson Cameli convoca associações militares para negociar titulação</t>
+          <t>2022-11-29T11:12:28</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/gladson-cameli-convoca-associacoes-militares-para-negociar-titulacao/</t>
+          <t>Única casa lotérica do Jordão está fechada e falta de atendimentos prejudica beneficiários de auxílios</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-3mq4a"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="51" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;M&lt;/span&gt;oradores que recebem auxílios estão sem conseguir sacar os benefícios e nem fazer pagamentos na cidade do Jordão, uma das regiões isoladas do interior do Acre com acesso apenas por barco ou avião. É que a única lotérica da cidade está com os atendimentos suspensos há cerca de 15 dias.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-6c4pt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A reportagem entrou em contato com a Caixa Econômica Federal por e-mail solicitando uma resposta sobre a suspensão dos atendimentos na Casa Lotérica Cantinho da Sorte e aguarda retorno.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-9ir6q"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O taxista Roberto Rodrigues viu o número de corridas baixar quando a lotérica parou de funcionar. Ele conta que a maioria dos clientes que utiliza o serviço é da zona rural e pega corrida para ir até a zona urbana sacar dinheiro ou pagar contas na lotérica.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7nmi1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-rsvs"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="71" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Essas pessoas mexem com benefícios, usam aqueles cartões sem chip e não conseguem passar na maquininha, só sacam o dinheiro em espécie na casa lotérica e não estão conseguindo. Estou prejudicado porque não estou conseguindo também pegar minha renda que ajuda no sustento da minha família. Essa é só uma das coisas, mas não é apenas eu. Cerca de 70% da população do Jordão está sendo prejudicada com isso&amp;#8221;, lamentou.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-dmth3"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Rodrigues falou que há na cidade alguns postos de outros representantes bancários. Contudo, os benefícios sociais são retirados apenas na Caixa Econômica Federal. A esposa do taxista é uma das clientes do banco.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5t97l"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="44" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;É tudo na lotérica. Disseram no início, anunciaram em um grupo de WhatsApp que iam fechar por uma semana para fazer manuntenção, mas não explicaram qual era essa manuntenção, a gente pergunta e falam que não tem previsão de quando vai voltar&amp;#8221;, disse.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7e7lh"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O autônomo Hiago Fontenele Viana teve que passar o cartão do Auxílio Brasil na máquina de cartões de um comerciante para poder pegar o dinheiro e conseguir pagar algumas contas. A esposa de Viana vende roupas íntimas e também precisa da casa lotérica para receber os pagamentos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-c1j6d"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="54" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Estamos deixando de ter movimento, de ter nosso dinheiro e sanar nossas dívidas por causa desse problema. Minha esposa semana passada teve que pagar a pessoa que fornece [roupa íntima] para ela e se não fosse eu tirando o benefício pelo celular, pegando emprestado com outras pessoas, ficaria uma dívida muito grande&amp;#8221;, relatou.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-i9e3"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="12"&gt;
+&lt;div id="banner_materia__cfc4fc85-3861-4865-b374-d74e0cea3cd8" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__cfc4fc85-3861-4865-b374-d74e0cea3cd8" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-aokln"&gt;
+&lt;div class="block-podcast"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/unica-casa-loterica-do-jordao-esta-fechada-e-falta-de-atendimentos-prejudica-beneficiarios-de-auxilios/</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-28-at-16.47.56.webp?fit=984%2C1009&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sindmed-AC se reúne com Gladson Cameli para tratar sobre plantões extras e contratos emergenciais</t>
+          <t>2022-11-29T11:05:43</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/sindmed-ac-se-reune-com-gladson-cameli-para-tratar-sobre-plantoes-extras-e-contratos-emergenciais/</t>
+          <t>Promotor processa prefeitura de Tarauacá e juiz determina readequação de abrigo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h1 class="post-title" style="text-align: justify;"&gt;&lt;span style="font-family: 'book antiqua', palatino, serif;"&gt;&lt;strong&gt;Após ação do MPAC, Justiça determina readequação de abrigo para crianças e adolescentes&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;O Ministério Público do Estado do Acre (MPAC) conseguiu decisão favorável do Poder Judiciário ao pedido de readequação na estrutura do abrigo “Renascer”, que acolhe crianças e adolescentes em situação de risco e vulnerabilidade social, no município de Tarauacá.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Em ação civil pública com pedido de tutela antecipada, o promotor de Justiça &lt;strong&gt;Júlio César Medeiros&lt;/strong&gt; pediu a readequação da estrutura física do abrigo, adequação da equipe técnica, terapêutica ou similares e tratamento existencial adequado.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Para apoiar a ação, o promotor de Justiça apresentou um relatório técnico de uma visita realizada no abrigo, na qual foram verificadas diversas dificuldades enfrentadas pelas crianças e adolescentes por conta da falta de manutenção do prédio e falta de atendimentos em áreas como psicologia e assistência social.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Acolhendo ao pedido do MPAC, a Vara Cível da Comarca de Tarauacá condenou o município, determinando que seja construído no prazo de dois anos um novo abrigo num lugar seguro, onde a alagação não atinja, ou que sejam realizadas reformas no local onde ele se encontra atualmente.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Além de readequação da estrutura física, a decisão prevê, ainda, a contratação de profissionais em diversas áreas para atuarem no programa de acolhimento institucional, garantindo a oferta de atendimento adequado às crianças e adolescentes.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Em caso de descumprimento em relação ao que foi &lt;span style="color: #000000;"&gt;estabelecido na sentença, será aplicada ao município multa diária no valor de R$ 20.000,00 (vinte mil reais), convertida em favor das melhorias do abrigo. &lt;/span&gt;&lt;span style="font-size: 12pt; color: #000000;"&gt;Com informações: &lt;span style="font-family: 'book antiqua', palatino, serif;"&gt;&lt;a style="color: #000000;" href="https://www.mpac.mp.br/tarauaca-apos-acao-do-mpac-justica-determina-readequacao-de-abrigo-para-criancas-e-adolescentes/"&gt;Agência de Notícias do MPAC&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;span style="font-size: 14pt; font-family: 'book antiqua', palatino, serif;"&gt;Para ler o docum&lt;span style="color: #000000;"&gt;ento &lt;a style="color: #000000;" href="https://www.mpac.mp.br/wp-content/uploads/manifestacao-abrigo.pdf"&gt;clique aqui&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/promotor-processa-prefeitura-de-tarauaca-e-juiz-determina-readequacao-de-abrigo/</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/ABRIGO-COLEGIO-INSTITUTO-SAO-JOSE-TARAUACA.jpg?fit=1156%2C651&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FOTOS: Marilete Vitorino e Gladson Cameli assinam convênio para recuperação de ruas de Tarauacá</t>
+          <t>2022-11-29T11:04:04</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.acre.com.br/durante-solenidade-realizada-na-tarde-desta-quinta-feira-29-a-prefeitura-de-tarauaca-em-parceria-com-o-governo-do-estado-do-acre-assinaram-um-convenio-que-faz-parte-do-programa-ruas-do-acr/</t>
+          <t>Polícia prende suspeito de matar colono a tiros e esganado no interior do Acre</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-ds1o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;F&lt;/span&gt;rancisco Campos Barbosa, mais conhecido como Chico Abreu, foi achado morto em uma ramal na divisa do município de Xapuri e Epitaciolândia, no interior do Acre. De acordo com a polícia, os familiares disseram que procuravam por ele desde a última sexta-feira (25), mas achavam que ele havia saído para caçar.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-9531i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Já no domingo (27), uma equipe da Polícia Civil, coordenada pelo delegado Luis Tonini, foi até o local, que é de difícil acesso, e resgatou o corpo do colono.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6f09"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="72" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Fomos com uma equipe e encontramos. Os familiares achavam que ele estava em uma caça, junto com esse rapaz que era caseiro com ele, mas no domingo [27] o sobrinho da vítima foi para lá e viu o corpo, que estava meio afastado estava a 100, 50 metros da casa, uma área de capinzal. Ele também sentiu o mau cheiro e viu que se tratava do tio dele”, explica o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ulaq"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5nuf0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Então, a equipe da Polícia Civil foi acionada e o corpo levado ao Instituto Médico Legal (IML), onde foi constatado que Barbosa foi morto com um tiro nas costas e também foi enforcado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-fpt13"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="8"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/RGZ4P2lCAfNNy7bNvMLvR_SirKg=/0x0:1599x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/R/E/4d7QGFT82ClCefDo4IIA/whatsapp-image-2022-11-29-at-09.46.34.jpeg?w=740&amp;#038;ssl=1" alt="Delegado Tonini coordenou as buscas pelo corpo no interior do Acre  — Foto: Polícia Civil " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Delegado Tonini coordenou as buscas pelo corpo no interior do Acre — Foto: Polícia Civil&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2fmli"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O suspeito, Benigno Queiroz Sales, de 36 anos, conhecido como ‘Banana’, foi preso ainda na segunda-feira (28) em Epitaciolândia. O delegado informou que algumas informações apontavam que ele estava armado em uma área de mata e a Polícia Militar foi acionada.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8sq1b"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi preso sem arma, mas depois indicou onde estava escondida a arma do crime. Ele também confessou e disse ao delegado que matou a vítima para se defender.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5p97l"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="11"&gt;
+&lt;div id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6u5ff"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Ele disse que se defendeu porque vítima quando bebia ficava bastante agressiva, mas a gente não acredita nessa versão porque ele estava envolvido em um furto em uma casa perto de onde aconteceu o crime e também já era investigado por estupro em Epitaciolândia”, diz.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b4jrt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi transferido para a delegacia de Xapuri, onde deve ser indiciado por latrocínio. Como o crime foi na divisa, a responsabilidade da investigação ficou com o delegado Gustavo Neves. O g1 tentou ouvi-lo, mas não obteve retorno até esta publicação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqk7n"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="14"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/pYQYz4hgZLrhVFS73MLSvxAQDsg=/0x0:679x838/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/w/k/v9tmgzSmyzoVi8kR8Zfg/preso1.jpg?w=740&amp;#038;ssl=1" alt="Benigno Queiroz Sales, de 36 anos, foi preso pelo crime  — Foto: Arquivo pessoal " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Benigno Queiroz Sales, de 36 anos, foi preso pelo crime — Foto: Arquivo pessoal&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/policia-prende-suspeito-de-matar-colono-a-tiros-e-esganado-no-interior-do-acre/</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-29-at-09.46.28.webp?fit=984%2C738&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
+          <t>2022-12-01T00:49:04</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/10/03/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
+          <t>Os avanços que Rio Branco levará ao fórum global de defesa civil</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O ano era 2021 e Rio Branco vivia uma das piores alagações de sua história. Inúmeras famílias tiveram que deixar suas casas – em sua maioria, pessoas que viviam em áreas de risco, em beira de rios, igarapés e sob esgoto a céu aberto – para se alojar nos abrigos montados pela prefeitura no Parque de Exposições.&lt;/p&gt;
+&lt;p&gt;Até então, nada de novo para quem conhece o histórico de enchentes no Acre, no chamado inverno amazônico. Foi aí que a Prefeitura de Rio Branco, por meio da Defesa Civil Municipal, começou a mostrar, para os rio-branquenses e ao mundo, que é possível passar por um momento tão difícil e sofrido, com dignidade e, sobretudo, respeito e atenção com aqueles que mais necessitam do poder público.&lt;/p&gt;
+&lt;p&gt;O modelo de abrigamento construído pela Prefeitura de Rio Branco, visando dignidade e humanização às famílias, tinha como diferenciais a praça de alimentação (as refeições eram preparadas e servidas no local, em substituição aos antigos marmitex), posto de saúde, segurança 24 horas, presença de órgãos da Justiça, como Ministério Público e Defensoria Pública, parte lúdica e de lazer, além da troca das antigas e sombrias lonas pretas pelas de cores azul e amarela.&lt;/p&gt;
+&lt;p&gt;Por determinação do prefeito Tião Bocalom, os abrigos foram instalados com dois cômodos, ao contrário dos anos anteriores, que tinham apenas um único vão. Isso gerou mais conforto e privacidade às pessoas que estavam em vulnerabilidade e precisando ser abrigadas. Em visita ao local, o secretário nacional de Defesa Civil, Alexandre Lucas, sugeriu que modelo de abrigamento, implementado pela Prefeitura de Rio Branco, se tornasse modelo para o restante do país.&lt;/p&gt;
+&lt;p&gt;Por conta dessa demonstração de zelo com as famílias atingidas pela enchente de 2021, o que chegou a ser destaque nacional, conferido pelo Banco Boas Práticas, da Defesa Civil Nacional, a Prefeitura de Rio Branco fora convidada a fazer uma apresentação no Fórum Global Understanding Risk, que ocorre em Florianópolis, entre os dias 28 de novembro e 1° de dezembro.&lt;/p&gt;
+&lt;p&gt;O coordenador da Defesa Civil Municipal, Ten. Cel. Cláudio Falcão e o prefeito Tião Bocalom farão uma apresentação no Fórum, no dia 1° de dezembro, às 16h30, com o tema “Dignidade e Humanização em Abrigos”. Na ocasião, o prefeito apresentará, também, o projeto “1.001 Dignidades”, que visa construir mil e uma moradias populares, para essas famílias que moram em áreas de risco, contemplando aproximadamente 4.000 pessoas.&lt;/p&gt;
+&lt;p&gt;O gestor entende que, desta forma, tornando possível o sonho da casa própria e levando, assim, dignidade a essas famílias, cada vez menos será necessário a construção de novos abrigos em decorrência das enchentes.&lt;/p&gt;
+&lt;p&gt;Sobre o evento:&lt;/p&gt;
+&lt;p&gt;O Fórum Global Understanding Risk (UR) é uma conferência bienal que reúne especialistas e profissionais de todo o mundo, para apresentar as melhores práticas e as mais recentes inovações no campo da identificação e gerenciamento de risco de desastres, bem como para facilitar as interações e parcerias excepcionais.&lt;/p&gt;
+&lt;p&gt;No evento, é debatido as últimas pesquisas, projetos inovadores e novas ideias no gerenciamento de risco de desastres. A plataforma e os eventos da UR proporcionam um ambiente divertido e criativo para acadêmicos, políticos, setor privado, organizações comunitárias e parceiros de desenvolvimento, para compartilhar conhecimento e promover interações e parcerias.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/12/01/os-avancos-que-rio-branco-levara-ao-forum-global-de-defesa-civil/</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/6a90a536-1df5-46a0-8fe0-90795e9f4e0b.webp</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dez partidos declararam apoio à reeleição de Gladson Cameli</t>
+          <t>2022-11-30T18:47:34</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/07/30/dez-partidos-declararam-apoio-a-reeleicao-de-gladson-cameli/</t>
+          <t>Argentina vence e vai às oitavas de final; Polônia também avança</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Sem sustos, a Argentina confirmou a vaga nas oitavas de final da Copa do Mundo. Nesta quarta-feira, a Albiceleste bateu a Polônia com autoridade por 2 a 0 no Estádio 974, em partida válida pela última rodada do Grupo C da competição. Mac Allister e Julián Álvarez marcaram os gols da vitória.&lt;/p&gt;
+&lt;p&gt;Com o resultado, a Argentina chegou aos seis pontos e assumiu a liderança do Grupo C. Já a Polônia, com quatro pontos, levou a melhor sobre o México no saldo de gols e garantiu a segunda colocação do grupo.&lt;/p&gt;
+&lt;p&gt;O primeiro tempo foi um jogo de ataque contra a defesa. A Argentina foi com tudo para cima da Polônia, que apenas se defendeu durante os primeiros 45 minutos de partida. No total, a Albiceleste conseguiu 14 finalizações, sendo nove a direção do gol. Já os poloneses tiveram apenas um arremate, que não teve a direção da meta do goleiro Emiliano Martínez.&lt;/p&gt;
+&lt;p&gt;Dentre as várias chances criadas pela Argentina na etapa inicial, a melhor veio aos 39 minutos. Após revisão no VAR, o árbitro viu falta do goleiro Szczesny em cima de Messi dentro da área. O pênalti, então, foi assinalado. Na cobrança, contudo, Messi parou na defesa do arqueiro polonês.&lt;/p&gt;
+&lt;p&gt;A seleção europeia, por sua vez, teve muita dificuldade para jogar, como os números citados acima mostraram. O time de Czesaw Michniewicz rapidamente perdia a boal ao tentar trocar passes. Assim, em alguns momentos, recorreu ao chutão em direção a Lewandowski, que ficava praticamente isolado no campo ofensivo. &lt;/p&gt;
+&lt;p&gt;No segundo tempo, a pressão albiceleste finalmente deu resultado. Logo no primeiro minuto, a Argentina conseguiu vencer Szczesny e abriu o placar no Estádio 974. Dí Maria acionou o lateral-direito Molina, que cruzou rasteiro e na medida para Mac Allister. Livre de marcação na pequena área, o meia finalizou de primeira para balançar as redes da Polônia.   &lt;/p&gt;
+&lt;p&gt;Depois disso, a seleção europeia até tentou se soltar um pouco mais no jogo, mas não conseguiu. A Argentina manteve o controle do confronto durante todo segundo tempo e ainda ampliou a vantagem no marcador. Aos 23 minutos, Enzo Fernández descolou bom passe para Julián Álvarez dentro da área. O camisa 9 ajeitou o corpo mandou no ângulo, sem chances de defesa para Szczesny.&lt;/p&gt;
+&lt;p&gt;Leia mais&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/argentina-vence-e-vai-as-oitavas-de-final-polonia-tambem-avanca/</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/a18cctumuevohs62l2v1re2pe.webp</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zen: fogo na biblioteca é desídia e descaso do governo de Gladson Cameli</t>
+          <t>2022-11-30T14:53:17</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/05/17/zen-fogo-na-biblioteca-e-desidia-e-descaso-do-governo-de-gladson-cameli/</t>
+          <t>Covid-19 faz 245 casos nesta quarta-feira (30) no Acre</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 245 novos casos de coronavírus nesta quarta-feira, 30 de novembro. O número de infectados notificados é de 153.975 em todo o estado.&lt;/p&gt;
+&lt;p&gt;Até o momento, o Acre registra 360.777 notificações de contaminação pela doença, sendo que 206.785 casos foram descartados e 17 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.293 pessoas já receberam alta médica da doença, e não há registro de pessoas internadas até o fechamento deste boletim.&lt;/p&gt;
+&lt;p&gt;Os dados da vacinação contra a covid-19 no Acre podem ser acessados no Painel de Monitoramento da Vacinação, disponível no endereço eletrônico: http://covid19.ac.gov.br/vacina/inicio. As informações são atualizadas na plataforma do Ministério da Saúde (MS) e estão sujeitas a alterações constantes, em razão das informações inseridas a partir de cada município.&lt;/p&gt;
+&lt;p&gt;Nenhum óbito foi notificado nesta quarta-feira, 30, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/covid-19-faz-245-casos-nesta-quarta-feira-30-no-acre/</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2020/06/teste-covid-1000x509-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Gladson Cameli participa de encontro na Terra Noke Koi</t>
+          <t>2022-11-30T14:07:47</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/04/19/gladson-cameli-participa-de-encontro-na-terra-noke-koi/</t>
+          <t>Denúncia anônima leva PM a fechar boca de fumo em Tarauacá</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Assessoria de Comunicação da PMAC&lt;/p&gt;
+&lt;p&gt;Guarnições do 7° Batalhão de Polícia Militar (7° BPM) desarticularam na manhã desta quarta-feira, 30, um ponto de venda de drogas no bairro das Flores, em Tarauacá. Um homem de 23 anos foi preso no local.&lt;/p&gt;
+&lt;p&gt;Uma denúncia anônima dava conta de que uma residência estava sendo utilizada pelo crime organizado para venda de drogas. As equipes policiais se deslocaram ao endereço e conseguiram visualizar a movimentação.&lt;/p&gt;
+&lt;p&gt;Os militares do 7° BPM localizaram 32 trouxinhas de maconha em um quarto e, com auxílio do Cão Policial Luck, foram localizadas 13 barras de maconha em outro quarto, e mais 31 trouxinhas de cocaína e uma balança de precisão.&lt;/p&gt;
+&lt;p&gt;Ainda durante as buscas no imóvel, foram localizados nove pássaros dentro de uma gaiola, sobre os quais não souberam informar a procedência. O homem que estava na casa foi preso e encaminhado á delegacia local.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/denuncia-anonima-leva-pm-a-fechar-boca-de-fumo-em-tarauaca/</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/7b8e1626-a909-45f7-adeb-2ff1dab5104e.jpg</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>“O Brasil precisa conhecer o Acre”, diz Gladson Cameli</t>
+          <t>2022-11-30T14:00:15</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/04/18/o-brasil-precisa-conhecer-o-acre-diz-gladson-cameli/</t>
+          <t>Tunísia vence França mas não passa para outra fase</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Tunísia encerrou sua participação na Copa do Mundo com uma vitória por 1 a 0 sobre a França na última rodada do grupo D na Copa do Mundo. Porém, por conta da vitória da Austrália sobre a Dinamarca, o resultado acabou não servindo para os africanos, que estão eliminados da competição. Já classificada, a seleção francesa entrou com uma equipe alternativa e teve uma atuação bem abaixo da média, sendo dominada em praticamente toda a partida no Catar.&lt;br /&gt;
+Nas oitavas de final, a França irá enfrentar o segundo colocado do grupo C, que é formado por Argentina, México, Arábia Saudita e Polônia. A partida vai acontecer no próximo domingo,&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/tunisia-vence-franca-mas-nao-passa-para-outra-fase/</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/7ucaxseg800q3xv0v39iws3dz.webp</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gladson Cameli vai a Tarauacá e visita famílias desabrigadas</t>
+          <t>2022-11-30T13:55:54</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/03/23/gladson-cameli-vai-a-tarauaca-e-visita-familias-desabrigadas/</t>
+          <t>Com 30 tipos diferentes, feijão do Vale do Juruá busca selo de indicação geográfica</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O projeto Bioeconomia e Modelagem da Cadeia Produtiva dos Feijões do Vale do Juruá, executado pelo Centro de Ciências Biológicas e da Natureza da Ufac, realizou visita técnica a agricultores familiares que cultivam feijões nobres na reserva extrativista Alto Juruá e proximidades. A expedição ocorreu entre 21 e 25 de novembro, visando à certificação e obtenção do selo de indicação geográfica dos feijões crioulos da região. &lt;/p&gt;
+&lt;p&gt;Na oportunidade, realizou-se um seminário sobre feijões locais na Vila Restauração, localizada no rio Tejo, em Marechal Thaumaturgo (AC). Os assuntos discutidos no evento foram importância socioeconômica e cultural dos feijões locais; valor nutricional do feijão comum (‘Phaseolus vulgaris’) e do feijão de praia (‘Vigna unguiculata’); armazenamento e produção de sementes de feijão; e agregação de valor da produção local através de processos de certificação, incluindo a indicação geográfica. Participaram das atividades 80 agricultores familiares e dez técnicos da Prefeitura Municipal de Marechal Thaumaturgo. &lt;/p&gt;
+&lt;p&gt;A região do Alto Juruá conta com, aproximadamente, 30 tipos entre feijão de arranque e feijão de praia. Análises preliminares comprovam que esses feijões são mais ricos em proteínas e antocianinas quando comparados ao feijão carioca tradicional.&lt;/p&gt;
+&lt;p&gt;Essa foi a primeira atividade do projeto, o qual se estende até 2024. Os próximos passos são coleta de dados da produção; melhoria dos processos de armazenagem e embalagens; análises econômicas sobre a cadeia do feijão certificado e mensuração da importância dos feijões na segurança alimentar da população local. &lt;/p&gt;
+&lt;p&gt;A expedição foi realizada com recursos do Banco da Amazônia, da Fapac e do CNPq. O projeto é do Programa de Desenvolvimento Científico, Tecnológico e Regional (PDCTR)/CNPq/Fapac. Participaram da missão o coordenador do projeto, Bruno Antonio Lemos de Freitas, da Ufac; os técnicos Amauri Siviero e José Tadeu de Sousa Marinho, da Embrapa-AC; e o técnico Guiomar de Almeida Sousa, do Ifac.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/com-30-tipos-diferentes-feijao-do-vale-do-jurua-busca-selo-de-indicacao-geografica/</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/b21b07fa-8768-4a18-b175-fe04596dc331.jpeg</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Longo: todos querem estar na chapa de Gladson Cameli</t>
+          <t>2022-11-30T13:51:59</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/03/08/longo-todos-querem-estar-na-chapa-de-gladson-cameli/</t>
+          <t>Dinheiro bloqueado da Ufac compromete universidade</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class=" " align="left"&gt;Universidades e institutos federais foram surpreendidos, nessa segunda-feira, 28, com mais um bloqueio orçamentário feito pelo governo federal. Esta situação compromete, sobremaneira, as atividades acadêmicas planejadas pelas instituições para o decorrer do ano.&lt;/p&gt;
+&lt;p class=" " align="left"&gt;O bloqueio na Ufac foi de quase R$ 5 milhões, que seriam destinados ao pagamento de despesas discricionárias, afetando a prestação de serviços. Diante da gravidade da situação, a Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior (Andifes) está tomando as providências cabíveis.&lt;/p&gt;
+&lt;p class=" " align="left"&gt;A Reitoria da Ufac comunica que os impactos na universidade estão sendo analisados para que se encontre o melhor caminho no sentido de mitigar prejuízos causados ao pleno funcionamento da instituição. A Reitoria reafirma seu compromisso com uma universidade pública, gratuita, laica, inclusiva e de qualidade.&lt;/p&gt;
+&lt;p class=" " align="left"&gt;&lt;a class="external-link" title="Governo faz nova retirada de recursos das universidades federais" href="https://www.andifes.org.br/?p=95039" target="_blank" rel="noopener" data-tippreview-enabled="false" data-tippreview-image="" data-tippreview-title=""&gt;Leia nota da Andifes sobre bloqueio de orçamento das universidades federais&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/dinheiro-bloqueado-da-ufac-compromete-universidade/</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/ufac.jpeg</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Gladson Cameli nomeia 15 novos defensores públicos</t>
+          <t>2022-11-30T13:48:58</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/02/11/gladson-cameli-nomeia-15-novos-defensores-publicos/</t>
+          <t>Audiência debate fortalecimento de ações do MP do Acre</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Os deputados realizaram uma audiência pública na manhã desta quarta-feira (30), para ouvir representantes do Ministérios Público do Acre, que apresentaram os projetos que atualmente são desenvolvidos pela Instituição e pedir apoio do legislativo.&lt;/p&gt;
+&lt;p&gt;O deputado Luiz Gonzaga (PSDB), autor do requerimento para a realização da audiência pública, destacou o trabalho desenvolvido pela Instituição na defesa pelos direitos das pessoas portadoras do espectro autista.&lt;/p&gt;
+&lt;p&gt;“Inicio parabenizando o MPAC por esse trabalho bonito que faz em defesa da sociedade acreana, em especial dos que mais precisam. A causa que atua em defesa dos direitos dos autistas é muito importante, uma vez que as famílias que têm autistas necessitam de todo o apoio do poder público. Meu gabinete tem sido atuante nisso, inclusive, irei ajudar com emenda um projeto desenvolvido em Cruzeiro do Sul e que merece todo o nosso carinho. Desejo sucesso no objetivo de vocês e que consigam realizar de forma eficiente esse brilhante trabalho que vem sendo desenvolvido”, disse.&lt;/p&gt;
+&lt;p&gt;A doutora Marcela Cristina, que participou do encontro representando o procurador-geral Danilo Lovisaro, falou sobre os 127 projetos que o MPAC desenvolve atualmente e pediu a colaboração da Assembleia Legislativa para que eles sigam em andamento.&lt;/p&gt;
+&lt;p&gt;“Em nome do MP trago hoje a apresentação de projetos institucionais. A elaboração de ideações é a parte em que eu gostaria de pedir, na medida do possível, a colaboração dos senhores para aumentar a capacidade de efetivação dos direitos dos cidadãos. Temos atualmente 127 projetos em andamento, por isso pedimos a atenção para alguns especiais e, assim, possamos efetivá-los da melhor forma”, explicou.&lt;/p&gt;
+&lt;p&gt;Em sua fala, o coordenador-geral do Gaeco, promotor de Justiça, Dr. Bernardo Fiterman Albano também fez uma breve explanação do trabalho realizado pelo Grupo Especial Repressão ao Crime Organizado no que diz respeito ao enfrentamento da criminalidade organizada no Estado. O coordenador frisou ainda que o MP inseriu dentro do projeto a meta de ampliar a atuação do Gaeco também no interior do Acre.&lt;/p&gt;
+&lt;p&gt;“Estou há sete anos nesse processo e apesar do bom combate, também enfrentamos muitos desafios. Neste sentido, o Ministério Público inseriu dentro do planejamento a meta de interiorização do enfrentamento à criminalidade. Essa meta tem como objetivo, angariar recursos para fortalecer o enfrentamento às facções no Estado.  Em algumas operações, temos dificuldade em acessar determinadas áreas porque muitas vezes os bandidos evacuam para a zona rural e em extensões de difícil acesso”, explicou.&lt;/p&gt;
+&lt;p&gt;O deputado Pedro Longo (PDT) disse que as questões trazidas pelos membros do MP à audiência pública são também causas debatidas e defendidas no plenário da Aleac.&lt;/p&gt;
+&lt;p&gt;“Primeiramente destaco a importância desse momento, as questões hoje trazidas por vocês são também causas desta Casa, como a questão dos autistas, por exemplo, tema sempre levantado e defendido pelo deputado Daniel Zen com o apoio de todos nós. A Aleac também aprovou inúmeras leis a respeito desse tema, eu mesmo fui o autor da lei dos fogos de artifícios. O promotor de Justiça Bernardo também falou de uma temática que é sempre discutida nesta Casa, que é a questão da insegurança que atualmente assola a zona rural do Estado. Ou seja, pautas extremamente importantes e que sempre terão o apoio deste Poder”, enfatizou.&lt;/p&gt;
+&lt;p&gt;Após os discursos, foi passado um vídeo apresentando projetos como o conjunto de ações do GT-TEA, que visa promover o diálogo com a sociedade e poder público, para fazer um diagnóstico da realidade em relação ao atendimento a pessoas autistas no Estado, construindo uma plataforma de trabalho articulada entre diferentes setores.&lt;/p&gt;
+&lt;p&gt;Também o projeto “Proteja Mulher”, que tem como intuito mobilizar e articular os diferentes níveis de governo e sociedade para o reconhecimento acerca da realidade da violência doméstica e do feminicídio, além da elaboração de uma agenda comum para o enfrentamento a essas violações de direitos.&lt;/p&gt;
+&lt;p&gt;Outro projeto desenvolvido pelo Ministério Público do Acre é o TXAI, que atua em defesa dos povos indígenas. A iniciativa visa fortalecer a capacidade de execução das políticas públicas de proteção e defesa dos direitos fundamentais da população indígena do Acre, por meio de um conjunto articulado de ações e iniciativas, dentro da atribuição do MP, visando conferir maior resolutividade à ação ministerial na temática indígena.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/audiencia-debate-fortalecimento-de-acoes-do-mp-do-acre/</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/0Q7A9562.png</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gladson Cameli convoca 187 do cadastro de reserva da PM</t>
+          <t>2022-11-30T07:33:43</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/02/08/gladson-cameli-convoca-187-aprovados-do-cadastro-de-reserva-da-policia-militar/</t>
+          <t>MPF aciona Justiça para garantir recuperação da BR 317 no Acre</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Ministério Público Federal (MPF) ajuizou ação, com pedido de liminar, para que a União, o Departamento Nacional de Infraestrutura de Transportes (Dnit) e o Estado do Acre realizem reparos necessários à manutenção, fiscalização e conservação da BR-317, além de reativarem as balanças de pesagem, de acordo com suas responsabilidades, no trecho entre Rio Branco e Assis Brasil (AC), para garantir a segurança dos usuários que trafegam na rodovia.&lt;/p&gt;
+&lt;p&gt; + +Em 2021, o Anuário do Transporte (banco de dados que traça o estado geral das rodovias no Brasil), elaborado pela Confederação Nacional do Transporte – CNT, avaliou 1.350 +km de malha rodoviária acreana, e especificamente em relação à BR-317 no Estado, a CNT apontou que foram pesquisados 412 km, cujo resultado da avaliação, referente ao estado geral da pista, foi categorizado como “regular”, “ruim” e “péssimo”. Nenhum quilômetro da estrada teve classificação “bom” ou “ótimo”. +&lt;/p&gt;
+&lt;p&gt;Relatório elaborado pela Polícia Rodoviária Federal (PRF), a pedido do MPF, analisou o trecho localizado entre as cidades de Rio Branco/AC e Assis Brasil/AC, especificamente do Km 71 até o Km 407 da BR-317, de forma que foram identificados inúmeros segmentos em que a trafegabilidade de veículos estava bastante prejudicada em função das péssimas condições da pista e dos serviços de reparação em execução, trazendo grandes riscos de acidentes aos usuários e transeuntes,  + +&lt;/p&gt;
+&lt;p&gt;Além disso, a PRF também evidenciou a ausência de defensas metálicas e terminais de impactos, sem a presença de acostamentos durante a extensão da pista, de modo que as margens da rodovia estavam cobertas por vegetações das mais variadas, além da existência de muitas erosões, cenário de inegável potencialidade de contribuição para a ocorrência de acidentes diversos.&lt;/p&gt;
+&lt;p&gt;Quanto aos acidentes, segundo a PRF, no período de 2016 a 2021, foram registrados 178 acidentes nesta rodovia, sendo que 22 acidentes com feridos tiveram como causa principal os defeitos na via.&lt;/p&gt;
+&lt;p&gt; +Lucas Costa Almeida Dias, procurador da República autor da ação, avalia que, para além dos aspectos econômicos, a região oeste do estado configura-se como estratégica para a logística militar do Brasil. Segundo o procurador, o isolamento da região conduziria a condições inconcebíveis em termos de segurança e defesa nacionais, pela dificuldade de deslocamento das tropas em direção ao oeste do estado, especialmente em situações de emergência regional, a exemplo das grandes enchentes que afetam a região.&lt;/p&gt;
+&lt;p&gt;“A malha rodoviária da BR-317, leva em conta não apenas o aspecto de integração social e desenvolvimento regional, mas também questões de segurança militar, principalmente diante da área fronteiriça, onde reiteradamente são registrados ilícitos transnacionais. Seu colapso, portanto, causaria danos monumentais e imediatos ao eixo de integração continental, de maneira que o escoamento e abastecimento da cadeia produtiva, com destaque ao interior do estado do Acre, bem como a trafegabilidade dos usuários restariam prejudicados” afirma Lucas Dias.&lt;/p&gt;
+&lt;p&gt; +Diante do quadro apurado, o MPF pede que a Justiça Federal conceda tutela de urgência, para que a União e o DNITE sejam condenados às seguintes obrigações:&lt;/p&gt;
+&lt;p&gt; +Efetuar os reparos necessários dos trechos mais críticos, segundo apontado pela PRF, bem como a limpeza das laterais (acostamento) nos trechos compreendidos entre os kms 320 e 331 e kms 334 e 348 e a implementação de sinalização vertical de advertência no km 117;&lt;br /&gt;
+ +Elaborar executar, no prazo de 90 dias, plano de ação destinado à recuperação, manutenção e conservação periódica da BR-317, com a realização dos seguintes serviços: colocação e recuperação de tachinhas no pavimento; caiação; limpeza da pista, com a retirada de animais mortos, roça, capina e poda de árvores, para evitar que a vegetação encubra a rodovia e as placas de sinalização restantes, limpeza e recuperação de dispositivos de drenagem; recomposição de defensas metálicas e terminais de impactos; recomposição de placas e adequação de sinalização, horizontal e vertical +&lt;br /&gt;
+Elaborar e executar, no prazo de 90 dias, plano de ação para executar obras emergenciais de pavimentação asfáltica, com tapa buracos e implementação de iluminação;  +&lt;br /&gt;
+Apresentar, em 90 dias, plano de fiscalização dos serviços prestados pelas empresas concessionárias responsáveis pela execução de obras na BR-317, e atestar a qualidade e resistência impostas nos pontos mais críticos do trecho entre Rio Branco e Assis Brasil, mencionados nesta ACP.&lt;br /&gt;
+A ação requer também ao DNIT, à União e ao Estado do Acre, que reativem, no prazo de 120 dias, o funcionamento das balanças de pesagem instaladas nos Postos de Pesagem de Veículos situados na BR-317 em Plácido de Castro e Assis Brasil, bem como apresentem e implementem, em 120 dias, plano de rotina de fiscalização permanente de transporte terrestre com excesso de peso nessas balanças, além de apresentar, no prazo de 180 dias, estudo técnico que dimensione a quantidade necessária de balanças de pesagem veicular na extensão da rodovia, com base nas peculiaridades do solo amazônico, a ser avaliado em perícia judicial.&lt;/p&gt;
+&lt;p&gt;Danos materiais e morais &amp;#8211; o MPF também pede a condenação do DNIT e da União, ao pagamento de indenização por danos materiais e morais às vítimas de acidentes que tiverem como causa principal as más condições de trafegabilidade e sinalização da BR-317, a serem liquidados individual e especificamente, em procedimento prévio ao cumprimento da sentença condenatória, além da condenação do DNIT e da União ao pagamento de dano moral coletivo em valor não inferior a R$ 10 milhões, a ser revertido em projetos de memória às vítimas, educação rodoviária e ações educativas a respeito da melhoria da trafegabilidade nas rodovias federais.&lt;/p&gt;
+&lt;p&gt;O processo tramita na 3ª Vara Federal da Seção Judiciária do Acre e pode ser acompanhado pelo número 1013342-48.2022.4.01.3000. + +&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/mpf-aciona-justica-para-garantir-recuperacao-da-br-317-no-acre/</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/11/image_preview.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gladson Cameli inspeciona obras do Anel Viário de Basileia e Epitaciolândia: último gargalo para ligação com o Pacífico</t>
+          <t>2022-11-30T00:06:41</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://acreagora.com/2022/01/28/gladson-cameli-inspeciona-obras-do-anel-viario-de-basileia-e-epitaciolandia-ultimo-gargalo-para-ligacao-com-o-pacifico/</t>
+          <t>Acre segue abrindo novos postos de trabalho formal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Acre teve um saldo positivo de 679 vagas formais de trabalho em outubro de 2022, após ter obtido um saldo de 727 vagas em agosto. Os dados foram divulgados hoje (29/11), pelo Cadastro Nacional de Empregados e Desempregados (CAGED) do Ministério do Trabalho e da Previdência. O saldo do mês em 2022 ficou 29,4% abaixo do saldo de outubro de 2021 (956). O saldo de outubro/22 foi resultado de 3.845 contratações menos 3.166 de demissões.&lt;br /&gt;
+Assim como em setembro, o resultado positivo foi distribuído em todo o país e em todos os setores da economia, como tem ocorrido nos últimos dados do Caged divulgados pelo governo. A geração de empregos foi percebida em 26 Unidades da Federação, com excelente desempenho em São Paulo, que gerou 60.404 novos postos (+0,46%), com destaque para serviços (+37.275) e comércio (+14.192), seguido do Rio Grande do Sul, com mais 13.853 postos (+0,52%) e o Paraná, com mais 10.525 postos (+0,36%).&lt;/p&gt;
+&lt;p&gt;Do ponto de vista regional, o destaque foi a região Sudeste, com um crescimento de mais de 80.740 novos postos de trabalho.&lt;/p&gt;
+&lt;p&gt;Numa análise por setor, destaque para o ótimo desempenho do setor de serviços, com geração em outubro de 91.294 vagas formais. Foi mantida também a aceleração do comércio com a proximidade do final de ano, um saldo positivo de 49.356 novos postos. Também a indústria e a construção civil seguiram crescendo, com mais 14.891 e 5.348 mil postos de trabalho gerados, respectivamente. Somente a agropecuária registrou saldo negativo de -1.435 postos de trabalho formais no mês.&lt;br /&gt;
+Com &lt;strong&gt;Fórum de Desenvolvimento do Acre&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/11/30/acre-segue-abrindo-novos-postos-de-trabalho-com-carteira-assinada-mas-estoque-de-vagas-e-quase-30-menor-que-em-2021/</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2021/01/carteira.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli recebe desembargadora de SP que dará palestra no encerramento do curso de formação da Polícia Civil</t>
+          <t>2022-11-30T19:57:05</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/governador-gladson-cameli-recebe-desembargadora-de-sp-que-dara-palestra-no-encerramento-do-curso-de-formacao-da-policia-civil/</t>
+          <t>Vanda Milani recebe o prêmio de melhor parlamentar federal do Acre da atual legislatura</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285399" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?resize=740%2C499&amp;#038;ssl=1" alt="" width="740" height="499" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?w=1200&amp;amp;ssl=1 1200w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?resize=300%2C202&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?resize=660%2C445&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?resize=768%2C518&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Concluindo com chave de ouro seu mandato parlamentar, a deputada Vanda Milani (PROS) recebeu, esta terça-feira(29) em Brasília, do Ranking dos Políticos-uma das mais prestigiadas e respeitadas instituições de análise de desempenho político na capital federal &amp;#8211; o prêmio de Melhor Parlamentar do Acre da Legislatura 2019/2022&lt;/p&gt;
+&lt;p&gt;Bastante rigoroso em suas escolhas, o Ranking dos Politícos utiliza critérios rígidos em sua avaliação para indicação do parlamentar ao prêmio tais como antiprívilégios, votação coerente, liderança no Congresso Nacional e antidesperdício(ou seja, como o parlamentar otimiza os recursos disponibilizados para seu mandato).”E a dra. Vanda Milani preencheu com folga todas estas exigências. E a premiação se deu pela deputada ter contribuído para o desenvolvimento do Brasil no Congresso Nacional”, disse Juan Carlo de Arruda, diretor de Relações Institucionais do Ranking dos Políticos, ao entregar em mãos o prêmio.&lt;/p&gt;
+&lt;p&gt;Agraciada pela 2º vez com uma premiação do Ranking dos Políticos, já que, em 2021, foi escolhida como a Melhor Parlamentar do Acre, a deputada disse estar extremamente honrada e alegre pela escolha. ”Devo confessar que não esperava tanto. A população de nosso Estado sabe que eu me propus a ser política para levar o melhor ao nosso Estado, para bem representar o cidadão acreano e o nosso pais”.&lt;/p&gt;
+&lt;p&gt;Reconhecimento do trabalho parlamentar.&lt;br /&gt;
+Considerada ainda campeã no envio de emendas parlamentares ao Estado, Vanda Milani acrescentou que procurou honrar, ao longo de todo seu mandato, o voto de confiança depositado por seus eleitores num esforço de sempre beneficiar toda a comunidade acreana. “Nosso trabalho parlamentar teve como foco apoiar todos os municípios acreanos, independente de coloração partidária, sempre visando contribuir para o progresso econômico e desenvolvimento social de todo o Estado”, garantiu.&lt;/p&gt;
+&lt;p&gt;Visivelmente emocionada e grata pela escolha, Vanda Milani falou que o prêmio reflete o reconhecimento de um esforço político incessante ao longo de 4 anos para dignificar o Acre e os acreanos. ”Eu acredito que sempre dei o melhor de mim ao longo de minha carreira. São mais de 35 anos de vida pública e agora mais 4 de Câmara Federal. E o nosso Estado sabe que sempre pôde contar comigo”, enfatizou.&lt;/p&gt;
+&lt;p&gt;Agradecimento.&lt;br /&gt;
+Por fim, a parlamentar agradeceu ao Ranking dos Políticos, “pelo carinho e consideração que sempre tiveram comigo e por terem me concedido este título.È uma honra imensurável não só para mim, mas para os acreanos e o Estado do Acre. Sinto-me, sinceramente, com o dever cumprido para com esta legislatura”, finalizou.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/vanda-milani-recebe-o-premio-de-melhor-parlamentar-federal-do-acre-da-atual-legislatura/</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-13.35.58.jpeg?fit=1200%2C809&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>“Sou Bolsonaro de manhã, de tarde e de noite”, diz Gladson Cameli durante megacarreata em apoio à reeleição do presidente</t>
+          <t>2022-11-30T19:42:26</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/sou-bolsonaro-de-manha-de-tarde-e-de-noite-diz-gladson-cameli-durante-megacarreata-em-apoio-a-reeleicao-do-presidente/</t>
+          <t>Argentina supera Polônia, mas ambas se classificam no Grupo C da Copa</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h2 class="col-10 offset-1 animated fadeInDown dealy-750 display-6 display-md-4 display-lg-5 font-weight-bold alt-font text-center my-1"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285396" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?w=1170&amp;amp;ssl=1 1170w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h2&gt;
+&lt;h3 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Europeus também avançam devido ao 2 a 1 do México sobre a Arábia&lt;/h3&gt;
+&lt;p&gt;Antes da Copa do Catar, Lionel Messi anunciou que o Mundial seria o último da carreira. Nesta quarta-feira (30), o sonho de levantar o troféu mais importante do futebol antes de pendurar as chuteiras ganhou sobrevida, com a vitória dos argentinos sobre a Polônia, por 2 a 0, no Estádio 974, em Doha, pela terceira e última rodada do Grupo C.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i2.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;Argentina domina a Polônia, vence e se classifica em primeiro lugar do grupo! &lt;a href="https://twitter.com/hashtag/CopaDoMundoFIFA?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#CopaDoMundoFIFA&lt;/a&gt; &lt;a href="https://t.co/4VNcedCgsY" target="_blank"&gt;pic.twitter.com/4VNcedCgsY&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1598059090558980096?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="4"&gt;A vitória, cheia de autoridade, deu à Argentina a ponta da chave, com seis pontos. Nada mal para quem estreou perdendo da Arábia Saudita por 2 a 1 e viu chegar ao fim, de forma surpreendente, uma série invicta de 36 partidas oficiais. Os poloneses, com os mesmos quatro pontos do México, levaram a segunda vaga do grupo por terem um gol a mais que os mexicanos de saldo. A nação europeia não passava de fase em uma Copa desde 1986.&lt;/p&gt;
+&lt;p data-reader-unique-id="5"&gt;A presença de Messi o isolou como o argentino com mais partidas em Copas. Foi o 22º jogo dele, superando ninguém menos que Diego Armando Maradona. Se a equipe sul-americana for à final e o astro estiver em campo nos quatro duelos até lá, ele se tornará o atleta que mais vezes atuou em Mundiais. A estatística tem o alemão Lothar Matthäus como líder, com 25 participações.&lt;/p&gt;
+&lt;p data-reader-unique-id="6"&gt;Os compromissos de ambas as seleções pelas oitavas de final serão neste fim de semana. No sábado (3), às 16h (horário de Brasília), a Argentina encara a Austrália, no Estádio Ahmed bin Ali, em Al Rayyan. No domingo (4), às 12h, a Polônia terá pela frente a França, atual campeã mundial.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="es"&gt;&lt;a href="https://twitter.com/hashtag/Qatar2022?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#Qatar2022&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;⚽ &lt;a href="https://twitter.com/Argentina?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;@Argentina&lt;/a&gt; 🇦🇷 2 (Alexis Mac Allister y Julián Álvarez) 🆚 &lt;a href="https://twitter.com/hashtag/Polonia?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#Polonia&lt;/a&gt; 🇵🇱 0&lt;/p&gt;
+&lt;p&gt;⏱ 30&amp;#8242; ST &lt;a href="https://t.co/DfIPKjlXkY" target="_blank"&gt;pic.twitter.com/DfIPKjlXkY&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Selección Argentina 🇦🇷 (@Argentina) &lt;a href="https://twitter.com/Argentina/status/1598053043123245059?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="9"&gt;Assim como na vitória por 2 a 0 sobre o México, Lionel Scaloni escalou a seleção argentina com várias mudanças. Na lateral direita, Nahuel Molina retomou o posto de titular no lugar de Gonzalo Montiel (pendurado). Na zaga, Cristian Romero (1,85 metro) substituiu Lisandro Martínez (1,75 metro), para enfrentar Robert Lewandowski (1,85 metro) pelo alto. No meio-campo, Guido Rodríguez (que levou a vaga de Leandro Paredes contra os mexicanos) saiu para entrada de Enzo Fernández. Por fim, no ataque, Júlian Álvarez desbancou Lautaro Martínez.&lt;/p&gt;
+&lt;p data-reader-unique-id="10"&gt;No lado polonês, Czeslaw Michniewicz repetiu quase toda a formação que bateu a Arábia Saudita por 2 a 0. A única alteração foi no ataque, com Lewandowski sozinho à frente e Karol Swiderski como ponta de lança, no lugar de Arkadiusz Milik, que fora o parceiro de área do centroavante do Barcelona (Espanha) no jogo anterior.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="ro"&gt;Szczęsny pega o segundo pênalti dele na &lt;a href="https://twitter.com/hashtag/CopaDoMundoFIFA?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#CopaDoMundoFIFA&lt;/a&gt;! &lt;a href="https://t.co/SMfKj6mpTp" target="_blank"&gt;pic.twitter.com/SMfKj6mpTp&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1598040166093840389?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="13"&gt;O primeiro tempo foi um massacre argentino para cima da Polônia. Regidos por Messi, os hermanos finalizaram 14 vezes, sendo nove em direção à meta de Wojciech Szczesny. Aos nove minutos, o goleiro polonês salvou um chute cruzado do craque, na área pela esquerda. Aos 16, o camisa 10 lançou Marcos Acuña na esquerda. O lateral, na área, levou à perna direita e mandou por cima do travessão. Aos 27, Acuña teve uma nova chance, na sobra de uma finalização do atacante Julián Álvarez. O chute, da entrada da área, saiu rente à trave esquerda.&lt;/p&gt;
+&lt;p data-reader-unique-id="14"&gt;Aos 36 minutos, Álvarez recebeu do meia Alexis Mac Allister na área e finalizou cruzado, para mais uma defesa de Szczesny. No rebote, o atacante do Manchester City (Inglaterra) cruzou pela esquerda e o goleiro acabou atingindo o rosto de Messi na área. Com auxílio do árbitro de vídeo (VAR), o pênalti foi assinalado. O camisa 10 cobrou, mas o arqueiro se lançou no canto esquerdo e salvou uma penalidade pela segunda vez nesta Copa.&lt;/p&gt;
+&lt;p data-reader-unique-id="15"&gt;A pressão da Argentina, que continuou após o pênalti perdido, não arrefeceu na volta do intervalo, com a diferença que, enfim, a rede balançou. Antes do cronômetro completar o primeiro giro, Molina recebeu pela direita do atacante Ángel Di Maria e cruzou rasteiro para Mac Allister, revelação de 23 anos, colocar a equipe sul-americana à frente.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;Alexis Mac Allister recebe cruzamento e chuta rasteiro no cantinho!&lt;/p&gt;
+&lt;p&gt;Um minuto de jogo e a &lt;a href="https://twitter.com/hashtag/ARG?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#ARG&lt;/a&gt; sai na frente! &lt;a href="https://t.co/ItKM8974qt" target="_blank"&gt;pic.twitter.com/ItKM8974qt&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1598046272954322944?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="15"&gt;A fome argentina não estava saciada. Com Messi se multiplicando à frente, os hermanos continuaram alugando o campo de ataque, rondando a área dos europeus, que pouco faziam para se desvencilharem da pressão. Questão de tempo, o segundo gol saiu dos pés de mais duas jovens promessas. Aos 22 minutos, Enzo Fernández, 21 anos, encontrou Álvarez na área. O atacante, de 22 anos, bateu no ângulo de Szczesny &amp;#8211; que, três minutos depois, evitou o terceiro ao salvar uma conclusão de Messi, após cruzamento de Enzo Fernández, pela esquerda.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;Julián Álvarez faz um golaço e amplia a vantagem da Argentina! 🕷️&lt;a href="https://twitter.com/hashtag/POL?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#POL&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/ARG?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#ARG&lt;/a&gt; &lt;a href="https://t.co/uWX4QF0UQA" target="_blank"&gt;pic.twitter.com/uWX4QF0UQA&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1598053351840567296?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="21"&gt;Acuada, a Polônia parecia mais preocupada em evitar outro gol, que poderia custar a vaga às oitavas, mas seguiu dando espaços à Argentina. Aos 40 minutos, o atacante Lautaro Martínez foi lançado pelo volante Rodrigo De Paul, entrou na área pela direita e bateu cruzado, próximo à trave direita, na última boa chance da partida.&lt;/p&gt;
+&lt;p data-reader-unique-id="22"&gt;Após o apito final, enquanto a torcida argentina comemorava, a polonesa, tensa, voltou as atenções ao jogo entre México e Arábia Saudita, que estava já nos acréscimos. Os mexicanos venciam por 2 a 0 e estavam a um gol da classificação, mas quem balançou as redes foram os sauditas, com o atacante Salem Al-Dawsari. Apesar da derrota, os europeus celebraram a vaga nas oitavas.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/argentina-supera-polonia-mas-ambas-se-classificam-no-grupo-c-da-copa/</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/messi_argentina_2_x_0_polonia_catar_2022.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli participa da abertura de seminário que discute segurança pública e economia</t>
+          <t>2022-11-30T19:35:23</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/governador-gladson-cameli-participa-da-abertura-de-seminario-que-discute-seguranca-publica-e-economia/</t>
+          <t>Tite modifica equipe e abre espaço para disputa por posições</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h2 class="col-10 offset-1 animated fadeInDown dealy-750 display-6 display-md-4 display-lg-5 font-weight-bold alt-font text-center my-1"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285392" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?w=1170&amp;amp;ssl=1 1170w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h2&gt;
+&lt;h3 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Alex Telles defende Daniel Alves e elogia briga saudável na equipe&lt;/h3&gt;
+&lt;p data-reader-unique-id="1"&gt;A confirmação de um time bastante modificado para o confronto de sexta-feira (2), contra Camarões, abriu a temporada de questionamentos sobre a disputa por vagas no time titular. E as posições que mais geram dúvidas entre torcedores e imprensa são as laterais.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;Com Danilo e Alex Sandro lesionados e a seleção brasileira já classificada, Daniel Alves e Alex Telles terão oportunidade de começar entre os titulares. Para o lateral-esquerdo Alex Telles, a disputa é saudável.&lt;/p&gt;
+&lt;blockquote data-reader-unique-id="3"&gt;
+&lt;p data-reader-unique-id="4"&gt;“Todos que estão aqui querem fazer parte deste momento. A disputa é muito sadia dentro do grupo. Vou contar um momento que aconteceu. Quando a gente fez o gol contra a Suíça e foi comemorar todos juntos, o Alex Sandro me puxou e falou: prepara porque eu acho que vou sair. A gente tem uma relação muito boa e sabe que momento que aparece, a gente está preparado em todas as posições. O companheirismo, a clareza entre os atletas e a disputa sadia faz com que o grupo cresça e quem ganha com isso é o Brasil”&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;figure data-reader-unique-id="5"&gt;
+&lt;div data-reader-unique-id="6"&gt;
+&lt;div data-reader-unique-id="7"&gt;
+&lt;div style="width: 764px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="extendsBeyondTextColumn" title="Lucas Figueiredo/CBF/Direitos Reservados" src="https://i0.wp.com/imagens.ebc.com.br/-Cf9uEIQKJWAIrO5GTohVTo4n94=/754x0/smart/https://agenciabrasil.ebc.com.br/sites/default/files/thumbnails/image/alex_telles_brasil_catar_2022.jpg?resize=740%2C494&amp;#038;ssl=1" alt="Brasil x Suiça - Alex Telles - Copa do Catar" width="740" height="494" data-reader-unique-id="8" data-recalc-dims="1" /&gt;&lt;p class="wp-caption-text"&gt;O lateral-esquerdo Alex Telles pode voltar a campo pela seleção brasileira na última rodada da fase de grupos, contra Camarões, às 16h de sexta-feira (2) &amp;#8211; Lucas Figueiredo/CBF/Direitos Reservados&lt;/p&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/figure&gt;
+&lt;p data-reader-unique-id="13"&gt;Alex Telles substituiu Alex Sandro no fim do jogo contra a Suíça, e se saiu muito bem. Pela direita, no entanto, Tite decidiu escalar Éder Militão mesmo tendo Daniel Alves como opção. A convocação do jogador de 39 anos foi bastante criticada, mas, nesta sexta-feira, o experiente lateral terá oportunidade de mostrar que ainda dá conta do recado. Alex Telles defendeu o companheiro.&lt;/p&gt;
+&lt;blockquote data-reader-unique-id="14"&gt;
+&lt;p data-reader-unique-id="15"&gt;“Sinceramente, acho muito chato o que fazem com ele. O que falam e da forma que falam sobre o momento dele. A gente no dia a dia vê que ele está totalmente focado, concentrado e positivo. É o cara que tem mais títulos no mundo neste esporte. Dispensa comentários, tem uma mentalidade muito forte, não é à toa que está em mais uma Copa do Mundo”.&lt;/p&gt;
+&lt;/blockquote&gt;
+&lt;p data-reader-unique-id="16"&gt;Daniel Alves não joga uma partida oficial desde 24 de setembro, pelo Pumas, do México. Ele será o capitão da Seleção pela 125ª vez e o jogador mais velho a disputar uma partida de Copa do Mundo pelo Brasil.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/tite-modifica-equipe-e-abre-espaco-para-disputa-por-posicoes/</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/2022-11-24t204805z_108586168_up1eibo1ls3x3_rtrmadp_3_soccer-worldcup-bra-srb-report.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Em evento internacional, governador Gladson Cameli reafirma compromisso com povos indígenas e o meio ambiente</t>
+          <t>2022-11-30T19:32:11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/em-evento-internacional-governador-gladson-cameli-reafirma-compromisso-com-povos-indigenas-e-o-meio-ambiente/</t>
+          <t>Tunísia faz história ao vencer a França, mas dá adeus à Copa do Catar</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h2 class="col-10 offset-1 animated fadeInDown dealy-750 display-6 display-md-4 display-lg-5 font-weight-bold alt-font text-center my-1"&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285389" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?w=1170&amp;amp;ssl=1 1170w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/h2&gt;
+&lt;h3 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Triunfo da Austrália sobre Dinamarca deixa africanos fora das oitavas&lt;/h3&gt;
+&lt;p&gt;A Tunísia deu adeus à Copa do Mundo do Catar, mas fez história nesta quarta-feira (30). As Águias do Cartago fizeram a parte que lhes cabia e superaram a França, atual campeã, por 1 a 0, no Estádio Cidade da Educação, em Doha. A equipe africana, porém, dependia de um resultado favorável no duelo entre Austrália e Dinamarca, no Estádio Al Janoub, em Al Wakrah. O triunfo dos Socceroos, também por 1 a 0, acabou eliminando os tunisianos.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i2.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;FIM DE JOGO!&lt;/p&gt;
+&lt;p&gt;Com gol de Khazri, a &lt;a href="https://twitter.com/hashtag/TUN?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#TUN&lt;/a&gt; conseguiu uma vitória HEROICA sobre a &lt;a href="https://twitter.com/hashtag/FRA?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#FRA&lt;/a&gt;! &lt;a href="https://t.co/SyDSzFpPHf" target="_blank"&gt;pic.twitter.com/SyDSzFpPHf&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1597999172484997121?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p&gt;Apesar da derrota, os Bleus &amp;#8211; que entraram em campo já classificados &amp;#8211; finalizaram o Grupo D na ponta, com os mesmos seis pontos da vice-líder Austrália, ficando à frente pelo saldo de gols. Os tunisianos, com quatro pontos, despedem-se da Copa do Catar na terceira colocação da chave, com quatro pontos.&lt;/p&gt;
+&lt;p&gt;O primeiro triunfo da Tunísia sobre um europeu na história do Mundial foi especial, também, pelo rival ser um antigo colonizador. O país africano foi um protetorado francês entre 1881 e 1956, quando, enfim, conseguiu independência. O período deixou marcas na população. Tanto que, antes de a bola rolar, alguns torcedores vaiaram a &amp;#8220;A Marselhesa&amp;#8221;, como é chamado o hino da França. Ato parecido, mas em maior profusão, ocorreu em 2008, quando as seleções jogaram em Paris, capital francesa. Na ocasião, o meia Hatem Ben Arfa, de ascendência tunisiana, mas que defendia os Bleus, foi o maior alvo das arquibancadas.&lt;/p&gt;
+&lt;p&gt;Viva na briga pelo terceiro título mundial (e o segundo consecutivo), apesar do fim de uma sequência de nove partidas de invencibilidade em Copas, a França terá pela frente, nas oitavas de final, o vice-líder do Grupo D, que reúne Argentina, Polônia, Arábia Saudita e México. O jogo será no domingo (4), às 12h, no Estádio Al Thumama, em Doha.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="fr"&gt;🔜 Prochain match dimanche face aux 2es du groupe C !&lt;a href="https://twitter.com/hashtag/FiersdetreBleus?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#FiersdetreBleus&lt;/a&gt; &lt;a href="https://t.co/lfhLrecvcF" target="_blank"&gt;pic.twitter.com/lfhLrecvcF&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Equipe de France ⭐⭐ (@equipedefrance) &lt;a href="https://twitter.com/equipedefrance/status/1598006254047461376?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p&gt;Como adiantado pelo técnico Didier Deschamps na última terça-feira (29), a França entrou em campo bastante modificada, com apenas dois titulares (o zagueiro Raphael Varane e o meia Aurelien Tchouaméni) dos duelos anteriores. Na Tunísia, Jalel Khadri também mexeu bastante: seis alterações em relação à derrota para a Austrália, por 1 a 0, na rodada passada, com as saídas do zagueiro Dylan Bronn, dos laterais Mohamed Dräger e Ali Abdi, dos meias Naïm Sliti e Youssef Mskani e do atacante Issam Jebali, para entradas, respectivamente, de Nader Ghandri, Wajdi Kechirda, Ali Maaloul, Ali Ben Romdhane, Anis Slimane e Wahbi Khazri.&lt;/p&gt;
+&lt;p&gt;A necessidade de vitória fez a Tunísia iniciar o jogo mais agressiva, tentando sair em velocidade pelos lados, mas com dificuldades para entrar na área e finalizar, dada à marcação dos zagueiros Ibrahima Konaté e Varane. Aos sete minutos, Ghandri até balançou as redes ao desviar, quase na pequena área, uma cobrança de falta de Khazri pela esquerda, mas o lance foi invalidado por impedimento.&lt;/p&gt;
+&lt;p&gt;A bola parada e, principalmente, cruzamentos, foram as únicas armas das Águias do Cartago no primeiro tempo, sem sucesso. Os africanos fizeram 19 levantamentos na área durante os 45 minutos iniciais e levaram a melhor somente uma vez. Os franceses, sem pressa, administraram a posse (46% a 33%, com 21% em disputa), buscando espaços na marcação da Tunísia, mas também sem sustos à meta do goleiro Aymen Dahmen.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet"&gt;
+&lt;p dir="ltr" lang="pt"&gt;O gol de Kahzri que pode colocar a &lt;a href="https://twitter.com/hashtag/TUN?src=hash&amp;amp;ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;#TUN&lt;/a&gt; nas oitavas de final da Copa do Mundo! 🇹🇳⚽️&lt;/p&gt;
+&lt;p&gt;Quem sabe o que vai acontecer nos próximos minutos? 😅 &lt;a href="https://t.co/jmelT2SAeV" target="_blank"&gt;pic.twitter.com/jmelT2SAeV&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;— Copa do Mundo FIFA 🏆 (@fifaworldcup_pt) &lt;a href="https://twitter.com/fifaworldcup_pt/status/1597990543383896064?ref_src=twsrc%5Etfw" target="_blank" rel="noopener"&gt;November 30, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/tunisia-faz-historia-ao-vencer-a-franca-mas-da-adeus-a-copa-do-catar/</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/wahbi_khazri_jogador_tunisia_1_x_0_franca_catar_2022.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Governador Gladson Cameli representa o Acre em evento internacional de mudanças climáticas</t>
+          <t>2022-11-30T19:25:33</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/governador-gladson-cameli-representa-o-acre-em-evento-internacional-de-mudancas-climaticas/</t>
+          <t>Confiança empresarial atinge menor nível desde fevereiro</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter wp-image-285384 size-full" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?w=1170&amp;amp;ssl=1 1170w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;h3 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Pesquisa é da Fundação Getúlio Vargas&lt;/h3&gt;
+&lt;p&gt;O Índice de Confiança Empresarial (ICE), medido pela Fundação Getulio Vargas (FGV), recuou 6,7 pontos&lt;span id="OBJ_PREFIX_DWT159_com_zimbra_date" role="link"&gt; de outubro&lt;/span&gt; para novembro. Assim, o indicador atingiu 91,5 pontos, em uma escala de zero a 200, seu menor nível desde fevereiro deste ano (91,1 pontos).&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i2.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;O ICE consolida os índices de confiança dos empresários de quatro setores da economia pesquisados pela FGV: indústria, construção, comércio e serviços.&lt;/p&gt;
+&lt;h2&gt;Queda&lt;/h2&gt;
+&lt;p&gt;O Índice de Situação Atual Empresarial, que mede a percepção do empresariado brasileiro em relação ao presente, caiu 4,1 pontos e atingiu 95,2 pontos. O Índice de Expectativas teve uma queda mais acentuada: oito pontos, chegando a 87,9.&lt;/p&gt;
+&lt;p&gt;Quatro setores produtivos tiveram queda do ICE em novembro. A mais intensa foi observada no comércio (-10,8 pontos). Em seguida, aparecem serviços (-5,4 pontos), construção (-5,3 pontos) e indústria (-3,6 pontos).&lt;/p&gt;
+&lt;p&gt;Com a queda mais acentuada, o comércio também tem o menor índice de confiança: 87,2 pontos. A construção tem o maior índice: 95,6 pontos.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/confianca-empresarial-atinge-menor-nivel-desde-fevereiro/</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/comercio_black_friday_rvrsa_abr_2511213968.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gladson Cameli tem encontro com Bolsonaro e reafirma apoio para a reeleição do presidente</t>
+          <t>2022-11-30T19:24:20</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/gladson-cameli-tem-encontro-com-bolsonaro-e-reafirma-apoio-para-a-reeleicao-do-presidente/</t>
+          <t>Dívida bruta do Brasil fica perto do nível antes da pandemia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="attachment_284637" style="width: 1180px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-284637" decoding="async" loading="lazy" class="size-full wp-image-284637" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=740%2C443&amp;#038;ssl=1" alt="" width="740" height="443" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?w=1170&amp;amp;ssl=1 1170w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=300%2C179&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=660%2C395&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=768%2C459&amp;amp;ssl=1 768w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=590%2C354&amp;amp;ssl=1 590w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?resize=400%2C240&amp;amp;ssl=1 400w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-284637" class="wp-caption-text"&gt;Edifício-Sede do Banco Central em Brasília&lt;/p&gt;&lt;/div&gt;
+&lt;h3 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Indicador fechou em 76,8% do Produto Interno Bruto&lt;/h3&gt;
+&lt;p&gt;A dívida bruta do Brasil caiu novamente em outubro e fechou em 76,8% do Produto Interno Bruto (PIB, a soma dos bens e serviços produzidos no país), correspondendo a R$ 7,3 trilhões.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i2.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=740&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Os dados foram divulgados hoje (30), em Brasília, pelo Banco Central (BC). Trata-se do menor patamar desde fevereiro de 2020, antes do início da pandemia, quando a dívida era de 75,3% do PIB. No mês passado, em setembro, o indicador somava 77,1% do PIB.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Com a pandemia, a dívida bruta subiu em decorrência dos gastos necessários para o seu enfrentamento, mas tem decrescido&amp;#8221;, disse Fernando Rocha, chefe do Departamento de Estatísticas do BC, em entrevista. A dívida bruta do governo geral compreende o governo federal, Previdência Social (INSS) e governos municipais e estaduais.&lt;/p&gt;
+&lt;p&gt;Essa queda no endividamento público ao longo do ano é explicada por três fatores combinados, como o crescimento do PIB, resgates líquidos da dívida e valorização cambial. &amp;#8220;No acumulado no ano, a redução de 3,5 pontos percentuais (pp) refletiu o impacto do crescimento do PIB nominal (-7,0 pp), dos resgates líquidos de dívida (-2,5 p.p), do efeito da valorização cambial acumulada (-0,3 pp) e dos juros nominais apropriados (+6,3 pp)&amp;#8221;, informou o BC.&lt;/p&gt;
+&lt;p&gt;A estimativa do governo federal é que a dívida pública do país feche o ano menor do que os níveis pré-pandemia. Já a dívida líquida do setor público (balanço entre o total de créditos e débitos dos governos federal, estaduais e municipais) ficou estável em 58,3% do PIB no mês passado, mesmo percentual apurado em setembro.&lt;/p&gt;
+&lt;h2&gt;Superávit primário&lt;/h2&gt;
+&lt;p&gt;Já as contas públicas fecharam outubro com saldo positivo de R$ 27,1 bilhões. O valor é inferior ao saldo positivo de R$ 35,4 bilhões obtido em outubro de 2021. O governo central e as empresas estatais apresentaram superávits de R$ 30,2 bilhões e de R$ 711 milhões, respectivamente, enquanto os governos regionais tiveram déficit de R$ 3,9 bilhões.&lt;/p&gt;
+&lt;p&gt;Nos 12 meses encerrados em outubro, o superávit primário do setor público consolidado atingiu R$ 173,1 bilhões, equivalente a 1,82% do PIB.&lt;/p&gt;
+&lt;p&gt;Em 2021, as contas públicas fecharam o ano com superávit primário de R$ 64,7 bilhões, 0,75% do PIB. Foi o primeiro ano de resultados positivos nas contas do setor público, após sete anos de déficit. Em 2020, as contas públicas tiveram déficit primário recorde de R$ 702,950 bilhões, 9,41% do PIB, em razão de gastos com a pandemia da covid-19.&lt;/p&gt;
+&lt;h2&gt;Déficit&lt;/h2&gt;
+&lt;p&gt;O desempenho dos governos estaduais, que registraram déficit em outubro último, foi bem inferior ao superávit de R$ 6,6 bilhões obtido em outubro de 2021. A explicação, segundo Fernando Rocha, é a queda na arrecadação do Imposto sobre Circulação de Mercadorias e Serviços &lt;a href="http://agenciabrasil.ebc.com.br/economia/noticia/2022-06/presidente-sanciona-com-vetos-lei-que-previa-compensacoes-de-icms" target="_blank" rel="noopener"&gt;(ICMS)&lt;/a&gt;, tributo exclusivo dos estados, e que sofreu uma redução de alíquota para alguns setores essenciais, como combustíveis, energia e telecomunicações por força de uma Lei Complementar aprovada em julho desse ano.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Um aspecto importante para explicar o resultado é a redução de receitas, dado que a arrecadação do ICMS, ajustada pela inflação, ou seja, em termos reais, caiu 12,1% na comparação de outubro de 2021 com outubro de 2022&amp;#8221;, explicou Rocha.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/divida-bruta-do-brasil-fica-perto-do-nivel-antes-da-pandemia/</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/banco_central_mcajr_abr_0104222276.jpg?fit=1170%2C700&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli</t>
+          <t>2022-11-30T19:17:59</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli/</t>
+          <t>Saúde reforça importância do diagnóstico precoce para tratar câncer de mama</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O governo do Estado, por meio do Centro de Controle Oncológico do Acre (Cecon) da Secretaria de Saúde (Sesacre), alerta as mulheres acima de 40 anos sobre a importância de realizar o exame de mama – a mamografia – para o diagnóstico precoce de câncer, procedimento que oferece mais chances de cura.&lt;/p&gt;
+&lt;div id="attachment_285379" style="width: 1290px" class="wp-caption aligncenter"&gt;&lt;img aria-describedby="caption-attachment-285379" decoding="async" loading="lazy" class="size-full wp-image-285379" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?resize=740%2C555&amp;#038;ssl=1" alt="" width="740" height="555" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?w=1280&amp;amp;ssl=1 1280w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?resize=300%2C225&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?resize=660%2C495&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?resize=768%2C576&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;p id="caption-attachment-285379" class="wp-caption-text"&gt;O diagnóstico precoce oferece mais chances de cura. Foto: Elenilson Oliveira&lt;/p&gt;&lt;/div&gt;
+&lt;p&gt;A paciente pode ir a qualquer unidade básica de saúde (UBS), munida dos documentos pessoais (RG, CPF e cartão do SUS) e comprovante de residência, para marcar dia e horário para a realização da sua mamografia. As UBS ou Uraps realizam o agendamento desses exames para a unidade-referência de atendimento ao serviço.&lt;/p&gt;
+&lt;div id="chunk-2sml4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="22" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Caso a mulher já seja paciente do centro, pode ir direto à unidade com os documentos pessoais e ser atendida: “Nós temos esse exame, que é importantíssimo, disponível de forma gratuita e as mulheres precisam fazer”, enfatiza gerente do Cecon, Carina Hechenberger. A gestora também reforça a importância de as mulheres buscarem os resultados dos seus exames e retornarem ao médico que as encaminhou para o devido fluxo.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/saude-reforca-importancia-do-diagnostico-precoce-para-tratar-cancer-de-mama/</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2020-10-22-at-15.04.31.jpeg?fit=1280%2C960&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pesquisa coloca Gladson Cameli vencendo no 1° turno com 53%</t>
+          <t>2022-11-30T19:15:10</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/pesquisa-coloca-gladson-cameli-vencendo-no-1-turno-com-53/</t>
+          <t>Governo vai convocar 181 professores do cadastro de reserva</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-239249" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?resize=740%2C490&amp;#038;ssl=1" alt="" width="740" height="490" srcset="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?w=1600&amp;amp;ssl=1 1600w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?resize=300%2C199&amp;amp;ssl=1 300w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?resize=660%2C437&amp;amp;ssl=1 660w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?resize=768%2C509&amp;amp;ssl=1 768w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?resize=1536%2C1017&amp;amp;ssl=1 1536w, https://i2.wp.com/oaltoacre.com/wp-content/uploads/2021/11/fachada-see-SECOM.jpg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Em uma audiência pública realizada nesta quarta-feira, 30, na Assembleia Legislativa do Acre (Aleac), o secretário de Planejamento (Seplag), coronel Ricardo Brandão, deu a garantia que o governo do Estado irá realizar, até o primeiro trimestre do ano que vem, a convocação de 181 professores do cadastro de reserva.&lt;/p&gt;
+&lt;p&gt;Ao longo dos últimos quatro anos, o governo do Estado já realizou a convocação de 800 professores efetivos, dos 1.026 que foram aprovados em um concurso público realizado no final de 2018. De acordo com o secretário, já foi solicitada a convocação de 57 professores, dos 181 que estão no cadastro.&lt;/p&gt;
+&lt;p&gt;A convocação dos outros 127 professores, ainda de acordo com o secretário, deverá ser realizada nos primeiros meses de 2023. Para isso, a validade do concurso, que havia encerrado em julho de 2021, foi prorrogada até o mês de abril de 2023.&lt;/p&gt;
+&lt;p&gt;“Com a prorrogação da validade do concurso até abril de 2023, já temos um planejamento para realizar a convocação dos 181 professores efetivos. Já pedimos a convocação de 54 profissionais e os outros 127 deverão ser convocados até o primeiro trimestre do ano que vem”, informou Ricardo Brandão.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/governo-vai-convocar-181-professores-do-cadastro-de-reserva/</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2021/08/fachada-see-1200x795-1.jpg?fit=1200%2C795&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Assis Brasil realiza última e maior motocarreata em apoio a Gladson Cameli</t>
+          <t>2022-11-30T18:56:15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/assis-brasil-realiza-ultima-e-maior-motocarreata-em-apoio-a-gladson-cameli/</t>
+          <t>Argentina é dominante, vence a Polônia e ambas avançam às oitavas</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285371" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?resize=740%2C493&amp;#038;ssl=1" alt="" width="740" height="493" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?w=1240&amp;amp;ssl=1 1240w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;OGol&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;A Argentina demorou para engrenar, mas, no momento certo, voltou a apresentar o futebol esperado por todos. Nesta quarta-feira, a Albiceleste entrou em campo para encarar a Polônia, com a necessidade da vitória para avançar ás oitavas, e fez mais do que isso. Com um futebol envolvente, o selecionado comandado por Scaloni sequer correu riscos, não deu chances aos poloneses e venceu por 2 a 0.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;Com o resultado, o selecionado argentino emplaca a segunda vitória consecutiva, avança em primeiro no grupo C e vai encarar a surpreendente Austrália nas oitavas.&lt;/p&gt;
+&lt;p data-reader-unique-id="3"&gt;Do outro lado, com uma enorme dose de drama, a equipe polaca permanece com quatro e, através dos últimos critérios de desempate, supera o México para avançar em segundo. E vem mais sufoco por aí&amp;#8230; Nas oitavas, a Polônia vai enfrentar a França, atual campeã do mundo.&lt;/p&gt;
+&lt;h3 data-reader-unique-id="4"&gt;&lt;strong data-reader-unique-id="5"&gt;Argentina pressiona, mas Messi para em Szczęsny&lt;/strong&gt;&lt;/h3&gt;
+&lt;p data-reader-unique-id="6"&gt;Com a obrigação da vitória, a Argentina não perdeu tempo e partiu para cima da Polônia. Com as entradas de Enzo Fernandez e Julian Alvarez, o ataque argentino ficou mais leve e ganhou em dinâmica&amp;#8230; pior para os poloneses.&lt;/p&gt;
+&lt;p data-reader-unique-id="7"&gt;Aos sete, Lionel Messi foi acionado na entrada da área e, de perna direita, arriscou sem muita força. Pouco depois, o craque argentino conseguiu boa arrancada pela esquerda e finalizou com força, parando em grande defesa de Szczęsny.&lt;/p&gt;
+&lt;p data-reader-unique-id="8"&gt;O tempo foi passando e o ritmo albiceleste foi aumentando. Aos 28, Acuña levou muito perigo com chute forte que por pouco não entrou. Quem também arriscou foi Julián Álvarez, mas o arqueiro polonês salvou novamente. Do outro lado, a acuada Polônia pouco fez e Lewandowski praticamente não apareceu na primeira etapa.&lt;/p&gt;
+&lt;p data-reader-unique-id="9"&gt;Seguindo com a pressão, os argentino construíram a melhor chance aos 38. Após bola levantada pela esquerda, Messi dividiu com Szczęsny (pasmem) pelo alto e levou a pior. Após análise no VAR, o árbitro marcou pênalti. Na cobrança, o camisa 10 bateu firme, mas viu uma muralha polonesa crescer e fazer a defesa, mantendo o zero no placar.&lt;/p&gt;
+&lt;h3 data-reader-unique-id="10"&gt;&lt;strong data-reader-unique-id="11"&gt;Albiceleste deslancha, envolve e vence&lt;/strong&gt;&lt;/h3&gt;
+&lt;p data-reader-unique-id="12"&gt;Na volta do intervalo, com o mesmo ímpeto da primeira etapa, a Argentina abriu o placar logo no primeiro minuto. Após bela jogada trabalhada pela esquerda, Molina recebeu com espaço e cruzou na medida para Mac Allister, que bateu cruzado e venceu Szczesny.&lt;/p&gt;
+&lt;p data-reader-unique-id="13"&gt;Com a vantagem no marcador, o time argentino aproveitou o nervosismo polonês e aumentou o volume, criando chances para ampliar. Aos 15, Mac Allister recebeu mais uma vez com espaço, mas nesta parou no goleiro.&lt;/p&gt;
+&lt;p data-reader-unique-id="14"&gt;De tanto insistir, a Albiceleste marcou o segundo. Aos 22, Julian Alvarez recebeu de Enzo Fernández na área, clareou para perna direita e colocou na gaveta. Szczesny ainda tentou salvar, mas a bola morreu no fundo das redes.&lt;/p&gt;
+&lt;p data-reader-unique-id="15"&gt;A sede argentina não cessou. Mesmo com o 2 a 0, o selecionado sul-americano seguiu pressionando, construindo chances, mas não conseguiu marcar o terceiro. O resultado foi suficiente para os Hermanos avançarem em primeiro no grupo C.&lt;/p&gt;
+&lt;p data-reader-unique-id="16"&gt;O resultado também acabou sendo bom para a Polônia, que, mesmo sem ver a cor da bola, segurou o resultado e, ajudado pela Arábia Saudita, que marcou um gol no México já nos acréscimos, avançou (nos critérios de desempate) para o mata mata do Mundial.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oitavas/</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/argentina-e-dominante-vence-a-polonia-e-ambas-avancam-as-oit.jpg?fit=1240%2C826&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Gladson Cameli recebe documento com propostas de empresários do Acre</t>
+          <t>2022-11-30T18:54:21</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://oaltoacre.com/gladson-cameli-recebe-documento-com-propostas-de-empresarios-do-acre/</t>
+          <t>México vence Arábia Saudita, mas não consegue vaga nas oitavas de final</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-285367" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?resize=740%2C493&amp;#038;ssl=1" alt="" width="740" height="493" srcset="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?w=1240&amp;amp;ssl=1 1240w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?resize=300%2C200&amp;amp;ssl=1 300w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?resize=660%2C440&amp;amp;ssl=1 660w, https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;OGol&lt;/p&gt;
+&lt;p data-reader-unique-id="1"&gt;Em duelo direto por uma vaga nas oitavas de final da Copa do Mundo do Catar, o México venceu a Arábia Saudita por 2 a 1, mas não conseguiu a classificação. Henry Martín e Luis Chávez marcaram para os mexicanos, que ficaram precisando de um gol para conquistar a vaga na próxima fase.&lt;/p&gt;
+&lt;p data-reader-unique-id="2"&gt;México e Arábia Saudita dão adeus à Copa do Mundo. Os mexicanos terminam em terceiro, com quatro pontos, e os Sauditas em quarto, com três. A Argentina ficou com o primeiro lugar, com seis pontos, e a Polônia com o segundo, com quatro e um gol de vantagem para o México no saldo.&lt;/p&gt;
+&lt;h3 data-reader-unique-id="3"&gt;&lt;strong data-reader-unique-id="4"&gt;Pressão mexicana&lt;/strong&gt;&lt;/h3&gt;
+&lt;p data-reader-unique-id="5"&gt;Só a vitória interessava ao México, e o time adotou uma postura diferente das duas partidas anteriores, tentando tomar a iniciativa no campo de ataque. Com apenas dois minutos, Lozano recebeu no meio, se livrou da marcação e deixou Vega na cara do gol. O camisa 10 mexicano deu um leve toque de perna esquerda, mas parou em Al-Owais, que saiu bem do gol para fazer a defesa.&lt;/p&gt;
+&lt;p data-reader-unique-id="6"&gt;O México era melhor na partida, mas não conseguia concluir as jogadas. Em dez minutos, a Seleção Mexicana chegou ao ataque com perigo três vezes, mas não acertou o alvo do adversário. Do outro lado, os Sauditas tiveram dificuldades para sair da pressão mexicana e chegaram poucas vezes ao ataque.&lt;/p&gt;
+&lt;p data-reader-unique-id="7"&gt;Aos 35, o México teve uma ótima oportunidade para abrir o placar. Após cobrança de escanteio ensaiada, Gallardo apareceu livre na marca de pênalti para finalizar, mas pegou mal na bola e mandou por cima do gol.&lt;/p&gt;
+&lt;p data-reader-unique-id="8"&gt;Antes do intervalo, o México teve uma última chance com Pineda, em finalização com desvio que assustou o goleiro Al-Owais. Fim de primeiro tempo e empate sem gols para México e Arábia Saudita.&lt;/p&gt;
+&lt;h3 data-reader-unique-id="9"&gt;&lt;strong data-reader-unique-id="10"&gt;México vence, mas não se classifica&lt;/strong&gt;&lt;/h3&gt;
+&lt;p data-reader-unique-id="11"&gt;Depois de tanto insistir no primeiro tempo, o México precisou de apenas um minuto para balançar as redes no segundo. Montes desviou cobrança de escanteio na primeira trave e a bola sobrou limpa para Henry Martín, que de primeira, só empurrou para o gol e fez 1 a 0 México.&lt;/p&gt;
+&lt;p data-reader-unique-id="12"&gt;Seis minutos depois, o México ampliou a vantagem. Luis Chávez cobrou falta de muito longe com maestria e colocou a bola no ângulo, marcando um golaço. Início avassalador mexicano e sonho da classificação mais do que vivo.&lt;/p&gt;
+&lt;p data-reader-unique-id="13"&gt;Em dois minutos, os mexicanos criaram duas ótimas oportunidades. Aos 24, Henry Martín ficou a sobra de bola mal afastada pela defesa e mandou uma bomba de pé direito, por cima do gol. Depois, aos 26, Luis Chávez bateu outra falta no ângulo, mas dessa vez parou em Al-Owais, que voou para fazer uma grande defesa.&lt;/p&gt;
+&lt;p data-reader-unique-id="14"&gt;Antuna ficou no quase para o México duas vezes. Aos 32, o meia recebeu grande passe de Lozano e teve a chance de finalizar sem goleiro, mas foi travado pelo zagueiro saudita no momento exato. Minutos depois, Antuna chegou a balançar as redes, mas o gol foi anulado por impedimento.&lt;/p&gt;
+&lt;p data-reader-unique-id="15"&gt;No fim, os mexicanos sofreram um duro golpe. Em um momento de desatenção da defesa mexicana, Al-Dawsari entrou livre na área mexicana e marcou para a Arábia Saudita, colocando um fim no sonho de classificação do México. 2 a 1 México, que se despede da Copa junto com a Arábia Saudita.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://oaltoacre.com/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitavas-de-final/</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/mexico-vence-arabia-saudita-mas-nao-consegue-vaga-nas-oitava.jpg?fit=1240%2C826&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Gladson Cameli anuncia pagamento dos médicos do Acre com retroativo neste mês</t>
+          <t>2022-11-30T16:06:28</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/cotidiano/gladson-cameli-anuncia-pagamento-dos-medicos-do-acre-com-retroativo-neste-mes/</t>
+          <t>TSE marca diplomação de Lula e Alckmin para 12 de dezembro</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Cerimônia marca fim do processo eleitoral&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Tribunal Superior Eleitoral (TSE) confirmou que a diplomação do presidente eleito, Luiz Inácio Lula da Silva, e do vice-presidente eleito, Geraldo Alckmin, será realizada no dia 12 de dezembro, às 14h, no plenário da Corte. &lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496076&amp;amp;o=node" /&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496076&amp;amp;o=node" /&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A diplomação é uma cerimônia organizada pela Justiça Eleitoral para formalizar a escolha dos eleitos nas eleições e marca do fim do processo eleitoral. Com o diploma eleitoral em mãos, os eleitos podem tomar posse no dia 1° de janeiro de 2023. O documento será assinado e entregue pelo presidente do TSE, ministro Alexandre de Moraes&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O TSE é responsável pela diplomação dos candidatos à Presidência da República. Os deputados, senadores e governadores são diplomados pelos tribunais regionais eleitorais (TREs).&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;De acordo com o tribunal, a cerimônia seguirá recomendações sanitárias, como uso de máscara de proteção facial e distanciamento social.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/politica/tse-marca-diplomacao-de-lula-e-alckmin-para-12-de-dezembro/</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>“Vamos levar o Acre a um novo tempo”, afirma Gladson Cameli após vitória</t>
+          <t>2022-11-30T15:26:10</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/politica/vamos-levar-o-acre-a-um-novo-tempo-afirma-gladson-cameli-apos-vitoria/</t>
+          <t>MEC diz &amp;#8220;avaliar alternativas e buscar soluções&amp;#8221; para lidar com bloqueios de verbas destinadas a universidades</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Entidades apontam corte de R$ 1,68 bilhão na Educação&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Ministério da Educação (MEC) informou nesta terça-feira (29), em nota oficial, que está avaliando alternativas e que vai &amp;#8220;buscar soluções&amp;#8221; para lidar com o bloqueio de verbas da pasta, que atingem também universidades e institutos federais. &lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496081&amp;amp;o=node" /&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496081&amp;amp;o=node" /&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;#8220;O Ministério da Educação (MEC) informa que recebeu a notificação do Ministério da Economia a respeito dos bloqueios orçamentários realizados. É importante destacar que o MEC mantém a comunicação aberta com todos e mantém as tratativas junto ao Ministério da Economia e à Casa Civil para avaliar alternativas e buscar soluções para enfrentar a situação&amp;#8221;, informou o órgão.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Ontem (28), entidades como a Associação Nacional dos Dirigentes das Instituições Federais de Ensino (Andifes) e a União Nacional dos Estudantes (UNE), criticaram os bloqueios orçamentários. Ao todo, segundo o presidente da Andifes, Ricardo Marcelo Fonseca, reitor da Universidade Federal do Paraná (UFPR), com base em dados apurados nas próprias instituições, o bloqueio total no MEC foi de R$ 1,68 bilhão, sendo R$ 344 milhões nas universidades federais.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;#8220;Após o bloqueio orçamentário de R$ 438 milhões ocorrido na metade do ano, essa nova retirada de recursos, no valor de R$ 344 milhões, praticamente inviabiliza as finanças de todas as instituições&amp;#8221;, alertou a Andifes, em nota oficial.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Ainda segundo a entidade, os cortes comprometem o pagamento de serviços mais básicos, como água, luz, manutenção predial e bolsas de assistência estudantil, que garantem a permanência de jovens vulneráveis nas universidades.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;#8220;É um enorme prejuízo à nação que as universidades, institutos federais e a educação, essenciais para o futuro do nosso país, mais uma vez, sejam tratados como a última prioridade&amp;#8221;, acrescentou.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Embora confirme o corte, o MEC não informou, na nota, o detalhamento dos bloqueios.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Mais cedo, o secretário do Tesouro Nacional, Paulo Valle, informou que o bloqueio de R$ 5,7 bilhões no Orçamento Geral da União, realizado na semana passada pelo governo federal, &lt;a href="https://agenciabrasil.ebc.com.br/economia/noticia/2022-11/bloqueios-no-orcamento-serao-revistos-no-proximo-mes-diz-secretario" target="_blank" rel="noopener"&gt;será reavaliado&lt;/a&gt; no próximo mês.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/cotidiano/mec-diz-avaliar-alternativas-e-buscar-solucoes-para-lidar-com-bloqueios-de-verbas-destinadas-a-universidades/</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Gladson Cameli é reeleito governador do Acre com 56% dos votos</t>
+          <t>2022-11-30T14:52:48</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-e-reeleito-governador-do-acre-com-56-dos-votos/</t>
+          <t>Peru decreta estado de emergência após surto de gripe aviária</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;A migração de aves contaminadas pode levar a doença a atingir a Améria Central e do Sul&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Autoridades do Peru, que faz fronteira com o estado do Acre, declararam na terça-feira (29) estado de emergência sanitária devido ao surto de gripe aviária que ocorreu nas últimas semanas. Mais de 13 mil aves, principalmente pelicanos, morreram devido a doença.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Serviço Nacional de Sanidade Agropecuária (Senasa) peruano declarou um alerta sanitário na semana passada para evitar a propagação da gripe aviária tipo A, subtipo H5N1. A entidade explicou que o vírus pode se espalhar em &amp;#8220;aves de quintal (perus, patos, galinhas e galos)&amp;#8221; e em granjas comerciais.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A Organização das Nações Unidas para Agricultura e Alimentação (FAO) alertou sobre a migração sazonal das aves, que pode causar a doença na América Central e do Sul.  As autoridades peruanas estão preocupadas que a contaminação afete as granjas e cause grandes prejuízos aos criadores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/saude/peru-decreta-estado-de-emergencia-apos-surto-de-gripe-aviaria/</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Assessoria informa desistência de Gladson Cameli em participar do debate da TV Gazeta</t>
+          <t>2022-11-30T14:15:20</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/politica/assessoria-informa-desistencia-de-gladson-cameli-em-participar-do-debate-da-tv-gazeta/</t>
+          <t>Acre registra 245 novos de coronavírus nesta quarta-feira</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;17 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A Secretaria de Estado de Saúde do Acre (Sesacre) informa que foram registrados 245 novos casos de coronavírus nesta quarta-feira, (30) de novembro. O número de infectados notificados é de 153.975 em todo o estado.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Até o momento, o Acre tem 17 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen).  Nenhum óbito foi notificado nesta quarta, 30, fazendo com que o número oficial de mortes por covid-19 permaneça em 2.029 em todo o estado.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Sobre os casos de covid-19 no estado, acesse:&lt;br /&gt;
+&lt;a href="https://agencia.ac.gov.br/boletim-sesacre-desta-quarta-feira-30-sobre-o-coronavirus-5/boletim_ac_covid_30_11_2022/" rel="attachment wp-att-585093"&gt;BOLETIM_AC_COVID_30_11_2022&lt;/a&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/saude/acre-registra-245-novos-de-coronavirus-nesta-quarta-feira/</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Gladson Cameli tem quase 50% das intenções de voto entre o público evangélico do Acre</t>
+          <t>2022-11-30T13:50:32</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/eleicoes-2022/gladson-cameli-tem-quase-50-das-intencoes-de-voto-entre-o-publico-evangelico-do-acre/</t>
+          <t>Homem tem casa invadida e é vítima de cárcere privado em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;A vítima alegou estar saindo de casa quando os homens o abordaram armados mandando ele retornar&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Em Cruzeiro do Sul, a Polícia Militar atendeu uma ocorrência suspeita de roubo na terça-feira (29), e ao chegar lá descobriram que o suposto dono da residência tinha invadido o local e estava mantendo o proprietário em cárcere privado. A vítima estava amordaçada, com maõs e pés amarrados.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Quando os militares chegaram ao local e chamaram pelo dono, um homem atendeu a porta e estava nervoso, ele tentou fugir pela parte de trás da casa enquanto a polícia cercava o lugar. A polícia o conteve e entrou na residência, se deparando com um senhor que estava vendado e amarrado, além de ter outro homem no local, que também participava do crime.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A vítima alegou a polícia estar saindo de casa quando dois homens chegaram em uma moto, armados e mandando ele entrar. Assim que a vítima voltou para casa, o suspeito o amarrou e começou a ameaçá-lo de morte, enquanto mandava ele dizer onde tinha dinheiro e pertences.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A Polícia Militar deu voz de prisão aos suspeitos de realizar o cárcere privado, que estavam em posse de arma de fogo e arma branca, além de dinheiro da vítima. O Sistema de Urgência e Emergência (Samu) foi acionado para realizar os atendimentos necessários a vítima, que estava debilitada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Com informações de Gledisson Albano para a Tv Gazeta&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/policia/homem-tem-casa-invadida-e-e-vitima-de-carcere-privado-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pesquisa aponta vitória de Gladson Cameli já no primeiro turno, com 52% dos votos</t>
+          <t>2022-11-30T13:09:32</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/eleicoes-2022/pesquisa-aponta-vitoria-de-gladson-cameli-ja-no-primeiro-turno-com-52-dos-votos/</t>
+          <t>Senado aprova regulamentação da telessaúde no Brasil</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4 class="col-10 offset-1 animated fadeInDown dealy-900 display-8 display-md-8 alt-font font-italic my-1 text-center"&gt;Texto segue para análise da Câmara&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Senado aprovou hoje (29) o Projeto de Lei (PL) 1.998/2020, que regulamenta a prestação virtual de serviços de saúde, a chamada telessaúde. Como foram feitas alterações no texto pelos senadores, ele voltará à Câmara para uma nova análise dos deputados. A telessaúde foi criada e permitida em caráter emergencial, no contexto da pandemia de covid-19, e agora precisa ser regulamentada para assegurar a legalidade da prática.&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496092&amp;amp;o=node" /&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496092&amp;amp;o=node" /&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;De acordo com o texto, o médico poderá decidir se atende o paciente de forma remota, desde que o paciente concorde com isso. Caso o paciente recuse o atendimento virtual, o atendimento presencial deverá ser garantido pelo profissional de saúde. A prática ficará sujeita ao Marco Civil da Internet (Lei 12.965, de 2014), à Lei do Ato Médico (Lei 12.842, de 2013), à Lei Geral de Proteção de Dados (Lei 13.709, de 2018), ao Código de Defesa do Consumidor (Lei 8.078, de 1990) e à Lei do Prontuário Eletrônico (Lei 13.787, de 2018).&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O relator do texto no Senado, Veneziano Vital do Rêgo (MDB-PB), incorporou propostas de colegas alterando trechos do projeto, o que justifica seu retorno à Câmara, Casa de origem da proposta. Uma das alterações traz a proibição dessa modalidade de atendimento para realização de exames físicos ocupacionais, bem como avaliações de capacidade, dano físico ou mental e de nexo causal.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Também foi incluído no texto uma emenda que prevê no Estatuto da Pessoa com Deficiência, Lei 13.146, de 2015, a utilização da telessaúde. O texto a ser incluído nessa lei afirma que compete ao SUS aprimorar o atendimento neonatal e ofertar, inclusive por telessaúde, ações e serviços de prevenção de danos cerebrais e sequelas neurológicas em recém-nascidos.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Para exercer a telessaúde, é suficiente a inscrição do profissional no Conselho Regional de Medicina (CRM) de origem. Não será necessária inscrição no CRM do estado em que o paciente for atendido. Também é obrigatório o registro das empresas intermediadoras dos serviços virtuais, bem como o registro de um diretor técnico médico dessas empresas no CRM dos estados em que estão sediadas.&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;Planos de saúde&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;Os convênios médicos também poderão oferecer atendimento via telessaúde. Ele seguirá os mesmos padrões do atendimento presencial em relação à contraprestação financeira, que não poderá ser inferior em relação ao atendimento presencial. O plano de saúde fica proibido impedir ou dificultar o acesso ao atendimento presencial, caso este seja a opção do profissional de saúde ou do paciente.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/cotidiano/senado-aprova-regulamentacao-da-telessaude-no-brasil/</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TRE aprova candidatura de Mailza Gomes como vice de Gladson Cameli</t>
+          <t>2022-11-30T11:32:36</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/politica/tre-aprova-candidatura-de-mailza-gomes-como-vice-de-gladson-cameli/</t>
+          <t>No Acre, IBGE abre vagas para contratar mais de 40 profissionais; saiba mais</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;Os contratados irão atuar principalmente em setores rurais e urbanos afastados do Centro da cidade&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p&gt;Foto: &lt;strong&gt;Fernando Gomes&lt;/strong&gt; / Agencia RBS&lt;/p&gt;
+&lt;p&gt;O Instituto Brasileiro de Geografia e Estatística (IBGE) está com mais de 40 vagas abertas para contratação direta para trabalho como recenseador do Censo 2022. Os contratados irão atuar principalmente em setores rurais e urbanos afastados do Centro da cidade.&lt;/p&gt;
+&lt;p&gt;São localidades como Belo Jardim, Tucumã, Vila Acre, Benfica e Reserva Chico Mendes. O recenseador é aquela pessoa que realiza visitas domiciliares para coleta do questionário do censo.&lt;/p&gt;
+&lt;p&gt;A remuneração é calculada por produção, portanto quanto mais tempo o contratado se dedicar à função, maior será o salário.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;A gente pede para o recenseador trabalhe pelo menos 30 horas por semana e incentivamos o trabalho no final de semana. Com isso, remunerando mais para os questionários coletados no final de semana&amp;#8221;, diz a representante do IBGE, Andressa Nascimento&lt;/p&gt;
+&lt;p&gt;A primeira turma de contratados deve iniciar o treinamento, que dura cinco dias, já na próxima semana. Para se candidatar à uma das vagas, é preciso preencher uma ficha de inscrição e apresentar a seguinte documentação:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Foto 3&amp;#215;4;&lt;/li&gt;
+&lt;li&gt;Documento de identidade;&lt;/li&gt;
+&lt;li&gt;CPF;&lt;/li&gt;
+&lt;li&gt;Título de Eleitor;&lt;/li&gt;
+&lt;li&gt;Certidão de Quitação Eleitoral;&lt;/li&gt;
+&lt;li&gt;Comprovante de Inscrição no PIS/Paseb&lt;/li&gt;
+&lt;li&gt;Comprovante de residência;&lt;/li&gt;
+&lt;li&gt;Comprovante de escolaridade;&lt;/li&gt;
+&lt;li&gt;Atestado de sanidade física e mental;&lt;/li&gt;
+&lt;li&gt;Comprovante bancário.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;#8220;É interessante para aqueles que quiserem realizar essa atividade de recenseamento, virem aqui na rua Benjamin Constant, n° 907, frente do antigo Ética. Pode se fazer a inscrição gratuita e presencial&amp;#8221;, explica Nascimento.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/cotidiano/no-acre-ibge-abre-vagas-para-contratar-mais-de-40-profissionais-saiba-mais/</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Com sintomas de covid-19, Gladson Cameli cancela agendas políticas e institucionais nesta quinta-feira</t>
+          <t>2022-11-30T10:16:39</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/politica/com-sintomas-de-covid-19-gladson-cameli-cancela-agendas-politicas-e-institucionais-nesta-quinta-feira/</t>
+          <t>Uma pessoa é presa com 42kg de drogas no município de Epitaciolândia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;O suspeito foi apresentado na Delegacia da Polícia Federal de Epitaciolândia&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Grupo Especial de Segurança na Fronteira (Gefron-AC) realizou uma apreensão de 42kg de entorpecentes na manhã desta terça-feira,29, no município de Epitaciolândia.&lt;/p&gt;
+&lt;p&gt;Uma pessoa ainda não identificada  foi presa e apresentado na Delegacia da Polícia Federal de Epitaciolândia, juntamente com os entorpecentes. &lt;img decoding="async" loading="lazy" class="aligncenter  wp-image-105333" src="https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea.jpg" alt="" width="384" height="314" srcset="https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea.jpg 1280w, https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea-300x245.jpg 300w, https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea-1024x838.jpg 1024w, https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea-768x628.jpg 768w, https://agazeta.net/wp-content/uploads/2022/11/f70782f1-8e70-4031-a4a3-dfeda2ffb9ea-15x12.jpg 15w" sizes="(max-width: 384px) 100vw, 384px" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/policia/uma-pessoa-e-presa-com-42kg-de-drogas-no-municipio-de-epitaciolandia/</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Gladson Cameli exonera gerente-geral do Hospital de Sena Madureira nesta terça-feira</t>
+          <t>2022-11-30T09:46:00</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://agazeta.net/destaque/gladson-cameli-exonera-gerente-geral-do-hospital-de-sena-madureira-nesta-terca-feira/</t>
+          <t>Eleição da Mesa Diretora da Câmara de Vereadores de Rio Branco acontece nesta quinta-feira</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;Duas chapas disputam a direção da Mesa Diretora&lt;!--more--&gt;&lt;/h4&gt;
+&lt;p style="text-align: justify;"&gt;Após muitas polêmicas e decisões internas, a eleição para a Mesa Diretora da Câmara de Vereadores de Rio Branco acontece nesta quinta-feira,01. Duas chapas disputam a direção da Mesa Diretora.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O vereador Raimundo Neném (PSB) candidato a presidente, garante que tem 11 votos, mesmo com indiciamento do vereador Fábio Araújo (PDT) em um processo de desvio de recursos na prefeitura de Plácido de Castro, ele continua candidato a primeiro secretário, e Hildegard Pascoal (PSL) está como vice na chapa.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;#8220;Nós acreditamos que temos 11 e vamos esperar quinta-feira, pois na política temos que esperar para ver as coisas acontecerem. Nós estamos firmados com 11 vereadores, incluindo com a minha pessoa&amp;#8221;, diz Raimundo Neném.&lt;/p&gt;
+&lt;p&gt;Por outro lado, o Raimundo Castro (PSDB), é o candidato a presidente na chapa adversária, ele tem o apoio do atual presidente N. Lima (Progressistas) que pode ser lançado como vice. O primeiro secretário indicado é o Célio Gadelha (MDB). Raimundo Castro garante que tem a maioria dos votos.&lt;/p&gt;
+&lt;p&gt;Os nomes da chapa  serão divulgados oficialmente na noite desta quarta-feira,30, pois ainda dá de tentar cooptar alguns colegas de parlamento que em tese estariam do outro lado.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;#8220;A eleição é muito complexa, não temo como você sair tirando foto ou assinar documentos, fechando compromisso&amp;#8221;, diz Castro.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;Com informações de Adailson Oliveira para TV Gazeta&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/politica/eleicao-da-mesa-diretora-da-camara-de-vereadores-de-rio-branco-acontece-nesta-quinta-feira/</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Com apoio de Gladson Cameli, Ney se dedica a campanha de candidato ao Senado</t>
+          <t>2022-11-30T08:18:22</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://agazeta.net/noticias/entrevistas/com-apoio-de-gladson-cameli-ney-se-dedica-a-campanha-de-candidato-ao-senado/</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Gladson Cameli volta a nomear Alysson Bestene para a Segov</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-volta-a-nomear-alysson-bestene-para-a-segov/</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Acre: com 25,47% de apuração, Gladson Cameli lidera com disputa</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/acre-com-2547-de-apuracao-gladson-cameli-lidera-com-disputa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Apenas candidatura de Gladson Cameli ainda não foi deferida pelo TSE</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/tse-defere-candidatura-de-nilson-euclides-apenas-gladson-aguarda-julgamento/</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Investigado pela PF, Gladson Cameli declara R$ 114 mil investidos em ouro</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/investigado-pela-pf-gladson-declara-r-114-mil-investidos-em-ouro/</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Gladson Cameli: gênio da política ou político aloprado?</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-genio-da-politica-ou-politico-aloprado/</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Sextou! Gladson Cameli nomeia 11 e exonera 6 nesta sexta-feira (27)</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/sextou-gladson-cameli-nomeia-11-e-exonera-6-nesta-sexta-feira-27/</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Gladson Cameli e o reverso do ditado: vão-se os dedos, ficam os anéis</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-e-o-reverso-do-ditado-vao-se-os-dedos-ficam-os-aneis/</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Gladson Cameli aproveita feriado para nomear 36 e exonerar 27</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-aproveita-feriado-para-nomear-36-e-exonerar-27/</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Inferno astral de Gladson Cameli parece não ter fim</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/infernal-astral-de-gladson-cameli-parece-nao-ter-fim/</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Gladson Cameli, o governador ostentação</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>https://oacreagora.com/gladson-cameli-o-governador-ostentacao/</t>
+          <t>MEC divulga prazos para inscrições no Sisu, Prouni e Fies em 2023</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;Já o resultado da edição deste ano do Enem, será divulgado em fevereiro&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p&gt;Foto: &lt;strong&gt;Marcelo Camargo/Agência Brasil&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O Ministério da Educação (MEC) tornou público os calendários para as inscrições nos primeiros processos seletivos de 2023 do Sistema de Seleção Unificada (Sisu), do Programa Universidade para Todos (Prouni) e do Fundo de Financiamento Estudantil (Fies). A pasta também informou que os três editais, que detalharão o cronograma completo e as regras de cada um, serão publicados em janeiro.&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496069&amp;amp;o=node" /&gt;&lt;img decoding="async" src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496069&amp;amp;o=node" /&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Já o resultado da edição deste ano do Exame Nacional do Ensino Médio (Enem), que interfere nos processos seletivos, será divulgado em fevereiro. Os estudantes poderão ter acesso às suas notas pela internet.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;As inscrições para o Sisu, dedicado a selecionar estudantes para universidades e instituições públicas de ensino superior em todo o país, serão realizadas entre 28 de fevereiro e 3 de março. A classificação se dá com base no desempenho do Enem de 2022. O resultado final será divulgado em 7 de março.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;No caso do Prouni, por meio do qual são ofertadas bolsas de estudo para alunos de baixa renda estudarem em universidades particulares, as inscrições se iniciam em 7 de março e se encerram em 10 de março. São válidas para o processo seletivo as notas do Enem de 2022 e de 2021. O resultado da primeira chamada será divulgado em 14 de março e da segunda chamada no dia 28 de março.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Já o Fies estará com inscrições abertas entre 14 e 17 de março. Trata-se de um fundo voltado para o financiamento integral ou parcial das mensalidades do curso de escolha do beneficiado. Dessa forma, o aluno pode arcar com custos de forma reduzida ou apenas após completar sua formação. Podem participar do processo seletivo os estudantes que realizaram alguma edição do Enem realizada desde 2010. O resultado da chamada única será conhecido em 21 de março.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Todos os processos de inscrição ocorrem exclusivamente pela internet. Ainda não há informações relacionadas ao quantitativo de vagas de cada processo seletivo. O MEC informou que elas serão divulgadas em datas mais próximas à abertura das inscrições.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/cotidiano/mec-divulga-prazos-para-inscricoes-no-sisu-prouni-e-fies-em-2023/</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
@@ -2126,7 +6085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,12 +6096,857 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-12-01T08:26:08</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Polícia aperta cerco e prende envolvido em onda de assaltos na região de fronteira</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A força-tarefa do Sistema Integrado de Segurança Pública do Acre em ação na região dos municípios de Acrelândia e Plácido de Castro, a cerca de 100 quilômetros de Rio Branco, nas divisas de Rondônia e da Bolívia, já atinge resultados positivos.&lt;/p&gt;
+&lt;p&gt;A ação visa conter uma onda de assaltos que vêm ocorrendo na zona rural daqueles municípios, o roubo de veículos com sequestros relâmpagos de moradores. O clima de terror é tanto na área que famílias já abandonaram propriedades na região.&lt;/p&gt;
+&lt;p&gt;O cerco ao crime organizado vem sendo cuidadosamente realizado por uma força-tarefa das polícias Civil e Militar do Acre, com um patrulhamento diuturnamente nas estradas estaduais e nos ramais da região desde o dia 7 de novembro.&lt;/p&gt;
+&lt;p&gt;De acordo com as informações divulgadas pela Secretaria de Segurança (Sejusp), mais de 210 abordagens a veículos foram realizadas pela Polícia Militar ao longo de toda a madrugada, o dia e a noite da última terça-feira, 29.&lt;/p&gt;
+&lt;p&gt;“Posso dizer que nos últimos cinco dias o resultado foi excelente. Não tivemos mais nenhuma ocorrência neste período e vamos continuar assim, porque o patrulhamento não para e não tem prazo determinado para terminar”, afirmou o coronel Emílio Virgílio, diretor Operacional da PM/AC, em matéria da Agência de Notícias do Acre.&lt;/p&gt;
+&lt;p&gt;“Nossos esforços são para manter a integridade da população com a presença das forças policiais na região durante 24 horas, todos os dias. Com essas ações, asseguramos a presença do Estado, devolvendo a tranquilidade para as pessoas”, ressaltou o secretário de Justiça e Segurança Pública, coronel Paulo Cézar Rocha dos Santos.&lt;/p&gt;
+&lt;p&gt;Nesta quarta-feira, uma equipe da Sejusp, chefiada pela secretária-adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de uma reunião com comandantes e chefes das instituições de Segurança e representantes das comunidades de ambos os municípios. A pauta serviu para apresentar de que forma as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;p&gt;“Estaremos juntos aos moradores destes municípios, oferecendo nossa mão amiga e combatendo com veemência qualquer tipo de ilícito na região”, destacou a delegada.&lt;/p&gt;
+&lt;p&gt;Horas depois, uma ação integrada da Polícia Civil, Polícia Militar e Choque conseguiram efetuar a prisão de um suspeito de integrar a organização criminosa especializada em roubo de caminhonetes que vem atuando na região.&lt;/p&gt;
+&lt;p&gt;De acordo com o delegado Diones Lucas, de Acrelândia, o homem, que não teve a identidade divulgada por força da Lei de Abuso de Autoridade, está envolvido em pelo menos cinco dos roubos ocorridos recentemente.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ac24horas.com/2022/12/01/policia-aperta-cerco-e-prende-envolvido-em-onda-de-assaltos-na-regiao-de-fronteira/</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461-1.jpg?fit=1024%2C461&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-12-01T08:50:43</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Guerra do crime: estudante é morto com tiro na cabeça após ser perguntado se pertencia a alguma facção</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-c387j"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Um estudante que não teve a identidade revelada foi morto com um tiro na cabeça no centro de Manoel Urbano, na tarde desta quarta-feira (30).&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Segundo informações, ele havia acabado de sair da escola e ainda estava de farda e mochila quando foi abordado por um homem que ainda não foi localizado. O rapaz teria perguntado se ele pertencia a alguma facção criminosa. Em seguida, o adolescente foi fatalmente baleado.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O criminoso fugiu logo em seguida e seu paradeiro é procurado. Segundo a polícia, a vítima era membro de uma organização criminosa e já havia postado fotos com armas de fogo. O Samu foi acionado, mas apenas atestou o óbito.&lt;/p&gt;
+&lt;p data-track-category="Link no Texto" data-track-links=""&gt;O caso está sendo investigado pela Polícia Civil.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/12/01/guerra-do-crime-estudante-e-morto-com-tiro-na-cabeca-apos-ser-perguntado-se-pertencia-a-alguma-faccao/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2020/08/Violencia-mais-um-homicidio-e-tentativa-de-assassinato-em-Linhares.jpg?fit=594%2C320&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-11-30T10:17:01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vigia de carros é assassinado a facadas em frente ao Pronto Socorro de Rio Branco</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um homem identificado como João Paulo Camilo de Souza, de 38 anos, foi morto na madrugada desta quarta-feira (30) na avenida Getúlio Vargas, em frente ao Pronto Socorro de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações da polícia, Camilo foi encontrado caído ao chão com marcas de sangue no peito. Ele era conhecido nas redondezas, pois fazia &amp;#8220;bico&amp;#8221; vigiando carros aos arredores do Pronto Socorro. O Samu chegou a ser acionado, mas a vítima já estava sem vida.&lt;/p&gt;
+&lt;p&gt;Testemunhas afirmam ter visto um desentendimento entre a vítima e um rapaz por conta de drogas. Armado com uma faca, o agressor teria desferido dois golpes, um no tórax de Camilo, ferimento que alcançou o coração; e outro na cabeça. Em seguida, o autor das facadas fugiu do local.&lt;/p&gt;
+&lt;p&gt;Junto com a vítima, foram encontradas uma carteira de cigarros, quantia em dinheiro e ao lado estavam duas facas de mesa. Ainda segundo a polícia, Camilo tinha passagens pela polícia por roubo.&lt;/p&gt;
+&lt;p&gt;O caso está sendo investigado pela DHPP (Delegacia de Homicídios e Proteção à Pessoa).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://correio68.com/2022/11/30/vigia-de-carros-e-assassinado-a-facadas-em-frente-ao-pronto-socorro-de-rio-branco/</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/correio68.com/wp-content/uploads/2022/11/PS_1.webp?fit=2560%2C1707&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-12-01T08:50:07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Em Manoel Urbano jovem e morto com tiro na cabeça</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61356" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png" alt="" width="708" height="325" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png 708w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141-300x138.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141-696x319.png 696w" sizes="(max-width: 708px) 100vw, 708px" /&gt;&lt;/p&gt;
+&lt;p&gt;Um jovem, que ainda não teve o nome revelado, foi morto com um tiro na cabeça  em Manoel Urbano, interior do Acre, no final da tarde desta quarta-feira 30.&lt;/p&gt;
+&lt;p&gt;A vítima tinha saído da escola e ainda usava o uniforme e uma mochila nas costas no momento do crime.&lt;/p&gt;
+&lt;p&gt;Acordo com a polícia militar , disse que, segundo testemunha no local, o jovem estava acompanhado de um outro rapaz ainda não identificado. Essa pessoa teria perguntado se ele fazia parte de alguma facção, após dada a resposta ele foi alvejado com um tiro na cabeça.&lt;/p&gt;
+&lt;p&gt;O criminoso se invadido ao local correndo após homicídio e é procurado pela PM. Ainda segundo a polícia, o menor era envolvido com crime organizado e já teria publicado fotos com armas de fogo.&lt;/p&gt;
+&lt;p&gt;O adolescente morreu antes de receber ajuda médica no local do crime. A equipe da polícia civil está na região em busca dos suspeito levantando informações sobre o assassinato.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/em-manoel-urbano-jovem-e-morto-com-tiro-na-cabeca/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-091141.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-12-01T07:50:22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Em apenas um dia, força-tarefa aborda 210 veículos e resultado de operações já é positivo em Acrelândia e Plácido de Castro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61341" src="http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg" alt="" width="1536" height="1024" srcset="http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-1024x683.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-768x512.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-696x464.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-1068x712.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1-630x420.jpg 630w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Após cinco dias de intensas operações, com o patrulhamento e a parada de picapes, carros de passeio e motocicletas, operação sufoca a bandidagem e devolve a paz a moradores das duas cidades&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Ao menos 210 abordagens a veículos e motocicletas foram realizadas pela Polícia Militar do Estado do Acre (PM/AC) ao longo de toda a madrugada, o dia e a noite desta terça-feira, 29, na região dos municípios de Acrelândia e Plácido de Castro, na parte mais oriental do estado, a 100 quilômetros de Rio Branco e próximos às divisas de Rondônia e da Bolívia, respectivamente.&lt;/p&gt;
+&lt;figure id="attachment_585293" class="wp-caption alignnone" aria-describedby="caption-attachment-585293"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585293 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/8b81e6e6-e8f3-459a-9f3a-dd99d5ef8815.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585293" class="wp-caption-text"&gt;Barreira da Polícia Militar montada na cabeceira da ponte de acesso à vila boliviana Evo Morales, porte de entrada para o país vizinho pelo município de Plácido de Castro. Cerco é total na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As ações do governo do Estado do Acre, por meio da Secretaria de Estado de Justiça e Segurança Pública (Sejusp), têm gerado resultados positivos, os de conter o roubo de veículos de moradores da região com sequestros relâmpagos.&lt;/p&gt;
+&lt;figure id="attachment_585281" class="wp-caption alignnone" aria-describedby="caption-attachment-585281"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585281 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg 1280w" alt="" width="1024" height="766" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-1024x766.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d2d28a6d-bdbf-4d52-9ac6-9214e4c4def6.jpg 1280w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585281" class="wp-caption-text"&gt;Ações rendem resultados positivos. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O cerco ao crime organizado vem sendo cuidadosamente realizado por uma força-tarefa das polícias Civil e Militar do Estado do Acre, com um patrulhamento diuturnamente nas estradas estaduais e nos ramais da região desde o dia 7 de novembro.&lt;/p&gt;
+&lt;figure id="attachment_585294" class="wp-caption alignnone" aria-describedby="caption-attachment-585294"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585294 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/152ae421-1edf-46b7-a468-4d7e41ee8917.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585294" class="wp-caption-text"&gt;Ônibus da Sejusp serve como base móvel para as operações na região de Acrelândia e Plácido de Castro; presença das Forças de Segurança não tem prazo para término. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Posso dizer que nos últimos cinco dias o resultado é excelente. Não tivemos mais nenhuma ocorrência neste período e vamos continuar assim, porque o patrulhamento não para e não tem prazo determinado para terminar”, afirmou o coronel Emílio Virgílio, diretor Operacional da PM/AC.&lt;/p&gt;
+&lt;figure id="attachment_585276" class="wp-caption alignnone" aria-describedby="caption-attachment-585276"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585276 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-768x576.jpeg 768w" alt="" width="1024" height="768" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.19.55-1-768x576.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585276" class="wp-caption-text"&gt;Equipe da Sejusp, chefiada pela secretária adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de reunião com comandantes e chefes das instituições de Segurança. Na pauta, as ações na região de Acrelândia e Plácido de Castro. Foto: Asscom/Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As rondas por estradas de terra batida começam pela manhã, com três guarnições da Polícia Militar, e seguem pela tarde e pela noite, entrando na madrugada até pela manhã, novamente, quando novas equipes assumem. A ordem da cúpula da Segurança é não deixar nenhum veículo sem ser fiscalizado.&lt;/p&gt;
+&lt;figure id="attachment_585295" class="wp-caption alignleft" aria-describedby="caption-attachment-585295"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585295" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg 576w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-169x300.jpg 169w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-768x1366.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-864x1536.jpg 864w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg 899w" alt="" width="285" height="506" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-576x1024.jpg 576w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-169x300.jpg 169w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-768x1366.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67-864x1536.jpg 864w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/fc5bc9d4-37bf-4de6-9871-1f2f5b841d67.jpg 899w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585295" class="wp-caption-text"&gt;Barreira policial na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Nossos esforços são para manter a integridade da população com a presença das forças policiais na região durante 24 horas, todos os dias. Com essas ações, asseguramos a presença do Estado, devolvendo a tranquilidade para as pessoas”, ressalta o secretário de Justiça e Segurança Pública, coronel Paulo Cézar Rocha dos Santos.&lt;/p&gt;
+&lt;figure id="attachment_585280" class="wp-caption alignnone" aria-describedby="caption-attachment-585280"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585280 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1536x1148.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg 1600w" alt="" width="1024" height="765" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1024x765.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-300x224.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-768x574.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460-1536x1148.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/4c61f6a1-a950-4f4e-97d7-4ef8d25e8460.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585280" class="wp-caption-text"&gt;Van da Polícia Militar em trecho de estrada que liga Acrelândia a Plácido de Castro. Cerco total a criminosos. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Nesta quarta-feira, uma equipe da Sejusp, chefiada pela secretária-adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira, participou de uma reunião com comandantes e chefes das instituições de Segurança e representantes das comunidades de ambos os municípios. A pauta serviu para apresentar de que forma as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;figure id="attachment_585299" class="wp-caption alignnone" aria-describedby="caption-attachment-585299"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585299 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg 1600w" alt="" width="1024" height="461" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653-1536x691.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/d208d2db-7d10-427d-a9ca-68fd0dde8653.jpg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585299" class="wp-caption-text"&gt;Barreira da Polícia Militar montada na cabeceira da ponte de acesso à vila boliviana Evo Morales, porte de entrada para o país vizinho pelo município de Plácido de Castro. Cerco é total na região. Foto: Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Estaremos juntos aos moradores destes municípios, oferecendo nossa mão amiga e combatendo com veemência qualquer tipo de ilícito na região”, destaca, por sua vez, a secretária adjunta de Justiça e Segurança Pública, delegada Márdhia El-Shawwa Pereira. Nesta quarta-feira, Márdhia e os comandantes e chefes das instituições de Segurança estiveram reunidos com representantes das comunidades de ambos os municípios, para apresentar de que formas as ações estão sendo realizadas na região.&lt;/p&gt;
+&lt;h4&gt;Ações consistem em barreiras nas estradas e fiscalização na ponte para a Vila Evo Morales, na Bolívia&lt;/h4&gt;
+&lt;p&gt;Conforme o coordenador Operacional da Sejusp, coronel Glayson Dantas, há um cerco tático no trevo de Senador Guiomard (a 25 quilômetros de Rio Branco), com abordagens contínuas – em regime de 24 horas –, enquanto que foram fixadas operações na ponte de acesso à vila Evo Morales, na Bolívia, fronteira com a cidade de Plácido de Castro, para onde os criminosos tentam levar os veículos roubados.&lt;/p&gt;
+&lt;figure id="attachment_585300" class="wp-caption alignnone" aria-describedby="caption-attachment-585300"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585300 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg 1920w" alt="Operação noturna de Acrelândia e Plácido de Castro; cerco na região tem por objetivo conter roubos de veículos e sequestros relâmpagos. Foto: Dhárcules Pinheiro/Asscom Sejusp" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-3-2.jpg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585300" class="wp-caption-text"&gt;Operação noturna de Acrelândia e Plácido de Castro. Cerco na região tem por objetivo conter roubos de veículos e sequestros relâmpagos. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Foi desse modo que, ainda na primeira quinzena de novembro, uma radiopatrulha da Polícia Militar interceptou uma picape que estava sendo roubada de Acrelândia. Os criminosos a levavam para a Bolívia, quando se depararam com a viatura. Após perseguição, os ladrões pararam o carro e fugiram entrando na mata, às margens da rodovia que dá acesso a Plácido de Castro.&lt;/p&gt;
+&lt;figure id="attachment_585282" class="wp-caption alignnone" aria-describedby="caption-attachment-585282"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585282 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg 1920w" alt="" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1.jpg 1920w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585282" class="wp-caption-text"&gt;Viaturas da Polícia Militar em operação na região de Plácido de Castro e Acrelândia. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Ressaltamos que toda a área está sendo monitorada e fiscalizada, tanto pela Polícia Militar, quanto pela Polícia Civil. Não há ramais que não estejam sendo patrulhados a qualquer hora do dia, da noite ou da madrugada. E, além dos cercos nos pontos estratégicos, estamos também com guarnições na ponte que dá acesso à vila boliviana”, ressalta Dantas.&lt;/p&gt;
+&lt;figure id="attachment_585309" class="wp-caption alignnone" aria-describedby="caption-attachment-585309"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585309 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg 2048w" alt="" width="1024" height="683" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/Gerfon1-1-scaled.jpg 2048w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585309" class="wp-caption-text"&gt;Policial do Grupo Especial de Fronteira, o Gefron, na região do posto fiscal da Tucandeira. Cerco contra o crime também na região da BR-364. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;No posto fiscal da Tucandeira, localizado na BR-364, no trecho para Porto Velho, outras duas guarnições do Grupo Especial de Fronteiras (Gefron) também permanecem de plantão nos períodos diurno e noturno, podendo se deslocar para qualquer ocorrência, a qualquer momento.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/2022/12/em-apenas-um-dia-forca-tarefa-aborda-210-veiculos-e-resultado-de-operacoes-ja-e-positivo-em-acrelandia-e-placido-de-castro/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Foto_Dharcules-Pinheiro_Asscom_Sejusp-2-1-1536x1024-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-12-01T07:38:39</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em Rio Branco; Programa Acre pela Vida leva serviços à comunidade do Alto Alegre </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Dia da Família é mais que um momento de brincadeiras no Centro de Educação Infantil David Rodrigues, é uma oportunidade de aproximar a comunidade ao espaço de estudo das crianças, possibilitando tempo de qualidade entre os professores, alunos e familiares. A unidade escolar fica em Rio Branco no bairro Alto Alegre.&lt;/p&gt;
+&lt;p&gt;A atividade realizada nesta quarta-feira, 30, é um evento apoiado pelo Programa Acre pela Vida, uma iniciativa da Secretaria de Justiça e Segurança Pública do Estado do Acre (Sejusp), que visa apoiar e desenvolver ações voltadas para a comunidade.&lt;/p&gt;
+&lt;p&gt;“Este evento é uma atividade cultural que tem o objetivo de promover um dia de recreação às crianças e suas famílias, aproximando a comunidade das forças de segurança”, disse a coordenadora do Acre pela Vida, e atual secretária adjunta da Sejusp, delegada Márdhia El-Shawwa.&lt;/p&gt;
+&lt;p&gt;A mãe de dois filhos, Maria Erlande Barbosa, de 30 anos, fala da importância desses eventos na escola, expondo que nunca perde a oportunidade de estar nesses momentos recreativos.&lt;/p&gt;
+&lt;p&gt;“Procuro sempre estar nesses eventos da escola porque é um momento de entretenimento para as crianças e também para os pais, além da gente poder ficar mais próximo dos professores dos nossos filhos”, disse Erlane.&lt;/p&gt;
+&lt;figure id="attachment_585264" class="wp-caption aligncenter" aria-describedby="caption-attachment-585264"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538.jpg"&gt;&lt;img decoding="async" class="wp-image-585264 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105538.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585264" class="wp-caption-text"&gt;Maria Erlande Barbosa com seu filho mais novo, o pequeno Pedro Caleb, de 3 anos. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O momento era de descontração para os pequenos alunos, que variam de 2 a 5 anos de idade, que dançavam ao som da banda de música da Polícia Militar do Estado do Acre (PMAC), conhecida como A Furiosa.&lt;/p&gt;
+&lt;figure id="attachment_585289" class="wp-caption aligncenter" aria-describedby="caption-attachment-585289"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639.jpg"&gt;&lt;img decoding="async" class="wp-image-585289 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105639.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585289" class="wp-caption-text"&gt;Banda da PMAC animou a festa. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O Centro de Educação Infantil David Rodrigues faz do Dia da Família uma ação cultural para aproximar os familiares dos alunos à escola, e assim, proporcionar um ambiente de confiança e satisfação para os pequenos. “Se a família está no espaço e interage e demostra afetividade pelos profissionais, automaticamente a criança também vai se sentir segura e acolhida”, explica a diretora do centro, Evaneide Machado.&lt;/p&gt;
+&lt;figure id="attachment_585253" class="wp-caption aligncenter" aria-describedby="caption-attachment-585253"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835.jpg"&gt;&lt;img decoding="async" class="wp-image-585253 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105835.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585253" class="wp-caption-text"&gt;Diretora do Centro Educativo Infantil David Rodrigues, Evaneide Machado, acompanhada de alunos e familiares. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Além de proporcionar lanches, músicas e brincadeiras, a ação também contou com a presença do Departamento Estadual de Trânsito (Detran), que ofereceu aos pequenos teatro infantil, momentos de atuação no trânsito, com uma minicidade onde as crianças podiam conduzir um meio de transporte dentro de um perímetro, seguindo as coordenadas de trânsito.&lt;/p&gt;
+&lt;p&gt;A Secretaria de Estado de Assistência Social, dos Direitos Humanos e de Políticas para as Mulheres (SEASDHM), também estava no local. “Estamos fazendo esse trabalho na escola para trazer dignidade, pacificar o bairro, trazendo um trabalho voltado à área de assistência social”, disse a diretora de Direitos Humanos e de Políticas para Mulheres da SEASDHM, Claire Cameli.&lt;/p&gt;
+&lt;figure id="attachment_585259" class="wp-caption aligncenter" aria-describedby="caption-attachment-585259"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605.jpg"&gt;&lt;img decoding="async" class="wp-image-585259 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110605.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585259" class="wp-caption-text"&gt;Diretora de Diretor Humanos e de Políticas para Mulheres, Claire Cameli, e a secretária adjunta da Sejusp, Márdhia El-Shawwa. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Além de levar ao conhecimento pautas de assistência social, a SEASDHM também atuou com o Ônibus Lilás, realizando atendimentos de mulheres vítimas de violência, com uma equipe técnica capacitada para atender essas pessoas, incluindo psicólogo, assistente social e técnico da área jurídica, para que as mulheres pudessem ser amparadas e direcionadas.&lt;/p&gt;
+&lt;figure id="attachment_585252" class="wp-caption aligncenter" aria-describedby="caption-attachment-585252"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428.jpg"&gt;&lt;img decoding="async" class="wp-image-585252 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_105428.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585252" class="wp-caption-text"&gt;Atendimento no Ônibus Lilás. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Outros órgãos também estavam presentes, como a Polícia Civil, oferecendo no local, serviços como, tirar a carteira de identidade, certidão de nascimento, além de um espaço para os pequenos tirarem fotos com objetos da polícia, tendo motos e quadrículos como parte do cenário.&lt;/p&gt;
+&lt;figure id="attachment_585258" class="wp-caption aligncenter" aria-describedby="caption-attachment-585258"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414.jpg"&gt;&lt;img decoding="async" class="wp-image-585258 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/PSX_20221130_110414.jpg 1920w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585258" class="wp-caption-text"&gt;Emissão da carteira de identidade. Foto: Dhárcules Pinheiro/Asscom Sejusp&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 12pt;"&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ecosdanoticia.net.br/2022/12/em-rio-branco-programa-acre-pela-vida-leva-servicos-a-comunidade-do-alto-alegre/</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/04.jpg?fit=2500%2C1500&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-12-01T08:25:44</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grupo armado tenta invadir casa de policial militar que reage e atira nos criminosos na Baixada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Um policial militar que não teve a identidade revelada, foi rendido ao chegar em casa, na Baixada, por cerca de cinco homens, na noite desta quarta-feira, 30, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Conforme informações da PM, o militar estava chegando na residência após mais um dia de plantão, quando ouviu uma voz masculina o chamando, e ao se virar, se deparou com cinco homens, que deram ordem para ele colocar as mãos para cima e não reagir. Como ele estava armado, reagiu a tentativa de invasão à residência e começou a atirar nos cinco indivíduos que saíram correndo pelas ruas da região. Os criminosos chegaram no local a pé e fugiram da mesma forma.&lt;/p&gt;
+&lt;p&gt;Imediatamente, o militar pediu ajuda aos vizinhos, que acionaram o Copom e informaram que um policial estava sendo atacado. Rapidamente, várias viaturas foram enviadas até o local da ocorrência para dar suporte ao colega de farda.&lt;/p&gt;
+&lt;p&gt;Na fuga, os bandidos deixaram para trás, algumas sandálias e camisas que eles usavam para esconder o rosto. A polícia acredita ser pessoas que estavam circulando com apoio de algum veículo, mas, quando eles chegaram, eles estavam a pé. Na ação, ninguém se feriu, porque o policial agiu, e não permitiu que os criminosos invadissem a residência onde estava sua família.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/policia/grupo-armado-tenta-invadir-casa-de-policial-militar-que-reage-e-atira-nos-criminosos-na-baixada/</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/invasao.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-12-01T08:08:10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adolescente é executado com tiro na cabeça ao sair da escola em Manoel Urbano</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O adolescente identificado inicialmente apenas por Darlisson, foi vítima de uma execução na tarde dessa quarta-feira, 30, na cidade de Manoel Urbano, interior do Acre, ao sair da escola em que estudava.&lt;/p&gt;
+&lt;p&gt;De acordo com informações repassadas por populares, o adolescentede 15 anos foi morto com um tiro na cabeça ao ser abordado por um criminoso que antes de disparar perguntou se ele fazia parte de alguma facção. O crime ocorreu na região central da cidade.&lt;/p&gt;
+&lt;p&gt;Moradores que testemunharam o crime, acionaram o Serviço de Atendimento Móvel de Urgência (Samu), porém o adolescente foi a óbito antes de receber atendimento médico. Segundo testemunhas, ele tinha envolvimento com facções e já havia tirado fotos segurando arma de fogo.&lt;/p&gt;
+&lt;p&gt;Após cometer o homicídio, o homem saiu correndo e não foi localizado pela polícia. O crime abalou a população do pequeno município.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/policia/adolescente-e-executado-com-tiro-na-cabeca-ao-sair-da-escola-em-manoel-urbano/</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/adolescente.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-11-30T11:59:37</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Em ação para conter avanço da violência, polícia prende três membros de organização criminosa no AC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-77lsi"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;O&lt;/span&gt; Acre tem registrado o aumento da violência nos últimos dias devido à guerra de facções criminosas por território no estado. Desde a semana passada, houve aumento das execuções, ataques, tentativas de homicídios e assaltos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-4bs7n"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O ápice foi no sábado (26), quando Rio Branco teve uma noite violenta. A Secretaria de Justiça e Segurança Pública (Sejusp) implantou um gabinete de crise, onde concentra o efetivos das polícias e traça metas para conter o avanço do crime no estado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b03tg"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="7"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b7ekh"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="25" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em uma das ações, nessa terça-feira (29), delegacias de forma integrada cumpriram mandados judiciais contra organizações criminosas e prenderam três membros do crime organizado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f077c"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="24" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Pedro Paulo Buzolin, diretor de Polícia Civil da Capital e do Interior (DPCI), disse que oito mandados de busca e apreensão foram cumpridos.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-a1a5f"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="100" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Uma ação conjunta de algumas delegacias da Polícia Civil, entre elas a Draco [Delegacia de Repressão às Ações Criminosas Organizadas]; a Denarc [ Delegacia de Repressão ao Narcotráfico] e a DHPP [Delegacia de Homicídios e Proteção à Pessoa] lograram êxito em prender três pessoas em flagrante durante cumprimento de oito ordens judiciais de busca e apreensão. Esses mandados foram cumpridos, parte deles no bairro Taquari, pela parte da manhã e à tarde realizamos uma ação na Cidade do Povo, onde prendemos duas pessoas em flagrante delito pelos crimes de integrar organização criminosa e posso ilegal de munições”, destaca.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ff189"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="25" data-block-id="11"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A operação, segundo o delegado, faz parte das medidas tomadas pelo gabinete de crise para identificar e prender os mandantes e executores do crime.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8rfkc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="57" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“São ações que foram desencadeadas para tentar conter essa onda de violência que vem ocorrendo no estado do Acre. Essas ações enfraquecem as organizações criminosas, retira de circulação o poder bélico dessas organizações e, com certeza, a Polícia Civil e Militar irão intensificar as ações neste final de ano para trazer tranquilidade à população acreana”, destaca.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7hp11"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="13"&gt;
+&lt;div id="banner_materia__d9cbc1c7-055e-4a09-a015-67ff77be7f85" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__d9cbc1c7-055e-4a09-a015-67ff77be7f85" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b3n2n"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="37" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ele diz ainda que as pessoas presas já tinham passagem pela polícia e estavam envolvidas diretamente em ações criminosas. “Esse ápice de violência, essas mortes demonstram desentendimento das organizações, a busca por domínio de território”, pontua.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="15"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Gabinete de crise&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-68f71"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="16"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A Secretaria de Justiça e Segurança Pública do Acre informou que instalou um gabinete de crise para acompanhar concentrar e desenvolver melhor os casos no estado. O gabinete foi instalado na segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3k1ae"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="29" data-block-id="17"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A DHPP fica focada em investigar os casos de homicídio e prender quem orquestra os ataques, mas o delegado destacou que, paralelo a isso, outra medidas são tomadas.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Mortes&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-n4rv"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="84" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Kennedy Rafael dos Santos, de 19 anos, foi morto a tiros no sábado (26). Populares informaram à polícia que a vítima estava de moto, quando foi &amp;#8220;fechada&amp;#8221; por um carro preto, ouviram cerca de 5 disparos e viram duas pessoas correndo para esse carro preto e saindo rapidamente do local. Uma moradora que se encontrava em frente onde ocorreu o homicídio foi atingida de raspão na região do quadril. Ela foi atendida pelo Samu e encaminhada ao Pronto-Socorro e o quadro é estável.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqn22"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="20"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Outra execução foi registrada no bairro do Amapá, em Rio Branco. Um homem foi morto a tiros dentro de uma casa no Ramal do Pica-Pau. Ele foi identificado como Elismar de Souza Cunha, de 33 anos, mais conhecido como &amp;#8220;Mazinho&amp;#8221;.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6bgsm"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="21"&gt;
+&lt;div id="banner_materia__241151c0-8e49-4956-9eba-8aeebd3c3abe" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__241151c0-8e49-4956-9eba-8aeebd3c3abe" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-f9sbo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo a Polícia Militar, populares informaram que cinco pessoas fortemente armadas e trajando coletes balísticos estavam em um carro Hyundai de cor prata, com marcas de tiros na lataria.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3q33q"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="65" data-block-id="23"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Os criminosos entraram na casa, onde estavam três pessoas, entre elas Mazinho. Um dos homens fugiu pela mata, ficando apenas a vítima e o dono da casa. Os autores chegaram gritando que seriam policiais e Mazinho foi obrigado a deitar e foi morto com oito tiros. Segundo a polícia, a vítima havia chegado na casa na manhã de sexta-feira (25), onde passaria uns dias.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="2" data-block-id="24"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Carro incendiado&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ao2ng"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="62" data-block-id="25"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O mesmo carro usado para matar Mazinho no Ramal do Pica-Pau foi incendiado na Baixada da Sobral, bairro Bom Sucesso. Segundo informações, homens atearam fogo no veículo e fugiram. A Polícia Militar informou que não tinha ninguém no carro e que foi o mesmo veículo usado no homicídio. O carro foi guinchado e levado à Divisão Especializada em Investigações Criminais (Deic).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="26"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Tentativas de homicídios&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7g8o0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="90" data-block-id="27"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Na Sobral, um motorista de aplicativo foi vítima de tentativa de homicídio. Ela estava trabalhando e, após percorrer algumas quadras no bairro Bahia Nova, próximo a parada final do bairro, vários homens tentaram pará-lo e ao desobedecer ao pedido, escutou disparos de arma de fogo. Ele foi atingido na região lombar esquerda. O veículo aparentemente foi atingido com três disparos. O homem foi para a UPA da Sobral e de lá encaminhado ao Pronto-Socorro. Essa ocorrência foi registrada já na madrugada de domingo. Ele foi identificado como Aldemir Cordeiro.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7vav1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="28"&gt;
+&lt;div id="banner_materia__9dc830f2-edb8-47a0-a7d3-bb9d6fee914c" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__9dc830f2-edb8-47a0-a7d3-bb9d6fee914c" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_6__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ag1dt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="58" data-block-id="29"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Antes disso, também na noite de sábado, Alexandre da Silva, de 30 anos, foi atingido por tiros na rua Padre José, bairro Triângulo Novo. A esposa da vítima disse que seu marido havia sido ameaçado de morte dias atrás e que, segundo informações de populares, o crime havia sido cometido por um morador da Cidade do Povo.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="30"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Guerra de facções&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5gdch"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="77" data-block-id="31"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A onda de mortes violentas se intensificou novamente no Acre nos últimos dias e tem mobilizado autoridades da Segurança Pública para tentar conter o avanço do crime organizado no estado, que tem avançado não só com relação às mortes violentas, mas também outros crimes, como sequestros e roubos. O secretário de Segurança e Justiça do Acre, coronel Paulo Cézar, confirmou que as ordens dos confrontos partem de presídios do estado e também do país vizinho, Bolívia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-etvul"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="48" data-block-id="32"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O clima de tensão começou a se intensificar, no começo de novembro, na região do Alto Acre, onde em um fim de semana chegaram a ser registradas três mortes violentas. Já na última semana, foram ao menos nove mortes, tanto na capital como no interior do estado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8hbql"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="33"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Sendo que na quinta-feira (24), a Baixada da Sobral registrou três homicídios em dias seguidos e, no mesmo dia, mais um homem foi morto em Senador Guiomard. O confronto então acendeu um alerta de que as facções estão novamente com conflito.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ff4mo"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="34"&gt;
+&lt;div id="banner_materia__ed21b2ab-7c45-4692-8681-1fb5425b7d27" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__ed21b2ab-7c45-4692-8681-1fb5425b7d27" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_7__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-eet7a"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="19" data-block-id="35"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O secretário destacou que a Inteligência da Segurança identificou que há um movimento entre os chefes de facção.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cd1oc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="70" data-block-id="36"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“A Inteligência identificou que há um movimento envolvendo lideranças criminosas, crime organizado, principalmente narcotráfico. As ações já estão sendo deflagradas, não só ao que tange o policiamento ostensivo, mas áreas que foram identificadas como propícias a ocorrência de execuções, crimes violentos contra a vida, bem como na área investigativa, no sentido de se antecipar a essa práticas, isolando as lideranças criminosas que têm determinado essas práticas delituosas em nosso estado.”&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-mkht"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="33" data-block-id="37"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Três pontos, segundo ele, foram reforçados: foi ampliada a identificação desses indivíduos e ampliado o contato com as agências nacionais de inteligência, enquanto que o número de policiais envolvidos nas investigações foi redobrado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-d5d90"&gt;
+&lt;div class="show-chart mc-column content-media content-media--normal" data-block-type="backstage-chart" data-block-id="38"&gt;
+&lt;div class="show-chart__title"&gt;Mortes violentos no Acre mês a mês&lt;/div&gt;
+&lt;div class="show-chart__subtitle"&gt;Dados são de janeiro a outubro de 2022&lt;/div&gt;
+&lt;div id="show-chart__d5d90" data-highcharts-chart="0"&gt;
+&lt;div id="highcharts-fsifx2p-0" class="highcharts-container "&gt;Mortes violentasJaneiroFevereiroMarçoAbrilMaioJunhoJulhoAgostoSetembroOutubro101520255&lt;/p&gt;
+&lt;div class="highcharts-label highcharts-tooltip"&gt;
+&lt;div&gt;Julho&lt;br /&gt;
+● Mortes violentas : 22&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="show-chart__credits"&gt;Fonte: Sejusp&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-dbkdr"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="39"&gt;
+&lt;div id="banner_materia__0e58d151-c551-4513-b460-6e1fc2883811" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__0e58d151-c551-4513-b460-6e1fc2883811" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_8__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b1ip4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="9" data-block-id="40"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;em&gt;Colaborou Luana Dourado, da CBN Amazônia Rio Branco.&lt;/em&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/em-acao-para-conter-avanco-da-violencia-policia-prende-tres-membros-de-organizacao-criminosa-no-ac/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-30-at-10.19.01.webp?fit=984%2C537&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-11-30T02:18:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suspeitos de matar motorista de aplicativo em Rio Branco devem ser indiciados por latrocínio, diz polícia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-gf43"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="63" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;A&lt;/span&gt; morte do motorista de aplicativo José Francisco Rodrigues das Chagas, de 31 anos, está sendo investigada pela Polícia Civil, em Rio Branco. Horas após o crime, dois suspeitos foram presos e confessaram o crime na Delegacia de Flagrantes. De acordo com o delegado Lucas Pereira, que investiga o caso, os dois acharam que matando a vítima seria mais fácil de fugir.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-91uv1"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8ji34"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="93" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“No caso foi latrocínio, roubo seguido de morte. Não conseguimos constatar envolvimento de facção criminosa, mas não descartamos. O que concluímos, com dados preliminares, foi que duas pessoas chamaram esse motorista e, ao pegarem esse motorista, o abordaram, subtraíram bens dele e quando viram a oportunidade de matar ele para facilitar a fuga, eles o fizeram e foram conduzidos para a Defla. Lá confessaram o ato e já foram presos logo em seguida, então uma resposta efetiva e rápida da polícia para levarmos um pouco de justiça para a família dele”, disse.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cpvs1"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="39" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O corpo de José Francisco foi achado no Ramal Santo Onofre, no Apolônio Sales, na capital acreana, na madrugada desta segunda. Segundo informações da Polícia Militar, ele estava desaparecido e a família já havia registrado o sumiço pelo 190.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2g4dg"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="9"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/s7b9Tm_SbSKhtAqn7TKy6BjsSLo=/0x0:1600x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/6/e/9NHS4WQKO6Hu0HiyBKHw/whatsapp-image-2022-11-28-at-14.53.32.jpeg?w=740&amp;#038;ssl=1" alt="Grupo protestou em frente à Defla por mais segurança no trânsito de Rio Branco — Foto: Consuela Gonzalez/Rede Amazônica Acre" data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Grupo protestou em frente à Defla por mais segurança no trânsito de Rio Branco — Foto: Consuela Gonzalez/Rede Amazônica Acre&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="11"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Insegurança&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7o9hc"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No fim de semana, um motorista de aplicativo, identificado como Aldemir Cordeiro, também foi baleado em uma noite em que várias ocorrências foram registradas na capital. Ele estava trabalhando e, após percorrer algumas quadras no bairro Bahia Nova, próximo a parada final do bairro, vários homens tentaram pará-lo e ao desobedecer ao pedido, escutou disparos de arma de fogo.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-a2jrv"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ele foi atingido na região lombar esquerda. O veículo aparentemente foi atingido com três disparos. O homem foi para a UPA da Sobral e de lá encaminhado ao Pronto-Socorro. Essa ocorrência foi registrada já na madrugada de domingo (27).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-1et3u"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="37" data-block-id="14"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Com esses casos de insegurança, um grupo de 50 motoristas de aplicativo protestou por mais segurança em frente à Delegacia de Flagrantes de Rio Branco, no bairro Estação Experimental. O ato ocorreu na tarde desta segunda-feira (28).&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-49n2i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="90" data-block-id="15"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Estamos aqui para protestar e mostrar para a sociedade e o poder público que nós, motoristas de aplicativos, estamos vulneráveis nesse trânsito, na segurança do nosso estado e não é a primeira morte, sabemos que houve mais mortes ano passado. Só essa semana foram três assaltos, estávamos agora aqui e teve um mototaxista fazendo um boletim de ocorrência, então, ontem [domingo, 27] tivemos um assalto no Bahia Nova, que a pessoa está hospitalizada ainda. Então, estamos reivindicando segurança do Estado&amp;#8221;, pediu o motorista Francisco Silva, que esteve no ato.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6mbl0"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="16"&gt;
+&lt;div id="banner_materia__ea5b4c42-bbd7-437a-a0bc-687819eb2491" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__ea5b4c42-bbd7-437a-a0bc-687819eb2491" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_5__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-3q6qe"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="17"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/bm0wwbOpa_u8EAU_SUk3nyiY4Mk=/0x0:3264x3264/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/N/5/1jwhDRS2i6OuONgucYAg/acusados-uber.jpg?w=740&amp;#038;ssl=1" alt="Dois foram presos por ter matado motorista de aplicativo em  Rio Branco  — Foto: Reprodução" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;Dois foram presos por ter matado motorista de aplicativo em Rio Branco — Foto: Reprodução&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="2" data-block-id="18"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Suspeitos presos&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-7tchf"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="61" data-block-id="19"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo a PM, o corpo de José Francisco tinha marcas de perfurações. Contudo, apenas a perícia vai poder confirmar a causa da morte. Uma equipe do Serviço de Atendimento Móvel de Urgência (Samu) foi acionada e constatou a morte da vítima. Policiais da Delegacia de Homicídios e Proteção à Pessoa (DHPP) também estiveram no local, assim como a perícia.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8dsgo"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="70" data-block-id="20"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O veículo da vítima foi encontrado no início do ramal e encaminhado para o pátio do Departamento de Trânsito (Detran). Dois suspeitos foram presos pelo crime, sendo que o primeiro, de 21 anos, confessou e indiciou onde e quem seria o comparsa. Já no início da tarde, o segundo envolvido, de 22 anos, foi preso e levado à Defla, onde também confessou a participação. Os nomes não foram divulgados.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5t3lj"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="21"&gt;
+&lt;div id="banner_materia__c9471860-8c2f-4484-9eab-3ee158d933b8" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__c9471860-8c2f-4484-9eab-3ee158d933b8" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_6__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-10ui4"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="60" data-block-id="22"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“No entanto, os policiais civis da equipe de pronto emprego, após as diligências preliminares sobre o caso, identificaram o conduzido como o autor do homicídio de José Francisco Rodrigues das Chagas, de 31 anos. Diante das informações obtidas através das investigações iniciais, foi possível efetuar a prisão em flagrante do suspeito, que também confessou o crime”, diz a nota.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/suspeitos-de-matar-motorista-de-aplicativo-em-rio-branco-devem-ser-indiciados-por-latrocinio-diz-policia/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-28-at-13.03.53.webp?fit=984%2C1037&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:19:23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Caminhonete é apreendida com mais de 181 quilos de drogas em rodovia do Acre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span class="wpsdc-drop-cap"&gt;U&lt;/span&gt;ma abordagem de rotina da Polícia Rodoviária Federal (PRF-AC) na manhã desta segunda-feira (28) acabou com a apreensão de mais de 181 quilos de drogas. Duas pessoas foram presas e levadas para a sede da Polícia Federal de Rio Branco para os procedimentos cabíveis.&lt;/p&gt;
+&lt;p&gt;A PRF-AC informou que parou uma caminhonete na BR-364. Durante a revista, os policiais encontraram o entorpecente escondido no compartimento da estrutura da carroceria. A polícia não detalhou de cidade o carro tinha saído e qual o destino final da droga.&lt;/p&gt;
+&lt;p&gt;Foram apreendidos, no total, 167,42 kg de pasta base e 14,46 kg de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;Mais droga apreendida&lt;br /&gt;
+No último sábado (26), durante patrulhamento na BR-364, foi feita a abordagem a um caminhão-cegonha encontrados 63,5 quilos de drogas escondidos em dois veículos que estavam sendo transportados.&lt;/p&gt;
+&lt;p&gt;Parte da droga estava escondida no compartimento da porta dos carros. No total foram apreendidos 63,5 kgs, sendo 46,76 kgs de pasta base e 15,74 kgs de cloridrato de cocaína.&lt;/p&gt;
+&lt;p&gt;A droga e os dois veículos foram encaminhados à Polícia Federal de Rio Branco-AC para as medidas cabíveis. A PRF não informou se houve prisões.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/caminhonete-e-apreendida-com-mais-de-181-quilos-de-drogas-em-rodovia-do-acre/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/droga-apreendida.webp?fit=984%2C510&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-11-29T11:04:04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Polícia prende suspeito de matar colono a tiros e esganado no interior do Acre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-ds1o"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="52" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="wpsdc-drop-cap"&gt;F&lt;/span&gt;rancisco Campos Barbosa, mais conhecido como Chico Abreu, foi achado morto em uma ramal na divisa do município de Xapuri e Epitaciolândia, no interior do Acre. De acordo com a polícia, os familiares disseram que procuravam por ele desde a última sexta-feira (25), mas achavam que ele havia saído para caçar.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-9531i"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Já no domingo (27), uma equipe da Polícia Civil, coordenada pelo delegado Luis Tonini, foi até o local, que é de difícil acesso, e resgatou o corpo do colono.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6f09"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="72" data-block-id="5"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Fomos com uma equipe e encontramos. Os familiares achavam que ele estava em uma caça, junto com esse rapaz que era caseiro com ele, mas no domingo [27] o sobrinho da vítima foi para lá e viu o corpo, que estava meio afastado estava a 100, 50 metros da casa, uma área de capinzal. Ele também sentiu o mau cheiro e viu que se tratava do tio dele”, explica o delegado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-ulaq"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
+&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_3__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5nuf0"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="7"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Então, a equipe da Polícia Civil foi acionada e o corpo levado ao Instituto Médico Legal (IML), onde foi constatado que Barbosa foi morto com um tiro nas costas e também foi enforcado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-fpt13"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="8"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/RGZ4P2lCAfNNy7bNvMLvR_SirKg=/0x0:1599x1200/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/R/E/4d7QGFT82ClCefDo4IIA/whatsapp-image-2022-11-29-at-09.46.34.jpeg?w=740&amp;#038;ssl=1" alt="Delegado Tonini coordenou as buscas pelo corpo no interior do Acre  — Foto: Polícia Civil " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Delegado Tonini coordenou as buscas pelo corpo no interior do Acre — Foto: Polícia Civil&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-2fmli"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="9"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O suspeito, Benigno Queiroz Sales, de 36 anos, conhecido como ‘Banana’, foi preso ainda na segunda-feira (28) em Epitaciolândia. O delegado informou que algumas informações apontavam que ele estava armado em uma área de mata e a Polícia Militar foi acionada.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-8sq1b"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="10"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi preso sem arma, mas depois indicou onde estava escondida a arma do crime. Ele também confessou e disse ao delegado que matou a vítima para se defender.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-5p97l"&gt;
+&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="11"&gt;
+&lt;div id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia__69937801-1ddb-4d04-a80a-da425dba480d" data-req="true"&gt;
+&lt;div id="google_ads_iframe_/95377733/tvg_G1/Sua_Regiao&amp;gt;Norte&amp;gt;Acre_4__container__" style="margin: auto;padding: 0px;border: 0pt none;font: inherit;vertical-align: initial;text-align: center;width: 970px;height: 0px"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-6u5ff"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="12"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“Ele disse que se defendeu porque vítima quando bebia ficava bastante agressiva, mas a gente não acredita nessa versão porque ele estava envolvido em um furto em uma casa perto de onde aconteceu o crime e também já era investigado por estupro em Epitaciolândia”, diz.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-b4jrt"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="13"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O homem foi transferido para a delegacia de Xapuri, onde deve ser indiciado por latrocínio. Como o crime foi na divisa, a responsabilidade da investigação ficou com o delegado Gustavo Neves. O g1 tentou ouvi-lo, mas não obteve retorno até esta publicação.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div id="chunk-cqk7n"&gt;
+&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="14"&gt;
+&lt;div class="mc-column content-media__container"&gt;
+&lt;div class="content-media-container glb-skeleton-box"&gt;
+&lt;figure class="content-media-figure"&gt;&lt;span style="font-size: 10pt"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content aligncenter" src="https://i0.wp.com/s2.glbimg.com/pYQYz4hgZLrhVFS73MLSvxAQDsg=/0x0:679x838/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/w/k/v9tmgzSmyzoVi8kR8Zfg/preso1.jpg?w=740&amp;#038;ssl=1" alt="Benigno Queiroz Sales, de 36 anos, foi preso pelo crime  — Foto: Arquivo pessoal " data-recalc-dims="1" /&gt;&lt;/span&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;p class="content-media__description " style="text-align: center"&gt;&lt;span style="font-size: 10pt"&gt;Benigno Queiroz Sales, de 36 anos, foi preso pelo crime — Foto: Arquivo pessoal&lt;/span&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.acre.com.br/policia-prende-suspeito-de-matar-colono-a-tiros-e-esganado-no-interior-do-acre/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.acre.com.br/wp-content/uploads/2022/11/whatsapp-image-2022-11-29-at-09.46.28.webp?fit=984%2C738&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-11-30T13:50:32</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Homem tem casa invadida e é vítima de cárcere privado em Cruzeiro do Sul</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;h4&gt;A vítima alegou estar saindo de casa quando os homens o abordaram armados mandando ele retornar&lt;/h4&gt;
+&lt;p&gt;&lt;!--more--&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Em Cruzeiro do Sul, a Polícia Militar atendeu uma ocorrência suspeita de roubo na terça-feira (29), e ao chegar lá descobriram que o suposto dono da residência tinha invadido o local e estava mantendo o proprietário em cárcere privado. A vítima estava amordaçada, com maõs e pés amarrados.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Quando os militares chegaram ao local e chamaram pelo dono, um homem atendeu a porta e estava nervoso, ele tentou fugir pela parte de trás da casa enquanto a polícia cercava o lugar. A polícia o conteve e entrou na residência, se deparando com um senhor que estava vendado e amarrado, além de ter outro homem no local, que também participava do crime.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A vítima alegou a polícia estar saindo de casa quando dois homens chegaram em uma moto, armados e mandando ele entrar. Assim que a vítima voltou para casa, o suspeito o amarrou e começou a ameaçá-lo de morte, enquanto mandava ele dizer onde tinha dinheiro e pertences.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A Polícia Militar deu voz de prisão aos suspeitos de realizar o cárcere privado, que estavam em posse de arma de fogo e arma branca, além de dinheiro da vítima. O Sistema de Urgência e Emergência (Samu) foi acionado para realizar os atendimentos necessários a vítima, que estava debilitada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Com informações de Gledisson Albano para a Tv Gazeta&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://agazeta.net/noticias/policia/homem-tem-casa-invadida-e-e-vitima-de-carcere-privado-em-cruzeiro-do-sul/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
@@ -2157,7 +6961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,36 +6972,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Em live, Gladson Cameli afirma que está curado da covid-19 e relata “sensação horrível”</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.acre.com.br/em-live-gladson-cameli-afirma-que-esta-curado-da-covid-19-e-relata-sensacao-horrivel/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Com sintomas de covid-19, Gladson Cameli cancela agendas políticas e institucionais nesta quinta-feira</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://agazeta.net/noticias/politica/com-sintomas-de-covid-19-gladson-cameli-cancela-agendas-politicas-e-institucionais-nesta-quinta-feira/</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
         </is>
       </c>
     </row>

--- a/Scrap/thundera.xlsx
+++ b/Scrap/thundera.xlsx
@@ -456,1156 +456,865 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20:19:44</t>
+          <t>09:23:07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esposa de repórter cinematográfico faz vaquinha para custear tratamento de câncer</t>
+          <t>Juiz Gilberto Matos é eleito presidente da Asmac para biênio 2023/2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Após ser diagnosticada com câncer de mama, Mellyssa Ugalde, esposa do repórter cinematográfico e fotógrafo da Secretaria de Comunicação do Acre (Secom), Pedro Devani, passa por uma nova batalha, dessa vez longe de sua cidade.&lt;/p&gt;
-&lt;p&gt;A paciente, que estava sendo tratada no Hospital do Amor, em Rio Branco, foi encaminhada para a unidade de Porto Velho, em Rondônia, onde irá realizar alguns exames e cirurgias.&lt;/p&gt;
-&lt;p&gt;O casal precisa viajar semanalmente para a capital rondoniense, para que Mellyssa possa fazer as sessões de quimioterapia e radioterapia. Por isso, iniciaram uma vaquinha na internet para ajudar a custear os gastos.&lt;/p&gt;
-&lt;p&gt;Em solidariedade e amizade aos dois, o fotojornalista do&lt;em&gt;&lt;strong&gt; ac24horas&lt;/strong&gt;&lt;/em&gt;, Sérgio Vale pede o apoio de todos que poderem ajudar Mellyssa e Pedro, neste momento que estão enfrentando.&lt;/p&gt;
-&lt;p&gt;“Peço o apoio de vocês para que possamos ajudar nossa amiga Mellyssa, que está passando por problemas difíceis de saúde. Estamos fazendo uma vaquinha virtual e lá você pode fazer sua doação. Vamos ajudar essa amiga que merece muito”, explicou.&lt;/p&gt;
-&lt;p&gt;Para saber mais e fazer sua doação, acesse o site&lt;a href="http://vaquinha.com.br/mellyssa-sem-cancer"&gt; vaquinha.com.br/mellyssa-sem-cancer&lt;/a&gt;.&lt;/p&gt;
-&lt;p&gt;VEJA O VÍDEO:&lt;/p&gt;
-&lt;div id="wpfp_875653bf56703d6a10da461dfcf5a4d6" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs" style="position:relative; max-width: 480px; max-height: 848px; " data-ratio="1.7667"&gt;
-	&lt;div class="fp-ratio" style="padding-top: 176.67%"&gt;&lt;/div&gt;
-	&lt;div class="fp-ui"&gt;&lt;noscript&gt;Please enable JavaScript&lt;/noscript&gt;&lt;div class="fp-play fp-visible"&gt;&lt;svg class="fp-play-rounded-fill" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 100 100"&gt;&lt;defs&gt;&lt;style&gt;.a{fill:#000;opacity:0.65;}.b{fill:#fff;opacity:1.0;}&lt;/style&gt;&lt;/defs&gt;&lt;title&gt;play-rounded-fill&lt;/title&gt;&lt;path class="fp-color-play" d="M49.9217-.078a50,50,0,1,0,50,50A50.0564,50.0564,0,0,0,49.9217-.078Z"/&gt;&lt;path class="b" d="M35.942,35.2323c0-4.7289,3.3506-6.6637,7.446-4.2971L68.83,45.6235c4.0956,2.364,4.0956,6.2319,0,8.5977L43.388,68.91c-4.0954,2.364-7.446.43-7.446-4.2979Z" filter="url(#f1)"/&gt;&lt;/svg&gt;&lt;/div&gt;&lt;div class="fp-preload"&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div class='fvp-share-bar'&gt;&lt;ul class="fvp-sharing"&gt;
-    &lt;li&gt;&lt;a class="sharing-facebook" href="https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fesposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-twitter" href="https://twitter.com/intent/tweet?text=ac24horas.com+-+Not%C3%ADcias+do+Acre+&amp;url=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fesposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-email" href="mailto:?body=Check%20out%20the%20amazing%20video%20here%3A%20https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fesposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;&lt;a class="sharing-link" href="https://ac24horas.com/2022/12/01/esposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer/" target="_blank"&gt;Link&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;
-	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_875653bf56703d6a10da461dfcf5a4d6"&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/1WHTlbZfN_M","type":"video\/youtube","fv_title":"Video Ad:ACOES DO GOVERNO DO ACRE"}],"click":"https:\/\/www.agencia.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
-		&lt;a style='display: none' itemprop="video" itemscope itemtype="http://schema.org/VideoObject"  href='#' data-item='{"sources":[{"src":"https:\/\/ac24horas.com\/wp-content\/uploads\/2022\/12\/WhatsApp-Video-2022-12-01-at-19.31.34.mp4","type":"video\/mp4"}]}'&gt;&lt;div class='fvp-playlist-thumb-img'&gt;&lt;div class='fvp-playlist-thumb-img no-image'&gt;&lt;/div&gt;&lt;/div&gt;&lt;meta itemprop="name" content="Esposa de repórter cinematográfico faz vaquinha para custear tratamento de câncer" /&gt;
-        &lt;meta itemprop="description" content="Após ser diagnosticada com câncer de mama, Mellyssa Ugalde, esposa do repórter cinematográfico e fotógrafo da Secretaria de Comunicação do Acre (Secom), Pedro Devani, passa por uma nova batalha, dessa&amp;hellip;" /&gt;
-        &lt;meta itemprop="thumbnailUrl" content="https://ac24horas.com" /&gt;
-        &lt;meta itemprop="contentURL" content="https://ac24horas.com/2022/12/01/esposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer/" /&gt;
-        &lt;meta itemprop="uploadDate" content="2022-12-01" /&gt;&lt;/a&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/6RKnluo1Cv4","type":"video\/youtube","fv_title":"Video Ad:Fricarnes Steak House"}],"click":"https:\/\/www.facebook.com\/fricarnes.steakhouse"}' style='display: none'&gt;&lt;/a&gt;
-	&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;O juiz titular do 2º Juizado Especial Criminal da Comarca de Rio Branco (Jecrim), Gilberto Matos de Araújo, foi eleito presidente da Associação dos Magistrados do Acre (Asmac), para o biênio 2023/2025, na última quinta-feira, 1° de dezembro.&lt;/p&gt;
+&lt;p&gt;O magistrado foi eleito em chapa única &amp;#8211; tendo a participação maciça da classe jurista. A votação e a apuração foram realizadas na sede administrativa da entidade, no Fórum Barão do Rio Branco.&lt;/p&gt;
+&lt;p&gt;Concorrendo à eleição pela primeira vez, Matos agradeceu o apoio dos colegas e afirmou ser uma honra assumir a entidade. “Fico feliz pelo voto de confiança. Assumo a nova missão com a responsabilidade de defender a classe e de buscar a continuidade nos projetos da gestão atual”, declarou.&lt;/p&gt;
+&lt;h2&gt;Bibliografia&lt;/h2&gt;
+&lt;p&gt;Gilberto Matos de Araújo formou-se em Direito pela Universidade Federal do Mato Grosso (UFMT) e possui MBA em Direito Empresarial pela FGV. Ele ingressou na magistratura em 2009 e, atualmente, responde pela Jecrim, além de atuar como juiz eleitoral da 1ª Zona (biênio 2022/2023).&lt;/p&gt;
+&lt;p&gt;O novo presidente da Asmac já foi titular das Varas Únicas das Comarcas de Plácido de Castro e Acrelândia. Ele também já atuou na Vara Criminal de Rio Branco.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/esposa-de-reporter-cinematografico-faz-vaquinha-para-custear-tratamento-de-cancer/</t>
+          <t>https://ac24horas.com/2022/12/02/juiz-gilberto-matos-e-eleito-presidente-da-asmac-para-bienio-2023-2025/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/AJUDE_2.jpg?fit=850%2C510&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/GILBERTO-MATOS.jpg?fit=1280%2C855&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19:37:09</t>
+          <t>08:51:20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tesouro concede B ao Acre em capacidade de pagamento</t>
+          <t>Falha no atendimento a presos monitorados vira alvo de inquérito</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;De acordo com a análise da capacidade de pagamento (CAPAG) realizada em 2022, 21 Estados possuem nota de capacidade de pagamento A ou B, a qual permite que o Ente receba garantia da União para novos empréstimos. Com boa saúde financeira, o Acre recebeu nota A novamente. Essa nota, concedida no final de novembro pelo Tesouro Nacional, se sucede ao longo da gestão de Gladson Cameli.&lt;/p&gt;
-&lt;p&gt;Parte dos Estados sofre para regularizar suas finanças. Goiás e Rio de Janeiro passaram das notas C e D para as respectivas notas B e C. Tocantins também melhorou sua capacidade de pagamento, que mudou de C para B. Por outro lado, Maranhão deixou de ser elegível a operações de crédito com a garantia da União, ao passar da classificação B para C em 2022.&lt;/p&gt;
-&lt;p&gt;A maioria dos Estados sem boa classificação de capacidade de pagamento (A ou B) possuem Índice de Liquidez (IL) maior ou igual a 100%. Para esses Estados, o volume de obrigações de curto prazo das fontes de recursos não vinculadas é superior aos recursos em caixa, o que resultou na perda da boa classificação de capacidade de pagamento.&lt;/p&gt;
-&lt;p&gt;Alguns Estados também possuem indicador de Poupança Corrente maior ou igual a 95%, o que indica que a capacidade de pagamento foi afetada por uma relação entre receitas e despesas correntes com pouca margem para o crescimento das despesas obrigatórias estaduais.&lt;/p&gt;
-&lt;p&gt;No caso do Acre, o Estado ficou com nota B no indicador de capacidade de endividamento; B em poupança corrente; e A no índice de liquidez, o que resultou em nota geral B em CAPAG.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Ministério Público do Estado do Acre (MP-AC) resolveu abrir um inquérito civil para apurar inúmeras reclamações relacionadas a falhas no atendimento aos presos monitorados por tornozeleira eletrônica na capital. O despacho foi publicado na edição do Diário Eletrônico de quarta-feira, 30.&lt;/p&gt;
+&lt;p&gt;Tales Fonseca Tranin, da 14ª Promotoria de Justiça Criminal, destacou que vem recebendo constantes reclamações por parte de reeducandos monitorados, quanto à indisponibilidade dos telefones da Unidade de Monitoramento Eletrônico da capital. Segundo ele, há aproximadamente 1.500 indivíduos incluídos no sistema de monitoração eletrônica, apenas na cidade de Rio Branco, e que em razão da falta de efetivo, apenas dois policiais ficam encarregados pelo atendimento das solicitações.&lt;/p&gt;
+&lt;p&gt;Talles ressaltou que considerando o elevado número de situações que demandam a atuação das equipes de fiscalização da UMEP diariamente e que a dificuldade de comunicação com a unidade vem ocasionando diversos prejuízos aos monitorados, que por muitas vezes acabam sendo presos em razão das violações, mesmo estando em comprovado estado de necessidade, como por exemplo, nas ocasiões em que são vítimas de tentativa de homicídio.&lt;/p&gt;
+&lt;p&gt;Visando a necessidade de regularização da problemática, sobretudo evitar prejuízos aos monitorados que demonstram interesse em cumprir a pena nos moldes estabelecidos, a promotoria do órgão controlador decidiu uma investigação. &amp;#8220;Resolve instaurar inquérito civil com fundamento no art. 4º, caput, da Resolução n.º 23/2007/CNMP, e no art. 23, caput, da Resolução n.º 28/2012, do Colégio de Procuradores de Justiça do MPAC, a fim de verificar a procedência das alegações de possível deficiência no serviço de fiscalização e assistência aos presos sob monitoração eletrônica pela Unidade de Monitoramento Eletrônico de Presos em Rio Branco&amp;#8221;, diz trecho do documento.&lt;/p&gt;
+&lt;p&gt;Ao fim do despacho, o promotor determinou a expedição de ofício ao Diretor Presidente do IAPEN e ao Diretor da UMEP, para que informem, no prazo de 10 (dez) dias, o modo de funcionamento das linhas telefônicas destinadas ao atendimento dos reeducandos monitorados e, se estão disponíveis 24 horas por dia e quantos servidores são lotados no setor.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/tesouro-concede-b-ao-acre-em-capacidade-de-pagamento/</t>
+          <t>https://ac24horas.com/2022/12/02/falha-no-atendimento-aos-monitorados-vira-alvo-de-inquerito-do-mp/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/05/dinheiro-4.jpg?fit=1380%2C920&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2018/02/tornozeleirajpg-e1540390990271.jpg?fit=899%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16:43:49</t>
+          <t>08:45:36</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRF age rápido e desobstrui trechos bloqueados em Rondônia</t>
+          <t>Nicolau Júnior parabeniza José Ribamar novo presidente do TCE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;A assessoria da Polícia Rodoviária Federal (PRF) informou na tarde desta quinta-feira, 1°, que os trechos bloqueados nos municípios de Ariquemes e Cacoal, no estado de Rondônia, foram totalmente desobstruídos.&lt;/p&gt;
-&lt;p&gt;A rodovia havia sido fechada por um grupo de manifestantes bolsonaristas que estão acampados às margens da rodovia da BR-364, em Rondônia, em protesto contra o resultado das eleições que ocorreram há um mês e que teve Lula declarado vencedor.&lt;/p&gt;
-&lt;p&gt;No entanto, apesar do desbloqueio na rodovia, informações extraoficiais dão conta que, os manifestantes pretendem, novamente, fechar a estrada que liga o Acre ao restante do país.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O deputado estadual reeleito, Nicolau Junior ( PP), presidente da Assembleia Legislativa parabenizou o conselheiro José Ribamar, aclamado nesta quinta-feira, para presidir o Tribunal de Contas do Estado.&lt;/p&gt;
+&lt;p&gt;Nicolau destacou o trabalho realizado pelo então presidente Ronald Polanco e disse que o TCE estará em boas mãos na gestão de Ribamar, o mais novo conselheiro da corte.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489403" data-permalink="https://ac24horas.com/2022/12/02/nicolau-junior-parabeniza-jose-ribamar-novo-presidente-do-tce/whatsapp-image-2022-12-02-at-08-33-56/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?fit=1600%2C898&amp;amp;ssl=1" data-orig-size="1600,898" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-12-02 at 08.33.56" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?fit=300%2C168&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?fit=740%2C415&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489403" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?resize=740%2C415&amp;#038;ssl=1" alt="" width="740" height="415" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?resize=768%2C431&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?resize=1536%2C862&amp;amp;ssl=1 1536w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.56.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;José Ribamar foi o único candidato do pleito e acabou aclamado por unanimidade. Ele foi empossado no cargo logo após a sessão, que ocorreu de forma virtual.&lt;/p&gt;
+&lt;p&gt;A nova composição ficou assim: Presidente da Corte para o próximo biênio, Conselheiro José Ribamar Trindade de Oliveira, como Vice-Presidente, o Conselheiro Valmir Gomes Ribeiro e como Corregedora, a Conselheira Dulcinéa Benício de Araújo.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/prf-age-rapido-e-desobstrui-trechos-bloqueados-em-rondonia/</t>
+          <t>https://ac24horas.com/2022/12/02/nicolau-junior-parabeniza-jose-ribamar-novo-presidente-do-tce/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/RTEmagicC_br_364_fechada_extrema_rondonia_foto_prf.jpg.jpg?fit=750%2C500&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-08.33.55.jpeg?fit=1280%2C687&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16:34:52</t>
+          <t>08:42:05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presidente da Energisa Acre diz que desligará maior parte de termelétricas no Acre até 2025</t>
+          <t>Copa do Mundo: Saiba onde assistir os jogos da Seleção Brasileira, em Rio Branco</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;No Acre há menos de 4 anos, a concessionária de energia Energisa já investiu cerca de R$ 1 bilhão no Estado. Somente em 2022, foram cerca R$ 400 milhões investidos na área de concessão. No Bar do Vaz desta quinta-feira (1), o diretor-presidente, José Adriano Mendes Silva, garantiu que a concessionária continuará avançando nos próximos anos.&lt;/p&gt;
-&lt;p&gt;Entre as ações que a empresa pretende efetivar ou dar continuidade está o desligamento das usinas de energia movidas a óleo diesel que ainda estão em operação no Acre, as termelétricas. Pela previsão de José Adriano, em 2025, apenas os municípios isolados do estado, Santa Rosa do Purus, Porto Walter, Marechal Thaumaturgo e Jordão terão termelétricas.&lt;/p&gt;
-&lt;p&gt;Construindo hoje 7 subestações, o diretor da Energisa diz que os próximos três anos serão de muito investimento no Acre, período que ele prevê ser a redenção energética do estado. Ele destacou a construção da subestação de Rio Branco, próxima ao Via Verde Shopping, como parte de um conjunto de ações que vai melhorar muito a qualidade da oferta de energia no entorno da capital.&lt;/p&gt;
-&lt;p&gt;&lt;img data-attachment-id="1489335" data-permalink="https://ac24horas.com/2022/12/01/presidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025/whatsapp-image-2022-12-01-at-16-26-10/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?fit=1600%2C1166&amp;amp;ssl=1" data-orig-size="1600,1166" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="WhatsApp Image 2022-12-01 at 16.26.10" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?fit=300%2C219&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?fit=740%2C539&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489335" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?resize=740%2C539&amp;#038;ssl=1" alt="" width="740" height="539" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?w=1600&amp;amp;ssl=1 1600w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?resize=768%2C560&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?resize=1536%2C1119&amp;amp;ssl=1 1536w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.26.10.jpeg?w=1480&amp;amp;ssl=1 1480w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
-&lt;p&gt;Mas na conversa com o jornalista Roberto Vaz, José Adriano não falou apenas sobre investimento na área energética, mas também do reflexo da atuação da empresa na área social e de desenvolvimento econômico no estado. Um exemplo disso são os investimentos feitos na Vila Restauração, comunidade remota localizada no município de Marechal Thaumaturgo.&lt;/p&gt;
-&lt;p&gt;A Vila Restauração recebeu 600 painéis fotovoltaicos e baterias em um projeto em parceria entre a Energisa e a Alsol, que garantirá o fornecimento de energia elétrica 24 horas por dia aos moradores que até então dispunham de apenas 3 horas de energia por dia geradas por motores a diesel. É um dos maiores programas de energia solar do mundo em uma reserva.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Confira tudo no Bar do Vaz desta semana:&lt;/strong&gt;&lt;/p&gt;
-&lt;div id="wpfp_9166265e50fa97213fe9ad6429941f01" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs is-youtube" style="position:relative; max-width: 740px; max-height: 480px; " data-ratio="0.6486" data-engine="fvyoutube"&gt;
-	&lt;div class="fp-ratio" style="padding-top: 64.86%"&gt;&lt;/div&gt;
-	&lt;img class="fp-splash" alt="video" src="https://i0.wp.com/i.ytimg.com/vi/Wr_BjrjFL6s/maxresdefault.jpg?w=740&amp;#038;ssl=1" style="position:absolute;top:0;width:100%" data-recalc-dims="1" /&gt;
-	&lt;div class="fp-ui"&gt;&lt;noscript&gt;Please enable JavaScript&lt;/noscript&gt;&lt;div class="fp-play fp-visible"&gt;&lt;svg class="fp-play-rounded-fill" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 100 100"&gt;&lt;defs&gt;&lt;style&gt;.a{fill:#000;opacity:0.65;}.b{fill:#fff;opacity:1.0;}&lt;/style&gt;&lt;/defs&gt;&lt;title&gt;play-rounded-fill&lt;/title&gt;&lt;path class="fp-color-play" d="M49.9217-.078a50,50,0,1,0,50,50A50.0564,50.0564,0,0,0,49.9217-.078Z"/&gt;&lt;path class="b" d="M35.942,35.2323c0-4.7289,3.3506-6.6637,7.446-4.2971L68.83,45.6235c4.0956,2.364,4.0956,6.2319,0,8.5977L43.388,68.91c-4.0954,2.364-7.446.43-7.446-4.2979Z" filter="url(#f1)"/&gt;&lt;/svg&gt;&lt;/div&gt;&lt;div class="fp-preload"&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div class='fvp-share-bar'&gt;&lt;ul class="fvp-sharing"&gt;
-    &lt;li&gt;&lt;a class="sharing-facebook" href="https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fpresidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-twitter" href="https://twitter.com/intent/tweet?text=ac24horas.com+-+Not%C3%ADcias+do+Acre+&amp;url=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fpresidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-email" href="mailto:?body=Check%20out%20the%20amazing%20video%20here%3A%20https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fpresidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;&lt;a class="sharing-link" href="https://ac24horas.com/2022/12/01/presidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025/" target="_blank"&gt;Link&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;
-	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_9166265e50fa97213fe9ad6429941f01"&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/OGXdouYXz5A","type":"video\/youtube","fv_title":"Video Ad:Uninorte"}],"click":"https:\/\/www.uninorteac.edu.br\/"}' style='display: none'&gt;&lt;/a&gt;
-		&lt;a style='display: none' itemprop="video" itemscope itemtype="http://schema.org/VideoObject"  href='#' data-item='{"sources":[{"src":"http:\/\/youtube.com\/watch?v=Wr_BjrjFL6s","type":"video\/youtube"}],"splash":"https:\/\/i.ytimg.com\/vi\/Wr_BjrjFL6s\/maxresdefault.jpg","duration":121}'&gt;&lt;div class='fvp-playlist-thumb-img'&gt;&lt;img  src='https://i0.wp.com/i.ytimg.com/vi/Wr_BjrjFL6s/maxresdefault.jpg?w=740&amp;#038;ssl=1' data-recalc-dims="1" /&gt;&lt;/div&gt;&lt;h4&gt;&lt;i class="dur"&gt;02:01&lt;/i&gt;&lt;/h4&gt;&lt;meta itemprop="name" content="Presidente da Energisa Acre diz que desligará maior parte de termelétricas no Acre até 2025" /&gt;
-        &lt;meta itemprop="description" content="No Acre há menos de 4 anos, a concessionária de energia Energisa já investiu cerca de R$ 1 bilhão no Estado. Somente em 2022, foram cerca R$ 400 milhões investidos&amp;hellip;" /&gt;
-        &lt;meta itemprop="thumbnailUrl" content="https://i.ytimg.com/vi/Wr_BjrjFL6s/maxresdefault.jpg" /&gt;
-        &lt;meta itemprop="contentURL" content="https://ac24horas.com/2022/12/01/presidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025/" /&gt;
-        &lt;meta itemprop="uploadDate" content="2022-12-01" /&gt;&lt;/a&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/KAgZe2_xihg","type":"video\/youtube","fv_title":"Video Ad:MERCALE - GOLEADA PREMIADA - VT INSTITUCIONAL"}],"click":"https:\/\/mercale.com.br\/"}' style='display: none'&gt;&lt;/a&gt;
-	&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Com o maior evento de futebol do planeta acontecendo no Catar, bares e restaurantes se preparam para transmitir os jogos, assegurando uma programação especial para atrair os torcedores.&lt;/p&gt;
+&lt;p&gt;Nesta sexta-feira, 02, a Seleção Brasileira entra em campo, em sua terceira partida contra o time de Camarões, às 14 horas, no horário do Acre.&lt;/p&gt;
+&lt;p&gt;O&lt;strong&gt; ac24horas&lt;/strong&gt; separou os locais com as melhores coberturas dos jogos, com garantia de segurança e diversão. Acompanhe.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Via Verde Shopping&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489398" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685141/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?fit=1024%2C570&amp;amp;ssl=1" data-orig-size="1024,570" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685141" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?fit=300%2C167&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?fit=740%2C412&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489398" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?resize=740%2C412&amp;#038;ssl=1" alt="" width="740" height="412" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685141.webp?resize=768%2C428&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;O Via Verde Shopping, preparou uma estrutura completa para a transmissão da Copa do Mundo. Com dois telões disponíveis na Praça de alimentação, durante o jogo da Seleção Brasileira, nesta quinta-feira, terá ainda a apresentação da banda Novo Samba. O local funcionará das 10h às 22h.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Concha Acústica&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489396" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685300/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?fit=1024%2C683&amp;amp;ssl=1" data-orig-size="1024,683" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685300" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?fit=300%2C200&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?fit=740%2C493&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489396" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?resize=740%2C494&amp;#038;ssl=1" alt="" width="740" height="494" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685300.jpg?resize=768%2C512&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Com um telão ampliado, cobertura na arquibancada, praça de alimentação e apresentação artísticas antes e depois dos jogos, a Concha Acústica, no Parque da Maternidade, é uma das melhores opções para acompanhar os jogos da seleção brasileira.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Seringal Bier&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489397" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685279/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?fit=1080%2C1077&amp;amp;ssl=1" data-orig-size="1080,1077" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685279" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?fit=300%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?fit=740%2C738&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489397" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?resize=740%2C738&amp;#038;ssl=1" alt="" width="740" height="738" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?w=150&amp;amp;ssl=1 150w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?resize=768%2C766&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685279.jpg?resize=80%2C80&amp;amp;ssl=1 80w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Copa é no Seringal Bier. Com promoção de 50% de desconto em todas as cervejas (menos as de vinho). A festa começa a partir das 13h, com entrada liberada até às 21h30. Além de várias atrações músicas, como DJ Aldine, Pagodinho do Edil e Guilherme e Felipe.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Tardezinha Grill e Fishes&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489389" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685157/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?fit=1080%2C1063&amp;amp;ssl=1" data-orig-size="1080,1063" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685157" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?fit=300%2C295&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?fit=740%2C728&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489389" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?resize=740%2C728&amp;#038;ssl=1" alt="" width="740" height="728" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?resize=768%2C756&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685157.jpg?resize=80%2C80&amp;amp;ssl=1 80w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Com entrada liberada até às 15h30, o Tardezinha Grill e Fishes preparou uma super transmissão, com shows de Samba Brother, Luan Lima, Vini Rodrigues e DJ Neto Barcelar.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Tardezinha BBQ&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489390" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685320/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?fit=1080%2C2400&amp;amp;ssl=1" data-orig-size="1080,2400" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685320" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?fit=135%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?fit=405%2C900&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489390" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?resize=740%2C1644&amp;#038;ssl=1" alt="" width="740" height="1644" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?w=135&amp;amp;ssl=1 135w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?w=405&amp;amp;ssl=1 405w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?resize=768%2C1707&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?resize=691%2C1536&amp;amp;ssl=1 691w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685320.jpg?resize=922%2C2048&amp;amp;ssl=1 922w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;O Hexa vem aí, e quem quer torcer e se divertir nesta sexta-feira, 02, encontra no Tardezinha BBQ a melhor transmissão da cidade, além de comer uma deliciosa feijoada por apenas R$ 34,99 e promoção na cerveja Skol e Antártica. Tudo isso ao som de Samba Brother, Samba Groove, DJ Felipe de Paula e muitas outras atrações.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;-Recanto Food&amp;amp;Beer&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489395" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685173/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?fit=1080%2C1067&amp;amp;ssl=1" data-orig-size="1080,1067" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685173" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?fit=300%2C296&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?fit=740%2C731&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489395" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?resize=740%2C731&amp;#038;ssl=1" alt="" width="740" height="731" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?resize=768%2C759&amp;amp;ssl=1 768w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685173.jpg?resize=80%2C80&amp;amp;ssl=1 80w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;O Recanto Food&amp;amp;Beer, bar e restaurante na Estrada Dias Martins, preparou uma promoção especial durante os jogos do Brasil. Além de assistir a seleção brilhar em campo, terá uma DELICIOSA Feijoada por apenas R$14,99. E em cada gol do Brasil, vai rolar 1 grade de litrão para a casa inteira.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Casa do Rio&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489393" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685192/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?fit=1080%2C1326&amp;amp;ssl=1" data-orig-size="1080,1326" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685192" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?fit=244%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?fit=733%2C900&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489393" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?resize=740%2C909&amp;#038;ssl=1" alt="" width="740" height="909" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?w=244&amp;amp;ssl=1 244w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?w=733&amp;amp;ssl=1 733w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685192.jpg?resize=768%2C943&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Na Casa do Rio, além de ser servido almoço, com aquela promoção especial nos peixes, durante os jogos da seleção brasileira, você poderá acompanhar nos telões disponíveis no espaço, aproveitar caipirinha em dobro e curtir o show da banda Pixaim.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; A Confraria Gastrobar&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489391" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685258/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?fit=1080%2C1321&amp;amp;ssl=1" data-orig-size="1080,1321" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685258" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?fit=245%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?fit=736%2C900&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489391" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?resize=740%2C905&amp;#038;ssl=1" alt="" width="740" height="905" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?w=245&amp;amp;ssl=1 245w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?w=736&amp;amp;ssl=1 736w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685258.jpg?resize=768%2C939&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Brasil X Camarões é na Confraria Gastrobar. O local estará aberto a partir das 12h, com a transmissão do jogo em telão e TVs, além de promoções nas cervejas longneck.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; JUPARÁ CHOPERIA (Galeria Center Ville)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489392" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685236/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?fit=1080%2C1243&amp;amp;ssl=1" data-orig-size="1080,1243" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685236" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?fit=261%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?fit=740%2C852&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489392" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?resize=740%2C852&amp;#038;ssl=1" alt="" width="740" height="852" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?w=261&amp;amp;ssl=1 261w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?w=782&amp;amp;ssl=1 782w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685236.jpg?resize=768%2C884&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Não vai faltar chopp durante as transmissões dos jogos do Brasil. Na Copa Black da Jupará da Galeria Center Ville, tem promoção de 2 Jupará Pilsen e desconto de 20% em todos os petiscos da casa. A festa começa a partir das 13h.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&amp;#8211; Suprema Erva-mate&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489394" data-permalink="https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/attachment/1669988685216/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?fit=1080%2C1317&amp;amp;ssl=1" data-orig-size="1080,1317" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669988685216" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?fit=246%2C300&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?fit=738%2C900&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489394" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?resize=740%2C902&amp;#038;ssl=1" alt="" width="740" height="902" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?w=1080&amp;amp;ssl=1 1080w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?w=246&amp;amp;ssl=1 246w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?w=738&amp;amp;ssl=1 738w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669988685216.jpg?resize=768%2C937&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Quer assistir os jogos do Brasil e ainda fugir do calor do Acre tomando aquele delicioso e gelado Tereré? A Suprema Erva-mate vai transmitir todas as partidas da nossa seleção.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/presidente-da-energisa-acre-diz-que-desligara-maior-parte-de-termeletricas-no-acre-ate-2025/</t>
+          <t>https://ac24horas.com/2022/12/02/copa-do-mundo-saiba-onde-assistir-os-jogos-da-selecao-brasileira-em-rio-branco-2/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/ADRIANO_ENERGISA.jpg?fit=850%2C510&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/TORCER_BRASIL.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:28:22</t>
+          <t>08:05:19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alemanha vence a Costa Rica em jogo maluco, mas está eliminada da Copa do Mundo</t>
+          <t>Neném Almeida critica fechamento de agência do banco Bradesco em Rio Branco</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;quinta-feira (1º de dezembro), os alemães venceram a Costa Rica por 4 a 2, mas não avançaram às oitavas porque a Espanha perdeu para o Japão no outro jogo do Grupo E.&lt;/p&gt;
-&lt;p&gt;Com o resultado, a seleção germânica se despediu na fase de grupos do Mundial pela segunda edição seguida. O Japão ficou na primeira colocação da chave, com seis pontos, seguido pela Espanha, com quatro, mesma pontuação da Alemanha, porém com saldo de gols maior. A Costa Rica ficou na lanterna da chave, com três.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;O jogo&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;A Alemanha chegou à última rodada da fase de grupos vivendo uma situação complicada. O esquadrão comandado pelo técnico Hansi Flick não dependia apenas de si para avançar às oitavas de final da Copa do Mundo. Era preciso, além de uma vitória sobre a Costa Rica, que a Espanha vencesse o Japão, seu algoz na primeira rodada.&lt;/p&gt;
-&lt;p&gt;Sem mais alternativas, a Alemanha foi a campo fazer sua parte e precisou de apenas dez minutos para abrir o placar. Raum cruzou pela esquerda para Gnabry balançar a rede: 1 a 0.&lt;/p&gt;
-&lt;p&gt;Os alemães seguiram dominando as ações do jogo, enquanto a Costa Rica se defendia e buscava o contra-ataque. Apesar da diferença enorme de volume de jogo entre as duas seleções, quem chegou mais perto de balançar a rede foram os costarriquenhos. Aos 42, Sule e Rudiger falharam em sequência, e Fuller saiu na cara de Neuer, que salvou a Alemanha do empate.&lt;/p&gt;
-&lt;p&gt;Se o primeiro tempo reservou poucas emoções, a segunda etapa foi eletrizante do início ao fim. Isso porque a Costa Rica deixou tudo igual logo aos 12 minutos, e o Japão virou sobre a Espanha. Ou seja, naquele cenário, se a seleção costarriquenha tomasse a dianteira do marcador, avançaria às oitavas.&lt;/p&gt;
-&lt;p&gt;A Alemanha, por sua vez, queria evitar uma nova zebra e passou a se expor ainda mais. O meia-atacante Musiala mandou duas bolas na trave, aos 15 e aos 21. Mas o princípio de retomada da seleção alemã foi freado por Vargas, que colocou a Costa Rica na frente do placar, aos 24.&lt;/p&gt;
-&lt;p&gt;O &amp;#8220;salvador&amp;#8221; da Alemanha na partida foi Havertz, que saiu do banco de reservas e marcou duas vezes para pôr fim ao vexame de uma nova derrota diante de uma adversário indiscutivelmente inferior. Aos 43, Fullkrug ampliou. Mas a Espanha perdeu para o Japão, e os alemães ficaram na terceira colocação do Grupo E.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;VEJA OS MELHORES MOMENTOS:&lt;/strong&gt;&lt;/p&gt;
-&lt;div id="wpfp_5b7fec387a28baf6683871b6653a0e75" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs is-youtube" style="position:relative; max-width: 740px; max-height: 480px; " data-ratio="0.6486" data-engine="fvyoutube"&gt;
-	&lt;div class="fp-ratio" style="padding-top: 64.86%"&gt;&lt;/div&gt;
-	&lt;img class="fp-splash" alt="video" src="https://i0.wp.com/i.ytimg.com/vi/BtjyoDeKY-A/maxresdefault.jpg?w=740&amp;#038;ssl=1" style="position:absolute;top:0;width:100%" data-recalc-dims="1" /&gt;
-	&lt;div class="fp-ui"&gt;&lt;noscript&gt;Please enable JavaScript&lt;/noscript&gt;&lt;div class="fp-play fp-visible"&gt;&lt;svg class="fp-play-rounded-fill" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 100 100"&gt;&lt;defs&gt;&lt;style&gt;.a{fill:#000;opacity:0.65;}.b{fill:#fff;opacity:1.0;}&lt;/style&gt;&lt;/defs&gt;&lt;title&gt;play-rounded-fill&lt;/title&gt;&lt;path class="fp-color-play" d="M49.9217-.078a50,50,0,1,0,50,50A50.0564,50.0564,0,0,0,49.9217-.078Z"/&gt;&lt;path class="b" d="M35.942,35.2323c0-4.7289,3.3506-6.6637,7.446-4.2971L68.83,45.6235c4.0956,2.364,4.0956,6.2319,0,8.5977L43.388,68.91c-4.0954,2.364-7.446.43-7.446-4.2979Z" filter="url(#f1)"/&gt;&lt;/svg&gt;&lt;/div&gt;&lt;div class="fp-preload"&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div class='fvp-share-bar'&gt;&lt;ul class="fvp-sharing"&gt;
-    &lt;li&gt;&lt;a class="sharing-facebook" href="https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Falemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-twitter" href="https://twitter.com/intent/tweet?text=ac24horas.com+-+Not%C3%ADcias+do+Acre+&amp;url=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Falemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-email" href="mailto:?body=Check%20out%20the%20amazing%20video%20here%3A%20https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Falemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;&lt;a class="sharing-link" href="https://ac24horas.com/2022/12/01/alemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo/" target="_blank"&gt;Link&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;
-	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_5b7fec387a28baf6683871b6653a0e75"&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/0pF7RKX23lc","type":"video\/youtube","fv_title":"Video Ad:VT PMRB FEIRAS BORA PRA FEIRA"}],"click":"http:\/\/www.riobranco.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
-		&lt;a style='display: none' itemprop="video" itemscope itemtype="http://schema.org/VideoObject"  href='#' data-item='{"sources":[{"src":"http:\/\/youtube.com\/watch?v=BtjyoDeKY-A","type":"video\/youtube"}],"splash":"https:\/\/i.ytimg.com\/vi\/BtjyoDeKY-A\/maxresdefault.jpg","duration":620}'&gt;&lt;div class='fvp-playlist-thumb-img'&gt;&lt;img  src='https://i0.wp.com/i.ytimg.com/vi/BtjyoDeKY-A/maxresdefault.jpg?w=740&amp;#038;ssl=1' data-recalc-dims="1" /&gt;&lt;/div&gt;&lt;h4&gt;&lt;i class="dur"&gt;10:20&lt;/i&gt;&lt;/h4&gt;&lt;meta itemprop="name" content="Alemanha vence a Costa Rica em jogo maluco, mas está eliminada da Copa do Mundo" /&gt;
-        &lt;meta itemprop="description" content="quinta-feira (1º de dezembro), os alemães venceram a Costa Rica por 4 a 2, mas não avançaram às oitavas porque a Espanha perdeu para o Japão no outro jogo do&amp;hellip;" /&gt;
-        &lt;meta itemprop="thumbnailUrl" content="https://i.ytimg.com/vi/BtjyoDeKY-A/maxresdefault.jpg" /&gt;
-        &lt;meta itemprop="contentURL" content="https://ac24horas.com/2022/12/01/alemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo/" /&gt;
-        &lt;meta itemprop="uploadDate" content="2022-12-01" /&gt;&lt;/a&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/0pF7RKX23lc","type":"video\/youtube","fv_title":"Video Ad:VT PMRB FEIRAS BORA PRA FEIRA"}],"click":"http:\/\/www.riobranco.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
-	&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;O deputado Nenem Almeida fez duras críticas ao banco Bradesco pelo fechamento de uma agência na capital. Com o fechamento da sede localizada na Rua Rui Barbosa, a instituição bancária passa a ter apenas mais uma agência em funcionamento em Rio Branco.&lt;/p&gt;
+&lt;p&gt;“O Bradesco é o segundo maior banco privado do país, teve um lucro líquido de R$ 19,3 bilhões nos nove primeiros meses deste ano. Entretanto, no mesmo período extinguiu 159 agências o que resultou na demissão de milhares de bancários. Isso é uma afronta!”, disse Almeida.&lt;/p&gt;
+&lt;p&gt;Ainda de acordo com o parlamentar, Rio Branco chegou a possuir sete agências da instituição bancária. “Rio Branco é a capital de um estado, somos aproximadamente 415 mil habitantes. É preocupante que uma capital possua hoje apenas duas agências do Bradesco para o atendimento físico de quem precisa, Rio Branco passar a possuir apenas uma única agência é inadmissível”, asseverou o deputado.&lt;/p&gt;
+&lt;p&gt;A redução do número de agências tem um reflexo imediato no atendimento aos usuários, visto aumento das filas e no tempo de atendimento. “O trato do banco com seu quadro de funcionários é lastimável, profissionais que dedicam a vida a instituição estão sendo descartados de maneira covarde. No entanto, a forma com que os clientes do Bradesco passarão a ser tratados com um único ponto de atendimento também causa preocupação. É preciso que haja respeito com a população rio-branquense”, finalizou Neném Almeida.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/alemanha-vence-a-costa-rica-em-jogo-maluco-mas-esta-eliminada-da-copa-do-mundo/</t>
+          <t>https://ac24horas.com/2022/12/02/nenem-almeida-critica-fechamento-de-agencia-do-banco-bradesco-em-rio-branco/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/317890880_6687387211277069_2555586102912122911_n.jpg?fit=2048%2C1365&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-19.17.28-1.jpeg?fit=1024%2C768&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16:22:54</t>
+          <t>08:04:26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Japão vira sobre Espanha, avança em primeiro do grupo e pode ficar no caminho do Brasil</t>
+          <t>Motociclista colide contra muro e vai parar no Pronto-Socorro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O Japão venceu a Espanha por 2 a 1 de virada nesta quinta-feira (1°), no estádio Internacional Khalifa, pela última rodada do Grupo E da Copa do Mundo. A derrota custou aos espanhóis a primeira posição da chave, que ficou com o Japão, e teria eliminado-os caso a Costa Rica vencesse a Alemanha, o que não aconteceu.&lt;/p&gt;
-&lt;p&gt;Nas oitavas de final, o Japão enfrentará a Croácia, segunda colocada do Grupo F, na próxima segunda-feira (5), no estádio Al Janoub, às 12h (de Brasília). Já a Espanha enfrenta o Marrocos, primeiro colocado do Grupo F, na terça-feira (6), no estádio Cidade da Educação, também às 12h (de Brasília).&lt;/p&gt;
-&lt;p&gt;O caminho da chave que estão Croácia e Japão pode ser o mesmo do Brasil, caso a Canarinho confirme a primeira colocação do Grupo G na sexta-feira (2), diante de Camarões. Nesse cenário, o vencedor desta partida enfrenta o Brasil ou o segundo colocado do Grupo H nas quartas.&lt;/p&gt;
-&lt;p&gt;A configuração do Grupo E mudou diversas vezes de acordo com os placares das duas partidas simultâneas. Em um certo momento, o Japão estava passando em primeiro e a Costa Rica em segundo. Os costarriquenhos chegaram a ter a vitória parcial, mas a Alemanha venceu o jogo por 4 a 2.&lt;/p&gt;
-&lt;p&gt;Ao final das partidas, Japão ficou com seis pontos, Espanha quatro, com saldo de gols maior, Alemanha quatro e Costa Rica três, nessa ordem de classificação. Pela segunda vez seguida, a Alemanha é eliminada da Copa do Mundo ainda na fase de grupos.&lt;/p&gt;
-&lt;h2&gt;O jogo&lt;/h2&gt;
-&lt;p&gt;A partida começou como se esperava: a Espanha trabalhando mais a bola, e o Japão apostando em descidas rápidas. A estratégia espanhola deu certo logo de início e a equipe chegou ao primeiro gol aos 10 minutos. Morata, que começou no banco diante da Alemanha, entrou e marcou, foi titular desta vez e cabeceou a bola para as redes depois de bom cruzamento de Azpilicueta.&lt;/p&gt;
-&lt;p&gt;Mesmo com o gol espanhol, o cenário seguiu o mesmo, com a Espanha tocando a bola entre os zagueiros, na linha do meio campo, procurando brechas na zaga japonesa. Com essa dinâmica entre os times, o jogo ficou morno. A Espanha tentou se aproximar do gol em bolas cruzadas e chutes de longe, enquanto o Japão encaixou alguns contra-ataques, mas nenhum com grande perigo.&lt;/p&gt;
-&lt;p&gt;O Japão voltou com disposição completamente diferente para a segunda etapa, já que precisava pontuar para ter chances de classificação. Logo aos dois minutos, depois de pressionar a saída de jogo espanhola, o atacante japonês Doan, que entrou no intervalo, arriscou de fora da área, de esquerda e forte, e o goleiro Simón aceitou.&lt;/p&gt;
-&lt;p&gt;Assim como na estreia diante da Alemanha, o Japão conseguiu virar o jogo rapidamente. Aos cinco, os japoneses encaixaram um rápido contra-ataque e cruzaram na área. Depois de a bola passar sobre a linha de fundo, Mitoma cruzou novamente, e Tanaka empurrou para as redes. Inicialmente, o árbitro deu a saída da bola, mas o VAR validou o gol. 2 a 1 para o Japão em menos de seis minutos.&lt;/p&gt;
-&lt;p&gt;A tarefa japonesa estava feita, e a equipe voltou a marcar em seu campo de defesa, com a Espanha tocando a bola entre os zagueiros. Com a derrota espanhola, bastava uma vitória da Costa Rica sobre a Alemanha para a Roja ficar fora das oitavas de final da Copa, além de decretar a possibilidade apenas da segunda colocação.&lt;/p&gt;
-&lt;p&gt;Sabendo disso, o técnico Luis Enrique prontamente mudou o time e colocou Carvajal, Asensio e Ferrán Torres. As mexidas forçaram o comandante japonês, Hajime Moriyasu, fechou a casa totalmente e tirou o um atacante para reforçar o sistema defensivo.&lt;/p&gt;
-&lt;p&gt;A partir dos 35 minutos, a Espanha tocou a bola na intermediária japonesa, que compactou seus 11 jogadores em menos de 30 metros. Depois de muito rondar a área japonesa, a Espanha terminou o jogo sem conseguir empatar &amp;#8211; o que a faria garantir o primeiro lugar do grupo e daria o segundo lugar à Alemanha.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;VEJA OS MELHORES MOMENTOS:&lt;/strong&gt;&lt;/p&gt;
-&lt;div id="wpfp_f3fe8f7de47f010d5d648a9e7552984c" class="flowplayer no-brand is-splash no-svg is-paused skin-youtuby fp-full  bottom-fs is-youtube" style="position:relative; max-width: 740px; max-height: 480px; " data-ratio="0.6486" data-engine="fvyoutube"&gt;
-	&lt;div class="fp-ratio" style="padding-top: 64.86%"&gt;&lt;/div&gt;
-	&lt;img class="fp-splash" alt="video" src="https://i0.wp.com/i.ytimg.com/vi/51eVLlqGS1w/maxresdefault.jpg?w=740&amp;#038;ssl=1" style="position:absolute;top:0;width:100%" data-recalc-dims="1" /&gt;
-	&lt;div class="fp-ui"&gt;&lt;noscript&gt;Please enable JavaScript&lt;/noscript&gt;&lt;div class="fp-play fp-visible"&gt;&lt;svg class="fp-play-rounded-fill" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 100 100"&gt;&lt;defs&gt;&lt;style&gt;.a{fill:#000;opacity:0.65;}.b{fill:#fff;opacity:1.0;}&lt;/style&gt;&lt;/defs&gt;&lt;title&gt;play-rounded-fill&lt;/title&gt;&lt;path class="fp-color-play" d="M49.9217-.078a50,50,0,1,0,50,50A50.0564,50.0564,0,0,0,49.9217-.078Z"/&gt;&lt;path class="b" d="M35.942,35.2323c0-4.7289,3.3506-6.6637,7.446-4.2971L68.83,45.6235c4.0956,2.364,4.0956,6.2319,0,8.5977L43.388,68.91c-4.0954,2.364-7.446.43-7.446-4.2979Z" filter="url(#f1)"/&gt;&lt;/svg&gt;&lt;/div&gt;&lt;div class="fp-preload"&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;&lt;/b&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div class='fvp-share-bar'&gt;&lt;ul class="fvp-sharing"&gt;
-    &lt;li&gt;&lt;a class="sharing-facebook" href="https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fjapao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-twitter" href="https://twitter.com/intent/tweet?text=ac24horas.com+-+Not%C3%ADcias+do+Acre+&amp;url=https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fjapao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;
-    &lt;li&gt;&lt;a class="sharing-email" href="mailto:?body=Check%20out%20the%20amazing%20video%20here%3A%20https%3A%2F%2Fac24horas.com%2F2022%2F12%2F01%2Fjapao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil%2F" target="_blank"&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div&gt;&lt;a class="sharing-link" href="https://ac24horas.com/2022/12/01/japao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil/" target="_blank"&gt;Link&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;
-	&lt;div class="fp-playlist-external fv-playlist-design-2017 visible-captions fp-playlist-horizontal skin-youtuby" rel="wpfp_f3fe8f7de47f010d5d648a9e7552984c"&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/0pF7RKX23lc","type":"video\/youtube","fv_title":"Video Ad:VT PMRB FEIRAS BORA PRA FEIRA"}],"click":"http:\/\/www.riobranco.ac.gov.br\/"}' style='display: none'&gt;&lt;/a&gt;
-		&lt;a style='display: none' itemprop="video" itemscope itemtype="http://schema.org/VideoObject"  href='#' data-item='{"sources":[{"src":"http:\/\/youtube.com\/watch?v=51eVLlqGS1w","type":"video\/youtube"}],"splash":"https:\/\/i.ytimg.com\/vi\/51eVLlqGS1w\/maxresdefault.jpg","duration":315}'&gt;&lt;div class='fvp-playlist-thumb-img'&gt;&lt;img  src='https://i0.wp.com/i.ytimg.com/vi/51eVLlqGS1w/maxresdefault.jpg?w=740&amp;#038;ssl=1' data-recalc-dims="1" /&gt;&lt;/div&gt;&lt;h4&gt;&lt;i class="dur"&gt;05:15&lt;/i&gt;&lt;/h4&gt;&lt;meta itemprop="name" content="Japão vira sobre Espanha, avança em primeiro do grupo e pode ficar no caminho do Brasil" /&gt;
-        &lt;meta itemprop="description" content="O Japão venceu a Espanha por 2 a 1 de virada nesta quinta-feira (1°), no estádio Internacional Khalifa, pela última rodada do Grupo E da Copa do Mundo. A derrota&amp;hellip;" /&gt;
-        &lt;meta itemprop="thumbnailUrl" content="https://i.ytimg.com/vi/51eVLlqGS1w/maxresdefault.jpg" /&gt;
-        &lt;meta itemprop="contentURL" content="https://ac24horas.com/2022/12/01/japao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil/" /&gt;
-        &lt;meta itemprop="uploadDate" content="2022-12-01" /&gt;&lt;/a&gt;
-		&lt;a href='' data-item='{"sources":[{"src":"https:\/\/youtu.be\/KAgZe2_xihg","type":"video\/youtube","fv_title":"Video Ad:MERCALE - GOLEADA PREMIADA - VT INSTITUCIONAL"}],"click":"https:\/\/mercale.com.br\/"}' style='display: none'&gt;&lt;/a&gt;
-	&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Um acidente trânsito envolvendo uma motocicleta deixou Valdeonor Pereira da Silva, de 40 anos, ferido na noite desta quinta-feira, 1°, no ramal São João, no bairro Apolônio Sales, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações de populares que presenciaram o acidente, Valdeonor trafegava em uma motocicleta modelo Yamaha YBR 125, de cor prata, placa MZT-2291, no sentido centro-bairro quando perdeu o controle da moto, invadiu a pista contraria, subiu na calçada e colidiu contra um muro. Com o impacto, Valdeonor bateu a cabeça e desmaiou.&lt;/p&gt;
+&lt;p&gt;A ambulância do Serviço de Atendimento Móvel de Urgência (SAMU) foi acionada, os paramédicos prestaram os primeiros atendimentos e encaminharam o motociclista ao Pronto-Socorro de Rio Branco em estado de saúde estável, com sinais de embriaguez alcoólica.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do Batalhão de Trânsito não foram acionados.&lt;/p&gt;
+&lt;p&gt;A moto foi removida do local por terceiros.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/japao-vira-sobre-espanha-avanca-em-primeiro-do-grupo-e-pode-ficar-no-caminho-do-brasil/</t>
+          <t>https://ac24horas.com/2022/12/02/motociclista-colide-contra-muro-e-vai-parar-no-pronto-socorro/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/317896821_6687996427882814_3404927418247661691_n.jpg?fit=2048%2C1365&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985918759.jpg?fit=1920%2C1080&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16:14:47</t>
+          <t>07:46:35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Acre tem novo caso suspeito de Varíola dos Macacos</t>
+          <t>Sine do Acre oferta 39 vagas de emprego nesta sexta-feira, em Rio Branco</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Um novo caso suspeito de Monkeypox (varíola dos macacos) foi notificado no Estado, nesta quinta-feira, 1°, pela Secretaria de Saúde do Acre (Sesacre), por meio de Centro de Informações Estratégicas em Vigilância em Saúde (Cievs).&lt;/p&gt;
-&lt;p&gt;Sendo assim, o número de casos chegam a 34, sendo um confirmado, 31 descartados, um suspeito e um com perda de seguimento.&lt;/p&gt;
-&lt;p&gt;Os sintomas comuns da doença são, erupções cutâneas, lesões em mucosas, febre, dor de cabeça, inchaço dos linfonodos (ínguas), dores nas costas, dores musculares e fadiga.&lt;/p&gt;
-&lt;p&gt;Em situações suspeitas, os atendimentos estão sendo disponibilizados em qualquer Unidade Básica de Saúde (UBS) ou de pronto atendimento (UPAs). A rede conta com insumos para coleta de amostras das lesões cutâneas para análise laboratorial.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Sistema Nacional de Empregos do Acre (Sine), está disponibilizando 39 vagas de emprego para várias áreas em Rio Branco, nesta sexta-feira, 02 de dezembro.&lt;/p&gt;
+&lt;p&gt;As oportunidades de trabalho são rotativas, ou seja, são divulgadas para o dia, podendo ou não estar mais disponíveis para a data seguinte. O atendimento está sendo feito exclusivamente via telefone, mas presencialmente continua sendo na Organização em Centros de Atendimento (OCA).&lt;/p&gt;
+&lt;p&gt;Para se candidatar, é necessário que o candidato esteja com o cadastro atualizado. Aqueles que precisam fazer o registro na instituição, devem ter em mãos os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;O cidadão poderá verificar se a vaga ainda está disponível através dos telefones (68) 3224-5094 (68) 3224-1519, (68) 3223-6502 ou (68) 0800 647 8182.&lt;/p&gt;
+&lt;p&gt;&lt;img data-attachment-id="1489379" data-permalink="https://ac24horas.com/2022/12/02/sine-do-acre-oferta-39-vagas-de-emprego-nesta-sexta-feira-em-rio-branco/attachment/1669985159539/" data-orig-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?fit=1024%2C547&amp;amp;ssl=1" data-orig-size="1024,547" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="1669985159539" data-image-description="" data-image-caption="" data-medium-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?fit=300%2C160&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?fit=740%2C395&amp;amp;ssl=1" loading="lazy" class="aligncenter size-full wp-image-1489379" src="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?resize=740%2C395&amp;#038;ssl=1" alt="" width="740" height="395" srcset="https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?w=1024&amp;amp;ssl=1 1024w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?w=300&amp;amp;ssl=1 300w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?w=900&amp;amp;ssl=1 900w, https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/1669985159539.jpg?resize=768%2C410&amp;amp;ssl=1 768w" sizes="(max-width: 740px) 100vw, 740px" data-recalc-dims="1" /&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/acre-tem-novo-caso-suspeito-de-variola-dos-macacos/</t>
+          <t>https://ac24horas.com/2022/12/02/sine-do-acre-oferta-39-vagas-de-emprego-nesta-sexta-feira-em-rio-branco/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/07/variola-monkeypox_1.jpg?fit=1170%2C700&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2021/08/VAGA-DE-EMPREGO.jpg?fit=800%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:16:00</t>
+          <t>07:45:46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Léo Moura, ex-Flamengo, jogará em Cruzeiro do Sul no sábado</t>
+          <t>Acre tem sexta-feira com tempo instável, chuvas intensas e temperatura amena</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O ex-jogador lateral do Flamengo, Léo Moura fará um jogo solidário em Cruzeiro do Sul, sábado, 3, de dezembro a partir das 17 horas no Estádio o Cruzeirão. A entrada será um quilo de alimento não perecível.&lt;/p&gt;
-&lt;p&gt;O jogo será realizado pelo Instituto Léo Moura, escolinha de futebol Passaporte para Vitória, com apoio do gabinete do deputado federal Alan Rick, Ministério da Cidadania e da prefeitura de Cruzeiro do Sul. Vão jogar os amigos do prefeito Zequinha Lima contra os amigos do Alan.&lt;/p&gt;
-&lt;p&gt;Léo Moura vai jogar meio tempo por cada time e os alimentos serão doados à famílias em situação de vulnerabilidade social.&lt;/p&gt;
-&lt;p&gt;Léo Moura e Alan Rick também cumprirão outras agendas no Juruá. Nesta sexta-feira, 2, visitarão o núcleo do projeto na Vila Olímpica, em Cruzeiro do Sul, e também vão à Mâncio Lima, com agenda já confirmada na terra indígena Puyanawa.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A chegada de uma fraca onda polar e a incursão de muita umidade do Atlântico deixam o tempo instável, com muitas nuvens e chuvas a qualquer hora, nesta sexta-feira, 02, no Acre.&lt;/p&gt;
+&lt;p&gt;Deve chover forte e ter raios e ventanias, desde as primeiras horas do dia, em Rio Branco, Brasileia e Sena Madureira. Já em Cruzeiro do Sul e Tarauacá, o tempo será quente, com sol e nuvens e chuvas passageiras.&lt;/p&gt;
+&lt;p&gt;Temperaturas:&lt;/p&gt;
+&lt;p&gt;– Rio Branco, Senador Guiomard, Bujari e Porto Acre, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 24 e 26ºC;&lt;/p&gt;
+&lt;p&gt;– Brasileia, Epitaciolândia, Xapuri, Capixaba, Assis Brasil e Santa Rosa do Purus, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 23 e 25ºC;&lt;/p&gt;
+&lt;p&gt;– Plácido de Castro e Acrelândia, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 24 e 26ºC;&lt;/p&gt;
+&lt;p&gt;– Sena Madureira e Manuel Urbano, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 25 e 27ºC;&lt;/p&gt;
+&lt;p&gt;– Tarauacá e Feijó, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 27 e 29ºC;&lt;/p&gt;
+&lt;p&gt;– Cruzeiro do Sul, Mâncio Lima e Rodrigues Alves, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 29 e 31ºC;&lt;/p&gt;
+&lt;p&gt;– Marechal Thaumaturgo, Porto Walter e Jordão, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 28 e 30ºC.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/leo-moura-ex-flamengo-jogara-em-cruzeiro-do-sul-em-acao-solidaria/</t>
+          <t>https://ac24horas.com/2022/12/02/acre-tem-sexta-feira-com-tempo-instavel-chuvas-intensas-e-temperatura-amena/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/12/LEO_MOURA2.jpg?fit=850%2C510&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/03/CHUVA-RIO-5.jpeg?fit=1600%2C1012&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15:08:47</t>
+          <t>07:44:32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Acre registra duas mortes e 248 novos casos de Covid-19 em menos de 24 horas</t>
+          <t>TRE adere à campanha Papai Noel dos Correios e recebe presentes até dia 8 no Acre</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Nesta quinta-feira, 1, o boletim epidemiológico divulgado pela Secretaria de Estado de Saúde do Acre (Sesacre) confirmou duas mortes e 248 novos casos de coronavírus.&lt;/p&gt;
-&lt;p&gt;Entre os óbitos, está um adolescente de 15 anos que morreu após sofrer paradas cardíacas, na Unidade de Pronto Atendimento (Upa) do Segundo Distrito, em Rio Branco. A outra vítima é um idoso de 96 anos, que deu entrada no Hospital Raimundo Chaar, em Brasiléia, no dia 29 de novembro.&lt;/p&gt;
-&lt;p&gt;Em nota divulgada pelo G1, o menino, vítima de Covid-19, deu entrada na unidade às 22h04 de terça-feira (29) e morreu às 10h do dia seguinte. Ele tinha comorbidades como hidrocefalia e cardiopatia congênita.&lt;/p&gt;
-&lt;p&gt;Além dos óbitos, 30 exames de RT-PCR estão em análise. 150.393 pessoas já receberam alta médica da doença e o número de internações não foi divulgado.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Tribunal Regional Eleitoral do Acre aderiu a Campanha Papai Noel dos Correios, um projeto de ação social, em parceria com escolas da rede pública de ensino, que acontece há mais de 30 anos.&lt;/p&gt;
+&lt;p&gt;A ação solidária acontece anualmente, e consiste em presentear as crianças que escreverem cartas endereçadas ao Papai Noel dos Correios. Neste ano, no Acre, a instituição conta com o apoio de padrinhos e madrinhas, para atender os pedidos de 2.000 crianças.&lt;/p&gt;
+&lt;p&gt;As cartinhas estão na Coordenadoria de Gestão de Pessoas (Cogep) e o Tribunal convida magistradas e magistrados, servidoras e servidores e demais pessoas interessadas a participar da campanha e fazer a magia do Natal acontecer.&lt;/p&gt;
+&lt;p&gt;Os presentes devem ser entregues até o dia 8 de dezembro na Cogep.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/acre-registra-duas-mortes-e-248-novos-casos-de-covid-19-em-menos-de-24-horas/</t>
+          <t>https://ac24horas.com/2022/12/02/tre-adere-a-campanha-papai-noel-dos-correios-e-recebe-presentes-ate-dia-8-no-acre/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/06/covid-19-4908692_1280.jpg?fit=1280%2C853&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2020/12/PRESENTE-DE-NATAL.jpg?fit=850%2C510&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14:58:39</t>
+          <t>07:43:05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mâncio Lima abre concurso com 167 vagas e salário de até R$ 7,5 mil</t>
+          <t>Após ter recuado, governo volta a &amp;#8216;zerar&amp;#8217; verba de universidades</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;A prefeitura do município de Mâncio Lima lança nesta sexta-feira, 2, edital de concurso público para o quadro permanente com 167 vagas e cadastro reserva para os níveis médio e superior de ensino para profissionais das áreas da Saúde e Assistência Social. Os salários variam de R$ 1.200 a R$ 7.500.&lt;/p&gt;
-&lt;p&gt;Para a área de Assistência Social serão disponibilizadas 7 vagas em ampla concorrência para orientador social, assistente social, psicólogo e mais 17 vagas para o cadastro de reserva. O Concurso Público será realizado pelas empresas MS Concursos e Advise Consultoria &amp;amp; Planejamento.&lt;/p&gt;
-&lt;p&gt;Na área da Saúde serão 40 vagas de nível médio para os cargos de agente de combate a endemias, atendente de consultório dentário, auxiliar de laboratório, microscopista e técnico em enfermagem, além de mais 44 vagas para o cadastro de reserva.&lt;/p&gt;
-&lt;p&gt;Para nível superior os cargos disponíveis são de assistente social, educador físico, enfermeiro, farmacêutico, fisioterapeuta, médico clínico geral, médico ginecologista, médico pediatra, nutricionista, odontólogo, pedagogo e psicólogo, somando 17 vagas para ampla concorrência e 42 vagas para preenchimento do cadastro de reserva.&lt;/p&gt;
-&lt;p&gt;Dentro do número de vagas há a destinação para pessoas com deficiência declarada no ato da inscrição.&lt;/p&gt;
-&lt;p&gt;As provas para a área da saúde serão realizadas no dia 15 de janeiro de 2023 e para assistência social, no dia 12 de fevereiro. A taxa de inscrição é de R$ 85 para nível médio e R$ 120 para nível superior. A contratação será feita após o cumprimento dos trâmites estabelecidos no edital.&lt;/p&gt;
-&lt;p&gt;As inscrições serão realizadas, exclusivamente, por meio da internet, através do site &lt;a href="http://www.msconcursos.com.br/"&gt;www.msconcursos.com.br&lt;/a&gt;, no período de 09 a 30 de dezembro do ano em curso para área de Assistência Social e pelo site &lt;a href="https://www.advise.net.br"&gt;https://www.advise.net.br&lt;/a&gt;, de 02/12/2022 a 18/12/2022 para área da Saúde, e poderão ser efetuadas somente até às 18h (dezoito horas), horário de Brasília.&lt;/p&gt;
-&lt;p&gt;Outras informações poderão ser obtidas nos editais publicados na página oficial da Prefeitura e no site da empresa responsável pelo certame.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A verba de R$ 366 milhões do Orçamento que foi liberada no meio do dia foi novamente bloqueada pelo governo de Jair Bolsonaro (PL) no começo da noite desta quinta-feira (1º).&lt;/p&gt;
+&lt;p&gt;O retorno à normalidade, com previsão de poder pagar contas de água, luz e serviços terceirizados, durou aproximadamente seis horas apenas, segundo o portal g1.&lt;/p&gt;
+&lt;p&gt;A informação de novo recuo do governo foi divulgada pelo Conselho Nacional das Instituições da Rede Federal de Educação Profissional, Científica e Tecnológica (Conif).&lt;/p&gt;
+&lt;p&gt;No documento, o MEC esclarece que &amp;#8220;já havia solicitado ao Ministério da Economia, nos meses de outubro e novembro, a ampliação do limite de pagamento das despesas discricionárias&amp;#8221;, mas que as &amp;#8220;solicitações não foram atendidas&amp;#8221;.&lt;/p&gt;
+&lt;p&gt;Mais cedo, a Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior (Andifes) e o Conif tinham anunciado que as entidades voltaram a ter acesso à verba de R$ 366 milhões que foi bloqueada na segunda-feira (28).&lt;/p&gt;
+&lt;p&gt;O Ministério da Educação (MEC) não havia se pronunciado sobre o tema até o fechamento desta publicação.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://ac24horas.com/2022/12/01/mancio-lima-abre-concurso-com-167-vagas-e-salario-de-ate-r-75-mil/</t>
+          <t>https://ac24horas.com/2022/12/02/apos-ter-recuado-governo-volta-a-zerar-verba-de-universidades/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/10/mancio-lima.jpeg?fit=895%2C662&amp;ssl=1</t>
+          <t>https://i0.wp.com/ac24horas.com/wp-content/uploads/2022/11/BOLSONARO_2.jpg?fit=1023%2C614&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21:45:11</t>
+          <t>09:24:37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Famílias do Rio Liberdade alegam falta de barqueiros para transporte escolar</t>
+          <t>Lula vai ver jogo entre Brasil e Camarões no gabinete de transição</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Na manhã desta quinta-feira (1), famílias do rio Liberdade, comunidade localizada na BR-364, procuraram nossa equipe de reportagem para denunciar falta de barqueiros para transportar os alunos.&lt;/p&gt;
-&lt;p&gt;Segundo Maria Marques, uma moradora da comunidade, seus filhos estão sem estudar devido à falta de barqueiros. “Tenho certeza que o estado tem condições de colocar pessoas para trabalharem em prol da sociedade. Nossos filhos precisam está numa sala de aula, porque queremos um futuro digno para eles”, destacou.&lt;/p&gt;
-&lt;p&gt;De acordo com outro morador, o Sr. Antônio, que também é pai, foi colocado uma embarcação por um mês, mas depois desse período ninguém mais apareceu. O mesmo afirma ainda que os alunos estão pagando por algo que é responsabilidade do poder público.&lt;/p&gt;
-&lt;p&gt;Na comunidade, são mais de 70 alunos que estão matriculados e estudando em turmas do ensino fundamental e médio.&lt;/p&gt;
-&lt;p&gt;A coordenação do núcleo de educação informou que a rota teve problemas nas especificações do tipo de embarcação adequada. Após o término do processo que já estava em andamento, foi iniciado o processo de credenciamento, que foi fracassado. Dessa forma, houve a reabertura e o credenciamento atualmente está em andamento, na fase de análise de documentação das empresas cadastradas.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O presidente eleito &lt;a href="https://www.metropoles.com/tag/lula" target="_blank" rel="noopener"&gt;Luiz Inácio Lula da Silva&lt;/a&gt; (PT) possui reuniões internas nesta sexta-feira (2/12) na sede do gabinete de transição, no Centro Cultural Banco do Brasil (CCBB), em Brasília. É lá onde deverá assistir ao &lt;a href="https://www.metropoles.com/esportes/futebol/brasil-encara-camaroes-com-reservas-para-garantir-1-lugar-do-grupo-g" target="_blank" rel="noopener"&gt;jogo da Seleção Brasileira contra Camarões, às 16h&lt;/a&gt;.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="30309" data-gtm-vis-first-on-screen-8752935_845="30309" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Pelas redes sociais, o petista se arriscou a comentar a Copa do Mundo: “Cheia de surpresas”, escreveu.&lt;/p&gt;
+&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
+&lt;p lang="pt" dir="ltr"&gt;Sexta-feira de trabalho em Brasília e também de jogo contra Camarões. Torço que nossa seleção faça um bom jogo e se prepare bem para a próxima fase, porque essa Copa está cheia de surpresas. Bom dia para todos 🇧🇷&lt;/p&gt;
+&lt;p&gt;&amp;mdash; Lula (@LulaOficial) &lt;a href="https://twitter.com/LulaOficial/status/1598653790823059458?ref_src=twsrc%5Etfw"&gt;December 2, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="2266" data-gtm-vis-first-on-screen-8752935_845="2266" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Em Brasília desde segunda-feira (28/11), Lula concentrou suas agendas nos primeiros dias no hotel em que está hospedado, onde &lt;a href="https://www.metropoles.com/colunas/igor-gadelha/lula-se-reune-com-economistas-e-recebe-liderancas-do-uniao-brasil-e-psd" target="_blank" rel="noopener"&gt;se reuniu com economistas, parlamentares do PSD e do União Brasil&lt;/a&gt; e &lt;a href="https://www.metropoles.com/colunas/igor-gadelha/em-reuniao-lira-defende-a-lula-pec-da-transicao-com-validade-de-2-anos" target="_blank" rel="noopener"&gt;com os presidentes da Câmara e do Senado&lt;/a&gt;. A decisão visou ter um controle maior das pessoas que teriam acesso ao presidente da República eleito.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_862="34390" data-gtm-vis-first-on-screen-8752935_862="34390" data-gtm-vis-total-visible-time-8752935_862="100" data-gtm-vis-has-fired-8752935_862="1" data-gtm-vis-recent-on-screen-8752935_866="34392" data-gtm-vis-first-on-screen-8752935_866="34392" data-gtm-vis-total-visible-time-8752935_866="100" data-gtm-vis-has-fired-8752935_866="1"&gt;Na segunda, Lula teve uma reunião com o vice-presidente eleito, &lt;a href="https://www.metropoles.com/tag/geraldo-alckmin" target="_blank" rel="noopener"&gt;Geraldo Alckmin&lt;/a&gt;, no CCBB e recebeu &lt;a href="https://www.metropoles.com/brasil/lula-avisa-ao-mdb-que-quer-diplomacao-em-12-de-dezembro" target="_blank" rel="noopener"&gt;lideranças do MDB no local&lt;/a&gt;. Lula retorna a São Paulo no fim desta sexta.&lt;/p&gt;
+&lt;h4&gt;Lula fez cirurgia&lt;/h4&gt;
+&lt;p&gt;Em 20 de novembro, &lt;a href="https://www.metropoles.com/brasil/lula-procedimento-medico" target="_blank" rel="noopener"&gt;o petista fez uma cirurgia na laringe, para retirada da leucoplasia&lt;/a&gt;, lesão na garganta diagnosticada dias antes. Em função disso, o petista tem poupado a voz, feito exercícios de fonoaudiologia e evitado discursos públicos.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_862="29099" data-gtm-vis-first-on-screen-8752935_862="29099" data-gtm-vis-total-visible-time-8752935_862="100" data-gtm-vis-has-fired-8752935_862="1" data-gtm-vis-recent-on-screen-8752935_866="29101" data-gtm-vis-first-on-screen-8752935_866="29101" data-gtm-vis-total-visible-time-8752935_866="100" data-gtm-vis-has-fired-8752935_866="1"&gt;A vinda de Lula a Brasília visa destravar as negociações em torno da PEC da Transição, considerada vital pelo governo eleito para garantir o pagamento do Bolsa Família no valor de R$ 600.&lt;/p&gt;
+&lt;p&gt;Petistas correm contra o tempo para conseguir viabilizar a PEC e iniciar o ano de 2023 com o Bolsa Família de R$ 600 garantido. &lt;a href="https://www.metropoles.com/brasil/pec-da-transicao-reune-minimo-de-assinaturas-e-comeca-a-tramitar" target="_blank" rel="noopener"&gt;Após conseguir as 27 assinaturas necessárias&lt;/a&gt; para ser protocolada no Senado, o texto da PEC seguiu para a &lt;a href="https://legis.senado.leg.br/comissoes/comissao?codcol=34" target="_blank" rel="noopener"&gt;Comissão de Constituição e Justiça (CCJ)&lt;/a&gt; da Casa.&lt;/p&gt;
+&lt;p&gt;A presença do petista na capital federal também gerou expectativa em torno do anúncio de ministros. No entanto, o petista está decidido a nomear a equipe de governo somente &lt;a href="https://www.metropoles.com/colunas/igor-gadelha/moraes-atende-pedido-de-lula-e-marca-diplomacao-para-12-de-dezembro" target="_blank" rel="noopener"&gt;depois de ser diplomado pelo Tribunal Superior Eleitoral (TSE), o que está marcado para acontecer em 12 de dezembro&lt;/a&gt;. Até agora, nenhum nome foi confirmado pela equipe de transição.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/familias-do-rio-liberdade-alegam-falta-de-barqueiros-para-transporte-escolar/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/lula-vai-ver-jogo-entre-brasil-e-camaroes-no-gabinete-de-transicao/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/BARQUEIROS-CZS.webp?fit=720%2C1280&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/LULA.jpg?fit=600%2C400&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21:40:41</t>
+          <t>09:19:38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mototáxi é vítima de assalto por monitorado da justiça em Cruzeiro do Sul</t>
+          <t>Criança de escola da periferia de Sena ganha prêmio nacional de poesia: &amp;#8220;Orgulho&amp;#8221;</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O fato ocorreu na manhã desta quinta-feira (1), quando um homem pegou uma viagem para o bairro da Cohab. Ao chegar no local, o criminoso deu um mata leão no mototáxi e a vítima veio a desmaiar.&lt;/p&gt;
-&lt;p&gt;Ao acordar, Vanisio Almeida de 49 anos, viu que seu veículo teria sido levado juntamente com sua carteira com documentos pessoais, uma quantia de R$ 200 em espécie e seu celular. Em seguida, ele pediu ajuda em uma residência para acionar a polícia militar através do 190.&lt;/p&gt;
-&lt;p&gt;Segundo a polícia, o acusado, José Eliton Ferreira de Alencar, de 23 anos é monitorado da justiça. Ele foi identificado e constatado que após o roubo, rompeu a tornozeleira próximo a UFAC, em Cruzeiro do Sul.&lt;/p&gt;
-&lt;p&gt;O caso será levado para delegacia geral da cidade, para os procedimentos cabíveis.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A escola Raimundo Magalhães, do segundo distrito de Sena Madureira, está em festa. Luiara do Nascimento, 12 anos, foi premiada nacionalmente no MPT na Escola 2022, do Ministério Público do Trabalho, em uma cerimônia online, direto de Brasília, nesta quinta-feira (01).&lt;/p&gt;
+&lt;p&gt;Aluna do 5º ano do ensino fundamental, Luiara deu orgulho a toda comunidade escolar, ao ganhar o prêmio na categoria Poesia, com uma obra que pretende alertar as crianças sobre o combate ao trabalho infantil.&lt;/p&gt;
+&lt;p&gt;A coordenadora pedagógica da escola, Rosângela Alcântara, disse ao &lt;strong&gt;ContilNet&lt;/strong&gt; que a iniciativa do MPT pretende fomentar produções literárias, artísticas e culturais de estudantes de todas as idades. “Apresentamos o projeto aos alunos e eles receberam muito bem, se dedicaram e construímos juntos durante 1 mês, em parceria com os pais e professores.”, explica.&lt;/p&gt;
+&lt;figure id="attachment_795242" aria-describedby="caption-attachment-795242" style="width: 1280px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-795242 size-full" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=696%2C392&amp;#038;ssl=1" alt="" width="696" height="392" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?w=1280&amp;amp;ssl=1 1280w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=500%2C281&amp;amp;ssl=1 500w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=1200%2C675&amp;amp;ssl=1 1200w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=250%2C141&amp;amp;ssl=1 250w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=768%2C432&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=150%2C84&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=300%2C169&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=600%2C338&amp;amp;ssl=1 600w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=696%2C392&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=1068%2C601&amp;amp;ssl=1 1068w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?resize=747%2C420&amp;amp;ssl=1 747w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-795242" class="wp-caption-text"&gt;Luiara e equipe da escola Raimundo Magalhães recebendo prêmio em Live do MPT. Foto: Reprodução&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Com a poesia “Trabalho Infantil nem pensar”, Luiara venceu a etapa estadual e venceu a nacional concorrendo com alunas do Rio Grande do Sul e Roraima.&lt;/p&gt;
+&lt;p&gt;Ao falar da aluna, Rosângela se emociona. “Como profissional a gente se sente realizada, porque uma escola de periferia, do segundo distrito do interior, ganha um prêmio tão importante. É um impulso para que ela continue estudando e receber o incentivo dos pais”, disse.&lt;/p&gt;
+&lt;figure id="attachment_795243" aria-describedby="caption-attachment-795243" style="width: 1536px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-795243 size-full" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=696%2C392&amp;#038;ssl=1" alt="" width="696" height="392" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?w=1536&amp;amp;ssl=1 1536w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=500%2C281&amp;amp;ssl=1 500w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=1200%2C675&amp;amp;ssl=1 1200w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=250%2C141&amp;amp;ssl=1 250w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=768%2C432&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=150%2C84&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=300%2C169&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=600%2C338&amp;amp;ssl=1 600w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=696%2C392&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=1068%2C601&amp;amp;ssl=1 1068w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=747%2C420&amp;amp;ssl=1 747w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?resize=1493%2C840&amp;amp;ssl=1 1493w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/4e5bb442-5795-4125-8a94-57d21b4021dd-1536x864-1.jpeg?w=1392&amp;amp;ssl=1 1392w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-795243" class="wp-caption-text"&gt;A aluna ao lado da comunidade escolar, entre elas, o professor. Foto: Arquivo escola Raimundo Magalhães&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Como diz a poesia de Luiara, “criança não pode trabalhar, o tempo delas é estudar, brincar e se divertir”, e também, nos dar orgulho ao ser campeã em um dos prêmios escolares mais importantes do país.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/mototaxi-e-vitima-de-assalto-por-monitorado-da-justica-em-cruzeiro-do-sul/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/crianca-de-escola-da-periferia-de-sena-ganha-premio-nacional-de-poesia-orgulho/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/MOTO.webp?fit=1024%2C569&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.55.03.jpeg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21:31:30</t>
+          <t>09:12:41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Filho mata o pai a facadas após chamá-lo para tomar café: &amp;#8216;perigoso&amp;#8217;, diz mãe</t>
+          <t>Centro Cultural do Juruá é entregue revitalizado pelo governo do Estado</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;div id="chunk-a20ru"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="67" data-block-id="3"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Um homem de 48 anos foi morto pelo filho, de 19, com sete facadas nas regiões do pescoço e cabeça, na manhã desta quinta-feira (1), em São Vicente, no litoral de São Paulo. Conforme apurado pelo&lt;strong&gt; g1&lt;/strong&gt;, o autor do crime confessou ter esfaqueado a vítima ao ser preso pela Polícia Militar. Francisco Gabriel de Carvalho tinha antecedentes criminais por roubo e estupro de vulnerável.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="wall protected-content"&gt;
-&lt;div id="chunk-ev2af"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="54" data-block-id="4"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A PM informou à reportagem ter sido acionada por volta das 7h para atender a uma ocorrência de agressão à faca na Avenida Prestes Maia, no bairro Cidade Náutica. Assim que chegaram ao imóvel indicado, duas ambulâncias estavam no local e o médico de plantão já havia constatado a morte de Roberto de Carvalho.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-9cmaj"&gt;
-&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="5"&gt;
-&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload tag-manager-publicidade-banner_materia2 tag-manager-publicidade-container--carregado tag-manager-publicidade-container--visivel" data-id="banner_materia2" data-req="true" data-google-query-id="CLbAusTn2fsCFa6elQId_FkLwg" data-cid="null" data-lid="null"&gt;
-&lt;div id="chunk-6guan"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="44" data-block-id="6"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A esposa da vítima e mãe do autor das facadas, que não terá o nome revelado, disse à Polícia Civil, em depoimento, que o filho é &amp;#8220;perigoso&amp;#8221;. A mulher contou ter medo que o filho possa matá-la, bem como os irmãos menores.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-br1b"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="41" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ainda de acordo com a PM, assim que os agentes chegaram à casa da família, onde aconteceu o crime, encontraram Roberto caído no chão da cozinha, de bermuda e sem camisa, o que permitiu visualizar as perfurações no pescoço e cabeça.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-af8a6"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="18" data-block-id="8"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A faca usada para matar a vítima estava em cima da pia e foi apreendida pelos policiais militares.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="9"&gt;
-&lt;div class="content-intertitle"&gt;
-&lt;h2&gt;Estava no banho&lt;/h2&gt;
-&lt;/div&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;/div&gt;
-&lt;div id="chunk-fhngh"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="38" data-block-id="10"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A esposa da vítima contou à polícia que estava no banho quando ouviu o filho chamar o pai para tomar café da manhã. Segundo ela, Roberto foi até a cozinha e Francisco pediu dinheiro para comprar pão.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-8t97m"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="11"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Depois disso, a mulher relatou ter escutado apenas barulhos e gritos. Quando saiu do banheiro, contou aos policiais ter visto o filho correndo ensanguentado. A testemunha revelou, ainda, que o filho a teria mostrado a faca e dito: &amp;#8220;olha aí, ó&amp;#8221;.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="6" data-block-id="12"&gt;
-&lt;div class="content-intertitle"&gt;
-&lt;h2&gt;Pulou o muro e foi preso&lt;/h2&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-32b7g"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="42" data-block-id="13"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A mulher contou aos policiais que tentou segurar o filho, mas que ele se soltou e pulou o muro de casa para fugir. Naquele mesmo instante a Polícia Militar foi acionada, e após conversar com testemunhas, começou a busca pelo criminoso.&lt;/p&gt;
-&lt;div id="chunk-d70s1"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="15"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Francisco foi encontrado molhado e só de bermuda sentado na calçada em frente à casa de uma sobrinha, no bairro Boa Vista. Ao ser abordado pelos policiais e questionado sobre o ocorrido, ele confessou ter matado o pai após uma discussão.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-1t2q0"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="16"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O autor do crime foi preso em flagrante e encaminhado ao 2º DP de São Vicente, onde foi registrado um Boletim de Ocorrência e ele foi indiciado por homicídio.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-8usa7"&gt;
-&lt;div class="block-podcast"&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-84rpq"&gt;
-&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="14"&gt;
-&lt;div id="banner_materia__224e9984-3252-4ff8-8f77-f575362ec28c" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload tag-manager-publicidade-banner_materia__224e9984-3252-4ff8-8f77-f575362ec28c tag-manager-publicidade-container--carregado tag-manager-publicidade-container--visivel" data-id="banner_materia__224e9984-3252-4ff8-8f77-f575362ec28c" data-req="true" data-google-query-id="CJPXpczn2fsCFUezlQIdzqUG1g" data-cid="null" data-lid="null"&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Em mais uma demonstração de compromisso com a cultura acreana, o governo do Estado, por meio da Secretaria de Infraestrutura (Seinfra), entregou na tarde desta quinta-feira, 1º, a revitalização do antigo prédio do Centro Cultural do Juruá, em Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062.jpg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;A estrutura, que pertence ao Tribunal de Justiça do Acre (TJAC), recebeu pintura geral, troca de madeiras danificadas e da rede elétrica, revitalização da cobertura, forro, escadaria e mobiliário, além de estacionamento pavimentado, paisagismo, rampa de acesso, banheiro acessível, iluminação em LED, decoração natalina e revitalização da praça localizada em frente ao prédio, totalizando um investimento na ordem de R$ 330 mil.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg?resize=696%2C522" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Presente à solenidade de reinauguração do Centro, o titular da Seinfra, Cirleudo Alencar, definiu o momento como um marco para cultura da região e destacou a política estadual de restauração de espaços públicos, que tem contribuído para a valorização de servidores e da história do Acre.&lt;/p&gt;
+&lt;p&gt;“O governador Gladson Cameli tem se empenhado no fortalecimento das instituições. O trabalho feito neste lugar é um resgate da história e uma forma de preservar a cultura local”, ratificou Alencar.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg?resize=696%2C521" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;A arquitetura original do Centro foi mantida. Com ambiente mais atrativo, a expectativa é de ampliar o número de visitantes, anualmente.&lt;/p&gt;
+&lt;p&gt;Em suas palavras, a presidente do TJAC, desembargadora Waldirene Cordeiro, externou gratidão à bem-sucedida parceria. “Meus sinceros agradecimentos ao Poder Executivo e a todos que se uniram para realizar este sonho. Este lugar guarda parte da história acreana e do Poder Judiciário”, pontuou.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Também se fizeram presentes ao evento o prefeito Zequinha Lima e autoridades da região.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A história do prédio mais antigo do Acre&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O Centro Cultural do Juruá está localizado no prédio mais antigo da história do Acre. Começou a ser erguido em 1904 e sua construção foi concluída somente em 1911. O local foi a primeira sede da Prefeitura de Cruzeiro do Sul e posteriormente abrigou o Poder Judiciário.&lt;/p&gt;
+&lt;p&gt;Com 116 anos, a edificação volta a oferecer ao público museu, biblioteca e auditório.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/filho-mata-o-pai-a-facadas-apos-chama-lo-para-tomar-cafe-perigoso-diz-mae/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado-pelo-governo-do-estado/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/pai-e-filho.webp?fit=984%2C656&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg?fit=1027%2C769&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21:30:55</t>
+          <t>09:07:39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rua Amoty Pascoal fatura kit churrasco na 2º fase do concurso minha Rua é Louca pelo Brasil</t>
+          <t>Thales Bretas posta foto de novo namorado pela primeira vez; veja</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Com uma participação grande da comunidade, os moradores da rua Amoty Pascoal, no bairro Wanderley Dantas, levaram nesta quinta-feira, 01, o prêmio de 60 KG de carne para churrasco e dentre outros vários prêmios, na 2º fase do Concurso Minha Rua é Louca pelo Brasil. O concurso é realizado pela Acisa, Federacre, Governo do Estado e Prefeitura de Rio Branco.&lt;/p&gt;
-&lt;p&gt;Ficaram em 2º e 3º lugar, respectivamente, a rua Railson Nascimento, na Cidade do Povo e a avenida Eugênio Bezerra, no Condomínio Green Garden.&lt;/p&gt;
-&lt;p&gt;Cotada como uma das ruas mais bonitas no Acre, a rua Amoty Pascoal conquistou os jurados com a decoração ao tema copa, sendo avaliado pelas categorias criatividade e originalidade, alegria e interação dos moradores, a utilização da marca dos promotores do concurso na decoração e respeito à natureza, ao bem público e limpeza.&lt;/p&gt;
-&lt;p&gt;A comissão de jurados é composta pelos representantes do realizadores: Governo do Estado do Acre, Prefeitura de Rio Branco, Acisa e Federacre e dos apoiadores: Caldeirão Cores e Tintas, Simão Festas e Grupo Star.&lt;/p&gt;
-&lt;p&gt;Confira a colocação da primeira fase:&lt;/p&gt;
-&lt;p&gt;1º Lugar: Rua Amoty Pascoal, no Wanderley Dantas: 339,70 pontos&lt;br /&gt;
-2º Lugar: Rua Railson Nascimento, Cidade do Povo: 323,40&lt;br /&gt;
-3° Lugar: Avenida Eugênio Bezerra, Condomínio Green Garden: 288,30 pontos.&lt;/p&gt;
-&lt;p&gt;Os prêmios serão entregues na manhã desta sexta, 02, para que os campeões aproveitem o jogo do Brasil contra Camarões.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Vencedores:&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;1º Lugar:&lt;/p&gt;
-&lt;p&gt;Prêmio:&lt;br /&gt;
-60 Kg de carnes e embutidos.&lt;br /&gt;
-10 Caixas de Cerveja em Lata&lt;br /&gt;
-18 Refrigerantes 2 L&lt;br /&gt;
-8 pacotes de garrafas de água de 500Ml&lt;br /&gt;
-1 troféu grande&lt;br /&gt;
-1 kit esportivo: 1 bola de futebol, 1 de futsal, 1 bola de voleibol, 1 de handebol e 1 de basquete.&lt;/p&gt;
-&lt;p&gt;2º Lugar:&lt;/p&gt;
-&lt;p&gt;Prêmio:&lt;br /&gt;
-40 kg de carnes e embutidos&lt;br /&gt;
-06 caixas de cerveja em lata&lt;br /&gt;
-12 refrigerantes de 2lt&lt;br /&gt;
-04 pacotes de garrafas de água 500ml&lt;br /&gt;
-1 troféu médio&lt;br /&gt;
-1 kit esportivo: 01 bola de futebol, 1 de futsal, 1 de voleibol, 1 de handebol, 1 de basquete.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Thales Bretas &lt;strong&gt;&lt;a href="https://www.instagram.com/thalesbretas/" target="_blank" rel="noreferrer noopener"&gt;surpreendeu os internautas ao publicar uma foto&lt;/a&gt;&lt;/strong&gt; do novo namorado Silva, pela primeira vez em sua rede social. O relacionamento dos dois foi assumido publicamente em setembro, durante o Rock in Rio, mas &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/colunas/fabia-oliveira/thales-bretas-prestigia-show-de-silva-e-reforca-indicios-de-romance/" target="_blank" rel="noreferrer noopener"&gt;os rumores já circulavam desde abril&lt;/a&gt;&lt;/strong&gt;. Desde sempre, no entanto, o casal vinha mantendo o romance de maneira discreta, sem aparecem muito juntos, principalmente nas redes sociais.&lt;/p&gt;
+&lt;p&gt;O viúvo de Paulo Gustavo &lt;strong&gt;&lt;a href="https://www.instagram.com/silva/" target="_blank" rel="noreferrer noopener"&gt;postou uma foto do amado no story do Instagram&lt;/a&gt;&lt;/strong&gt;, que tirou durante um show do cantor. Para acompanhar a imagem, onde Silva aparece cantando e olhando para Thales, o médico colocou de fundo a canção ‘Eu sei’, de Marisa Monte, interpretada na voz do namorado. “Um dia vou estar atoa e você vai estar na mira. Eu sei que você sabe que eu sei que você sabe que é difícil de dizer…”, dizia o trecho da música.&lt;/p&gt;
+&lt;p&gt;Nesta quinta-feira (1), Thales Bretas ainda aproveitou para divulgar alguns trabalhos de Silva através dos stories, como o show do ‘Bloco do Silva’, ao vivo, nas plataformas do Youtube e também no Spotify. Esse é o primeiro relacionamento público de Thales desde a morte de Paulo Gustavo. Já Silva estava solteiro após o fim do relacionamento com o estilista Renan Mantovanelli.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Thales Bretas confirma romance com cantor Silva&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Em setembro, o &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/colunas/fabia-oliveira/gosto-muito-dele-estou-feliz-diz-silva-sobre-thales-bretas/" target="_blank" rel="noreferrer noopener"&gt;dermatologista Thales Bretas esteve na penúltima noite de um festival de rock na Barra da Tijuca, na Zona Oeste do Rio, e confirmou o romance com Silva&lt;/a&gt;&lt;/strong&gt;. “Acho ele super legal. A gente está se conhecendo. Mas as pessoas ficam apressando as coisas, querendo saber. Deixa rolar”, declarou ao jornal ‘Extra’.&lt;/p&gt;
+&lt;p&gt;Após a confirmação do affair, o cantor Silva também se pronunciou sobre o romance a revista ‘Quem’. “A gente está se conhecendo. É a primeira vez que me relaciono com alguém de outro lugar, mas ele é uma pessoa maravilhosa”, disse o cantor.&lt;/p&gt;
+&lt;p&gt;Sobre o rótulo de serem namorados e se os dois se amam, Silva afirmou: “Tem essa pressão de ‘é namoro ou não?’ A gente se conhece há pouco tempo. Amar é muito forte pra dizer agora, mas eu gosto muito dele. Estou feliz”, declarou ele na época.&lt;/p&gt;
+&lt;p&gt;Os rumores do namoro entre os dois surgiram muito antes da confirmação. No dia 14 de maio, o cantor levou o ‘Bloco do Silva’ para o Rio de Janeiro, que voltou a acontecer após dois anos. O show rolou no NAU Cidades, no Santo Cristo, na Zona Portuária da cidade. Na ocasião, esta colunista, que tem amigos espalhados por aí, noticiou que Thales Bretas esteve no local para prestigiar o rapaz, reforçando os indícios de um romance.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" class="aligncenter" src="https://i0.wp.com/emoff.ig.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-18.56.24.jpeg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" class="aligncenter" src="https://i0.wp.com/emoff.ig.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-18.57.09.jpeg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" class="aligncenter" src="https://i0.wp.com/emoff.ig.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-18.57.23.jpeg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/rua-amoty-pascoal-fatura-kit-churrasco-na-2o-fase-do-concurso-minha-rua-e-louca-pelo-brasil/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/thales-bretas-posta-foto-de-novo-namorado-pela-primeira-vez-veja/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.28.23.jpeg?fit=1024%2C576&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/Thales-Bretas-e-Silva.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21:17:09</t>
+          <t>09:06:29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Passageiro morre em cruzeiro atingido por onda gigante no sul da Argentina</t>
+          <t>Gkay força choro para tentar convencer fãs a assistirem filme; VÍDEO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;div id="chunk-ea7gi"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="55" data-block-id="3"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Uma pessoa morreu e outras quatro ficaram feridas quando uma onda gigante rompeu vários painéis de vidro de um navio de cruzeiro que navegava, em meio a um temporal, ao sul do Cabo Horn, o ponto mais meridional da América do Sul, informaram nesta quinta-feira (1º) fontes de uma empresa norueguesa e da Justiça argentina.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="wall protected-content"&gt;
-&lt;div id="chunk-cippf"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="41" data-block-id="5"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O acidente ocorreu na terça-feira, 29 de novembro, às 22h40 locais (mesmo horário em Brasília), quando o navio Viking Polaris, de bandeira norueguesa, foi atingido por uma onda de grandes proporções, provocando o rompimento de vários painéis de vidro nas cabines.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-cf9t2"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&amp;#8220;Com grande tristeza confirmamos que um passageiro morreu depois do incidente. Notificamos a família do hóspede e compartilhamos nossas mais profundas condolências&amp;#8221;, disse a fonte, sem detalhar o gênero da vítima.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-4tkrt"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="8"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O navio navegava rumo a Ushuaia, 3.200 km ao sul de Buenos Aires. Outros quatro turistas sofreram ferimentos, mas suas vidas não correm perigo. Eles foram atendidos pela equipe médica a bordo, segundo a companhia.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-22p3q"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="24" data-block-id="9"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O Viking Polaris sofreu danos menores no acidente e, na tarde de quarta-feira, retornou ao porto de Ushuaia, onde está ancorado, constatou a AFP.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-6mbic"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="53" data-block-id="10"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A France-Presse também consultou a Prefeitura Naval Argentina (órgão equivalente à Capitania dos Portos nos Brasil), que não ofereceu informações sobre o caso. A investigação está sob responsabilidade da 2ª vara penal do tribunal federal de Ushuaia, a capital da província da Terra do Fogo, disse uma fonte judicial, sem oferecer mais detalhes.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-2ugat"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="23" data-block-id="11"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A empresa indicou que está investigando os fatos e que trabalha com os passageiros e a tripulação para organizar suas viagens de volta.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;A influenciadora digital &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gkay&lt;/a&gt;&lt;/strong&gt; voltou a causar polêmica nas redes sociais. Depois de ter protagonizado um show de estrelismo nos bastidores de um filme da &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Netflix&lt;/a&gt;&lt;/strong&gt;, com o caso vindo à tona e gerando comoção nas redes sociais e o público se solidarizando com o ator &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Sérgio Malheiros&lt;/a&gt;&lt;/strong&gt;, massacrando a influencer, a empresária que ficou em silêncio em relação ao caso apareceu no Instagram chorando por causa do lançamento da obra audiovisual.&lt;/p&gt;
+&lt;p&gt;Com o filme no ar, diversos internautas sugeriram boicotar a produção da plataforma de streaming, ou seja, cogitaram não assistir a trama só por causa da blogueira, que deixou todos revoltados com os maus-tratos com os funcionários nos bastidores das gravações. Com a ameaça do fracasso cada vez mais próxima, &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gkay&lt;/a&gt;&lt;/strong&gt; resolveu postar uma série de stories, aparecendo na web forçando o choro, tentando comover os seguidores.&lt;/p&gt;
+&lt;div class="code-block code-block-3 amp-wp-b6a507d" data-amp-original-style="margin: 8px auto; text-align: center; display: block; clear: both;"&gt;
+&lt;div class="Ads Ads--post"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;Sobre o filme, &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gessica Kayane&lt;/a&gt;&lt;/strong&gt; disparou: &lt;em&gt;“Está muito lindo tudo… Aí meu Deus, ai gente daqui pro meu aniversário eu só vou chorar, vão abrir meus stories aqui e eu só vou estar chorando… Ah, vamos lá, obrigado Netflix, obrigado todo mundo. Meu Deus do céu… Aí gente chegando perto do meu aniversário eu fico assim, meio louca, eu quero que todo mundo assista…”&lt;/em&gt;, pediu a atriz, querendo que seus mais de 20 milhões de seguidores assistissem as cenas.&lt;/p&gt;
+&lt;p&gt;E não demorou muito para os vídeos de &lt;strong&gt;&lt;a href="https://www.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gkay&lt;/a&gt;&lt;/strong&gt; chorando pararem nas redes, com a &lt;strong&gt;&lt;a href="https://www.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;youtuber&lt;/a&gt;&lt;/strong&gt; sendo detonada mais uma vez. &lt;em&gt;“Nem parece que tava dando show de estrelismo e atrasando a vida de quem tava trabalhando com ela”&lt;/em&gt;, disse Aila Limoeiro.&lt;em&gt; “Deveria ser sensível também com as pessoas que trabalham com você”&lt;/em&gt;, comentou Ana Clara.&lt;/p&gt;
+&lt;div class="code-block code-block-4 amp-wp-677b4ab" data-amp-original-style="margin: 16px auto; text-align: center; display: block; clear: both;"&gt;&lt;/div&gt;
+&lt;p&gt;&lt;em&gt;“Eu não gostei do filme, personagem caricato ao extremo só que forçado demais, não consegui achar graça. O Sérgio um excelente ator, mas não gostei do enredo do filme nem da personagem da Gessica”&lt;/em&gt;, disse outra seguidora, indignada com a atuação de &lt;strong&gt;&lt;a href="https://www.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gkay&lt;/a&gt;&lt;/strong&gt;, que foi comparada até com &lt;strong&gt;&lt;a href="https://www.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Jade Picon&lt;/a&gt;&lt;/strong&gt; e seu trabalho no projeto da Netflix.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;“O povo que falam mal da Jade atuando, tão comentando tbm sobre a atuação da Gkay nesse filme? Como não tenho dinheiro para um advogado prefiro não dá a minha opinião”&lt;/em&gt;, disparou Jéssica Nayane. &lt;em&gt;“Uma pessoa que fica passando por cima dos outros, e tratando funcionários/assessores mal não merece meu respeito! Eu hein…”&lt;/em&gt;, pontuou Maiara Carvalho.&lt;/p&gt;
+&lt;blockquote class="instagram-media" style="background: #FFF; border: 0; border-radius: 3px; box-shadow: 0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width: 540px; min-width: 326px; padding: 0; width: calc(100% - 2px);" data-instgrm-captioned="" data-instgrm-permalink="https://www.instagram.com/p/ClofnXpJnLW/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14"&gt;
+&lt;div style="padding: 16px;"&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div style="display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: block; height: 50px; margin: 0 auto 12px; width: 50px;"&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style="color: #3897f0; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: 550; line-height: 18px;"&gt;Ver essa foto no Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style="width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; line-height: 17px; margin-bottom: 0; margin-top: 8px; overflow: hidden; padding: 8px 0 7px; text-align: center; text-overflow: ellipsis; white-space: nowrap;"&gt;&lt;a style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: normal; line-height: 17px; text-decoration: none;" href="https://www.instagram.com/p/ClofnXpJnLW/?utm_source=ig_embed&amp;amp;utm_campaign=loading" target="_blank" rel="noopener"&gt;Uma publicação compartilhada por Segue a Cami (@segueacami)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/passageiro-morre-em-cruzeiro-atingido-por-onda-gigante-no-sul-da-argentina/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/gkay-forca-choro-para-tentar-convencer-fas-a-assistirem-filme/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/000-32x76b2.webp?fit=984%2C655&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/Com-promessas-de-boicote-Gkay-forca-choro-para-tentar-convencer-fas-a-assistirem-filme.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21:16:51</t>
+          <t>09:05:27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nivea Stelmann mostra piscina e churrasqueira de sua mansão nos EUA; vídeos</t>
+          <t>Fundhacre adquire novas camas para enfermarias do hospital</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;A atriz &lt;a href="https://revistaquem.globo.com/famoso/nivea-stelmann/"&gt;Nivea Stelmann&lt;/a&gt;, de 48 anos, que vive nos EUA com a família desde 2016, fez um pequeno tour pela mansão onde mora no país. Enquanto curtia um momento de sol, ela mostrou a piscina e a churrasqueira na residência de luxo.&lt;/p&gt;
-&lt;p&gt;Em vídeos divulgados em seus Stories do Instagram, ela mostrou aos seguidores como ficou a área externa de sua casa após uma reforma.&lt;/p&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="5"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Nos registros, ela aparece sentada em uma das espreguiçadeiras da casa, onde ela mora com o marido, &lt;a href="https://revistaquem.globo.com/QUEM-News/noticia/2022/06/nivea-stelmann-troca-beijos-com-marido-em-shopping-do-rio.html"&gt;Marcus Rocha&lt;/a&gt;, e os filhos, &lt;a href="https://revistaquem.globo.com/QUEM-News/noticia/2022/09/nivea-stelmann-comemora-18-anos-do-filho-em-festa-com-nora.html"&gt;Miguel Stelmann Frias&lt;/a&gt;, de 18 anos (seu filho com o ex-ator &lt;strong&gt;Mario Frias&lt;/strong&gt;) e &lt;strong&gt;Bruna Rocha&lt;/strong&gt;, de 8 anos, sua filha com Marcus.&lt;/p&gt;
-&lt;/div&gt;
-&lt;div class="content-ads content-ads--reveal" data-block-type="ads" data-block-id="6"&gt;
-&lt;div id="banner_materia2" class="tag-manager-publicidade-container mc-has-reveal mc-has-ad-lazyload" data-id="banner_materia2"&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="22" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Nos vídeos, é possível ainda ver parte da área de recreação do imóvel, com direito até a um pula-pula (assista clicando &lt;a href="https://revistaquem.globo.com/casa-dos-famosos/noticia/2022/12/nivea-stelmann-mostra-piscina-e-churrasqueira-de-sua-mansao-nos-eua-videos.ghtml"&gt;&lt;strong&gt;AQUI&lt;/strong&gt;&lt;/a&gt;).&lt;/p&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Assistência, conforto e bem-estar ao paciente têm sido compromissos do governo do Acre em sua gestão, que vem trabalhando em prol de promover ao usuário do Sistema Único de Saúde (SUS) melhorias na saúde pública que possam atender a população do estado.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg?resize=696%2C464" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Assim, a Fundação Hospital Estadual do Acre (Fundhacre) adquiriu 120 novas camas hospitalares, que irão substituir as antigas das enfermarias da unidade hospitalar.&lt;/p&gt;
+&lt;p&gt;“A Fundhacre passa por muitas melhorias. Além das camas, estamos recebendo equipamentos para fisioterapia, para o Programa de Obesidade, além de uma nova mesa cirúrgica para o melhoramento das cirurgias”, enfatiza o presidente da Fundhacre, João Paulo Silva.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg?resize=696%2C464" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;As novas camas hospitalares chegaram no complexo na última quarta-feira, 30, com início da montagem e troca nas enfermarias nesta quinta, 1º. A aquisição ocorreu por meio de convênio com o Ministério da Saúde, no montante de R$ 600 mil.&lt;/p&gt;
+&lt;p&gt;“Trata-se de uma aquisição que estará contribuindo também para o trabalhador de saúde, para que a equipe faça menos esforços, por ser uma cama equipada, uma melhoria que diz muito sobre as condições de trabalho. Estamos muito contentes com os leitos novos”, afirma o chefe de enfermagem Durival Brito.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-scaled.jpg?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/nivea-stelmann-mostra-piscina-e-churrasqueira-de-sua-mansao-nos-eua-videos/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/fundhacre-adquire-novas-camas-para-enfermarias-do-hospital/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/nivea-stelmann-mansao.webp?fit=924%2C640&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/MG_8223-1536x1024-1.jpg?fit=1536%2C1024&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20:49:33</t>
+          <t>09:04:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PC prende mulher acusada de mandar matar o marido em Seringal de Xapuri</t>
+          <t>Carne com ouro: veja quanto craques da Seleção gastaram num almoço</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Mulher acusada de mandar matar o marido no Seringal Cachoeira estava casada a 12 anos&lt;/p&gt;
-&lt;p&gt;Hoje, quinta-feira 1º de dezembro de 2022, a Delegacia de Polícia Civil de Xapuri, em que é Titular o Delegado Gustavo Neves, por meio da equipe de investigação chefiada pelo Inspetor Investigador Eurico Feitosa, prendeu R.B.M., de  52 anos, ex-companheira de F.C.B, de 57 anos de idade, um colono que foi encontrado morto na zona rural de Xapuri com um tiro nas costas e marcas de espancamento e esganadura.&lt;/p&gt;
-&lt;p&gt;R.B.M. é acusada de ter tramado a morte do ex-companheiro em conluio com B.Q.S., de 36 anos que trabalhava como diarista para a vítima.&lt;/p&gt;
-&lt;div id="attachment_285069" class="wp-caption aligncenter"&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="wp-image-285069 size-full" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?resize=740%2C555&amp;amp;ssl=1" sizes="(max-width: 740px) 100vw, 740px" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?w=1599&amp;amp;ssl=1 1599w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?resize=300%2C225&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?resize=660%2C495&amp;amp;ssl=1 660w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?resize=768%2C576&amp;amp;ssl=1 768w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?resize=1536%2C1153&amp;amp;ssl=1 1536w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/COLONO-MORTO-XAPURI_018@Alexandre_Lima_oaltoacre.com_.jpg?w=1480&amp;amp;ssl=1 1480w" alt="" width="740" height="555" aria-describedby="caption-attachment-285069" /&gt;&lt;/p&gt;
-&lt;p id="caption-attachment-285069" class="wp-caption-text"&gt;Vítima foi localizada por terceiros e parentes que acionaram autoridades de Epitaciolândia, que depois descobriram que a localidade era dentro dos limites de Xapuri.&lt;/p&gt;
-&lt;/div&gt;
-&lt;p&gt;As prisões foram solicitadas pelo Delegado de Xapuri no Inquérito que investiga a prática do crime de homicídio qualificado mediante paga ou promessa de recompensa.&lt;/p&gt;
-&lt;p&gt;O crime ocorreu no dia 25 de novembro de 2022, mas o corpo só foi encontrado no dia 27 de novembro. Segundo as investigações, R.B.M. planejou a morte e mandou B.Q.S. matar a vítima F.C.B, que teria vultuosa quantidade de dinheiro em casa e após sua morte o valor seria dividido igualmente entre a mandante e o executor.&lt;/p&gt;
-&lt;p&gt;No dia 28, segunda-feira, B.Q.S. foi preso por uma guarnição da Polícia Militar em Epitaciolândia quando chegava do local onde cometeu o crime.&lt;/p&gt;
-&lt;p&gt;O suspeito foi conduzido para a Delegacia de Polícia Civil daquele município e em seguida conduzido para a Delegacia de Polícia Civil de Xapuri, Unidade Policial que responsável pela investigação do caso, onde foi ouvido.&lt;/p&gt;
-&lt;p&gt;Após a prisão, a dupla foi transferida para o Complexo Penitenciário Francisco Oliveira em Rio Branco.&lt;/p&gt;
-&lt;div id="attachment_285441" class="wp-caption aligncenter"&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="size-full wp-image-285441" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/12/VITIMA.jpg?resize=700%2C636&amp;amp;ssl=1" sizes="(max-width: 700px) 100vw, 700px" srcset="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/12/VITIMA.jpg?w=700&amp;amp;ssl=1 700w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/12/VITIMA.jpg?resize=300%2C273&amp;amp;ssl=1 300w, https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/12/VITIMA.jpg?resize=660%2C600&amp;amp;ssl=1 660w" alt="" width="700" height="636" aria-describedby="caption-attachment-285441" /&gt;&lt;/p&gt;
-&lt;p id="caption-attachment-285441" class="wp-caption-text"&gt;Francisco Campos Barbosa, conhecido popularmente por ‘Chico Abreu, de 57 anos, foi morto com um tiro nas costas com sua própria arma.&lt;/p&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Point dos milionários e jogadores no Catar, o restaurante Doha, do popular chef-celebridade Nusret Gökçe, recebeu nesta terça-feira (29/11) Gabriel de Jesus, Ronaldo Fenômeno, Vini Jr., Eder Militão e outros craques da Seleção para provar uma especialidade da casa: a carne folheada com ouro de 24 quilates. Quer mais? A peça pode ser consumida por um valor que bem acima de dois salários mínimos no Brasil. E detalhe: sem acompanhamento.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_845="716255" data-gtm-vis-first-on-screen-8752935_845="716255" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Na cotação desta quinta, um único pedaço do Golden Ottoman Steak, como foi batizada a especiaria, custa em média 2.100 catarianos ou R$ 3.051 mil. Já o Golden Steak, outro prato regado a ouro 24 quilates, não sai por menos de 1.050 catarianos, uma média de R$ 1,5 mil, que cabe ressaltar, também é servido sem acompanhamento.&lt;/p&gt;
+&lt;figure style="width: 506px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/12/01172612/thythtg.jpg?resize=506%2C513&amp;#038;ssl=1" alt="Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)" width="506" height="513" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;figure style="width: 541px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/12/01172543/bbbb-2.jpg?resize=541%2C431&amp;#038;ssl=1" alt="Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)" width="541" height="431" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;figure style="width: 596px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/12/01172539/uju-1.jpg?resize=596%2C589&amp;#038;ssl=1" alt="Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)" width="596" height="589" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Chef Salt Bae oferece bife coberto de ouro para astros da Seleção (Reprodução: Instagram)&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;figure style="width: 540px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/uploads.metropoles.com/wp-content/uploads/2022/12/01172615/aaaaaa-4.jpg?resize=540%2C542&amp;#038;ssl=1" alt="Ronaldo e Gabriel de Jesus no restaurante no Catar. Créditos: Instagram" width="540" height="542" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Ronaldo e Gabriel de Jesus no restaurante no Catar. Créditos: Instagram&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Os jogadores aproveitaram o momento para registrar fotos e vídeos com Nusret Gökçe, que possui notoriedade internacional. O chef faz muito sucesso também na internet com seu jeito bastante diferente e engraçado de salgar carnes. Tanto que ganhou o apelido de Salt Bae — o “mozão do sal”. Para se ter ideia, ele movimenta mais de &lt;span class="_ac2a" title="49,413,702"&gt;49.4 milhões de&lt;/span&gt; seguidores na rede social.&lt;/p&gt;
+&lt;p&gt;Além dos craques do futebol mundial, Nusret Gökçe também é paparicado por astros do cinema e da música como Maluma, Mark Wahlberg, Drake, Tyson Fury e outros.&lt;/p&gt;
+&lt;p data-gtm-vis-recent-on-screen-8752935_862="801146" data-gtm-vis-first-on-screen-8752935_862="801147" data-gtm-vis-total-visible-time-8752935_862="100" data-gtm-vis-has-fired-8752935_862="1" data-gtm-vis-recent-on-screen-8752935_866="801149" data-gtm-vis-first-on-screen-8752935_866="801149" data-gtm-vis-total-visible-time-8752935_866="100" data-gtm-vis-has-fired-8752935_866="1"&gt;O restaurante de Doha é uma rede espalhada pelas principais capitais mundiais. São mais de 20. A do Catar fica localizado no hotel Sheraton Grand Doha Resort.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/policia-civil-prende-mulher-acusada-de-mandar-matar-o-marido-em-seringal-de-xapuri/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/carne-com-ouro-veja-quanto-craques-da-selecao-gastaram-num-almoco/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/XAPURI-MULHER.webp?fit=768%2C647&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/TYRET.jpg?fit=960%2C640&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20:39:39</t>
+          <t>09:02:18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Idoso de 92 anos com corpo ‘tomado por formigas’ é resgatado em situação de abandono</t>
+          <t>Após Flordelis, Gabriel Monteiro vira estrela da Globo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;div id="chunk-be6l5"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="3"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Um idoso, de 92 anos, em situação de abandono, foi resgatado pela Polícia Civil com o corpo &amp;#8220;tomado por formigas&amp;#8221;. O caso aconteceu no bairro Aquilino Mota Duarte e foi divulgado pela polícia nesta sexta-feira (1º).&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="wall protected-content"&gt;
-&lt;div id="chunk-tm1n"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="45" data-block-id="4"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;As investigações iniciaram após trabalhadores da Roraima Energia, empresa distribuidora de energia elétrica, denunciar o caso à Civil. A empresa enviou os funcionários para suspender o serviço na casa do idoso devido à falta de pagamentos, mas no local o encontraram em condições de abandono.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-ao60k"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="43" data-block-id="5"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em seguida, acionaram a Polícia Civil, que resgatou o idoso na sexta-feira (25). Ele estava sob cuidados de uma sobrinha de 37 anos, que informou que não trabalha e mantém os custos da família e do idoso, com o benefício que ele recebe.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-bfuvo"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="38" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Ela disse ainda que o idoso é pai de 17 filhos, mas nenhum se prontificou a cuidar dele, conforme o delegado Paulo Henrique Tomaz Moreira da Delegacia de Proteção ao Idoso e a Pessoa com Necessidades Especiais.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-mogv"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="36" data-block-id="8"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;No dia do resgate, o Serviço de Atendimento Móvel de Urgência (Samu) o removeu imediatamente para o hospital, devido às condições em que ele se encontrava. O idoso apresentava quadro de &lt;strong&gt;anemia grave, desnutrição e desidratação&lt;/strong&gt;.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-26pdd"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="55" data-block-id="9"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“A vítima estava extremamente debilitada, foi internada em um hospital e está recebendo tratamento médico. O &lt;strong&gt;corpo dele estava tomado por formigas&lt;/strong&gt;. Se os trabalhadores da Roraima Energia não tivessem acionado a Polícia, talvez a vítima não tivesse mais tanto tempo de vida, devido às péssimas condições de saúde, no local onde se encontrava”, frisou.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-e4feo"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="31" data-block-id="10"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;A empresa Roraima Energia está acompanhando a situação do idoso, e suspendeu o corte de energia da residência em razão das condições precárias do morador, de acordo com o delegado.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-atfft"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="13" data-block-id="11"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Foi instaurado um inquérito policial para investigar os crimes de abandono e maus-tratos.&lt;/p&gt;
-&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Veja mais em&lt;a href="https://g1.globo.com/rr/roraima/noticia/2022/12/01/idoso-de-92-anos-com-corpo-tomado-por-formigas-e-resgatado-em-situacao-de-abandono-em-rr.ghtml"&gt;&lt;strong&gt; G1.&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-910lg"&gt;
-&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="12"&gt;
-&lt;div class="mc-column content-media__container"&gt;
-&lt;div class="content-media-container glb-skeleton-box"&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Assim como Flordelis, chegou a vez de Gabriel Monteiro virar estrela da &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/colunas/adriel-marques/kerline-pode-ser-chutada-da-farofa-e-ganha-unfollow-de-gkay/" target="_blank" rel="noreferrer noopener"&gt;Globoplay&lt;/a&gt;&lt;/strong&gt;. O ex-policial ganhou uma série documental no streaming pago da Globo, com divulgação intensa. A produção vai contar quatro episódios e já ganhou título: &lt;strong&gt;&lt;a href="https://mixturando.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Gabriel Monteiro — Herói Fake&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;O público vai assistir com detalhes minuciosos, preparados pela equipe da emissora, a trajetória do ex-vereador.&lt;/p&gt;
+&lt;p&gt;A proposta do lançamento é mostrar a ascensão meteórica na web até a perda do mandato, enfatizando sua prisão preventiva por acusações de crimes sexuais.&lt;/p&gt;
+&lt;p&gt;O que esperar da série de Gabriel Monteiro? Depoimentos exclusivos de ex-funcionários, assessores e mulheres o acusando de assédio moral, sexual, estupro, tortura e também peculato.&lt;/p&gt;
+&lt;p&gt;Os delegados também fazem parte das gravações, conduzindo as investigações. Rafael Norton e Eliane Scardovelli dirigem o documentário, com a reportagem de Mahomed Saigg.&lt;/p&gt;
+&lt;p&gt;Já os assinantes quem acompanhar o doc da ex-missionária Flordelis, vão acabar em um episódio extra o desenrolar da condenação e julgamento da cantora.&lt;/p&gt;
+&lt;div class="entry-content"&gt;
+&lt;p&gt;Flordelis: Questiona ou Adora ganhou um novo episódio com 30 minutos de duração. Com entrevistas e o desfecho do julgamento, condenando a ex-deputada federal a 50 anos de prisão, pelo homicídio do marido Anderson do Carmo. Com apenas 28 anos, Gabriel Monteiro foi o terceiro vereador mais votado do Rio de Janeiro. Recebendo mais de 60 mil votos pelo PSD, no ano de 2020. O ex-político famoso possui mais de 23 milhões de seguidores, somando todas as redes sociais. Só com o YouTube, Monteiro faturava cerca de R$ 230 mil por mês, de acordo com o G1. Ganhando destaque no Fantástico, o Brasil conheceu as acusações contra o carioca de forma detalhada e mesmo assim a web celebridade negou, falando que os vídeos foram forjados.&lt;/p&gt;
+&lt;div class="code-block code-block-7 amp-wp-b6a507d" data-amp-original-style="margin: 8px auto; text-align: center; display: block; clear: both;"&gt;&lt;/div&gt;
 &lt;/div&gt;
 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/idoso-de-92-anos-com-corpo-tomado-por-formigas-e-resgatado-em-situacao-de-abandono/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/apos-flordelis-gabriel-monteiro-vira-estrela-da-globo/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/design-sem-nome-13-.webp?fit=984%2C787&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/SVASDF.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20:37:26</t>
+          <t>09:00:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PIX: BC altera regras sobre limites; veja o que muda</t>
+          <t>Veja quais jornalistas foram demitidos só este ano na CNN Brasil</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;div id="chunk-6qq5b"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="50" data-block-id="3"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="highlight highlighted"&gt;O Banco Central (BC) atualizou, nesta quinta-feira (1º), as regras sobre os limites de valor para as transações feitas por PIX, seu sistema de pagamentos instantâneos&lt;/span&gt;. Segundo o BC, o objetivo das mudanças é simplificar as regras e aprimorar a experiência dos usuários, &amp;#8220;mantendo o atual nível de segurança&amp;#8221;.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="wall protected-content"&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="3" data-block-id="5"&gt;
-&lt;div class="content-intertitle"&gt;
-&lt;h2&gt;O que mudou?&lt;/h2&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-b2cmq"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="1" data-block-id="6"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;strong&gt;Limites&lt;/strong&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-7ip6r"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="49" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Pelas novas regras, &lt;span class="highlight highlighted"&gt;os bancos não são mais obrigados a impor um limite de valor por transação, e são obrigados apenas a determinar um limite por período de tempo&lt;/span&gt;. Assim, quem tem um limite diário de R$ 3 mil, por exemplo, pode usar tudo em uma só transação.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-2shiu"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="45" data-block-id="9"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;As regras para que os clientes peçam alterações no limite seguem as mesmas: se o cliente pedir uma redução do limite, o banco deve reduzir imediatamente. Se, no entanto, o pedido for para aumentar o limite, ele deve ser autorizado entre 24h e 48h.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-l3jq"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="55" data-block-id="10"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Quando o usuário for pessoa jurídica, os parâmetros para definir os limites de transações passam a ficar a critério dos bancos. A base para definir os limites quando o PIX for usado para uma compra passa a ser o limite que o mesmo cliente tem no TED, e não mais no cartão de débito.&lt;/p&gt;
-&lt;div id="chunk-51i8a"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="2" data-block-id="13"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;strong&gt;Horário noturno&lt;/strong&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-ao2ds"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="34" data-block-id="14"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Outra alteração foi relacionada ao horário noturno: passa a ser opcional aos bancos oferecer a customização do horário noturno diferenciado, para o qual o cliente pode solicitar um limite menor para suas transações.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-dkpi3"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="28" data-block-id="15"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Normalmente, o horário noturno é entre 20h e 6h – mas os bancos poderão oferecer aos clientes a possibilidade de mudar esse horário para entre 22h e 6h.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-6i67p"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="5" data-block-id="16"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;strong&gt;PIX Saque e PIX Troco&lt;/strong&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-e6pdf"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="20" data-block-id="17"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Outra novidade é &lt;span class="highlight highlighted"&gt;o aumento do valor limite para retirada de dinheiro pelo PIX Saque e pelo PIX Troco&lt;/span&gt;.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="24" data-block-id="18"&gt;
-&lt;ul class="content-unordered-list"&gt;
-&lt;li&gt;O limite &lt;strong&gt;durante o dia&lt;/strong&gt; passa de R$ 500 para R$ 3 mil&lt;/li&gt;
-&lt;li&gt;&lt;strong&gt;Durante a noite&lt;/strong&gt;, passa de R$ 100 para R$ 1 mil&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="40" data-block-id="19"&gt;“Essa medida tem como objetivo adequar os limites usualmente disponibilizados nos caixas eletrônicos para saques tradicionais. Assim, com o PIX Saque, os usuários terão acesso ao serviço com condições similares às do saque tradicional”, informou o BC em nota oficial.&amp;nbsp;&lt;/p&gt;
-&lt;/div&gt;
-&lt;div id="chunk-4otrr"&gt;
-&lt;div class="row medium-uncollapsed content-media content-photo" data-block-type="backstage-photo" data-block-id="20"&gt;
-&lt;div class="mc-column content-media__container"&gt;
-&lt;div class="content-media-container glb-skeleton-box"&gt;
-&lt;figure class="content-media-figure"&gt;&lt;img decoding="async" class="i-amphtml-fill-content i-amphtml-replaced-content" src="https://i0.wp.com/s2.glbimg.com/BEOLjqc6hHuZFmz2Z_ngMMiAcYk=/0x0:1920x1080/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/8/B/FFE7H9Qkej08veetgu2Q/microsoftteams-image.png?w=696&amp;#038;ssl=1" sizes="(max-width: 1536px) 648px, 100vw" srcset="https://s2.glbimg.com/-CEeccrT-gQ44p4oOmqAO5-wVn8=/0x0:1920x1080/1000x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/8/B/FFE7H9Qkej08veetgu2Q/microsoftteams-image.png 1000w, https://i0.wp.com/s2.glbimg.com/BEOLjqc6hHuZFmz2Z_ngMMiAcYk=/0x0:1920x1080/984x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/8/B/FFE7H9Qkej08veetgu2Q/microsoftteams-image.png?w=696&amp;#038;ssl=1 984w, https://s2.glbimg.com/m8TTuh4Am7a4XRqFGECmPh_8uIk=/0x0:1920x1080/640x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/8/B/FFE7H9Qkej08veetgu2Q/microsoftteams-image.png 640w, https://s2.glbimg.com/MDqOZ6E5wwxb4aswY8BE_obC1sk=/0x0:1920x1080/600x0/smart/filters:strip_icc()/i.s3.glbimg.com/v1/AUTH_59edd422c0c84a879bd37670ae4f538a/internal_photos/bs/2022/8/B/FFE7H9Qkej08veetgu2Q/microsoftteams-image.png 600w" alt="BC altera regras do PIX; entenda o que muda — Foto: g1" data-recalc-dims="1" /&gt;&lt;/figure&gt;
-&lt;/div&gt;
-&lt;p class="content-media__description " style="text-align: center;"&gt;&lt;em&gt;BC altera regras do PIX; entenda o que muda — Foto: g1&lt;/em&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="5" data-block-id="22"&gt;
-&lt;div class="content-intertitle"&gt;
-&lt;h2&gt;&lt;strong&gt;Por que as mudanças aconteceram?&lt;/strong&gt;&lt;/h2&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-8hd79"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="40" data-block-id="23"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Segundo o BC, as regras foram alteradas para facilitar o recebimento de recursos por correspondentes bancários, a exemplo do que já acontece nas lotéricas, e viabilizar o pagamento de salários, aposentadorias e pensões pelo Tesouro Nacional por meio do sistema.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="6" data-block-id="24"&gt;
-&lt;div class="content-intertitle"&gt;
-&lt;h2&gt;&lt;strong&gt;Quando as alterações passam a valer?&lt;/strong&gt;&lt;/h2&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-fbpb7"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="25"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;&lt;span class="highlight highlighted"&gt;As novas regras passam a valer a partir de 2 de janeiro de 2023&lt;/span&gt;, com exceção dos ajustes feitos na gestão dos limites para os clientes por meio dos canais digitais – que, nesse caso, valem a partir de 3 de julho do ano que vem.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;Com novas reformulações e uma nova diretoria, a &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/televisao" target="_blank" rel="noreferrer noopener"&gt;CNN Brasil&lt;/a&gt;&lt;/strong&gt; está promovendo uma verdadeira demissão em massa nesta terça-feira (1), a maior de seus quase três anos de existência. Segundo o colunista Ricardo Feltrin, foram 125 demitidos, e quase todos já receberam o aviso prévio. Destes 125, cerca de 100 são contratados como pessoa jurídica e 25 tinham registro em carteira.&lt;/p&gt;
+&lt;p&gt;Nomes conhecidos no jornalismo brasileiro como &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/" target="_blank" rel="noreferrer noopener"&gt;Boris Casoy, Monalisa Perrone, Sidney Rezende e Marcela Rahal&lt;/a&gt;&lt;/strong&gt;, a ex-global &lt;strong&gt;&lt;a href="http://instagram.com/portalemoff" target="_blank" rel="noreferrer noopener"&gt;Glória Vanique&lt;/a&gt;&lt;/strong&gt; e o historiador e comentarista &lt;strong&gt;&lt;a href="http://twitter.com/portalemoff" target="_blank" rel="noreferrer noopener"&gt;Leandro Karnal&lt;/a&gt;&lt;/strong&gt; deixaram a emissora nesta terça-feira. Segundo a colunista do EM OFF, Fabia Oliveira, todas as regionais da empresa sofreram baixas.&lt;/p&gt;
+&lt;p&gt;Segundo a CNN, a readequação de funcionários e os cortes, são motivados por uma reestruturação em suas operações com dois objetivos principais: fortalecer o hard news e reorganizar os custos, buscando atingir o breakeven (equilíbrio financeiro) em 2023. A empresa comunica que a coordenação da cobertura será concentrada em São Paulo e Brasília. Na outra ponta, a newsroom (sala de redação) do Rio de Janeiro será desativada, “sem trazer prejuízo algum à cobertura”, diz a emissora.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a href="https://emoff.ig.com.br/famosos" target="_blank" rel="noreferrer noopener"&gt;Jairo Nascimento, Bruna Ostermann, Fernando Molica, Alexandre Borges e Kenzô Machida&lt;/a&gt;&lt;/strong&gt; também são outros nomes já foram comunicados do desligamento. Em nota, a empresa demonstra aos ex-funcionários gratidão e respeito pela dedicação e trabalho, “&lt;em&gt;que foram fundamentais para a construção e consolidação da CNN Brasil”&lt;/em&gt;.&lt;/p&gt;
+&lt;h2 id="h-limpa-em-outras-reas"&gt;Limpa em outras áreas&lt;/h2&gt;
+&lt;p&gt;De acordo com o Notícias da TV, outras áreas da emissora foram atingidas pela crise, como a cobertura internacional e a área soft: a designer &lt;strong&gt;&lt;a href="http://ememoff.ig.com.br/novelas" target="_blank" rel="noreferrer noopener"&gt;Rita Wu,&lt;/a&gt;&lt;/strong&gt; que fazia o CNN Nosso Mundo; e &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/politica" target="_blank" rel="noreferrer noopener"&gt;Heloísa Vilela&lt;/a&gt;&lt;/strong&gt;, ex-correspondente de Record e Globo nos Estados Unidos, tiveram seus contratos encerrados.&lt;/p&gt;
+&lt;p&gt;Na última segunda-feira, 21, &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/?s=renata+afonso" target="_blank" rel="noreferrer noopener"&gt;Renata Afonso&lt;/a&gt;&lt;/strong&gt; deixou o cargo de CEO da CNN Brasil. A executiva havia sido contratada pelo canal de notícias em abril de 2021, para substituir Douglas Tavolaro, um dos criadores do projeto brasileiro do veículo, que deixou a empresa um ano depois de o canal ter entrado no ar.&lt;/p&gt;
+&lt;p&gt;A saída de Renata Afonso aconteceu cerca de 20 dias depois de o veículo de notícias ter anunciado a chegada de &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/?s=cnn+brasil" target="_blank" rel="noreferrer noopener"&gt;João Carlos Camargo&lt;/a&gt;&lt;/strong&gt; como sócio e chairman do canal. Segundo a CNN, será Camargo que ficará encarregado, de maneira interina, de despachar diretamente com os executivos da casa até que a empresa apresenta sua nova estrutura de comando. O executivo chegou para substituir o empresário Rubens Menin, investidor do projeto da CNN Brasil, como presidente executivo do Conselho. Contudo, Menin permanece como acionista majoritário.&lt;/p&gt;
+&lt;h2&gt;Daniel Adjuto com saída repentina&lt;/h2&gt;
+&lt;p&gt;Em setembro, &lt;strong&gt;&lt;a href="https://emoff.ig.com.br/?s=daniel+adjuto" target="_blank" rel="noreferrer noopener"&gt;Daniel Adjuto&lt;/a&gt;&lt;/strong&gt;, apresentador do programa Live CNN, também foi demitido repentinamente. Ele foi informado de sua saída pouco pela manhã, quando se preparava para começar o telejornal junto com Marcela Rahal. O jornalista foi substituído por Evandro Cini, que deixou o noturno Expresso CNN. A saída aconteceu por um grave problema entre os titulares da atração nos bastidores.&lt;/p&gt;
+&lt;p&gt;A saída do âncora se deu por causa de uma briga que se arrastava desde o fim de agosto. Adjuto e Marcela não se falavam sem estarem ao vivo no telejornal. O clima era ruim nos bastidores por causa de divergências sobre o comando do programa. No entanto, na semana que antecedeu a demissão, houve a gota d’água.&lt;/p&gt;
+&lt;p&gt;Adjuto e Marcela tiveram uma discussão em que ele teria pesado a mão com a parceira de bancada. O clima de animosidade passou a ser perceptível ao vivo, e o caso foi para a direção da CNN, que decidiu pela demissão. A empresa tratou a saída do jornalista internamente como um comportamento inadequado com uma colega de trabalho.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/pix-bc-altera-regras-sobre-limites-veja-o-que-muda/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/veja-quais-jornalistas-foram-demitidos-so-este-ano-na-cnn-brasil/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/10/pix.jpeg?fit=1619%2C900&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/SDFGSDF.jpg?fit=1280%2C720&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20:32:10</t>
+          <t>09:00:31</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brasileiros jogam para concorrer a R$ 1,7 bilhões na Mega Millions dos EUA</t>
+          <t>Nicolau Júnior parabeniza o novo presidente do TCE, Ribamar Trindade</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;A &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR" target="_blank" rel="noopener"&gt;Mega Millions&lt;/a&gt; sempre foi uma das loterias favoritas ao redor do mundo, mas foi em 2018, quando sorteou um jackpot recorde de 1,53 bilhão de dólares, que elevou sua popularidade a limites extraordinários. Mais recentemente, em julho de 2022, essa gigante dos EUA apresentou seu segundo maior prêmio da história: 1,33 bilhão de dólares, o equivalente a R$ 6,7 bilhões.&lt;/p&gt;
-&lt;div class="cnnTeads"&gt;&lt;/div&gt;
-&lt;p&gt;Graças a &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR" target="_blank" rel="noopener"&gt;TheLotter&lt;/a&gt;, o serviço de compra de bilhetes de loteria on-line líder do mundo, você pode jogar nos maiores jackpots internacionais on-line, sem sair do Brasil!&lt;/p&gt;
-&lt;h3&gt;&lt;/h3&gt;
-&lt;h2&gt;Como comprar bilhetes oficiais do Brasil?&lt;/h2&gt;
-&lt;p&gt;Através do site TheLotter é possível jogar nas maiores loterias do mundo, de onde estiver e a qualquer momento.&lt;/p&gt;
-&lt;p&gt;Veja como é fácil:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Abra uma conta gratuita na &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;TheLotter&lt;/strong&gt;&lt;/a&gt;;&lt;/li&gt;
-&lt;li&gt;Acesse a página da loteria &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;Mega Millions&lt;/strong&gt;&lt;/a&gt;;&lt;/li&gt;
-&lt;li&gt;Escolha cinco números principais e um número adicional;&lt;/li&gt;
-&lt;li&gt;Pressione o botão &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;de jogar&lt;/strong&gt;&lt;/a&gt; na parte inferior da tela;&lt;/li&gt;
-&lt;li&gt;Pronto, sua compra já está confirmada!&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;div&gt;
-&lt;dl id="attachment_2030761"&gt;
-&lt;dt&gt;&lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR" target="_blank" rel="noopener"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/www.cnnbrasil.com.br/wp-content/uploads/sites/12/2022/11/333_PT_S.jpg?resize=696%2C93&amp;#038;ssl=1" alt="" width="696" height="93" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;/dt&gt;
-&lt;/dl&gt;
-&lt;/div&gt;
-&lt;p&gt;Como funciona a TheLotter?&lt;/p&gt;
-&lt;p&gt;A TheLotter compra os bilhetes oficiais em nome do jogador e envia uma &lt;strong&gt;cópia digitalizada&lt;/strong&gt; para sua conta pessoal. Caso o jogador ganhe, o prêmio será dele na íntegra, &lt;strong&gt;100% – sem comissões&lt;/strong&gt;!&lt;/p&gt;
-&lt;p&gt;Além disso, todos os prêmios são notificados por e-mail ou SMS. Se o jogador levar o &lt;em&gt;jackpot&lt;/em&gt; ou um dos grandes prêmios, a &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;TheLotter&lt;/strong&gt;&lt;/a&gt; vai ajudá-lo a buscar o prêmio pessoalmente e pagará por sua viagem para os Estados Unidos, incluindo todas as despesas. Se o jogador ganhou um prêmio secundário, todo o dinheiro será transferido direto e automaticamente para sua conta pessoal.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Quem é a TheLotter?&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Licenciada na União Europeia e operando em 20 países, a &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;TheLotter&lt;/strong&gt;&lt;/a&gt; é o &lt;strong&gt;principal serviço de loteria on-line do mundo&lt;/strong&gt; e a única opção de comprar legalmente bilhetes oficiais para as melhores loterias de todos os países, estando no Brasil.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;A serviço de seus clientes&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Participar do Brasil agora está mais barato, mais acessível e mais seguro do que nunca, graças ao impecável atendimento ao cliente em português disponível 24 horas por dia, 7 dias por semana, além de uma grande variedade de métodos de pagamentos garantidos, como Visa e MasterCard, entre muitos outros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Preços mais convenientes&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Os bilhetes da &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;Mega Millions&lt;/strong&gt;&lt;/a&gt; custam cerca de US$ 5 por linha e esse valor já inclui a comissão que o site cobra pelo serviço de courrier. Além disso, o portal oferece inúmeras ferramentas para economizar tempo e dinheiro, como o Multisorteios e as Assinaturas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Nossos vencedores&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Em seus 20 anos de serviço, a &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;TheLotter&lt;/strong&gt;&lt;/a&gt; teve a felicidade de entregar centenas de milhões de dólares em prêmios de loteria para milhões de bilhetes vencedores. E como há dezenas de milhares de latino-americanos que jogam na loteria diariamente ao redor do mundo, há também muitos latinos que ganharam prêmios incríveis.&lt;/p&gt;
-&lt;p&gt;Conheça nossos vencedores do Panamá, Chile, Costa Rica, Equador, El Salvador e Colômbia!&lt;/p&gt;
-&lt;div&gt;
-&lt;dl id="attachment_2030763"&gt;
-&lt;dt&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/www.cnnbrasil.com.br/wp-content/uploads/sites/12/2022/11/Winners_Trophy_PT.png?resize=696%2C537&amp;#038;ssl=1" alt="" width="696" height="537" data-recalc-dims="1" /&gt;&lt;/dt&gt;
-&lt;/dl&gt;
-&lt;/div&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Jogue hoj&lt;strong&gt;e!&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Esta é a oportunidade que todos os brasileiros estavam esperando, poder concorrer a prêmios bilionários de loterias internacionais. &lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR"&gt;&lt;strong&gt;Compre agora seus&lt;/strong&gt;&lt;strong&gt; bilhetes oficiais da Mega Million&lt;/strong&gt;s&lt;/a&gt; para o próximo sorteio desta Sexta-Feira, dia 2 de dezembro e tenha a chance de ganhar US$ 333 milhões!&lt;/p&gt;
-&lt;div&gt;
-&lt;dl id="attachment_2030784"&gt;
-&lt;dt&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/www.cnnbrasil.com.br/wp-content/uploads/sites/12/2022/11/Logo_thelotter.png?resize=696%2C309&amp;#038;ssl=1" alt="" width="696" height="309" data-recalc-dims="1" /&gt;&lt;/dt&gt;
-&lt;dd&gt;&lt;/dd&gt;
-&lt;/dl&gt;
-&lt;/div&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;“A The Lottery.com é operada por terceiro, sendo que este conteúdo não foi elaborado e não tem ingerência ou responsabilidade associada à CNN Brasil e/ou a nenhuma de suas empresas controladoras.”&lt;/p&gt;
-&lt;div&gt;
-&lt;dl id="attachment_2030761"&gt;
-&lt;dt&gt;&lt;a href="https://www.thelotter.net/pt/bilhetes-loteria/mega-millions-eua/?tl_affid=10445&amp;amp;ft=5&amp;amp;chan=CnnBR" target="_blank" rel="noopener"&gt;&lt;img decoding="async" loading="lazy" class="alignnone" src="https://i0.wp.com/www.cnnbrasil.com.br/wp-content/uploads/sites/12/2022/11/333_PT_S.jpg?resize=696%2C93&amp;#038;ssl=1" alt="" width="696" height="93" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;/dt&gt;
-&lt;/dl&gt;
-&lt;/div&gt;
-&lt;p&gt;A Lotto Direct Limited opera a thelotte&lt;strong&gt;&lt;em&gt;r.com. A Lotto Direct Limited é licenciada pela Malta Gaming Authority. Referência da licença MGA/CRP/402/2017. + de 18. Os jogos podem ser prejudiciais se não forem controlados. Jogue com responsabilidade. Para mais informações, acesse &lt;/em&gt;&lt;/strong&gt;&lt;a href="https://www.rgf.org.mt/" target="_blank" rel="noopener"&gt;&lt;strong&gt;&lt;em&gt;https://www.rgf.org.mt/&lt;/em&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O deputado estadual reeleito, Nicolau Junior (PP), presidente da Assembleia Legislativa parabenizou o conselheiro José Ribamar Trindade, aclamado nesta quinta-feira, para presidir o Tribunal de Contas do Estado.&lt;/p&gt;
+&lt;p&gt;Nicolau destacou o trabalho realizado pelo então presidente Ronald Polanco e disse que o TCE estará em boas mãos na gestão de Ribamar, o mais novo conselheiro da corte.&lt;br /&gt;
+José Ribamar Trindade foi o único candidato do pleito e acabou aclamado por unanimidade. Ele foi empossado no cargo logo após a sessão, que ocorreu de forma virtual.&lt;/p&gt;
+&lt;p&gt;A nova composição ficou assim:&lt;/p&gt;
+&lt;p&gt;Presidente da Corte para o próximo biênio, Conselheiro José Ribamar Trindade de Oliveira, como Vice-Presidente, o Conselheiro Valmir Gomes Ribeiro e como Corregedora, a Conselheira Dulcinéa Benício de Araújo.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://contilnetnoticias.com.br/2022/12/brasileiros-jogam-para-concorrer-a-r-17-bilhoes-na-mega-millions-dos-eua/</t>
+          <t>https://contilnetnoticias.com.br/2022/12/nicolau-junior-parabeniza-o-novo-presidente-do-tce-ribamar-trindade/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/TheLotter.webp?fit=885%2C590&amp;ssl=1</t>
+          <t>https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/ribamar-trindade.jpeg?fit=1280%2C687&amp;ssl=1</t>
         </is>
       </c>
     </row>
@@ -2072,20 +1781,416 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>09:03:51</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Representantes indígenas e do Estado planejam políticas para os próximos quatros anos</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Representantes do governo do Acre e lideranças indígenas estiveram reunidos na sala de reunião da Casa Civil, em Rio Branco, nesta quinta-feira, 1º, para estreitar o diálogo sobre o fortalecimento do Sistema Estadual de Incentivo a Serviços Ambientais (Sisa) e suas instâncias de governança, sobre as estruturas do Instituto de Mudanças Climáticas e Regulação de Serviços Ambientais (IMC) e as propostas de políticas públicas para o próximo quadriênio.&lt;/p&gt;
+&lt;p&gt;Foram esclarecidas ainda divergências sobre a habilitação ao fundo climático de Coalizão Reduzindo Emissões pela Aceleração do Financiamento Florestal (Leaf). Em seguida, os participantes deram início à elaboração de um plano para políticas indígenas, no âmbito do Sisa, voltadas para os eixos da educação, saúde, produção, cultura e outros.&lt;/p&gt;
+&lt;p&gt;“É fundamental mantermos esse diálogo constante com os povos indígenas, tendo em vista que são parte fundamental na estruturação de novas políticas públicas ligadas à proteção e conservação do meio ambiente. A reunião foi muito proveitosa e juntos compilamos algumas proposições feitas por eles, que serão apresentadas à equipe de transição para fins de considerações e incorporação a nova roupagem, que está sendo pensada para as políticas públicas para os próximos quatro anos”, destaca Paola Daniel, secretária de Estado de Meio Ambiente e das Políticas Indígenas (Semapi).&lt;/p&gt;
+&lt;p&gt;A coordenadora da Organização de Mulheres Indígenas do Acre, Sul do Amazonas e Noroeste de Rondônia (Sitoakore) e membro da Câmara Temática Indígena (CTI) do Sisa, Nedina Yawanawa, destaca que a proposta ainda será submetida às demais lideranças indígenas não presentes na reunião e, após a validação, será entregue à equipe de governo e de transição para as considerações e análises finais.&lt;/p&gt;
+&lt;figure id="attachment_585751" aria-describedby="caption-attachment-585751" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585751 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-21.00.33.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585751" class="wp-caption-text"&gt;Pauta da reunião tratou do fortalecimento do Sisa e suas instâncias de governança e das estruturas do IMC. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;O nosso diálogo foi bem positivo. Organizamos todas as reivindicações num documento único e atualizado. Essa proposta será apresentada na próxima segunda-feira aos secretários para que avaliem. Na quarta, estamos propondo uma reunião com os membros da Câmara Temática Indígena do Sisa para darmos as respostas sobre o Leaf e a Emergent, às quais o governo do Estado tem manifestado interesse em aderir. A gente é a favor que esses recursos cheguem para manter a floresta em pé e, que haja pagamento por serviços ambientais. Estaremos alinhando tudo o que foi debatido com as demais lideranças que não participaram da reunião&amp;#8221;, ressalta Nedina Yawanawa.&lt;/p&gt;
+&lt;p&gt;Na reunião, o presidente da Companhia de Desenvolvimento a Serviços Ambientais (CDSA), José Luiz Gondim, propôs a criação do comitê corporativo de povos indígenas e populações tradicionais, para dar mais transparência, e a participação social dos beneficiários do Sisa nas políticas de sustentabilidade do Acre. Se aprovado, o comitê terá caráter de fórum consultivo nas áreas de negociação de ativos ambientais, dando maior transparência e participação nas discussões empresariais públicas que a CDSA fizer para captação de novos investimentos às políticas públicas do Sisa.&lt;/p&gt;
+&lt;p&gt;Participaram também da reunião os membros da comissão indígena, Eliane Yawanawa e Décio Kaxinawa. Representando o governo do Estado, a titular da Secretaria de Estado de Meio Ambiente e das Políticas Indígenas (Semapi), Paola Daniel; Manoel Gomes Kaxinawa, da Semapi; a diretora de projetos da CDSA, Rosangela Benjamin; o presidente do IMC, Raul Vargas Torrico; a chefe de Regulação do IMC, Francisca Arara; Roberto Tavares, do IMC; o técnico da Saúde Indígena da Sesacre, Vanderson Brito; e a diretora técnica da Casa Civil, Glória Maria de Oliveira.&lt;/p&gt;
+&lt;figure id="attachment_585752" aria-describedby="caption-attachment-585752" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585752 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.47.27.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585752" class="wp-caption-text"&gt;Proposta de plano de trabalho ainda será submetida às demais lideranças indígenas. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;Divergências sobre o Leaf&lt;/h4&gt;
+&lt;p&gt;Ainda na COP26, o Estado do Acre assinou o Memorando de Entendimento manifestando interesse em aderir ao Leaf. O ato gerou insatisfação por parte de lideranças indígenas por não terem participado dessa fase inicial de elegibilidade do Sisa no processo. Na COP27, a diretora-geral de Gestão de Fundos da Emergent, Juliana Santiago, explicou que naquele momento do chamamento não era esperado que houvesse consulta pública, pois a Coalizão Leaf tinha que identificar quais os estados ou países gostariam de se engajar no processo inicial de diálogo.&lt;/p&gt;
+&lt;p&gt;“Agora que o Acre foi habilitado e assinamos esse memorando de entendimento que prevê a intensificação do diálogo entre as partes, o Estado tem se estruturado para começar o processo de consulta ampla e pode construir, de forma consultada, um plano de repartição de benefícios. Então o processo vai se iniciar agora. Estive reunida com representantes do Estado [na COP27] e fui atualizada de como a governança vem sendo estruturada, e enxergamos o potencial do estado, inclusive, aproveitando as experiências anteriores com o Programa REM e aprimorando a parte das lições aprendidas”, esclareceu, em entrevista gravada para a reportagem da Agência de Notícias do Acre, na COP27.&lt;/p&gt;
+&lt;p&gt;Juliana Santiago ressalta ainda que a Coalizão Leaf também está aberta a sugestões e que, após as divergências, foi realizada escuta em reuniões com as populações tradicionais do Acre para o aprimoramento do processo, sendo que a nova chamada, lançada em 2022, já incorporou um requisito para que os governos engajem as lideranças locais em sessões informativas, antes de responder à chamada pública.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/representantes-indigenas-e-do-estado-planejam-politicas-para-os-proximos-quatros-anos/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>08:01:15</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Centro Cultural do Juruá é entregue revitalizado pelo governo do Estado</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em mais uma demonstração de compromisso com a cultura acreana, o governo do Estado, por meio da Secretaria de Infraestrutura (Seinfra), entregou na tarde desta quinta-feira, 1º, a revitalização do antigo prédio do Centro Cultural do Juruá, em Cruzeiro do Sul.&lt;/p&gt;
+&lt;figure id="attachment_585773" aria-describedby="caption-attachment-585773" style="width: 902px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585773 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062.jpg" alt="" width="902" height="676" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062.jpg 902w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062-768x576.jpg 768w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585773" class="wp-caption-text"&gt;Política estadual de revitalização de espaços públicos contribui para valorização da história do Acre. Foto: Edson Fernandes/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A estrutura, que pertence ao Tribunal de Justiça do Acre (TJAC), recebeu pintura geral, troca de madeiras danificadas e da rede elétrica, revitalização da cobertura, forro, escadaria e mobiliário, além de estacionamento pavimentado, paisagismo, rampa de acesso, banheiro acessível, iluminação em LED, decoração natalina e revitalização da praça localizada em frente ao prédio, totalizando um investimento na ordem de R$ 330 mil.&lt;/p&gt;
+&lt;p&gt;Presente à solenidade de reinauguração do Centro, o titular da Seinfra, Cirleudo Alencar, definiu o momento como um marco para cultura da região e destacou a política estadual de restauração de espaços públicos, que tem contribuído para a valorização de servidores e da história do Acre.&lt;/p&gt;
+&lt;figure id="attachment_585757" aria-describedby="caption-attachment-585757" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585757 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-1024x767.jpg" alt="" width="1024" height="767" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585757" class="wp-caption-text"&gt;A obra contou com o apoio da Prefeitura de Cruzeiro do Sul e do TJAC. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;#8220;O governador Gladson Cameli tem se empenhado no fortalecimento das instituições. O trabalho feito neste lugar é um resgate da história e uma forma de preservar a cultura local&amp;#8221;, ratificou Alencar.&lt;/p&gt;
+&lt;p&gt;A arquitetura original do Centro foi mantida. Com ambiente mais atrativo, a expectativa é de ampliar o número de visitantes, anualmente.&lt;/p&gt;
+&lt;figure id="attachment_585781" aria-describedby="caption-attachment-585781" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585781 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-1024x767.jpg" alt="" width="1024" height="767" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg 1027w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585781" class="wp-caption-text"&gt;Arquitetura original do prédio foi preservada. Foto: Edson Fernandes/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Em suas palavras, a presidente do TJAC, desembargadora Waldirene Cordeiro, externou gratidão à bem-sucedida parceria. &amp;#8220;Meus sinceros agradecimentos ao Poder Executivo e a todos que se uniram para realizar este sonho. Este lugar guarda parte da história acreana e do Poder Judiciário&amp;#8221;, pontuou.&lt;/p&gt;
+&lt;p&gt;Também se fizeram presentes ao evento o prefeito Zequinha Lima e autoridades da região.&lt;/p&gt;
+&lt;figure id="attachment_585768" aria-describedby="caption-attachment-585768" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585768 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585768" class="wp-caption-text"&gt;Autoridades participaram da reinauguração do Centro na tarde desta quinta-feira. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;A história do prédio mais antigo do Acre&lt;/h4&gt;
+&lt;p&gt;O Centro Cultural do Juruá está localizado no prédio mais antigo da história do Acre. Começou a ser erguido em 1904 e sua construção foi concluída somente em 1911. O local foi a primeira sede da Prefeitura de Cruzeiro do Sul e posteriormente abrigou o Poder Judiciário.&lt;/p&gt;
+&lt;figure id="attachment_585770" aria-describedby="caption-attachment-585770" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585770 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg" alt="" width="1024" height="767" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585770" class="wp-caption-text"&gt;Local dispõe de museu, biblioteca e auditório. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Com 116 anos, a edificação volta a oferecer ao público museu, biblioteca e auditório.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-585743 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585769" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0058.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585769'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585767" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0056.jpg 1060w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585767'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585766" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585766'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585765" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585765'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585764" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585764'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585763" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg 1130w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585763'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585762" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585762'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585761" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0050.jpg 1175w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585761'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585760" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585760'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585759" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0048.jpg 1192w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585759'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047.jpg'&gt;&lt;img width="300" height="225" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047-300x225.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585758" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0047.jpg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585758'&gt;
+				Foto: Marcos Santos/Secom
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/centro-cultural-do-jurua-e-entregue-revitalizado-pelo-governo-do-estado/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07:47:54</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Estado busca fortalecer turismo de base comunitária na APA do Amapá</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O titular da pasta da Secretaria de Estado de Empreendedorismo e Turismo (Seet), Márcio Pereira, acompanhado da turismóloga Adalgisa Bandeira, equipe de gabinete e assessoria, juntamente com a presidente da Associação dos Moradores da Área de Proteção Ambiental (APA) do Amapá, Alieth Maria Costa, realizaram visita técnica para saber das condições em que se encontra o local.&lt;/p&gt;
+&lt;figure id="attachment_585627" aria-describedby="caption-attachment-585627" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585627 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.08.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585627" class="wp-caption-text"&gt;Secretaria dialoga com moradores para futuras parcerias. Foto Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A presidente da APA do Amapá buscou a secretaria para que se realize capacitações com moradores, pois o turismo de base comunitária pode mostrar o potencial da região na capital e incentivar os moradores a preservarem o ambiente.&lt;/p&gt;
+&lt;p&gt;“Agradeço a secretaria por se fazer presente e conseguir enxergar a potencialidade do local, que pode gerar renda aos moradores como guias locais e manter a preservação ambiental da região. Estamos em um local que tem grande importância para Rio Branco, com seu aquífero e belezas exóticas, que são protegidas pela comunidade”, disse Alieth.&lt;/p&gt;
+&lt;figure id="attachment_585629" aria-describedby="caption-attachment-585629" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585629 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585629" class="wp-caption-text"&gt;Secretário afirma que comunidade precisa estar envolvida. Foto Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Para o secretário, o local pode ser um dos pontos fortes do turismo na capital.&lt;/p&gt;
+&lt;p&gt;“Se observarmos, os moradores têm um carinho pela história local que se mistura com a história do estado do Acre e que possui um potencial turístico forte, pois é uma área rica em todos os aspectos, além do incentivo dos moradores em tirar sua renda com o turismo e preservarem a natureza”, frisou Márcio.&lt;/p&gt;
+&lt;p&gt;Na próxima semana, o corpo técnico da secretaria retorna à localidade para dialogar com os moradores e iniciar os trabalhos de capacitação e orientação.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/estado-busca-fortalecer-turismo-de-base-comunitaria-na-apa-do-amapa/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07:33:54</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fundhacre adquire novas camas para enfermarias do hospital</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Assistência, conforto e bem-estar ao paciente têm sido compromissos do governo do Acre em sua gestão, que vem trabalhando em prol de promover ao usuário do Sistema Único de Saúde (SUS) melhorias na saúde pública que possam atender a população do estado.&lt;/p&gt;
+&lt;figure id="attachment_585683" aria-describedby="caption-attachment-585683" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585683 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585683" class="wp-caption-text"&gt;Fundhacre adquire novas camas para enfermarias do hospital. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Assim, a Fundação Hospital Estadual do Acre (Fundhacre) adquiriu 120 novas camas hospitalares, que irão substituir as antigas das enfermarias da unidade hospitalar.&lt;/p&gt;
+&lt;p&gt;“A Fundhacre passa por muitas melhorias. Além das camas, estamos recebendo equipamentos para fisioterapia, para o Programa de Obesidade, além de uma nova mesa cirúrgica para o melhoramento das cirurgias”, enfatiza o presidente da Fundhacre, João Paulo Silva.&lt;/p&gt;
+&lt;figure id="attachment_585688" aria-describedby="caption-attachment-585688" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585688 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585688" class="wp-caption-text"&gt;As 120 novas camas hospitalares estarão substituindo as antigas das enfermarias. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As novas camas hospitalares chegaram no complexo na última quarta-feira, 30, com início da montagem e troca nas enfermarias nesta quinta, 1º. A aquisição ocorreu por meio de convênio com o Ministério da Saúde, no montante de R$ 600 mil.&lt;/p&gt;
+&lt;figure id="attachment_585707" aria-describedby="caption-attachment-585707" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585707 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585707" class="wp-caption-text"&gt;Aquisição ocorreu por meio de convênio com Ministério da Saúde, no montante de R$ 600 mil. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Trata-se de uma aquisição que estará contribuindo também para o trabalhador de saúde, para que a equipe faça menos esforços, por ser uma cama equipada, uma melhoria que diz muito sobre as condições de trabalho.  Estamos muito contentes com os leitos novos”, afirma o chefe de enfermagem Durival Brito.&lt;/p&gt;
+&lt;div id='gallery-2' class='gallery galleryid-585681 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585683'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585684" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8231-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585684'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585685" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8233-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585685'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585687" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8240-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585687'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585688" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585688'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585706" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8425-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585706'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585707" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585707'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585708" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8430-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585708'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585709" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8403-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585709'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585712" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8405-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585712'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585713" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8420-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585713'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-scaled.jpg'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585714" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8422-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+			&lt;/div&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585714'&gt;
+				Foto: Gleison Luz
+				&lt;/figcaption&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/fundhacre-adquire-novas-camas-para-enfermarias-do-hospital/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07:23:49</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Senador Guiomard recebe decoração natalina do Estado</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Buscando fortalecer o turismo e estimular a economia local por meio de atrativos do Natal, o governo estadual, por meio da Secretaria de Estado de Empreendedorismo e Turismo (Seet), realizou a entrega do primeiro kit natalino no município de Senador Guiomard.&lt;/p&gt;
+&lt;figure id="attachment_585656" aria-describedby="caption-attachment-585656" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585656 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585656" class="wp-caption-text"&gt;Estado e prefeituras buscam atrativos para o período natalino. Foto: Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Serão 64 itens compondo a decoração natalina na principal praça de cada município acreano. A prefeita Rosana Gomes se disse feliz pelo prestígio de ser a primeira cidade a receber e pela atenção do governo.&lt;/p&gt;
+&lt;p&gt;“Agradecemos ao governo, que tem tido um olhar atencioso para a cidade de Senador Guiomard. O Estado tem sido um grande parceiro e, com a decoração embelezando nossa cidade, as famílias que vivem aqui e pessoas que visitarem poderão realizar seus registros em família nesse período do ano em que estaremos celebrando o Natal”, declarou a prefeita.&lt;/p&gt;
+&lt;p&gt;O secretário de Turismo informou que a secretaria irá realizar a entrega desses kits para mais quatorze cidades acreanas.&lt;/p&gt;
+&lt;figure id="attachment_585657" aria-describedby="caption-attachment-585657" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585657 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585657" class="wp-caption-text"&gt;Senador Guiomard é a primeira cidade a receber o kit de Natal. Foto Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Por meio desses atrativos é possível que a população mostre a decoração de suas cidades e que venham atrair turistas de outras cidades e de outros estados”, informou o secretário de Estado, Márcio Pereira.&lt;/p&gt;
+&lt;p&gt;A secretaria ficou responsável por quinze municípios e os demais na responsabilidade da Casa Civil e da Fundação Elias Mansour (FEM).&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/senador-guiomard-recebe-decoracao-natalina-do-estado/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07:18:07</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Servidores da Sepa participam de palestra que encerra campanha do Novembro Azul</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Uma das prioridades do Estado é alertar os servidores sobre o câncer de próstata.  Por isso, a Secretaria de Produção e Agronegócio (Sepa), em parceria com a Associação dos Engenheiros do Acre, convidou o urologista Dennis Fujiike para destacar a prevenção e a importância da realização de exames para os servidores da instituição. A palestra foi realizada nesta quarta-feira, 30, na sala de multimeios da secretaria, localizada no Bairro Estação Experimental.&lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_585721" aria-describedby="caption-attachment-585721" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585721 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585721" class="wp-caption-text"&gt;Palestra sobre o câncer de próstata. Foto: Cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;O câncer de próstata é um tumor que atinge muitos homens, principalmente aqueles que estão na terceira idade. Sabendo disso, a campanha do Novembro Azul quer alertar a população sobre os riscos da doença e sensibilizar os homens sobre a necessidade de buscar atendimento médico especializado.&lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_585722" aria-describedby="caption-attachment-585722" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585722 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21.jpeg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585722" class="wp-caption-text"&gt;Explicação sobre o câncer de próstata. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;“O doutor Dennis mostrou estudos científicos sobre o câncer de próstata e enfatizou a importância da prevenção e dos exames periódicos, que são fundamentais para diagnosticar a doença”, disse o servidor Jalceyr Pessoa. &lt;/span&gt;&lt;/p&gt;
+&lt;figure id="attachment_585723" aria-describedby="caption-attachment-585723" style="width: 768px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585723 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg" alt="" width="768" height="1024" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-225x300.jpeg 225w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-1152x1536.jpeg 1152w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24.jpeg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585723" class="wp-caption-text"&gt;Participantes da palestra e o urologista Dennis. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;span style="font-weight: 400;"&gt;Os exames preventivos são o de toque retal e dosagem PSA. Este último indica um nível adequado de proteína produzida pela próstata no sangue.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;Assim, é por meio de ações como a da Sepa que se promove conscientização e pode-se combater o medo e o preconceito que muitos homens possuem e, por isso, não se submetem aos exames necessários.&lt;/p&gt;
+&lt;figure id="attachment_585724" aria-describedby="caption-attachment-585724" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585724 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.04-2.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585724" class="wp-caption-text"&gt;Titular da pasta da Sepa, Edivan Azevedo, e servidores. Foto: cedida.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://agencia.ac.gov.br/servidores-da-sepa-participam-de-palestra-que-encerra-campanha-do-novembro-azul/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>18:14:54</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Governo conclui primeira etapa da obra na Unidade Mista de Saúde da Vila Santa Luzia</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Os investimentos que o Estado tem realizado em infraestrutura nos 22 municípios do Acre geram postos de trabalho e melhorias nos serviços prestados pelos órgãos públicos. Em virtude disto, o governo, por meio da Secretaria de Estado de Infraestrutura (Seinfra), possui olhar cuidadoso para as benfeitorias dos prédios na área de Saúde, a saber, a Unidade Mista de Saúde da comunidade Santa Luzia, que atualmente passa por reforma e ampliação, em Cruzeiro do Sul.&lt;/p&gt;
 &lt;figure id="attachment_585649" aria-describedby="caption-attachment-585649" style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585649 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585649" class="wp-caption-text"&gt;Secretário de Infraestrutura dialoga com servidores da Unidade sobre os benefícios da obra. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
@@ -2102,34 +2207,34 @@
 </t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://agencia.ac.gov.br/governo-conclui-primeira-etapa-da-obra-na-unidade-mista-de-saude-da-vila-santa-luzia/</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>18:06:23</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Inscrições para o concurso de redação e poesia encerram nesta sexta-feira</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Os gestores e professores das escolas públicas de todo o estado tem até amanhã, 2 de dezembro, para inscrever seus alunos no Concurso de Redação e Poesia promovido pelo governo do Acre, por meio da Fundação Elias Mansour (FEM).&lt;/p&gt;
 &lt;p&gt;O Concurso de Redação e Poesia, com a temática Diversidade e Cultura, foi lançado no dia 7 de novembro na filmoteca da Biblioteca Pública de Rio Branco, e tem por objetivo incentivar a escrita e a leitura.&lt;/p&gt;
@@ -2143,34 +2248,34 @@
 </t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://agencia.ac.gov.br/inscricoes-para-o-concurso-de-redacao-e-poesia-encerram-nesta-sexta-feira/</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>17:53:25</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Alunos e professores da Emac e da Ufac se apresentam na Semana da Música</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O palco é um local mágico. Quem nunca se imaginou nele? Cantar, dançar, tocar, atuar, falar, adorar, testemunhar, ensinar, entre tantas possibilidades. No entanto, ocorre algo comum em todos esses atos. Sabe o que é? É o popular friozinho na barriga.&lt;/p&gt;
 &lt;p&gt;Tal sensação sempre está no roteiro, independente da experiência de quem se apresenta. Porém, tudo deve ser enfrentado com um sorriso, pois o show deve acontecer e sempre continuar. Assim aconselha Freddie Mercury, na música The Show Must Go On, da banda britânica Queen.&lt;/p&gt;
@@ -2191,93 +2296,93 @@
 &lt;figure id="attachment_585611" aria-describedby="caption-attachment-585611" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585611 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-1024x683.jpg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG_9829-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585611" class="wp-caption-text"&gt;Os docentes da Escola de Música do Acre também tocaram na terceira noite do festival. Foto: Mardilson Gomes/SEE&lt;/figcaption&gt;&lt;/figure&gt;
 &lt;p&gt;A Semana de Música no Acre é uma parceria do governo do Estado, por meio da Secretaria de Estado de Educação, Cultura e Esportes (See), do Curso de Música da Ufac, do grupo Moças do Samba e da Fundação Municipal de Cultura Garibaldi Brasil (FGB).&lt;/p&gt;
 &lt;p&gt;&lt;a href="https://agencia.ac.gov.br/semana-da-musica-no-acre-comeca-nesta-segunda-feira-em-rio-branco/"&gt;Clique aqui e confira a programação.&lt;/a&gt;&lt;/p&gt;
-&lt;div id='gallery-1' class='gallery galleryid-585604 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
+&lt;div id='gallery-3' class='gallery galleryid-585604 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920173103/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585628" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-1024x681.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-768x511.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-1536x1022.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920173103/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585628" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-1024x681.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-768x511.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-1536x1022.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173103-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585628'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585628'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920173114/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585626" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920173114/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585626" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920173114-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585626'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585626'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979240/'&gt;&lt;img width="300" height="294" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-300x294.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585622" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-300x294.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-1024x1003.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-768x752.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-1536x1504.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979240/'&gt;&lt;img width="300" height="294" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-300x294.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585622" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-300x294.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-1024x1003.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-768x752.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-1536x1504.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979240-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585622'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585622'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979256/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585620" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-1024x681.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-768x511.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-1536x1022.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979256/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585620" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-1024x681.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-768x511.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-1536x1022.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979256-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585620'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585620'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979249/'&gt;&lt;img width="300" height="233" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-300x233.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585621" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-300x233.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-1024x796.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-768x597.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-1536x1194.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919979249/'&gt;&lt;img width="300" height="233" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-300x233.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585621" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-300x233.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-1024x796.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-768x597.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-1536x1194.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919979249-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585621'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585621'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920102915/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585623" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920102915/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-300x200.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585623" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-scaled.jpg 2048w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102915-855x572.jpg 855w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585623'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585623'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920102924/'&gt;&lt;img width="300" height="182" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-300x182.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585624" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-300x182.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-1024x620.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-768x465.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-1536x930.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669920102924/'&gt;&lt;img width="300" height="182" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-300x182.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585624" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-300x182.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-1024x620.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-768x465.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-1536x930.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669920102924-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585624'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585624'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919897758/'&gt;&lt;img width="300" height="180" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-300x180.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585613" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-300x180.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-1024x614.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-768x460.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-1536x921.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919897758/'&gt;&lt;img width="300" height="180" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-300x180.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585613" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-300x180.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-1024x614.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-768x460.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-1536x921.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919897758-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585613'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585613'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
 			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919658033/'&gt;&lt;img width="300" height="152" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-300x152.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-1-585614" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-300x152.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-1024x519.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-768x389.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-1536x778.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
+				&lt;a href='https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/attachment/1669919658033/'&gt;&lt;img width="300" height="152" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-300x152.jpg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585614" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-300x152.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-1024x519.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-768x389.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-1536x778.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1669919658033-scaled.jpg 2048w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
 			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-1-585614'&gt;
+				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585614'&gt;
 				Foto: Mardilson Gomes/SEE
 				&lt;/figcaption&gt;&lt;/figure&gt;
 		&lt;/div&gt;
 </t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://agencia.ac.gov.br/alunos-e-professores-da-emac-e-da-ufac-se-apresentam-na-semana-da-musica/</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>17:22:28</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>No Dezembro Vermelho, Saúde do Acre inicia campanha de conscientização e prevenção ao HIV/Aids</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com foco no combate à desinformação, preconceito e discriminação para com a pessoa vivendo com HIV, a Secretaria de Estado de Saúde (Sesacre) lança a programação do Dezembro Vermelho, mês voltado para a prevenção do HIV/Aids. Mundialmente, o dia 1° de dezembro é lembrado pela realização de atividades alusivas à luta contra a doença.&lt;/p&gt;
 &lt;figure id="attachment_585669" aria-describedby="caption-attachment-585669" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585669 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-768x576.jpeg 768w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585669" class="wp-caption-text"&gt;Ação realizada pelo município de Rio Branco, em frente ao Colégio Acreano. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
@@ -2292,302 +2397,9 @@
 </t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://agencia.ac.gov.br/no-dezembro-vermelho-saude-do-acre-inicia-campanha-de-conscientizacao-e-prevencao-ao-hiv-aids/</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>17:17:07</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Participantes do Programa Abear chegam para mostrar potencial turístico do Acre</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Os influenciadores digitais Carina Furlanetto, João Paulo Mileski, Paulo Henrique Silva e Ricardo Nascimento que circulam o Brasil mostrando as potencialidades turísticas de cada estado e suas cidades, chegaram ao Acre nesta última quarta-feira, 30, na região do Juruá, para mostrar as belezas naturais que o trade turístico do local possui.&lt;/p&gt;
-&lt;p&gt;Por meio da Associação Brasileira das Empresas Áreas (Abear) com o Programa Voe Gol, os influenciadores visitam os estados mostrando suas principais características e atrações turísticas dos lugares. O primeiro dia foi marcado para que eles conhecessem as belezas do Croa com seu rio atapetado pelas vitórias-régias e uma espécie de alga característica do local, assim como a gastronomia e a busca espiritual, de grande interesse dos estrangeiros.&lt;/p&gt;
-&lt;figure id="attachment_585596" aria-describedby="caption-attachment-585596" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585596 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032-1024x461.jpg" alt="" width="1024" height="461" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032-1024x461.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032-300x135.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032-768x346.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032-1536x692.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0032.jpg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585596" class="wp-caption-text"&gt;Carina Furlanetto, uma das influenciadoras experimenta o rapé. Foto Giovane Costa/Seet&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;“Já estamos apaixonados pelo Acre, pois desde que chegamos ao estado, ficamos encantados pelas belezas e receptividades das pessoas. A parceria entre a Abear, Gol Linhas aéreas e a Secretaria de Turismo nos possibilitou conhecer esse lugar fascinante. Acreditamos que o mundo precisa explorar o potencial turístico do estado do Acre, e olha que foi só o primeiro dia”, disse Ricardo Nascimento&lt;strong&gt;, &lt;/strong&gt;do perfil Ricks pelo Mundo.&lt;/p&gt;
-&lt;p&gt;Para o turismólogo Francismay da Costa, esse tipo de parceria e busca por conhecer o estado do Acre é fruto do trabalho que a Secretaria de Estado de Empreendedorismo e Turismo (Seet) desenvolve ao longo dos anos e passou a ser notada ainda mais neste ano.&lt;/p&gt;
-&lt;p&gt;“Com a retomada das atividades turísticas em todo o Brasil, tornou-se possível mostrar os potencias do Acre, assim como o trabalho que vem sendo feito nos últimos anos e tão divulgado nesse ano, um trabalho coletivo de todos os servidores da secretaria”, enfatizou Francismay.&lt;/p&gt;
-&lt;figure id="attachment_585594" aria-describedby="caption-attachment-585594" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585594 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049-1024x768.jpg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049-1536x1152.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221130-WA0049.jpg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585594" class="wp-caption-text"&gt;Influenciadores acompanhados dos turismólogos, conhecendo o Croa. Foto: Giovane Costa/Seet&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Nesta quinta-feira está programado apresentar a cidade de Cruzeiro do Sul, com suas características através da cultura, gastronomia, comércio, entre outros atrativos, e na sexta-feira todos irão conhecer o Parque Nacional da Serra do Divisor.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/participantes-do-programa-abear-chegam-para-mostrar-potencial-turistico-do-acre/</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17:01:54</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Governo e Prefeitura de Tarauacá iniciam construção do novo cemitério</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O governo do Estado, por meio do Departamento de Estradas de Rodagem do Acre (Deracre), iniciou o serviço de terraplanagem na área onde será construído o novo cemitério municipal de Tarauacá. O terreno de 20 hectares fica localizado nas imediações do Instituto Federal do Acre (Ifac).&lt;/p&gt;
-&lt;figure id="attachment_585585" aria-describedby="caption-attachment-585585" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585585 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM-1024x768.jpeg" alt="" width="1024" height="768" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.24-PM.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585585" class="wp-caption-text"&gt;Equipes atuam em conjunto na construção do novo cemitério. Foto: Ascom/Deracre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Para o presidente do Deracre, Petronio Antunes, esta é uma obra extremamente importante e necessária para Tarauacá.&lt;/p&gt;
-&lt;p&gt;“Estamos seguindo mais uma determinação do governador Gladson Cameli e aqui temos uma obra necessária, a construção de um novo cemitério, considerando que o cemitério municipal está com a capacidade esgotada”, destacou.&lt;/p&gt;
-&lt;p&gt;De acordo com o gerente da Regional Tarauacá-Envira, André Correia, os agentes do Deracre e da prefeitura iniciam com serviços de troca de solo, camadas de pavimento, como subleito, sub-base, base e drenagem.&lt;/p&gt;
-&lt;p&gt;“Estamos trabalhando em conjunto na construção desse novo espaço e os agentes atuam para garantir um ambiente mais acolhedor e digno”, destacou.&lt;/p&gt;
-&lt;figure id="attachment_585586" aria-describedby="caption-attachment-585586" style="width: 740px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585586 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/e960f9_f33a02d8dbac4e4c83a68c23c3f35157_mv2.webp" alt="" width="740" height="555" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/e960f9_f33a02d8dbac4e4c83a68c23c3f35157_mv2.webp 740w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/e960f9_f33a02d8dbac4e4c83a68c23c3f35157_mv2-300x225.webp 300w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585586" class="wp-caption-text"&gt;Obra conta com emenda do deputado federal Jesus Sérgio. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Segundo a prefeita Maria Lucinéia Nery, a área adquirida é fruto de emenda parlamentar do deputado federal Jesus Sérgio de Menezes, no montante de R$ 400 mil.&lt;/p&gt;
-&lt;p&gt;Com a diminuição dos espaços para a construção de novas alas no cemitério da cidade, Maria Lucinéia ressalta que a construção do novo espaço demonstra o empenho da prefeitura e do governo em garantir às famílias taraucaenses um espaço de guarda, de memória e de oração aos seus entes queridos.&lt;/p&gt;
-&lt;figure id="attachment_585587" aria-describedby="caption-attachment-585587" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585587 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.27-PM-e1669920181887-1024x846.jpeg" alt="" width="1024" height="846" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.27-PM-e1669920181887-1024x846.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.27-PM-e1669920181887-300x248.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.27-PM-e1669920181887-768x635.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.40.27-PM-e1669920181887.jpeg 1452w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585587" class="wp-caption-text"&gt;Em parceria, Deracre atua na execução do serviço de terraplanagem. Foto: Ascom/Deracre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;“Esse serviço mostra que a nossa gestão está empenhada em resolver os problemas estruturantes da nossa cidade. Com fé, amor e planejamento, seguimos trabalhando pela nossa população que tanto merece”, afirmou a prefeita.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/governo-e-prefeitura-de-tarauaca-iniciam-construcao-do-novo-cemiterio/</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>16:44:59</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Moças do Samba se apresentam nesta sexta-feira no Cine Teatro Recreio</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;A data de 2 de dezembro comemora o Dia Nacional do Samba e, para exaltar esse gênero musical no Acre, o grupo Moças do Samba inicia o projeto Samba das Moças.&lt;/p&gt;
-&lt;p&gt;Com entrada gratuita, o grupo promove na sexta-feira, 2, às 19h, no saguão do Cine Teatro Recreio, um show de samba de roda e samba carioca, com os principais enredos que compõem a história e a identidade musical do país.&lt;/p&gt;
-&lt;figure id="attachment_585549" aria-describedby="caption-attachment-585549" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585549 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-1024x682.jpeg" alt="" width="1024" height="682" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585549" class="wp-caption-text"&gt;O grupo é composto por Narjara Saab, Sandra Buh e Carol Di Deus . Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O projeto é financiado por meio do Fundo Municipal de Cultura de Rio Branco e conta com o apoio da Fundação Elias Mansour (FEM) na realização do evento.&lt;/p&gt;
-&lt;p&gt;“Amanhã iniciaremos esse lindo projeto, fazendo uma grande homenagem a esse ritmo genuinamente brasileiro. O projeto Samba das Moças prevê a realização de três shows culturais didáticos, com foco no ritmo samba e abordando temáticas como a história do surgimento do samba, a participação da mulher na construção do samba como ritmo musical e os carnavais das décadas de 30 e 40”, explica a cantora e integrante do grupo Moças do Samba, Carol Di Deus.&lt;/p&gt;
-&lt;p&gt;A artista acrescenta ainda que essa apresentação também irá compor a Semana da Música, que está sendo organizada pelo curso de Música da Universidade Federal do Acre (Ufac) e Escola de Música do Acre, com apoio da FEM. Os próximos shows do projeto estão previstos para o dia 22 de fevereiro e 11 de março, na Semana da Mulher.&lt;/p&gt;
-&lt;div id='gallery-2' class='gallery galleryid-585512 gallery-columns-2 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/mocas-do-samba-se-apresentam-nesta-sexta-feira-no-cine-teatro-recreio/whatsapp-image-2022-12-01-at-13-58-52/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585550" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1024x684.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-768x513.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1536x1025.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585550'&gt;
-				Foto: Cedida
-				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/mocas-do-samba-se-apresentam-nesta-sexta-feira-no-cine-teatro-recreio/whatsapp-image-2022-12-01-at-13-58-30-1/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585549" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585549'&gt;
-				Foto: Cedida
-				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/mocas-do-samba-se-apresentam-nesta-sexta-feira-no-cine-teatro-recreio/whatsapp-image-2022-12-01-at-13-58-30/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585548" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.30.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585548'&gt;
-				Foto: Cedida
-				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/mocas-do-samba-se-apresentam-nesta-sexta-feira-no-cine-teatro-recreio/whatsapp-image-2022-12-01-at-13-58-52-1/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-2-585547" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-1024x684.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-768x513.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-1536x1025.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-13.58.52-1.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-2-585547'&gt;
-				Foto: Cedida
-				&lt;/figcaption&gt;&lt;/figure&gt;
-		&lt;/div&gt;
-</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/mocas-do-samba-se-apresentam-nesta-sexta-feira-no-cine-teatro-recreio/</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>16:34:57</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Programa REM realiza oficina de planejamento das ações de Comando e Controle para 2023</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p style="text-align: left;"&gt;&lt;em&gt;&lt;span style="font-weight: 400;"&gt;Por Arinelson Morais&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;Entre os dias 29 e 30 de novembro, a equipe da Unidade de Coordenação do Programa REM Acre Fase II, com o apoio da Emboé Consultoria, realizou a oficina virtual de planejamento das ações de Comando e Controle do Estado do Acre para o ano de 2023.&lt;/p&gt;
-&lt;figure id="attachment_585555" aria-describedby="caption-attachment-585555" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585555 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1-1024x676.jpeg" alt="" width="1024" height="676" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1-1024x676.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1-300x198.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1-768x507.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1-1536x1014.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-13.27.39-1.jpeg 1600w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585555" class="wp-caption-text"&gt;O Programa REM Acre Fase II apoia na coordenação das ações integradas, acompanhando os resultados e articulando a logística necessária para os órgãos. Foto: Mayara Montenegro/REM&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O Comando e o Controle são instrumentos usados para garantir o cumprimento das leis ambientais que estabelecem a fiscalização e punição para as condutas que descumprem a legislação ambiental, que leva à necessidade de organizar equipamentos fiscalizadores para o seu cumprimento. No Acre, a estratégia de comando e controle é o principal instrumento para o combate ao desmatamento, envolvendo os órgãos de gestão ambiental e da segurança pública.&lt;/p&gt;
-&lt;p&gt;Em 2022 a atuação dos órgãos foi realizada de forma integrada, por meio de um planejamento operacional, unindo os órgãos estaduais e federais. Foram mais de 50 operações integradas envolvendo o Instituto de Meio Ambiente do Acre (Imac), a Secretaria de Estado de Meio Ambiente e Políticas Indígenas (Semapi), o Instituto Brasileiro do Meio Ambiente e dos Recursos Naturais Renováveis (Ibama), o Instituto Chico Mendes de Conservação da Biodiversidade (ICMBio), o Centro Integrado de Operações Aéreas (Ciopaer), o Instituto Nacional de Colonização e Reforma Agrária (Incra) e a Polícia Militar, com o Batalhão Ambiental (BPA).&lt;/p&gt;
-&lt;p&gt;O foco para o ano de 2023 é reforçar a estrutura integrada entre os órgãos para que as operações sejam conjuntas, otimizando recursos e a logística, que é necessária nas ações de combate ao desmatamento. Além disso, o esforço será para criar grupos técnicos que analisem dados e informações georreferenciadas, para acelerar as análises das áreas críticas de desmatamento.&lt;/p&gt;
-&lt;p&gt;Para a coordenadora-geral do Programa REM Acre, Roseneide Sena, essa oficina é de extrema importância para obter garantia de resultados mais positivos: “A nossa estratégia é unir os esforços dos órgãos ambientais, realizando operações articuladas e integradas, visando o cumprimento da legislação ambiental no estado e combatendo de forma efetiva o desmatamento ilegal&amp;#8221;.&lt;/p&gt;
-&lt;figure id="attachment_585557" aria-describedby="caption-attachment-585557" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585557 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM-1024x606.jpeg" alt="" width="1024" height="606" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM-1024x606.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM-300x178.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM-768x455.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM-306x181.jpeg 306w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-29-at-1.17.17-PM.jpeg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585557" class="wp-caption-text"&gt;A oficina de planejamento da Unidade de Comando e Controle tem como objetivo integrar as ações dos órgãos ambientais no combate ao desmatamento. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Estiveram presentes os representantes das secretarias de Planejamento e Gestão (Seplag), da Casa Civil (SECC), de Meio Ambiente e das Políticas Indígenas (Semapi), de Produção e Agronegócio (Sepa), do Instituto de Meio Ambiente do Acre (Imac), do Batalhão de Policiamento Ambiental (BPA), do Corpo de Bombeiros Militar do Estado do Acre (CBM/AC), do Centro Integrado de Operações Aéreas (Sejusp/Ciopaer), do Ministério Público do Estado do Acre (MPAC), do Instituto de Terras do Acre (Iteracre), da Polícia Civil (PC/AC), da Prefeitura de Rio Branco, no âmbito da Secretaria de Desenvolvimento Urbanístico, do Instituto Chico Mendes de Conservação da Biodiversidade (ICMBio), do Instituto Brasileiro do Meio Ambiente e dos Recursos Naturais Renováveis (Ibama), da Fundação Nacional do Índio (Funai), do Instituto Nacional de Colonização e Reforma Agrária (Incra) e da Polícia Federal (PF).&lt;/p&gt;
-&lt;p&gt;O Programa REM Acre Fase II apoia na coordenação das ações integradas e na organização das agendas das operações de campo, acompanhando os resultados e articulando a logística necessária para os órgãos, incluindo a alocação de recursos financeiros.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/programa-rem-realiza-oficina-de-planejamento-das-acoes-de-comando-e-controle-para-2023/</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>16:14:17</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Deracre firma parceria e oferece exames para servidores da Usina em Rio Branco</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O Departamento Estadual de Estradas de Rodagem do Acre (Deracre), por meio do setor de Assistência Social da autarquia, em parceria com a Unidade Básica de Saúde (UBS) Francisco Eduardo de Paiva, ofereceu exames aos seus servidores e também aos trabalhadores terceirizados da Usina do Deracre, em Rio Branco.&lt;/p&gt;
-&lt;figure id="attachment_585556" aria-describedby="caption-attachment-585556" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585556 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.05-AM-1024x683.jpeg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.05-AM-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.05-AM-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.05-AM-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.05-AM.jpeg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585556" class="wp-caption-text"&gt;Mais de 200 colaboradores foram atendidos. Foto: Egídio Roque/Deracre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Para o presidente do Deracre, Petronio Antunes, é prioridade também da autarquia, o cuidado com a saúde dos servidores e, pensando nisso, foi realizada essa parceria para ofertar exames aos colaboradores.&lt;/p&gt;
-&lt;p&gt;“Cuidamos das obras, mas também é preciso cuidar de quem trabalha, e hoje trouxemos uma equipe de saúde para garantir o acesso aos exames e também conscientizar sobre a importância de cuidar da saúde”, enfatizou.&lt;/p&gt;
-&lt;figure id="attachment_585559" aria-describedby="caption-attachment-585559" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585559 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1-1024x683.jpeg" alt="" width="1024" height="683" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1.jpeg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585559" class="wp-caption-text"&gt;Equipe de Saúde da UBS Francisco Eduardo Paiva atendeu colaboradores. Foto: Egídio Roque/Deracre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;De acordo com a chefe do Setor de Assistência Social do Deracre, Solange Maria Rodrigues, a iniciativa visa garantir a segurança e a saúde dos trabalhadores. A ação atendeu cerca de 200 servidores que atuam na Usina do Deracre.&lt;/p&gt;
-&lt;p&gt;“É uma forma de garantirmos mais saúde e segurança para os trabalhadores”, afirmou.&lt;/p&gt;
-&lt;p&gt;A equipe de profissionais da UBS realizou testes rápidos, além de vacinação contra a febre amarela, covid-19 e tríplice viral.&lt;/p&gt;
-&lt;div id='gallery-3' class='gallery galleryid-585554 gallery-columns-3 gallery-size-medium'&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/deracre-firma-parceria-e-oferece-exames-para-servidores-da-usina-em-rio-branco/whatsapp-image-2022-12-01-at-10-02-09-am/'&gt;&lt;img width="300" height="135" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.09-AM-300x135.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585560" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.09-AM-300x135.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.09-AM-1024x461.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.09-AM-768x346.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.09-AM.jpeg 1280w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585560'&gt;
-				Foto: Egídio Roque/Deracre
-				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/deracre-firma-parceria-e-oferece-exames-para-servidores-da-usina-em-rio-branco/whatsapp-image-2022-12-01-at-10-02-10-am/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585561" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.10-AM.jpeg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585561'&gt;
-				Foto: Egídio Roque/Deracre
-				&lt;/figcaption&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
-			&lt;div class='gallery-icon landscape'&gt;
-				&lt;a href='https://agencia.ac.gov.br/deracre-firma-parceria-e-oferece-exames-para-servidores-da-usina-em-rio-branco/whatsapp-image-2022-12-01-at-10-02-06-am/'&gt;&lt;img width="300" height="200" src="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM-300x200.jpeg" class="attachment-medium size-medium" alt="" decoding="async" loading="lazy" aria-describedby="gallery-3-585562" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM-1024x683.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM-855x572.jpeg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.02.06-AM.jpeg 1200w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;
-			&lt;/div&gt;
-				&lt;figcaption class='wp-caption-text gallery-caption' id='gallery-3-585562'&gt;
-				Foto: Egídio Roque/Deracre
-				&lt;/figcaption&gt;&lt;/figure&gt;
-		&lt;/div&gt;
-</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/deracre-firma-parceria-e-oferece-exames-para-servidores-da-usina-em-rio-branco/</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>15:58:29</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Em um ano, desmatamento cai 4,72% no Acre</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;em&gt;Por Rose Sena&lt;/em&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;De acordo com dados divulgados pelo Projeto de Monitoramento do Desmatamento na Amazônia Legal por Satélite (Prodes), do Instituto Nacional de Pesquisas Espaciais (Inpe), a área desmatada no Acre, entre 1º de agosto de 2021 e 31 de julho de 2022, foi de 847 quilômetros quadrados, redução de 4,72% em comparação com o mesmo período anterior.&lt;/p&gt;
-&lt;figure id="attachment_585637" aria-describedby="caption-attachment-585637" style="width: 1024px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585637 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/EE586F60-A3B2-4734-B7FA-53EF148C6EBB.jpeg" alt="" width="1024" height="576" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/EE586F60-A3B2-4734-B7FA-53EF148C6EBB.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/EE586F60-A3B2-4734-B7FA-53EF148C6EBB-300x169.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/EE586F60-A3B2-4734-B7FA-53EF148C6EBB-768x432.jpeg 768w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585637" class="wp-caption-text"&gt;Entre julho de 2021 e agosto de 2022, Acre reduziu desmatamento em 4,72%. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Os números são reflexo da estratégia de integração de ações que o Estado adotou no período, juntamente com os esforços do Programa REM Acre fase II e da Operação Guardiões do Bioma, do governo federal.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;O Programa REM alocou recursos para as operações, integrando vários órgãos estaduais e federais, por meio da Unidade de Comando e Controle, disponibilizando combustível, manutenção de veículos e pagamento de diárias aos servidores. Somente em 2022, foram realizadas mais de 50 ações de fiscalização ambiental em várias regiões acreanas. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Entre julho e outubro deste ano foram fiscalizadas 1.113 áreas, totalizando mais de 11 mil hectares. Segundo dados fornecidos pelo Batalhão de Policiamento Ambiental (BPA), da Polícia Militar, as apreensões atingiram mais de 220 metros cúbicos de madeira, sete máquinas pesadas, 31 motosserras e 44 autuações em flagrante.&lt;/span&gt;&lt;/p&gt;
-&lt;figure id="attachment_585636" aria-describedby="caption-attachment-585636" style="width: 768px" class="wp-caption aligncenter"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585636 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/1F264DCB-8DC9-4733-AA0E-F32897F5BC7B.jpeg" alt="" width="768" height="1024" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/1F264DCB-8DC9-4733-AA0E-F32897F5BC7B.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/1F264DCB-8DC9-4733-AA0E-F32897F5BC7B-225x300.jpeg 225w" sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585636" class="wp-caption-text"&gt;Máquina apreendida durante operação de combate ao desmatamento ilegal da floresta. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;O Acre foi o quinto estado da Amazônia Legal que menos desmatou a floresta. Para que os índices sigam em queda, os esforços continuam na implementação de estratégias ampliadas de comando e controle, e de prevenção ao desmatamento e queimadas.&lt;/span&gt;&lt;/p&gt;
-&lt;h4&gt;Mais ações para 2023&lt;/h4&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Nos dias 29 e 30 de novembro, a Unidade Integrada de Comando e Controle, do Programa REM, realizou oficinas de planejamento operacional para 2023, reunindo todos os órgãos de fiscalização, gestão e segurança pública estaduais, federais e do município de Rio Branco. Esse planejamento resultou em uma agenda integrada, com a definição das operações envolvendo todos os órgãos, indicando os territórios prioritários de ação e destinação de recursos. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Além disso, na próxima semana ocorrerão as oficinas de finalização da revisão do Plano de Prevenção e Controle de Desmatamento e Queimadas do Acre (PPCDQ-AC). Na oportunidade, será definida a meta de redução do desmatamento para os próximos quatro anos. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;O Programa REM é resultado de cooperação financeira entre os governos do Acre, da Alemanha e do Reino Unido, para implementação de projetos voltados à conservação das florestas que, por meio de diversos órgãos, beneficiam milhares de produtores rurais, ribeirinhos, extrativistas e indígenas. A sigla REM significa REDD Early Movers, em português REDD+ para pioneiros.&lt;/span&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://agencia.ac.gov.br/em-um-ano-desmatamento-cai-472-no-acre/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,20 +2411,147 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>09:31:27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Morre jovem baleado na cabeça em suposto confronto em Sena Madureira</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;a href="https://nahoradanoticia.com.br/policia/em-sena-madureira-suposto-confronto-entre-faccoes-deixa-dois-jovens-em-estado-grave/"&gt;O jovem Gabriel Silva, que foi um dos atingidos durante suposto confronto entre facções rivais, na manhã desta quinta-feira, 01, no bairro Ana Vieira, em Sena Madureira (AC), faleceu ainda nesta tarde antes que fosse transferido para o Pronto-Socorro da capital acreana.&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Saiba mais: Em Sena Madureira, suposto confronto entre facções deixa dois jovens em estado grave&lt;/p&gt;
+&lt;p&gt;Segundo apurado pela equipe do Na Hora da Notícia após o suposto confronto Gabriel ficou em estado grave ao ser alvejado com um tiro na região da cabeça e foi encaminhado pelo Serviço de Atendimento Móvel de Urgência (SAMU) para o hospital João Câncio Fernandes.&lt;/p&gt;
+&lt;p&gt;Devido ao estado delicado do jovem, um helicóptero de pronto atendimento se deslocou ao local para encaminhar Gabriel ao Pronto-Socorro de Rio Branco (AC). A equipe aguardou que a vítima tivesse reação para poder fazer a transferência. Porém sem reação, Silva faleceu, por volta das 16h, ainda na unidade de saúde de Sena Madureira.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/policia/morre-jovem-baleado-na-cabeca-em-suposto-confronto-em-sena-madureira/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/a7b81805-0ede-417d-a2e2-a4784584.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>09:25:59</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Governo recua e desbloqueia verba de instituições federais, diz associação</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;A Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior (Andifes) afirmou nesta quinta-feira (1º) que o Ministério da Educação (MEC) desbloqueou os R$ 366 milhões do orçamento das universidades e institutos federais que haviam sido congelados três dias atrás.&lt;/p&gt;
+&lt;p&gt;A informação também foi confirmada pelo Conselho Nacional das Instituições da Rede Federal de Educação Profissional, Científica e Tecnológica (Conif).&lt;/p&gt;
+&lt;p&gt;Essa tinha sido a terceira interferência do governo Bolsonaro na verba do ensino superior neste ano.&lt;/p&gt;
+&lt;p&gt;O recuo aconteceu após intensa repercussão negativa. Reitores de universidades federais como de Juiz de Fora (UFJF), de Viçosa (UFV) e de Uberlândia (UFU), em Minas Gerais, por exemplo, mencionaram o risco de suspensão de atividades acadêmicas e administrativas, além de fechamento de setores e de atraso de pagamento de bolsas a estudantes.&lt;/p&gt;
+&lt;p&gt;A Andifes chegou a dizer que os contingenciamentos aconteceram “praticamente no apagar das luzes do exercício orçamentário de 2022”, e a União Nacional dos Estudantes (UNE) pediu respeito à educação brasileira.&lt;/p&gt;
+&lt;p&gt;O dinheiro das universidades e institutos federais que havia sido bloqueado é destinado ao pagamento de despesas como contas de luz e de água, bolsas de estudo e empregados terceirizados.&lt;/p&gt;
+&lt;p&gt;Procurado pelo g1, o MEC não havia se manifestado sobre a liberação dos recursos até a última atualização desta reportagem.&lt;/p&gt;
+&lt;p&gt;Quando houve o bloqueio, a pasta divulgou uma nota só no dia seguinte sem dar muitos detalhes e dizendo que havia sido notificada pelo Ministério da Economia a respeito do congelamento e que buscava “soluções”. A equipe econômica, por sua vez, tinha dito que iria rever o Orçamento em dezembro.&lt;/p&gt;
+&lt;p&gt;Em nota divulgada após a liberação dos recursos, a Andifes afirmou que “seguirá atenta aos riscos de novos cortes e bloqueios” e manterá diálogo com o Congresso Nacional, governo, sociedade civil e a equipe de transição do governo eleito “para a construção de orçamento e políticas necessárias para a manutenção e o justo financiamento do ensino superior público”.&lt;/p&gt;
+&lt;p&gt;A entidade acrescentou ainda que as “universidades federais continuam no aguardo da restituição do valor de R$ 438 milhões, bloqueado em junho deste ano”.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Entenda os reveses na verba da Educação&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O primeiro revés nos recursos da área aconteceu ainda em janeiro, quando o presidente Jair Bolsonaro (PL) sancionou o Orçamento de 2022. A fatia da educação perdeu R$ 739,9 milhões do total de R$ 113,4 bilhões que tinham sido aprovados pelo Congresso em dezembro de 2021.&lt;/p&gt;
+&lt;p&gt;De acordo com informações obtidas pelo g1, o orçamento atual da pasta é de R$ 166,1 bilhões. O valor pode aumentar ao longo do ano com o remanejamento de verbas de outros setores, por meio de créditos extraordinários. Do total da pasta, a previsão era que R$ 52,9 bilhões fossem direcionados às universidades federais.&lt;/p&gt;
+&lt;p&gt;Em resumo, há três marcos negativos na gestão do Orçamento de Educação ao longo do ano:&lt;/p&gt;
+&lt;p&gt;Junho: corte de R$ 1,6 bilhão no MEC; para universidades e institutos federais, o valor retirado foi de R$ 438 milhões;&lt;br /&gt;
+Outubro: bloqueio temporário de R$ 328,5 milhões para universidades e institutos; verba foi liberada posteriormente;&lt;br /&gt;
+Novembro: congelamento de R$ 366 milhões, considerando recursos de universidades e institutos federais, sob a justificativa de respeitar a chamada regra do teto de gastos, que limita os gastos públicos. O dinheiro foi liberado nesta quinta.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Linha do tempo do corte e dos bloqueios&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Após a sanção do Orçamento deste ano, o primeiro susto para reitores veio em junho, depois de um bloqueio inicial de 14,5% do Orçamento da Educação. Nos dias seguintes, o bloqueio foi reduzido a 7,2%, que foi repassado às universidades e institutos federais.&lt;/p&gt;
+&lt;p&gt;Entretanto, o que começou como um bloqueio terminou como corte, já que o valor não foi devolvido às instituições. Apenas na educação superior (universidades e institutos), a redução foi de R$ 438 milhões.&lt;/p&gt;
+&lt;p&gt;Em outubro, o MEC sofreu um novo bloqueio, desta vez de R$ 1 bilhão, após o governo anunciar um contingenciamento de R$ 2,6 bilhões que foi repassado aos ministérios. Na ocasião, foram bloqueados R$ 328 milhões das universidades federais. O valor foi liberado posteriormente, depois de o ministério realocar verbas internamente.&lt;/p&gt;
+&lt;p&gt;No início desta semana, houve um novo congelamento, no valor de R$ 366 milhões, que foi liberado nesta quinta.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/geral/governo-recua-e-desbloqueia-verba-de-instituicoes-federais-diz-associacao/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/mec-jpg.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00:37:13</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Motociclista perde controle, bate em muro e fica ferido em ramal em Rio Branco</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Valdeonor Pereira da Silva, 40 anos, ficou ferido após sofrer um acidente na noite desta quinta-feira (1°), no ramal São João, no bairro Apolônio Sales, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações de populares, Valdeonor estava trafegando em uma motocicleta modelo Yamaha YBR 125, de cor prata e placa MZT-2291, no sentido centro-bairro, quando perdeu o controle e invadiu a pista contrária. A moto subiu na calçada e colidiu contra um muro, e Valdeonor bateu a cabeça e desmaiou.&lt;/p&gt;
+&lt;p&gt;O Serviço de Atendimento Móvel de Urgência (Samu) foi acionado e Valdeonor foi encaminhado ao pronto-socorro de Rio Branco em estado de saúde estável. A vítima estava com sinais de embriaguez.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do Batalhão de Trânsito não foram acionados para a ocorrência. A moto da vítima foi removida por terceiros do local.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone size-full wp-image-366390" src="https://nahoradanoticia.com.br/wp-content/uploads/2022/12/BD3EA7E9-57FF-4DF5-9A0A-45A18B25D67C.jpeg" alt="" width="960" height="540" srcset="https://nahoradanoticia.com.br/wp-content/uploads/2022/12/BD3EA7E9-57FF-4DF5-9A0A-45A18B25D67C.jpeg 960w, https://nahoradanoticia.com.br/wp-content/uploads/2022/12/BD3EA7E9-57FF-4DF5-9A0A-45A18B25D67C-300x169.jpeg 300w, https://nahoradanoticia.com.br/wp-content/uploads/2022/12/BD3EA7E9-57FF-4DF5-9A0A-45A18B25D67C-768x432.jpeg 768w, https://nahoradanoticia.com.br/wp-content/uploads/2022/12/BD3EA7E9-57FF-4DF5-9A0A-45A18B25D67C-750x422.jpeg 750w" sizes="(max-width: 960px) 100vw, 960px" /&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/policia/motociclista-perde-controle-bate-em-muro-e-fica-ferido-em-ramal-em-rio-branco/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/22A8F00D-9BAB-4957-92C9-255F9B82F993.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>21:41:41</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Dourada, gigante e com piano: a sala da mansão de Carla Perez e Xanddy é maior que muita casa</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Carla Perez é a famosa loira do Tchan, mas ela não ganhou a fama apenas por ser dançarina desse grupo de axé, Seu talento fez com que a musa conquistasse o coração de grande parte dos brasileiros.&lt;/p&gt;
 &lt;p&gt;Casada com Xanddy, Carla Perez mora em luxuosa mansão que conta com detalhes impressionantes, de deixar qualquer um de boca aberta.&lt;/p&gt;
@@ -2621,34 +2560,34 @@
 </t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/dourada-gigante-e-com-piano-a-sala-da-mansao-de-carla-perez-e-xanddy-e-maior-que-muita-casa/</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/Inserir-um-titulo-2022-12-01T000.jpg</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>21:39:34</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Denílson diz o que Luciele Di Camargo fez e assume que tomou susto: “Cheguei em casa, um monte de malas”</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Casados desde 2010, Denílson e Luciele Di Camargo foram um dos casais mais acompanhados no mundo dos famosos. Da relação, os pombinhos tiveram dois filhos, Maria Eduarda, de 12 anos, e Davi, de 7.&lt;/p&gt;
 &lt;p&gt;Mas, apesar de atualmente viverem o melhor desfecho no amor, o início da união teve lá seus altos e baixos. Durante uma entrevista ao podcast de Duda Garbi, no YouTube, o comentarista do Jogo Aberto falou sobre o início da relação com a amada e trouxe à tona uma situação marcante.&lt;/p&gt;
@@ -2658,34 +2597,34 @@
 </t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/denilson-diz-o-que-luciele-di-camargo-fez-e-assume-que-tomou-susto-cheguei-em-casa-um-monte-de-malas/</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/denilson-luciele-2.jpg</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>21:33:52</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Marcio Garcia arranca a camisa, deixa novinhos no chinelo e mostra que aos 52 anos mais parece que tem 30</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O apresentador Marcio Garcia publicou uma foto nas suas redes sociais que deixa qualquer pessoa completamente sem fôlego. Isso porque ele mostrou seu físico aos 52 anos.&lt;/p&gt;
 &lt;p&gt;Na legenda o apresentador escreveu: “Xô preguiça! O coroa tá On ! E vc, tá mantendo sua saúde em dia?”. Nos comentários o público foi ao delírio:.&lt;/p&gt;
@@ -2694,34 +2633,34 @@
 </t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/marcio-garcia-arranca-a-camisa-deixa-novinhos-no-chinelo-e-mostra-que-aos-52-anos-mais-parece-que-tem-30/</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/Inserir-um-titulo-2022-12-01T002.jpg</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>21:32:11</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Eduardo Costa tenta, a todo custo, se desfazer de mansão de R$ 11 milhões após séria acusação e denúncia</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Eduardo Costa, que está tentando se livrar de polêmicas após anos estampando o noticiário, recentemente, voltou a ter seu nome envolvido em uma denúncia de estelionato milionário..&lt;/p&gt;
 &lt;p&gt;Na época que deu origem à denúncia, o cantor sertanejo trocou uma mansão em Capitólio, Minas Gerais, por outra em Belo Horizonte com um casal de idosos. Só que a propriedade de Eduardo Costa no interior de Minas Gerais, estava irregular e agora ele está sendo processado pelos senhoras, que querem seus direitos na Justiça.&lt;/p&gt;
@@ -2732,34 +2671,34 @@
 </t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/eduardo-costa-tenta-a-todo-custo-se-desfazer-de-mansao-de-r-11-milhoes-apos-seria-acusacao-e-denuncia/</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/Eduardo.jpg</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>21:29:28</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Carolina Dieckmann, vítima de crime grave, vem a público e faz apelo comovente: “Doloroso”</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Carolina Dieckmann usou as redes sociais, nesta quarta-feira, dia 30, para fazer um desabafo.&lt;/p&gt;
 &lt;p&gt;Vítima do crime de vazamento de fotos íntimas há uma década, a artista lutou para que fosse criada uma lei que protegesse outras pessoas que viessem a sofrer o mesmo. E assim foi feito, ganhando o nome dela.&lt;/p&gt;
@@ -2769,34 +2708,34 @@
 </t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/carolina-dieckmann-vitima-de-crime-grave-vem-a-publico-e-faz-apelo-comovente-doloroso/</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/carolina-dieckmann.jpg</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>21:27:15</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Na Central da Copa, Jojo quebra protocolo da Globo e comove ao expor o que sofreu após sair da Fazenda, da Record</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Foi ao ar, na madrugada desta quinta-feira, dia 1º, mais uma edição da Central da Copa, com Alex Escobar, Fred e Jojo Todynho.&lt;/p&gt;
 &lt;p&gt;Desta vez, o trio recebeu Mariana Santos como convidada para conversar sobre os jogos no Catar. Em certo momento da atração, um outro assunto veio à tona.&lt;/p&gt;
@@ -2807,34 +2746,34 @@
 </t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/na-central-da-copa-jojo-quebra-protocolo-da-globo-e-comove-ao-expor-o-que-sofreu-apos-sair-da-fazenda-da-record/</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/jojo-todynho.jpg</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>21:08:29</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Filho caçula de Fábio Jr. chocou todo mundo e acabou dando recado amargo ao pai com direta na lata</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O cantor Fábio Jr. se casou sete vezes e tem cinco filhos, dentre eles, a famosa Cleo e o músico Fiuk. Porém, o filho caçula do intérprete de ‘Alma Gêmea’, Záion Alexandre, de 13 anos, chamou atenção com recado amargo ao patriarca há pouco tempo.&lt;/p&gt;
 &lt;p&gt;Apesar de Fábio Jr. ser muito carismático e conquistador diante das câmeras e nos palcos, na vida pessoal, que pouco se sabe, dizem que o cantor romântico não mantém tanta proximidade dos filhos quanto imaginamos.&lt;/p&gt;
@@ -2846,985 +2785,862 @@
 </t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/entretenimento/filho-cacula-de-fabio-jr-chocou-todo-mundo-e-acabou-dando-recado-amargo-ao-pai-com-direta-na-lata/</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/fabio-jr-capa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>21:03:03</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Estrela de novelas da Globo acabou fazendo premonição dias antes da morte dela e cravou: “Não tenho medo”</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Estrela de novelas da Globo, a saudosa atriz Cris Pitsch (1971-1995), fez grande sucesso na trama ‘A Viagem‘ (1994), de Ivani Ribeiro. No entanto, a jovem atriz morreu muito cedo, aos 24 anos, por conta de um infarto.&lt;/p&gt;
-&lt;p&gt;A novela ‘A Viagem‘ trata de temas espirituais e, muitos artistas que se envolveram no elenco, tiveram experiências sobrenaturais, alguns deles, chegaram até mudar sua vida para melhor..&lt;/p&gt;
-&lt;p&gt;‘A Viagem‘ ia ao ar na faixa das 19h da Globo, e acabou sendo considerada uma das novelas mais queridas e amadas de todos os tempos. Apesar do sucesso, a ideia não era original, já que a trama é uma releitura da obra exibida na TV Tupi, entre 1974 e 1975.&lt;/p&gt;
-&lt;p&gt;Campeã de reprises e muito assistida no catálogo do Globoplay, ‘A Viagem‘ que conta com Christiane Torloni e Antônio Fagundes como protagonistas, e trouxe, pela primeira vez, a atriz Chris Pitsch à televisão, encarnando a Bárbara.&lt;/p&gt;
-&lt;p&gt;Segundo o TV História, Chris Pitsch contou com uma fala muito delicada na novela que ficou marcada para sempre. Sua personagem, a Bárbara, falava naquele momento sobre o suicídio de Alexandre (Guilherme Fontes).&lt;/p&gt;
-&lt;p&gt;Em conversa com Zeca, vivido por Irving São Paulo (1964-2006), Chris Pitsch disse sua fala premonitória dias antes da sua morte e cravou: “Eu não tenho medo da morte, não. Com certeza, lá em cima é muito melhor.”, disparou a personagem Bárbara em ‘A Viagem‘..&lt;/p&gt;
-&lt;p&gt;Bárbara era a funcionária da videolocadora de Diná (Christiane Torloni) e fazia parte da banda de Zeca, em ‘A Viagem‘. A personagem foi a primeira e única de Chris Pitsch em novelas da Globo, antes, ela só havia feito teatro.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;PARTIDA PRECOCE&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Chris Pitsch descobriu bem jovem, aos 14 anos de idade, que tinha uma cardiopatia congênita, que se trata de uma má-formação no coração ocorrida em suas primeiras semanas de vida.&lt;/p&gt;
-&lt;p&gt;Um ano após a conclusão das filmagens da novela ‘A Viagem‘, em 20 de outubro de 1995, Chris Pitsch morreu devido um infarto fulminante, aos 24 anos.&lt;/p&gt;
-&lt;p&gt;A jovem atriz estava assistindo televisão ao lado de Beto Pitsch, seu marido, quando de repente, começou a passar mal. Após isso, ela não resistiu. As suas cinzas foram jogadas nas pedras do Arpoador, na zona sul do Rio de Janeiro.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/entretenimento/estrela-de-novelas-da-globo-acabou-fazendo-premonicao-dias-antes-da-morte-dela-e-cravou-nao-tenho-medo/</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/chris-pitch-globo-luto.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>20:55:08</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Foto de marido de Perlla na cadeia após 42 dias é divulgada e aparência deixa muitos sem acreditar</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O empresário Patrick Abrahão, de 24 anos, marido da cantora Perlla, acusado de estar envolvido em um esquema de pirâmide financeira transnacional, teve uma foto na cadeia divulgada, exatos 42 dias após sua prisão.&lt;/p&gt;
-&lt;p&gt;Patrick Abrahão, bem diferente do que costumava ostentar com colares e roupas, além de bens materias caros e viagens de tirar o fôlego em suas redes sociais, surgiu em uma foto na cadeia e sua aparência deixou muita gente sem acreditar.&lt;/p&gt;
-&lt;p&gt;Acontece que o marido de Perlla costumava estar sempre bem vestido e ostentando ítens caros, agora, 42 dias depois de sua detenção, parece que ele não mudou absolutamente nada, pelo contrário, está ainda melhor do que quando estava livre.&lt;/p&gt;
-&lt;p&gt;Mesmo sem os acessórios de luxo, Patrick Abrahão está com uma boa aparência, provando que ele está sendo, aparentemente, muito bem tratado como prisioneiro.&lt;/p&gt;
-&lt;p&gt;Vale destacar que nenhuma foto do marido da cantora Perlla havia sido divulgada desde sua prisão, em 19 de outubro. Atualmente, Patrick Abrahão está no presídio Joaquim Ferreira de Souza, no Complexo de Gericinó, em Bangu, na Zona Oeste do Rio de Janeiro, de acordo com publicação do jornal Extra.&lt;/p&gt;
-&lt;p&gt;Vale lembrar que recentemente, o marido de Perlla foi encontrado com um celular e um carregador durante uma revista feita por inspetores de Polícia Penal da Secretaria de Estado de Administração Penal (Seap)..&lt;/p&gt;
-&lt;p&gt;Patrick Abrahão divulgou uma carta aberta alegando inocência: “Em meio a dias difíceis, queremos agradecer o carinho e a oração de todos, principalmente a nossa família. (…) Me sinto muito machucado por tantas inverdades.”, iniciou ele.&lt;/p&gt;
-&lt;p&gt;“Fatos que nem constam no processo a meu respeito e nem denuncia existe ainda. Como se eu tivesse esmeraldas em casa, movimentado bilhões, me colocando como dono de uma empresa que eu era investidor. Declaro que estamos 100% a disposição da justiça para esclarecer tudo.”, disse o marido de Perlla em trecho da carta.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/entretenimento/foto-de-marido-de-perlla-na-cadeia-apos-42-dias-e-divulgada-e-aparencia-deixa-muitos-sem-acreditar/</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/perlla-marido-capa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>20:50:18</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Triste: Bala perdida acabou tirando a vida de ator da Globo que estava dormindo e ele não teve chance</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;No ano de 1992, uma estrela da dramaturgia da Globo e um dos maiores astros da TV acabou tendo uma morte trágica. O mesmo trata-se do ator Older Cazarré, que ficou conhecido por ter participado de novelas como a versão original de Ti Ti Ti, exibida entre 1985 e 1986, o que acabou deixando o Brasil em luto com a sua trágica partida.&lt;/p&gt;
-&lt;p&gt;O fato ocorreu em 26 de fevereiro de 1992, quando o ator dormia em seu apartamento, na ladeira Saint Roman, em Copacabana, no Rio de Janeiro. Na ocasião, ele acabou sendo atingido no peito por uma bala perdida. Ele ainda foi socorrido pela companheira, Lucília Braga, mas ele não resistiu as complicações e morreu aos 57 anos, no caminho do hospital.&lt;/p&gt;
-&lt;p&gt;Segundo os policiais, o ator não teve a menor chance de fazer qualquer coisa para defender-se. A origem do tiro, veio de traficantes das favelas do Pavão e do Pavãozinho.&lt;/p&gt;
-&lt;p&gt;De acordo com informações do TV História, um perito analisou o caso e disse que o disparo também pode ter vindo da polícia, que trocava tiros com os criminosos. Mas, essa versão foi descartada pouco depois da exposição da possibilidade.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/entretenimento/triste-bala-perdida-acabou-tirando-a-vida-de-ator-da-globo-que-estava-dormindo-e-ele-nao-teve-chance/</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://nahoradanoticia.com.br/wp-content/uploads/2022/12/LUTO-GLOBO-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>21:54:27</t>
+          <t>09:18:55</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rua do bairro Wanderley Dantas fatura kit churrasco na 2ª fase do concurso Minha rua é louca pelo Brasil</t>
+          <t>MP abre inquérito para apurar falha no atendimento aos presos monitorados por tornozeleira</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Com uma participação grande da comunidade, os moradores da rua Amoty Pascoal, no bairro Wanderley Dantas, levaram nesta quinta-feira, 01, o prêmio de 60 KG de carne para churrasco e dentre outros vários prêmios, na 2º fase do Concurso Minha Rua é Louca pelo Brasil. O concurso é realizado pela Acisa, Federacre, Governo do Estado e Prefeitura de Rio Branco.&lt;/p&gt;
-&lt;p&gt;Ficaram em 2º e 3º lugar, respectivamente, a rua Railson Nascimento, na Cidade do Povo e a avenida Eugênio Bezerra, no Condomínio Green Garden.&lt;/p&gt;
-&lt;p&gt;Cotada como uma das ruas mais bonitas no Acre, a rua Amoty Pascoal conquistou os jurados com a decoração ao tema copa, sendo avaliado pelas categorias criatividade e originalidade, alegria e interação dos moradores, a utilização da marca dos promotores do concurso na decoração e respeito à natureza, ao bem público e limpeza.&lt;/p&gt;
-&lt;p&gt;A comissão de jurados é composta pelos representantes do realizadores: Governo do Estado do Acre, Prefeitura de Rio Branco, Acisa e Federacre e dos apoiadores: Caldeirão Cores e Tintas, Simão Festas e Grupo Star.&lt;/p&gt;
-&lt;p&gt;Confira a colocação da primeira fase:&lt;/p&gt;
-&lt;p&gt;1º Lugar: Rua Amoty Pascoal, no Wanderley Dantas: 339,70 pontos&lt;br /&gt;
-2º Lugar: Rua Railson Nascimento, Cidade do Povo: 323,40&lt;br /&gt;
-3° Lugar: Avenida Eugênio Bezerra, Condomínio Green Garden: 288,30 pontos.&lt;/p&gt;
-&lt;p&gt;Os prêmios serão entregues na manhã desta sexta, 02, para que os campeões aproveitem o jogo do Brasil contra Camarões.&lt;/p&gt;
-&lt;p&gt;Vencedores:&lt;/p&gt;
-&lt;p&gt;1º Lugar:&lt;/p&gt;
-&lt;p&gt;Prêmio:&lt;br /&gt;
-60 Kg de carnes e embutidos.&lt;br /&gt;
-10 Caixas de Cerveja em Lata&lt;br /&gt;
-18 Refrigerantes 2 L&lt;br /&gt;
-8 pacotes de garrafas de água de 500Ml&lt;br /&gt;
-1 troféu grande&lt;br /&gt;
-1 kit esportivo: 1 bola de futebol, 1 de futsal, 1 bola de voleibol, 1 de handebol e 1 de basquete.&lt;/p&gt;
-&lt;p&gt;2º Lugar:&lt;/p&gt;
-&lt;p&gt;Prêmio&lt;br /&gt;
-40 kg de carnes e embutidos&lt;br /&gt;
-06 caixas de cerveja em lata&lt;br /&gt;
-12 refrigerantes de 2lt&lt;br /&gt;
-04 pacotes de garrafas de água 500ml&lt;br /&gt;
-1 troféu médio&lt;br /&gt;
-1 kit esportivo: 01 bola de futebol, 1 de futsal, 1 de voleibol, 1 de handebol, 1 de basquete.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Ministério Público do Estado do Acre (MP-AC) resolveu abrir um inquérito civil para apurar inúmeras reclamações relacionadas a falhas no atendimento aos presos monitorados por tornozeleira eletrônica na capital. O despacho foi publicado na edição do Diário Eletrônico de quarta-feira, 30.&lt;/p&gt;
+&lt;p&gt;Tales Fonseca Tranin, da 14ª Promotoria de Justiça Criminal, destacou que vem recebendo constantes reclamações por parte de reeducandos monitorados, quanto à indisponibilidade dos telefones da Unidade de Monitoramento Eletrônico da capital. Segundo ele, há aproximadamente 1.500 indivíduos incluídos no sistema de monitoração eletrônica, apenas na cidade de Rio Branco, e que em razão da falta de efetivo, apenas dois policiais ficam encarregados pelo atendimento das solicitações.&lt;/p&gt;
+&lt;p&gt;Talles ressaltou que considerando o elevado número de situações que demandam a atuação das equipes de fiscalização da UMEP diariamente e que a dificuldade de comunicação com a unidade vem ocasionando diversos prejuízos aos monitorados, que por muitas vezes acabam sendo presos em razão das violações, mesmo estando em comprovado estado de necessidade, como por exemplo, nas ocasiões em que são vítimas de tentativa de homicídio.&lt;/p&gt;
+&lt;p&gt;Visando a necessidade de regularização da problemática, sobretudo evitar prejuízos aos monitorados que demonstram interesse em cumprir a pena nos moldes estabelecidos, a promotoria do órgão controlador decidiu uma investigação. &amp;#8220;Resolve instaurar inquérito civil com fundamento no art. 4º, caput, da Resolução n.º 23/2007/CNMP, e no art. 23, caput, da Resolução n.º 28/2012, do Colégio de Procuradores de Justiça do MPAC, a fim de verificar a procedência das alegações de possível deficiência no serviço de fiscalização e assistência aos presos sob monitoração eletrônica pela Unidade de Monitoramento Eletrônico de Presos em Rio Branco&amp;#8221;, diz trecho do documento.&lt;/p&gt;
+&lt;p&gt;Ao fim do despacho, o promotor determinou a expedição de ofício ao Diretor Presidente do IAPEN e ao Diretor da UMEP, para que informem, no prazo de 10 (dez) dias, o modo de funcionamento das linhas telefônicas destinadas ao atendimento dos reeducandos monitorados e, se estão disponíveis 24 horas por dia e quantos servidores são lotados no setor.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/rua-do-bairro-wanderley-dantas-fatura-kit-churrasco-na-2a-fase-do-concurso-minha-rua-e-louca-pelo-brasil/</t>
+          <t>https://folhadoacre.com.br/2022/12/mp-abre-inquerito-para-apurar-falha-no-atendimento-aos-presos-monitorados-por-tornozeleira/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/F429BC59-C81C-46D2-9709-809394933434.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2021/04/tornozeleira.jpg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18:38:10</t>
+          <t>09:15:21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PRF age rápido e desobstrui trechos bloqueados por Bolsonaristas em Rondônia</t>
+          <t>Goleiro Weverton ilustra uma das ruas acreanas mais bonita para a Copa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;A assessoria da Polícia Rodoviária Federal (PRF) informou na tarde desta quinta-feira, 1°, que os trechos bloqueados nos municípios de Ariquemes e Cacoal, no estado de Rondônia, foram totalmente desobstruídos.&lt;/p&gt;
-&lt;p&gt;A rodovia havia sido fechada por um grupo de manifestantes bolsonaristas que estão acampados às margens da rodovia da BR-364, em Rondônia, em protesto contra o resultado das eleições que ocorreram há um mês e que teve Lula declarado vencedor.&lt;/p&gt;
-&lt;p&gt;No entanto, apesar do desbloqueio na rodovia, informações extraoficiais dão conta que, os manifestantes pretendem, novamente, fechar a estrada que liga o Acre ao restante do país.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Goleiro acreano é um dos 26 nomes confirmados pelo técnico Tite para buscar hexa no Catar. &amp;#8216;Minha Rua é louca pelo Brasil&amp;#8217; é um concurso que ocorre em todo o estado.&lt;/p&gt;
+&lt;p&gt;O concurso “Minha Rua é Louca Pelo Brasil” em Rodrigues Alves fez uma homenagem para o acreano Weverton, do Palmeiras, que é o primeiro acreano convocado para disputar a Copa do Mundo. O concurso na cidade é promovido pela Federação das Associações (Federacre), prefeitura de Rodrigues Alves, governo do estado e Associação Comercial de Rodrigues Alves.&lt;/p&gt;
+&lt;p&gt;A Rua Sena Madureira, no Centro da cidade, foi tomada por bandeirinhas e muitas pinturas no asfalto. Um verdadeiro tapete, que impressiona quem passa. Ao todo, Renan Lima, organizador da ornamentação do Centro, diz que 50 pessoas participaram da ornamentação.&lt;/p&gt;
+&lt;p&gt;“O bairro Centro escolheu a Rua Sena Madureira para ser ornamentada. Os moradores do bairro se reuniram para participar do concurso e foi feito rifas para arrecadar recursos e pagar as despesas de compra de material. A comunidade se reunia durante o período da noite para corte de fitas e pintura. Todo o trabalho foi voluntário, que resgatou o espírito de união. O bairro está confiante na vitória no concurso, e no hexa da nossa seleção brasileira”, disse.&lt;/p&gt;
+&lt;p&gt;A premiação vai ser um boi para todas as ruas que participaram do evento. O resultado deve sair à tarde, logo após o jogo do Brasil contra Camarões, que começa às 14h, no horário do Acre.&lt;/p&gt;
+&lt;p&gt;“O jogo será transmitido o jogo em um telão na praça Antônio Guilherme e após o jogo será divulgado o resultado. A prefeitura vai premiar todas as ruas com um boi, depois do grande sucesso do evento, pela dedicação dos bairros”, finaliza.&lt;/p&gt;
+&lt;p&gt;G1&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/prf-age-rapido-e-desobstrui-trechos-bloqueados-por-bolsonaristas-em-rondonia/</t>
+          <t>https://folhadoacre.com.br/2022/12/goleiro-weverton-ilustra-uma-das-ruas-acreanas-mais-bonita-para-a-copa/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/197CDB07-B22C-4E30-828A-9FCFAA66BEB7.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/wevertoncopa.jpg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18:31:43</t>
+          <t>09:11:02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bocalom não interferiu na eleição da Mesa, base se dividiu e Raimundo Neném se elegeu presidente da Câmara</t>
+          <t>Iapen é condenado a pagar R$ 20 mil de danos morais por morte de preso dentro de presídio</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Sem pressão &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Nem um vereador recebeu ligação ou mensagem do prefeito Tião Bocalom (PP) pedindo ou ao menos sugerindo voto em determinado vereador da Câmara de Rio Branco. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Independência dos poderes &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Ele respeitou a independência dos poderes e deixou os vereadores se entenderam entre si. Todo chefe de executivo deveria agir assim.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Não foi a pedido dele&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Se alguém realizou reunião ou defendeu chapa de sua preferência não foi a mando de Bocalom. Isso é garantido pelos próprios vereadores que tiveram a liberdade de decidir entre si.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;&lt;strong&gt;Dividiu&lt;/strong&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;A base do prefeito na Câmara de Vereadores de Rio Branco se dividiu e Raimundo Neném levou a melhor. Foi eleito presidente.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Raimundo Neném &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Neném começou a disputa como o azarão e o vereador Raimundo Castro como favorito, mas como a política é dinâmica Castro acabou desistindo para beneficiar Samir Bestene.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;&lt;strong&gt;Bestene&lt;/strong&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;A família Bestene mais uma vez foi derrotada. Esse ano não ganhou nem aposta de palitinho.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;&lt;strong&gt;Perdeu&lt;/strong&gt; &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;A família Bestene começou 2022 com poder consolidado, com boas perspectivas e termina o ano cheia de derrotas políticas.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Sem espaço &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Os Bestenes perderão, após o resultado das eleições, muito espaço na estrutura do governo e vê seu líder, José Bestene, um tanto quanto sem rumo.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;strong&gt;&lt;span class="s1"&gt;Tchê&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;No meio político acreano todos conhecem o poder de articulação de Luiz Tchê e sabem muito bem que ele mirou na presidência da Assembleia Legislativa do Acre para conseguir negociar espaços na estrutura de governo. Elementar.&lt;/span&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Normando Júnior, de 34 anos, foi espancado por outros detentos durante o banho de sol no Complexo Prisional de Rio Branco. Irmã da vítima entrou na Justiça pedindo indenização e pensão alimentícia pela morte do preso. Decisão ainda cabe recurso.&lt;/p&gt;
+&lt;p&gt;O Instituto de Administração Penitenciária do Acre (Iapen) foi condenado a pagar R$ 20 mil de danos morais pela morte do detento Normando Gomes de Bregencio Júnior, de 38 anos, dentro do Complexo Prisional de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo as investigações, Júnior e o irmão Francisco de Souza Bregencio foram espancados por outros presos durante o banho de sol no pavilhão &amp;#8216;A&amp;#8217; do complexo no dia 30 de outubro de 2020.&lt;/p&gt;
+&lt;p&gt;Os irmãos ficaram gravemente feridos, foram socorridos pelo Serviço de Atendimento Móvel de Urgência (Samu) e levados para o pronto-socorro. No dia 9 de novembro, Júnior não resistiu aos ferimentos e morreu.&lt;/p&gt;
+&lt;p&gt;Conforme a Justiça, o laudo cadavérico apontou traumatismo cranioencefálico causado pelas agressões como causa da morte. A irmã da vítima entrou na Justiça contra o Iapen-AC pedindo indenização e pensão alimentícia por causa da morte de Normando Júnior.&lt;/p&gt;
+&lt;p&gt;A Justiça determinou que ela seja indenizada uma vez que o &amp;#8216;evento danoso adveio de uma omissão estatal e a negligência foi decisiva para a morte do apenado, assim invocou a Teoria da Responsabilidade Subjetiva para o arbitramento&amp;#8217;.&lt;/p&gt;
+&lt;p&gt;A decisão é do Juízo da 1ª Vara de Fazenda Pública de Rio Branco e ainda cabe recurso. Nos autos, o Iapen-AC alegou que o preso foi agredido por sujeitos não identificados, possivelmente em represália a agressão cometida antes.&lt;/p&gt;
+&lt;p&gt;À reportagem, o presidente do Iapen-AC, Glauber Feitoza, informou que o Estado vai tomar as devidas providências assim que finalizar, de fato e direito, o processo, que se encontra em fase de recurso. &amp;#8220;Após deliberada a sentença em definitivo pelo Poder Judiciário, o Estado vai acatar e executar&amp;#8221;, resumiu.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Recurso&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Ao g1, o advogado da família da vítima, Romano Gouveia, disse que vai entrar com recurso contra o valor da indenização estipulado na decisão. O pedido inicial da irmã de Júnior era de mais de R$ 230 mil de indenização.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;O pedido de pagamento de pensão o juiz negou porque ele não tinha dependentes, mas, pelo olhar da defesa, esses homicídios corriqueiros que têm dentro do nosso falido sistema prisional, o Estado sempre vai ser responsável. A culpa dele é objetiva, tem o dever de garantir a integridade física&amp;#8221;, criticou.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;MP instaurou inquérito&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Em dezembro de 2020, o Ministério Público do Acre (MP-AC) chegou a instaurar um inquérito para investigar a morte de Normando Gomes de Bregencio Junior.&lt;/p&gt;
+&lt;p&gt;A morte do detento também foi investigada pela Delegacia de Homicídio e Proteção à Pessoa (DHPP) da Polícia Civil. A 4ª Promotoria Criminal de Execução Penal e Fiscalização de Presídio chegou a enviar um ofício para a direção da Polícia Civil solicitando a abertura de um inquérito policial por homicídio doloso.&lt;/p&gt;
+&lt;p&gt;O Instituto de Administração Penitenciária do Acre (Iapen-AC) informou também, na época, que instaurou um procedimento administrativo para apurar os fatos e colaborava com as investigações.&lt;/p&gt;
+&lt;p&gt;G1&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/bocalom-nao-interferiu-na-eleicao-da-mesa-base-se-dividiu-e-raimundo-nenem-se-elegeu-presidente-da-camara/</t>
+          <t>https://folhadoacre.com.br/2022/12/iapen-e-condenado-a-pagar-r-20-mil-de-danos-morais-por-morte-de-preso-dentro-de-presidio/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/E9B9353B-055D-413F-A242-734A382D3DCD.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/cats-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18:20:49</t>
+          <t>08:58:58</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Prefeito Bocalom apresenta projeto “1.001 Dignidades” no Fórum Global Understanding Risk</t>
+          <t>Instituto alerta para ocorrência de temporais no Acre nesta sexta</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O prefeito de Rio Branco, Tião Bocalom, apresentou por via remota, no Fórum Global Understanding Risk, o projeto de moradia popular “1.001 Dignidades”.&lt;/p&gt;
-&lt;p&gt;O gestor saiu da capital acreana nesta quarta-feira (30), com destino à Florianópolis, onde está ocorrendo o evento, para palestrar sobre os abrigos humanizados, construídos pela prefeitura, com o envolvimento de todos os setores da administração, aos desabrigados pela enchente que castigou Rio Branco no início de 2021. O modelo de abrigos servirá, por sugestão do secretário nacional de Defesa Civil, Alexandre Lucas, de referência para o restante do país.&lt;/p&gt;
-&lt;p&gt;Em decorrência das fortes chuvas na capital catarinense, o prefeito Tião Bocalom não conseguiu chegar ao seu destino. Mas participou da apresentação por via remota, oportunidade em que, junto ao coordenador da Defesa Civil Municipal, TEN. CEL. Cláudio Falcão, que já se encontrava em Florianópolis, transcorreu sobre os abrigos, que foram idealizados por ele, e que mostraram ser possível passar por um momento tão difícil e sofrido, com dignidade.&lt;/p&gt;
-&lt;p&gt;O prefeito aproveitou para apresentar, também, o projeto de moradia “1.001 Dignidades”, que visa construir mil e uma moradias populares, para famílias que residem em áreas de risco, alagadiças ou sob esgoto à céu aberto, contemplando, assim, aproximadamente 4.000 pessoas. O gestor entende que tornando possível o sonho da casa própria, levando dignidade às famílias, cada vez menos será necessário a construção de novos abrigos em decorrência das enchentes.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Instituto Nacional de Meteorologia (Inmet) alertou para tempestades na sexta-feira (2) e sábado (3). Os dois alertas, um amarelo e outro laranja, foram divulgados nesta sexta. São esperadas chuvas entre 30 e 60 mm/h ou 50 e 100 mm/dia, ventos intensos (60-100 km/h). Há risco de corte de energia elétrica, queda de galhos de árvores, alagamentos e de descargas elétricas.&lt;/p&gt;
+&lt;p&gt;Os avisos são para todas as regiões do estado.&lt;/p&gt;
+&lt;p&gt;Instruções:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Em caso de rajadas de vento: (não se abrigue debaixo de árvores, pois há risco de queda e descargas elétricas e não estacione veículos próximos a torres de transmissão e placas de propaganda)&lt;/li&gt;
+&lt;li&gt;Se possível, desligue aparelhos elétricos e quadro geral de energia.&lt;/li&gt;
+&lt;li&gt;Obtenha mais informações junto à Defesa Civil (telefone 199) e ao Corpo de Bombeiros (telefone 193).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;G1&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/prefeito-bocalom-apresenta-projeto-1-001-dignidades-no-forum-global-understanding-risk/</t>
+          <t>https://folhadoacre.com.br/2022/12/instituto-alerta-para-ocorrencia-de-temporais-no-acre-nesta-sexta/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/6664F29F-9000-4745-9C3F-D90BBAE47546.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/09/chuvaacre.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16:05:06</t>
+          <t>08:55:02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Adolescente de 15 anos com Covid morre em UPA de Rio Branco após parada cardíaca</t>
+          <t>Acreano sobrevive a ataque de sucuri gigante no Purus: &amp;#8220;Milagre de Deus&amp;#8221;; veja o vídeo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;div id="chunk-bpb07"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="3"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Um adolescente de 15 anos com diagnóstico de Covid-19 morreu nessa quarta-feira (30) após sofrer paradas cardíacas, na Unidade de Pronto Atendimento (Upa) do Segundo Distrito, em Rio Branco.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div class="wall protected-content"&gt;
-&lt;div id="chunk-94c3g"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="4"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Conforme a Secretaria Estadual de Saúde (Sesacre), o menino deu entrada na unidade às 22h04 de terça-feira (29) e morreu às 10h do dia seguinte. Ele tinha comorbidades como hidrocefalia e cardiopatia congênita. A Saúde não soube informar se ele era vacinado contra a Covid-19.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-a83qj"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="30" data-block-id="5"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Em nota, a Sesacre informou que os pais do adolescente relataram que há, pelo menos três dias, ele vinha se queixando de dor abdominal, vômitos, dores de cabeça e febre.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-6lcq6"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="46" data-block-id="6"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;“O menor ficou internado na ala de emergência da unidade, recebendo assistência e tendo seu caso avaliado por três médicos. Foi realizada a ministração de medicações e exames que detectaram a infecção por coronavírus, vindo a falecer mediante paradas cardíacas”, disse a Sesacre em nota.&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div id="chunk-3bm7h"&gt;
-&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="35" data-block-id="7"&gt;
-&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Amostras foram coletadas para a realização de exames que devem revelar a causa da morte do menino. Além disso, a Saúde investiga qual tipo de coronavírus ou variante estava presente no organismo do menino.&lt;/p&gt;
-&lt;p data-track-category="Link no Texto" data-track-links=""&gt;Com informações G1&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;p&gt;O vídeo de um acreano que foi atacado por uma sucuri de mais de 6 metros no Rio Purus, em Sena Madureira, viralizou nos últimos meses e está sendo compartilhado no Brasil inteiro.&lt;/p&gt;
+&lt;p&gt;O canal no You Tube, Indomáveis, relatou o vídeo como &amp;#8220;um milagre de Deus&amp;#8221; o homem ter se salvado do ataque do animal.&lt;/p&gt;
+&lt;p&gt;Confira o vídeo:&lt;/p&gt;
+&lt;p&gt;&lt;iframe loading="lazy" title="Homem fala após SUCURI avançar nele no Rio Purus, Acre" width="696" height="392" src="https://www.youtube.com/embed/ze-sfVi8zSI?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/adolescente-de-15-anos-com-covid-morre-em-upa-de-rio-branco-apos-parada-cardiaca/</t>
+          <t>https://folhadoacre.com.br/2022/12/acreano-sobrevive-a-ataque-de-sucuri-gigante-no-purus-milagre-de-deus-veja-o-video/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/01023D37-DE81-4599-B607-C72A25CBAEBA.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/cobra.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16:04:48</t>
+          <t>08:46:27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Médicos do Igesac entram em greve a partir do dia 12</t>
+          <t>Auditoria do CGU evita superfaturamento de até 286% em licitação da BR-364 no Acre</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Os médicos do Instituto de Gestão de Saúde do Acre (Igesac) decidiram entrar em greve por tempo indeterminado, a partir do dia 12. A votação ocorreu durante a assembleia geral extraordinária (AGE) realizada na noite de quarta-feira, 30, quando a classe verificou que não existiram avanços nas negociações com a gestão.&lt;/p&gt;
-&lt;p&gt;Segundo o presidente do Sindicato dos Médicos do Acre (Sindmed-AC), Guilherme Pulici, a luta é pela isonomia. Os profissionais reivindicam os mesmos direitos que as outras categorias da saúde contratadas pelo antigo Pró-Saúde, atual Igesac.&lt;/p&gt;
-&lt;p&gt;“A gestão parece discriminar os médicos e as reivindicações. Há meses buscamos negociar, e nossas demandas acabaram negadas, sendo aceitas quando outras categorias apresentaram os mesmos pedidos”, explicou o sindicalista.&lt;/p&gt;
-&lt;p&gt;Há 7 anos sem avanços salariais e enfrentando a pandemia de coronavírus, os médicos do Igesac acabaram esquecidos pela gestão que apenas concedeu, de forma “igualitária”, os 5,42% de reposição de inflação. O percentual foi considerado humilhante pela categoria excluída de qualquer ação de valorização profissional por atuarem no combate contra o vírus mortal desde março de 2020.&lt;/p&gt;
-&lt;p&gt;Os médicos reivindicam a redução de 13 para 12 dos plantões mensais, além de 30% de gratificação para os plantões noturnos. As outras categorias já conquistaram esses mesmos avanços que foram negados para os médicos.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Uma auditoria da Controladoria Geral da União evitou que uma licitação do Dnit no Acre&lt;br /&gt;
+acarretasse prejuízo de R$ 10 milhões, a partir de insumos superfaturados que seriam usados na conservação e recuperação de um dos piores trechos da BR-364, que são os 130 quilômetros em Manoel Urbano Feijó. Após a constatação do descompasso dos calores a serem pagos em relação aos preços correntes no mercado local, o certame foi anulado e a nova licitação resultou em preços compatíveis e maior transparência.&lt;/p&gt;
+&lt;p&gt;No início desse ano, a direção do Dnit no Estado, apresentou uma licitação no valor de R$&lt;br /&gt;
+157.308.000,00. Como o valor era alto, a CGU decidiu verificar. Os auditores descobriram que o Dnit estava pagando valores muito acima dos praticados no mercado.&lt;/p&gt;
+&lt;p&gt;Seriam comprados 35 mil sacos de cimento de 50 quilos. Cada quilo, pelo valor licitado, custaria R$ 1,60. Só que o valor do cimento comprado a granel, na capital, teria um valor menor 83%. O quilo sairia por valores inferiores a R$ 0,50.&lt;/p&gt;
+&lt;p&gt;Outro produto superfaturado era a cal hidratada: O Dnit fez o orçamento a R$ 1,59 o quilo. A CGU encontrou no mercado de R$ 0,41 centavos, 286% mais barato.&lt;/p&gt;
+&lt;p&gt;Havia preço a mais no pelo frete para levar britas e pedras até os trechos da BR. Uma caçamba que levaria 10 metros cúbicos de pedra, por exemplo, foi cotada e a R$ 583,00 o metro. Analisando a distância a ser percorrida, no caso, 366 quilômetros, a CGU percebeu que o valor a ser cobrado deveria ser menor, no máximo R$ 505,00. Somando no final todas as viagens o sobrepreço chegaria R$ 2,386 milhões.&lt;/p&gt;
+&lt;p&gt;Essa conclusão da auditoria foi feita antes de o Dnit fazer as compras. A CGU recomendou suspender a licitação. O preço a mais pago seria de quase R$ 10 milhões.&lt;/p&gt;
+&lt;p&gt;A direção do Dnit foi forçada a acatar a sugestão dos técnicos da CGU e comprar cimento a granel. Além do preço menor, o departamento não teria um local para armazenar 35 mil sacos necessários. A entrega foi parcelada.&lt;/p&gt;
+&lt;p&gt;No dia 20 de julho uma nova licitação foi feita, dessa vez com o valor de R$ 147 milhões, que ficou R$ 10 milhões menor que a primeira. A auditoria da CGU evitou o prejuízo aos cofres públicos e garantiu que não haveria desvio de recursos.&lt;/p&gt;
+&lt;p&gt;A Tribuna&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/medicos-do-igesac-entram-em-greve-a-partir-do-dia-12/</t>
+          <t>https://folhadoacre.com.br/2022/12/auditoria-do-cgu-evita-superfaturamento-de-ate-286-em-licitacao-da-br-364-no-acre/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/10/grevemedicos.jpg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/Rodovia_BR_364_RO_2-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13:47:17</t>
+          <t>08:45:36</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Homem é executado com tiro na cabeça em bairro de Rio Branco, em plena luz do dia</t>
+          <t>Nicolau Júnior parabeniza José Ribamar novo presidente do TCE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Antônio Erismar da Silva, de 30 anos, foi morto com um tiro na cabeça na manhã desta quinta-feira (1º), na rua 31 de Março, no bairro Seis Agosto, em Rio Branco.&lt;/p&gt;
-&lt;p&gt;Segundo a polícia, Antônio Erismar estava caminhando na rua, quando dois homens não identificados se aproximaram em uma motocicleta e o passageiro, que estava armado, atirou contra a vítima, que foi atingida na cabeça. Após a ação, os criminosos fugiram do local.&lt;/p&gt;
-&lt;p&gt;O Serviço de Atendimento Móvel de Urgência (Samu) foi acionado, mas quando os socorristas chegaram no local, Antônio Erismar já estava sem vida.&lt;/p&gt;
-&lt;p&gt;Policiais Militares do 2° Batalhão estiveram no local e isolaram a área para os trabalhos da perícia. Os PMs fizeram ronda na região para tentar encontrar os autores do crime, mas nenhum suspeito foi encontrado.&lt;/p&gt;
-&lt;p&gt;O corpo foi removido e encaminhado ao Instituto Médico Legal (IML) para os exames cadavéricos.&lt;/p&gt;
-&lt;p&gt;Ainda segundo a polícia, a motivação do crime pode ser a guerra entre facções criminosas, e Antônio não era morador do bairro. O caso será investigado por agentes de Polícia Civil da Equipe de Pronto Emprego (EPE), da Delegacia Especializada de Investigação Criminal (DEIC).&lt;/p&gt;
-&lt;p&gt;ContilNet&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O deputado estadual reeleito, Nicolau Junior ( PP), presidente da Assembléia Legislativa parabenizou o conselheiro José Ribamar, aclamado nesta quinta-feira, para presidir o Tribunal de Contas do Estado.&lt;/p&gt;
+&lt;p&gt;Nicolau destacou o trabalho realizado pelo então presidente Ronald Polanco e disse que o TCE estará em boas mãos na gestão de Ribamar, o mais novo conselheiro da corte.&lt;/p&gt;
+&lt;p&gt;José Ribamar foi o único candidato do pleito e acabou aclamado por unanimidade. Ele foi empossado no cargo logo após a sessão, que ocorreu de forma virtual.&lt;/p&gt;
+&lt;p&gt;A nova composição ficou assim:&lt;/p&gt;
+&lt;p&gt;Presidente da Corte para o próximo biênio, Conselheiro José Ribamar Trindade de Oliveira, como Vice-Presidente, o Conselheiro Valmir Gomes Ribeiro e como Corregedora, a Conselheira Dulcinéa Benício de Araújo.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/homem-e-executado-com-tiro-na-cabeca-em-bairro-de-rio-branco-em-plena-luz-do-dia/</t>
+          <t>https://folhadoacre.com.br/2022/12/nicolau-junior-parabeniza-jose-ribamar-novo-presidente-do-tce/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/0BABC0C6-A5C8-43E2-8F3A-C0A9F39BF594.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/ribamar.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>13:07:00</t>
+          <t>08:44:05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Raimundo Neném vira o jogo e se elege presidente da Câmara de Rio Branco</t>
+          <t>Banco Central altera regras do Pix; confira mudanças</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1"&gt;Em uma eleição onde a vitória parecia improvável o vereador Raimundo Neném (PSB) virou o jogo, venceu membros da atual legislatura e foi eleito presidente da Câmara de Rio Branco para os próximos dois anos. A eleição aconteceu na manhã desta quinta-feira (1).&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Raimundo Neném afirmou que está muito feliz com a vitória e reafirmou seu compromisso com a democracia. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;“Fico muito feliz por essa oportunidade que meus colegas pares que estão depositando na minha pessoa quero parabenizar ao presidente em prol do todo coletivo, quero dizer que serei honesto, verdadeiro, como foi dito o vereador Morais e a vereadora Michelle que foram os meus padrinhos nessa eleição”, frisou.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;Raimundo Neném agradeceu o voto dos colegas de parlamento e afirmou que contou com a ajuda do vereador Adailton Cruz, que foi eleito deputado e, portanto, não disputou a Mesa Diretora. &lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;“Ontem nós tivemos uma surpresa o grupo estava fechado com 11 vereadores na política tem isso tem que termos palavra sou muito grato a vocês “, diz.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1"&gt;A Mesa ficará composta por Neném para presidente, Fábio Araújo como primeiro-secretário e Lene Petecão como vice-presidente.&lt;/span&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Nesta sexta-feira, dia 1º de dezembro, o Banco Central alterou as regras de utilização do Pix, sistema de pagamentos instantâneo criado pela autarquia. O foco das mudanças foram os limites de valor para as transações e de acordo com o BC. As novas regras entram em vigência a partir do dia 2 de janeiro de 2023.&lt;/p&gt;
+&lt;p&gt;A ideia por trás das alterações, segundo a instituição, é simplificar as regras, aprimorar a experiência do usuário, mas ainda manter &amp;#8220;o atual nível de segurança&amp;#8221;. A partir delas, por exemplo, será mais fácil o pagamento de salários e pensões pelo Pix, e também o recebimento de quantias por correspondentes bancários, como casas lotéricas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Novas regras do Pix&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Novos limites&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A partir de agora, os bancos não são mais obrigados a definir um limite de valor por transação do Pix, mas assim a determinar um limite por um período específico de tempo. Isto quer dizer que as instituições financeiras não deverão mais impor um limite a quanto pode ser transferido em apenas uma transação. Por exemplo, se um usuário tem um limite diário de R$ 5 mil, ele pode utilizar tudo em uma só transação.&lt;/p&gt;
+&lt;p&gt;O BC não alterou as regras de alteração de limite. Para reduzir o limite o prazo ainda deve ser de imediato, enquanto que para aumentar deve haver um atraso de 24h a 48h, de modo a aumentar a segurança do sistema de pagamentos.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Horário noturno&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Obrigatória, a possibilidade de definir regras especiais para horário noturno (entre 20h e 06h), passa a ser eletivo. Ou seja, os bancos não precisam mais oferecer a opção aos clientes de se definir regras especiais para esses horários. No entanto, a prática ainda deve ser utilizada pela maior parte dos bancos, uma vez que é uma forte medida de segurança.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Pix Saque e Pix Troco&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;O Banco Central também alterou os limites de valor para as retiradas de dinheiro por meio das ferramentas Pix Saque e Pix Troco. O limite para o saque de dinheiro em espécie passa de R$ 500 para 3 mil durante o dia, e de R$ 100 para R$ 1 mil durante a noite.&lt;/p&gt;
+&lt;p&gt;Yahoo&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/raimundo-nenem-vira-o-jogo-e-se-elege-presidente-da-camara-de-rio-branco/</t>
+          <t>https://folhadoacre.com.br/2022/12/banco-central-altera-regras-do-pix-confira-mudancas/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/D6733A6A-7B4D-44B4-89F9-3DFA418A4CE2.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/pix.jpg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12:58:40</t>
+          <t>08:33:44</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>URGENTE: Acre identifica casos da subvariante BQ 1.1 e BE. 9 do coronavírus</t>
+          <t>Saúde do Acre alerta para novos casos de meningite</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;As novas subvariantes da covid-19, identificadas no Brasil, inicialmente no estado do Amazonas em outubro deste ano, BQ 1.1 e BE.9, já estão em circulação no Acre. É o que aponta o relatório de circulação de linhagens do SARS-CoV-2, emitido pela Central de Saúde Pública do Acre (Lacen) nesta quarta-feira, 30.&lt;/p&gt;
-&lt;p&gt;Das 6 amostras provenientes de pacientes com sintomas da covid-19, residentes nos municípios de Rio Branco (AC), Sena Madureira (AC) e Boca do Acre (AM), e coletadas em 17 de novembro, duas foram identificadas com as linhagens BQ 1. 1 e quatro com a linhagem BE. 9, ambas derivadas da variante Omicron, mesma cepa que circula atualmente na Europa e causou o aumento das infecções em países como Alemanha e França.&lt;/p&gt;
-&lt;p&gt;De acordo com a chefe do Centro de Informações Estratégicas em Vigilância em Saúde (Cievs), Débora dos Santos, não há mudanças em relação aos sintomas, que continuam sendo para a maioria dos pacientes: dor de cabeça, tosse, febre, dor de garganta, cansaço, perda de olfato e paladar.&lt;/p&gt;
-&lt;p&gt;As queixas são de sintomas leves, especialmente por quem já é vacinado, a gravidade tem se mostrado em pacientes não vacinados e com comorbidade. Também é preciso dar  ênfase à transmissibilidade, que é  mais elevada. Uma série de ações permite reduzir os riscos da transmissão da covid-19 e de outras doenças como a gripe e resfriados. Além do uso de máscara, medidas de higiene como a lavagem das mãos, o uso de álcool gel e distanciamento de pessoas sintomáticas contribuem para reduzir os riscos da infecção”, destacou Débora.&lt;/p&gt;
-&lt;p&gt;A principal recomendação é estar com o calendário vacinal completo e atualizado, incluindo as duas doses de reforço. O cuidado deve ser redobrado nos casos de gestantes, idosos, crianças de baixo peso, imunossuprimidos e portadores de comorbidades crônicas descontroladas. Caso os sintomas apareçam, procure atendimento em uma Unidade Básica de Saúde (UBS) e faça testagem para o vírus.&lt;/p&gt;
-&lt;p&gt;“Por enquanto, nenhuma das duas parece provocar o aumento relevante de hospitalizações e mortes, contudo, a melhor forma de prevenção a sintomas graves da doença continua sendo a vacinação, incluindo as doses reforço para aumento da imunidade. Foi aprovado pela Anvisa recentemente a vacina bivalente contra a covid, que será mais uma dose reforço. Temos expectativas de que chegue no Brasil no início desse mês de dezembro e assim que for liberada no Acre estaremos convocando para a ministração”, finalizou Daila Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie).&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. No Acre, as taxas de cobertura vacinal contra a enfermidade, principalmente nas modalidades meningocócicas, estão abaixo das recomendadas pelo Ministério da Saúde (MS).&lt;/p&gt;
+&lt;p&gt;Segundo dados da Secretaria de Saúde (Sesacre), de janeiro até o dia 1º de dezembro foram notificados 67 casos suspeitos da doença com 13 casos confirmados. Entre os óbitos, 1 foi por meningite fúngica e três por meningite viral. A taxa de letalidade encontra-se em 30,7%, representado um aumento de 19,6% em relação a 2021.&lt;/p&gt;
+&lt;p&gt;O MS registrou, até o fim de outubro, 5.821 casos e 702 óbitos por meningites de diferentes etiologias – causas – no Brasil. O motivo do avanço é a queda do índice de vacinação no país, principal meio de prevenção, chegando a combater 90% das formas mais graves da doença.&lt;/p&gt;
+&lt;p&gt;As vacinas contra a meningite bacteriana são consideradas as medidas mais eficazes e seguras para evitar quadros mais graves da doença, que produzem sequelas como amputações, surdez, cicatrizes ou morte. “Uma vez que as crianças e adolescentes deixem de receber a vacina, o agente causador da doença começa a circular, aumentando a sua incidência”, explica Daíla Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie) da Sesacre.&lt;/p&gt;
+&lt;p&gt;Existem imunizantes que protegem contra todos os tipos da doença bacteriana, meningite A, C, W, Y e B.&lt;/p&gt;
+&lt;p&gt;A vacina disponível na rede pública protege contra o tipo C da doença e é oferta-da ao público prioritário: crianças menores de cinco anos de idade, adolescentes de 11 e 12 anos e pessoas com comorbidade. A cobertura para a vacina meningocócica C (conjugada) no ano de 2021 foi de 69,81% em crianças. Já de janeiro a setembro de 2022, encontra-se em 67,83%, quando o preconizado pelo MS é 95%.&lt;/p&gt;
+&lt;p&gt;“Lembramos ainda que não existe vacina contra outros microrganismos causadores de meningites como os fungos, vírus, protozoários e helmintos [vermes parasitas]”, acrescenta Daíla Timbó.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/urgente-acre-identifica-casos-da-subvariante-bq-1-1-e-be-9-do-coronavirus/</t>
+          <t>https://folhadoacre.com.br/2022/12/saude-do-acre-alerta-para-novos-casos-de-meningite/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2020/05/coronavirus-10-1.jpg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/minigite.jpg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11:55:03</t>
+          <t>08:15:21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rutênio passa mal durante articulação das eleições da Mesa Diretora e precisa ser encaminhado ao PS</t>
+          <t>PF deflagra operação para combater empresas clandestinas de segurança privada</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O vereador Rutênio Sá (Progressistas), acabou passando mal durante as articulações das eleições da Mesa Diretora de Rio Branco nesta quinta-feira, 1, que tem os vereadores Samir Bestene (Progressistas) e Raimundo Neném (PSB), candidatos à presidência da Casa Legislativa.&lt;/p&gt;
-&lt;p&gt;De acordo com divulgado pelo presidente da Câmara, vereador N Lima (Progressistas), o parlamentar precisou se retirar da sessão para ser atendido no Pronto-Socorro da capital.&lt;/p&gt;
-&lt;p&gt;Com a ausência do parlamentar, os demais vereadores buscam a antecipação da eleição antes da chegada de Rutênio.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A Polícia Federal deflagra, nesta quinta-feira (1/12), em todo o país, a Operação Segurança Legal VI, com o objetivo de realizar o combate a empresas clandestinas de segurança privada.&lt;/p&gt;
+&lt;p&gt;Cerca de 460 policiais federais fiscalizarão, nesta data, mais de 400 estabelecimentos, entre casas noturnas, comércios, condomínios e outros, para encerrar a atividade de empresas que executam segurança privada sem autorização da Polícia Federal.&lt;/p&gt;
+&lt;p&gt;A Operação Segurança Legal ocorre desde 2017, em âmbito nacional. Nas ações anteriores, foram fiscalizadas 1.956 empresas e 663 empresas clandestinas tiveram suas atividades encerradas pela Polícia Federal.&lt;/p&gt;
+&lt;p&gt;A contratação de serviços clandestinos de segurança privada coloca em risco a integridade física de pessoas e o patrimônio dos contratantes, já que os “seguranças” clandestinos não se submetem ao controle da Polícia Federal quanto aos seus antecedentes criminais, formação, aptidão física e psicológica.&lt;/p&gt;
+&lt;p&gt;Além disso, as empresas clandestinas não observam os requisitos mínimos de funcionamento previstos na legislação. No Brasil, somente empresas de segurança privada autorizadas pela Polícia Federal podem prestar serviços e contratar vigilantes.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/2022/12/rutenio-passa-mal-durante-articulacao-das-eleicoes-da-mesa-diretora-e-precisa-ser-encaminhado-ao-ps/</t>
+          <t>https://folhadoacre.com.br/2022/12/pf-deflagra-operacao-para-combater-empresas-clandestinas-de-seguranca-privada/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/5594F0C4-765E-4268-BE61-13AB32776EEA.jpeg</t>
+          <t>https://folhadoacre.com.br/wp-content/uploads/2022/12/81105354-df94-47d3-be18-887b590037f0.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>17:00:34</t>
+          <t>07:25:30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>URGENTE: Morre vítima de disparo no bairro Ana Vieira na tarde desta quinta-feira (01)</t>
+          <t>Em Rio Branco Homem colide contra muro ao perde controle de veículo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61428" src="http://yaconews.com/wp-content/uploads/2022/12/cats.jpg" alt="" width="741" height="660" srcset="http://yaconews.com/wp-content/uploads/2022/12/cats.jpg 741w, http://yaconews.com/wp-content/uploads/2022/12/cats-300x267.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/cats-696x620.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/cats-472x420.jpg 472w" sizes="(max-width: 741px) 100vw, 741px" /&gt;&lt;/p&gt;
-&lt;p&gt;O jovem identificado até agora com Gabriel, que foi alvejado com disparos de arma de fogo no bairro Ana Vieira na manhã desta terça possivelmente por conta de confrontos entre facções rivais foi a óbito ainda nesta tarde segundo informações do Hospital João Câncio Fernandes.&lt;/p&gt;
-&lt;p&gt;Gabriel chegou em estado grave a unidade hospitalar e ainda teve uma parada cardíaca, mas foi reanimado pela equipe de plantão. Uma unidade aérea de pronto atendimento do governo do estado ainda foi acionada para transferir o jovem. Os médicos aguardavam sua reação para que ele fosse transferido ainda hoje para a capital. O que não aconteceu.&lt;/p&gt;
-&lt;p&gt;O atestamento do falecimento de Gabriel se deu por volta das 16hrs de hoje no hospital da cidade.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61463" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-092422.png" alt="" width="703" height="232" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-092422.png 703w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-092422-300x99.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-092422-696x230.png 696w" sizes="(max-width: 703px) 100vw, 703px" /&gt;&lt;/p&gt;
+&lt;p&gt;Valdeonor Pereira da Silva, 40 anos, ficou ferido após sofrer um acidente na noite desta quinta-feira (1°), no ramal São João, no bairro Apolônio Sales, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo informações de populares, Valdeonor estava trafegando em uma motocicleta modelo Yamaha YBR 125, de cor prata e placa MZT-2291, no sentido centro-bairro, quando perdeu o controle e invadiu a pista contrária. A moto subiu na calçada e colidiu contra um muro, e Valdeonor bateu a cabeça e desmaiou.&lt;/p&gt;
+&lt;p&gt;O Serviço de Atendimento Móvel de Urgência (Samu) foi acionado e Valdeonor foi encaminhado ao pronto-socorro de Rio Branco em estado de saúde estável. A vítima estava com sinais de embriaguez.&lt;/p&gt;
+&lt;p&gt;Policiais Militares do Batalhão de Trânsito não foram acionados para a ocorrência. A moto da vítima foi removida por terceiros do local.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/morre-vitima-de-disparo-no-bairro-ana-vieira-nesta-quinta-feira/</t>
+          <t>http://yaconews.com/2022/12/em-rio-branco-homem-colide-contra-muro-ao-perde-controle-de-veiculo/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/cats.jpg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-092422.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13:24:09</t>
+          <t>07:21:10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Covid-19: Saúde identifica casos da subvariante BQ 1.1 e BE. 9 no Acre e reforça a importância da vacinação</t>
+          <t>Rosa Weber libera para julgamento ações que contestam orçamento secreto</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61425" src="http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1.jpg" alt="" width="1536" height="1017" srcset="http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1.jpg 1536w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-300x199.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-1024x678.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-768x509.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-696x461.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-1068x707.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1-634x420.jpg 634w" sizes="(max-width: 1536px) 100vw, 1536px" /&gt;&lt;/p&gt;
-&lt;p&gt;As novas subvariantes da covid-19, identificadas no Brasil, inicialmente no estado do Amazonas em outubro deste ano, BQ 1.1 e BE.9, já estão em circulação no Acre. É o que aponta o relatório de circulação de linhagens do SARS-CoV-2, emitido pela Central de Saúde Pública do Acre (Lacen) nesta quarta-feira, 30.&lt;/p&gt;
-&lt;p&gt;Das 6 amostras provenientes de pacientes com sintomas da covid-19, residentes nos municípios de Rio Branco (AC), Sena Madureira (AC) e Boca do Acre (AM), e coletadas em 17 de novembro, duas foram identificadas com as linhagens BQ 1. 1 e quatro com a linhagem BE. 9, ambas derivadas da variante Omicron, mesma cepa que circula atualmente na Europa e causou o aumento das infecções em países como Alemanha e França.&lt;/p&gt;
-&lt;p&gt;De acordo com a chefe do Centro de Informações Estratégicas em Vigilância em Saúde (Cievs), Débora dos Santos, não há mudanças em relação aos sintomas, que continuam sendo para a maioria dos pacientes: dor de cabeça, tosse, febre, dor de garganta, cansaço, perda de olfato e paladar.&lt;/p&gt;
-&lt;p&gt;As queixas são de sintomas leves, especialmente por quem já é vacinado, a gravidade tem se mostrado em pacientes não vacinados e com comorbidade. Também é preciso dar ênfase à transmissibilidade, que é mais elevada. Uma série de ações permite reduzir os riscos da transmissão da covid-19 e de outras doenças como a gripe e resfriados. Além do uso de máscara, medidas de higiene como a lavagem das mãos, o uso de álcool gel e distanciamento de pessoas sintomáticas contribuem para reduzir os riscos da infecção”, destacou Débora.&lt;/p&gt;
-&lt;p&gt;A principal recomendação é estar com o calendário vacinal completo e atualizado, incluindo as duas doses de reforço. O cuidado deve ser redobrado nos casos de gestantes, idosos, crianças de baixo peso, imunossuprimidos e portadores de comorbidades crônicas descontroladas. Caso os sintomas apareçam, procure atendimento em uma Unidade Básica de Saúde (UBS) e faça testagem para o vírus.&lt;/p&gt;
-&lt;p&gt;“Por enquanto, nenhuma das duas parece provocar o aumento relevante de hospitalizações e mortes, contudo, a melhor forma de prevenção a sintomas graves da doença continua sendo a vacinação, incluindo as doses reforço para aumento da imunidade. Foi aprovado pela Anvisa recentemente a vacina bivalente contra a covid, que será mais uma dose reforço. Temos expectativas de que chegue no Brasil no início desse mês de dezembro e assim que for liberada no Acre estaremos convocando para a ministração”, finalizou Daila Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie).&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61460" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908.png" alt="" width="712" height="349" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908.png 712w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908-300x147.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908-696x341.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908-324x160.png 324w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908-533x261.png 533w" sizes="(max-width: 712px) 100vw, 712px" /&gt;&lt;/p&gt;
+&lt;p&gt;A presidente do Supremo Tribunal Federal, Rosa Weber, liberou, na noite desta quinta-feira (1), para julgamento quatro ações que discutem a constitucionalidade do pagamento das emendas do relator no Orçamento, o chamado orçamento secreto.&lt;/p&gt;
+&lt;p&gt;Orçamento secreto foi o nome informalmente dado às emendas parlamentares repassados aos estados sem critérios claros ou transparência. Foi o voto de Rosa Weber que levou o plenário do Supremo a suspender temporariamente esses pagamentos e determinar que o Congresso criasse um sistema para dar publicidade aos gastos. Os repasses foram liberados posteriormente.&lt;/p&gt;
+&lt;p&gt;O Supremo ainda precisa discutir se essa modalidade de liberação de recursos é constitucional.&lt;/p&gt;
+&lt;p&gt;Agora, cabe a ministra, que é relatora dos processos, marcar a data para análise dos casos. Na prática, a Rosa Weber indicou que quer julgar em breve as ações.&lt;/p&gt;
+&lt;p&gt;Nos bastidores, ministros avaliam que o julgamento pode ser marcado ainda antes do recesso da Corte em dezembro. Também não descartam que a discussão possa ser adiada com um pedido de vista , ou seja, de mais tempo para analisar os processos.&lt;/p&gt;
+&lt;p&gt;No ano passado, o STF determinou que o Congresso desse transparência à execução das emendas de relator. As informações passaram a ser publicadas pela Comissão Mista de Orçamento do Congresso, mas o sistema dificulta o acesso aos dados.&lt;/p&gt;
+&lt;p&gt;Em uma página, é possível ver as indicações para o destino do dinheiro das emendas. Uma lista com dezenas delas. Em outra está a execução das emendas, se o dinheiro já foi liberado, mas não mostra qual parlamentar está apadrinhando cada transferência de recurso.&lt;/p&gt;
+&lt;p&gt;Segundo a Procuradoria-Geral da República, o novo modelo está de acordo com a Constituição. “O Ato Conjunto 1/2021, das Mesas da Câmara dos Deputados e do Senado Federal, e a Resolução 2/2021, do Congresso Nacional, ao ampliarem a transparência da sistemática de apresentação, aprovação e execução orçamentária referente às emendas de relator-geral, respeitam a Constituição Federal”, diz o parecer.&lt;/p&gt;
+&lt;p&gt;Para a PGR, a anulação das novas regras só agravaria o quadro de violação da Constituição Federal. “Bem ou mal, os atos impugnados caminharam no sentido da maior publicidade, em comparação com a situação previamente existente”, afirmou.&lt;/p&gt;
+&lt;p&gt;A PGR entende ainda que, o fato de o Congresso não ter dado publicidade a todas as movimentações do orçamento secreto de 2020 e 2021, não interfere na constitucionalidade desse tipo de emenda porque antes não havia uma regra clara.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/covid-19-saude-identifica-casos-da-subvariante-bq-1-1-e-be-9-no-acre-e-reforca-a-importancia-da-vacinacao/</t>
+          <t>http://yaconews.com/2022/12/rosa-weber-libera-para-julgamento-acoes-que-contestam-orcamento-secreto/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/Vacinacao-na-UPA-do-2°-Distrito.-OL-8-1536x1017-1.jpg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091908.png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11:56:40</t>
+          <t>07:15:05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MEC volta atrás e desbloqueia os R$ 366 milhões de universidades e institutos federais, dizem entidades</t>
+          <t>PIX: BC altera regras sobre limites; veja o que muda</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61421" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440.png" alt="" width="673" height="462" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440.png 673w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440-300x206.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440-218x150.png 218w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440-612x420.png 612w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440-100x70.png 100w" sizes="(max-width: 673px) 100vw, 673px" /&gt;&lt;/p&gt;
-&lt;p&gt;A Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior (Andifes) afirmou nesta quinta-feira (1º) que o Ministério da Educação (MEC) desbloqueou os R$ 366 milhões do orçamento das universidades e institutos federais que haviam sido congelados três dias atrás.&lt;/p&gt;
-&lt;p&gt;A informação também foi confirmada pelo Conselho Nacional das Instituições da Rede Federal de Educação Profissional, Científica e Tecnológica (Conif).&lt;/p&gt;
-&lt;p&gt;Essa tinha sido a terceira interferência do governo Bolsonaro na verba do ensino superior neste ano. (Veja cronologia mais abaixo.)&lt;/p&gt;
-&lt;p&gt;O recuo aconteceu após intensa repercussão negativa. Reitores de universidades federais como de Juiz de Fora (UFJF), de Viçosa (UFV) e de Uberlândia (UFU), em Minas Gerais, por exemplo, mencionaram o risco de suspensão de atividades acadêmicas e administrativas, além de fechamento de setores e de atraso de pagamento de bolsas a estudantes.&lt;/p&gt;
-&lt;p&gt;A Andifes chegou a dizer que os contingenciamentos aconteceram “praticamente no apagar das luzes do exercício orçamentário de 2022”, e a União Nacional dos Estudantes (UNE) pediu respeito à educação brasileira.&lt;/p&gt;
-&lt;p&gt;O dinheiro das universidades e institutos federais que havia sido bloqueado é destinado ao pagamento de despesas como contas de luz e de água, bolsas de estudo e empregados terceirizados.&lt;/p&gt;
-&lt;p&gt;Procurado pelo g1, o MEC não havia se manifestado sobre a liberação dos recursos até a última atualização desta reportagem.&lt;/p&gt;
-&lt;p&gt;Quando houve o bloqueio, a pasta divulgou uma nota só no dia seguinte sem dar muitos detalhes e dizendo que havia sido notificada pelo Ministério da Economia a respeito do congelamento e que buscava &amp;#8220;soluções&amp;#8221;. A equipe econômica, por sua vez, tinha dito que iria rever o Orçamento em dezembro.&lt;/p&gt;
-&lt;p&gt;Em nota divulgada após a liberação dos recursos, a Andifes afirmou que &amp;#8220;seguirá atenta aos riscos de novos cortes e bloqueios&amp;#8221; e manterá diálogo com o Congresso Nacional, governo, sociedade civil e a equipe de transição do governo eleito &amp;#8220;para a construção de orçamento e políticas necessárias para a manutenção e o justo financiamento do ensino superior público&amp;#8221;.&lt;/p&gt;
-&lt;p&gt;A entidade acrescentou ainda que as &amp;#8220;universidades federais continuam no aguardo da restituição do valor de R$ 438 milhões, bloqueado em junho deste ano&amp;#8221;.&lt;/p&gt;
-&lt;p&gt;Entenda os reveses na verba da Educação&lt;br /&gt;
-O primeiro revés nos recursos da área aconteceu ainda em janeiro, quando o presidente Jair Bolsonaro (PL) sancionou o Orçamento de 2022. A fatia da educação perdeu R$ 739,9 milhões do total de R$ 113,4 bilhões que tinham sido aprovados pelo Congresso em dezembro de 2021.&lt;/p&gt;
-&lt;p&gt;De acordo com informações obtidas pelo g1, o orçamento atual da pasta é de R$ 166,1 bilhões. O valor pode aumentar ao longo do ano com o remanejamento de verbas de outros setores, por meio de créditos extraordinários. Do total da pasta, a previsão era que R$ 52,9 bilhões fossem direcionados às universidades federais.&lt;/p&gt;
-&lt;p&gt;Em resumo, há três marcos negativos na gestão do Orçamento de Educação ao longo do ano:&lt;/p&gt;
-&lt;p&gt;Junho: corte de R$ 1,6 bilhão no MEC; para universidades e institutos federais, o valor retirado foi de R$ 438 milhões;&lt;br /&gt;
-Outubro: bloqueio temporário de R$ 328,5 milhões para universidades e institutos; verba foi liberada posteriormente;&lt;br /&gt;
-Novembro: congelamento de R$ 366 milhões, considerando recursos de universidades e institutos federais, sob a justificativa de respeitar a chamada regra do teto de gastos, que limita os gastos públicos. O dinheiro foi liberado nesta quinta.&lt;br /&gt;
-Linha do tempo do corte e dos bloqueios&lt;br /&gt;
-Após a sanção do Orçamento deste ano, o primeiro susto para reitores veio em junho, depois de um bloqueio inicial de 14,5% do Orçamento da Educação. Nos dias seguintes, o bloqueio foi reduzido a 7,2%, que foi repassado às universidades e institutos federais.&lt;/p&gt;
-&lt;p&gt;Entretanto, o que começou como um bloqueio terminou como corte, já que o valor não foi devolvido às instituições. Apenas na educação superior (universidades e institutos), a redução foi de R$ 438 milhões.&lt;/p&gt;
-&lt;p&gt;Em outubro, o MEC sofreu um novo bloqueio, desta vez de R$ 1 bilhão, após o governo anunciar um contingenciamento de R$ 2,6 bilhões que foi repassado aos ministérios. Na ocasião, foram bloqueados R$ 328 milhões das universidades federais. O valor foi liberado posteriormente, depois de o ministério realocar verbas internamente.&lt;/p&gt;
-&lt;p&gt;No início desta semana, houve um novo congelamento, no valor de R$ 366 milhões, que foi liberado nesta quinta.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61457" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091355.png" alt="" width="624" height="411" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091355.png 624w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091355-300x198.png 300w" sizes="(max-width: 624px) 100vw, 624px" /&gt;&lt;/p&gt;
+&lt;p&gt;O Banco Central (BC) atualizou, nesta quinta-feira (1º), as regras sobre os limites de valor para as transações feitas por PIX, seu sistema de pagamentos instantâneos. Segundo o BC, o objetivo das mudanças é simplificar as regras e aprimorar a experiência dos usuários, &amp;#8220;mantendo o atual nível de segurança&amp;#8221;.&lt;/p&gt;
+&lt;p&gt;O que mudou?&lt;br /&gt;
+Limites&lt;/p&gt;
+&lt;p&gt;Pelas novas regras, os bancos não são mais obrigados a impor um limite de valor por transação, e são obrigados apenas a determinar um limite por período de tempo. Assim, quem tem um limite diário de R$ 3 mil, por exemplo, pode usar tudo em uma só transação.&lt;/p&gt;
+&lt;p&gt;As regras para que os clientes peçam alterações no limite seguem as mesmas: se o cliente pedir uma redução do limite, o banco deve reduzir imediatamente. Se, no entanto, o pedido for para aumentar o limite, ele deve ser autorizado entre 24h e 48h.&lt;/p&gt;
+&lt;p&gt;Quando o usuário for pessoa jurídica, os parâmetros para definir os limites de transações passam a ficar a critério dos bancos. A base para definir os limites quando o PIX for usado para uma compra passa a ser o limite que o mesmo cliente tem no TED, e não mais no cartão de débito.&lt;/p&gt;
+&lt;p&gt;Horário noturno&lt;/p&gt;
+&lt;p&gt;Outra alteração foi relacionada ao horário noturno: passa a ser opcional aos bancos oferecer a customização do horário noturno diferenciado, para o qual o cliente pode solicitar um limite menor para suas transações.&lt;/p&gt;
+&lt;p&gt;Normalmente, o horário noturno é entre 20h e 6h – mas os bancos poderão oferecer aos clientes a possibilidade de mudar esse horário para entre 22h e 6h.&lt;/p&gt;
+&lt;p&gt;PIX Saque e PIX Troco&lt;/p&gt;
+&lt;p&gt;Outra novidade é o aumento do valor limite para retirada de dinheiro pelo PIX Saque e pelo PIX Troco.&lt;/p&gt;
+&lt;p&gt;O limite durante o dia passa de R$ 500 para R$ 3 mil&lt;br /&gt;
+Durante a noite, passa de R$ 100 para R$ 1 mil&lt;br /&gt;
+“Essa medida tem como objetivo adequar os limites usualmente disponibilizados nos caixas eletrônicos para saques tradicionais. Assim, com o PIX Saque, os usuários terão acesso ao serviço com condições similares às do saque tradicional”, informou o BC em nota oficial.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61456" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091219.png" alt="" width="672" height="329" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091219.png 672w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091219-300x147.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091219-324x160.png 324w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091219-533x261.png 533w" sizes="(max-width: 672px) 100vw, 672px" /&gt;&lt;/p&gt;
+&lt;p&gt;Por que as mudanças aconteceram?&lt;br /&gt;
+Segundo o BC, as regras foram alteradas para facilitar o recebimento de recursos por correspondentes bancários, a exemplo do que já acontece nas lotéricas, e viabilizar o pagamento de salários, aposentadorias e pensões pelo Tesouro Nacional por meio do sistema.&lt;/p&gt;
+&lt;p&gt;Quando as alterações passam a valer?&lt;br /&gt;
+As novas regras passam a valer a partir de 2 de janeiro de 2023, com exceção dos ajustes feitos na gestão dos limites para os clientes por meio dos canais digitais – que, nesse caso, valem a partir de 3 de julho do ano que vem.&lt;/p&gt;
+&lt;p&gt;Entenda como mandar e receber dinheiro pelo Pix&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/mec-volta-atras-e-desbloqueia-os-r-366-milhoes-de-universidades-e-institutos-federais-dizem-entidades/</t>
+          <t>http://yaconews.com/2022/12/pix-bc-altera-regras-sobre-limites-veja-o-que-muda/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-135440.png</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-091355.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11:49:19</t>
+          <t>07:10:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Em Xapuri Mulher suspeita de matar ex-marido é presa</t>
+          <t>Sobe para 34 as notificações de Monkeypox no Acre</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61417" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939.png" alt="" width="794" height="503" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939.png 794w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939-300x190.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939-768x487.png 768w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939-696x441.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-11-25-090939-663x420.png 663w" sizes="(max-width: 794px) 100vw, 794px" /&gt;&lt;/p&gt;
-&lt;p&gt;Na manhã desta quinta-feira (1), a Polícia Civil em Xapuri prendeu R.B.M, de 52 anos, ex-companheira de F.C.B, de 57 anos de idade, um agricultor que foi encontrado morto na zona rural de Xapuri com um tiro nas costas e marcas de espancamento e esganadura.&lt;/p&gt;
-&lt;p&gt;R.B.M. é acusada de ter tramado a morte do ex-companheiro em conjunto com B.Q.S., de 36 anos, que trabalhava como diarista para a vítima. As prisões foram solicitadas pelo delegado do município no Inquérito que investiga a prática do crime de homicídio qualificado mediante pagamento ou promessa de recompensa.&lt;/p&gt;
-&lt;p&gt;O crime ocorreu no último dia 25 de novembro, mas o corpo foi encontrado apenas no dia 27 de novembro. Segundo as investigações, R.B.M planejou a morte e mandou B.Q.S. matar a vítima, que teria vultuosa quantidade de dinheiro em casa e após sua morte, o valor seria dividido igualmente entre a mandante e o executor.&lt;/p&gt;
-&lt;p&gt;No dia 28, B.Q.S. foi preso por uma guarnição da Polícia Militar em Epitaciolândia quando chegava do local onde cometeu o crime.&lt;/p&gt;
-&lt;figure id="attachment_795097" class="wp-caption alignnone" aria-describedby="caption-attachment-795097"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-795097 size-full" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=696%2C927&amp;amp;ssl=1" sizes="(max-width: 696px) 100vw, 696px" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?w=1200&amp;amp;ssl=1 1200w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=375%2C500&amp;amp;ssl=1 375w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=901%2C1200&amp;amp;ssl=1 901w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=188%2C250&amp;amp;ssl=1 188w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=768%2C1023&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=1153%2C1536&amp;amp;ssl=1 1153w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=150%2C200&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=300%2C400&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=600%2C800&amp;amp;ssl=1 600w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=696%2C927&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=1068%2C1423&amp;amp;ssl=1 1068w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=315%2C420&amp;amp;ssl=1 315w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-2.jpeg?resize=630%2C840&amp;amp;ssl=1 630w" alt="" width="696" height="927" /&gt;&lt;figcaption id="caption-attachment-795097" class="wp-caption-text"&gt;Foto: Ascom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O suspeito foi conduzido para a Delegacia de Polícia Civil daquele município e em seguida conduzido para a Delegacia de Polícia Civil de Xapuri, Unidade Policial que responsável pela investigação do caso, onde foi ouvido.&lt;/p&gt;
-&lt;figure id="attachment_795096" class="wp-caption alignnone" aria-describedby="caption-attachment-795096"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-795096 size-full" src="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=696%2C928&amp;amp;ssl=1" sizes="(max-width: 696px) 100vw, 696px" srcset="https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?w=960&amp;amp;ssl=1 960w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=375%2C500&amp;amp;ssl=1 375w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=900%2C1200&amp;amp;ssl=1 900w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=188%2C250&amp;amp;ssl=1 188w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=768%2C1024&amp;amp;ssl=1 768w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=150%2C200&amp;amp;ssl=1 150w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=300%2C400&amp;amp;ssl=1 300w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=600%2C800&amp;amp;ssl=1 600w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=696%2C928&amp;amp;ssl=1 696w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=315%2C420&amp;amp;ssl=1 315w, https://i0.wp.com/contilnetnoticias.com.br/wp-content/uploads/2022/12/xapuri-policia-civil-1.jpeg?resize=630%2C840&amp;amp;ssl=1 630w" alt="" width="696" height="928" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-795096" class="wp-caption-text"&gt;Foto: Ascom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Após a prisão, a dupla foi transferida para o Complexo Penitenciário Francisco Oliveira em Rio Branco.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61453" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090727.png" alt="" width="703" height="396" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090727.png 703w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090727-300x169.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090727-696x392.png 696w" sizes="(max-width: 703px) 100vw, 703px" /&gt;&lt;/p&gt;
+&lt;p&gt;Em um novo boletim, divulgado pela Secretaria de Saúde do Acre (Sesacre), dados apontam que subiu para 34 as notificações de monkeypox até esta quinta-feira (1), de acordo com o Centro de Informações Estratégicas de Vigilância em Saúde da Regional de Saúde do Acre (Cievs).&lt;/p&gt;
+&lt;p&gt;Destes, apenas um foi confirmado, 31 descartados, um considerado com perda de seguimento e um suspeito.&lt;/p&gt;
+&lt;p&gt;É considerado como perda de seguimento o caso que não tenha registro de vínculo epidemiológico; o paciente não realizou coleta de exame laboratorial ou fez coleta de exame laboratorial, mas a amostra foi inviável ou ainda teve resultado inconclusivo; o paciente não teve oportunidade de nova coleta de amostra laboratorial (30 dias após o início da apresentação de sinais e sintomas).&lt;/p&gt;
+&lt;p&gt;São 34 notificações, sendo:&lt;/p&gt;
+&lt;p&gt;Casos confirmados &amp;#8211; 1&lt;br /&gt;
+Descartados &amp;#8211; 31&lt;br /&gt;
+Perda de seguimento &amp;#8211; 1&lt;br /&gt;
+Suspeitos &amp;#8211; 1&lt;br /&gt;
+O primeiro caso confirmado da doença foi divulgado no dia 25 de julho. O paciente, de 27 anos, viajou para o exterior e em seu retorno apresentou febre, cansaço físico e pápulas espalhadas pelos braços e abdômen, sendo notificado no dia 11 do mesmo mês pela Unimed.&lt;/p&gt;
+&lt;p&gt;Exames&lt;br /&gt;
+O Acre começou a fazer exames que detectam a monkeypox a partir desta quinta-feira (24). Os exames estão sendo feitos no Laboratório Central de Saúde Pública (Lacen). Antes, as amostras eram enviadas para fora do estado.&lt;/p&gt;
+&lt;p&gt;O método usado para chegar ao diagnóstico é o mesmo utilizado para detectar a Covid-19, o PCR, ou Reação em Cadeia da Polimerase, que consiste na amplificação de uma região específica de DNA, facilitando o reconhecimento do vírus.&lt;/p&gt;
+&lt;p&gt;Sintomas e transmissão&lt;br /&gt;
+Os sintomas iniciais da varíola dos macacos costumam ser febre, dor de cabeça, dores musculares, dor nas costas, gânglios (linfonodos) inchados, calafrios e exaustão.&lt;/p&gt;
+&lt;p&gt;Dentro de 1 a 3 dias (às vezes mais) após o aparecimento da febre, o paciente desenvolve uma erupção cutânea, geralmente começando no rosto e se espalhando para outras partes do corpo.&lt;/p&gt;
+&lt;p&gt;As lesões passam por cinco estágios antes de cair, segundo o Centro de Controle de Doenças (CDC) dos Estados Unidos. A doença geralmente dura de 2 a 4 semanas.&lt;/p&gt;
+&lt;p&gt;O que é um diferencial indicativo: o desenvolvimento de lesões – lesões na cavidade oral e na pele. Elas começam a se manifestar primeiro na face e vão se disseminando pro tronco, tórax, palma da mão, sola dos pés&amp;#8221;, completa Trindade, que é consultora do grupo criado pelo Ministério da Ciência, Tecnologia e Inovações para acompanhar os casos de varíola dos macacos.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/em-xapuri-mulher-suspeita-de-matar-ex-marido-e-presa/</t>
+          <t>http://yaconews.com/2022/12/sobe-para-34-as-notificacoes-de-monkeypox-no-acre/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-134349.png</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090727.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11:33:54</t>
+          <t>07:06:05</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Em Sena, moradores cobram melhorias na estrada Florentino: “A buraqueira está tomando de conta”</t>
+          <t>Iapen é condenado a pagar R$ 20 mil de danos morais por morte de preso</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61411" src="http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5.jpg" alt="" width="1280" height="802" srcset="http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5.jpg 1280w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-300x188.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-1024x642.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-768x481.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-696x436.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-1068x669.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5-670x420.jpg 670w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/p&gt;
-&lt;p&gt;As dezenas de famílias que residem no bairro Florentino, em Sena Madureira, estão reclamando bastante da única de acesso à referida comunidade. Em vários trechos, os buracos estão tomando de conta, comprometendo a trafegabilidade e aumentando os riscos de acidentes.&lt;/p&gt;
-&lt;p&gt;Com a chegada do inverno, a preocupação dos moradores aumenta ainda mais já que os buracos tendem a aumentar. “Já estamos enfrentando bastante dificuldades por causa da buraqueira. Pedimos encarecidamente que o prefeito Mazinho Serafim tome as providências devidas”, comentou o autônomo Francisco Batista.&lt;/p&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61414" src="http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579.jpg" alt="" width="1280" height="960" srcset="http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579.jpg 1280w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-300x225.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-1024x768.jpg 1024w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-768x576.jpg 768w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-696x522.jpg 696w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-1068x801.jpg 1068w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-560x420.jpg 560w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-80x60.jpg 80w, http://yaconews.com/wp-content/uploads/2022/12/d0f383f0-f2a7-4daa-9898-a7c0e73f5579-265x198.jpg 265w" sizes="(max-width: 1280px) 100vw, 1280px" /&gt;&lt;/p&gt;
-&lt;p&gt;A comunidade esperava que o melhoramento da estrada Florentino tivesse ocorrido no verão, época propícia para esse tipo de trabalho. “O ideal seria refazer o asfaltamento, mas parece que isso está longe da realidade. Então, que a Prefeitura faça ao menos um serviço paliativo nesse local. Não aguentamos mais tantos buracos”, completou o morador.&lt;/p&gt;
-&lt;p&gt;No primeiro mandato de Serafim, a estrada Florentino foi asfaltada até a escola municipal Clarisse Assef, entretanto, o asfaltamento não resistiu ao tempo e vem se deteriorando em diversos trechos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61450" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090417.png" alt="" width="681" height="545" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090417.png 681w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090417-300x240.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090417-525x420.png 525w" sizes="(max-width: 681px) 100vw, 681px" /&gt;&lt;/p&gt;
+&lt;p&gt;O Instituto de Administração Penitenciária do Acre (Iapen) foi condenado a pagar R$ 20 mil de danos morais pela morte do detento Normando Gomes de Bregencio Júnior, de 38 anos, dentro do Complexo Prisional de Rio Branco.&lt;/p&gt;
+&lt;p&gt;Segundo as investigações, Júnior e o irmão Francisco de Souza Bregencio foram espancados por outros presos durante o banho de sol no pavilhão &amp;#8216;A&amp;#8217; do complexo no dia 30 de outubro de 2020.&lt;/p&gt;
+&lt;p&gt;Os irmãos ficaram gravemente feridos, foram socorridos pelo Serviço de Atendimento Móvel de Urgência (Samu) e levados para o pronto-socorro. No dia 9 de novembro, Júnior não resistiu aos ferimentos e morreu.&lt;/p&gt;
+&lt;p&gt;Conforme a Justiça, o laudo cadavérico apontou traumatismo cranioencefálico causado pelas agressões como causa da morte. A irmã da vítima entrou na Justiça contra o Iapen-AC pedindo indenização e pensão alimentícia por causa da morte de Normando Júnior.&lt;/p&gt;
+&lt;p&gt;A Justiça determinou que ela seja indenizada uma vez que o &amp;#8216;evento danoso adveio de uma omissão estatal e a negligência foi decisiva para a morte do apenado, assim invocou a Teoria da Responsabilidade Subjetiva para o arbitramento&amp;#8217;.&lt;/p&gt;
+&lt;p&gt;A decisão é do Juízo da 1ª Vara de Fazenda Pública de Rio Branco e ainda cabe recurso. Nos autos, o Iapen-AC alegou que o preso foi agredido por sujeitos não identificados, possivelmente em represália a agressão cometida antes.&lt;/p&gt;
+&lt;p&gt;À reportagem, o presidente do Iapen-AC, Glauber Feitoza, informou que o Estado vai tomar as devidas providências assim que finalizar, de fato e direito, o processo, que se encontra em fase de recurso. &amp;#8220;Após deliberada a sentença em definitivo pelo Poder Judiciário, o Estado vai acatar e executar&amp;#8221;, resumiu.&lt;/p&gt;
+&lt;p&gt;Recurso&lt;br /&gt;
+O advogado da família da vítima, Romano Gouveia, disse que vai entrar com recurso contra o valor da indenização estipulado na decisão. O pedido inicial da irmã de Júnior era de mais de R$ 230 mil de indenização.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;O pedido de pagamento de pensão o juiz negou porque ele não tinha dependentes, mas, pelo olhar da defesa, esses homicídios corriqueiros que têm dentro do nosso falido sistema prisional, o Estado sempre vai ser responsável. A culpa dele é objetiva, tem o dever de garantir a integridade física&amp;#8221;, criticou.&lt;/p&gt;
+&lt;p&gt;MP instaurou inquérito&lt;br /&gt;
+Em dezembro de 2020, o Ministério Público do Acre (MP-AC) chegou a instaurar um inquérito para investigar a morte de Normando Gomes de Bregencio Junior.&lt;/p&gt;
+&lt;p&gt;A morte do detento também foi investigada pela Delegacia de Homicídio e Proteção à Pessoa (DHPP) da Polícia Civil. A 4ª Promotoria Criminal de Execução Penal e Fiscalização de Presídio chegou a enviar um ofício para a direção da Polícia Civil solicitando a abertura de um inquérito policial por homicídio doloso.&lt;/p&gt;
+&lt;p&gt;O Instituto de Administração Penitenciária do Acre (Iapen-AC) informou também, na época, que instaurou um procedimento administrativo para apurar os fatos e colaborava com as investigações.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/em-sena-moradores-cobram-melhorias-na-estrada-florentino-a-buraqueira-esta-tomando-de-conta/</t>
+          <t>http://yaconews.com/2022/12/iapen-e-condenado-a-pagar-r-20-mil-de-danos-morais-por-morte-de-preso/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/8810a480-ab6e-47c6-81aa-aedd1e869db5.jpg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-090417.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10:18:00</t>
+          <t>07:02:03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Saúde alerta para aumento de casos de meningite no Acre</t>
+          <t>Após dois meses, Acre volta a registrar mortes por Covid-19</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61408" src="http://yaconews.com/wp-content/uploads/2022/12/images.jpeg-85.jpg" alt="" width="678" height="452" srcset="http://yaconews.com/wp-content/uploads/2022/12/images.jpeg-85.jpg 678w, http://yaconews.com/wp-content/uploads/2022/12/images.jpeg-85-300x200.jpg 300w, http://yaconews.com/wp-content/uploads/2022/12/images.jpeg-85-630x420.jpg 630w" sizes="(max-width: 678px) 100vw, 678px" /&gt;&lt;/p&gt;
-&lt;p&gt;A vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. No Acre, as taxas de cobertura vacinal contra a enfermidade, principalmente nas modalidades meningocócicas, estão abaixo das recomendadas pelo Ministério da Saúde (MS).&lt;/p&gt;
-&lt;p&gt;Segundo dados da Secretaria de Saúde (Sesacre), de janeiro até o dia 1º de dezembro foram notificados 67 casos suspeitos da doença com 13 casos confirmados. Entre os óbitos, 1 foi por meningite fúngica e três por meningite viral. A taxa de letalidade encontra-se em 30,7%, representado um aumento de 19,6% em relação a 2021.&lt;/p&gt;
-&lt;figure id="attachment_585433" class="wp-caption aligncenter" aria-describedby="caption-attachment-585433"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585433 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1-300x199.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1-768x509.jpg 768w" alt="" width="1024" height="678" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1-300x199.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1-768x509.jpg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585433" class="wp-caption-text"&gt;Crianças menores de cinco anos de idade, adolescentes de 11 e 12 anos e pessoas com comorbidade fazem parte do grupo prioritário para a vacinação. Foto: Odair Leal/Sesacre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O MS registrou, até o fim de outubro, 5.821 casos e 702 óbitos por meningites de diferentes etiologias – causas – no Brasil. O motivo do avanço é a queda do índice de vacinação no país, principal meio de prevenção, chegando a combater 90% das formas mais graves da doença.&lt;/p&gt;
-&lt;p&gt;As vacinas contra a meningite bacteriana são consideradas as medidas mais eficazes e seguras para evitar quadros mais graves da doença, que produzem sequelas como amputações, surdez, cicatrizes ou morte. “Uma vez que as crianças e adolescentes deixem de receber a vacina, o agente causador da doença começa a circular, aumentando a sua incidência”, explica Daíla Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie) da Sesacre.&lt;/p&gt;
-&lt;p&gt;Existem imunizantes que protegem contra todos os tipos da doença bacteriana, meningite A, C, W, Y e B. A vacina disponível na rede pública protege contra o tipo C da doença e é ofertada ao público prioritário: crianças menores de cinco anos de idade, adolescentes de 11 e 12 anos e pessoas com comorbidade. A cobertura para a vacina meningocócica C (conjugada) no ano de 2021 foi de 69,81% em crianças. Já de janeiro a setembro de 2022, encontra-se em 67,83%, quando o preconizado pelo MS é 95%.&lt;/p&gt;
-&lt;p&gt;“Lembramos ainda que não existe vacina contra outros microrganismos causadores de meningites como os fungos, vírus, protozoários e helmintos [vermes parasitas]”, acrescenta Daíla Timbó.&lt;/p&gt;
-&lt;figure id="attachment_585438" class="wp-caption aligncenter" aria-describedby="caption-attachment-585438"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="size-large wp-image-585438" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1024x684.jpg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1024x684.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-768x513.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1536x1025.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-855x572.jpg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1.jpg 2048w" alt="" width="1024" height="684" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1024x684.jpg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1024x684.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-768x513.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1536x1025.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-855x572.jpg 855w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1.jpg 2048w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585438" class="wp-caption-text"&gt;Vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. Foto: Odair Leal/Sesacre&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;h4&gt;O que é a meningite?&lt;/h4&gt;
-&lt;p&gt;A meningite é uma doença grave, que pode levar à morte em até 24 horas. Trata-se de uma inflamação das meninges – membranas que recobrem o cérebro e a medula espinhal. É preciso agir rapidamente desde o início dos primeiros sintomas, pois a patologia pode deixar sequelas consideráveis, como amputações, perda da audição e convulsões.&lt;/p&gt;
-&lt;h4&gt;Sintomas e tratamento&lt;/h4&gt;
-&lt;p&gt;A intensidade dos sinais pode variar de acordo com o agente infeccioso. Segundo a Biblioteca Virtual em Saúde do MS, as meningites provocadas por vírus costumam ser mais brandas, e os sintomas são parecidos com os de gripes e resfriados.&lt;/p&gt;
-&lt;p&gt;Entre os sinais da forma viral estão dor de cabeça, febre, um pouco de rigidez da nuca, falta de apetite e irritação. O vírus pode ser transmitido pelo contato com a saliva e a secreção respiratória ou por meio de alimentos contaminados e água.&lt;/p&gt;
-&lt;p&gt;Já as meningites bacterianas são mais graves, e os sintomas aparecem em pouco tempo, incluindo mal-estar, febre alta, vômitos, dor de cabeça forte e no pescoço, dificuldade para encostar o queixo no peito e manchas vermelhas no corpo. A transmissão ocorre por meio de secreções eliminadas pelo trato respiratório, como espirro ou tosse.&lt;/p&gt;
-&lt;p&gt;O tratamento da meningite é feito conforme o agente causador da infecção. De modo geral, a abordagem precisa ter início o quanto antes, para aumentar as chances de evitar o desenvolvimento de lesões que podem deixar sequelas permanentes ou, até mesmo, levar à morte.&lt;/p&gt;
-&lt;p&gt;Não há tratamento para combater o tipo viral, que se resolve sozinho, podendo ser utilizada medicação para aliviar os sintomas, como dor e febre.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61447" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085957.png" alt="" width="742" height="356" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085957.png 742w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085957-300x144.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085957-696x334.png 696w" sizes="(max-width: 742px) 100vw, 742px" /&gt;&lt;/p&gt;
+&lt;p&gt;Após dois meses sem registrar óbitos por Covid-19, o Acre registrou, nesta quinta-feira (1), duas mortes pela doença, fazendo o número de vítima fatais subir para 2.031. A última vez que o estado acreano havia registrado morte pela doença foi em 15 de setembro&lt;/p&gt;
+&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 248 novos casos de coronavírus nesta quinta. O número de infectados notificados é de 154.223 em todo o estado, desde o início da pandemia.&lt;/p&gt;
+&lt;p&gt;O Acre registra 361.048 notificações de contaminação pela doença, sendo que 206.795 casos foram descartados e 30 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.393 pessoas já receberam alta médica da doença.&lt;/p&gt;
+&lt;p&gt;Vítimas&lt;br /&gt;
+Um homem de 96 anos, que deu entrada no Hospital Raimundo Chaar, em Brasileia no dia 29 de novembro deste ano e morreu na mesma data.&lt;/p&gt;
+&lt;p&gt;Um adolescente de 15 anos, que deu entrada na Unidade de Pronto Atendimento da Via Verde no dia 29 de novembro e faleceu no dia 30, do mesmo mês. Ele tinha comorbidades como hidrocefalia e cardiopatia congênita. A Saúde não soube informar se ele era vacinado contra a Covid-19.&lt;/p&gt;
+&lt;p&gt;Novembro sem mortes&lt;br /&gt;
+Diferente de outubro, em novembro o Acre registrou um salto significativo com relação aos casos novos de Covid-19. O levantamento do g1 leva em consideração os dados diários da Secretaria de Saúde do estado (Sesacre), que mostram que só em novembro foram 4.219 novos infectados pelo coronavírus, fazendo os casos da doença chegarem a 153.975. Já com relação a mortes, não houve registros, e o número de vítimas fatais pela doença continuou 2.029 em novembro.&lt;/p&gt;
+&lt;p&gt;O governo do Acre publicou, no dia 14 de outubro, um decreto que revogou a criação Pacto Acre Sem Covid, que determinava as regras e funcionamento do Comitê de Acompanhamento Especial da Covid-19 e, com isso, os boletins de casos novos da doença passaram a ser semanais. Porém, desde o dia 17 de novembro, isso mudou e, com o aumento dos casos, os informativos voltaram a ser diários.&lt;/p&gt;
+&lt;p&gt;Após aumento de casos de Covid no Acre, a Saúde voltou a recomendar uso de máscaras em locais fechados ou de aglomeração. A orientação foi divulgada no último dia 21, durante entrevista coletiva com representantes da pasta.&lt;/p&gt;
+&lt;p&gt;Os meses mais letais no Acre desde o início da pandemia foram março e abriu de 2021, quando foram registradas 254 e 267 mortes pela doença. Já este ano, o mês com maior número de mortes foi fevereiro, quando 100 pessoas foram vítimas da Covid. Foi também em fevereiro deste ano que houve o maior registros de casos novos da doença, chegando a 19.323 casos novos &amp;#8211; o maior registro desde o início da pandemia.&lt;/p&gt;
+&lt;p&gt;A taxa de contaminação no estado é de 17.005 para cada 100 mil habitantes. Já a de letalidade está em 224 para cada 100 mil habitantes. O índice de letalidade está em 1,3%.&lt;/p&gt;
+&lt;p&gt;Vacinação no Acre&lt;br /&gt;
+Das 841.771 pessoas aptas a tomar a primeira dose da vacina contra a Covid-19 no Acre, 145.152 ainda não tomaram o imunizante. Os dados foram divulgados pela Secretaria de Saúde do Acre (Sesacre), que tem reforçado a campanha de vacinação após o estado acreano voltar a registrar casos da doença. Esse público varia de 3 a mais de 60 anos de idade.&lt;/p&gt;
+&lt;p&gt;O infectologista Eduardo Farias explica que a cobertura vacinal precisa ser ampliada para que a população esteja segura nesse momento de alerta por conta da confirmação em vários estados da subvariante BQ.1 do coronavírus. “Se você tem uma população bem vacinada, você tem o que a gente chama de uma boa barreira imunológica coletiva”, aponta.&lt;/p&gt;
+&lt;p&gt;O especialista ressalta que os cuidados preventivos adotados desde o início da pandemia seguem válidos para esse momento.&lt;/p&gt;
+&lt;p&gt;“Os protocolos que já são conhecidos e que estão sendo aplicados no Brasil e no mundo, são ainda muito eficazes e necessários nesse momento. O uso de máscaras, que sejam adequadas, cubram a boca, nariz e queixo, essas máscaras funcionam como barreiras físicas para o vírus, mas também [é importante] evitar aglomerações, evitar locais fechados, evitar também estar próximo de pessoas confirmadas com Covid, e acima de tudo a higienização das mãos com álcool em gel ou álcool 70%, ou até mesmo com água e sabão. São medidas simples, mas eficazes, e foram comprovadas.”, aponta.&lt;/p&gt;
+&lt;p&gt;Reforço é necessário&lt;br /&gt;
+Para o epidemiologista Jesem Orellana da Fiocruz-Amazônia, o momento ainda requer atenção e recorrer às vacinas é a única forma de evitarmos alguns cenários que já foram registrados no estado, como leitos lotados e mortes pela doença.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Manter o esquema vacinal completo é algo fundamental, principalmente quando estamos falando de uma doença como a Covid-19 que já matou milhões de pessoas pelo mundo. É hora de entender que essas vacinas não fazem mal, muito pelo contrário, elas protegem, e por elas saímos daquele cenário trágico que vivemos ao longo de 2020 e 2021&amp;#8221;, destacou.&lt;/p&gt;
+&lt;p&gt;Com o aumento no número de casos da Covid-19 e o descobrimento de mais uma variante circulando no país, a Ômicron BQ.1, o epidemiologista reforça que a forma mais eficaz para evitar que a nova variante se espalhe no estado é a imunização&lt;/p&gt;
+&lt;p&gt;“Infelizmente a imunidade contra o novo coronavírus vai diminuindo ao longo do tempo. E, por isso, é necessário tomar uma, duas, três ou quantas doses de reforço forem necessárias. Sobre as variantes e subvariantes, principalmente da Ômicron, as vacinas continuam funcionando muito bem, independente de terem sido fabricadas com as informações das novas variantes”, completa Orellana.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/saude-alerta-para-aumento-de-casos-de-meningite-no-acre/</t>
+          <t>http://yaconews.com/2022/12/apos-dois-meses-acre-volta-a-registrar-mortes-por-covid-19/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/images.jpeg-85.jpg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085957.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10:13:12</t>
+          <t>06:56:35</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Secretaria de Infraestrutura acompanha andamento da obra de reforma e ampliação do Hospital João Câncio Fernandes</t>
+          <t>Polícia apreende droga dentro de panela de pressão e cão de porcelana que seriam enviados pelos Correios para o Ceará</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61405" src="http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg" alt="" width="1453" height="738" srcset="http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg 1453w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-300x152.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-1024x520.jpeg 1024w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-768x390.jpeg 768w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-696x354.jpeg 696w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-1068x542.jpeg 1068w, http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1-827x420.jpeg 827w" sizes="(max-width: 1453px) 100vw, 1453px" /&gt;&lt;/p&gt;
-&lt;p&gt;Acolher, tratar e salvar vidas faz parte do conjunto de compromissos que a Saúde Pública do Acre tem com a população. Por isso, após a ampliação e reforma do Hospital João Câncio Fernandes, o município de Sena Madureira terá uma saúde fortalecida e com mais qualidade de vida e atendimento adequado para as pessoas.&lt;/p&gt;
-&lt;p&gt;Numa rota de avanço, o governo do Acre, por meio da Secretaria de Estado de Infraestrutura (Seinfra), acompanha de perto cada etapa da edificação do prédio e ampliação da unidade.&lt;/p&gt;
-&lt;figure id="attachment_581913" class="wp-caption aligncenter" aria-describedby="caption-attachment-581913"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581913 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-1024x520.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-1024x520.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-300x152.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-768x390.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg 1453w" alt="" width="1024" height="520" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-1024x520.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-1024x520.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-300x152.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1-768x390.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg 1453w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581913" class="wp-caption-text"&gt;Obra do Hospital João Câncio Fernandes está na 3ª fase de edificação. Foto: Danna Anute/Secom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O hospital se tornará uma referência para a comunidade local, após a reforma do antigo prédio e ampliação do novo espaço. Guilherme Lira, engenheiro civil da Seinfra e fiscal da obra, afirma: “Estamos na terceira etapa e há previsão de entregar nesta etapa a diretoria, no dia 20 de dezembro”.&lt;/p&gt;
-&lt;p&gt;A unidade hospitalar está orçada em mais de R$ 12 milhões e terá a capacidade tecnológica ampliada, além de receber equipamentos modernos no centro cirúrgico e laboratórios.&lt;/p&gt;
-&lt;p&gt;Com dois andares; a unidade contará com estacionamento, setor administrativo e salas de cirurgia, pré-parto, parto e puerpério, vai dispor de 60 leitos, 10 salas de enfermarias, além de oferecer raio-x e diversos exames.&lt;/p&gt;
-&lt;figure id="attachment_581918" class="wp-caption aligncenter" aria-describedby="caption-attachment-581918"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581918 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-1024x528.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-1024x528.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-300x155.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-768x396.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37.jpeg 1475w" alt="" width="1024" height="528" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-1024x528.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-1024x528.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-300x155.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37-768x396.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.37.jpeg 1475w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581918" class="wp-caption-text"&gt;Trabalhadores avançam na pintura do prédio. Foto: Danna Anute/Secom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;O operário Sebastião Silva destacou: “O novo hospital vai acolher o povo. Agora vai ter o atendimento médico que precisamos sem precisar ir para Rio Branco”.&lt;/p&gt;
-&lt;figure id="attachment_581915" class="wp-caption aligncenter" aria-describedby="caption-attachment-581915"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581915 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-1024x674.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-1024x674.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-300x197.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-768x505.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2.jpeg 1432w" alt="" width="1024" height="674" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-1024x674.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-1024x674.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-300x197.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2-768x505.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-2.jpeg 1432w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581915" class="wp-caption-text"&gt;Sebastião está trabalhando na construção do hospital desde março. Foto: Danna Anute/Secom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;Avó da menina Luana Santos, internada em observação, na unidade provisória de atendimento, Juracy Brandão afirmou: “Esse hospital vai ser uma maravilha, uma benção para nós. A população de Sena Madureira espera por isso há muito tempo, principalmente as crianças e os idosos”.&lt;/p&gt;
-&lt;figure id="attachment_581916" class="wp-caption aligncenter" aria-describedby="caption-attachment-581916"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581916 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-1024x549.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-1024x549.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-300x161.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-768x411.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1.jpeg 1329w" alt="" width="1024" height="549" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-1024x549.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-1024x549.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-300x161.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1-768x411.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1.jpeg 1329w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581916" class="wp-caption-text"&gt;Frente da unidade de internação provisória do João Câncio Fernandes. Foto: Danna Anute/Secom&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;“A expectativa é atender a população de Sena Madureira, Manoel Urbano, Feijó e parte de Boca do Acre, no interior do Amazonas. O novo hospital será fundamental para trabalhar num atendimento humanizado aos pacientes”, disse o diretor do hospital, Tadeu Brana.&lt;/p&gt;
-&lt;figure id="attachment_581917" class="wp-caption aligncenter" aria-describedby="caption-attachment-581917"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-581917 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1024x641.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1024x641.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-300x188.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-768x481.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35.jpeg 1500w" alt="" width="1024" height="641" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1024x641.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-1024x641.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-300x188.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35-768x481.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-14-at-17.35.35.jpeg 1500w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-581917" class="wp-caption-text"&gt;Diretor do hospital, Tadeu Brana. Foto: Danna Anute/Secom.&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;A obra faz parte da parceria entre governo, prefeitura e emendas parlamentares.&lt;/p&gt;
-&lt;p&gt;A saúde é um bem de construção coletiva, e na atual gestão tem sido sinônimo de atenção e assistência, a exemplo do que ocorre no Pronto-Socorro e na Fundação Hospital do Acre (Fundhacre), em Rio Branco.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61444" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085500.png" alt="" width="585" height="561" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085500.png 585w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085500-300x288.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085500-438x420.png 438w" sizes="(max-width: 585px) 100vw, 585px" /&gt;&lt;/p&gt;
+&lt;p&gt;Mais de um quilo de skunk, droga conhecida como a &amp;#8216;supermaconha&amp;#8217;, foi apreendido pela Delegacia de Repressão ao Narcotráfico (Denarc) nessa quinta-feira (1º) no Centro de Distribuição dos Correios, em Rio Branco.&lt;/p&gt;
+&lt;p&gt;O entorpecente estava escondido dentro de uma panela de pressão e um cachorro de porcelana que seriam enviados para Fortaleza, no Ceará.&lt;/p&gt;
+&lt;p&gt;A apreensão é resultado de um trabalho investigativo da Denarc e contou com ajuda de um cachorro policial, que farejou o material dentro das encomendas. Ninguém foi preso até o momento.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Nesse caso específico, a mercadoria estava saindo do Acre para outra federação. Apreendemos a mercadoria, fui até a agência dos Correios e constatou-se que se tratava de entorpecente&amp;#8221;, explicou o delegado Igor Moura.&lt;/p&gt;
+&lt;p&gt;Um vídeo gravado pela polícia mostra os policiais quebrando o cachorro de porcelana para retirar a droga. O delegado acrescentou que toda a ação foi acompanhada por equipes dos Correios.&lt;/p&gt;
+&lt;p&gt;Moura frisou que as investigações continuam para tentar descobrir quem enviou a droga e a pessoa que receberia a encomenda.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Esse caso do cachorro [de porcelana] chama atenção pelo trabalho que o cara teve. É muito comum o criminoso está pensando em métodos novos para fazer o encaminhamento da droga. Foi uma operação com apoio dos Correios, sempre são muito solícitos, sempre ajudam a Polícia Civil&amp;#8221;, concluiu.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/secretaria-de-infraestrutura-acompanha-andamento-da-obra-de-reforma-e-ampliacao-do-hospital-joao-cancio-fernandes/</t>
+          <t>http://yaconews.com/2022/12/policia-apreende-droga-dentro-de-panela-de-pressao-e-cao-de-porcelana-que-seriam-enviados-pelos-correios-para-o-ceara/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-14-at-17.35.38-1.jpeg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-085500.png</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:09:28</t>
+          <t>06:51:38</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jorge Viana avalia trabalhos da transição durante entrevista à Globo News</t>
+          <t>Em Sena morre Jovem baleado durante confronto de facções</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61399" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720.png" alt="" width="786" height="481" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720.png 786w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720-300x184.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720-768x470.png 768w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720-696x426.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720-686x420.png 686w" sizes="(max-width: 786px) 100vw, 786px" /&gt;&lt;/p&gt;
-&lt;p&gt;Coordenador do Grupo de Trabalho do Meio Ambiente, o ex-senador Jorge Viana (PT), concedeu entrevista à Globo News na tarde desta quarta-feira, 30, para falar sobre o andamento dos trabalhos do grupo que está coordenando em Brasília, composto também pelos ex-ministros do Meio Ambiente, Marina Silva, Izabella Teixeira e Carlos Minc.&lt;br /&gt;
-Jorge Viana informou que o grupo está fechando a primeira versão, do primeiro relatório para entregar na coordenação-geral da equipe de transição.&lt;/p&gt;
-&lt;p&gt;“O presidente Lula assumiu dois grandes compromissos. Um é uma questão de vida para ele, que é auxiliar às famílias carentes, enfrentar o problema da fome. E o outro, também lida com vida, inclusive do planeta, que ele assumiu internacionalmente de enfrentar o desmatamento, a questão do clima e empoderar o enfrentamento dessa agenda no novo governo”.&lt;/p&gt;
-&lt;p&gt;Viana falou do desafio que de coordenar o grupo de transição do Meio Ambiente. Segundo ele, é uma missão com desafio enorme. “Mas, não é tão complexa porque temos aqui um grupo muito qualificado que está nos auxiliando, mesmo tendo dificuldades para adquirir dados do atual governo”, destacou.&lt;/p&gt;
-&lt;p&gt;O ex-senador pontuou ainda que enfrentar o desmatamento é talvez a ação mais importante que o governo do presidente Lula precisará fazer a partir de janeiro de 2023. “Mas, nós vamos montar uma estratégia de enfrentar. Já em janeiro acredito que tem condição de algumas ações fortes serem implementadas”, assegurou.&lt;/p&gt;
-&lt;p&gt;Jorge Viana revelou que há registraram 60 garimpos ilegais dentro das áreas indígenas. Em sete delas, ele informou que a situação é gravíssima. “Então, temos desmatamento em unidades de conservação, não cabe isso, dentro de áreas da União. Têm ações que certamente da para começar já no primeiro dia e dar uma satisfação para a sociedade”, frisou.&lt;/p&gt;
-&lt;p&gt;O coordenador acrescentou ainda que tem um novo arco do desmatamento na divisa do Acre, Rondônia e sul do Amazonas. E, ressaltou que há ainda déficit de 2.130 servidores devido ao desmonte que o governo de Bolsonaro promoveu na área ambiental.&lt;/p&gt;
-&lt;p&gt;“O presidente Lula vai trazer, certamente, nos primeiros dias de governo, o Fundo Amazônia de volta. São R$ 3 bilhões que vão auxiliar no enfrentamento ao desmatamento. Temos que ter uma recomposição orçamentária, mas o mais importante é revogar medidas que abriram a porteira para o desmatamento ilegal”, avalia.&lt;/p&gt;
-&lt;p&gt;Jorge Viana disse ainda que o Brasil está enfrentando é um desmatamento ilegal num patamar muito elevado. “Esse governo ficou quatro anos com crescimento de desmatamento. É uma necessidade o enfretamento dessa situação, inclusive para quem cria, para quem produz. Porque está dando insegurança jurídica para quem trabalha e produz. Os recursos precisam ser garantidos para o novo governo, por isso nós vamos apresentar um item importante que é a reforma orçamentária funcional e uma decisão política que já foi tomada  pelo presidente Lula de enfrentar o desmatamento. Mudar essa agenda e fazer com que o Brasil possa cumprir seus compromissos de redução de emissões e o Acordo do Clima de Paris”, finalizou.&lt;/p&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61401" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819.png" alt="" width="773" height="449" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819.png 773w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819-300x174.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819-768x446.png 768w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819-696x404.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120819-723x420.png 723w" sizes="(max-width: 773px) 100vw, 773px" /&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61441" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956.png" alt="" width="781" height="566" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956.png 781w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956-300x217.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956-768x557.png 768w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956-696x504.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956-580x420.png 580w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956-324x235.png 324w" sizes="(max-width: 781px) 100vw, 781px" /&gt;&lt;/p&gt;
+&lt;p&gt;Gabriel Silva de Oliveira, alvejado a tiros na manhã desta quinta-feira (1), em Sena Madureira, não resistiu à gravidade dos ferimentos e foi a óbito por volta das 16 horas no Pronto-Socorro do Hospital João Câncio Fernandes. Um dos disparos o atingiu na cabeça e ele teve exposição de parte da massa encefálica.&lt;/p&gt;
+&lt;p&gt;Pela parte da manhã, Gabriel deu entrada no PS de Sena em estado grave e não foi transferido para Rio Branco, na ambulância, porque, segundo a equipe médica, não resistiria à viagem. Com isso, o helicóptero do Cioper foi acionado para fazer o resgate. A equipe veio a Sena Madureira, entretanto, devido a gravíssima situação do paciente a transferência para a capital ficou inviável.&lt;/p&gt;
+&lt;p&gt;Gabriel foi baleado na manhã de desta quinta quando se encontrava em uma residência no bairro Ana Vieira. Segundo consta, um rapaz identificado até o momento como Railan teria se deslocado até o referido bairro com a intenção de matá-lo. Ao chegar na residência, Railan efetuou os disparos e atingiu Gabriel na região da cabeça. Este, por sua vez, revidou e acertou Railan nas costas.&lt;/p&gt;
+&lt;p&gt;Ainda pela parte da manhã, Railan foi transferido para o PS de Rio Branco. Ele conseguiu sobreviver, mas Gabriel não teve a mesma sorte.&lt;/p&gt;
+&lt;p&gt;Pelo o que restou apurado, o confronto se deu em razão da guerra entre facções criminosas.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/jorge-viana-avalia-trabalhos-da-transicao-durante-entrevista-a-globo-news/</t>
+          <t>http://yaconews.com/2022/12/em-sena-morre-jovem-baleado-durante-confronto-de-faccoes/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-120720.png</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-02-084956.png</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10:08:23</t>
+          <t>06:46:35</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mazinho baixa decreto suspendendo gratificação e redução de pessoal provisório na Prefeitura de Sena Madureira</t>
+          <t>Estado inicia série de operações preventivas no Complexo Penitenciário de Rio Branco</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61398" src="http://yaconews.com/wp-content/uploads/2022/12/page.jpg" alt="" width="600" height="400" srcset="http://yaconews.com/wp-content/uploads/2022/12/page.jpg 600w, http://yaconews.com/wp-content/uploads/2022/12/page-300x200.jpg 300w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
-&lt;p&gt;O prefeito de Sena Madureira, Mazinho Serafim, baixou um decreto que estabelece a contenção de gastos da administração pública. Segundo o decreto, fica determinado a redução de pessoal provisório e prestadores de serviços.&lt;/p&gt;
-&lt;p&gt;Mazinho suspendeu a concessão de qualquer pagamento de gratificações, diárias e ajuda de custo a todo e qualquer servidor efetivo, comissionado ou provisório, independente da fonte orçamentária.&lt;/p&gt;
-&lt;p&gt;Os vencimentos atuais poderão ser revistos e reduzidos a critério da administração. O decreto tem vigência de 90 dias.&lt;/p&gt;
-&lt;p&gt;O decreto prevê reescalonamento, parcelamento ou repactuação dos débitos com fornecedores de produtos ou serviços, devendo ser tomadas as providências cabíveis junto aos credores.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61438" src="http://yaconews.com/wp-content/uploads/2022/12/F389A690-469A-481D-A5C7-F45C96820DB6.jpeg" alt="" width="640" height="426" srcset="http://yaconews.com/wp-content/uploads/2022/12/F389A690-469A-481D-A5C7-F45C96820DB6.jpeg 640w, http://yaconews.com/wp-content/uploads/2022/12/F389A690-469A-481D-A5C7-F45C96820DB6-300x200.jpeg 300w, http://yaconews.com/wp-content/uploads/2022/12/F389A690-469A-481D-A5C7-F45C96820DB6-631x420.jpeg 631w" sizes="(max-width: 640px) 100vw, 640px" /&gt;&lt;/p&gt;
+&lt;p&gt;Em dezembro, o governo do Acre, por meio do Instituto de Administração Penitenciária (Iapen), organiza diversas ações para completar a programação anual de operações de prevenção e apreensão de objetos proibidos no Complexo Penitenciário de Rio Branco e demais unidades do estado.&lt;/p&gt;
+&lt;p&gt;De acordo com o presidente do instituto, Glauber Feitoza, a operação de revista e apreensão nas celas, realizada na manhã desta quinta-feira, 1°, nos pavilhões H e I do complexo, é o início de uma série de atividades que o Iapen vai realizar até o fim do ano nos presídios do Acre.&lt;/p&gt;
+&lt;figure id="attachment_585515" class="wp-caption aligncenter" aria-describedby="caption-attachment-585515"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585515 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961-1024x682.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/4E659E13-4037-491D-AB3D-0B00C0AD0961.jpeg 2048w" alt="" width="1024" height="682" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585515" class="wp-caption-text"&gt;O presidente do Iapen, Glauber Feitoza. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Mais de 190 policiais penais participam da ação, que visa garantir um ambiente de ordem e disciplina. É uma ação preventiva, de verificação do prédio. Realizaremos o procedimento padrão de vistoria, verificando itens proibidos e que estão irregulares dentro das celas”, destacou.&lt;/p&gt;
+&lt;p&gt;Feitoza explicou segue as orientações que vêm da Secretaria de Estado de Justiça e Segurança Pública (Sejusp) e que diversas unidades do Iapen participaram da ação: o Grupo Penitenciário de Operações Especiais (Gpoe), o Centro de Treinamento com Cães Penitenciários (CT Cães), a Escolta Judicial e a Unidade de Monitoramento Eletrônico Penitenciário, além do Centro Integrado de Operações Aéreas (Ciopaer), que prestou apoio aéreo, realizando o reconhecimento do perímetro do complexo.&lt;/p&gt;
+&lt;figure id="attachment_585517" class="wp-caption aligncenter" aria-describedby="caption-attachment-585517"&gt;&lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585517 size-large" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA-1024x682.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/E2B8B797-62C6-42E7-865D-92150A2EEBDA.jpeg 2048w" alt="" width="1024" height="682" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585517" class="wp-caption-text"&gt;Objetos irregulares são apreendidos e entregues ao setor de inteligência do Iapen. Foto: Diego Gurgel/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Objetos simples podem virar armas, então fazemos um trabalho preventivo, seguindo as orientações da Sejusp, para manter o controle da situação dentro do presídio, com policiais penais realizando a operação em dupla. Todo o material apreendido é repassado para o Setor de Inteligência do Iapen, que verifica de qual cela veio, para tomar as providências”, afirmou o diretor executivo operacional do Iapen, Marcelo Lopes.&lt;/p&gt;
+&lt;p&gt;Ao longo do mês, o instituto vai realizar outras atividades de prevenção, para proporcionar um ambiente mais seguro aos reeducandos. Os policiais penais que participaram da operação vão atuar em força-tarefa, isto é, agrupamento de diversas unidades para a execução do objetivo.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/mazinho-baixa-decreto-suspendendo-gratificacao-e-reducao-de-pessoal-provisorio-na-prefeitura-de-sena-madureira/</t>
+          <t>http://yaconews.com/2022/12/estado-inicia-serie-de-operacoes-preventivas-no-complexo-penitenciario-de-rio-branco/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/page.jpg</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/F389A690-469A-481D-A5C7-F45C96820DB6.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10:01:09</t>
+          <t>06:43:07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TRE-AC marca diplomação de Gladson Cameli e Mailza Gomes para 15 de dezembro</t>
+          <t>No Dezembro Vermelho, Saúde do Acre inicia campanha de conscientização e prevenção ao HIV/Aids</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61394" src="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png" alt="" width="717" height="449" srcset="http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png 717w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-300x188.png 300w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-696x436.png 696w, http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948-671x420.png 671w" sizes="(max-width: 717px) 100vw, 717px" /&gt;&lt;/p&gt;
-&lt;p&gt;A diplomação do governador reeleito Gladson Cameli e da vice-governadora Mailza Gomes, ambos do PP, está marcada para o dia 15 de dezembro pelo Tribunal Regional Eleitoral do Acre (TRE-AC). A cerimônia será às 10h no plenário do TRE-AC, localizado no Portal da Amazônia, em Rio Branco.&lt;/p&gt;
-&lt;p&gt;Além do governador e vice-governador, serão diplomados os candidatos eleitos para senador, deputado federal, deputado estadual e os seus suplentes.&lt;/p&gt;
-&lt;p&gt;A diplomação é o ato pelo qual a Justiça Eleitoral atesta que o candidato ou a candidata foi efetivamente eleito ou eleita pelo povo e, por isso, está apto ou apta a tomar posse no cargo.&lt;/p&gt;
-&lt;p&gt;Nessa ocasião, ocorre a entrega dos diplomas, que são assinados, conforme o caso, pelo presidente do tribunal eleitoral competente.&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;&lt;img decoding="async" loading="lazy" class="aligncenter size-full wp-image-61435" src="http://yaconews.com/wp-content/uploads/2022/12/0312_teste_aids.jpg" alt="" width="600" height="402" srcset="http://yaconews.com/wp-content/uploads/2022/12/0312_teste_aids.jpg 600w, http://yaconews.com/wp-content/uploads/2022/12/0312_teste_aids-300x201.jpg 300w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
+&lt;p&gt;Com foco no combate à desinformação, preconceito e discriminação para com a pessoa vivendo com HIV, a Secretaria de Estado de Saúde (Sesacre) lança a programação do Dezembro Vermelho, mês voltado para a prevenção do HIV/Aids. Mundialmente, o dia 1° de dezembro é lembrado pela realização de atividades alusivas à luta contra a doença.&lt;/p&gt;
+&lt;figure id="attachment_585669" class="wp-caption aligncenter" aria-describedby="caption-attachment-585669"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585669 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-768x576.jpeg 768w" alt="" width="1024" height="768" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54-768x576.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585669" class="wp-caption-text"&gt;Ação realizada pelo município de Rio Branco, em frente ao Colégio Acreano. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Para a chefe da Coordenação de ISTs/HIV/Aids, Hepatites Virais e Sífilis da Sesacre, Suilany Souza, a campanha reforça as discussões em torno do tema, além de potencializar as informações acerca da prevenção e do tratamento da Aids.&lt;/p&gt;
+&lt;p&gt;“O objetivo é estabelecer o entrelaçamento da comunicação, promover troca de informações e experiências, e de criar um espírito de tolerância social. O Dia Mundial da Luta Contra a Aids nos proporciona a oportunidade de falar mais a respeito da infecção por HIV e da Aids. Isso resulta na diminuição das notificações da doença e influencia que mais pessoas procurem assistência médica no caso de suspeitas”, disse.&lt;/p&gt;
+&lt;p&gt;De acordo com dados do Sistema de Informação de Agravos de Notificação (Sinan), foram notificados 296 novos casos de infecção por HIV este ano. No Acre, em 2022, houve uma redução de 15% em relação aos dados do ano passado. Mesmo com a diminuição dos casos e o aumento de testagens pós-pandemia, a gestão estadual reforça que a prevenção é o melhor tratamento contra a doença.&lt;/p&gt;
+&lt;figure id="attachment_585673" class="wp-caption aligncenter" aria-describedby="caption-attachment-585673"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585673 size-full" src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg 1280w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-768x576.jpeg 768w" alt="" width="1280" height="960" data-src="http://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg 1280w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02-768x576.jpeg 768w" data-sizes="(min-width: 960px) 75vw, 100vw" /&gt;&lt;figcaption id="caption-attachment-585673" class="wp-caption-text"&gt;Ação alusiva ao Dia Mundial de Combate à Aids em Porto Walter. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“A conscientização das pessoas, sobretudo dos jovens, de que o cuidado e a prevenção são essenciais para conseguirmos reduzir os números e, principalmente,  quebrar a cadeia de transmissão do vírus em nosso estado é a nossa luta diária”, alertou Souza.&lt;/p&gt;
+&lt;h4&gt;Programação:&lt;/h4&gt;
+&lt;p&gt;Em alusão ao Dezembro Vermelho, a cordenação de ISTs/HIV/Aids, Hepatites Virais e Sífilis da Sesacre, em parceria com outras instituições, realizará nos dias 19, 20 e 21 o Bazar Solidário em prol das pessoas que vivem com HIV. O evento, que terá o serviço de testagem rápida, contará, ainda, com som ao vivo, encenação teatral relacionada ao contexto, com orientações e informações sobre a prevenção, diagnóstico e o tratamento para HIV, hepatites e sífilis.&lt;/p&gt;
+&lt;p&gt;“Pela Política do Sistema Único de Saúde (SUS), cada município fica responsável pelas ações de conscientização sobre a Aids. Municípios como Rio Branco, Senador Guiomard e Porto Walter já estão se mobilizando nesse sentido. O Estado organiza, ainda, para o início de 2023, duas atividades importantes: o 1° Fórum Estadual para Gestores sobre HIV e Sífilis e a 1ª  Mesa redonda estadual sobre o HIV”, informou Suilany.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://yaconews.com/2022/12/tre-ac-marca-diplomacao-de-gladson-cameli-e-mailza-gomes-para-15-de-dezembro/</t>
+          <t>http://yaconews.com/2022/12/no-dezembro-vermelho-saude-do-acre-inicia-campanha-de-conscientizacao-e-prevencao-ao-hiv-aids/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>http://yaconews.com/wp-content/uploads/2022/12/Anotacao-2022-12-01-115948.png</t>
+          <t>http://yaconews.com/wp-content/uploads/2022/12/0312_teste_aids.jpg</t>
         </is>
       </c>
     </row>
@@ -5480,503 +5296,726 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>23:03:32</t>
+          <t>09:15:13</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Governo volta a bloquear verba de universidades horas após desbloqueio</t>
+          <t>Empresários de Sena Madureira manifestam preocupação por circulação de notas falsas no município</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O Ministério da Economia voltou a bloquear verbas de universidades e institutos federais, horas depois do desbloqueio anunciado pelo Ministério da Educação nesta quinta-feira (1º/12). O MEC havia liberado R$ 344 milhões para as instituições, que foram retidos na última segunda-feira (28/11). O governo federal tem feito bloqueios orçamentários em várias áreas nesta reta final da gestão de Jair Bolsonaro (PL).&lt;/p&gt;
-&lt;p data-gtm-vis-recent-on-screen-8752935_845="106275" data-gtm-vis-first-on-screen-8752935_845="106275" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Na noite desta quinta-feira, o MEC teria tido as despesas discricionárias zeradas. Os gastos discricionários são considerados não essenciais e não afetam o pagamento de despesas obrigatórias, como salário de servidores.&lt;/p&gt;
-&lt;p data-gtm-vis-recent-on-screen-8752935_845="106275" data-gtm-vis-first-on-screen-8752935_845="106275" data-gtm-vis-total-visible-time-8752935_845="100" data-gtm-vis-has-fired-8752935_845="1"&gt;Após o desbloqueio, mais cedo, na quinta, gestores de universidades e institutos federais se apressaram para empenhar os valores e garantir pagamentos, com receio de que novos bloqueios fossem anunciados.&lt;/p&gt;
-&lt;p&gt;“A Andifes seguirá atenta aos riscos de novos cortes e bloqueios e manterá o diálogo com todos os atores necessários, no Congresso Nacional, governo, na sociedade civil e com a equipe de transição do governo eleito para a construção de orçamento e políticas necessárias para a manutenção e o justo financiamento do ensino superior público”, afirmou a Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior em nota.&lt;/p&gt;
-&lt;p&gt;A nova decisão está relacionada ao decreto nº 11.269, de 30 de novembro de 2022, que montou o cronograma mensal de desembolsos do Executivo e deu mais autonomia para que o Ministério da Economia faça realocações de recursos.&lt;/p&gt;
-&lt;p&gt;Reitora da Universidade de Brasília, a professora &lt;a href="https://www.metropoles.com/distrito-federal/unb-ja-utilizou-mais-de-r-2-milhoes-devolvidos-pelo-mec-diz-reitora" target="_blank" rel="noopener"&gt;Márcia Abrahão&lt;/a&gt; confirmou o novo contingenciamento, ainda maior que o anterior. “Só da UnB foram R$ 13,5 milhões! Isso depois de terem tirado R$ 2 milhões na segunda-feira e devolvido hoje de manhã. Punir a educação é o cúmulo do antipatriotismo!”, escreveu.&lt;/p&gt;
-&lt;blockquote class="twitter-tweet" data-width="550" data-dnt="true"&gt;
-&lt;p lang="pt" dir="ltr"&gt;Ocorreu hoje um novo golpe nas universidades e institutos federais: o Governo Federal fez novo corte orçamentário. Só da UnB foram R$ 13,5 milhões! Isso depois de terem tirado R$ 2 milhões na segunda-feira e devolvido hoje de manhã. Punir a educação é o cúmulo do antipatriotismo!&lt;/p&gt;
-&lt;p&gt;&amp;mdash; Márcia Abrahão Moura (@mamabrahao) &lt;a href="https://twitter.com/mamabrahao/status/1598487974181851136?ref_src=twsrc%5Etfw"&gt;December 2, 2022&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;
-&lt;p&gt;&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;&lt;/p&gt;
-&lt;p&gt;O &lt;strong&gt;Metrópoles&lt;/strong&gt; procurou o Ministério da Economia e da Educação, mas não obteve resposta até a publicação desta reportagem. O espaço continua aberto para manifestações.&lt;/p&gt;
-&lt;h4&gt;&lt;strong&gt;Bloqueio&lt;/strong&gt;&lt;/h4&gt;
-&lt;p&gt;Entidades ligadas a instituições federais de ensino apontaram que o MEC bloqueou mais de R$ 1,6 bilhão do orçamento. De acordo com os reitores de universidades, isso ocorreu durante o jogo do Brasil contra a Suíça, na Copa do Mundo do Catar.&lt;/p&gt;
-&lt;div class="hstpnetworkads"&gt;&lt;/div&gt;
-&lt;p&gt;O congelamento foi de R$ 344 milhões a menos para as instituições de ensino superior, segundo cálculos do Fórum Nacional de Pró-Reitores de Planejamento e de Administração das Instituições Federais de Ensino Superior (Forplad).&lt;/p&gt;
-&lt;p&gt;O bloqueio do MEC retirava o limite e travava os orçamentos das instituições. Com a medida, as universidades perderiam autorização para usar o dinheiro e não poderiam efetuar pagamentos, por exemplo.&lt;/p&gt;
-&lt;h4&gt;&lt;strong&gt;Outras áreas afetadas&lt;/strong&gt;&lt;/h4&gt;
-&lt;p&gt;O último bloqueio orçamentário anunciado pela Economia na última semana atingiu também o Ministério da Saúde (corte de R$ 1,396 bilhão), da Defesa (R$ 599,6 milhões), da Ciência e Tecnologia (R$ 379,6 milhões), da Infraestrutura (R$ 349,4 milhões) e do Desenvolvimento Regional (R$ 176,9 milhões).&lt;/p&gt;
-&lt;p&gt;Segundo a pasta, a medida é necessária para seguir a regra do teto de gastos, que prevê um limite de aumento de despesas atrelado ao resultado da inflação do ano anterior. No total, foram R$ 5,663 bilhões contingenciados.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;Metrópoles&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Alguns empresários de Sena Madureira, interior do Acre, vem demonstrando preocupação com a circulação de notas falsas pelo setor comercial do município.&lt;/p&gt;
+&lt;p&gt;De acordo com informações repassadas por um proprietário de uma farmácia da cidade, nesta semana ele foi lesado por receber três notas falsas de 200 reais, e não pôde reaver os medicamentos entregues ao falsário, tendo em vista que o golpe só foi percebido ao final do dia no fechamento do caixa.&lt;/p&gt;
+&lt;p&gt;A polícia civil já tem conhecimento do crime e está investigando a fundo para identificar e prender os responsáveis pela prática. Na cidade, todos os comerciantes estão em alerta para não serem vítimas do golpe.&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/governo-volta-a-bloquear-verba-de-universidades-horas-apos-desbloqueio/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/empresarios-de-sena-madureira-manifestam-preocupacao-por-circulacao-de-notas-falsas-no-municipio/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/UnB-1-1-600x400-1.webp?fit=600%2C400&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/11-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>22:58:04</t>
+          <t>08:56:17</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Novo escândalo de racismo abala a família real britânica</t>
+          <t>Jogador mais jovem a marcar pela Espanha em Copas do Mundo, Gavi é ídolo teen e filho de ex-affair de Piqué</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Susan Hussey, de 83 anos, fez comentários racistas à ativista britânica Ngozi Fulani durante uma recepção na noite passada no Palácio de Buckingham.&lt;/p&gt;
-&lt;p&gt;O rei Charles 3º antecipou a demissão de Hussey, que é madrinha do príncipe William e, durante seis décadas, foi dama de companhia da rainha Elizabeth 2ª e uma de suas assistentes de maior confiança, além de amiga do novo monarca de 74 anos, que a designou para acompanhar sua esposa, a rainha consorte Camilla.&lt;/p&gt;
-&lt;p&gt;Hussey questionou, ofensivamente, a origem de Fulani, nascida e criada no Reino Unido, que disse que tentou dar o benefício da dúvida à funcionária do palácio. &amp;#8220;Mas logo entendi que não tinha nada a ver com sua capacidade de compreensão&amp;#8221;, afirmou a ativista à rádio BBC nesta quinta-feira (1º).&lt;/p&gt;
-&lt;p&gt;Hussey perguntou repetidamente a Fulanide onde ela era &amp;#8220;realmente&amp;#8221;, recusando-se a aceitar sua explicação de que era britânica.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Ela estava realmente tentando fazer com que eu renegasse minha nacionalidade britânica&amp;#8221;, denunciou Fulani, enquanto muitos outros britânicos negros compartilharam experiências igualmente racistas nas redes sociais e na mídia tradicional.&lt;/p&gt;
-&lt;div id="intextvideo-r7" data-google-query-id="CKTAxOGE2vsCFaW-lQIdmb0HgQ"&gt;
-&lt;p&gt;A controvérsia sobre os comentários preconceituosos ocorre no pior momento para a família real britânica, que busca modernizar sua imagem após as acusações do príncipe Harry e o anúncio da publicação, em breve, de sua autobiografia.&lt;/p&gt;
-&lt;div class="media_box embed intertitle_box"&gt;
-&lt;h3 class="content"&gt;&amp;#8220;Realmente chocante&amp;#8221;&lt;/h3&gt;
-&lt;/div&gt;
-&lt;p&gt;A deputada trabalhista Diane Abbott, a primeira mulher negra a ocupar uma cadeira na Câmara dos Comuns, na década de 1980, considerou &amp;#8220;realmente chocante&amp;#8221; que a identidade de uma britânica negra pudesse ser questionada dessa maneira.&lt;/p&gt;
-&lt;p&gt;No entanto, ela afirmou à Times Radio que Buckingham fez &amp;#8220;avanços&amp;#8221; na diversidade na última década. Antes, &amp;#8220;eles teriam dito que ela [Fulani] era muito sensível e simplesmente rejeitariam&amp;#8221; sua denúncia, disse Abbott.&lt;/p&gt;
-&lt;div id="r7ad-teads"&gt;
-&lt;div id="gpt_unit_/7542/r7noticias/internacional/internas_7"&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;p&gt;O palácio parece ter aprendido a lição, especialmente desde o ano passado, quando Harry, de 38 anos, e sua esposa negra, Meghan, de 41 anos, acusaram um membro da realeza não identificado de se preocupar com a cor da pele de seu futuro filho.&lt;/p&gt;
-&lt;div class="toolkit-card-primary mb-7" data-dp6-item="leiaTambem"&gt;
-&lt;div class="toolkit-card-primary__body"&gt;
-&lt;p&gt;William respondeu &amp;#8220;Não somos uma família racista&amp;#8221;, mas Elizabeth 2ª afirmou que o assunto seria tratado &amp;#8220;em privado&amp;#8221;.&lt;/p&gt;
-&lt;p&gt;A casa real também começou a publicar dados sobre a representação étnica de sua equipe, reconhecendo que precisava melhorar.&lt;/p&gt;
-&lt;div class="media_box embed intertitle_box"&gt;
-&lt;h3 class="content"&gt;Meghan foi vingada?&lt;/h3&gt;
-&lt;/div&gt;
-&lt;div class="toolkit-image-container media_box full-dimensions771x420"&gt;
-&lt;div class="toolkit-image-container__edges edges"&gt;
-&lt;div class="toolkit-image-container media_box full-dimensions771x420"&gt;
-&lt;div class="toolkit-image-container__edges edges"&gt;
-&lt;figure style="width: 771px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="toolkit-image-container__image croppable" src="https://img.r7.com/images/meghan-markle-harry-realeza-11112021112908638?dimensions=771x420" alt="" width="771" height="420" /&gt;&lt;figcaption class="wp-caption-text"&gt;ANDREW KELLY/REUTERS &amp;#8211; 23.09.2021&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;p&gt;Em um relacionamento tenso há anos, William e Harry estão na costa leste dos Estados Unidos nesta semana — o primeiro, para entregar os prêmios ambientais Earthshot, em Boston, e o segundo, em uma gala em Nova York para a fundação de direitos humanos de Roberto Kennedy.&lt;/p&gt;
-&lt;p&gt;Sua filha, Kerry Kennedy, acredita que Harry e Meghan assumiram uma &amp;#8220;postura heroica&amp;#8221; contra o &amp;#8220;racismo estrutural&amp;#8221; da monarquia britânica.&lt;/p&gt;
-&lt;p&gt;Mas, aos olhos dos críticos, o casal está lucrando depois de ter deixado a família real, em 2020. Um documentário sobre eles será lançado na Netflix em breve, e o príncipe publicará uma autobiografia potencialmente explosiva em janeiro.&lt;/p&gt;
-&lt;p&gt;A opinião pública britânica se voltou contra eles&amp;#8230; Até que estourou o escândalo sobre Hussey.&lt;/p&gt;
-&lt;p&gt;Quando Meghan entrou para a família real, Hussey estava encarregada de educá-la em etiqueta, um papel que ela também desempenhou para a mãe de William e Harry, a princesa Diana.&lt;/p&gt;
-&lt;p&gt;Segundo um biógrafo, a ex-atriz americana a recusou.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;A risada abafada vinda da Califórnia é uma duquesa tentando não cair na gargalhada e dizer &amp;#8216;Eu avisei'&amp;#8221;, escreveu o comentarista Trevor Phillips no jornal The Times.&lt;/p&gt;
-&lt;p&gt;A polêmica estourou na mesma semana em que novos dados do censo britânico de 2021 confirmam que o país está racialmente mais diverso.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Uma mentalidade que codifica por cor a identidade britânica não é apenas desagradável e anacrônica, é inequivocamente racista&amp;#8221;, acrescentou Phillips.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;R7 Notícias&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
+          <t xml:space="preserve">&lt;h1 data-test-locator="headline"&gt;&lt;span style="color: #222222; font-family: Verdana, BlinkMacSystemFont, -apple-system, 'segoe ui', Roboto, Oxygen, Ubuntu, Cantarell, 'open sans', 'helvetica neue', sans-serif; font-size: 15px;"&gt;O espanhol Pablo Gavi, de 18 anos, jogador mais jovem a marcar pela seleção de seu país em Copas do Mundo, é também o terceiro mais jovem a marcar um gol na história das Copas. Ele está atrás apenas de Pelé, que balançou a rede aos 17 em 1958 e do mexicano Manuel Rosas, que marcou na primeira edição do Mundial, em 1930, com 18 anos. Gavi não se tornou o segundo mais jovem por uma diferença de 140 dias.&lt;/span&gt;&lt;/h1&gt;
+&lt;div class="caas-body"&gt;
+&lt;p&gt;Fora dos campos, o ganhador do prêmio “Golden Boy” é considerado um “ídolo teen”. Nas redes sociais, o craque tem inúmeras páginas de fã-clubes dedicadas a ele. “As mulheres se apaixonam por Gavi por ele ser bonito e o apoiam apenas por isso”, criticou um internauta, no Twitter.&lt;/p&gt;
+&lt;p&gt;Uma das fãs declaradas de Gavi é a princesa Leonor, de 17 anos, futura rainha da Espanha. A jovem, que já namorou um brasileiro, não esconde sua admiração pelo jogador. Recentemente, especulou-se que uma camisa assinada pelo craque para o rei Felipe VI era, na verdade, para ela. &amp;#8220;&lt;strong&gt;Gavi pode realmente ser o futuro rei da Espanha&lt;/strong&gt;&amp;#8220;, brincaram alguns internautas, levantando a possibilidade de um futuro relacionamento entre os dois.&lt;/p&gt;
+&lt;p&gt;Uma curiosidade sobre o jovem jogador do Barcelona chama a atenção. Apesar de despertar paixões em jovens ao redor do mundo, Gavi não sabe amarrar o cadarço da chuteira. “&lt;strong&gt;Ele tem jogado com os cadarços desamarrados desde muito cedo. É porque ele não sabe como amarrá-los bem. Ele não se importa&lt;/strong&gt;”, disse o jornalista espanhol Marc Marba Prats ao The Sun.&lt;/p&gt;
+&lt;div class="caas-da"&gt;
+&lt;div id="defaultINARTICLE"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&lt;strong&gt;“Gente, vocês que estão de ‘assanhamento’ com o Gavi sabem que até o começo do ano nem amarrar o cadarço ele sabia?&lt;/strong&gt;”, questionou uma internauta. O jogador, no entanto, segue sendo flagrado em partidas da Copa do Catar com os cadarços desamarrados. “&lt;strong&gt;Alguém dá um tutorial de como amarrar cadarço para o Gavi, porque ele continua sem saber&lt;/strong&gt;”, publicou um portal de notícias sobre futebol no Twitter.&lt;/p&gt;
+&lt;p&gt;A mãe de Gavi, Gema, apesar de não estar mais nos holofotes, foi figura central de uma grande polêmica com um ex-jogador espanhol ainda este ano. Ela foi apontada pela imprensa espanhola como o pivô da separação entre Gerard Piqué e Shakira. Segundo o El Periodico, a cantora colombiana teria inclusive flagrado os dois juntos, e, por causa disso, ela teria colocado um ponto final na união de quase 12 anos.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Extra&lt;/strong&gt;&lt;/p&gt;
 &lt;/div&gt;
 </t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/novo-escandalo-de-racismo-abala-a-familia-real-britanica/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/jogador-mais-jovem-a-marcar-pela-espanha-em-copas-do-mundo-gavi-e-idolo-teen-e-filho-de-ex-affair-de-pique/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/rei-charles-3-01122022144433676.jpeg?fit=771%2C420&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/09-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>22:52:25</t>
+          <t>08:41:32</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>“Revisão da vida toda”: entenda o que é e quem pode rever valor da aposentadoria</t>
+          <t>Para estimular o turismo; Senador Guiomard recebe decoração natalina do Estado</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Depois de nove meses de julgamento suspenso, o Supremo Tribunal Federal (STF) formou maioria nesta quinta-feira e decidiu a favor dos aposentados no processo conhecido como “revisão da vida toda”.&lt;/p&gt;
-&lt;p&gt;A medida dá a uma parte dos aposentados do Instituto Nacional de Seguro Social (INSS) o direito de refazer o cálculo do valor de seus benefícios, considerando as contribuições anteriores a 1994, e passar a ganhar mais.&lt;/p&gt;
-&lt;p&gt;A tese foi aprovada por seis votos a favor e cinco contra. A corte já havia julgado a questão e formado maioria em favor dos aposentados em fevereiro, com o mesmo placar de 6 x 5, mas o julgamento foi suspenso depois que o ministro Kassio Nunes Marques fez um pedido de alteração.&lt;/p&gt;
-&lt;p&gt;Indicado para o STF pelo presidente Jair Bolsonaro, Marques pediu, nos últimos minutos antes do prazo final de análise, no início de março, que o julgamento feito em plenário virtual fosse reiniciado no plenário físico. O tema só voltou à pauta e foi encerrado agora.&lt;/p&gt;
-&lt;h2&gt;O que é e quem tem direito&lt;/h2&gt;
-&lt;p&gt;A “revisão da vida toda” pede a uma parte dos aposentados o direito de incluir no cálculo do valor de seu benefício as contribuições pagas ao INSS antes de 1994, início do Plano Real.&lt;/p&gt;
-&lt;p&gt;O processo é válido apenas para aqueles que se aposentaram depois de 1999, quando uma reforma previdenciária mudou as regras e estabeleceu o recorte de 1994 para o cálculo dos benefícios.&lt;/p&gt;
-&lt;p&gt;“Ela vale para quem se aposentou pela lei 9.876 [de 1999]”, explica o advogado previdenciário João Badari, sócio do escritório Aith, Badari e Luchin. “Não se aplica a quem se aposentou antes de 1999, e depois da reforma da Previdência [de 2019], porque aí se aplicam as novas regras.”&lt;/p&gt;
-&lt;h2&gt;Não vale a pena para todos&lt;/h2&gt;
-&lt;p&gt;De acordo com os especialistas, pedir a revisão é uma opção que compensa apenas para quem recebia salários mais altos antes de 1994, o que aumenta o valor da aposentadoria a que o trabalhador tem direito de receber.&lt;/p&gt;
-&lt;p&gt;Para quem recebia menos, a ação não vale a pena, e a aposentadoria recebida atualmente já é maior do que com a inclusão dos valores mais antigos.&lt;/p&gt;
-&lt;h2&gt;Necessidade de ação&lt;/h2&gt;
-&lt;p&gt;Com a aprovação final dada agora pelo STF, a revisão e restituição dos valores não é automática. Têm direito a ela aqueles que têm ação na Justiça pedindo a mudança do cálculo.&lt;/p&gt;
-&lt;p&gt;Por enquanto, quem se encaixa nos critérios da lei e ainda não tem ação ajuizada pode entrar na Justiça fazendo o pedido, mesmo agora, com o julgamento do STF já concluído.&lt;/p&gt;
-&lt;p&gt;O INSS pode ainda, porém, entrar com um pedido, por meio de um embargo de declaração, para que o Supermo module a decisão, isto é, avalie a possibilidade de ela valer apenas para quem já tinha um processo aberto antes do julgamento.&lt;/p&gt;
-&lt;p&gt;Caso isso aconteça, e o STF opte pela modulação, quem entrar com a ação depois dessa nova apreciação não terá mais direito a receber a revisão.&lt;/p&gt;
-&lt;p&gt;Badari, porém, que acompanhou os votos nesta tarde em Brasília, acha pouco provável que isso aconteça, e avalia que mesmo quem entrar com uma ação agora seguirá tendo o direito a ter o benefício recalculado.&lt;/p&gt;
-&lt;p&gt;“Os embargos de declaração cabem apenas quando há omissão, contradição ou obscuridade, e não me pareceu o caso da tese firmada; os ministros foram muito literais”, diz.&lt;/p&gt;
-&lt;p&gt;O advogado também explica que, para todos que se aposentaram há mais de dez anos e não entraram com a ação desde então, o prazo para a reclamação já está expirado e estes não têm mais direito a pedir ou receber a revisão.&lt;/p&gt;
-&lt;p&gt;Para aqueles que já têm ação aberta, mesmo que aposentados há mais de dez anos, o prazo segue valendo.&lt;/p&gt;
-&lt;p&gt;Uma vez aprovada a revisão, o INSS deve não só corrigir e aumentar o valor pago mensalmente ao beneficiário, como deverá também fazer o pagamento retroativo da diferença de todos os meses passados em que o aposentado recebeu a menos.&lt;/p&gt;
-&lt;p&gt;Neste caso, o valor a ser devolvido volta até o máximo de cinco anos antes à data de abertura da ação, explica Badari.&lt;/p&gt;
-&lt;h2&gt;Histórico&lt;/h2&gt;
-&lt;p&gt;A presidente do Instituto Brasileiro de Direito Previdenciário (IBDP), Adriane Bramante, conta que as principais mudanças decorrentes da discussão jurídica atual ocorreram no final da década de 1990, após uma alteração constitucional no cálculo da renda mensal dos benefícios.&lt;/p&gt;
-&lt;p&gt;“Até 1998, o cálculo ocorria por uma média dos 36 últimos meses, previsto pela Constituição. No entanto, uma emenda tirou esta forma de cálculo, assegurando que uma lei definiria a avaliação”, disse.&lt;/p&gt;
-&lt;p&gt;“Em 1999, foi publicada a Lei 9876/99, estabelecendo um novo período para o cálculo, que passaria a corresponder a 80% dos maiores salários a partir de julho de 1994. Portanto, não seriam utilizados os salários anteriores a esta data na conta”, acrescentou.&lt;/p&gt;
-&lt;p&gt;Bramante explicou que a ideia de determinar o ano base em 1994 foi decorrente da criação do Plano Real, pois a partir daí seria possível calcular os valores com uma estabilização da moeda nacional.&lt;/p&gt;
-&lt;p&gt;No entanto, ela afirmou que a Lei de 1999 tem uma brecha, que abriu margem para interpretação de o cálculo a partir de 1994 ser facultativo, possibilitando ao assegurado escolher a melhor forma de contabilizar seus benefícios, incluindo à conta salários anteriores ao ano base.&lt;/p&gt;
-&lt;p&gt;“De fato, a Lei não exclui a opção, ela oferece essa possibilidade ao segurado de escolher a regra mais vantajosa para ele”, completou Bramante.&lt;/p&gt;
-&lt;p&gt;Ainda que a brecha tenha dado abertura para discussão jurídica, o INSS não aceitava a possibilidade de utilizar os salários anteriores a julho de 1994, o que levou o conflito à Justiça. A decisão do STF, agora, é definitiva, vale para todas as ações e deve encerrar a questão.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;CNN Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Buscando fortalecer o turismo e estimular a economia local por meio de atrativos do Natal, o governo estadual, por meio da Secretaria de Estado de Empreendedorismo e Turismo (Seet), realizou a entrega do primeiro kit natalino no município de Senador Guiomard.&lt;/p&gt;
+&lt;figure id="attachment_585656" class="wp-caption aligncenter" aria-describedby="caption-attachment-585656"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585656 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18.jpeg 1600w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.18.jpeg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585656" class="wp-caption-text"&gt;Estado e prefeituras buscam atrativos para o período natalino. Foto: Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Serão 64 itens compondo a decoração natalina na principal praça de cada município acreano. A prefeita Rosana Gomes se disse feliz pelo prestígio de ser a primeira cidade a receber e pela atenção do governo.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Agradecemos ao governo, que tem tido um olhar atencioso para a cidade de Senador Guiomard. O Estado tem sido um grande parceiro e, com a decoração embelezando nossa cidade, as famílias que vivem aqui e pessoas que visitarem poderão realizar seus registros em família nesse período do ano em que estaremos celebrando o Natal&lt;/strong&gt;”, declarou a prefeita.&lt;/p&gt;
+&lt;p&gt;O secretário de Turismo informou que a secretaria irá realizar a entrega desses kits para mais quatorze cidades acreanas.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Por meio desses atrativos é possível que a população mostre a decoração de suas cidades e que venham atrair turistas de outras cidades e de outros estados&lt;/strong&gt;”, informou o secretário de Estado, Márcio Pereira.&lt;/p&gt;
+&lt;p&gt;A secretaria ficou responsável por quinze municípios e os demais na responsabilidade da Casa Civil e da Fundação Elias Mansour (FEM).&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/revisao-da-vida-toda-entenda-o-que-e-e-quem-pode-rever-valor-da-aposentadoria/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/para-estimular-o-turismo-senador-guiomard-recebe-decoracao-natalina-do-estado/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/GettyImages-1229154174.webp?fit=876%2C484&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/08-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>22:48:41</t>
+          <t>08:35:46</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Policial acusado de matar petista em festa em Foz do Iguaçu irá a júri popular</t>
+          <t>Novembro Azul: Servidores da Sepa participam de palestra que encerra campanha</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O policial Jorge Guaranho será submetido a júri popular pelo indiciamento da morte do tesoureiro do PT e guarda municipal Marcelo Arruda. A decisão é do juiz Gustavo Germano Arguello, proferida nesta quinta-feira (1°), após pedido do Ministério Público.&lt;/p&gt;
-&lt;p&gt;Também foi negado o pedido de revogação de prisão feito pela defesa de Guaranho. O juiz afirmou que ele deve permanecer sob custódia para “garantia da ordem pública” e devido à gravidade do suposto crime cometido.&lt;/p&gt;
-&lt;p&gt;O MP denunciou Guaranho por homicídio duplamente qualificado por motivo fútil (segundo o MP, a motivação do crime foi divergência político partidária) e perigo comum (pois Guaranho teria colocado em situação de perigo os integrantes da festa de aniversário).&lt;/p&gt;
-&lt;p&gt;A &lt;strong&gt;CNN&lt;/strong&gt; entrou em contato com a defesa de Guaranho, mas não obteve retorno até a última atualização desta matéria. Não há data para que o Tribunal do Júri aconteça.&lt;/p&gt;
-&lt;h3&gt;&lt;strong&gt;Relembre o caso&lt;/strong&gt;&lt;/h3&gt;
-&lt;p&gt;Marcelo Arruda foi morto no dia 9 de julho de 2022.&lt;/p&gt;
-&lt;p&gt;Segundo denúncia do MP, o agente penal Jorge Guaranho teve acesso a imagens que mostravam que a festa do guarda municipal tinha como tema o PT.&lt;/p&gt;
-&lt;p&gt;Guaranho foi ao local do evento de carro, acompanhado da esposa e um filho bebê. Segundo denúncia, ele proferiu palavras em favor do presidente Jair Bolsonaro (PL) e contra o Partido dos Trabalhadores.&lt;/p&gt;
-&lt;p&gt;Marcelo e a esposa discutiram com o agente penal – do lado de fora do salão de festas – e o guarda municipal jogou um punhado de terra contra o carro de Guaranho. Foi, então, que o agente saiu do local, mas, ainda segundo o MP, ameaçou retornar.&lt;/p&gt;
-&lt;p&gt;Aproximadamente 10 minutos depois, Guaranho retornou ao local do evento. Pelas imagens de câmeras de segurança, ele desceu do carro com arma em punho. Do lado de dentro do salão, Marcelo também saiu apontando a arma. Tiros foram disparados acertando os dois envolvidos. Marcelo Arruda não resistiu aos ferimentos.&lt;/p&gt;
-&lt;p&gt;Conforme o MP, o crime teve motivação política, com “preferências político-partidárias antagônicas”.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;CNN Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Uma das prioridades do Estado é alertar os servidores sobre o câncer de próstata.  Por isso, a Secretaria de Produção e Agronegócio (Sepa), em parceria com a Associação dos Engenheiros do Acre, convidou o urologista Dennis Fujiike para destacar a prevenção e a importância da realização de exames para os servidores da instituição. A palestra foi realizada nesta quarta-feira, 30, na sala de multimeios da secretaria, localizada no Bairro Estação Experimental.&lt;/p&gt;
+&lt;figure id="attachment_585721" class="wp-caption aligncenter" aria-describedby="caption-attachment-585721"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585721 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg?resize=696%2C522" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3.jpeg 1600w" alt="" width="696" height="522" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg?resize=696%2C522" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3-1536x1152.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-10.50.06-3.jpeg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585721" class="wp-caption-text"&gt;Palestra sobre o câncer de próstata. Foto: Cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;O câncer de próstata é um tumor que atinge muitos homens, principalmente aqueles que estão na terceira idade. Sabendo disso, a campanha do Novembro Azul quer alertar a população sobre os riscos da doença e sensibilizar os homens sobre a necessidade de buscar atendimento médico especializado.&lt;/p&gt;
+&lt;figure id="attachment_585722" class="wp-caption aligncenter" aria-describedby="caption-attachment-585722"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585722 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg?resize=696%2C522" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21.jpeg 1280w" alt="" width="696" height="522" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg?resize=696%2C522" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-1024x768.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-300x225.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21-768x576.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-16.21.21.jpeg 1280w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585722" class="wp-caption-text"&gt;Explicação sobre o câncer de próstata. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“&lt;strong&gt;O doutor Dennis mostrou estudos científicos sobre o câncer de próstata e enfatizou a importância da prevenção e dos exames periódicos, que são fundamentais para diagnosticar a doença&lt;/strong&gt;”, disse o servidor Jalceyr Pessoa.&lt;/p&gt;
+&lt;figure id="attachment_585723" class="wp-caption aligncenter" aria-describedby="caption-attachment-585723"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585723 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg?resize=696%2C928" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-225x300.jpeg 225w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-1152x1536.jpeg 1152w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24.jpeg 1200w" alt="" width="696" height="928" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg?resize=696%2C928" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-768x1024.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-225x300.jpeg 225w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24-1152x1536.jpeg 1152w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.57.24.jpeg 1200w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585723" class="wp-caption-text"&gt;Participantes da palestra e o urologista Dennis. Foto: cedida&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Os exames preventivos são o de toque retal e dosagem PSA. Este último indica um nível adequado de proteína produzida pela próstata no sangue.&lt;/p&gt;
+&lt;p&gt;Assim, é por meio de ações como a da Sepa que se promove conscientização e pode-se combater o medo e o preconceito que muitos homens possuem e, por isso, não se submetem aos exames necessários.&lt;/p&gt;
+&lt;figure id="attachment_585724" class="wp-caption aligncenter" aria-describedby="caption-attachment-585724"&gt;&lt;figcaption id="caption-attachment-585724" class="wp-caption-text"&gt;
+&lt;span style="font-size: 12pt;"&gt;&lt;em&gt;&lt;strong&gt;Fonte: Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;
 </t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/policial-acusado-de-matar-petista-em-festa-em-foz-do-iguacu-ira-a-juri-popular/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/novembro-azul-servidores-da-sepa-participam-de-palestra-que-encerra-campanha/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/FotoJet-2.webp?fit=876%2C484&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/07-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>22:45:20</t>
+          <t>08:26:45</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bolsonaro volta a participar de evento militar, mas segue em silêncio</t>
+          <t>Governo do Acre: Fundhacre adquire novas camas para enfermarias do hospital</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O Presidente da República, Jair Bolsonaro (PL), participou da cerimônia de promoção de oficiais-generais do Exército desta quinta-feira (1º), mas seguiu sem discursar ou falar com a imprensa. Após a derrota nas eleições, Bolsonaro só falou publicamente uma única vez, no dia 1 de novembro. Depois disso, o presidente só apareceu duas vezes em eventos oficiais.&lt;/p&gt;
-&lt;p&gt;A primeira vez que Bolsonaro participou de uma solenidade, desde o resultado do segundo turno, foi no último sábado (26), quando compareceu a um evento da Academia Militar das Agulhas Negras (Aman), em Resende, no Rio de Janeiro, onde manteve silêncio. Após as eleições, o presidente adotou uma postura de reclusão, chegando a ficar 20 dias sem sair do Palácio do Alvorada, residência oficial do chefe do executivo.&lt;/p&gt;
-&lt;p&gt;Bolsonaro diminuiu drasticamente as postagens nas redes sociais — canal que ele sempre usou para se comunicar com apoiadores. O presidente também parou de fazer as lives que eram realizadas tradicionalmente às quintas-feiras. Atualmente, ele só tem publicado as realizações de sua gestão e fotografias de eventos passados.&lt;/p&gt;
-&lt;p&gt;Valdemar Costa Neto, presidente do partido ao qual Bolsonaro é filiado, o PL, falou sobre a falta de posicionamentos de Bolsonaro. “Bolsonaro precisa falar com o povo dele. Todo o pessoal que votar nele quer manifestação, ele precisa falar para manter todos unidos”, afirmou à CNN.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;* Sob supervisão de Brenda Silva/CNN&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Assistência, conforto e bem-estar ao paciente têm sido compromissos do governo do Acre em sua gestão, que vem trabalhando em prol de promover ao usuário do Sistema Único de Saúde (SUS) melhorias na saúde pública que possam atender a população do estado.&lt;/p&gt;
+&lt;figure id="attachment_585683" class="wp-caption aligncenter" aria-describedby="caption-attachment-585683"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585683 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8223-scaled.jpg 2048w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585683" class="wp-caption-text"&gt;Fundhacre adquire novas camas para enfermarias do hospital. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Assim, a Fundação Hospital Estadual do Acre (Fundhacre) adquiriu 120 novas camas hospitalares, que irão substituir as antigas das enfermarias da unidade hospitalar.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;A Fundhacre passa por muitas melhorias. Além das camas, estamos recebendo equipamentos para fisioterapia, para o Programa de Obesidade, além de uma nova mesa cirúrgica para o melhoramento das cirurgias&lt;/strong&gt;”, enfatiza o presidente da Fundhacre, João Paulo Silva.&lt;/p&gt;
+&lt;figure id="attachment_585688" class="wp-caption aligncenter" aria-describedby="caption-attachment-585688"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585688 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8244-scaled.jpg 2048w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585688" class="wp-caption-text"&gt;As 120 novas camas hospitalares estarão substituindo as antigas das enfermarias. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;As novas camas hospitalares chegaram no complexo na última quarta-feira, 30, com início da montagem e troca nas enfermarias nesta quinta, 1º. A aquisição ocorreu por meio de convênio com o Ministério da Saúde, no montante de R$ 600 mil.&lt;/p&gt;
+&lt;figure id="attachment_585707" class="wp-caption aligncenter" aria-describedby="caption-attachment-585707"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585707 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1024x683.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-300x200.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-768x512.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-1536x1024.jpg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/MG_8426-scaled.jpg 2048w" alt="" width="696" height="464" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585707" class="wp-caption-text"&gt;Aquisição ocorreu por meio de convênio com Ministério da Saúde, no montante de R$ 600 mil. Foto: Gleison Luz&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“&lt;strong&gt;Trata-se de uma aquisição que estará contribuindo também para o trabalhador de saúde, para que a equipe faça menos esforços, por ser uma cama equipada, uma melhoria que diz muito sobre as condições de trabalho.  Estamos muito contentes com os leitos novos&lt;/strong&gt;”, afirma o chefe de enfermagem Durival Brito.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/bolsonaro-volta-a-participar-de-evento-militar-mas-segue-em-silencio/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/governo-do-acre-fundhacre-adquire-novas-camas-para-enfermarias-do-hospital/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/tagreuters.com2022binary_LYNXMPEIAP066-FILEDIMAGE-e1669936137482.webp?fit=876%2C484&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/06-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>22:43:00</t>
+          <t>08:18:50</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Após relação conturbada com Bolsonaro, presidente da Alemanha confirma participação na posse de Lula</t>
+          <t>Capacitações com moradores: Estado busca fortalecer turismo de base comunitária na APA do Amapá</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;O Ministério das Relações Exteriores enviou, nesta quarta-feira (30), a todos os chefes de Estado e de governo que o Brasil mantém relações o convite para a posse de Luiz Inácio Lula da Silva (PT), que acontecerá na tarde do dia 1° de janeiro de 2023. Menos de 24 horas depois, a lista de confirmados conta com representantes de, ao menos, dez países.&lt;/p&gt;
-&lt;p&gt;É o caso do presidente da Alemanha, Frank-Walter Steinmeier, que anunciou agenda em solo brasileiro entre os dias 31 de dezembro e 3 de janeiro, com visitas a Brasília e Manaus.&lt;/p&gt;
-&lt;p&gt;A vinda do mandatário alemão é um contraponto à conturbada relação do atual presidente Jair Bolsonaro (PL) com o país europeu, principalmente depois de o brasileiro receber uma parlamentar da extrema-direita alemã e neta de ministro de Adolf Hitler.&lt;/p&gt;
-&lt;p&gt;“Com a sua presença, o presidente [da Alemanha] saúda a mudança democrática de poder no maior país da América Latina e pretende impulsionar uma nova fase da parceria estratégica com o Brasil”, informou nota divulgada pela Embaixada da Alemanha.&lt;/p&gt;
-&lt;h2&gt;Outros líderes confirmam presença&lt;/h2&gt;
-&lt;p&gt;Nesta quinta-feira (1°), o embaixador da Argentina, Daniel Scioli, esteve no Centro Cultural Banco do Brasil (CCBB) – sede do gabinete de transição -, em Brasília, para encontro com o presidente eleito. O objetivo foi confirmar a presença do presidente do país vizinho, Alberto Fernández, na posse.&lt;/p&gt;
-&lt;p&gt;Outra confirmação recebida é da presidente de Honduras, Xiomara Castro. “Primeiro de janeiro de 2023 estarei viajando ao Brasil para a posse do presidente Lula e assim retomar e resgatar o financiamento para as represas de Los Llanitos e Jicatuyo”, disse ela em um vídeo divulgado pela secretaria de comunicação do país.&lt;/p&gt;
-&lt;p&gt;Também responderam afirmativamente países da comunidade de língua portuguesa, da África e outros aliados da América do Sul. Os Estados Unidos também informaram que vão enviar representante.&lt;/p&gt;
-&lt;p&gt;Antes da posse, Lula terá encontro com o presidente norte-americano, Joe Biden, em Washington.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;CNN Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O titular da pasta da Secretaria de Estado de Empreendedorismo e Turismo (Seet), Márcio Pereira, acompanhado da turismóloga Adalgisa Bandeira, equipe de gabinete e assessoria, juntamente com a presidente da Associação dos Moradores da Área de Proteção Ambiental (APA) do Amapá, Alieth Maria Costa, realizaram visita técnica para saber das condições em que se encontra o local.&lt;/p&gt;
+&lt;p&gt;A presidente da APA do Amapá buscou a secretaria para que se realize capacitações com moradores, pois o turismo de base comunitária pode mostrar o potencial da região na capital e incentivar os moradores a preservarem o ambiente.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Agradeço a secretaria por se fazer presente e conseguir enxergar a potencialidade do local, que pode gerar renda aos moradores como guias locais e manter a preservação ambiental da região. Estamos em um local que tem grande importância para Rio Branco, com seu aquífero e belezas exóticas, que são protegidas pela comunidade&lt;/strong&gt;”, disse Alieth.&lt;/p&gt;
+&lt;figure id="attachment_585629" class="wp-caption aligncenter" aria-describedby="caption-attachment-585629"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13.jpeg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585629 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg?resize=696%2C464" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13.jpeg 1600w" alt="" width="696" height="464" data-src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg?resize=696%2C464" data-srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1024x682.jpeg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-300x200.jpeg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-768x512.jpeg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13-1536x1023.jpeg 1536w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-12.23.13.jpeg 1600w" data-sizes="(min-width: 960px) 75vw, 100vw" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585629" class="wp-caption-text"&gt;Secretário afirma que comunidade precisa estar envolvida. Foto Alice Leão/Seet&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Para o secretário, o local pode ser um dos pontos fortes do turismo na capital.&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;Se observarmos, os moradores têm um carinho pela história local que se mistura com a história do estado do Acre e que possui um potencial turístico forte, pois é uma área rica em todos os aspectos, além do incentivo dos moradores em tirar sua renda com o turismo e preservarem a natureza&lt;/strong&gt;”, frisou Márcio.&lt;/p&gt;
+&lt;p&gt;Na próxima semana, o corpo técnico da secretaria retorna à localidade para dialogar com os moradores e iniciar os trabalhos de capacitação e orientação.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/apos-relacao-conturbada-com-bolsonaro-presidente-da-alemanha-confirma-participacao-na-posse-de-lula/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/capacitacoes-com-moradores-estado-busca-fortalecer-turismo-de-base-comunitaria-na-apa-do-amapa/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/tagreuters.com2022binary_LYNXMPEIAT14S-FILEDIMAGE-e1669942925590.webp?fit=876%2C484&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/05-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>22:37:41</t>
+          <t>08:12:30</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ação conjunta apreende drogas sintéticas em encomendas postais em aeroporto</t>
+          <t>Revitalização: Centro Cultural do Juruá é entregue revitalizado pelo governo do Estado</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Em ação conjunta, a Receita Federal e a Polícia Civil do Rio de Janeiro apreenderam hoje (30) drogas sintéticas, maconha, crack, skunk e haxixe em encomendas postais domésticas no Aeroporto Internacional do Rio/Galeão. O trabalho contou com a participação de cães farejadores da Receita Federal do Brasil.&lt;/p&gt;
-&lt;p&gt;A investigação começou em setembro deste ano, quando passou a ser obrigatório informar o CPF do remetente em todas as remessas postais do país. Uma remessa de R$ 1,2 mil comprimidos de ecstasy foi apreendida em Fortaleza (CE) e o mesmo remetente tinha enviado drogas para destinatários de outros estados, inclusive o Rio de Janeiro.&lt;/p&gt;
-&lt;p&gt;A partir desses dados foi possível identificar um padrão na remessa de entorpecentes, muitas vezes com indícios de tráfico, tendo em vista a grande quantidade de drogas enviadas em uma mesma encomenda. Sendo assim, solicitou-se aos Correios a retenção de mais de 2 mil remessas suspeitas, algumas originadas no Rio de Janeiro e outras com destinatário na cidade.&lt;/p&gt;
-&lt;p&gt;Participaram da operação servidores da Divisão de Vigilância e Repressão ao Contrabando e Descaminho da Receita Federal na 7ª Região Fiscal (RJ/ES), agentes da Delegacia do Aeroporto Internacional e da Delegacia de Repressão a Entorpecentes da Polícia Civil, além de peritos do Instituto Félix Pacheco (IFP) .&lt;/p&gt;
-&lt;p&gt;A quantidade de drogas apreendida bem como o valor dessas apreensões ainda está sendo contabilizado pelas duas  instituições envolvidas na apreensão.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt; POR AGÊNCIA BRASIL&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Em mais uma demonstração de compromisso com a cultura acreana, o governo do Estado, por meio da Secretaria de Infraestrutura (Seinfra), entregou na tarde desta quinta-feira, 1º, a revitalização do antigo prédio do Centro Cultural do Juruá, em Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;A estrutura, que pertence ao Tribunal de Justiça do Acre (TJAC), recebeu pintura geral, troca de madeiras danificadas e da rede elétrica, revitalização da cobertura, forro, escadaria e mobiliário, além de estacionamento pavimentado, paisagismo, rampa de acesso, banheiro acessível, iluminação em LED, decoração natalina e revitalização da praça localizada em frente ao prédio, totalizando um investimento na ordem de R$ 330 mil.&lt;/p&gt;
+&lt;p&gt;Presente à solenidade de reinauguração do Centro, o titular da Seinfra, Cirleudo Alencar, definiu o momento como um marco para cultura da região e destacou a política estadual de restauração de espaços públicos, que tem contribuído para a valorização de servidores e da história do Acre.&lt;/p&gt;
+&lt;figure id="attachment_585757" class="wp-caption aligncenter" aria-describedby="caption-attachment-585757"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585757 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-1024x767.jpg?resize=696%2C521" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046.jpg 1280w" alt="" width="696" height="521" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585757" class="wp-caption-text"&gt;A obra contou com o apoio da Prefeitura de Cruzeiro do Sul e do TJAC. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“&lt;strong&gt;O governador Gladson Cameli tem se empenhado no fortalecimento das instituições. O trabalho feito neste lugar é um resgate da história e uma forma de preservar a cultura local&lt;/strong&gt;”, ratificou Alencar.&lt;/p&gt;
+&lt;p&gt;A arquitetura original do Centro foi mantida. Com ambiente mais atrativo, a expectativa é de ampliar o número de visitantes, anualmente.&lt;/p&gt;
+&lt;figure id="attachment_585781" class="wp-caption aligncenter" aria-describedby="caption-attachment-585781"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585781 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-1024x767.jpg?resize=696%2C521" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg 1027w" alt="" width="696" height="521" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585781" class="wp-caption-text"&gt;Arquitetura original do prédio foi preservada. Foto: Edson Fernandes/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Em suas palavras, a presidente do TJAC, desembargadora Waldirene Cordeiro, externou gratidão à bem-sucedida parceria. “&lt;strong&gt;Meus sinceros agradecimentos ao Poder Executivo e a todos que se uniram para realizar este sonho. Este lugar guarda parte da história acreana e do Poder Judiciário&lt;/strong&gt;”, pontuou.&lt;/p&gt;
+&lt;p&gt;Também se fizeram presentes ao evento o prefeito Zequinha Lima e autoridades da região.&lt;/p&gt;
+&lt;figure id="attachment_585768" class="wp-caption aligncenter" aria-describedby="caption-attachment-585768"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585768 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg?resize=696%2C522" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-768x576.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057.jpg 1280w" alt="" width="696" height="522" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585768" class="wp-caption-text"&gt;Autoridades participaram da reinauguração do Centro na tarde desta quinta-feira. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;A história do prédio mais antigo do Acre&lt;/h4&gt;
+&lt;p&gt;O Centro Cultural do Juruá está localizado no prédio mais antigo da história do Acre. Começou a ser erguido em 1904 e sua construção foi concluída somente em 1911. O local foi a primeira sede da Prefeitura de Cruzeiro do Sul e posteriormente abrigou o Poder Judiciário.&lt;/p&gt;
+&lt;figure id="attachment_585770" class="wp-caption aligncenter" aria-describedby="caption-attachment-585770"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060.jpg"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-585770 size-large" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg?resize=696%2C521" sizes="(min-width: 960px) 75vw, 100vw" srcset="https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg 1024w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-300x225.jpg 300w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-768x575.jpg 768w, https://agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060.jpg 1280w" alt="" width="696" height="521" data-recalc-dims="1" /&gt;&lt;/a&gt;&lt;figcaption id="caption-attachment-585770" class="wp-caption-text"&gt;Local dispõe de museu, biblioteca e auditório. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Com 116 anos, a edificação volta a oferecer ao público museu, biblioteca e auditório.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Acre&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/acao-conjunta-apreende-drogas-sinteticas-em-encomendas-postais-em-aeroporto/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/revitalizacao-centro-cultural-do-jurua-e-entregue-revitalizado-pelo-governo-do-estado/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/naom_60993cdf4aa87-1.jpg?fit=1920%2C1080&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/05-2.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>22:34:28</t>
+          <t>08:05:43</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cientistas criam buracos de minhoca simulados</t>
+          <t>Sine Acre disponibiliza 39 vagas de emprego nesta sexta-feira</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;a ficção científica, buracos de minhoca no cosmos servem como portais por meio do espaço-tempo em que espaçonaves podem percorrer distâncias inimagináveis ​​com facilidade.&lt;/p&gt;
-&lt;p&gt;Os cientistas, há muito, buscam uma compreensão mais profunda desse fenômeno do universo e anunciaram, nessa quarta-feira (30), que conseguiram criar dois minúsculos buracos negros simulados em um computador quântico e transmitiram mensagem entre eles por meio do equivalente a um túnel no espaço-tempo.&lt;/p&gt;
-&lt;p&gt;O feito foi obtido com um &amp;#8220;buraco de minhoca bebê&amp;#8221;, disse a física da Universidade Caltech Maria Spiropulu, coautora de pesquisa publicada na revista &lt;em&gt;Nature&lt;/em&gt;.&lt;/p&gt;
-&lt;p&gt;Mas a humanidade ainda está muito longe de conseguir enviar pessoas ou outros seres vivos utilizando portais como esse, afirmou.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Experimentalmente, para mim, vou dizer que está muito, muito longe. As pessoas vêm até mim e perguntam: &amp;#8216;Você pode colocar seu cachorro no buraco de minhoca?&amp;#8217; Então, não&amp;#8221;, brincou Spiropulu, ao responder perguntas de jornalistas. &amp;#8220;Mas isso é um grande salto.&amp;#8221;&lt;/p&gt;
-&lt;p&gt;“Há uma diferença entre algo ser possível em teoria e possível na realidade”, acrescentou o físico e coautor do estudo Joseph Lykken, do Fermilab, o laboratório norte-americano de Física de partículas e aceleradores.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Portanto, pode esperar sentado para enviar seu cachorro por um buraco de minhoca. Mas temos que começar de algum lugar. E acho que é simplesmente emocionante podermos colocar nossas mãos nisso.&amp;#8221;&lt;/p&gt;
-&lt;p&gt;Os pesquisadores observaram a dinâmica do buraco de minhoca, simulado em um dispositivo quântico do Google chamado de processador quântico Sycamore.&lt;/p&gt;
-&lt;p&gt;Buraco de minhoca &amp;#8211; uma ruptura no espaço e no tempo &amp;#8211; é um fenômeno que atua como ponte entre duas regiões remotas do universo. Os cientistas se referem a eles como pontes Einstein-Rosen, em homenagem aos dois físicos que os descreveram &amp;#8211; Albert Einstein e Nathan Rosen.&lt;/p&gt;
-&lt;p&gt;Esses buracos de minhoca são consistentes com a teoria da relatividade geral de Einstein, que se concentra na gravidade, uma das forças fundamentais do universo. O termo buraco de minhoca foi criado pelo físico John Wheeler na década de 50.&lt;/p&gt;
-&lt;p&gt;Spiropulu disse que os pesquisadores encontraram um sistema quântico que exibe as principais propriedades de um buraco de minhoca gravitacional, mas que era pequeno o suficiente para ser implementado no &lt;em&gt;hardware&lt;/em&gt; quântico existente.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;É isso o que podemos dizer neste momento: que temos algo que, em termos das propriedades que observamos, parece um buraco de minhoca&amp;#8221;, disse Lykken.&lt;/p&gt;
-&lt;p&gt;Os pesquisadores afirmaram ainda que nenhuma ruptura de espaço e tempo foi criada no espaço físico no experimento, embora um buraco de minhoca que pode ser atravessado pareça ter surgido com base em informações quânticas teletransportadas, usando códigos quânticos no processador.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Essas ideias existem há muito tempo e são muito poderosas&amp;#8221;, disse Lykken.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Mas, no final, estamos na ciência experimental e lutando há muito tempo para encontrar uma maneira de explorar essas ideias em laboratório. E é isso que é realmente empolgante. Não é apenas, &amp;#8216;bem, buracos de minhoca são legais&amp;#8217;. Essa é uma maneira de realmente olhar para esses problemas fundamentais do nosso universo em um ambiente de laboratório.&amp;#8221;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt; POR AGÊNCIA BRASIL&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Diversas vagas de trabalho estão disponíveis nesta sexta-feira, 02, em Rio Branco, pelo Sistema de Emprego do Acre (Sine). Ao todo são 39 vagas oferecidas.&lt;/p&gt;
+&lt;p&gt;Os interessados precisam ter cadastro junto ao Sine. Aqueles que ainda não têm precisarão levar os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;Lembrando que as vagas são rotativas, ou seja, vale somente para o dia da divulgação.&lt;br /&gt;
+O atendimento ocorre por telefone, por meio do qual o interessado pode verificar se a vaga ainda está disponível. Os números são: (68) 3224-5094 (68) 3224-1519, (68) 3223-6502 ou (68) 0800 647 8182.&lt;/p&gt;
+&lt;p&gt;Se o candidato preferir o atendimento presencial, pode comparecer na Central de Serviço Público – OCA Rio Branco.&lt;/p&gt;
+&lt;figure id="attachment_348402" aria-describedby="caption-attachment-348402" style="width: 984px" class="wp-caption alignnone"&gt;&lt;img data-attachment-id="348402" data-permalink="https://ecosdanoticia.net.br/2022/12/sine-acre-disponibiliza-39-vagas-de-emprego-nesta-sexta-feira/03-237/" data-orig-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?fit=984%2C731&amp;amp;ssl=1" data-orig-size="984,731" data-comments-opened="0" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="03" data-image-description="" data-image-caption="&amp;lt;p&amp;gt;Imagem:  Divulgação/Sine Acre&amp;lt;/p&amp;gt;
+" data-medium-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?fit=300%2C223&amp;amp;ssl=1" data-large-file="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?fit=696%2C517&amp;amp;ssl=1" decoding="async" loading="lazy" class="wp-image-348402 size-full" src="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=696%2C517&amp;#038;ssl=1" alt="" width="696" height="517" srcset="https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?w=984&amp;amp;ssl=1 984w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=300%2C223&amp;amp;ssl=1 300w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=768%2C571&amp;amp;ssl=1 768w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=150%2C111&amp;amp;ssl=1 150w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=485%2C360&amp;amp;ssl=1 485w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=696%2C517&amp;amp;ssl=1 696w, https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03-1.jpg?resize=265%2C198&amp;amp;ssl=1 265w" sizes="(max-width: 696px) 100vw, 696px" data-recalc-dims="1" /&gt;&lt;figcaption id="caption-attachment-348402" class="wp-caption-text"&gt;Imagem: Divulgação/Sine Acre&lt;/figcaption&gt;&lt;/figure&gt;
 </t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/cientistas-criam-buracos-de-minhoca-simulados/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/sine-acre-disponibiliza-39-vagas-de-emprego-nesta-sexta-feira/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/naom_63888e1200db9.jpg?fit=1920%2C1080&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/03a-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>22:23:59</t>
+          <t>07:57:33</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nintendo compartilha novo trailer do filme de &amp;#8216;Super Mario&amp;#8217;</t>
+          <t xml:space="preserve">Copa do Mundo: Camarões volta a atravessar o caminho do Brasil </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;span class="news_capital_letter"&gt;A&lt;/span&gt;Nintendo compartilhou um novo trailer do filme ‘The Super Mario Bros. Movie’, a muito aguardada adaptação cinematográfica daquela que é considerada uma das séries de games mais icônicos de todos os tempos.&lt;/p&gt;
-&lt;p&gt;O primeiro trailer de ‘The Super Mario Bros. Movie’ mostrou sobretudo o herói Mario e o vilão Bowser, assim como o trabalho vocal de Chris Pratt e de Jack Black (respectivamente). Este segundo trailer é um pouco mais rico e mostra outras personagens como é o caso de Peach (Anya Taylor-Joy), Luigi (Charlie Day) e Donkey Kong (Seth Rogen).&lt;/p&gt;
-&lt;p&gt;Mais do que mostrar estes personagens, o novo trailer de ‘The Super Mario Bros. Movie’ conta com múltiplas referências aos vários jogos onde o mascote da Nintendo marcou presença. Além de ‘Donkey Kong’, também é possível ver referências a ‘Mario Kart’ e avistar vários ‘power-ups’ usados por Mario nos jogos.&lt;/p&gt;
-&lt;p&gt;‘The Super Mario Bros. Movie’ tem estreia prevista para abril de 2023 e pode ver acima o novo trailer.&lt;/p&gt;
-&lt;p&gt;&lt;iframe loading="lazy" title="SUPER MARIO BROS - O FILME - Trailer Oficial Universal Pictures" width="696" height="392" src="https://www.youtube.com/embed/TFzZdOvz26s?feature=oembed" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;POR NOTÍCIAS AO MINUTO BRASIL&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;Os mais novos não têm como se lembrar, mas houve um ano no qual os brasileiros torceram para Camarões. Na Copa da Itália (1990), após a seleção ser eliminada pela Argentina, todo o país trocou a camisa amarela pela verde e esperou que os Leões Indomáveis conseguissem ir o mais longe possível. A epopeia terminou nas quartas de final, mas Camarões do mítico goleiro N´Kono e do atacante Roger Milla colocou o país definitivamente no mapa do futebol mundial.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;Quis o sorteio que, na Copa seguinte, nos Estados Unidos (1994) os camaroneses cruzassem o caminho do Brasil. Na fase de grupos, foi mera formalidade para Romário, Bebeto e até para Márcio Santos marcarem 3 a 0 nas redes do goleiro Bell.&lt;/p&gt;
+&lt;p&gt;Depois disso, as duas seleções só se reencontraram na Copa de 2014, no estádio Mané Garrincha, em Brasília. Cada vez mais longe dos melhores dias, Camarões caiu por 4 a 1 sem oferecer a mínima resistência. Neymar, duas vezes, Fred e Fernandinho foram os autores dos gols naquela tarde, classificando a equipe para as oitavas de final.&lt;/p&gt;
+&lt;p&gt;Tite ainda pode usar em 2022 três remanescentes daquela equipe: Daniel Alves, Thiago Silva e Neymar. Enquanto isso, os Leões, após a façanha de 1990, nunca mais passaram da primeira fase de um mundial de seleções, acumulando eliminações precoces e rugindo cada vez mais baixo.&lt;/p&gt;
+&lt;p&gt;A seleção comandada por Tite ainda fez um amistoso na Inglaterra, em 2018, contra Camarões. A vitória foi magrinha: 1 a 0, gol de Richarlison.&lt;/p&gt;
+&lt;p&gt;A única negativa lembrança que a seleção africana trouxe até hoje, além de uma vitória na Copa das Confederações em 2003, foi a eliminação nas quartas de final dos Jogos Olímpicos de Sydney (2000). Para muitos, a equipe olímpica não pode ser equiparada à seleção principal, mas o sabor amargo da eliminação, com gol de ouro na prorrogação, causou estragos para o técnico Vanderlei Luxemburgo.&lt;/p&gt;
+&lt;div class="dnd-widget-wrapper context-cheio_8colunas type-image"&gt;
+&lt;div class="dnd-atom-rendered"&gt;
+&lt;div class="shadow overflow-hidden rounded-lg d-block zoom-on-hover-sm shadow-hover w-100"&gt;
+&lt;figure style="width: 754px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" class="flex-fill img-cover" title="Marcello Casal jr/Agência Brasil" src="https://i0.wp.com/imagens.ebc.com.br/HWpPZDBMvTgSroUZCWGVaxJjROA=/754x0/smart/https://agenciabrasil.ebc.com.br/sites/default/files/atoms/image/920560-camaroes_%20jogo_copa%202014_10.jpg?resize=696%2C463&amp;#038;ssl=1" alt="Brasil joga contra Camarões  no estadio nacional de Brasília, o Mané Garrincha (Marcello Casal Jr/Agência Brasil)" width="696" height="463" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Brasil e Camarões se enfrentaram no estádio Mané Garrincha pela Copa de 2014 &amp;#8211; Marcello Casal jr/Agência Brasil.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="dnd-caption-wrapper"&gt;
+&lt;div class="meta"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;Foi um jogo atípico. Mboma fez 1 a 0 no 1º tempo. Camarões teve dois jogadores expulsos e o Brasil só conseguiu empatar aos 49 minutos do 2º tempo, numa cobrança de falta de Ronaldinho Gaúcho. Com essa dose extra de estímulo, o jogo foi para a prorrogação e, mesmo com dois homens a mais, a seleção levou um gol de M’Bami. A medalha de ouro foi embora e Camarões caminhou rumo a um improvável e único título. Eliminou o Chile nas semifinais e derrubou a Espanha, na final, nos pênaltis. A medalha que os brasileiros esperavam foi parar no peito da geração de Samuel Eto´o (famoso atacante camaronês com passagens por equipes como Barcelona, Inter de Milão e Chelsea).&lt;/p&gt;
+&lt;p&gt;Apenas a título de curiosidade, a seleção foi eliminada com Hélton; Baiano, Fábio Aurélio, Athirson (Roger) e Fábio Bilica (Lúcio); Álvaro, Marcos Paulo, Fabiano e Ronaldinho Gaúcho; Alex e Lucas (Geovanni).&lt;/p&gt;
+&lt;p&gt;“&lt;strong&gt;A tática do impedimento e a disposição dos camaroneses desmascararam o pretenso moderno futebol brasileiro. Um futebol feio e muito mal jogado dentro e fora de campo. No campo, jogadores que não demonstraram vontade, brio e qualidade técnica&lt;/strong&gt;”, bradou o Jornal do Brasil do dia seguinte.&lt;/p&gt;
+&lt;p&gt;Em pouco tempo, os brasileiros já tinham esquecido o vexame e passaram a entoar pelos estádios do país o cântico: “Obina é melhor que o Etooooo”.&lt;/p&gt;
+&lt;p&gt;Ah, sim, para os mais novos, Obina era um jogador do Flamengo que nunca participou de uma Copa do Mundo, nem de uma Olimpíada, e talvez nem fosse melhor que o Eto´o.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/nintendo-compartilha-novo-trailer-do-filme-de-super-mario/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/copa-do-mundo-camaroes-volta-a-atravessar-o-caminho-do-brasil/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/naom_638718d3479a5.jpg?fit=1920%2C1080&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/02-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>22:16:52</t>
+          <t>07:52:59</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Deputados do PT acionam STF contra Zambelli por vídeo com falas golpistas</t>
+          <t>Pix deixará de ter limite por transação em 2023, anuncia BC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p&gt;Os deputados federais Reginaldo Lopes (PT-MG) e Paulo Teixeira (PT-SP) entraram com uma ação no STF (Supremo Tribunal Federal) contra colega de Casa Carla Zambelli (PL-SP) por um vídeo publicado nesta quarta-feira (30) no qual ela incita generais comandantes militares a não reconhecerem a vitória do presidente eleito Luiz Inácio Lula da Silva (PT) nas eleições.&lt;/p&gt;
-&lt;p&gt;Para os parlamentares, &amp;#8220;trata-se de fato gravíssimo, praticado por quem deveria, como princípio e obrigação basilar, na condição de Deputada Federal, defender a Constituição, as Instituições e o processo democrático delineado e reforçado através do sufrágio universal&amp;#8221;.&lt;/p&gt;
-&lt;p&gt;No vídeo, Zambelli diz que &amp;#8220;é hora de se posicionar&amp;#8221; e questiona: &amp;#8220;De que lado vocês estão?&amp;#8221;&lt;/p&gt;
-&lt;p&gt;Ainda segundo os deputados petistas, não só Zambelli, mas todos os apoiadores do presidente Jair Bolsonaro (PL) vivem em uma &amp;#8220;psicose coletiva&amp;#8221;.&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Negam o reconhecimento da validade do processo eleitoral e de seu resultado, flertam com a ruptura institucional a partir da defesa de um regime autoritário na condução do país, semeiam ódio e violência, vendo inimigos e comunistas em todos os cantos, numa vã esperança de que alguma divindade de outro mundo possa modificar a vontade soberana da sociedade brasileira&amp;#8221;, afirmam os deputados.&lt;/p&gt;
-&lt;p&gt;Ao fim do pedido, os petistas pedem que a PGR (Procuradoria-Geral República) seja intimada pelo STF e adote providências contra a deputada bolsonarista, sugerindo a abertura de uma investigação, além de medidas civis e administrativas que a procuradoria julgar necessárias.&lt;/p&gt;
-&lt;p&gt;Eles também solicitam que o TSE (Tribunal Superior Eleitoral) seja acionado por descumprimento de decisão da Corte eleitoral que vetou o uso de redes sociais por parte de Zambelli.&lt;/p&gt;
-&lt;p&gt;O UOL entrou em contato com Zambelli e, em caso de manifestação, este texto será atualizado.&lt;/p&gt;
-&lt;p&gt;Desde o início de novembro, a deputada federal está proibida de usar as redes sociais e criar novos perfis até a diplomação de Lula.&lt;/p&gt;
-&lt;p&gt;O juiz auxiliar da presidência do TSE, Marco Antônio Martin Vargas, impôs multa de R$ 100 mil para cada conta que venha a ser criada pela parlamentar, caso ela descumpra a decisão.&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;&lt;strong&gt;(UOL-FOLHAPRESS)&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;A partir de 2 de janeiro, o Pix não terá mais limite por transação, anunciou hoje (1º) o Banco Central (BC). Os limites de valor serão mantidos apenas por período: diurno (6h às 20h) ou noturno (20h às 6h).&lt;/p&gt;
+&lt;p&gt;Com a mudança, o cliente poderá transferir todo o limite de um período (diurno ou noturno) em apenas uma transação Pix ou fazê-lo em diversas vezes, ficando a critério do correntista.&lt;/p&gt;
+&lt;p&gt;O BC também elevou o limite para as retiradas de dinheiro por meio das modalidades Pix Saque e Pix Troco. O valor máximo passou de R$ 500 para R$ 3 mil durante o dia e de R$ 100 para R$ 1 mil no período noturno.&lt;/p&gt;
+&lt;p&gt;As regras para o cliente personalizar os limites do Pix não mudaram. As instituições financeiras terão de 24 a 48 horas para acatar a ampliação dos limites e deverão aceitar imediatamente os pedidos de redução.&lt;/p&gt;
+&lt;p&gt;Em nota, o BC informou que a atualização das regras simplificará o Pix, além de aprimorar a experiência dos usuários, “ao efetuar a gestão de limites por meio de aplicativos, mantendo o atual nível de segurança”. Quanto ao Pix Saque e ao Pix Troco, o órgão informou que as mudanças pretendem igualar o Pix ao saque tradicional nos caixas eletrônicos.&lt;/p&gt;
+&lt;p&gt;A sugestão para abolir o limite por operação foi feita no Fórum Pix de setembro, grupo de trabalho coordenado pelo órgão e secretariado pela Federação Brasileira de Bancos (Febraban) que reúne as instituições participantes do Pix. Segundo o grupo, o valor máximo por transação era pouco efetivo porque o usuário pode fazer diversas operações pelo valor do limite desde que respeite a quantia fixada para o período diurno ou noturno.&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.png?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;img decoding="async" src="https://i0.wp.com/agenciabrasil.ebc.com.br/ebc.gif?w=696&amp;#038;ssl=1" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;h2&gt;Aposentadorias e pensões&lt;/h2&gt;
+&lt;p&gt;O BC também alterou a regulamentação para o pagamento de salários e benefícios previdenciários pelo governo. O Tesouro Nacional poderá pagar salários ao funcionalismo, aposentadorias e pensões por meio do Pix. O BC também facilitará o recebimento de recursos por correspondentes bancários pela modalidade.&lt;/p&gt;
+&lt;p&gt;Outras regulamentações foram atualizadas. Ficará a critério de cada instituição financeira definir os limites para transações em que os usuários finais sejam empresas. A personalização do horário noturno diferenciado passará a ser facultativa. Além disso, as instituições financeiras passarão a considerar os limites da transferência eletrônica disponível (TED) para definir os limites das operações Pix com finalidade de compra. Até agora, os valores máximos eram definidos com base no cartão de débito.&lt;/p&gt;
+&lt;p&gt;A maioria das regras valerá a partir de 2 de janeiro. No entanto, os ajustes relacionados à gestão dos limites para os clientes por meio do aplicativo ou do canal digital da instituição valem a partir de 3 de julho de 2023.&lt;/p&gt;
+&lt;p&gt;Desde o lançamento, em novembro de 2020, o Pix tornou-se o meio de pagamento mais usado no Brasil. Com o pagamento da primeira parcela do 13º salário ontem (30), o sistema bateu um novo recorde diário de transações. Segundo o BC, foram realizadas 99,4 milhões operações Pix em apenas um dia.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;&lt;strong&gt;Agência Brasil&lt;/strong&gt;&lt;/em&gt;&lt;/p&gt;
 </t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://ecosdanoticia.net.br/2022/12/deputados-do-pt-acionam-stf-contra-zambelli-por-video-com-falas-golpistas/</t>
+          <t>https://ecosdanoticia.net.br/2022/12/pix-deixara-de-ter-limite-por-transacao-em-2023-anuncia-bc/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/naom_5eb54dc065296.jpg?fit=1920%2C1080&amp;ssl=1</t>
+          <t>https://i0.wp.com/ecosdanoticia.net.br/wp-content/uploads/2022/12/01-1.jpg?fit=2500%2C1500&amp;ssl=1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>09:16:06</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Vacinação contra o coronavírus termina mais cedo nesta sexta, por conta do jogo do Brasil</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Por conta do jogo do Brasil na Copa do Mundo do Catar, a vacinação contra o vírus da Covid-19 está sendo disponibilizada somente até às 12h, nesta sexta-feira, 2. As vacinas seguem sendo aplicadas em 11 pontos da capital acreana, segundo a Secretaria Municipal de Saúde (Semsa).&lt;/p&gt;
+&lt;p&gt;A Pfizer Baby, disponível para criança crianças de 6 meses a 2 anos, é ofertada em um apenas um ponto de vacinação, no CRIE.&lt;/p&gt;
+&lt;p&gt;Para tomar a vacina, basta ir até um dos locais indicados, levando documento oficial com foto e Cartão do Sistema Único de Saúde (SUS), além de observar o intervalo entre as doses, que é de 4 meses ou mais para a dose de reforço e de dois meses ou mais entre a primeira e segunda dose, no caso do imunizante Pfizer.&lt;/p&gt;
+&lt;p&gt;Jovens com 18 anos ou mais já podem tomar a quarta dose do imunizante. Todos os menores de idade que forem tomar a vacina precisam estar acompanhados de um dos pais ou responsável, portando todos os documentos pessoais, carteira de vacina e cartão do SUS ou CPF da criança.&lt;/p&gt;
+&lt;div class="entry-content with-share"&gt;
+&lt;div class="content-inner "&gt;
+&lt;h4 class="has-medium-font-size"&gt;&lt;strong&gt;Primeira e segunda dose (+ de 2 meses) – Dose de reforço (+ de 4 meses)&lt;/strong&gt;&lt;/h4&gt;
+&lt;ul&gt;
+&lt;li&gt;Urap Eduardo Assmar&lt;/li&gt;
+&lt;li&gt;Urap Rozangela Pimentel&lt;/li&gt;
+&lt;li&gt;Urap São Francisco&lt;/li&gt;
+&lt;li&gt;Urap Hidalgo de Lima&lt;/li&gt;
+&lt;li&gt;Urap Ary Rodrigues&lt;/li&gt;
+&lt;li&gt;Urap Bacurau&lt;/li&gt;
+&lt;li&gt;Urap Cláudia Vitorino&lt;/li&gt;
+&lt;li&gt;Policlinica Barral y Barral&lt;/li&gt;
+&lt;li&gt;Urap Vila Ivonete&lt;/li&gt;
+&lt;li&gt;Urap Roney Meireles&lt;/li&gt;
+&lt;li&gt;Centro de Referências Para Imunobiológicos Especiais (Crie) – Pfizer Baby&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Quem precisar tomar a segunda dose do imunizante coronavac pode pode fazer o agendamento na Vigilância Epidemiológica, por meio do telefone (68) 3227-3165.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/vacinacao-contra-o-coronavirus-termina-mais-cedo-nesta-sexta-por-conta-do-jogo-do-brasil/</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/08/vacina-pediatrica.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>08:45:58</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Inmet alerta sobre riscos de chuvas intensas em todo o estado do Acre</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Instituto Nacional de Meteorologia (Inmet) emitiu um alerta de perigo para o risco de chuvas intensas em todo o estado do Acre, válido para esta sexta-feira, 2, até a manhã do sábado, 3.&lt;/p&gt;
+&lt;p&gt;De acordo com o instituto, as chuvas podem ser entre 30 e 60 mm/h ou 50 e 100 mm/dia, e além disso, o Instituto pontua que podem ocorrer ventos intensos, de 60 a100 km/h.&lt;/p&gt;
+&lt;p&gt;O Inmet ainda alerta sobre possíveis consequências do tempo, como o risco de corte de energia elétrica, queda de galhos de árvores, alagamentos e descargas elétricas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Instruções&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Em caso de rajadas de vento, a orientação é que não se abrigue debaixo de árvores, pois há leve risco de queda e descargas elétricas e não estacione veículos próximos a torres de transmissão e placas de propaganda. Evite usar aparelhos eletrônicos ligados à tomada.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/inmet-alerta-sobre-riscos-de-chuvas-intensas-em-todo-o-estado-do-acre/</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2021/12/rio-branco-chuva-guarda-chuva-tempo-2.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>07:00:51</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Prefeitura Municipal de Rio Branco – Acre – Avisos -02/12/2022</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/Publicacoes-Legais-02-12-2022.pdf</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>07:00:45</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sine oferta 39 vagas de emprego nesta sexta-feira, no Acre</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com vagas para a capital a acreana, Rio Branco, e também Cruzeiro do Sul, no interior, o Sistema Nacional de Emprego (Sine) oferta 39 oportunidades de emprego, nesta sexta-feira, 2, para profissionais com nível fundamental, médio e superior e também para pessoas com deficiência (PCD). É exigido no mínimo seis meses de experiência.&lt;/p&gt;
+&lt;p&gt;O candidato a vaga deve atualizar o cadastro no Sine. Quem não tiver cadastro na instituição deve levar os seguintes documentos: Carteira de Trabalho, Identidade/CPF, Título de Eleitor, comprovante de escolaridade e de endereço.&lt;/p&gt;
+&lt;p&gt;O órgão do Governo Federal se dispõe a encaminhar cinco pessoas à empresa contratante, a fim de que o empregador possa escolher aquela que vai preencher a vaga disponibilizada.&lt;/p&gt;
+&lt;p&gt;O atendimento está sendo feito exclusivamente por telefone. Os interessados devem entrar em contato pelos números: (68) 3223-6502; 3224-5094; 3224-1519 ou pelo 0800 647-8182.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" loading="lazy" class="alignnone wp-image-661118 size-large" src="https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-600x346.png" alt="" width="600" height="346" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-600x346.png 600w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-300x173.png 300w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-768x443.png 768w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-150x87.png 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-750x433.png 750w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2-1140x657.png 1140w, https://agazetadoacre.com/wp-content/uploads/2022/12/sine-2.png 1200w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/sine-oferta-39-vagas-de-emprego-nesta-sexta-feira-no-acre/</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2017/11/carteiradetrabalho.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>07:00:44</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Projeto &amp;#8216;Samba das Moças&amp;#8221; homenageia o gênero musical e relembra trajetória; evento é aberto ao público</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;&lt;em&gt;&amp;#8220;Quem não gosta do samba bom sujeito não é. Ou é ruim da cabeça ou doente do pé&amp;#8221;&lt;/em&gt;, já diria o saudoso Dorival Caymmi. Nesta sexta-feira, 2, Dia Nacional do Samba, o coletivo Moças do Samba inicia o projeto Samba das Moças. Além de exaltar o gênero musical, as artistas Narjara Saab, Carol Di Deus e Sandra Buh vão abordar a trajetória do samba no Brasil.&lt;/p&gt;
+&lt;p&gt;O espetáculo começa às 19 horas, no saguão do Cine Teatro Recreio, e a entrada é totalmente gratuita. &amp;#8220;As músicas serão divididas em blocos por estilo: samba canção, de breque, sincopado, samba de partido alto. Vamos cantando e falando um pouco sobre cada estilo&amp;#8221;, explica Narjara.&lt;/p&gt;
+&lt;p&gt;O projeto conta com financiamento do Fundo Municipal de Cultura de Rio Branco, e apoio da Fundação Elias Mansour (FEM).&lt;/p&gt;
+&lt;p&gt;“O projeto Samba das Moças prevê a realização de três shows culturais didáticos, com foco no ritmo samba e abordando temáticas como a história do surgimento do samba, a participação da mulher na construção do samba como ritmo musical e os carnavais das décadas de 30 e 40”, explica a cantora e integrante do grupo Moças do Samba, Carol Di Deus.&lt;/p&gt;
+&lt;p&gt;A artista acrescenta ainda que essa apresentação também irá compor a Semana da Música, que está sendo organizada pelo curso de Música da Universidade Federal do Acre (Ufac) e Escola de Música do Acre, com apoio da FEM. Os próximos shows do projeto estão previstos para o dia 22 de fevereiro e 11 de março, na Semana da Mulher.&lt;/p&gt;
+&lt;blockquote class="instagram-media" style="background: #FFF; border: 0; border-radius: 3px; box-shadow: 0 0 1px 0 rgba(0,0,0,0.5),0 1px 10px 0 rgba(0,0,0,0.15); margin: 1px; max-width: 540px; min-width: 326px; padding: 0; width: calc(100% - 2px);" data-instgrm-captioned="" data-instgrm-permalink="https://www.instagram.com/p/ClmQp-quLBQ/?utm_source=ig_embed&amp;amp;utm_campaign=loading" data-instgrm-version="14"&gt;
+&lt;div style="padding: 16px;"&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div style="display: flex; flex-direction: row; align-items: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 40px; margin-right: 14px; width: 40px;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 100px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 60px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 19% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: block; height: 50px; margin: 0 auto 12px; width: 50px;"&gt;&lt;/div&gt;
+&lt;div style="padding-top: 8px;"&gt;
+&lt;div style="color: #3897f0; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: 550; line-height: 18px;"&gt;Ver essa foto no Instagram&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="padding: 12.5% 0;"&gt;&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: row; margin-bottom: 14px; align-items: center;"&gt;
+&lt;div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(0px) translateY(7px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; height: 12.5px; transform: rotate(-45deg) translateX(3px) translateY(1px); width: 12.5px; flex-grow: 0; margin-right: 14px; margin-left: 2px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; height: 12.5px; width: 12.5px; transform: translateX(9px) translateY(-18px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: 8px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 50%; flex-grow: 0; height: 20px; width: 20px;"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 2px solid transparent; border-left: 6px solid #f4f4f4; border-bottom: 2px solid transparent; transform: translateX(16px) translateY(-4px) rotate(30deg);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="margin-left: auto;"&gt;
+&lt;div style="width: 0px; border-top: 8px solid #F4F4F4; border-right: 8px solid transparent; transform: translateY(16px);"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; flex-grow: 0; height: 12px; width: 16px; transform: translateY(-4px);"&gt;&lt;/div&gt;
+&lt;div style="width: 0; height: 0; border-top: 8px solid #F4F4F4; border-left: 8px solid transparent; transform: translateY(-4px) translateX(8px);"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div style="display: flex; flex-direction: column; flex-grow: 1; justify-content: center; margin-bottom: 24px;"&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; margin-bottom: 6px; width: 224px;"&gt;&lt;/div&gt;
+&lt;div style="background-color: #f4f4f4; border-radius: 4px; flex-grow: 0; height: 14px; width: 144px;"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; line-height: 17px; margin-bottom: 0; margin-top: 8px; overflow: hidden; padding: 8px 0 7px; text-align: center; text-overflow: ellipsis; white-space: nowrap;"&gt;&lt;a style="color: #c9c8cd; font-family: Arial,sans-serif; font-size: 14px; font-style: normal; font-weight: normal; line-height: 17px; text-decoration: none;" href="https://www.instagram.com/p/ClmQp-quLBQ/?utm_source=ig_embed&amp;amp;utm_campaign=loading" target="_blank" rel="noopener"&gt;Uma publicação compartilhada por Moças do Samba (@mocasdosamba)&lt;/a&gt;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt;&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/projeto-samba-das-mocas-homenageia-o-genero-musical-e-relembra-trajetoria-o-evento-e-aberto-ao-publico/</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/mocas_do_samba.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>07:00:14</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Chargista Dim Mendes realiza exposição de quadros pintados durante a pandemia de Covid, em Rio Branco</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Nem só de charge vive o artista plástico Raimundo Ribeiro Mendes, de 58 anos, mais conhecido como Dim Mendes, que além de dar vida as sátiras do cenário político do Acre por meio das ilustrações, após anos, ele também traz para o público mais uma mostra de seu trabalho, com a pintura em telas, por meio da exposição Piceladas de Arte.&lt;/p&gt;
+&lt;figure id="attachment_661108" aria-describedby="caption-attachment-661108" style="width: 300px" class="wp-caption alignright"&gt;&lt;img decoding="async" loading="lazy" class="wp-image-661108 size-medium" src="https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-300x217.jpg" alt="" width="300" height="217" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-300x217.jpg 300w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-600x434.jpg 600w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-768x556.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-150x109.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-120x86.jpg 120w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-750x543.jpg 750w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim-1140x825.jpg 1140w, https://agazetadoacre.com/wp-content/uploads/2022/12/Dim.jpg 1185w" sizes="(max-width: 300px) 100vw, 300px" /&gt;&lt;figcaption id="caption-attachment-661108" class="wp-caption-text"&gt;Chargista Dim Mendes lança exposição de pinturas em Rio Branco (Foto: arquivo pessoal)&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A exposição começa nesta sexta-feira, 2, no salão de entrada da Secretaria Estadual de Planejamento (Seplag), no Centro de Rio Branco, com 15 telas que foram pintadas ao longo do período mais crítico da pandemia de Covid-19.&lt;/p&gt;
+&lt;p&gt;“É um trabalho que fiz durante a pandemia. São 15 telas, entre caricaturas, pintura clássica e moderna. Algumas são releitura, como a moça com o brinco de pérola, que fiz ela com a bandeira do Acre como turbante, no caso a original é um turbante azul”, conta Dim.&lt;/p&gt;
+&lt;p&gt;A exposição segue até dia 30 de dezembro, e conta com as telas que estão disponíveis para venda também. Dim afirma que a inspiração dele foi um refúgio durante o período crítico da pandemia.&lt;/p&gt;
+&lt;p&gt;“Comecei a pintar e foi pra esquecer mesmo, então voltei aos meus velhos tempos de pintor porque agora só faço charges e resolvi pintar. Me encontrei de novo com as artes plásticas, e foi também um momento de reflexão e refúgio para não pensar na Covid”, relembra.&lt;/p&gt;
+&lt;p&gt;O nome da exposição é Pinceladas de Artes porque ele não se limitou a um único tema, são vários assuntos com abordagem de personagens que mostram a floresta amazônica, e também retrata a cidade, além de figuras importantes do estado, como o governador Gladson Cameli, caricaturas e as releituras.&lt;/p&gt;
+&lt;div id='gallery-1' class='gallery galleryid-661104 gallery-columns-3 gallery-size-thumbnail'&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon landscape'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/chargista-dim-mendes-realiza-exposicao-de-quadros-pintados-durante-a-pandemia-de-covid-em-rio-branco/attachment/cidades/'&gt;&lt;img width="150" height="150" src="https://agazetadoacre.com/wp-content/uploads/2022/12/cidades-150x150.jpg" class="attachment-thumbnail size-thumbnail" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/cidades-150x150.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/cidades-96x96.jpg 96w, https://agazetadoacre.com/wp-content/uploads/2022/12/cidades-75x75.jpg 75w, https://agazetadoacre.com/wp-content/uploads/2022/12/cidades-350x350.jpg 350w" sizes="(max-width: 150px) 100vw, 150px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;&lt;figure class='gallery-item'&gt;
+			&lt;div class='gallery-icon portrait'&gt;
+				&lt;a href='https://agazetadoacre.com/2022/12/noticias/geral/chargista-dim-mendes-realiza-exposicao-de-quadros-pintados-durante-a-pandemia-de-covid-em-rio-branco/attachment/gladson-com-a-bandeira/'&gt;&lt;img width="150" height="150" src="https://agazetadoacre.com/wp-content/uploads/2022/12/gladson-com-a-bandeira-150x150.jpg" class="attachment-thumbnail size-thumbnail" alt="" decoding="async" loading="lazy" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/gladson-com-a-bandeira-150x150.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/gladson-com-a-bandeira-96x96.jpg 96w, https://agazetadoacre.com/wp-content/uploads/2022/12/gladson-com-a-bandeira-75x75.jpg 75w, https://agazetadoacre.com/wp-content/uploads/2022/12/gladson-com-a-bandeira-350x350.jpg 350w" sizes="(max-width: 150px) 100vw, 150px" /&gt;&lt;/a&gt;
+			&lt;/div&gt;&lt;/figure&gt;
+		&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/2022/12/noticias/geral/chargista-dim-mendes-realiza-exposicao-de-quadros-pintados-durante-a-pandemia-de-covid-em-rio-branco/</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/arara.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>18:50:11</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Prefeito de Rio Branco apresenta projeto “1.001 Dignidades” no Fórum Global Understanding Risk</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O prefeito de Rio Branco, Tião Bocalom, apresentou por via remota, no Fórum Global Understanding Risk, o projeto de moradia popular “1.001 Dignidades”.&lt;/p&gt;
 &lt;p&gt;O gestor saiu da capital acreana nesta quarta-feira (30), com destino à Florianópolis, onde está ocorrendo o evento, para palestrar sobre os abrigos humanizados, construídos pela prefeitura, com o envolvimento de todos os setores da administração, aos desabrigados pela enchente que castigou Rio Branco no início de 2021. O modelo de abrigos servirá, por sugestão do secretário nacional de Defesa Civil, Alexandre Lucas, de referência para o restante do país.&lt;/p&gt;
@@ -5985,34 +6024,34 @@
 </t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/12/noticias/prefeito-de-rio-branco-apresenta-projeto-1-001-dignidades-no-forum-global-understanding-risk/</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>16:29:42</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Jojo Todynho recebe o tão aguardado convite para a farofa da Gkay, mas joga balde d’água nos seguidores: “Não vou poder ir…”</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Os famosos estão alvoroçados para receber o tão aguardado convite para a&lt;strong&gt; Farofa da Gkay&lt;/strong&gt;. A sacola de lixo já chegou para algumas celebridades e &lt;strong&gt;Jojo &lt;/strong&gt;&lt;strong&gt;Todynho &lt;/strong&gt;estava crente que seu nome não constava na lista de convidados do evento. &lt;a tabindex="0" href="https://br.bolavip.com/entretenimento/Kerline-Cardoso-compara-as-producoes-de-A-Fazenda-e-BBB-e-entrega-qual-bastidores-seria-mais-humana-Provas-bem-elaboradas-20221130-0256.html" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Mas, nesta quarta-feira (30), a apresentadora mostrou que &lt;strong&gt;Gessica Kayane&lt;/strong&gt; não a deixou de fora do festival.&lt;/a&gt;&lt;/p&gt;
 &lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;A intérprete de &lt;strong&gt;Que Tiro Foi Esse&lt;/strong&gt; mostrou o saco no &lt;strong&gt;Instagram&lt;/strong&gt;, mas para a infelicidade dos seguidores, a contratada da Globo deixou claro que não participará da festa, em razão de compromissos com o trabalho na emissora carioca. &amp;#8220;&lt;em&gt;Olha o que chegou para mim, Farofa da Gyka. Obrigada pelo convite, me tirou do castigo do seu coração. &lt;/em&gt;&lt;a tabindex="0" href="https://br.bolavip.com/entretenimento/Rodrigo-Mussi-conta-do-momento-que-teve-sua-consciencia-de-volta-apos-o-grave-acidente-que-sofreu-Chorar-20221130-0248.html" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;em&gt;Fico feliz! Agora estou solteira, pronta para a Farofa!&lt;/em&gt;&amp;#8220;, começou.&lt;/a&gt;&lt;/p&gt;
@@ -6039,34 +6078,34 @@
 </t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/12/guia-gazeta-2/3o-guia-gazeta/jojo-todynho-recebe-o-tao-aguardado-convite-para-a-farofa-da-gkay-mas-joga-balde-dagua-nos-seguidores-nao-vou-poder-ir/</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/12/AA14L4IB-e1669930167858.png</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>16:26:02</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Acontece neste sábado, 3, a 8ª edição do Brechó Chic</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;No que diz respeito à sustentabilidade na moda, os brechós significam uma das soluções mais efetivas para a questão do pós-consumo. Eles representam a plataforma principal para distribuição de roupas que seriam descartadas, prolongando, assim, a vida útil das peças .&lt;br /&gt;
 Pegando essa deixa é que grupo de amigas criou o Brechó Chic, ideia que foi tomando dimensões estratosféricas, e é hoje um dos maiores eventos do segmento no Estado.&lt;/p&gt;
@@ -6079,34 +6118,34 @@
 </t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/12/guia-gazeta-2/2o-guia-gazeta/acontece-neste-sabado-3-a-8a-edicao-do-brecho-chic/</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-15.41.43.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>16:21:22</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Bianca Andrade anuncia o encerramento de sua marca de cosméticos</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Na noite da última terça-feira, 29, Bianca Andrade anunciou o fim da linha para cabelos, Boca Rosa Hair – Uma parceria da blogueira com Cadiveu Essentials.&lt;/p&gt;
 &lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;,&amp;quot;t&amp;quot;:14}"&gt;&lt;a tabindex="0" href="https://br.paipee.com/2022/11/30/giulia-be-fala-sobre-relacionamento-com-o-ex-de-taylor-swift-muito-especial-e-diferente/" target="_blank" rel="noopener noreferrer" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:14,&amp;quot;b&amp;quot;:1}"&gt;++Giulia Be fala sobre relacionamento com o ex de Taylor Swift: “Muito especial e diferente”&lt;/a&gt;&lt;/p&gt;
@@ -6116,265 +6155,14 @@
 </t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/2022/12/colunistas/guia-gazeta/8o-guia-gazeta/bianca-andrade-anuncia-o-encerramento-de-sua-marca-de-cosmeticos/</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://agazetadoacre.com/wp-content/uploads/2022/12/AA14Npr9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>16:20:08</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Após assembleia, Médicos do Acre anunciam que devem entrar em greve a partir do 12 de dezembro</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Os médicos do Instituto de Gestão de Saúde do Acre (Igesac) decidiram entrar em greve por tempo indeterminado, a partir do dia 12 de dezembro. A votação ocorreu durante a assembleia geral extraordinária, na noite de quarta-feira, 30.&lt;/p&gt;
-&lt;p&gt;Segundo o presidente do Sindicato dos Médicos do Acre (Sindmed-AC), Guilherme Pulici, a luta é pela isonomia. Os profissionais reivindicam os mesmos direitos que as outras categorias da saúde contratadas pelo antigo Pró-Saúde, atual Igesac.&lt;/p&gt;
-&lt;p&gt;O sindicato informou ainda que a classe verificou que não existiram avanços nas negociações com a gestão.&lt;/p&gt;
-&lt;p&gt;“A gestão parece discriminar os médicos e as reivindicações. Há meses buscamos negociar, e nossas demandas acabaram negadas, sendo aceitas quando outras categorias apresentaram os mesmos pedidos”, explicou o sindicalista.&lt;/p&gt;
-&lt;p&gt;Há 7 anos sem avanços salariais e enfrentando a pandemia de coronavírus, os médicos do Igesac acabaram esquecidos pela gestão que apenas concedeu, de forma “igualitária”, os 5,42% de reposição de inflação. O percentual foi considerado humilhante pela categoria excluída de qualquer ação de valorização profissional por atuarem no combate contra o vírus mortal desde março de 2020.&lt;/p&gt;
-&lt;p&gt;Os médicos reivindicam a redução de 13 para 12 dos plantões mensais, além de 30% de gratificação para os plantões noturnos. As outras categorias já conquistaram esses mesmos avanços que foram negados para os médicos.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/sem-categoria/apos-assembleia-medicos-do-acre-anunciam-que-devem-entrar-em-greve-a-partir-do-12-de-dezembro/</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/greve.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>16:18:42</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Brasil e onze seleções já estão nas oitavas de final da Copa do Mundo; veja quem se classificou</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Com a proximidade do fim da fase de grupos da &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/copa-do-mundo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Copa do Mundo do Catar&lt;/b&gt;&lt;/a&gt;, que se encerra oficialmente na próxima sexta-feira, dia 2, dez seleções já garantiram vaga nas oitavas de final do torneio e oito delas já conhecem seus adversários na próxima fase.&lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-brasileira-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt; &lt;b&gt;Brasil&lt;/b&gt; &lt;/a&gt;e &lt;a tabindex="0" href="https://www.estadao.com.br/tudo-sobre/selecao-portuguesa-masculina-de-futebol/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;&lt;b&gt;Portugal&lt;/b&gt;&lt;/a&gt;, que se classificaram de forma antecipada em suas chaves, ainda aguardam as definições de seus respectivos grupos para conhecer quem enfrentarão no primeiro mata-mata.&lt;/p&gt;
-&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Entre as equipes que ainda buscam uma vaga, nesta quinta-feira, dia 1º, o Grupo E decide quais serão suas representantes na próxima fase. &lt;b&gt;Espanha&lt;/b&gt; (4 pontos) e &lt;b&gt;Japão&lt;/b&gt; (3 pontos) se enfrentam às 16h. No mesmo horário, a &lt;b&gt;Alemanha&lt;/b&gt; (1 ponto) encara a &lt;b&gt;Costa Rica&lt;/b&gt; (3 pontos) precisando vencer para seguir em busca do pentacampeonato. O &lt;b&gt;Estadão&lt;/b&gt; &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/futebol/confira-quais-selecoes-tem-chance-de-classificacao-na-copa-do-mundo-do-catar/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;explica quais as contas cada seleção precisa fazer rumo à classificação.&lt;/a&gt; Então, para não perder de vista, seguem as seleções mais bem encaminhadas para passar para as oitavas: Espanha, Alemanha, Croácia e Marrocos.&lt;/p&gt;
-&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Já na sexta-feira, os Grupos G e H decidem seus classificados. No Grupo G, o &lt;b&gt;Brasil &lt;/b&gt;(6 pontos) já está classificado e só aguarda a definição se avança na primeira ou segunda colocação. Um simples empate garante a melhor campanha para a equipe de Tite, que enfrenta Camarões, às 16h. Sérvia e Suíça se enfrentam no mesmo horário.&lt;a tabindex="0" href="https://www.estadao.com.br/esportes/futebol/confira-quais-selecoes-tem-chance-de-classificacao-na-copa-do-mundo-do-catar/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt; As outras três seleções desta chave ainda têm chance de avançar na competição.&lt;/a&gt; O mais provável é que a Suíça fique com a segunda vaga da chave.&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;No Grupo H,&lt;b&gt; Portugal &lt;/b&gt;(6 pontos) já está nas oitavas após vencer suas duas primeiras partidas. &lt;b&gt;Gana &lt;/b&gt;(3 pontos), &lt;b&gt;Coreia do Sul&lt;/b&gt; (1 ponto) e &lt;b&gt;Uruguai&lt;/b&gt; (1 ponto) têm chance de classificação. Portugal e Coreia do Sul duelam às 12h (de Brasília) no mesmo horário que &lt;b&gt;Uruguai &lt;/b&gt;e &lt;b&gt;Gana&lt;/b&gt; se enfrentam.&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Dentre as seleções que já conhecem seu caminho, no sábado, a &lt;b&gt;Holanda&lt;/b&gt; enfrentará os &lt;b&gt;Estados Unidos&lt;/b&gt;, às 12h. No mesmo dia, às 16h, a &lt;b&gt;Argentina&lt;/b&gt; duela com a&lt;b&gt; Austrália&lt;/b&gt;. No domingo, mais dois jogos: &lt;b&gt;França x Polônia&lt;/b&gt;, às 12h, e &lt;b&gt;Inglaterra x Senegal&lt;/b&gt;, às 16h. Marrocos e Croácia, já classificadas, aguardam os jogos do Grupo E para conhecerem seus adversários no torneio.&lt;/p&gt;
-&lt;h3 class="article-sub-heading"&gt;Quem já deu adeus?&lt;/h3&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Se algumas seleções já carimbaram vaga nas oitavas, outras tantas já deram adeus ao Mundial do Catar, começando pela seleção anfitriã, primeira eliminada após ter sido derrotado nos dois primeiros jogos. Além dos catarianos, o &lt;b&gt;Equador&lt;/b&gt; se despediu na fase de grupos no Grupo A. Já no Grupo B, &lt;b&gt;Irã e País de Gales&lt;/b&gt; ficaram pelo caminho. No C, &lt;b&gt;México e Arábia Saudita&lt;/b&gt; foram eliminados.&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;No Grupo D, &lt;a tabindex="0" href="https://www.estadao.com.br/esportes/futebol/dinamarca-eliminacao-copa-do-mundo-pior-campanha-lanterna/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;de forma surpreendente, a Dinamarca encerrou a participação no Mundial na última posição da chave com apenas um ponto&lt;/a&gt;. A &lt;b&gt;Tunísia&lt;/b&gt;, com 4, também se despediu. Além dessas, no Grupo F, o &lt;b&gt;Canadá&lt;/b&gt; deu adeus à Copa do Mundo de forma antecipada após perder as duas primeiras partidas.&lt;/p&gt;
-&lt;h3 class="article-sub-heading"&gt;Confira os duelos das oitavas de final definidos até aqui&lt;/h3&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Holanda x Estados Unidos- 03/12- 12h-Estádio International Khalifa&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Argentina x Austrália-03/12-16h-Estádio Ahmad Bin Ali&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;França x Polônia-04/12-12h-Estádio Al Thumama&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Inglaterra x Senegal-04/12-16h-Estádio Al Bayt&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;1º E x Croácia-05/12-12h-Estádio Al Janoub-&lt;b&gt;A Definir&lt;/b&gt;&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;1ºG x 2ºH-05/12-16h-Estádio 974-&lt;b&gt;A Definir&lt;/b&gt;&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;1ºMarrocos x 2E-06/12-12h-Estádio Cidade da Educação-&lt;b&gt;A Definir&lt;/b&gt;&lt;/p&gt;
-&lt;p class="" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;1ºH x 2ºG-06/12-16h-Estádio Lusail-&lt;b&gt;A Definir&lt;/b&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/noticias/copa-2022/brasil-e-onze-selecoes-ja-estao-nas-oitavas-de-final-da-copa-do-mundo-veja-quem-se-classificou/</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/GettyImages-1165928480.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>16:13:16</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Shakira e Piqué são flagrados em tribunal da Espanha</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Nesta quinta-feira (01) a cantora Shakira, e o ex-jogador de futebol Gerard Piqué, foram flagrados no Tribunal de Primeira Instância e Família de Barcelona, ambos estavam acompanhados de seus advogados. Os dois artistas finalmente assinaram o divórcio, que estava em negociação desde junho quando anunciaram a separação ao público.&lt;/p&gt;
-&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;,&amp;quot;t&amp;quot;:14}"&gt;++&lt;a class="post-url post-title" tabindex="0" href="https://br.jetss.com/entretenimento/famosos/2022/12/ana-hickmann-desabafa-sobre-crise-na-relacao-so-ele-podia-ter-razao/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:14,&amp;quot;b&amp;quot;:1}"&gt;Ana Hickmann desabafa sobre crise na relação: “Só ele podia ter razão”&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Uma das dificuldades nesse acordo de divórcio era sobre a moradia dos dois herdeiros do casal, Milan, de 9 anos, e Sasha, de 7 anos. Shakira ficará com a guarda das crianças, e irá se mudar para Miami, nos Estados Unidos. O casal manteve o casamento por 12 anos, e infelizmente decidiram por um fim na relação.&lt;/p&gt;
-&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;,&amp;quot;t&amp;quot;:14}"&gt;++&lt;a class="post-url post-title" tabindex="0" href="https://br.jetss.com/entretenimento/famosos/2022/12/bruna-marquezine-comenta-criticas-a-jade-picon-por-desempenho-como-atriz-entendo/" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:14,&amp;quot;b&amp;quot;:1}"&gt;Bruna Marquezine comenta críticas à Jade Picon por desempenho como atriz: “Entendo”&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Atualmente o ex-jogador de futebol está namorando com Clara Chia, uma jovem de apenas 23 anos. Os dois já foram fotografados juntos em diversos momentos. Por enquanto, Shakira se mantém solteira, e focada nos seus filhos e no trabalho. A artista tem sido bem discreta&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/colunistas/guia-gazeta/6o-guia-gazeta/shakira-e-pique-sao-flagrados-em-tribunal-da-espanha/</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/AA14N5dq.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>16:10:03</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Torcedor brasileiro é perguntado por programa espanhol se tem medo da Espanha e resposta viraliza</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;Caso Brasil e &lt;b&gt;&lt;a tabindex="0" href="https://temporeal.lance.com.br/copa-do-mundo-2022-01-12-2022-japaoxespanha" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Espanha confirmem a primeira classificação em seus grupos na Copa do Mundo&lt;/a&gt;&lt;/b&gt;, as duas seleções podem se enfrentar nas quartas de final do torneio. Apesar do ótimo início da seleção espanhola, o brasileiro não parece temer &amp;#8220;La Roja&amp;#8221; a julgar pela resposta de um torcedor a um programa de televisão espanhol.&lt;/p&gt;
-&lt;p&gt;Um jornalista espanhol do programa &amp;#8220;El Chiringuito TV&amp;#8221;, da emissora &amp;#8220;Mega&amp;#8221;, perguntou a um brasileiro, no Qatar, se ele temia enfrentar a Espanha. O homem ficou surpreso com o questionamento e apenas apontou para as cinco estrelas da camisa da Seleção Brasileira, que representam os cinco títulos mundiais do Brasil.&lt;/p&gt;
-&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Apesar de ter sido a resposta que mais repercutiu nas redes sociais, esse não foi o único torcedor perguntando pelo programa espanhol. A maioria dos brasileiros pareceu bastante confiante em uma vitória brasileira em possível confronto com os espanhóis e um homem chegou a perguntar ironicamente &amp;#8220;Quem é Espanha?&amp;#8221;.&lt;/p&gt;
-&lt;div class=""&gt;
-&lt;div class="article-clear-div"&gt;&lt;/div&gt;
-&lt;div class="twitter-slot"&gt;
-&lt;div class="twitter-tweet twitter-tweet-rendered"&gt;&lt;iframe id="twitter-widget-0" class="" title="Twitter Tweet" src="https://platform.twitter.com/embed/Tweet.html?dnt=false&amp;amp;embedId=twitter-widget-0&amp;amp;features=eyJ0ZndfdGltZWxpbmVfbGlzdCI6eyJidWNrZXQiOlsibGlua3RyLmVlIiwidHIuZWUiLCJ0ZXJyYS5jb20uYnIiLCJ3d3cubGlua3RyLmVlIiwid3d3LnRyLmVlIiwid3d3LnRlcnJhLmNvbS5iciJdLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X2hvcml6b25fdGltZWxpbmVfMTIwMzQiOnsiYnVja2V0IjoidHJlYXRtZW50IiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9lZGl0X2JhY2tlbmQiOnsiYnVja2V0Ijoib24iLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X3JlZnNyY19zZXNzaW9uIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH0sInRmd19jaGluX3BpbGxzXzE0NzQxIjp7ImJ1Y2tldCI6ImNvbG9yX2ljb25zIiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9yZXN1bHRfbWlncmF0aW9uXzEzOTc5Ijp7ImJ1Y2tldCI6InR3ZWV0X3Jlc3VsdCIsInZlcnNpb24iOm51bGx9LCJ0Zndfc2Vuc2l0aXZlX21lZGlhX2ludGVyc3RpdGlhbF8xMzk2MyI6eyJidWNrZXQiOiJpbnRlcnN0aXRpYWwiLCJ2ZXJzaW9uIjpudWxsfSwidGZ3X2V4cGVyaW1lbnRzX2Nvb2tpZV9leHBpcmF0aW9uIjp7ImJ1Y2tldCI6MTIwOTYwMCwidmVyc2lvbiI6bnVsbH0sInRmd19kdXBsaWNhdGVfc2NyaWJlc190b19zZXR0aW5ncyI6eyJidWNrZXQiOiJvbiIsInZlcnNpb24iOm51bGx9LCJ0ZndfdmlkZW9faGxzX2R5bmFtaWNfbWFuaWZlc3RzXzE1MDgyIjp7ImJ1Y2tldCI6InRydWVfYml0cmF0ZSIsInZlcnNpb24iOm51bGx9LCJ0Zndfc2hvd19ibHVlX3ZlcmlmaWVkX2JhZGdlIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH0sInRmd190d2VldF9lZGl0X2Zyb250ZW5kIjp7ImJ1Y2tldCI6Im9uIiwidmVyc2lvbiI6bnVsbH19&amp;amp;frame=false&amp;amp;hideCard=false&amp;amp;hideThread=false&amp;amp;id=1597383743693459456&amp;amp;lang=pt&amp;amp;origin=https%3A%2F%2Fwww.lance.com.br%2Ffora-de-campo%2Ftorcedor-brasileiro-e-perguntado-por-programa-espanhol-se-tem-medo-da-espanha-e-resposta-viraliza.html&amp;amp;sessionId=47d2367bff5591ebe543af32b12cb98104d1f293&amp;amp;theme=light&amp;amp;widgetsVersion=a3525f077c700%3A1667415560940&amp;amp;width=550px" frameborder="0" scrolling="no" allowfullscreen="allowfullscreen" data-tweet-id="1597383743693459456" data-mce-fragment="1"&gt;&lt;/iframe&gt;&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;p data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;b&gt;&lt;a tabindex="0" href="https://www.lance.com.br/fora-de-campo/autor-de-gol-da-espanha-morata-e-o-jogador-do-elenco-espanhol-com-mais-seguidores-no-instagram.html" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;+ Autor de gol da Espanha, Morata é o jogador do elenco espanhol com mais seguidores no Instagram&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;
-&lt;p class="continue-read-break" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;Nesse momento, Brasil e Espanha lideram seus respectivos grupos. Caso confirme o primeiro lugar, a seleção espanhola enfrentará a Croácia, atual vice-campeã mundial, nas oitavas de final da Copa.&lt;/p&gt;
-&lt;div class="related-articles-lance"&gt;E MAIS:&lt;/p&gt;
-&lt;div class="article-list-slot"&gt;
-&lt;ul class="related-links bullet"&gt;
-&lt;li class="bullet" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a class="page-item-link" tabindex="0" href="https://www.lance.com.br/fora-de-campo/sosia-de-neymar-causa-alvoroco-e-interdita-loja-de-shopping-no-qatar.html?linkback" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Sósia de Neymar causa alvoroço e &amp;#8216;interdita&amp;#8217; loja de shopping no Qatar&lt;/a&gt;&lt;/li&gt;
-&lt;li class="bullet" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a class="page-item-link" tabindex="0" href="https://www.lance.com.br/fora-de-campo/brasileiro-que-virou-meme-durante-a-copa-se-torna-celebridade-no-qatar-fila-para-tirar-foto.html?linkback" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Brasileiro que &amp;#8216;virou meme&amp;#8217; durante a Copa se torna celebridade no Qatar: &amp;#8216;Fila para tirar foto&amp;#8217;&lt;/a&gt;&lt;/li&gt;
-&lt;li class="bullet" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a class="page-item-link" tabindex="0" href="https://www.lance.com.br/fora-de-campo/apos-eliminacao-na-copa-bruno-formiga-analisa-geracao-belga-cumpriu-o-papel.html?linkback" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Após eliminação na Copa, Bruno Formiga analisa geração belga: &amp;#8216;Cumpriu o papel&amp;#8217;&lt;/a&gt;&lt;/li&gt;
-&lt;li class="bullet" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a class="page-item-link" tabindex="0" href="https://www.lance.com.br/fora-de-campo/pele-tem-quadro-de-broncopneumonia-e-segue-internado-em-sao-paulo-diz-site-hospital-nao-confirma.html?linkback" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Pelé tem quadro de broncopneumonia, diz site; hospital não confirma&lt;/a&gt;&lt;/li&gt;
-&lt;li class="bullet" data-t="{&amp;quot;n&amp;quot;:&amp;quot;blueLinks&amp;quot;}"&gt;&lt;a class="page-item-link" tabindex="0" href="https://www.lance.com.br/fora-de-campo/look-de-deborah-secco-em-programa-da-copa-teve-contribuicao-de-galvao-bueno.html?linkback" target="_blank" rel="noopener" data-t="{&amp;quot;n&amp;quot;:&amp;quot;destination&amp;quot;,&amp;quot;t&amp;quot;:13,&amp;quot;b&amp;quot;:1,&amp;quot;c.t&amp;quot;:7}"&gt;Look de Deborah Secco em programa da Copa teve contribuição de Galvão Bueno&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/guia-gazeta-2/5o-guia-gazeta/torcedor-brasileiro-e-perguntado-por-programa-espanhol-se-tem-medo-da-espanha-e-resposta-viraliza/</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/AA14NiDz.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>15:57:03</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Governo do Acre abre processo seletivo simplificado para contratação de estagiários; inscrições vão até 9 de dezembro</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;A Secretaria de Planejamento e Gestão (Seplag), torna público o processo seletivo simplificado para seleção de estagiários,  &lt;a href="http://agencia.ac.gov.br/wp-content/uploads/2022/12/EDITAL-SEPLAG-IEL-N%C2%B0-06-2022-ESTAGIO-GEOGRAFIA-1.pdf"&gt;Edital Seplag/IEL N° 06-2022 &lt;/a&gt;publicado no Diário Oficial do Estado (DOE) desta quarta-feira, 1, para atender as necessidades do governo do Estado do Acre, no âmbito da Administração Direta e Indireta do Poder Executivo Estadual.&lt;/p&gt;
-&lt;p&gt;As vagas da seleção serão destinadas aos estudantes de ensino superior com bacharelado em Geografia, para auxiliar o Departamento de Estudos, Pesquisas e Indicadores da Seplag (Deepi) nos programas e projetos em execução, por meio da coleta, compilação e análise de dados indicadores e produção de relatórios, e  reforçar as áreas de gestão territorial e geoprocessamento.&lt;/p&gt;
-&lt;p&gt;As inscrições, que são realizadas exclusivamente por meio eletrônico, iniciaram às 00h do dia 30/11/2022 e vão até as 23h59m do dia 09/12/2022, por meio do envio da documentação relacionada para o endereço eletrônico &lt;a href="mailto:vagas.estagioielac@gmail.com"&gt;vagas.estagioielac@gmail.com&lt;/a&gt;. O candidato deverá fazer o upload do Histórico Escolar constando as notas ou menções referente ao 1º semestre de 2022, cópia do RG, CPF, declaração de matrícula da instituição de ensino e ficha de inscrição preenchida.&lt;/p&gt;
-&lt;p&gt;É preciso que o estudante esteja frequentando efetivamente o curso; tenha disponibilidade para estagiar em regime de 20 (vinte) ou 30 (trinta) horas semanais; que não esteja cursando o último período; e tenha idade mínima de 16 anos na data de início do estágio.&lt;/p&gt;
-&lt;p&gt;O processo tem validade de 12 meses, podendo ser prorrogado uma única vez, por igual período.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/noticias/geral/governo-do-acre-abre-processo-seletivo-simplificado-para-contratacao-de-estagiarios-inscricoes-vao-ate-9-de-dezembro/</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/11/palacio.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>15:44:16</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Educandário Santa Margarida promove bazar de móveis e eletrodomésticos para arrecadar recursos para o abrigo</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O Educandário Santa Margarida, em Rio Branco, realiza durante todo mês de dezembro, de segunda à sexta-feira, das 8h às 17h, um bazar solidário de móveis e eletrodomésticos. Os produtos podem ser adquiridos em um galpão, localizado na Rua Boa Vista, 820, bairro Vitória, próximo ao 3º Batalhão da PM.&lt;/p&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="size-large wp-image-661011 aligncenter" src="https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-600x450.jpg" alt="" width="600" height="450" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-600x450.jpg 600w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-300x225.jpg 300w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-768x576.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-150x113.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-750x563.jpg 750w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1-1140x855.jpg 1140w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-1.jpg 1280w" sizes="(max-width: 600px) 100vw, 600px" /&gt;“Esse bazar é uma parceria com a Bemol. Temos que arrecadar recursos por conta da superlotação de crianças. A capacidade é para 32 crianças, e estamos com 53 crianças no abrigo. Ou seja, acima do limite da capacidade de atendimento. O que arrecadarmos será utilizado para ajudar nas despesas do local, além da contratação de profissionais”, disse Eduardo Vieira, coordenador do Educandário.&lt;/p&gt;
-&lt;p&gt;&lt;img decoding="async" loading="lazy" class="size-large wp-image-661013 aligncenter" src="https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-600x450.jpg" alt="" width="600" height="450" srcset="https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-600x450.jpg 600w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-300x225.jpg 300w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-768x576.jpg 768w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-150x113.jpg 150w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-750x563.jpg 750w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2-1140x855.jpg 1140w, https://agazetadoacre.com/wp-content/uploads/2022/12/bazar-2.jpg 1280w" sizes="(max-width: 600px) 100vw, 600px" /&gt;&lt;/p&gt;
-&lt;p&gt;Ele também comentou sobre os produtos estão sendo vendidos. “Temos sofás, cadeiras, mesas, colchões, guarda-roupa, cama box, ventiladores e tanque de lavar roupa. Os itens têm pequenas avarias, mas todos de qualidade, e com preço bem abaixo do mercado. O bazar acontece até durar o estoque”, salientou Vieira.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/2022/12/noticias/geral/educandario-santa-margarida-promove-bazar-de-moveis-e-eletrodomesticos-para-arrecadar-recursos-para-o-abrigo/</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>https://agazetadoacre.com/wp-content/uploads/2022/12/bazar.jpg</t>
         </is>
       </c>
     </row>
@@ -7336,54 +7124,258 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>09:11:08</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Revisão da Vida Toda: como fica sua aposentadoria agora</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Supremo Tribunal Federal (STF) decidiu nesta quinta-feira (1º) pela aprovação da  revisão da vida toda do Instituto Nacional do Seguro Social (INSS) por 6 votos a 5. A decisão da ação, que vinha sendo julgada há dois anos, pode fazer com que o valor pago a alguns aposentados aumente.&lt;br /&gt;
+É uma oportunidade para muitos segurados terem suas aposentadorias ou pensões reajustadas pelo INSS. &lt;/p&gt;
+&lt;p&gt;O que motivou a Revisão da Vida Toda&lt;br /&gt;
+Em 26 de novembro de 1999 o INSS adotou uma regra de cálculo de benefícios prejudicando quem teve maiores salários antes de julho de 1994, quando se iniciou o Plano Real. &lt;/p&gt;
+&lt;p&gt;Entre no  canal do Brasil Econômico no Telegram e fique por dentro de todas as notícias do dia. Siga também o  perfil geral do Portal iG&lt;br /&gt;
+O INSS não incluiu essas contribuições no cálculo das aposentadorias, auxílios-doença, auxílio-acidente e pensões, o que acabou diminuindo o valor pago pela previdência.  &lt;/p&gt;
+&lt;p&gt;Com a Revisão da Vida Toda aprovada hoje no STF, além de somar os salários anteriores a 1994 para melhorar aposentadorias, é possível receber os atrasados calculados nos últimos 5 anos, a contar da data de início do processo na justiça.&lt;br /&gt;
+O que acontece agora?&lt;br /&gt;
+Agora, mesmo aprovada no Supremo, a revisão não será aplicada automaticamente pelo INSS. Será preciso entrar com uma ação judicial para requerer a mudança do cálculo.   &lt;/p&gt;
+&lt;p&gt;Por isso é fundamental que os aposentados observem o prazo de decadência para exercer esse direito, sendo de 10 anos contados a partir do mês seguinte em do início do pagamento do primeiro benefício.&lt;/p&gt;
+&lt;p&gt;Eu reuni as principais informações sobre a Revisão da Vida Toda para que você possa avaliar suas possibilidades. &lt;/p&gt;
+&lt;p&gt;Quais benefícios podem ser revisados e aumentar com a Revisão da Vida Toda?&lt;br /&gt;
+Todas as aposentadorias e outros benefícios do INSS podem ter um impacto positivo com a Revisão da Vida Toda:&lt;/p&gt;
+&lt;p&gt;Aposentadoria por idade&lt;br /&gt;
+Aposentadoria por tempo de contribuição&lt;br /&gt;
+Aposentadoria por invalidez&lt;br /&gt;
+Aposentadoria especial&lt;br /&gt;
+Auxílio-doença&lt;br /&gt;
+Pensão por Morte&lt;br /&gt;
+Auxílio-Acidente&lt;br /&gt;
+Os requisitos:&lt;br /&gt;
+Existem condições que devem ser observadas pelos pensionistas e aposentados do INSS para ter direito a Revisão da Vida Toda. São elas: &lt;/p&gt;
+&lt;p&gt;·        Ter começado a receber o benefício do INSS há 10 anos e 1 mês, no máximo, ou ter feito um pedido de revisão dentro desse prazo&lt;br /&gt;
+·        Ter começado a trabalhar antes de 1994 e contar com benefícios concedidos depois de 29.11.1999&lt;br /&gt;
+·        Possuir contribuições mais altas até julho de 1994 (comparando com as posteriores)&lt;br /&gt;
+·        Embora muitos aposentados e pensionistas tenham essa oportunidade, é preciso fazer cálculos com um especialista e contar com uma equipe especializada na Revisão da Vida Toda, porque nem todas as pessoas terão um aumento dos benefícios ao incorporar os salários anteriores a julho de 1994.&lt;br /&gt;
+·        Fazer esses os cálculos previdenciários com um especialista é uma recomendação que vale para todos os pedidos de aposentadoria, inclusive para a revisão da Vida Toda.&lt;br /&gt;
+Os documentos:&lt;br /&gt;
+Todos os documentos, com exceção da carteira de trabalho, você consegue no próprio site do “MEU INSS” ou pelo aplicativo “MEU INSS”, entrando com o seu CPF e sua senha.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/12/02/revisao-da-vida-toda-como-fica-sua-aposentadoria-agora/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2020/09/mc_previdencia_socialsantos_fc2108200888.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>07:49:58</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Novas listas de aprovados em concurso público para Amazul</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;DIÁRIO OFICIAL DA UNIÃO&lt;br /&gt;
+Publicado em: 02/12/2022 | Edição: 226 | Seção: 3 | Página: 81&lt;/p&gt;
+&lt;p&gt;Órgão: Ministério da Defesa/Comando da Marinha/Amazônia Azul Tecnologias de Defesa S.A.&lt;/p&gt;
+&lt;p&gt;EDITAL DE CONVOCAÇÃO Nº 43/2022&lt;/p&gt;
+&lt;p&gt;CONCURSO PÚBLICO AMAZUL / INSTITUTO SELECON &amp;#8211; 01/2022&lt;/p&gt;
+&lt;p&gt;A Gerente de Desenvolvimento de Pessoas da AMAZONIA AZUL TECNOLOGIAS DE DEFESA S.A.-AMAZUL, no uso de suas atribuições legais, em decorrência dos pedidos de final de fila de candidatos convocados, torna pública a convocação dos classificados em posição imediatamente subsequente, no concurso público homologado pelo Edital nº 01/2022, em 09 de junho de 2022, conforme ordem de classificação.&lt;/p&gt;
+&lt;p&gt;1. Relação de candidatos convocados, conforme ordem de classificação:&lt;/p&gt;
+&lt;p&gt;Cargo: TÉCNICO EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA&lt;/p&gt;
+&lt;p&gt;1.1 TÉCNICO EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; OPERADOR DE PROCESSOS:&lt;/p&gt;
+&lt;p&gt;29º Márcio da Rocha Andrade&lt;/p&gt;
+&lt;p&gt;1.2 TÉCNICO EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; TÉCNICO DE ELETRONICA:&lt;/p&gt;
+&lt;p&gt;4º Julio Favero Miranda&lt;/p&gt;
+&lt;p&gt;1.3 TÉCNICO EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; TÉCNICO ELETROTÉCNICA:&lt;/p&gt;
+&lt;p&gt;3º Marcio Alexandre Marques dos Santos&lt;/p&gt;
+&lt;p&gt;1.4 TÉCNICO EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; TÉCNICO ELETRICIDADE / ELETROTÉCNICA:&lt;/p&gt;
+&lt;p&gt;5º Jepherson Val Rodrigues de Souza&lt;/p&gt;
+&lt;p&gt;Cargo: ESPECIALISTA EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA&lt;/p&gt;
+&lt;p&gt;1.5 ESPECIALISTA EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; ENGENHEIRO DE CONTROLE DA QUALIDADE:&lt;/p&gt;
+&lt;p&gt;4º Fernando Almeida de Oliveira&lt;/p&gt;
+&lt;p&gt;1.6 ESPECIALISTA EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; ENGENHEIRO ELETRICISTA:&lt;/p&gt;
+&lt;p&gt;13º Silas Alysson Souza Tiburcio&lt;/p&gt;
+&lt;p&gt;1.7 ESPECIALISTA EM DESENVOLVIMENTO DE TECNOLOGIA NUCLEAR E DEFESA &amp;#8211; ENGENHEIRO QUÍMICO:&lt;/p&gt;
+&lt;p&gt;16º Vitor Bertolassi Hidalgo&lt;/p&gt;
+&lt;p&gt;2. Os candidatos relacionados neste edital deverão comparecer no endereço, data e horários encaminhados via e-mail e whatsapp para: a) apresentação e entrega dos documentos exigidos no item 4.1.3 do Edital regulador do Concurso (original e cópia) b) agendamento para a realização dos exames admissionais; e c) o candidato deverá entregar o Curriculum Vitae.&lt;/p&gt;
+&lt;p&gt;3. O não comparecimento do candidato na data definida e a não apresentação de qualquer um dos documentos exigidos para a contratação implicara na exclusão em caráter irrevogável e irretratável do concurso público.&lt;/p&gt;
+&lt;p&gt;São Paulo &amp;#8211; SP, 1º de dezembro de 2022.&lt;/p&gt;
+&lt;p&gt;DANIELA AMORIM FERREIRA&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/12/02/novas-listas-de-aprovados-em-concurso-publico-para-amazul/</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/08/amazul.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>00:33:53</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>concurso de redação e poesia:  inscrição só até hoje (2/12)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Os gestores e professores das escolas públicas de todo o estado tem até amanhã, 2 de dezembro, para inscrever seus alunos no Concurso de Redação e Poesia promovido pelo governo do Acre, por meio da Fundação Elias Mansour (FEM).&lt;/p&gt;
+&lt;p&gt;O Concurso de Redação e Poesia, com a temática Diversidade e Cultura, foi lançado no dia 7 de novembro na filmoteca da Biblioteca Pública de Rio Branco, e tem por objetivo incentivar a escrita e a leitura.&lt;/p&gt;
+&lt;p&gt;O lançamento ocorreu no dia 7 de novembro e as inscrições encerram sexta-feira, 2 de dezembro. Foto: Diego Gurgel&lt;br /&gt;
+O público-alvo do concurso são os alunos  de ensino fundamental anos finais e ensino médio, e para participar os alunos devem ser inscritos pelas  equipes gestoras das escolas, que são as responsáveis por convidar e coordenar os alunos participantes.&lt;/p&gt;
+&lt;p&gt;“Estamos chamando a todos os gestores e professores para que não percam o prazo de inscrição de seus alunos. Projetos como este contribuem para despertar as habilidades e um melhor desempenho dos alunos no exercício da escrita, pois ela registra o desejo de comunicação, assim como a vivência de experiências significativas”, explica a chefe da Divisão de Livro e Leitura da FEM, Claúdia Jorge.&lt;/p&gt;
+&lt;p&gt;O projeto, voltado para as escolas da rede pública de ensino, é oriundo de emenda parlamentar do deputado estadual Roberto Duarte. O recurso, de R$ 50 mil, será aplicado para a aquisição dos prêmios.&lt;/p&gt;
+&lt;p&gt;Premiações&lt;br /&gt;
+Ao todo, serão 50 alunos premiados com tablets, sendo 25 na categoria Poesia e 25 em Redação. Além desses, dez professores também serão agraciados, sendo premiados os docentes que obtiverem mais alunos ganhadores. O resultado será divulgado no dia 19 de dezembro, após a avaliação das redações pela comissão julgadora. Cada aluno poderá inscrever-se em apenas uma modalidade, e os professores poderão inscrever até 5 alunos. Para inscrição, acesse: http://www.femcultura.ac.gov.br/.&lt;/p&gt;
+&lt;p&gt;O projeto conta com o apoio da Secretaria de Estado de Educação, Cultura e Esportes (SEE), por meio dos núcleos de ensino, que fazem a divulgação nos demais municípios.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/12/02/concurso-de-redacao-e-poesia-inscricao-so-ate-hoje-2-12/</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/12/istockphoto-1352469939-170667a.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>00:33:15</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Arrecadação do ICMS cai 9,8% em 2022 no Acre</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;
+A arrecadação do Imposto Sobre Circulação de Mercadorias e Serviços (ICMS) no Acre  somou R$ 147,05 milhões em outubro de 2022, queda de 9,8% no comparativo com o mesmo mês de 2021, quando a arrecadação totalizou R$ 158,64 milhões.&lt;/p&gt;
+&lt;p&gt;O portal Poder360 informa, em matéria veiculada nesta quarta-feira (30) mostra  redução de 15,4% na arrecadação do ICMS. A receita de impostos subiu acima da inflação em outubro na comparação com o mesmo mês de 2019 em 15 unidades federativas. Ficou abaixo em 8, mas houve piora. Em setembro eram 20 acima e 3 abaixo, segundo o Poder360, que põe o Acre entre os oito cujo aumento na receita não acompanha a inflação.&lt;/p&gt;
+&lt;p&gt;A queda na arrecadação dos Estados reflete o impacto da Lei Complementar nº 194/2022, aprovada em julho de 2022, que reduziu a alíquota do ICMS incidente sobre as operações com combustíveis, energia elétrica e comunicação, e afetou fortemente a receita de todas as Unidades da Federação  -“inclusive com grave risco ao equilíbrio fiscal dos entes federados”, segundo a Secretaria de Estado  da Fazenda.&lt;/p&gt;
+&lt;p&gt;Ainda segundo a Sefaz, a receita do ICMS no Estado foi severamente impactada pelas mudanças na legislação aprovadas pela União.  “Portanto, a contração na receita do ICMS de outubro de 2022 em comparação ao mesmo mês de 2021, não é de 15,4% como consta da matéria publicada pelo site Poder360, mas de 9,8%, um índice menor, mas ainda muito preocupante”, diz o órgão.&lt;/p&gt;
+&lt;p&gt;A maior retração ocorreu no ICMS do comércio de energia elétrica que somou R$11 milhões em outubro de 2022, contra R$21,6 milhões no ano anterior, perda de 49,12%.&lt;/p&gt;
+&lt;p&gt;Em seguida aparecem as perdas sobre a prestação do serviço de comunicação com recuo de 42,25%, variando de R$ 6,6 milhões em outubro de 2021, para R$ 3,8 milhões em 2022.   &lt;/p&gt;
+&lt;p&gt;No segmento de combustíveis, o encolhimento na receita foi de R$ 20,45%, somou R$ 21,3 milhões em outubro de 2022, ante R$ 26,8 milhões em 2021.  &lt;/p&gt;
+&lt;p&gt;Perdas semelhantes ocorreram nos meses de agosto e setembro de 2022, em contraste com o crescimento de 13,7% no acumulado dos meses de janeiro a julho, o que equivale a um crescimento real de 3,6%, considerando a variação do IPCA  10,1% no período.&lt;/p&gt;
+&lt;p&gt;No acumulado dos 10 primeiros meses de 2022, janeiro a outubro, a arrecadação do ICMS no Estado soma R$1,48 bilhões, o que implica em uma variação nominal de 7% em relação ao mesmo período do ano passado quando a receita foi de R$ 1,38 bilhões. Esse resultado é muito próximo da variação do IPCA do período de 6,47%, o que indica que as perdas dos últimos 3 meses praticamente se igualam ao incremento obtido nos 7 primeiros meses, revertendo aquele resultado.&lt;/p&gt;
+&lt;p&gt;“Esses números trazem, sobretudo, grande preocupação com relação às receitas do exercício de 2023, cujo orçamento está em discussão”, conclui a Sefaz.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/2022/12/02/arrecadacao-do-icms-cai-98-em-2022-no-acre/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://acreagora.com/wp-content/uploads/2022/12/calculator-723925__340.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>17:31:50</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Alemanha está fora da Copa; Japão e Espanha avançam</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A Alemanha até venceu a Costa Rica de virada por 4 a 2 no Al Bayt Stadium, nesta quinta-feira, mas não conseguiu evitar a eliminação da Copa do Mundo . Isso porque o Japão bateu a Espanha e matou as chances dos alemães avançarem às oitavas de final.&lt;/p&gt;
 &lt;p&gt;Com os resultados do dia, o Japão chegou aos seis pontos e assumiu a primeira colocação do Grupo E. A Espanha, por sua vez, ficou com quatro e caiu para o segundo lugar. A Alemanha conseguiu os mesmos quatro pontos, mas levou a pior no saldo de gols e acabou no terceiro lugar. Com três pontos, a Costa Rica ficou na lanterna do grupo.&lt;/p&gt;
 </t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/alemanha-esta-fora-da-copa-japao-e-espanha-avancam/</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/12/eo3husc2z5kd5c9mubw9ce35i.webp</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>14:33:22</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Jovem de 15 anos morre de Covid-19  nesta quinta (1) no Acre</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A Secretaria de Estado de Saúde do Acre (Sesacre), por meio do Departamento de Vigilância em Saúde (DVS), informa que foram registrados 248 novos casos de coronavírus nesta quinta-feira, 1 de dezembro. O número de infectados notificados é de 154.223 em todo o estado.&lt;/p&gt;
 &lt;p&gt;Até o momento, o Acre registra 361.048 notificações de contaminação pela doença, sendo que 206.795 casos foram descartados e 30 exames de RT-PCR aguardam análise do Laboratório Central de Saúde Pública do Acre (Lacen). Pelo menos 150.393 pessoas já receberam alta médica da doença e o número de internações ainda está sendo atualizado.&lt;/p&gt;
@@ -7394,34 +7386,34 @@
 </t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/jovem-de-15-anos-morre-de-covid-19-nesta-quinta-1-no-acre/</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/11/Covid-19-Foto.-Odair-Leal-61-2-1536x1024-1.jpg</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>14:21:36</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Ribamar Trindade eleito presidente do Tribunal de Contas do Acre</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;O Tribunal de Contas do Estado do Acre em Sessão Especial realizada na manhã desta quinta-feira, 01, com a participação de todos os Conselheiros titulares e a Procuradora-Chefe do Ministério Público de Contas, Anna Helena de Azevedo Lima Simão, elegeu e nomeou por aclamação a próxima equipe de gestão para o Biênio 2023/2024. A Sessão Especial foi realizada de forma virtual com votação aberta e declarada e foi transmitida pela Rádio Web do TCE/AC.&lt;/p&gt;
 &lt;p&gt;Foi eleito como Presidente da Corte para o próximo biênio, o Conselheiro José Ribamar Trindade de Oliveira, como Vice-Presidente, o Conselheiro Valmir Gomes Ribeiro e como Corregedora, a Conselheira Dulcinéa Benício de Araújo.&lt;/p&gt;
@@ -7444,34 +7436,34 @@
 </t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/45701/</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/12/image_50383873-scaled.jpg</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>14:14:39</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Saiba o que é o Cemitério Legal, ideia levada à CMRB por coveiro</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Com objetivo de modernizar e aperfeiçoar a busca de dados e informações nos cemitérios da Capital, o vereador Ismael Machado (PSDB) apresentou na sessão desta quarta-feira (30) uma indicação ao Executivo Municipal para criação do Projeto Cemitério Legal. A ideia foi idealizada por um servidor  público que trabalha como coveiro e viu a necessidade de organizar a coleta de dados, demarcações de todos os jazidos de forma digital em plataformas, otimizando o serviço.&lt;/p&gt;
 &lt;p&gt;‘’O poder público ele pode e deve modernizar esse serviço, como eu falei isso foi desenvolvido por um funcionário público coveiro que merece ter sua atenção devida para que isso seja implantado, eu tenho certeza que se esse modelo for implantado, fizemos a indicação será exemplo para várias cidades tanto no município de Rio Branco quanto para outras cidades do país’’, disse o vereador.&lt;/p&gt;
@@ -7480,34 +7472,34 @@
 </t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/saiba-o-que-e-o-cemiterio-legal-ideia-levada-a-cmrb-por-coveiro/</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/12/image.jpg</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>14:09:08</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Raimundo Neném é o novo presidente da Câmara de Rio Branco</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;Na manhã desta quinta-feira (01) a Câmara Municipal de Rio Branco realizou a votação na nova composição da Mesa Diretora. Raimundo Neném (PSDB) foi eleito na manhã por 10 votos a favor e 7  contra, novo presidente da Câmara Municipal de Rio Branco para o biênio 2023-2024.&lt;/p&gt;
 &lt;p&gt;O atual presidente da Câmara, antes da votação, desejou sucesso aos candidatos que concorreram aos cargos de administradores do Parlamento Mirim.&lt;/p&gt;
@@ -7525,34 +7517,34 @@
 </t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/raimundo-nenem-e-o-novo-presidente-da-camara-de-rio-branco/</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/12/007b3bbf-76a6-42a2-af2b-2edc3eb3d485.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>14:04:33</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>&amp;#8220;Fragmentados&amp;#8221; é a nova exposição de Darci Seles, na sede da JF</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p&gt;A exposição Fragmentados, do artista plástico Darci Seles, será inaugurada nesta quinta-feira, 1º, no hall do prédio da Justiça Federal, às 10h da manhã, em Rio Branco.  As obras estarão disponíveis para visitação até o dia 16 de dezembro.&lt;/p&gt;
 &lt;p&gt;Ao todo serão 25 quadros com temáticas variadas. A organização é da Associação dos Artistas Plásticos (AAP) e conta com parceria da Justiça Federal e da Fundação de Cultura Elias Mansour (FEM), responsável pelo apoio da articulação e montagem da estrutura para apresentação da mostra.&lt;/p&gt;
@@ -7566,172 +7558,14 @@
 </t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>https://acreagora.com/2022/12/01/fragmentados-e-a-nova-exposicao-de-darci-seles-na-sede-da-jf/</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://acreagora.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-12.45.21-1-1152x1536-1.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>14:02:01</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Nova ETA reforça abastecimento de água no Bujari</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O governo do Acre, por meio do Serviço de Água e Esgoto do Estado (Saneacre), implantou mais uma estação de tratamento de água (ETA) no Bujari. Com a nova estrutura, será possível dobrar a capacidade de tratamento e garantir o volume de água tratada necessário para atender a necessidade de consumo dos moradores do município no período chuvoso, quando ocorre maior turbidez da água captada, o que implicaria em reduzir a capacidade de tratamento para manter a qualidade do líquido.&lt;/p&gt;
-&lt;p&gt;A intervenção já impacta de forma positiva a rotina dos moradores. “Graças a Deus, melhorou bastante. Senti a diferença; agora, quando abre o registro, cai água aqui para mim e para todos da rua”, conta Maria Efigênia Silva, moradora da região central do Bujari.&lt;/p&gt;
-&lt;p&gt;Para evitar problemas futuros no abastecimento, a barragem do açude que compõe o sistema de abastecimento de água do município foi aumentada em 60 centímetros, o que vai garantir o acúmulo de maior volume de água para captação no próximo verão. O próximo passo será aprofundar o leito, para aumentar ainda mais a reserva de água bruta.&lt;/p&gt;
-&lt;p&gt;De acordo com o presidente do Saneacre, Ítalo Lopes, hoje o Estado trabalha para garantir o abastecimento do município independente do período de estiagem: “Estamos trabalhando em uma solução definitiva, que está sendo construída junto com a prefeitura, câmara de vereadores, Casa Civil do Estado e representantes da população, que têm nos ajudado muito. Aumentamos o reservatório de água no Bujari e estamos aumentando ainda mais para não ter mais risco de desabastecimento nos próximos períodos de estiagem”.&lt;/p&gt;
-&lt;p&gt;Crise hídrica&lt;br /&gt;
-Localizado a 24 km da capital, Rio Branco, o município do Bujari há anos enfrenta problemas de abastecimento quando há estiagem prolongada. Em 2022, a seca voltou a castigar, e várias foram as medidas para amenizar os efeitos da crise hídrica e levar água tratada à população. As ações contaram com o apoio do Departamento de Estradas de Rodagens do Acre (Deracre), Defesa Civil, Prefeitura de Rio Branco e Prefeitura do Bujari.&lt;/p&gt;
-&lt;p&gt;Ainda em setembro, quando o nível do reservatório de água bruta (açude) que abastece a cidade estava bem abaixo do ideal, a primeira providência foi deslocar sete caminhões-pipa para reforçar o abastecimento da cidade. Com o apoio das equipes do Centro Integrado de Operações Aéreas do Estado (Ciopaer), a diretoria e a equipe técnica do Saneacre realizaram um sobrevoo na região, com o objetivo de mapear fontes alternativas.&lt;/p&gt;
-&lt;p&gt;A estrutura foi adaptada para captar água de uma nova fonte localizada e, com os carros-pipa reforçando, o problema foi amenizado. Mas essa nova fonte também secou, sendo necessário recorrer a outras duas e aumentar o número de carros-pipa. Num único dia, 18 pipas transportaram 650 mil litros de água potável, mais que o dobro do volume diário até então disponibilizado para atender o município.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/2022/12/01/nova-eta-reforca-abastecimento-de-agua-no-bujari/</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/wp-content/uploads/2022/12/WhatsApp-Image-2022-10-21-at-08.27.35-1.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>13:47:03</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Saúde alerta para aumento de casos de meningite no Acre</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;A vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. No Acre, as taxas de cobertura vacinal contra a enfermidade, principalmente nas modalidades meningocócicas, estão abaixo das recomendadas pelo Ministério da Saúde (MS).&lt;/p&gt;
-&lt;p&gt;Segundo dados da Secretaria de Saúde (Sesacre), de janeiro até o dia 1º de dezembro foram notificados 67 casos suspeitos da doença com 13 casos confirmados. Entre os óbitos, 1 foi por meningite fúngica e três por meningite viral. A taxa de letalidade encontra-se em 30,7%, representado um aumento de 19,6% em relação a 2021.&lt;/p&gt;
-&lt;p&gt;O MS registrou, até o fim de outubro, 5.821 casos e 702 óbitos por meningites de diferentes etiologias – causas – no Brasil. O motivo do avanço é a queda do índice de vacinação no país, principal meio de prevenção, chegando a combater 90% das formas mais graves da doença.&lt;/p&gt;
-&lt;p&gt;As vacinas contra a meningite bacteriana são consideradas as medidas mais eficazes e seguras para evitar quadros mais graves da doença, que produzem sequelas como amputações, surdez, cicatrizes ou morte. “Uma vez que as crianças e adolescentes deixem de receber a vacina, o agente causador da doença começa a circular, aumentando a sua incidência”, explica Daíla Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie) da Sesacre.&lt;/p&gt;
-&lt;p&gt;Existem imunizantes que protegem contra todos os tipos da doença bacteriana, meningite A, C, W, Y e B. A vacina disponível na rede pública protege contra o tipo C da doença e é ofertada ao público prioritário: crianças menores de cinco anos de idade, adolescentes de 11 e 12 anos e pessoas com comorbidade. A cobertura para a vacina meningocócica C (conjugada) no ano de 2021 foi de 69,81% em crianças. Já de janeiro a setembro de 2022, encontra-se em 67,83%, quando o preconizado pelo MS é 95%.&lt;/p&gt;
-&lt;p&gt;“Lembramos ainda que não existe vacina contra outros microrganismos causadores de meningites como os fungos, vírus, protozoários e helmintos [vermes parasitas]”, acrescenta Daíla Timbó.&lt;/p&gt;
-&lt;p&gt;O que é a meningite?&lt;br /&gt;
-A meningite é uma doença grave, que pode levar à morte em até 24 horas. Trata-se de uma inflamação das meninges – membranas que recobrem o cérebro e a medula espinhal. É preciso agir rapidamente desde o início dos primeiros sintomas, pois a patologia pode deixar sequelas consideráveis, como amputações, perda da audição e convulsões.&lt;/p&gt;
-&lt;p&gt;Sintomas e tratamento&lt;br /&gt;
-A intensidade dos sinais pode variar de acordo com o agente infeccioso. Segundo a Biblioteca Virtual em Saúde do MS, as meningites provocadas por vírus costumam ser mais brandas, e os sintomas são parecidos com os de gripes e resfriados.&lt;/p&gt;
-&lt;p&gt;Entre os sinais da forma viral estão dor de cabeça, febre, um pouco de rigidez da nuca, falta de apetite e irritação. O vírus pode ser transmitido pelo contato com a saliva e a secreção respiratória ou por meio de alimentos contaminados e água.&lt;/p&gt;
-&lt;p&gt;Já as meningites bacterianas são mais graves, e os sintomas aparecem em pouco tempo, incluindo mal-estar, febre alta, vômitos, dor de cabeça forte e no pescoço, dificuldade para encostar o queixo no peito e manchas vermelhas no corpo. A transmissão ocorre por meio de secreções eliminadas pelo trato respiratório, como espirro ou tosse.&lt;/p&gt;
-&lt;p&gt;O tratamento da meningite é feito conforme o agente causador da infecção. De modo geral, a abordagem precisa ter início o quanto antes, para aumentar as chances de evitar o desenvolvimento de lesões que podem deixar sequelas permanentes ou, até mesmo, levar à morte.&lt;/p&gt;
-&lt;p&gt;Não há tratamento para combater o tipo viral, que se resolve sozinho, podendo ser utilizada medicação para aliviar os sintomas, como dor e febre.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/2022/12/01/saude-alerta-para-aumento-de-casos-de-meningite-no-acre/</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/wp-content/uploads/2022/12/CRIE-Vacinacao-das-criancas.-Foto.-Odair-Leal-Sesacre-16-1024x678-1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>13:30:58</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Covid-19: Saúde identifica casos da subvariante BQ 1.1 e BE. 9 no Acre e reforça a importância da vacinação</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;As novas subvariantes da covid-19, identificadas no Brasil, inicialmente no estado do Amazonas em outubro deste ano, BQ 1.1 e BE.9, já estão em circulação no Acre. É o que aponta o relatório de circulação de linhagens do SARS-CoV-2, emitido pela Central de Saúde Pública do Acre (Lacen) nesta quarta-feira, 30.&lt;/p&gt;
-&lt;p&gt;Das 6 amostras provenientes de pacientes com sintomas da covid-19, residentes nos municípios de Rio Branco (AC), Sena Madureira (AC) e Boca do Acre (AM), e coletadas em 17 de novembro, duas foram identificadas com as linhagens BQ 1. 1 e quatro com a linhagem BE. 9, ambas derivadas da variante Omicron, mesma cepa que circula atualmente na Europa e causou o aumento das infecções em países como Alemanha e França.&lt;/p&gt;
-&lt;p&gt;De acordo com a chefe do Centro de Informações Estratégicas em Vigilância em Saúde (Cievs), Débora dos Santos, não há mudanças em relação aos sintomas, que continuam sendo para a maioria dos pacientes: dor de cabeça, tosse, febre, dor de garganta, cansaço, perda de olfato e paladar.&lt;/p&gt;
-&lt;p&gt;As queixas são de sintomas leves, especialmente por quem já é vacinado, a gravidade tem se mostrado em pacientes não vacinados e com comorbidade. Também é preciso dar  ênfase à transmissibilidade, que é  mais elevada. Uma série de ações permite reduzir os riscos da transmissão da covid-19 e de outras doenças como a gripe e resfriados. Além do uso de máscara, medidas de higiene como a lavagem das mãos, o uso de álcool gel e distanciamento de pessoas sintomáticas contribuem para reduzir os riscos da infecção”, destacou Débora.&lt;/p&gt;
-&lt;p&gt;A principal recomendação é estar com o calendário vacinal completo e atualizado, incluindo as duas doses de reforço. O cuidado deve ser redobrado nos casos de gestantes, idosos, crianças de baixo peso, imunossuprimidos e portadores de comorbidades crônicas descontroladas. Caso os sintomas apareçam, procure atendimento em uma Unidade Básica de Saúde (UBS) e faça testagem para o vírus.&lt;/p&gt;
-&lt;p&gt;“Por enquanto, nenhuma das duas parece provocar o aumento relevante de hospitalizações e mortes, contudo, a melhor forma de prevenção a sintomas graves da doença continua sendo a vacinação, incluindo as doses reforço para aumento da imunidade. Foi aprovado pela Anvisa recentemente a vacina bivalente contra a covid, que será mais uma dose reforço. Temos expectativas de que chegue no Brasil no início desse mês de dezembro e assim que for liberada no Acre estaremos convocando para a ministração”, finalizou Daila Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie).&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/2022/12/01/covid-19-saude-identifica-casos-da-subvariante-bq-1-1-e-be-9-no-acre-e-reforca-a-importancia-da-vacinacao/</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/wp-content/uploads/2021/06/vac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>13:24:57</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Croácia empata, elimina Bélgica e avança às oitavas da Copa</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;No confronto entre dois semifinalistas da Copa do Mundo de 2018 que têm desempenho muito pior do que há quatro anos, a Bélgica teve mais motivos a lamentar no fraco 0 a 0 com a Croácia, no Estádio Ahmad Bin Ali, nesta quinta-feira (1), no Catar. Com o resultado, a geração belga dá um adeus melancólico com a eliminação precoce no grupo F, enquanto os croatas se garantem nas oitavas de final com o segundo lugar.&lt;br /&gt;
-Favoritas no grupo, as duas seleções europeias estiveram longe de um bom futebol e viram Marrocos surpreender e ficar em primeiro, com sete pontos. A Croácia termina em segundo, com cinco, e vai enfrentar o primeiro do grupo E (Espanha, Alemanha, Japão ou Costa Rica), ficando no caminho do Brasil numa eventual quartas de final. Já a Bélgica, com apenas três pontos, dá fim à tão decantada geração de Hazard e De Bruyne.&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/2022/12/01/croacia-empata-elimina-belgica-e-avanca-as-oitavas-da-copa/</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>https://acreagora.com/wp-content/uploads/2022/12/6l7p6exs5hg3cncij31xmlofb.webp</t>
         </is>
       </c>
     </row>
@@ -7743,26 +7577,95 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01:17:25</t>
+          <t>11:17:53</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PF prende duas pessoas em Sertão Santana/RS por receptação de cédulas falsas</t>
+          <t>Instituto alerta para ocorrência de temporais no Acre nesta sexta</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>&lt;div id="infocoweb" data-uuid="ca4feddb-7bbe-47f2-a2a6-bd2bbf9b57e3" class="infocoweb infocoweb_canal_105"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div&gt;
-&lt;p style="text-align: justify"&gt;&lt;strong&gt;Porto Alegre/RS &amp;#8211; &lt;/strong&gt;A Polícia Federal prendeu em flagrante, na tarde desta quinta-feira (01/12), um homem e uma mulher que receberam 5 mil reais em cédulas falsas enviadas através dos Correios.&lt;/p&gt;
-&lt;p style="text-align: justify"&gt;&lt;span style="text-align: justify"&gt;Policiais federais receberam informações sobre uma encomenda suspeita remetida de São Paulo para o município de Sertão Santana, no Rio Grande do Sul. Um motorista de táxi retirou&lt;/span&gt;&lt;span style="text-align: justify"&gt; o envelope em uma agência dos Correios em Sertão Santana e se deslocou até o endereço da destinatária, sendo monitorado pelos policiais. &lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: justify"&gt;&lt;span style="text-align: justify"&gt;Ao chegar no endereço, o motorista entregou a encomenda à mulher, momento em que os policiais realizaram a abordagem. O envelope foi aberto na presença dos policiais, que constataram que se tratava de cédulas falsas, no valor total de 5 mil reais em notas de 50 e 100, e que os dois agiram conjuntamente.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: justify"&gt;&lt;span style="text-align: justify"&gt;Os presos foram conduzidos à Superintendência da Polícia Federal em Porto Alegre&lt;/span&gt;&lt;span style="text-align: justify"&gt;, indiciados pelo crime de moeda falsa e encaminhados ao sistema penitenciário.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Comunicação Social&lt;/em&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Superintendência da Polícia Federal no Rio Grande do Sul &lt;/em&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Fone: (51) 3235.9005&lt;/em&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://www.gov.br/pf/pt-br/assuntos/noticias/2022/12/pf-prende-duas-pessoas-em-sertao-santana-rs-por-receptacao-de-cedulas-falsas#ca4feddb-7bbe-47f2-a2a6-bd2bbf9b57e3" rel="noopener"&gt;Polícia Federal&lt;/a&gt;&lt;/p&gt;
+          <t xml:space="preserve">&lt;p&gt;O Instituto Nacional de Meteorologia (Inmet) alertou para tempestades na sexta-feira (2) e sábado (3). Os dois alertas, um amarelo e outro laranja, foram divulgados nesta sexta. São esperadas chuvas entre 30 e 60 mm/h ou 50 e 100 mm/dia, ventos intensos (60-100 km/h). Há risco de corte de energia elétrica, queda de galhos de árvores, alagamentos e de descargas elétricas.&lt;/p&gt;
+&lt;p&gt;Os avisos são para todas as regiões do estado.&lt;/p&gt;
+&lt;p&gt;Instruções:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Em caso de rajadas de vento: (não se abrigue debaixo de árvores, pois há risco de queda e descargas elétricas e não estacione veículos próximos a torres de transmissão e placas de propaganda)&lt;/li&gt;
+&lt;li&gt;Se possível, desligue aparelhos elétricos e quadro geral de energia.&lt;/li&gt;
+&lt;li&gt;Obtenha mais informações junto à Defesa Civil (telefone 199) e ao Corpo de Bombeiros (telefone 193).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;G1&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/acre/instituto-alerta-para-ocorrencia-de-temporais-no-acre-nesta-sexta/</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>11:16:43</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A corrida pela Chuteira de Ouro no Catar</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="07ddd7d8-9ca8-4148-ba3e-f1ae703994b4" class="infocoweb infocoweb_canal_69"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div class="d-sm-none d-md-block"&gt;
+&lt;div class="article-section_articlePaddingStyling__1x5Sq"&gt;
+&lt;div class="article-section_subTitleText__jr9tp"&gt;Por enquanto, Cody Gakpo, Kylian Mbappé, Marcus Rashford e Enner Valencia lideram a disputa.&lt;/div&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;section class="ff-mt-sm-0 ff-mt-32 ff-mt-lg-48 ff-mt-xl-56 ff-mb-0"&gt;
+&lt;div class="d-flex justify-content-center"&gt;
+&lt;div class="article-section_mainItem__2-NNd"&gt;&lt;source&gt;&lt;/source&gt;&lt;source&gt;&lt;/source&gt;&lt;source&gt;&lt;/source&gt;&lt;source&gt;&lt;/source&gt;&lt;source&gt;&lt;/source&gt;&lt;img title="fifa" src="https://digitalhub.fifa.com/transform/1c646da0-d44c-4e7d-a64b-ce150da8514a/Japan-v-Spain-Group-E-FIFA-World-Cup-Qatar-2022?io=transform:fill,height:485,width:1023&amp;#038;quality=75" alt="fifa"&gt;&lt;/div&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;/section&gt;
+&lt;section&gt;
+&lt;div class="d-flex justify-content-center article-section_articlePaddingStyling__1x5Sq"&gt;
+&lt;div class="article-section_articleSection__35NYo"&gt;
+&lt;article class="rich-text_articleRichText__Mab45"&gt;
+&lt;h3 class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;A briga pela Chuteira de Ouro no Qatar&lt;/strong&gt;&lt;/h3&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;3 gols&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;Álvaro Morata (Espanha), Cody Gakpo (Holanda), Enner Valencia (Equador)*, Kylian Mbappe (França), Marcus Rashford (Inglaterra).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;2 gols&lt;/strong&gt; Andrej Kramaric (Croácia), Bruno Fernandes (Portugal), Bukayo Saka (Inglaterra), Cho Gue-sung (Coreia do Sul), Ferrán Torres (Espanha), Kai Havertz (Alemanha)*, Lionel Messi (Argentina), Mehdi Taremi (Irã)*, Mohammed Kudus (Gana), Niclas Füllkrug (Alemanha)*, Olivier Giroud (França), &lt;strong&gt;Richarlison (Brasil)&lt;/strong&gt;, Ritsu Doan (Japão), Salem Al-Dawsari (Arábia Saudita)*.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;em&gt;* Já foi eliminado.&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Os vencedores anteriores da Chuteira de Ouro"&gt;Os vencedores anteriores da Chuteira de Ouro&lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;1930: Guillermo Stabile (8 gols), 1934: Oldrich Nejedly (5), &lt;strong&gt;1938: Leônidas da Silva (7),&lt;/strong&gt; &lt;strong&gt;1950: Ademir de Menezes (8),&lt;/strong&gt; 1954: Sandor Kocsis (11), 1958: Just Fontaine, França (13), 1962: Florian Albert,&lt;strong&gt; Garrincha&lt;/strong&gt;, Valentin Ivanov, Drazan Jerkovic, Leonel Sanchez e Vava (4), 1966: Eusébio (9), 1970: Gerd Muller (10), 1974: Grzegorz Lato (7), 1978: Mario Kempes (6), 1982: Paolo Rossi (6 ), 1986: Gary Lineker (6), 1990: Toto Schillaci (6), 1994: Oleg Salenko e Hristo Stoichkov (6), 1998: Davor Suker (6), &lt;strong&gt;2002: Ronaldo (8),&lt;/strong&gt; 2006: Miroslav Klose (5), 2010: Thomas Muller ( 5), 2014: James Rodriguez (6), 2018: Harry Kane (6).&lt;/p&gt;
+&lt;div style="clear:both;margin-top:0em;margin-bottom:1em"&gt;&lt;a href="https://agenciaesporte.com.br/copa-do-mundo/conheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2/" target="_blank" rel="dofollow noopener" class="u0ab8c3d01ba2c15b60db5e38d21788ff"&gt;&lt;!-- INLINE RELATED POSTS 1/2 //--&gt;&lt;/p&gt;
+&lt;div style="padding-left:1em;padding-right:1em"&gt;&lt;span class="ctaText"&gt;&lt;/span&gt;  &lt;span class="postTitle"&gt;Conheça o caminho possível de cada seleção nos mata-matas da Copa do Mundo&lt;/span&gt;&lt;/div&gt;
+&lt;p&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;p&gt;&lt;em&gt;A Chuteira de Ouro será entregue ao jogador que marca mais gols ao longo da Copa do Mundo. Se dois ou mais jogadores anotarem a mesma quantidade de gols, o número de atendimentos (conforme determinado pelos membros do Grupo de Estudos Técnicos da FIFA) será aceito como reconhecimento de desempate. Se o empate ainda permanecer, os minutos jogados no torneio serão levados em consideração (leva vantagem para quem permanecer em campo por menos tempo). Uma Chuteira de Prata e uma Chuteira de Bronze também serão premiadas ao segundo e terceiro colocado na artilharia, respectivamente. &lt;/em&gt;&lt;/p&gt;
+&lt;/article&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/section&gt;
+&lt;div class="addtoany_share_save_container addtoany_content addtoany_content_bottom"&gt;
+&lt;div class="a2a_kit a2a_kit_size_32 addtoany_list" data-a2a-url="https://agenciaesporte.com.br/copa-do-mundo/a-corrida-pela-chuteira-de-ouro-no-catar/" data-a2a-title="A corrida pela Chuteira de Ouro no Catar"&gt;&lt;a class="a2a_button_whatsapp" href="https://www.addtoany.com/add_to/whatsapp?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fa-corrida-pela-chuteira-de-ouro-no-catar%2F&amp;#038;linkname=A%20corrida%20pela%20Chuteira%20de%20Ouro%20no%20Catar" title="WhatsApp" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_facebook" href="https://www.addtoany.com/add_to/facebook?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fa-corrida-pela-chuteira-de-ouro-no-catar%2F&amp;#038;linkname=A%20corrida%20pela%20Chuteira%20de%20Ouro%20no%20Catar" title="Facebook" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_twitter" href="https://www.addtoany.com/add_to/twitter?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fa-corrida-pela-chuteira-de-ouro-no-catar%2F&amp;#038;linkname=A%20corrida%20pela%20Chuteira%20de%20Ouro%20no%20Catar" title="Twitter" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_facebook_messenger" href="https://www.addtoany.com/add_to/facebook_messenger?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fa-corrida-pela-chuteira-de-ouro-no-catar%2F&amp;#038;linkname=A%20corrida%20pela%20Chuteira%20de%20Ouro%20no%20Catar" title="Messenger" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_linkedin" href="https://www.addtoany.com/add_to/linkedin?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fa-corrida-pela-chuteira-de-ouro-no-catar%2F&amp;#038;linkname=A%20corrida%20pela%20Chuteira%20de%20Ouro%20no%20Catar" title="LinkedIn" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_dd addtoany_share_save addtoany_share" href="https://www.addtoany.com/share"&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://agenciaesporte.com.br/copa-do-mundo/a-corrida-pela-chuteira-de-ouro-no-catar/#07ddd7d8-9ca8-4148-ba3e-f1ae703994b4" rel="noopener"&gt;Agência Esporte&lt;/a&gt;&lt;/p&gt;
 &lt;style&gt;#infocoweb_cabecalho {
         display: inline-block;
         margin-top: -75px;
@@ -7773,48 +7676,12 @@
 &lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
 &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
 &lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
-&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=ca4feddb-7bbe-47f2-a2a6-bd2bbf9b57e3"&gt;&lt;/script&gt;</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/policia-federal/pf-prende-duas-pessoas-em-sertao-santana-rs-por-receptacao-de-cedulas-falsas/</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2022-12-02</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>00:10:32</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Presidente da Câmara de Vereadores de Mâncio Lima é reeleito</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Com chapa única, o atual Presidente da Câmara de Vereadores de Mâncio Lima, Renan Costa, foi reeleito por unanimidade para o mandato de dois anos para a Mesa Diretora. A sessão ocorreu na última quarta-feira, 30 às 19h00.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;A nova Mesa Diretora ficou composta pelos Vereadores Renan Costa, Presidente, Vlade Vasconcelos, Vice-presidente, 1° Secretário, Mazim e Jean Almeida 2° Secretário. A chapa não teve concorrente. Renan Costa está no segundo mandato de vereador sendo eleito como o parlamentar mais novo de todas as legislaturas.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;O Secretário Especial, Danilo Chagas, esteve presente na sessão representando o poder Executivo. Na ocasião, o Chagas reiterou a parceria e a união dos dois poderes, ao mesmo tempo desejou um excelente e sucesso para os legisladores de Mâncio Lima.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;*Com informações da Assessoria de Comunicação da Câmara Municipal de Mâncio Lima&lt;/span&gt;&lt;/p&gt;
-</t>
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=07ddd7d8-9ca8-4148-ba3e-f1ae703994b4"&gt;&lt;/script&gt;</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://acjornal.com/politica/presidente-da-camara-de-vereadores-de-mancio-lima-e-reeleito/</t>
+          <t>https://acjornal.com/esporte/a-corrida-pela-chuteira-de-ouro-no-catar/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7831,175 +7698,67 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>00:07:49</t>
+          <t>11:16:43</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Começou as inscrições para concurso público em Mâncio Lima, no interior do Acre</t>
+          <t>Conheça o caminho possível de cada seleção nos mata-matas da Copa do Mundo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;A Prefeitura de Mâncio Lima lança nesta sexta-feira, 02, Concurso Público permanente para provimento de vagas e cadastro reserva em cargos públicos de níveis Médio e Superior&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;para profissionais da área da Saúde e Assistência SocialO Concurso Público será realizado pelas empresas MSCONCURSOS e ADVISE Consultoria &amp;amp; Planejamento. Os salários vão de R$ 1.200 a R$ 7.500.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Para a área de Assistência Social serão disponibilizadas sete vagas em ampla concorrência para Orientador Social, Assistente Social, Psicólogo e mais 17 vagas para o cadastro de reserva. Na área da Saúde serão disponibilizadas 40 vagas de nível Médio para os cargos de Agente de Combate a Endemias, Atendente de Consultório Dentário, Auxiliar de Laboratório, Microscopista e Técnico em Enfermagem e mais 44 vagas para o cadastro de reserva.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Para nível superior os cargos disponíveis são para Assistente Social, Educador Físico, Enfermeiro, Farmacêutico, Fisioterapeuta, Médico Clínico Geral, Médico Ginecologista, Médico Pediatra, Nutricionista, Odontólogo, Pedagogo e Psicólogo, somando 17 vagas para ampla concorrência e 42 vagas para preenchimento do cadastro de reserva. Dentro do número de vagas está a destinação para pessoas com deficiência declarada no ato da inscrição.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;As inscrições serão realizadas, exclusivamente, por meio da internet, através do site www.msconcursos.com.br, no período de 09 a 30 de dezembro do ano em curso para área de Assistência Social pelo site http://www.advise.net.br e, de 02/12/2022 a 18/12/2022 para área da Saúde, e poderão ser efetuadas somente até às 18h (dezoito horas), horário de Brasília. A inscrição do candidato implicará no conhecimento e aceitação irrestritos das normas e condições estabelecidas neste Edital e em seus Anexos, em relação às quais não poderá o candidato alegar desconhecimento.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;As provas para a área da saúde serão realizadas no dia 15 de janeiro de 2023 e para Assistência Social as provas serão realizadas no dia 12 de fevereiro de 2023. A taxa de inscrição varia de R$ 85 para Nível Médio e R$ 120 para Nível Superior. A contratação será após o cumprimento dos tramites estabelecidos no edital.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Outras informações poderão ser obtidas nos editais publicados na página oficial da Prefeitura e no site da empresa responsável pelo certame.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;*Assessoria de Comunicação de Mâncio Lima&lt;/span&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/jurua/comecou-as-inscricoes-para-concurso-publico-em-mancio-lima-no-interior-do-acre/</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>23:58:50</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Mototáxi é vítima de assalto por monitorado da justiça</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Na manhã desta quinta-feira (1),&lt;span class="Apple-converted-space"&gt;  &lt;/span&gt;um homem pegou uma viagem para o bairro da Cohab em Cruzeiro do Sul, ao chegar no local, o criminoso deu um mata leão no mototáxi e a vítima veio a desmaiar.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Ao acordar, Vanisio Almeida de 49 anos, viu que seu veículo teria sido levado juntamente com sua carteira com documentos pessoais, uma quantia de R$ 200 em espécie e seu celular. Em seguida, ele pediu ajuda em uma residência para acionar a polícia militar através do 190.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Segundo a polícia, o acusado, José Eliton Ferreira de Alencar, de 23 anos é monitorado da justiça. Ele foi identificado e constatado que após o roubo, rompeu a tornozeleira próximo a UFAC, em Cruzeiro do Sul.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;O caso será levado para delegacia geral da cidade, para os procedimentos cabíveis.&lt;/span&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/cruzeiro-do-sul/mototaxi-e-vitima-de-assalto-por-monitorado-da-justica/</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>23:56:24</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Moradores da comunidade Rio Liberdade alegam falta de barqueiros para transporte</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Na manhã desta quinta-feira (1), famílias do rio Liberdade, comunidade localizada na BR-364, procuraram a imprensa&lt;span class="Apple-converted-space"&gt;  &lt;/span&gt;para denunciar falta de barqueiros para transportar os alunos.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;Segundo uma das moradoras da comunidade, seus filhos estão sem estudar devido à falta de barqueiros. “Tenho certeza que o estado tem condições de colocar pessoas para trabalharem em prol da sociedade. Nossos filhos precisam está numa sala de aula, porque queremos um futuro digno para eles”, destacou.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;De acordo com outro morador foi colocado uma embarcação por um mês, mas depois desse período ninguém mais apareceu.&lt;/span&gt;&lt;/p&gt;
-&lt;p class="p1"&gt;&lt;span class="s1" style="font-size: 14pt; font-family: verdana, geneva;"&gt;A coordenação do núcleo de educação informou que a rota teve problemas nas especificações do tipo de embarcação adequada. Após o término do processo que já estava em andamento, foi iniciado o processo de credenciamento, que foi fracassado. Dessa forma, houve a reabertura e o credenciamento atualmente está em andamento, na fase de análise de documentação das empresas cadastradas.&lt;/span&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/jurua/moradores-da-comunidade-rio-liberdade-alegam-falta-de-barqueiros-para-transporte/</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>23:50:18</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>TJ em Cruzeiro do Sul assina ordem de serviço para a instalação de energia solar</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;Obras têm prazo de 120 dias para serem entregues. Equipe da gestão do TJAC, juntamente com magistradas e magistrados de Cruzeiro do Sul foram ao local onde devem ser instaladas as placas solares, que irão gerar energia limpa e renovável&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;O futuro do Planeta Terra depende das nossas ações. A máxima é verdadeira e chama a responsabilidade de cada um nos cuidados com a biodiversidade. Atendendo essa convocação, a presidente do Tribunal de Justiça do Acre (TJAC), deu mais um grande passo nas medidas de sustentabilidade do Judiciário, assinando, na quarta-feira, 30, a ordem de serviço para início das obras de instalação da usina solar fotovoltaica, em Cruzeiro do Sul.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;A previsão é que o trabalho seja concluído no prazo de 120 dias e gere energia solar, que é limpa e renovável. Mais do que economia aos cofres públicos esse avanço representa uma postura institucional de defesa pela vida.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;O ato foi realizado após a sessão do Pleno Jurisdicional em Cruzeiro do Sul e contou com a participação de toda a Administração do TJAC, a presidente, desembargadora Waldirene Cordeiro, e os desembargadores Roberto Barros (vice-presidente) e Elcio Mendes (corregedor-geral da Justiça). Ainda acompanharam a equipe de servidoras e servidores, os outros membros da Corte da Justiça acreana, presentes em Cruzeiro devido a Semana do Judiciário no Juruá, assim como, magistradas e magistrados da Comarca de Cruzeiro do Sul.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;A presidente, que também é coordenadora do Núcleo Socioambiental Permanente (Nusap), ressaltou a importância da conquista que está alinhada ao Objetivo de Desenvolvimento Sustentável – ODS 7 da Agenda 2030 da ONU. “Em Rio Branco estamos instalando a primeira usina solar, e em breve teremos as instalações em Cruzeiro do Sul. A nossa gestão tem se esforçado muito para vencer os desafios e realizar boas ações como esta, que vai proporcionar energia solar limpa e renovável, resultando em economia nos custos e contribuindo com o meio ambiente”, finalizou.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-size: 14pt; font-family: verdana, geneva;"&gt;&lt;img loading="lazy" class="size-thumbnail wp-image-14429 aligncenter" src="https://jurua24horas.com/wp-content/uploads/2022/12/bosque-jurua-ordem-usina-fotovoltaica-tjac-2022-900x545.jpeg" alt="" width="900" height="545" /&gt;&lt;/span&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/cruzeiro-do-sul/tj-em-cruzeiro-do-sul-assina-ordem-de-servico-para-a-instalacao-de-energia-solar/</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>23:45:27</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>PF prende casal com 5kg de cocaína, no Aeroporto do Galeão/RJ</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>&lt;div id="infocoweb" data-uuid="7bc41c68-6e87-4320-931a-c9a480a699a5" class="infocoweb infocoweb_canal_105"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div&gt;
-&lt;p style="text-align: justify"&gt;&lt;strong&gt;Rio de Janeiro/RJ&lt;/strong&gt; &amp;#8211; Na noite desta quinta-feira, 01/12, a Polícia Federal prendeu, em flagrante, um casal que transportava cerca de 5Kg de cocaína, no Aeroporto Internacional do Rio de Janeiro.&lt;/p&gt;
-&lt;p style="text-align: justify"&gt; O casal, um homem de 22 anos e uma mulher de 23 anos, pretendia embarcar para Lisboa, capital de Portugal. A droga estava oculta no fundo falso da bagagem despachada pelos passageiros.&lt;/p&gt;
-&lt;p style="text-align: justify"&gt;Os presos foram encaminhados à Superintendência da Polícia Federal para lavratura do auto de prisão em flagrante e responderão pelo crime de tráfico transnacional de drogas, cuja pena pode chegar a 15 anos de reclusão.&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Comunicação Social da Polícia Federal no Rio de Janeiro&lt;/em&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;cs.srrj@dpf.gov.br | www.pf.gov.br&lt;/em&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;(21) 2203-4404 / 4405 / 4406 / 4407&lt;/em&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://www.gov.br/pf/pt-br/assuntos/noticias/2022/12/pf-prende-casal-com-5kg-de-cocaina-no-aeroporto-do-galeao-rj#7bc41c68-6e87-4320-931a-c9a480a699a5" rel="noopener"&gt;Polícia Federal&lt;/a&gt;&lt;/p&gt;
+          <t>&lt;div id="infocoweb" data-uuid="7bbded15-aa42-445e-8ac9-03f3dd099bd3" class="infocoweb infocoweb_canal_69"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p class="rich-text_p__3b-so text-regular"&gt;Está chegando a hora da decisão na &lt;a href="https://www.fifa.com/fifaplus/pt/tournaments/mens/worldcup/qatar2022"&gt;Copa do Mundo FIFA Qatar-2022&lt;/a&gt;. As 16 seleções participantes da fase final do torneio serão conhecidas até sexta-feira. E, no sábado, a bola já vai começar a rolar para os mata-matas.&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;Mas, será que você já sabe o que aguarda a sua seleção preferida nos gramados do Oriente Médio?&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;O &lt;strong&gt;FIFA+&lt;/strong&gt; apresenta abaixo o caminho que cada equipe precisará trilhar para chegar à decisão do título mundial, dia 18 de dezembro, em Lusail. Esse material será atualizado ao fim de cada dia de disputas.&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;a href="https://play.fifa.com/bracket-predictor/pt/"&gt;Enquanto isso, que tal dar os seus palpites sobre os classificados de cada grupo e os vencedores da reta final da Copa?&lt;/a&gt;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Fase final da Copa do Mundo-2022 "&gt;Fase final da Copa do Mundo-2022&lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Oitavas de final"&gt;Oitavas de final&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 49&lt;/strong&gt;: Holanda x Estados Unidos&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 50&lt;/strong&gt;: Argentina x Austrália&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 51&lt;/strong&gt;: Inglaterra x Senegal&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 52&lt;/strong&gt;: França x Polônia&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 53&lt;/strong&gt;: Japão x Croácia&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 54&lt;/strong&gt;: Primeiro colocado do Grupo G x Segundo colocado do Grupo H&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 55&lt;/strong&gt;: Marrocos x Espanha&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 56&lt;/strong&gt;: Primeiro colocado do Grupo H x Segundo colocado do Grupo G&lt;/p&gt;
+&lt;div&gt;
+&lt;div style="clear:both;margin-top:0em;margin-bottom:1em"&gt;&lt;a href="https://agenciaesporte.com.br/copa-do-mundo/inglaterra-derrota-gales-e-avanca-em-primeiro-no-grupo-b/" target="_blank" rel="dofollow noopener" class="u38c49dc6a52f09d16775245bdf9a7746"&gt;&lt;!-- INLINE RELATED POSTS 1/2 //--&gt;&lt;/p&gt;
+&lt;div style="padding-left:1em;padding-right:1em"&gt;&lt;span class="ctaText"&gt;&lt;/span&gt;  &lt;span class="postTitle"&gt;Inglaterra derrota Gales e avança em primeiro no Grupo B&lt;/span&gt;&lt;/div&gt;
+&lt;p&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;h3 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Quartas de final"&gt;Quartas de final&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 57&lt;/strong&gt;: Vencedor do jogo 49 x Vencedor do jogo 50&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 58&lt;/strong&gt;: Vencedor do jogo 53 x Vencedor do jogo 54&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 59&lt;/strong&gt;: Vencedor do jogo 51 x Vencedor do jogo 52&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 60&lt;/strong&gt;: Vencedor do jogo 55 x Vencedor do jogo 56&lt;/p&gt;
+&lt;div&gt;
+&lt;h3 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Semifinais"&gt;Semifinais&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 61&lt;/strong&gt;: Vencedor do jogo 57 x Vencedor do jogo 58&lt;/p&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 62&lt;/strong&gt;: Vencedor do jogo 59 x Vencedor do jogo 60&lt;/p&gt;
+&lt;div&gt;
+&lt;h3 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Disputa do 3º lugar"&gt;Disputa do 3º lugar&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 63&lt;/strong&gt;: Vencedor do jogo 61 x Vencedor do jogo 62&lt;/p&gt;
+&lt;div&gt;
+&lt;h3 class=""&gt;&lt;span class="d-none d-md-block"&gt;&lt;span title="Final"&gt;Final&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class="rich-text_p__3b-so text-regular"&gt;&lt;strong&gt;Jogo 64&lt;/strong&gt;: Vencedor do jogo 61 x Vencedor do jogo 62&lt;/p&gt;
+&lt;div class="addtoany_share_save_container addtoany_content addtoany_content_bottom"&gt;
+&lt;div class="a2a_kit a2a_kit_size_32 addtoany_list" data-a2a-url="https://agenciaesporte.com.br/copa-do-mundo/conheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2/" data-a2a-title="Conheça o caminho possível de cada seleção nos mata-matas da Copa do Mundo"&gt;&lt;a class="a2a_button_whatsapp" href="https://www.addtoany.com/add_to/whatsapp?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fconheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2%2F&amp;#038;linkname=Conhe%C3%A7a%20o%20caminho%20poss%C3%ADvel%20de%20cada%20sele%C3%A7%C3%A3o%20nos%20mata-matas%20da%20Copa%20do%20Mundo" title="WhatsApp" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_facebook" href="https://www.addtoany.com/add_to/facebook?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fconheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2%2F&amp;#038;linkname=Conhe%C3%A7a%20o%20caminho%20poss%C3%ADvel%20de%20cada%20sele%C3%A7%C3%A3o%20nos%20mata-matas%20da%20Copa%20do%20Mundo" title="Facebook" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_twitter" href="https://www.addtoany.com/add_to/twitter?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fconheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2%2F&amp;#038;linkname=Conhe%C3%A7a%20o%20caminho%20poss%C3%ADvel%20de%20cada%20sele%C3%A7%C3%A3o%20nos%20mata-matas%20da%20Copa%20do%20Mundo" title="Twitter" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_facebook_messenger" href="https://www.addtoany.com/add_to/facebook_messenger?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fconheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2%2F&amp;#038;linkname=Conhe%C3%A7a%20o%20caminho%20poss%C3%ADvel%20de%20cada%20sele%C3%A7%C3%A3o%20nos%20mata-matas%20da%20Copa%20do%20Mundo" title="Messenger" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_button_linkedin" href="https://www.addtoany.com/add_to/linkedin?linkurl=https%3A%2F%2Fagenciaesporte.com.br%2Fcopa-do-mundo%2Fconheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2%2F&amp;#038;linkname=Conhe%C3%A7a%20o%20caminho%20poss%C3%ADvel%20de%20cada%20sele%C3%A7%C3%A3o%20nos%20mata-matas%20da%20Copa%20do%20Mundo" title="LinkedIn" rel="nofollow noopener" target="_blank"&gt;&lt;/a&gt;&lt;a class="a2a_dd addtoany_share_save addtoany_share" href="https://www.addtoany.com/share"&gt;&lt;/a&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://agenciaesporte.com.br/copa-do-mundo/conheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2/#7bbded15-aa42-445e-8ac9-03f3dd099bd3" rel="noopener"&gt;Agência Esporte&lt;/a&gt;&lt;/p&gt;
 &lt;style&gt;#infocoweb_cabecalho {
         display: inline-block;
         margin-top: -75px;
@@ -8010,170 +7769,82 @@
 &lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
 &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
 &lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
-&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=7bc41c68-6e87-4320-931a-c9a480a699a5"&gt;&lt;/script&gt;</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/policia-federal/pf-prende-casal-com-5kg-de-cocaina-no-aeroporto-do-galeao-rj/</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=7bbded15-aa42-445e-8ac9-03f3dd099bd3"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/esporte/conheca-o-caminho-possivel-de-cada-selecao-nos-mata-matas-da-copa-do-mundo-2/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>Imagem não encontrada</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>23:45:26</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>PF prende homem em flagrante com R$ 1000 em notas falsas no bairro Itararé</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>&lt;div id="infocoweb" data-uuid="54e704cb-535f-4357-8d19-52caddfb9f1c" class="infocoweb infocoweb_canal_105"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div&gt;
-&lt;p style="text-align: justify"&gt;&lt;strong&gt;Teresina/PI&lt;/strong&gt; &amp;#8211; A Polícia Federal prendeu em flagrante, na tarde desta quinta-feira (01/12), um homem suspeito de adquirir cédulas falsas por via postal.&lt;/p&gt;
-&lt;p style="text-align: justify"&gt;No total, foram apreendidas 10 notas de R$ 100 em cédulas falsas. A encomenda veio do estado de São Paulo para ser recebida na agência dos Correios no bairro Itararé. &lt;/p&gt;
-&lt;p style="text-align: justify"&gt;O criminoso foi levado para ser autuado na Superintendência Regional de Polícia Federal no Piauí e, em seguida, encaminhado para o Centro de Detenção Provisória em Altos/PI, onde aguardará a audiência de custódia.&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Comunicação Social da Polícia Federal no Piauí&lt;/em&gt;&lt;/p&gt;
-&lt;p style="text-align: right"&gt;&lt;em&gt;Contato: (86) 3089-9960&lt;/em&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://www.gov.br/pf/pt-br/assuntos/noticias/pf-prende-homem-em-flagrante-com-r-1000-em-notas-falsas-no-bairro-itarare#54e704cb-535f-4357-8d19-52caddfb9f1c" rel="noopener"&gt;Polícia Federal&lt;/a&gt;&lt;/p&gt;
-&lt;style&gt;#infocoweb_cabecalho {
-        display: inline-block;
-        margin-top: -75px;
-        position: absolute;
-        right: 0;
-    }
-&lt;/style&gt;
-&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
-&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
-&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
-&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=54e704cb-535f-4357-8d19-52caddfb9f1c"&gt;&lt;/script&gt;</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/policia-federal/pf-prende-homem-em-flagrante-com-r-1000-em-notas-falsas-no-bairro-itarare/</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>23:16:06</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Tebet: recursos para assistência social tiveram corte de 96%</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>&lt;div id="infocoweb" data-uuid="2ce6ee5b-b851-479d-8281-1e6d41f45a9f" class="infocoweb infocoweb_canal_64"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;div class="post-item-wrap"&gt;
-&lt;p&gt;Integrante da equipe de transição, na área de assistência social, a senadora Simone Tebet (MDB-MS) afirmou nesta quinta-feira (1º), durante coletiva de imprensa para apresentar os primeiros resultados do trabalho, que o setor perdeu cerca de 96% do orçamento para o ano que vem. &lt;img src="https://agenciabrasil.ebc.com.br/ebc.png?id=1496450&amp;#038;o=node" style="width:1px;height:1px"&gt;&lt;img src="https://agenciabrasil.ebc.com.br/ebc.gif?id=1496450&amp;#038;o=node" style="width:1px;height:1px"&gt;&lt;/p&gt;
-&lt;p&gt;&amp;#8220;Grosso modo, houve um corte de algo em torno de 96% do orçamento do Ministério da Cidadania&amp;#8221;, declarou a jornalistas que cobrem a transição no Centro de Cultura Banco do Brasil (CCBB), em Brasília. Para garantir a manutenção do Auxílio Brasil em R$ 600, mais o pagamento extra de R$ 150 por criança de até seis anos, o grupo de trabalho aponta a necessidade de pelo menos R$ 70 bilhões a mais no Orçamento. Além disso, seriam necessários recursos extras em outros programas essenciais de assistência social. &lt;/p&gt;
-&lt;p&gt;A senadora disse que também seria necessário incluir mais R$ 2 bilhões do auxílio gás. &amp;#8220;Fora isso, para que minimamente o SUAS [Sistema Único de Assistência Social] funcione, mantendo os 8 mil Cras [Centro de Referência de Assistência Social], 7 mil unidades de atendimento, precisamos de [outros] R$ 2,6 bilhões em valores atuais. Isso fora valores de cisternas e todos os outros programas que foram abandonados&amp;#8221;, disse Tebet. Apenas na pasta que cuida dos mais vulneráveis, o orçamento extra pode chegar a R$ 80 bilhões. &lt;/p&gt;
-&lt;p&gt;Para a senadora emedebista, o gasto extra-teto mínimo necessário para recompor o orçamento do ano que vem dificilmente poderá ser inferior a R$ 140 bilhões, considerado as necessidade de outras áreas. Proposta de Emenda Constitucional (PEC) apresentada pela equipe de transição prevê a exclusão do Bolsa Família (atual Auxílio Brasil) da regra do Teto de Gastos, o que pode chegar a mais de R$ 170 bilhões, segundo cálculos técnicos divulgados pelo governo eleito.&lt;/p&gt;
-&lt;p&gt;Além de Tebet, participaram da coletiva as ex-ministras do Desenvolvimento Social e Combate à Fome, Tereza Campello e Márcia Lopes, e o coordenador dos grupos de trabalho da transição, Aloizio Mercadante. &lt;/p&gt;
-&lt;p&gt;Segundo Campello, o atual governo desorganizou as atualizações do Cadastro Único de Programas Sociais (CadÚnico) e defendeu a retomada de informações fundamentais para o monitoramento de famílias vulneráveis que recebem auxílio do governo, como dados de frequência escolar, informação sobre vacinação e acesso a outros serviços públicos básicos, como água e saneamento. &amp;#8220;Precisamos construir uma estratégia de retomada da atualização do CadÚnico, retomar informações sobre frequência escolar. A gente não tem informação de vacinação de mais da metade das crianças mais pobres. Queremos saber se têm acesso a saneamento, à água, se mudou de endereço ou não&amp;#8221;, disse a ex-ministra.&lt;/p&gt;
-&lt;h2&gt;Irregularidades&lt;/h2&gt;
-&lt;p&gt;A equipe de transição também diz ter identificado possíveis irregularidades com o aumento exponencial de famílias unipessoais, aquelas que são formadas por um indivíduo, como beneficiárias do Auxílio Brasil. Pelos cálculos apresentados, com base em dados oficiais do programa, entre dezembro de 2018 e outubro de 2022 houve um aumento de 197% no total de adultos morando sozinhos e recebendo o benefício, enquanto o crescimento de famílias com dois ou mais integrantes cresceu 21% no mesmo período. &lt;/p&gt;
-&lt;p&gt;&amp;#8220;A população foi induzida a se cadastrar dessa forma. Não é um malfeito da pessoa pobre, é um malfeito do Estado&amp;#8221;, disse Tereza Campello. &lt;/p&gt;
-&lt;p&gt;&amp;#8220;O atual governo colocou mais de 2 milhões de pessoas no programa social, sem qualquer gestão, sem critério e sem acompanhamento, e agora entrega ao novo governo a tarefa de retirar essas pessoas do programa social&amp;#8221;, criticou Mercadante.&lt;/p&gt;
-&lt;/p&gt;
-&lt;/div&gt;
-&lt;p class="alt-font font-italic my-2 small text-info"&gt;                                                 Edição:   Aline Leal                    &lt;/p&gt;
-&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://agenciabrasil.ebc.com.br/politica/noticia/2022-12/tebet-recursos-para-assistencia-social-tiveram-corte-de-96#2ce6ee5b-b851-479d-8281-1e6d41f45a9f" rel="noopener"&gt;EBC Política Nacional&lt;/a&gt;&lt;/p&gt;
-&lt;style&gt;#infocoweb_cabecalho {
-        display: inline-block;
-        margin-top: -75px;
-        position: absolute;
-        right: 0;
-    }
-&lt;/style&gt;
-&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
-&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
-&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
-&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=2ce6ee5b-b851-479d-8281-1e6d41f45a9f"&gt;&lt;/script&gt;</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://acjornal.com/politica-nacional/tebet-recursos-para-assistencia-social-tiveram-corte-de-96/</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Imagem não encontrada</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>23:16:05</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Lula sinaliza que Gleisi Hoffmann não terá ministério</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>&lt;div id="infocoweb" data-uuid="b34dfc91-1312-4036-a4d6-1432458b1c12" class="infocoweb infocoweb_canal_82"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11:16:42</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tratamentos contra o câncer de mama: veja como são feitos e conheça os efeitos colaterais</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="a4b3756d-a161-47e8-b583-d4d75ffde5a8" class="infocoweb infocoweb_canal_83"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
 &lt;div class="Noticia_Foto"&gt;
 &lt;figure class="foto-legenda"&gt;
-&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/2b/7r/gl/2b7rglxstmrluev05zmp9qzgi.jpg" width="906" height="509" alt="Lula e Gleisi Hoffmann" title="Lula e Gleisi Hoffmann"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Divulgação: Ricardo Stuckert &amp;#8211; 01/12/2022&lt;/cite&gt; &lt;/p&gt;
-&lt;div class="foto-legenda-citacao-text"&gt;Lula e Gleisi Hoffmann&lt;/div&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img src="https://i0.statig.com.br/bancodeimagens/cx/z5/pj/cxz5pja90rvlphurfez5qrh2m.jpg" loading="lazy" width="652" height="408" alt="Tratamentos contra o câncer de mama: veja como são feitos e conheça os efeitos colaterais" title="Tratamentos contra o câncer de mama: veja como são feitos e conheça os efeitos colaterais"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Redação EdiCase&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;Tratamentos contra o câncer de mama: veja como são feitos e conheça os efeitos colaterais&lt;/div&gt;
 &lt;/figcaption&gt;&lt;/figure&gt;
 &lt;/p&gt;
 &lt;/div&gt;
-&lt;p class=""&gt;O  &lt;a href="https://ultimosegundo.ig.com.br/politica/2022-11-30/posse-de-lula-atracoes-confirmadas.html" data-mce-href="https://ultimosegundo.ig.com.br/politica/2022-11-30/posse-de-lula-atracoes-confirmadas.html"&gt;presidente eleito Luiz Inácio &lt;strong&gt;Lula&lt;/strong&gt; da Silva (PT)&lt;/a&gt; escolheu não dar um ministério a &lt;a data-mce-href="https://ultimosegundo.ig.com.br/politica/2022-11-30/nao-tinhamos-outra-pessoa--diz-gleisi-apoio-lira-na-camara.html" href="https://ultimosegundo.ig.com.br/politica/2022-11-30/nao-tinhamos-outra-pessoa--diz-gleisi-apoio-lira-na-camara.html"&gt;deputada &lt;strong&gt;Gleisi Hoffmann&lt;/strong&gt; (PT)&lt;/a&gt; e deixá-la no comando do Partido dos Trabalhadores. A informação foi dada nesta quinta-feira (1) aos senadores e deputados petistas em uma reunião no CCBB (Centro Cultural Banco do Brasil).&lt;/p&gt;
-&lt;p&gt;Hoffmann deve estar à frente do &lt;strong&gt;PT&lt;/strong&gt; até novembro de 2023. Após a data, ela não poderá concorrer novamente ao cargo, por ter sido reeleita. Segundo o estatuto do partido, é proibido o acúmulo de funções. Caso ela fosse nomeada, haveria uma convocação de nova eleição entre os membros do diretório em até 60 dias. &lt;/p&gt;
-&lt;p&gt;Lula alegou que o partido precisa se manter fortalecido e unido. Para isso, ele acredita que Hoffmann dará essas condições à legenda. &lt;/p&gt;
-&lt;p&gt;Gleisi assumiu o partido em 2016. Nas eleições de 2018 foi eleita deputada federal pelo Paraná, sendo a terceira mais votada no estado. No mesmo ano, ela foi cotada para concorrer à Presidência para substituir Lula, que impedido de disputar o pleito, mas Fernando Haddad (PT) foi o escolhido.&lt;/p&gt;
-&lt;div&gt;
-&lt;aside class="leiaTambem-container"&gt;
-&lt;h3&gt;Leia também&lt;/h3&gt;
+&lt;p&gt;O câncer de mama é o tipo de tumor mais comum entre as mulheres. De acordo com estimativa do INCA (Instituto Nacional do Câncer), somente no Brasil, houve cerca de 66.280 novos casos da doença em 2020. Porém, os tratamentos, na maioria dos casos, são satisfatórios, garantindo uma média de 80% de sobrevida. A seguir, conheça alguns tipos de tratamentos contra essa doença e os efeitos colaterais causados por eles.  &lt;/p&gt;
+&lt;h2&gt; &lt;strong&gt;Radioterapia&lt;/strong&gt; &lt;/h2&gt;
+&lt;p&gt;Esse método destrói as células tumorais com radiação. Uma dose de radiação é aplicada na parte do corpo onde o &lt;strong&gt; &lt;a href="https://portaledicase.com/outubro-rosa-importancia-do-autoexame-de-mama/" target="_blank" rel="noopener"&gt;tumor&lt;/a&gt; &lt;/strong&gt; está localizado e procura acabar com as células tumorais sem causar danos às células normais. Para que esses danos sejam evitados, a dose total de radiação é dividida em pequenas e diárias. &lt;/p&gt;
+&lt;p&gt;“Ela pode causar leves queixas de náuseas e níveis diferentes de epitelite ou queimadura local. Eles &lt;strong&gt; &lt;a href="https://portaledicase.com/veja-as-mudancas-na-vida-durante-o-tratamento-contra-o-cancer-de-mama/" target="_blank" rel="noopener"&gt;podem ser minimizados&lt;/a&gt; &lt;/strong&gt; usando-se compressas geladas de chá de calêndula e evitando incidência solar local”, explica o oncologista Dr. Evanius Wiermann. &lt;/p&gt;
+&lt;h2&gt; &lt;strong&gt;Tratamentos hormonioterápicos&lt;/strong&gt; &lt;/h2&gt;
+&lt;p&gt;Usa-se hormônios ou drogas bloqueadoras de hormônios para &lt;strong&gt; &lt;a href="https://portaledicase.com/outubro-rosa-entenda-como-funciona-a-cirurgia-de-reconstrucao-da-mama/" target="_blank" rel="noopener"&gt;combater o câncer&lt;/a&gt; &lt;/strong&gt; . “Podem causar sintomas similares aos de uma menopausa, que devem ser minimizados pela atividade física regular, dieta balanceada e outras medidas clínicas orientadas por profissionais da equipe multidisciplinar”, conta o Dr. Evanius Wiermann. &lt;/p&gt;
+&lt;h2&gt; &lt;strong&gt;Quimioterapia&lt;/strong&gt; &lt;/h2&gt;
+&lt;p&gt;Utiliza-se substâncias químicas para destruir, inibir, neutralizar ou controlar o crescimento das &lt;strong&gt; &lt;a href="https://portaledicase.com/outubro-rosa-veja-como-fazer-o-autoexame-de-mama/" target="_blank" rel="noopener"&gt;células tumorais&lt;/a&gt; &lt;/strong&gt; . Para que a paciente possa realizar esse tratamento, é necessário avaliar alguns fatores: &lt;/p&gt;
 &lt;ul&gt;
-&lt;li&gt; &lt;a href="https://ultimosegundo.ig.com.br/politica/2022-12-01/tebet-critica-ministerio-da-cidadania-de-bolsonaro.html" title="Tebet critica ministério de Bolsonaro: 'cidadania passou longe'" target="_self" rel="noopener"&gt;Tebet critica ministério de Bolsonaro: &amp;#8216;cidadania passou longe&amp;#8217;&lt;/a&gt; &lt;/li&gt;
-&lt;li&gt; &lt;a href="https://ultimosegundo.ig.com.br/politica/2022-12-01/recriaco-ministerio-das-cidades.html" title="Mercadante defende recriação do Ministério das Cidades" target="_self" rel="noopener"&gt;Mercadante defende recriação do Ministério das Cidades&lt;/a&gt; &lt;/li&gt;
-&lt;li&gt; &lt;a href="https://ultimosegundo.ig.com.br/colunas/panorama/2022-12-01/pl-duvida-escolha-presidente-senado.html" title="PL não entra em consenso sobre candidato à presidência do Senado" target="_self" rel="noopener"&gt;PL não entra em consenso sobre candidato à presidência do Senado&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt;A presença de doenças coexistentes; &lt;/li&gt;
+&lt;li&gt;A saúde da paciente; &lt;/li&gt;
+&lt;li&gt;A capacidade de realizar o autocuidado; &lt;/li&gt;
+&lt;li&gt;O tipo de tumor que ela possui e de sua localização no corpo. &lt;/li&gt;
 &lt;/ul&gt;
-&lt;/aside&gt;
-&lt;/div&gt;
-&lt;p class=""&gt;Neste ano, a parlamentar foi coordenadora da campanha eleitoral do futuro presidente e atualmente é uma das comandantes da equipe de transição de governo. Ela também já foi ministra-chefe da Casa Civil do primeiro governo de Dilma Rousseff (PT), entre 2011 e 2014.&lt;/p&gt;
-&lt;p&gt;Entre no  &lt;strong&gt; &lt;a href="https://t.me/iGUltimoSegundo" data-mce-href="https://t.me/iGUltimoSegundo"&gt;canal do Último Segundo no Telegram&lt;/a&gt; &lt;/strong&gt; e veja as principais notícias do dia no Brasil e no Mundo.  Siga também o  &lt;a href="https://t.me/portalig" data-mce-href="https://t.me/portalig"&gt;perfil geral do Portal iG.&lt;/a&gt; &lt;/p&gt;
-&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="https://ultimosegundo.ig.com.br/ultimosegundo.ig.com.br/politica/2022-12-01/lula-sinaliza-que-gleisi-hoffmann-nao-tera-ministerio.html#b34dfc91-1312-4036-a4d6-1432458b1c12" rel="noopener"&gt;IG Política&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;“A gama de efeitos com relação à quimioterapia é muito ampla e depende do tipo de &lt;strong&gt; &lt;a href="https://portaledicase.com/cancer-de-mama-entenda-as-causas-e-os-tratamentos/" target="_blank" rel="noopener"&gt;tratamento&lt;/a&gt; &lt;/strong&gt; instituído, mas certamente minimizáveis através de uma abordagem integrada envolvendo todas as especialidades interessadas, que vão desde a avaliação de potenciais interações medicamentosas entre as drogas que os pacientes já fazem uso e as da terapia antiblástica até medidas psicológicas, medicamentosas e nutricionais, que permitem melhor qualidade de vida durante a terapia”, explica o Dr. Evanius Wiermann. &lt;/p&gt;
+&lt;p&gt;Efeitos colaterais que a quimioterapia pode causar: &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Anemia; &lt;/li&gt;
+&lt;li&gt;Constipação; &lt;/li&gt;
+&lt;li&gt;Diarreia; &lt;/li&gt;
+&lt;li&gt;Dor; &lt;/li&gt;
+&lt;li&gt;Fadiga; &lt;/li&gt;
+&lt;li&gt;Infecção; &lt;/li&gt;
+&lt;li&gt;Infertilidade; &lt;/li&gt;
+&lt;li&gt;Mudanças de apetite/hábitos alimentares; &lt;/li&gt;
+&lt;li&gt;Mudanças na boca e garganta; &lt;/li&gt;
+&lt;li&gt;Mudança na pele e nas unhas; &lt;/li&gt;
+&lt;li&gt;Mudanças no sistema nervoso central; &lt;/li&gt;
+&lt;li&gt;Mudanças no sistema urinário; &lt;/li&gt;
+&lt;li&gt;Mudanças sexuais; &lt;/li&gt;
+&lt;li&gt;Perda de cabelo; &lt;/li&gt;
+&lt;li&gt;Sangramento; &lt;/li&gt;
+&lt;li&gt;Náusea e vômito. &lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt; &lt;strong&gt;Lembre-se:&lt;/strong&gt; apesar dos efeitos colaterais, o tratamento é importante para o combate à doença e deve ser realizado com acompanhamento médico. &lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://saude.ig.com.br/parceiros/edicase/2022-12-02/tratamentos-contra-o-cancer-de-mama--veja-como-sao-feitos-e-conheca-os-efeitos-colaterais.html#a4b3756d-a161-47e8-b583-d4d75ffde5a8" rel="noopener"&gt;IG SAÚDE&lt;/a&gt;&lt;/p&gt;
 &lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
         display: inline-block;
         margin-top: -75px;
@@ -8184,12 +7855,411 @@
 &lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
 &lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
 &lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
-&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=b34dfc91-1312-4036-a4d6-1432458b1c12"&gt;&lt;/script&gt;</t>
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=a4b3756d-a161-47e8-b583-d4d75ffde5a8"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/saude/tratamentos-contra-o-cancer-de-mama-veja-como-sao-feitos-e-conheca-os-efeitos-colaterais/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>11:16:41</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>App permite comprar presentes da gringa com preços até 50% mais baixos</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="c2ce35c5-72dc-42df-9ee5-0d5de0450f6c" class="infocoweb infocoweb_canal_66"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+&lt;div class="Noticia_Foto"&gt;
+&lt;figure class="foto-legenda"&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/e6/p5/my/e6p5my97ukw2f9p39kfza0o1r.jpg" width="906" height="509" alt="App permite comprar presentes da gringa com preços até 50% mais baratos" title="App permite comprar presentes da gringa com preços até 50% mais baratos"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Pexels&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;App permite comprar presentes da gringa com preços até 50% mais baratos&lt;/div&gt;
+&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;As vendas do Natal têm forte desempenho anual. Segundo dados do Índice Cielo do Varejo Ampliado (ICVA), no início de 2020, o e-commerce registrou aumento real de 38,6% em vendas no período natalino, em comparação ao mesmo intervalo do ano anterior. A Grabr, plataforma que possibilita a compra de produtos do exterior, pode ser uma alternativa para presentear a família e os amigos gastando menos.&lt;/p&gt;
+&lt;p&gt; &lt;strong&gt;Entre no  &lt;a href="https://t.me/iGDelas" target="_blank" rel="noopener nofollow" data-mce-href="https://t.me/iGDelas"&gt;canal do iG Delas no Telegram&lt;/a&gt; e fique por dentro de todas as notícias sobre beleza, moda, comportamento, sexo e muito mais!&lt;/strong&gt; &lt;/p&gt;
+&lt;p&gt;&amp;#8220;Temos opções para todos os gostos, inclusive itens que sequer são vendidos no Brasil e podem ser descobertos por meio da navegação em nossa plataforma. Os brasileiros estão entre os nossos usuários mais assíduos e já respondem por 87% dos pedidos da América Latina&amp;#8221;, comenta Ivan de Castro, Head de Marketing da América Latina da Grabr.&lt;/p&gt;
+&lt;div&gt;
+&lt;aside class="leiaTambem-container"&gt;
+&lt;h3&gt;Leia também&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;a href="https://delas.ig.com.br/2022-12-01/carolina-ferraz-colecao-loucas-homenagem-filha-cacula.html" title="Carolina Ferraz lança coleção de louças em homenagem à filha caçula" target="_self" rel="noopener"&gt;Carolina Ferraz lança coleção de louças em homenagem à filha caçula&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://delas.ig.com.br/parceiros/edicase/2022-12-01/conheca-as-caracteristicas-da-decoracao-oriental-de-referencia-chinesa.html" title="Conheça as características da decoração oriental de referência chinesa" target="_self" rel="noopener"&gt;Conheça as características da decoração oriental de referência chinesa&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://delas.ig.com.br/2022-12-01/estrela-do-filme--beleza-americana--fala-sobre-depressao-pos-parto.html" title='Estrela do filme "Beleza Americana" fala sobre depressão pós-parto' target="_self" rel="noopener"&gt;Estrela do filme &amp;#8220;Beleza Americana&amp;#8221; fala sobre depressão pós-parto&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/aside&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;Confira quatro opções de brinquedos famosos que podem ser encontrados no aplicativo da Grabr para o Natal:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;strong&gt;PlayStation 5:&lt;/strong&gt; no Brasil, a última versão do videogame custa em torno de R$ 4.500. Comprando pelo app, o preço cai quase pela metade: US$ 500, em torno de R$ 2.600;&lt;/li&gt;
+&lt;li&gt; &lt;strong&gt;Boneco Funko POP! Marvel:&lt;/strong&gt; o preço deste produto varia entre R$ 100 e R$ 200 no Brasil. É possível adquirir os bonecos colecionáveis da Marvel por US$ 6, o equivalente a R$ 31;&lt;/li&gt;
+&lt;li&gt; &lt;strong&gt;Casa dos sonhos da Barbie:&lt;/strong&gt; o brinquedo está em média R$ 2.000 no Brasil. É possível comprar uma das opções da casa da boneca por US$ 177, o equivalente a R$ 953;&lt;/li&gt;
+&lt;li&gt; &lt;strong&gt;Lego Star Wars:&lt;/strong&gt; a famosa coleção da Lego com tema da franquia Star Wars está custando em torno de R$ 100 no Brasil, já pelo aplicativo, sai por US$ 12, aproximadamente R$ 64.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://delas.ig.com.br/filhos/2022-12-02/aplicativo-presentes-exterior-mais-baratos.html#c2ce35c5-72dc-42df-9ee5-0d5de0450f6c" rel="noopener"&gt;IG Mulher&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=c2ce35c5-72dc-42df-9ee5-0d5de0450f6c"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/mulher/app-permite-comprar-presentes-da-gringa-com-precos-ate-50-mais-baixos/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>11:16:40</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Trabalhadora é reintegrada ao comprovar dispensa discriminatória</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="2ac4f2cc-4ce3-4403-8084-4a3aff22c3c2" class="infocoweb infocoweb_canal_34"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+&lt;div class="Noticia_Foto"&gt;
+&lt;figure class="foto-legenda"&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/5i/gf/ur/5igfurdpcrxzwrc8mibf9qxok.jpg" width="906" height="509" alt="Trabalhadora é reintegrada ao comprovar dispensa discriminatória por doença ocupacional" title="Trabalhadora é reintegrada ao comprovar dispensa discriminatória por doença ocupacional"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Lorena Amaro&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;Trabalhadora é reintegrada ao comprovar dispensa discriminatória por doença ocupacional&lt;/div&gt;
+&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;Uma auxiliar de operações da Natura conseguiu anular a dispensa ao comprovar discriminação por doença ocupacional. Ela deve ser reintegrada ao trabalho, reinserida no plano de saúde da empresa, além de receber verbas trabalhistas, salários e benefícios a que tem direito. Também será indenizada por danos materiais, recebendo pensão mensal relativa aos períodos de afastamento, e por danos morais, em R$ 35 mil.&lt;/p&gt;
+&lt;h3 class=""&gt;Entre no  &lt;a href="https://t.me/iGBrasilEconomico" target="_blank" rel="noopener nofollow" data-mce-href="https://t.me/iGBrasilEconomico"&gt;canal do Brasil Econômico no Telegram&lt;/a&gt; e fique por dentro de todas as notícias do dia. Siga também o  &lt;a href="https://t.me/portalig" target="_blank" rel="noopener nofollow" data-mce-href="https://t.me/portalig"&gt;perfil geral do Portal iG &lt;/a&gt; &lt;/h3&gt;
+&lt;p&gt;A trabalhadora, admitida em 2004 e dispensada sem justa causa em 2018, conta que atuava na montagem e arrumação de caixas em esteiras rolantes. Argumenta que chegava a empurrar caixas que entravam errado, de uma esteira para outra. Diz que, em razão de condições antiergonômicas de trabalho, foi acometida por doença ocupacional nos ombros, coluna cervical, coluna lombar, joelhos e punhos. Por isso, passou por diversos afastamentos previdenciários.&lt;/p&gt;
+&lt;p&gt;O empregador nega a doença relacionada à atividade e os riscos ergonômicos. Alega que a profissional só separa materiais e não empurra caixas, que são movimentadas por meio das esteiras automáticas. Afirma, ainda, que a mulher estava apta para o trabalho, portanto a dispensa foi lícita.&lt;/p&gt;
+&lt;p&gt;A juíza substituta Lorena de Mello Rezende Colnago, que proferiu a decisão na 17ª Vara do Trabalho de São Paulo, entende que a empregada estava capaz para o trabalho na data da dispensa, porém doente e em tratamento médico. A magistrada baseou-se em laudo pericial que atestou haver relação entre a atividade e a doença. Também levou em conta o reconhecimento pelo INSS do nexo em relação às moléstias da empregada ao deferir benefícios de auxílio-doença acidentário em alguns períodos.&lt;/p&gt;
+&lt;p&gt;&amp;#8220;Há nulidade na dispensa por ser discriminatória, uma vez que, muito embora o empregador detenha o poder potestativo de extinguir o contrato de trabalho de seus empregados (art. 7º, I, da CRFB), não deve fazê-lo em razão de doença da trabalhadora, quando ainda se encontra na recuperação&amp;#8221;, afirma a juíza na sentença.&lt;/p&gt;
+&lt;div&gt;
+&lt;aside class="leiaTambem-container"&gt;
+&lt;h3&gt;Leia também&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/petrobras-revisao-plano-estrategico-pt.html" title="PT vai revisar plano estratégico da Petrobras, diz senador" target="_self" rel="noopener"&gt;PT vai revisar plano estratégico da Petrobras, diz senador&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/revisao-da-vida-toda-do-inss-o-que-e.html" title="Revisão da Vida Toda do INSS aprovada: saiba tudo sobre a mudança" target="_self" rel="noopener"&gt;Revisão da Vida Toda do INSS aprovada: saiba tudo sobre a mudança&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/preco-diesel-tem-alta-comparacao-2021.html" title="Preço do diesel sobe 25% em um ano, aponta Ticket Log" target="_self" rel="noopener"&gt;Preço do diesel sobe 25% em um ano, aponta Ticket Log&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/aside&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;A magistrada cita, ainda, a dignidade da pessoa humana, a não discriminação e a proteção do mercado de trabalho da mulher, previstos na Constituição Federal. &amp;#8220;Todos esses princípios e garantias são violados com a dispensa de trabalhadora doente, acometida de doença ocupacional&amp;#8221;, ressalta. Segue também protocolo para julgamento com perspectiva de gênero publicado pelo Conselho Nacional de Justiça em 2021, o qual reconhece a condição especial das mulheres na estrutura social e institucional brasileira.&lt;/p&gt;
+&lt;p&gt;Cabe recurso.&lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://economia.ig.com.br/2022-12-02/trabalhadora-demissao-doenca-discriminacao.html#2ac4f2cc-4ce3-4403-8084-4a3aff22c3c2" rel="noopener"&gt;IG ECONOMIA&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=2ac4f2cc-4ce3-4403-8084-4a3aff22c3c2"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/economia/trabalhadora-e-reintegrada-ao-comprovar-dispensa-discriminatoria/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>11:16:39</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Um dia após privatização, refinaria aumenta preço do gás de cozinha</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="f533b010-63ed-4c81-9234-cf048647ae31" class="infocoweb infocoweb_canal_34"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+&lt;div class="Noticia_Foto"&gt;
+&lt;figure class="foto-legenda"&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/2h/ib/kh/2hibkh337uv4wy6mghd7nndl6.jpg" width="906" height="509" alt="Refinaria REMAN da Petrobras" title="Refinaria REMAN da Petrobras"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Redação 1Bilhão&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;Refinaria REMAN da Petrobras&lt;/div&gt;
+&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;Um dia após a conclusão da venda da Refinaria Isaac Sabbá (Refinaria de Manaus &amp;#8212; Reman), na última quarta-feira (30) o consumidor da região Norte já está pagando mais caro pelo gás de cozinha.&lt;/p&gt;
+&lt;p&gt;Desde ontem, 1/12, o produto foi reajustado pelo novo proprietário da refinaria &amp;#8212; a empresa amazonense Ream Participações S.A., do grupo Atem. O GLP teve aumento de 93 centavos por quilo. E o preço pode subir ainda mais em 2023, conforme admitiu a Atem.&lt;/p&gt;
+&lt;h3&gt;Entre no  &lt;a href="https://t.me/iGBrasilEconomico" target="_blank" rel="noopener nofollow" data-mce-href="https://t.me/iGBrasilEconomico"&gt;canal do Brasil Econômico no Telegram&lt;/a&gt; e fique por dentro de todas as notícias do dia. Siga também o  &lt;a href="https://t.me/portalig" target="_blank" rel="noopener nofollow" data-mce-href="https://t.me/portalig"&gt;perfil geral do Portal iG &lt;/a&gt; &lt;/h3&gt;
+&lt;p&gt;Em Boa Vista (Roraima), alguns revendedores já adotaram o novo preço, que chega até R＄ 135 o botijão de 13 quilos. Na semana passada, o valor médio do gás de cozinha praticado no estado nortista era de R＄ 121,03, o quinto mais caro do Brasil, segundo a ANP (Agência Nacional do Petróleo, Gás Natural e Biocombustíveis).&lt;/p&gt;
+&lt;p&gt;“A venda da Reman e seus ativos logísticos foi concluída no apagar das luzes, a 30 dias da posse do novo governo, criando mais um monopólio regional privado contra o cidadão brasileiro. A refinaria foi vendida a preço de banana por uma administração especialista em liquidação do patrimônio público”, ressaltou o coordenador-geral da Federação Única dos Petroleiros (FUP), Deyvid Bacelar.&lt;/p&gt;
+&lt;p&gt;A Reman, que abastece a região Norte, foi vendida pela Petrobrás por US＄ 257,2 milhões. A operação é questionada na Justiça pela FUP, Anapetro (Associação Nacional dos Petroleiros Acionistas Minoritários da Petrobrás) e Sindipetro (Sindicato dos Petroleiros do Estado do Amazonas). Além de ação popular, há ainda reclamação no Supremo Tribunal Federal (STF) e no Congresso Nacional. A questão foi levada também à equipe de transição do governo eleito e encaminhada ao Ministério Público do Tribunal de Contas da União (MPTCU).&lt;/p&gt;
+&lt;div&gt;
+&lt;aside class="leiaTambem-container"&gt;
+&lt;h3&gt;Leia também&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/inss-paga-aposentadoria-hoje.html" title="INSS paga aposentadorias e pensões nesta sexta; veja quem recebe" target="_self" rel="noopener"&gt;INSS paga aposentadorias e pensões nesta sexta; veja quem recebe&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/petrobras-revisao-plano-estrategico-pt.html" title="PT vai revisar plano estratégico da Petrobras, diz senador" target="_self" rel="noopener"&gt;PT vai revisar plano estratégico da Petrobras, diz senador&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://economia.ig.com.br/2022-12-02/revisao-da-vida-toda-do-inss-o-que-e.html" title="Revisão da Vida Toda do INSS aprovada: saiba tudo sobre a mudança" target="_self" rel="noopener"&gt;Revisão da Vida Toda do INSS aprovada: saiba tudo sobre a mudança&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/aside&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;O advogado Ângelo Remédio, da Advocacia Garcez &amp;#8212; que representa os petroleiros na ação &amp;#8212; explica que está em fase de julgamento ação jurídica contra a venda da refinaria, com questionamentos sobre o valor de venda e criação de monopólio regional privado, prejudiciais ao consumidor e à economia local.&lt;/p&gt;
+&lt;p&gt;Há também questionamentos por parte dos petroleiros e da sociedade civil contra isenção fiscal de PIS e Cofins, que já gerou cerca de R＄ 1,5 bilhão em economia para a Atem por não arrecadação de impostos”. A medida a favor da empresa conta com liminar desde 2017, que não foi julgada até hoje.&lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://economia.ig.com.br/2022-12-02/reman-privatizada-refinaria-preco-gas-aumento.html#f533b010-63ed-4c81-9234-cf048647ae31" rel="noopener"&gt;IG ECONOMIA&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=f533b010-63ed-4c81-9234-cf048647ae31"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/economia/um-dia-apos-privatizacao-refinaria-aumenta-preco-do-gas-de-cozinha/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10:56:46</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Novos bloqueios na BR-364 são desobstruídos pela PRF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Os dois novos pontos de bloqueios na BR-364, como parte das manifestações bolsonaristas pelo resultado das eleições deste ano, foram desobstruídos ainda na quinta-feira (1º), segundo informações da PRF (Polícia Rodoviária Federal). Os bloqueios deixavam novamente o Acre isolado por terra.&lt;/p&gt;
+&lt;p&gt;A rodovia havia sido fechada por um grupo de manifestantes que estão acampados às margens da rodovia da em Rondônia, eles pedem que as autoridades interfiram de forma a impedir a posse do presidente eleito, Luiz Inácio Lula da Silva (PT).&lt;/p&gt;
+&lt;p&gt;Correio68&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/br-364/novos-bloqueios-na-br-364-sao-desobstruidos-pela-prf/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10:46:05</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Instituto Luisa Mell realiza feira de adoção em São Paulo neste sábado</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="2775e543-92ac-4b12-81e5-a65ccaa5e374" class="infocoweb infocoweb_canal_50"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+&lt;div class="Noticia_Foto"&gt;
+&lt;figure class="foto-legenda"&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/3k/is/yf/3kisyfbxfbht5nr36y6u8gnto.jpg" width="906" height="509" alt="No dia 3 de dezembro o Instituto Luisa Mell promove nova feira de adoções de cães e gatos" title="No dia 3 de dezembro o Instituto Luisa Mell promove nova feira de adoções de cães e gatos"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Divulgação/Instituto Luisa Mell&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;No dia 3 de dezembro o Instituto Luisa Mell promove nova feira de adoções de cães e gatos&lt;/div&gt;
+&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;O  &lt;a href="https://ilm.org.br/" target="_blank" rel="noopener nofollow" data-mce-href="https://ilm.org.br/"&gt;Instituto Luisa Mell&lt;/a&gt; realizará mais um evento de adoção de cães e gatos que visa transformar a vida desses animais que foram resgatados em situações de risco ou abandono, e que hoje vivem sob os cuidados do Instituto. O evento acontece neste sábado (3), no Tatuapé, em São Paulo, das 10h às 18h, em parceria com o Shopping Anália Franco.&lt;/p&gt;
+&lt;h3&gt;Adoção responsável&lt;/h3&gt;
+&lt;p&gt;Os interessados em adotar um novo amigo precisarão atender algumas regras, como ter mais de 21 anos e apresentar documento com foto e comprovante de residência. Também passarão por uma entrevista com os responsáveis da organização, que irão instruir sobre os cuidados e procedimentos necessários.&lt;/p&gt;
+&lt;p class=""&gt;Todos os cães e gatos que participarão do evento estarão &lt;a href="https://canaldopet.ig.com.br/cuidados/saude/2019-06-05/devo-castrar-animal-de-estimacao.html" data-mce-href="https://canaldopet.ig.com.br/cuidados/saude/2019-06-05/devo-castrar-animal-de-estimacao.html"&gt;devidamente castrados&lt;/a&gt; ,  &lt;a href="https://canaldopet.ig.com.br/cuidados/saude/2020-07-23/saiba-quais-sao-as-vacinas-obrigatorias-para-caes-e-gatos.html" target="_blank" rel="noopener nofollow" data-mce-href="https://canaldopet.ig.com.br/cuidados/saude/2020-07-23/saiba-quais-sao-as-vacinas-obrigatorias-para-caes-e-gatos.html"&gt;vacinados&lt;/a&gt; e &lt;a href="https://canaldopet.ig.com.br/cuidados/saude/2022-02-28/dar-vermifugos-para-cachorros-gatos.html.ampstories" data-mce-href="https://canaldopet.ig.com.br/cuidados/saude/2022-02-28/dar-vermifugos-para-cachorros-gatos.html.ampstories" target="_blank" rel="noopener nofollow"&gt;vermifugados&lt;/a&gt; . Durante o evento, será possível adquirir produtos na loja do Instituto, que tem 100% da renda destinada ao trabalho da ONG.&lt;/p&gt;
+&lt;div class="Noticia_Embed"&gt; &lt;span class="componente-embed-noticia"&gt; &lt;/p&gt;
+&lt;blockquote class="instagram-media" data-instgrm-permalink="https://www.instagram.com/reel/CljvZ_KgSI9/?utm_source=ig_embed&amp;#038;utm_campaign=loading" data-instgrm-version="14" style="background: #FFF;border: 0;border-radius: 3px;margin: 1px;max-width: 540px;min-width: 326px;padding: 0"&gt;
+&lt;div style="padding: 16px"&gt; &lt;a href="https://www.instagram.com/reel/CljvZ_KgSI9/?utm_source=ig_embed&amp;#038;utm_campaign=loading" style="background: #FFFFFF;line-height: 0;padding: 0 0;text-align: center;text-decoration: none;width: 100%" target="_blank" rel="noopener"&gt; &lt;/p&gt;
+&lt;div style="flex-direction: row;align-items: center"&gt;
+&lt;div style="flex-direction: column;flex-grow: 1;justify-content: center"&gt;   &lt;/div&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;div style="height: 50px;margin: 0 auto 12px;width: 50px"&gt;           &lt;/div&gt;
+&lt;div style="padding-top: 8px"&gt;
+&lt;div style="color: #3897f0;font-family: Arial,sans-serif;font-size: 14px;font-style: normal;font-weight: 550;line-height: 18px"&gt;Ver essa foto no Instagram&lt;/div&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;div style="flex-direction: row;margin-bottom: 14px;align-items: center"&gt;
+&lt;div&gt;    &lt;/div&gt;
+&lt;div style="margin-left: 8px"&gt;   &lt;/div&gt;
+&lt;div style="margin-left: auto"&gt;    &lt;/div&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;div style="flex-direction: column;flex-grow: 1;justify-content: center;margin-bottom: 24px"&gt;   &lt;/div&gt;
+&lt;p&gt; &lt;/a&gt; &lt;/p&gt;
+&lt;p style="color: #c9c8cd;font-family: Arial,sans-serif;font-size: 14px;line-height: 17px;margin-bottom: 0;margin-top: 8px;overflow: hidden;padding: 8px 0 7px;text-align: center"&gt; &lt;a href="https://www.instagram.com/reel/CljvZ_KgSI9/?utm_source=ig_embed&amp;#038;utm_campaign=loading" style="color: #c9c8cd;font-family: Arial,sans-serif;font-size: 14px;font-style: normal;font-weight: normal;line-height: 17px;text-decoration: none" target="_blank" rel="noopener"&gt;Uma publicação compartilhada por Instituto Luisa Mell (@institutoluisamell)&lt;/a&gt; &lt;/p&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;/blockquote&gt;
+&lt;p&gt; &lt;/span&gt; &lt;/div&gt;
+&lt;p class=""&gt; &lt;strong&gt;Evento de adoção com o Instituto Luisa Mell     &lt;/strong&gt;  &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;strong&gt;Data:&lt;/strong&gt; Sábado &amp;#8211; 03 de dezembro&lt;/li&gt;
+&lt;li&gt; &lt;strong&gt;Horário:&lt;/strong&gt; das 10h às 18h&lt;/li&gt;
+&lt;li&gt; &lt;strong&gt;Local:&lt;/strong&gt; Estacionamento G1 interno, próximo a Alameda de Serviço &amp;#8211; Av. Reg. Feijó, 1739 &amp;#8211; Tatuapé, São Paulo&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p class=""&gt; &lt;em&gt;Para garantir que o seu pet terá toda a ajuda que precisa, você pode contar com o iG Pet Saúde. Com planos que incluem visitas de rotina, internações, cirurgias, aplicações de vacinas e muito mais. &lt;a href="https://pet.ig.com.br/" data-mce-href="https://pet.ig.com.br/"&gt;Conheça!&lt;/a&gt; &lt;/em&gt; &lt;/p&gt;
+&lt;p class=""&gt;Acompanhe o &lt;a href="https://t.me/iGPet" data-mce-href="https://t.me/iGPet"&gt;Canal do Pet&lt;/a&gt; e mais destaques do &lt;a href="https://t.me/portalig" data-mce-href="https://t.me/portalig"&gt;Portal iG no Telegram!&lt;/a&gt; &lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://canaldopet.ig.com.br/canaldopet.ig.com.br/2022-12-02/cachorros-e-gatos-para-adocao-instituto-luisa-mell.html#2775e543-92ac-4b12-81e5-a65ccaa5e374" rel="noopener"&gt;IG PET&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=2775e543-92ac-4b12-81e5-a65ccaa5e374"&gt;&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://acjornal.com/pet/instituto-luisa-mell-realiza-feira-de-adocao-em-sao-paulo-neste-sabado/</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Imagem não encontrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>10:46:05</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Covid-19: Anvisa autoriza nova fase de ensaio clínico da Butanvac</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;div id="infocoweb" data-uuid="8662fe6d-7d7b-48c1-936e-3c9a56fbe723" class="infocoweb infocoweb_canal_83"&gt;&lt;div id="infocoweb_cabecalho" class="infocoweb_cabecalho"&gt;&lt;/div&gt;&lt;div id="infocoweb_corpo" class="infocoweb_corpo"&gt;&lt;p&gt;&lt;meta name="robots" content="noindex"&gt;&lt;mreta name="googlebot" content="noindex"&gt;&lt;/p&gt;
+&lt;div class="Noticia_Foto"&gt;
+&lt;figure class="foto-legenda"&gt;
+&lt;div class="foto-legenda-img"&gt; &lt;img loading="lazy" src="https://i0.statig.com.br/bancodeimagens/br/fz/6i/brfz6id731uxt1x8p7b2cd4a6.jpg" width="906" height="509" alt="Covid-19: Anvisa autoriza nova fase de ensaio clínico da Butanvac" title="Covid-19: Anvisa autoriza nova fase de ensaio clínico da Butanvac"&gt; &lt;/div&gt;&lt;figcaption class="foto-legenda-citacao"&gt; &lt;cite&gt;Reprodução/Flickr&lt;/cite&gt; &lt;/p&gt;
+&lt;div class="foto-legenda-citacao-text"&gt;Covid-19: Anvisa autoriza nova fase de ensaio clínico da Butanvac&lt;/div&gt;
+&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;/p&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;A Agência Nacional de Vigilância Sanitária &lt;strong&gt;(Anvisa)&lt;/strong&gt; anunciou, nesta quinta-feira (1), que autorizou a segunda fase de ensaios clínicos da  &lt;a href="https://saude.ig.com.br/2022-04-27/covid-vacina-butanvac-imunizante-butantan-previsao.html" data-mce-href="https://saude.ig.com.br/2022-04-27/covid-vacina-butanvac-imunizante-butantan-previsao.html"&gt;Butanvac,&lt;/a&gt; vacina contra a &lt;strong&gt;covid-19&lt;/strong&gt; produzida pelo Instituto Butantan, em São Paulo.&lt;/p&gt;
+&lt;p class=""&gt;Nesta etapa, serão analisados a consistência de doses de reforço, a segurança do imunizante e a capacidade de &lt;strong&gt;imunização.&lt;/strong&gt; De acordo com a Anvisa, a autorização foi baseada em resultados obtidos na fase anterior dos estudos, que demonstraram perfil de segurança aceitável da vacina.&lt;/p&gt;
+&lt;p&gt;Foram analisados dados de estudos não-clínicos in vitro e em animais. Os ensaios clínicos são usados pelos laboratórios que testar novo medicamento ou &lt;strong&gt;vacina&lt;/strong&gt; de forma experimental em seres humanos.&lt;/p&gt;
+&lt;p&gt;Durante a fase clínica, os testes devem demonstrar a segurança e eficácia para saúde. Se ficar comprovado que os benefícios superam os riscos, o imunizante poderá ser registrado pela Anvisa e disponibilizado pelo mercado. &lt;/p&gt;
+&lt;p class=""&gt;A primeira fase de desenvolvimento da Butanvac foi autorizada pela Anvisa em junho de 2021, quando os primeiros voluntários passaram a ser vacinados.&lt;/p&gt;
+&lt;div&gt;
+&lt;aside class="leiaTambem-container"&gt;
+&lt;h3&gt;Leia também&lt;/h3&gt;
+&lt;ul&gt;
+&lt;li&gt; &lt;a href="https://saude.ig.com.br/2022-12-01/protestos-china-presa-politica-covid-zero.html" title="Protestos na China: como o país ficou 'preso' na política 'covid zero'" target="_self" rel="noopener"&gt;Protestos na China: como o país ficou &amp;#8216;preso&amp;#8217; na política &amp;#8216;covid zero&amp;#8217;&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://saude.ig.com.br/2022-12-01/importancia-brincar-desenvolvimento-criancas-pos-pandemia.html" title="Brincar auxilia o desenvolvimento de crianças no pós pandemia" target="_self" rel="noopener"&gt;Brincar auxilia o desenvolvimento de crianças no pós pandemia&lt;/a&gt; &lt;/li&gt;
+&lt;li&gt; &lt;a href="https://saude.ig.com.br/2022-12-01/governo-campanha-combate-aids.html" title="Ministério da Saúde lança campanha de prevenção do HIV/Aids" target="_self" rel="noopener"&gt;Ministério da Saúde lança campanha de prevenção do HIV/Aids&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;/aside&gt;
+&lt;/div&gt;
+&lt;p class=""&gt;Entre no  &lt;a href="https://t.me/iGUltimoSegundo" data-mce-href="https://t.me/iGUltimoSegundo"&gt;canal do Último Segundo no Telegram&lt;/a&gt; e veja as principais notícias do dia no Brasil e no Mundo. Siga também o  &lt;a href="https://t.me/portalig" data-mce-href="https://t.me/portalig"&gt;perfil geral do Portal iG.&lt;/a&gt; &lt;/p&gt;
+&lt;p id="infocoweb_fonte" class="infocoweb_fonte"&gt;Fonte: &lt;a target="_blank" href="http://saude.ig.com.br/2022-12-02/anvisa-autoriza-nova-fase-ensaio-clinico-butanvac.html#8662fe6d-7d7b-48c1-936e-3c9a56fbe723" rel="noopener"&gt;IG SAÚDE&lt;/a&gt;&lt;/p&gt;
+&lt;style&gt;div#mvp-post-feat-img{display:none!important;}&lt;/style&gt;&lt;style&gt;#infocoweb_cabecalho {
+        display: inline-block;
+        margin-top: -75px;
+        position: absolute;
+        right: 0;
+    }
+&lt;/style&gt;
+&lt;script async src="//www.instagram.com/embed.js"&gt;&lt;/script&gt;
+&lt;script async src="https://platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+&lt;script async src="https://www.tiktok.com/embed.js"&gt;&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;&lt;/div&gt;&lt;div id="infocoweb_rodape" class="infocoweb_rodape"&gt;&lt;/div&gt;&lt;/div&gt;&lt;script src="https://noticia.infocoweb.com.br/analytics.js?uuid=8662fe6d-7d7b-48c1-936e-3c9a56fbe723"&gt;&lt;/script&gt;</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://acjornal.com/politica-nacional/lula-sinaliza-que-gleisi-hoffmann-nao-tera-ministerio/</t>
+          <t>https://acjornal.com/saude/covid-19-anvisa-autoriza-nova-fase-de-ensaio-clinico-da-butanvac/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -9064,20 +9134,106 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:25:08</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Polícia Civil elucida homicídio em Xapuri, esposa é a principal suspeita de ser a mandante do crime</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Ascom/Polícia Civil do Acre&lt;/p&gt;
+&lt;p&gt;Na manhã desta quinta-feira 1º de dezembro de 2022, a Polícia Civil em Xapuri prendeu R.B.M., de 52 anos, ex-companheira de F.C.B, de 57 anos de idade, agricultor encontrado morto na zona rural de Xapuri com um tiro nas costas e marcas de espancamento e esganadura.&lt;/p&gt;
+&lt;p&gt;R.B.M. é acusada de ter tramado a morte do ex-companheiro em conluio com B.Q.S., de 36 anos que trabalhava como diarista para a vítima.&lt;/p&gt;
+&lt;p&gt;As prisões foram solicitadas pelo Delegado de Xapuri no Inquérito que investiga a prática do crime de homicídio qualificado mediante pagamento ou promessa de recompensa.&lt;/p&gt;
+&lt;p&gt;O crime ocorreu no dia 25 de novembro de 2022, mas o corpo só foi encontrado no dia 27 de novembro.&lt;/p&gt;
+&lt;p&gt;Segundo as investigações, R.B.M. planejou a morte e mandou B.Q.S. matar a vítima F.C.B, que teria vultuosa quantidade de dinheiro em casa e após sua morte o valor seria dividido igualmente entre a mandante e o executor.&lt;/p&gt;
+&lt;p&gt;No dia 28, segunda-feira, B.Q.S. foi preso por uma guarnição da Polícia Militar em Epitaciolândia quando chegava do local onde cometeu o crime.&lt;/p&gt;
+&lt;p&gt;O suspeito foi conduzido para a Delegacia de Polícia Civil daquele município e em seguida conduzido para a Delegacia de Polícia Civil de Xapuri, Unidade Policial que responsável pela investigação do caso, onde foi ouvido.&lt;/p&gt;
+&lt;p&gt;Após a prisão, a dupla foi transferida para o Complexo Penitenciário Francisco Oliveira em Rio Branco.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/policia-civil-elucida-homicidio-em-xapuri-esposa-e-a-principal-suspeita-de-ser-a-mandante-do-crime/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2021/11/Policia-Civil-prende-foragido-da-justica-condenado-a-12-anos-de-reclusao-em-Xapuri.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>08:22:08</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Polícia Civil apreende mais de 1kg de Maconha do tipo Skunk</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Ascom/Polícia Civil do Acre&lt;/p&gt;
+&lt;p&gt;Na tarde dessa quinta-feira, 1, a Polícia Civil do Acre, por meio da Delegacia de Repressão ao Narcotráfico – DENARC, com apoio do Núcleo de Operações com Cães &amp;#8211; NOC, apreendeu 1,5kg (um quilo e meio) de material entorpecente, maconha modificada (Skunk).&lt;/p&gt;
+&lt;div class="wp-block-image"&gt;
+&lt;figure class="aligncenter size-large"&gt;&lt;img decoding="async" loading="lazy" width="613" height="1024" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.27.49-613x1024.jpeg" alt="" class="wp-image-28387" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.27.49-613x1024.jpeg 613w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.27.49-180x300.jpeg 180w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.27.49.jpeg 766w" sizes="(max-width: 613px) 100vw, 613px" /&gt;&lt;/figure&gt;&lt;/div&gt;
+&lt;p&gt;Após o trabalho do cão policial Duke, foi possível identificar duas encomendas, quero e tinham como destino o município de Fortaleza/CE.&lt;/p&gt;
+&lt;p&gt;Durante a ação policial dois objetos foram apontados pelo trabalho de farejo do cão policial, uma panela de pressão e um cachorro de porcelana que estavam sendo despachados para o estado do Ceará.&lt;/p&gt;
+&lt;p&gt;A apreensão do entorpecente se deu em decorrência da colaboração da área de Segurança Corporativa dos Correios.&lt;/p&gt;
+&lt;p&gt;A Polícia Civil do Estado do Acre mantém canal aberto para denúncias onde o cidadão pode usar o aplicativo WHATSAPP para envio de seu relato/denúncia e/ou realizar ligação para o número (68) 99922-1111.&lt;/p&gt;
+&lt;p&gt;A Polícia Civil garante total sigilo das informações e do denunciante.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/policia-civil-apreende-mais-de-1kg-de-maconha-do-tipo-skunk/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.27.49.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>10:24:12</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Presidente em exercício da Aleac, Jenilson recebe MPAC em audiência pública para debater apoio a projetos</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9094,34 +9250,34 @@
 </t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/presidente-em-exercicio-da-aleac-jenilson-recebe-mpac-em-audiencia-publica-para-debater-apoio-a-projetos/</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-11-30-at-14.19.59.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>10:14:11</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Prefeitura encerra Novembro Azul no Centro do Idoso</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9138,34 +9294,34 @@
 </t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/prefeitura-encerra-novembro-azul-no-centro-do-idoso/</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-10.01.21.jpeg</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>10:02:06</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Saúde alerta para aumento de casos de meningite no Acre</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9185,34 +9341,34 @@
 </t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/saude-alerta-para-aumento-de-casos-de-meningite-no-acre/</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2020/03/sesacre-secretaria-de-estado-de-saude-do-acre.png</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>08:11:50</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>Polícia Civil prende homem por descumprimento de medida protetiva e ameças</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;Ascom/Polícia Civil do Acre&lt;/p&gt;
@@ -9222,34 +9378,34 @@
 </t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/policia-civil-prende-homem-por-descumprimento-de-medida-protetiva-e-amecas/</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2018/10/concurso-policia-civil-acre-2017.jpg</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>08:10:23</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Polícia Civil prende, em flagrante, duas pessoas por tráfico de drogas e apreende 14 mil reais</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9262,34 +9418,34 @@
 </t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/policia-civil-prende-em-flagrante-duas-pessoas-por-trafico-de-drogas-e-apreende-14-mil-reais/</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2021/02/Screenshot_2021-02-11-Policia-prende-jovem-com-drogas-dentro-de-taxi-na-BR-364.png</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>02:46:11</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Vanda Milani recebe o prêmio de melhor parlamentar federal do Acre da atual legislatura</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9304,34 +9460,34 @@
 </t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/vanda-milani-recebe-o-premio-de-melhor-parlamentar-federal-do-acre-da-atual-legislatura/</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-7.png</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>02:43:48</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Denúncia anônima leva PM a desarticular ponto de venda de drogas em Tarauacá</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9345,34 +9501,34 @@
 &lt;figure class="aligncenter"&gt;&lt;img decoding="async" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-14.03.24.jpeg?resize=740%2C987&amp;amp;ssl=1" alt="" class="wp-image-285362"/&gt;&lt;/figure&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/denuncia-anonima-leva-pm-a-desarticular-ponto-de-venda-de-drogas-em-tarauaca/</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-6.png</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>02:40:59</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>MPF entra com ação contra o Governo Federal para recuperação da BR-317</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9393,135 +9549,287 @@
 </t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/mpf-entra-com-acao-contra-o-governo-federal-para-recuperacao-da-br-317/</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-5.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>02:32:42</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Programa Caminhos da Educação do Campo beneficia crianças da zona rural em Brasiléia</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="768" height="576" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-4.png" alt="" class="wp-image-28359" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-4.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-4-300x225.png 300w" sizes="(max-width: 768px) 100vw, 768px" /&gt;&lt;/figure&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;h6&gt;Verônica Rodrigues- SECOM&lt;/h6&gt;
-&lt;p&gt;Prefeitura de Brasiléia através da secretaria municipal de Educação leva educação infantil às crianças de 04 a 05 anos, que vivem em áreas de difícil acesso, por meio do programa Caminhos da Educação do Campo-Primeira Infância.&lt;/p&gt;
-&lt;p&gt;O programa é uma parceria do Governo do Estado do Acre, através do Departamento de Educação do Campo, em parceria com a UNDIME e a Prefeitura Municipal de Brasiléia.&lt;/p&gt;
-&lt;p&gt;O programa atende 110 crianças com 11 agentes. A meta para 2023 é atender 200 crianças com a contratação de mais 9 educadores, como explica a coordenadora do programa Adriana Moura.&lt;br&gt;“Aderimos ao programa em 2021, para atendimento às crianças de 04 a 05 anos de idade na zona rural, principalmente nas comunidades de difícil acesso. Brasiléia atende 110 crianças com educação infantil de casa em casa, em 2023, pretendemos ampliar para 200 o número de crianças atendidas pelo programa”, explicou.&lt;/p&gt;
-&lt;div class="wp-block-image"&gt;
-&lt;figure class="aligncenter"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.47-1.jpeg?resize=740%2C740&amp;amp;ssl=1" alt="" class="wp-image-285306"/&gt;&lt;/figure&gt;&lt;/div&gt;
-&lt;p&gt;A agente educacional, Karine Costa de Araújo, atende 11 crianças do ramal da Aurora, km 75, a mesma destaca o contentamento em levar educação aos lares de cada criança nessa modalidade de ensino. “É muito gratificante realizar esse trabalho com as crianças que moram nas comunidades de difícil acesso. Elas estão se desenvolvendo bem, é uma alegria no dia que chegamos em suas casas, as famílias nos recebem com muito carinho e amor”, disse.&lt;/p&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.49.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.49.jpeg?w=181&amp;amp;h=241&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.49" title="WhatsApp Image 2022-11-30 at 08.33.49"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.48.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.48.jpeg?w=181&amp;amp;h=241&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.48" title="WhatsApp Image 2022-11-30 at 08.33.48"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.48-1.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.48-1.jpeg?w=181&amp;amp;h=241&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.48 (1)" title="WhatsApp Image 2022-11-30 at 08.33.48 (1)"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.47.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.47.jpeg?w=181&amp;amp;h=241&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.47" title="WhatsApp Image 2022-11-30 at 08.33.47"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.47-1.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.47-1.jpeg?w=315&amp;amp;h=315&amp;amp;crop=1&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.47 (1)" title="WhatsApp Image 2022-11-30 at 08.33.47 (1)"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.46.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.46.jpeg?w=177&amp;amp;h=315&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.46" title="WhatsApp Image 2022-11-30 at 08.33.46"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.46-1.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.46-1.jpeg?w=236&amp;amp;h=315&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.46 (1)" title="WhatsApp Image 2022-11-30 at 08.33.46 (1)"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.45-2.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i1.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.45-2.jpeg?w=284&amp;amp;h=213&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.45" title="WhatsApp Image 2022-11-30 at 08.33.45"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.45-1.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.45-1.jpeg?w=120&amp;amp;h=213&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.45 (1)" title="WhatsApp Image 2022-11-30 at 08.33.45 (1)"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.44.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i2.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.44.jpeg?w=160&amp;amp;h=213&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.44" title="WhatsApp Image 2022-11-30 at 08.33.44"/&gt;&lt;/a&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image"&gt;&lt;a href="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.44-1.jpeg?ssl=1"&gt;&lt;img decoding="async" src="https://i0.wp.com/oaltoacre.com/wp-content/uploads/2022/11/WhatsApp-Image-2022-11-30-at-08.33.44-1.jpeg?w=160&amp;amp;h=213&amp;amp;ssl=1" alt="WhatsApp Image 2022-11-30 at 08.33.44 (1)" title="WhatsApp Image 2022-11-30 at 08.33.44 (1)"/&gt;&lt;/a&gt;&lt;/figure&gt;
-</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://www.noticiasdafronteira.com.br/programa-caminhos-da-educacao-do-campo-beneficia-criancas-da-zona-rural-em-brasileia/</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-4.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>02:23:45</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Jorge Viana avalia trabalhos da transição durante entrevista à Globo News</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="671" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1-1024x671.png" alt="" class="wp-image-28353" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1-1024x671.png 1024w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1-300x197.png 300w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1-768x503.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1.png 1280w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Coordenador do Grupo de Trabalho do Meio Ambiente, o ex-senador Jorge Viana (PT), concedeu entrevista à Globo News na tarde desta quarta-feira, 30, para falar sobre o andamento dos trabalhos do grupo que está coordenando em Brasília, composto também pelos ex-ministros do Meio Ambiente, Marina Silva, Izabella Teixeira e Carlos Minc.&lt;br&gt;Jorge Viana informou que o grupo está fechando a primeira versão, do primeiro relatório para entregar na coordenação-geral da equipe de transição.&lt;/p&gt;
-&lt;p&gt;“O presidente Lula assumiu dois grandes compromissos. Um é uma questão de vida para ele, que é auxiliar às famílias carentes, enfrentar o problema da fome. E o outro, também lida com vida, inclusive do planeta, que ele assumiu internacionalmente de enfrentar o desmatamento, a questão do clima e empoderar o enfrentamento dessa agenda no novo governo”.&lt;/p&gt;
-&lt;p&gt;Viana falou do desafio que de coordenar o grupo de transição do Meio Ambiente. Segundo ele, é uma missão com desafio enorme. “Mas, não é tão complexa porque temos aqui um grupo muito qualificado que está nos auxiliando, mesmo tendo dificuldades para adquirir dados do atual governo”, destacou.&lt;/p&gt;
-&lt;p&gt;O ex-senador pontuou ainda que enfrentar o desmatamento é talvez a ação mais importante que o governo do presidente Lula precisará fazer a partir de janeiro de 2023. “Mas, nós vamos montar uma estratégia de enfrentar. Já em janeiro acredito que tem condição de algumas ações fortes serem implementadas”, assegurou.&lt;/p&gt;
-&lt;p&gt;Jorge Viana revelou que há registraram 60 garimpos ilegais dentro das áreas indígenas. Em sete delas, ele informou que a situação é gravíssima. “Então, temos desmatamento em unidades de conservação, não cabe isso, dentro de áreas da União. Têm ações que certamente da para começar já no primeiro dia e dar uma satisfação para a sociedade”, frisou.&lt;/p&gt;
-&lt;p&gt;O coordenador acrescentou ainda que tem um novo arco do desmatamento na divisa do Acre, Rondônia e sul do Amazonas. E, ressaltou que há ainda déficit de 2.130 servidores devido ao desmonte que o governo de Bolsonaro promoveu na área ambiental.&lt;/p&gt;
-&lt;p&gt;“O presidente Lula vai trazer, certamente, nos primeiros dias de governo, o Fundo Amazônia de volta. São R$ 3 bilhões que vão auxiliar no enfrentamento ao desmatamento. Temos que ter uma recomposição orçamentária, mas o mais importante é revogar medidas que abriram a porteira para o desmatamento ilegal”, avalia.&lt;/p&gt;
-&lt;p&gt;Jorge Viana disse ainda que o Brasil está enfrentando é um desmatamento ilegal num patamar muito elevado. “Esse governo ficou quatro anos com crescimento de desmatamento. É uma necessidade o enfretamento dessa situação, inclusive para quem cria, para quem produz. Porque está dando insegurança jurídica para quem trabalha e produz. Os recursos precisam ser garantidos para o novo governo, por isso nós vamos apresentar um item importante que é a reforma orçamentária funcional e uma decisão política que já foi tomada  pelo presidente Lula de enfrentar o desmatamento. Mudar essa agenda e fazer com que o Brasil possa cumprir seus compromissos de redução de emissões e o Acordo do Clima de Paris”, finalizou.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="641" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-2-1024x641.png" alt="" class="wp-image-28354" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-2-1024x641.png 1024w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-2-300x188.png 300w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-2-768x480.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-2.png 1279w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
-&lt;figure class="wp-block-image size-large"&gt;&lt;img decoding="async" loading="lazy" width="1024" height="585" src="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-3-1024x585.png" alt="" class="wp-image-28355" srcset="https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-3-1024x585.png 1024w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-3-300x171.png 300w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-3-768x439.png 768w, https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-3.png 1367w" sizes="(max-width: 1024px) 100vw, 1024px" /&gt;&lt;/figure&gt;
-</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://www.noticiasdafronteira.com.br/jorge-viana-avalia-trabalhos-da-transicao-durante-entrevista-a-globo-news/</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>https://www.noticiasdafronteira.com.br/wp-content/uploads/2022/12/image-1.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>09:21:21</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Em Cruzeiro do Sul, polícia recupera veículo de mototáxista roubado por monitorado da justiça</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A Polícia Militar, através do Grupamento de Rondas Ostentivas e Tático Móvel &amp;#8211; ROTAM da Companhia de Policiamento Especializado do 6° Batalhão, recuperou uma motocicleta Honda/CG 150 FAN ESI, Placa NAA8625 De cor Branca que havia sido roubada no Bairro Formoso, na cidade de Cruzeiro do Sul. &lt;/p&gt;
+&lt;p&gt;Após o conhecimento da equipe policial militar da ocorrência do roubo na cidade de Cruzeiro do Sul iniciaram as rondas voltadas em recuperar o bem subtraído. &lt;/p&gt;
+&lt;p&gt;Quando em patrulhamento na Vila Assis Brasil visualizaram o veículo realizaram a abordagem policial. No local, foram apreendido um adolescente e um adulto foi preso sob a tipificação de Receptação, pois ambos afirmaram que haviam recebido o veículo oriundo de roubo de outra pessoa. &lt;/p&gt;
+&lt;p&gt;A motocicleta foi restituída ao proprietário e os envolvidos foram conduzidos para a Delegacia de Polícia Civil para os demais atos legais.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/em-cruzeiro-do-sul-policia-recupera-veiculo-de-mototaxista-roubado-por-monitorado-da-justica/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/MOTO-1.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>08:49:46</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Inmet alerta para possibilidade de temporais no Acre</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;O Instituto Nacional de Meteorologia (Inmet) alertou para tempestades na sexta-feira (2) e sábado (3). Os dois alertas, um amarelo e outro laranja, foram divulgados nesta sexta. São esperadas chuvas entre 30 e 60 mm/h ou 50 e 100 mm/dia, ventos intensos (60-100 km/h). Há risco de corte de energia elétrica, queda de galhos de árvores, alagamentos e de descargas elétricas.&lt;/p&gt;
+&lt;p&gt;Os avisos são para todas as regiões do estado.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Instruções:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Em caso de rajadas de vento: (não se abrigue debaixo de árvores, pois há risco de queda e descargas elétricas e não estacione veículos próximos a torres de transmissão e placas de propaganda)&lt;/li&gt;
+&lt;li&gt;Se possível, desligue aparelhos elétricos e quadro geral de energia.&lt;/li&gt;
+&lt;li&gt;Obtenha mais informações junto à Defesa Civil (telefone 199) e ao Corpo de Bombeiros (telefone 193).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;&lt;sub&gt;Com informações Instituto Nacional de Meteorologia&lt;/sub&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/inmet-alerta-para-possibilidade-de-temporais-no-acre/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-40.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08:31:17</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Saúde alerta para aumento de casos de meningite no Acre</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. No Acre, as taxas de cobertura vacinal contra a enfermidade, principalmente nas modalidades meningocócicas, estão abaixo das recomendadas pelo Ministério da Saúde (MS).&lt;/p&gt;
+&lt;p&gt;Segundo dados da Secretaria de Saúde (Sesacre), de janeiro até o dia 1º de dezembro foram notificados 67 casos suspeitos da doença com 13 casos confirmados. Entre os óbitos, 1 foi por meningite fúngica e três por meningite viral. A taxa de letalidade encontra-se em 30,7%, representado um aumento de 19,6% em relação a 2021.&lt;/p&gt;
+&lt;p&gt;O MS registrou, até o fim de outubro, 5.821 casos e 702 óbitos por meningites de diferentes etiologias – causas – no Brasil. O motivo do avanço é a queda do índice de vacinação no país, principal meio de prevenção, chegando a combater 90% das formas mais graves da doença.&lt;/p&gt;
+&lt;p&gt;As vacinas contra a meningite bacteriana são consideradas as medidas mais eficazes e seguras para evitar quadros mais graves da doença, que produzem sequelas como amputações, surdez, cicatrizes ou morte. “Uma vez que as crianças e adolescentes deixem de receber a vacina, o agente causador da doença começa a circular, aumentando a sua incidência”, explica Daíla Timbó, responsável pelo Centro de Referências para Imunobiológicos Especiais (Crie) da Sesacre.&lt;/p&gt;
+&lt;p&gt;Existem imunizantes que protegem contra todos os tipos da doença bacteriana, meningite A, C, W, Y e B. A vacina disponível na rede pública protege contra o tipo C da doença e é ofertada ao público prioritário: crianças menores de cinco anos de idade, adolescentes de 11 e 12 anos e pessoas com comorbidade. A cobertura para a vacina meningocócica C (conjugada) no ano de 2021 foi de 69,81% em crianças. Já de janeiro a setembro de 2022, encontra-se em 67,83%, quando o preconizado pelo MS é 95%.&lt;/p&gt;
+&lt;p&gt;“Lembramos ainda que não existe vacina contra outros microrganismos causadores de meningites como os fungos, vírus, protozoários e helmintos [vermes parasitas]”, acrescenta Daíla Timbó.&lt;/p&gt;
+&lt;figure class="wp-block-image" id="attachment_585438"&gt;&lt;a href="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1.jpg"&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/Acao-de-vacinacao-na-OCA.-Foto-Odair-Leal-5-scaled-1-1024x684.jpg?resize=1024%2C684" alt="" class="wp-image-585438" data-recalc-dims="1"/&gt;&lt;/a&gt;&lt;figcaption class="wp-element-caption"&gt;Vacinação é a principal forma de prevenir a meningite, que pode levar à morte em até 24 horas ou deixar sequelas graves. Foto: Odair Leal/Sesacre&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;O que é a meningite?&lt;/h4&gt;
+&lt;p&gt;A meningite é uma doença grave, que pode levar à morte em até 24 horas. Trata-se de uma inflamação das meninges – membranas que recobrem o cérebro e a medula espinhal. É preciso agir rapidamente desde o início dos primeiros sintomas, pois a patologia pode deixar sequelas consideráveis, como amputações, perda da audição e convulsões.&lt;/p&gt;
+&lt;h4&gt;Sintomas e tratamento&lt;/h4&gt;
+&lt;p&gt;A intensidade dos sinais pode variar de acordo com o agente infeccioso. Segundo a Biblioteca Virtual em Saúde do MS, as meningites provocadas por vírus costumam ser mais brandas, e os sintomas são parecidos com os de gripes e resfriados.&lt;/p&gt;
+&lt;p&gt;Entre os sinais da forma viral estão dor de cabeça, febre, um pouco de rigidez da nuca, falta de apetite e irritação. O vírus pode ser transmitido pelo contato com a saliva e a secreção respiratória ou por meio de alimentos contaminados e água.&lt;/p&gt;
+&lt;p&gt;Já as meningites bacterianas são mais graves, e os sintomas aparecem em pouco tempo, incluindo mal-estar, febre alta, vômitos, dor de cabeça forte e no pescoço, dificuldade para encostar o queixo no peito e manchas vermelhas no corpo. A transmissão ocorre por meio de secreções eliminadas pelo trato respiratório, como espirro ou tosse.&lt;/p&gt;
+&lt;p&gt;O tratamento da meningite é feito conforme o agente causador da infecção. De modo geral, a abordagem precisa ter início o quanto antes, para aumentar as chances de evitar o desenvolvimento de lesões que podem deixar sequelas permanentes ou, até mesmo, levar à morte.&lt;/p&gt;
+&lt;p&gt;Não há tratamento para combater o tipo viral, que se resolve sozinho, podendo ser utilizada medicação para aliviar os sintomas, como dor e febre.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Agência Acre.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/saude-alerta-para-aumento-de-casos-de-meningite-no-acre/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/MENING.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>08:30:36</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Centro Cultural do Juruá é revitalizado; prédio público em alvenaria é o mais antigo do Estado</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;A gestão da Desembargadora Waldirene Cordeiro, atual presidente do Tribunal de Justiça do Estado do Acre, se notabilizou, também, pela reforma de fóruns nas comarcas e dos espaços culturais, em Rio Branco (Palácio da Justiça) e Cruzeiro do Sul (Centro Cultural do Juruá).&lt;/p&gt;
+&lt;p&gt;A reforma do centro cultural do Juruá, nesta Comarca, se fez em parceria com o governo do Acre, através da SEINFRA (revitalização do prédio) e a prefeitura Municipal de Cruzeiro do Sul (melhoramentos no entorno, com construção de um estacionamento na praça João Pessoa, na frente do prédio do Centro Cultural).&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="576" height="324" src="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48.jpeg?resize=576%2C324&amp;#038;ssl=1" alt="" class="wp-image-105014" srcset="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48.jpeg?w=576&amp;amp;ssl=1 576w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48.jpeg?resize=300%2C169&amp;amp;ssl=1 300w" sizes="(max-width: 576px) 100vw, 576px" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;A obra iniciou em setembro e foram realizados serviços com intervenções na cobertura, parte elétrica, pintura, hidráulica, calçadas e acesso à pessoa portadora de deficiência, garantindo acessibilidade e inclusão.&lt;/p&gt;
+&lt;p&gt;O Centro Cultural do Juruá é um edifício histórico do Acre. Começou a ser erguido em 1907 e foi inaugurado em 1909. Serviu como sede da prefeitura de Cruzeiro do Sul, que se chamava Intendência do Alto Juruá. Ainda em 1909, a sede da prefeitura foi para outro edifício da cidade, e o prédio ficou sob a guarda do Poder Judiciário, até os dias atuais.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="576" height="324" src="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48-1.jpeg?resize=576%2C324&amp;#038;ssl=1" alt="" class="wp-image-105015" srcset="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48-1.jpeg?w=576&amp;amp;ssl=1 576w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.48-1.jpeg?resize=300%2C169&amp;amp;ssl=1 300w" sizes="(max-width: 576px) 100vw, 576px" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;Lá funcionou o Tribunal de Apelação de Cruzeiro do Sul (1912 a 1915), unidades do Judiciário por décadas, até que em 23 de janeiro de 2003, virou um centro de cultura e museu, que funciona até os dias atuais, com um acervo que retrata a evolução do poder judiciário e a própria história da cidade de Cruzeiro do Sul.&lt;/p&gt;
+&lt;p&gt;O funcionamento se dá das 7h às 14h, e no local ocorre, ainda, palestras, simulação de júri com estudantes e outras programações culturais. Recebe centenas de estudantes, turistas de outros estados do Brasil e até, de vários países (estrangeiros), sob a direção de Narcelio Flávio Generoso, técnico do TJAC, escritor e historiador.&lt;/p&gt;
+&lt;figure class="wp-block-image size-full"&gt;&lt;img decoding="async" loading="lazy" width="578" height="327" src="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.49-1.jpeg?resize=578%2C327&amp;#038;ssl=1" alt="" class="wp-image-105016" srcset="https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.49-1.jpeg?w=578&amp;amp;ssl=1 578w, https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-02-at-01.01.49-1.jpeg?resize=300%2C170&amp;amp;ssl=1 300w" sizes="(max-width: 578px) 100vw, 578px" data-recalc-dims="1" /&gt;&lt;/figure&gt;
+&lt;p&gt;&lt;em&gt;&lt;sub&gt;Com informações Assessoria&lt;/sub&gt;&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/centro-cultural-do-jurua-e-revitalizado-predio-publico-em-alvenaria-e-o-mais-antigo-do-estado/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-38.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>07:58:53</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Derrame de dinheiro falso preocupa comerciantes no interior do Acre; polícia investiga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Os comerciantes de Sena Madureira precisam ficar atentos para um provável derrame de notas falsas que vem ocorrendo recentemente. Somente nesta semana, segundo relatos, foram repassadas três notas falsas na compra de medicamentos em uma drogaria da cidade.&lt;/p&gt;
+&lt;p&gt;Os servidores só deram definição do golpe no final do dia quando foram contabilizar o dinheiro apurado.&lt;/p&gt;
+&lt;p&gt;“A maior incidência é com relação a nota de R$ 200. É importante que os comerciantes redobrem os cuidados”, comentou o funcionário.&lt;/p&gt;
+&lt;p&gt;Nesse caso específico, o prejuízo para a drogaria foi consumado, já que o infrator, responsável pelo repasse do dinheiro inválido, não foi identificado.&lt;/p&gt;
+&lt;p&gt;A Polícia Civil de Sena Madureira está investigando tal prática e pode prender os falsários a qualquer momento. &lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Com informações Contilnet.&lt;/em&gt;&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/derrame-de-dinheiro-falso-preocupa-comerciantes-no-interior-do-acre-policia-investiga/</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/New-Project-6.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07:37:05</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sexta-feira (2) com tempo instável, chuvas intensas e temperatura amena no Acre</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&lt;p&gt;Leste e sul do estado (microrregiões de Rio Branco, Brasileia e Sena Madureira): a chegada de uma fraca onda polar e a incursão de muita umidade do oceano Atlântico deixam o tempo extremamente instável, com muitas nuvens e chuvas a qualquer momento, desde as primeiras horas do dia. Alta probabilidade de chuvas fortes, que podem ser acompanhadas de raios e ventanias. Os ventos sopram, entre fracos e calmos, com rajadas, da direção sudeste e variações do sul e de sudoeste.&lt;/p&gt;
+&lt;p&gt;Centro e oeste do estado (microrregiões de Cruzeiro do Sul e Tarauacá): tempo quente, mas instável, com sol e nuvens. Ocorrem chuvas, em geral, passageiras e pontuais, mas que podem ser fortes e acompanhadas de raios. Os ventos sopram, entre fracos e calmos, com rajadas, da direção sudeste e variações de leste e do sul.&lt;/p&gt;
+&lt;p&gt;Temperaturas para esta sexta-feira (2):&lt;/p&gt;
+&lt;p&gt;– Rio Branco, Senador Guiomard, Bujari e Porto Acre, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 24 e 26ºC;&lt;/p&gt;
+&lt;p&gt;– Brasileia, Epitaciolândia, Xapuri, Capixaba, Assis Brasil e Santa Rosa do Purus, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 23 e 25ºC;&lt;/p&gt;
+&lt;p&gt;– Plácido de Castro e Acrelândia, com mínimas oscilando entre 20 e 22ºC, e máximas, entre 24 e 26ºC;&lt;/p&gt;
+&lt;p&gt;– Sena Madureira e Manuel Urbano, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 25 e 27ºC;&lt;/p&gt;
+&lt;p&gt;– Tarauacá e Feijó, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 27 e 29ºC;&lt;/p&gt;
+&lt;p&gt;– Cruzeiro do Sul, Mâncio Lima e Rodrigues Alves, com mínimas oscilando entre 22 e 24ºC, e máximas, entre 29 e 31ºC;&lt;/p&gt;
+&lt;p&gt;– Marechal Thaumaturgo, Porto Walter e Jordão, com mínimas oscilando entre 21 e 23ºC, e máximas, entre 28 e 30ºC.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.juruaonline.com.br/sexta-feira-2-com-tempo-instavel-chuvas-intensas-e-temperatura-amena-no-acre/</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/10/TEMPO-14.jpg?fit=1080%2C600&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>21:00:55</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Lula decide não dar ministério a Gleisi, que segue no comando do PT</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9537,34 +9845,34 @@
 </t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>https://www.juruaonline.com.br/lula-decide-nao-dar-ministerio-a-gleisi-que-segue-no-comando-do-pt/</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T205810.293.jpg?fit=1080%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>20:46:08</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Rússia diz que está aberta a possíveis negociações sobre guerra na Ucrânia</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9594,34 +9902,34 @@
 </t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>https://www.juruaonline.com.br/russia-diz-que-esta-aberta-a-possiveis-negociacoes-sobre-guerra-na-ucrania/</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T204453.568.jpg?fit=1080%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>20:31:53</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>Economia brasileira avança 0,4% no 3º trimestre de 2022, mostra IBGE</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9643,34 +9951,34 @@
 </t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>https://www.juruaonline.com.br/economia-brasileira-avanca-04-no-3o-trimestre-de-2022-mostra-ibge/</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T203107.793.jpg?fit=1080%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>20:11:27</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Adolescente de 12 anos morre após ser atingida por raio enquanto lavava louça no AM</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;p&gt;&lt;/p&gt;
@@ -9685,772 +9993,462 @@
 </t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>https://www.juruaonline.com.br/adolescente-de-12-anos-morre-apos-ser-atingida-por-raio-enquanto-lavava-louca-no-am/</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T201037.519.jpg?fit=1080%2C600&amp;ssl=1</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>19:56:10</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Condenado à morte sobrevive a 18 tentativas de injeção letal</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Condenado à pena de morte por assassinato, o norte-americano Alan Eugene Miller surpreendeu seus executores ao sobreviver a ao menos 18 tentativas de injeção letal. De acordo com o Daily Star, o homem será submetido a um método de execução inédito no estado do Alabama que envolve a utilização de gás nitrogênio.&lt;/p&gt;
-&lt;p&gt;Alan foi condenado ao corredor da morte após matar a tiros três pessoas em seu local de trabalho, na cidade de Birmingham.&lt;/p&gt;
-&lt;p&gt;As tentativas fracassadas de execução ocorreram no dia 22 de setembro deste ano. Na ocasião, a equipe médica não conseguiu encontrar uma veia para injetar o líquido letal no detento. Segundo os advogados de Alan, ele se contorcia de dor e angústia durante o processo.&lt;/p&gt;
-&lt;p&gt;– O senhor Miller podia sentir suas veias sendo empurradas dentro de seu corpo por agulhas. Nauseado, desorientado, confuso e com medo de saber se ele estava prestes a ser morto… sangue estava vazando de alguns de seus ferimentos – descreveu a defesa.&lt;/p&gt;
-&lt;p&gt;Após os advogados entrarem com uma ação federal na Justiça, o estado do Alabama decidiu que Alan não será submetido a uma nova tentativa de injeção letal. Em vez disso, o preso será executado via hipóxia de nitrogênio, um método considerado mais humanizado, mas que ainda não foi utilizado no estado.&lt;/p&gt;
-&lt;p&gt;Nesse caso, o preso é forçado a respirar gás nitrogênio puro por meio de uma máscara, o que reduz fatalmente os níveis de oxigênio no sangue.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Via Pleno News&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/condenado-a-morte-sobrevive-a-18-tentativas-de-injecao-letal/</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T195545.483.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>19:35:37</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Gladson, Alan Rick, deputados federais e estaduais serão diplomados dia 15</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;O TRE (Tribunal Regional Eleitoral) marcou para o dia 15 de novembro a diplomação do governador reeleito Gladson Cameli (PP) e de sua futura vice, a senadora Mailza Gomes (PP).&lt;/p&gt;
-&lt;p&gt;A cerimônia ocorrerá às 10h no plenário do TRE, localizado no Portal da Amazônia, na capital acreana. Além do governador e da vice, serão diplomados também o senador eleito Alan Rick (União Brasil) e os deputados federais e estaduais.&lt;/p&gt;
-&lt;p&gt;A diplomação é o ato pelo qual a Justiça Eleitoral atesta que o candidato ou a candidata foi efetivamente eleito ou eleita pelo povo e, por isso, está apto ou apta a tomar posse no cargo.&lt;/p&gt;
-&lt;p&gt;Já a diplomação do presidente eleito Luiz Inácio Lula da Silva (PT) ocorrerá no dia 12.&lt;/p&gt;
-&lt;p&gt;Nessa ocasião, ocorre a entrega dos diplomas, que são assinados, conforme o caso, pelo presidente do tribunal eleitoral competente.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Com informações O Alto Acre&lt;/em&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/gladson-alan-rick-deputados-federais-e-estaduais-serao-diplomados-dia-15/</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T193422.115.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>19:01:38</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Após pressão, governo desbloqueia cerca de R$ 350 milhões das universidades e institutos federais</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;O governo federal voltou atrás, nesta quinta-feira (1º), e desbloqueou cerca de R$ 350 milhões das universidades e institutos federais, conforme fontes da das instituições de ensino.&lt;/p&gt;
-&lt;p&gt;Na última segunda-feira (28), o Ministério da Educação (MEC) havia anunciado o corte temporário depois de o Ministério da Economia bloquear pouco mais de R$ 1,4 bilhão da pasta.&lt;/p&gt;
-&lt;p&gt;Após o bloqueio, as universidades federais afirmaram que seria impossível manter muitas das unidades de ensino de portas abertas, porque faltaria verba até mesmo para a manutenção predial e o pagamento de contas básicas, como água e luz.&lt;/p&gt;
-&lt;p&gt;Segundo interlocutores do MEC, nos institutos federais os cortes poderiam atingir assistência estudantil e a manutenção básica das salas de aulas. Com o anúncio do bloqueio da verba, a pressão nas redes sociais em cima da pasta foi grande. O que teria levado o Ministério da Educação a voltar atrás nesta quinta.&lt;/p&gt;
-&lt;p&gt;Após o desbloqueio, também nas redes sociais, a Associação Nacional dos Dirigentes das Instituições Federais de Ensino Superior (Andifes) comemorou a decisão, mas disse que “seguirá atenta aos riscos de novos cortes e bloqueios e manterá o diálogo com todos os atores necessários para a construção de orçamento e políticas necessárias para a manutenção e o justo financiamento do ensino superior público”.&lt;/p&gt;
-&lt;p&gt;Ainda não há informações se o outro R$ 1 bilhão será desbloqueado pelo MEC nem se o que foi liberado para as universidades e institutos terão de ser cortados em outros locais. Procurado pela CNN Brasil, o ministério ainda não respondeu aos questionamentos da reportagem.&lt;/p&gt;
-&lt;h2&gt;Entenda&lt;/h2&gt;
-&lt;p&gt;No fim de novembro, o governo federal informou que iria bloquear R$ 5,7 bilhões de gastos não obrigatórios do Orçamento Geral da União de 2022 de todas as áreas.&lt;/p&gt;
-&lt;p&gt;De acordo com o Ministério da Economia, o contingenciamento se deu para que o governo pudesse pagar R$ 2,3 bilhões a mais da Previdência Social e depois da suspensão da medida provisória que adiava para 2023 o repasse de R$ 3,8 bilhões de ajudas para o setor cultural da Lei Aldir Blanc.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Por CNN Brasil&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/apos-pressao-governo-desbloqueia-cerca-de-r-350-milhoes-das-universidades-e-institutos-federais/</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T190032.258.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>18:42:19</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>No Acre, médicos entram em greve a partir do dia 12 de dezembro</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Os médicos do Instituto de Gestão de Saúde do Acre (Igesac) decidiram entrar em greve por tempo indeterminado, a partir do dia 12. A votação ocorreu durante a assembleia geral extraordinária (AGE) realizada na noite de quarta-feira, 30, quando a classe verificou que não existiram avanços nas negociações com a gestão.&lt;/p&gt;
-&lt;p&gt;Segundo o presidente do Sindicato dos Médicos do Acre (Sindmed-AC), Guilherme Pulici, a luta é pela isonomia. Os profissionais reivindicam os mesmos direitos que as outras categorias da saúde contratadas pelo antigo Pró-Saúde, atual Igesac.&lt;/p&gt;
-&lt;p&gt;“&lt;em&gt;A gestão parece discriminar os médicos e as reivindicações. Há meses buscamos negociar, e nossas demandas acabaram negadas, sendo aceitas quando outras categorias apresentaram os mesmos pedidos&lt;/em&gt;”, explicou o sindicalista.&lt;/p&gt;
-&lt;p&gt;Há 7 anos sem avanços salariais e enfrentando a pandemia de coronavírus, os médicos do Igesac acabaram esquecidos pela gestão que apenas concedeu, de forma “igualitária”, os 5,42% de reposição de inflação. O percentual foi considerado humilhante pela categoria excluída de qualquer ação de valorização profissional por atuarem no combate contra o vírus mortal desde março de 2020.&lt;/p&gt;
-&lt;p&gt;Os médicos reivindicam a redução de 13 para 12 dos plantões mensais, além de 30% de gratificação para os plantões noturnos. As outras categorias já conquistaram esses mesmos avanços que foram negados para os médicos.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Por Ascom&lt;/em&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/no-acre-medicos-entram-em-greve-a-partir-do-dia-12-de-dezembro/</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T184048.528.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>18:24:31</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Após eliminação na Copa, técnico da Alemanha evita falar sobre demissão e diz: &amp;#8220;A decepção é grande&amp;#8221;</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Hansi Flick assumiu a Alemanha há menos de dois anos com a missão de afastar o fardo do vexame da Rússia &amp;#8211; quando a seleção terminou eliminada de forma inédita na fase de grupos. Quatro anos depois da última Copa, contudo, a equipe germânica repetiu o marco negativo nesta quinta-feira e está fora do Mundial no Catar &amp;#8211; mesmo com a vitória sobre a Costa Rica, por 4 a 2.&lt;/p&gt;
-&lt;p&gt;Após a eliminação confirmada, o técnico Hansi Flick evitou falar sobre um possível pedido de demissão da seleção.&lt;/p&gt;
-&lt;blockquote class="wp-block-quote"&gt;
-&lt;p&gt;&amp;#8220;&lt;em&gt;Vamos resolver isso rapidamente. É difícil responder agora logo depois da equipe ser eliminada. Vamos ver isso em breve.&amp;#8221;&lt;/em&gt;&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;A Alemanha venceu a Costa Rica por 4 a 2, mas terminou eliminada pela diferença no saldo de gols em relação à Espanha &amp;#8211; que perdeu para o Japão. As equipes europeias ficaram com os mesmos quatro pontos, mas têm uma diferença de cinco gols no saldo.&lt;/p&gt;
-&lt;blockquote class="wp-block-quote"&gt;
-&lt;p&gt;&amp;#8220;&lt;em&gt;A decepção é grande. Não posso culpar a Espanha. Nunca olho para outras equipes. Só temos nós mesmos para culpar. Tivemos chances o suficiente contra o Japão e também contra a Espanha no fim do jogo&amp;#8221;&lt;/em&gt;, disse o treinador.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;A Alemanha, portanto, repete o roteiro de 2018 e despede-se da Copa do Mundo novamente na fase de grupos. Terminou igualando a marca negativa que pertencia somente à Itália até o momento &amp;#8211; de sofrer duas eliminações seguidas na fase de grupos após conquistar o título mundial.&lt;/p&gt;
-&lt;p&gt;Em 2022, os alemães tiveram 44% de aproveitamento em três jogos &amp;#8211; sendo uma vitória sobre a Costa Rica, um empate com a Espanha e a derrota na estreia para o Japão.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Por Globo Esporte&lt;/em&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/apos-eliminacao-na-copa-tecnico-da-alemanha-evita-falar-sobre-demissao-e-diz-a-decepcao-e-grande/</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T182258.561.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>18:16:44</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Dezembro Vermelho; Saúde do Acre inicia campanha de conscientização e prevenção ao HIV/Aids</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;Com foco no combate à desinformação, preconceito e discriminação para com a pessoa vivendo com HIV, a Secretaria de Estado de Saúde (Sesacre) lança a programação do Dezembro Vermelho, mês voltado para a prevenção do HIV/Aids. Mundialmente, o dia 1° de dezembro é lembrado pela realização de atividades alusivas à luta contra a doença.&lt;/p&gt;
-&lt;figure class="wp-block-image aligncenter" id="attachment_585669"&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg" alt="" class="wp-image-585669" data-recalc-dims="1"/&gt;&lt;figcaption class="wp-element-caption"&gt; &lt;em&gt;Foto: cedida&lt;/em&gt;&lt;/figcaption&gt;&lt;/figure&gt;
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>09:19:46</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Dois avisos do Inmet alertam para temporais no Acre nesta sexta-feira (2)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div id="chunk-6tcao"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="62" data-block-id="3"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;O Instituto Nacional de Meteorologia (Inmet) alertou para tempestades na sexta-feira (2) e sábado (3). Os dois alertas, um amarelo e outro laranja, foram divulgados nesta sexta. São esperadas chuvas entre 30 e 60 mm/h ou 50 e 100 mm/dia, ventos intensos (60-100 km/h). Há risco de corte de energia elétrica, queda de galhos de árvores, alagamentos e de descargas elétricas.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="wall protected-content"&gt;
+&lt;div id="chunk-41nap"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="10" data-block-id="4"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Os avisos são para todas as regiões do estado.&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="1" data-block-id="5"&gt;
+&lt;div class="content-intertitle"&gt;
+&lt;h2&gt;Instruções:&lt;/h2&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="mc-column content-text active-extra-styles" data-block-type="raw" data-block-weight="59" data-block-id="6"&gt;
+&lt;ul class="content-unordered-list"&gt;
+&lt;li&gt;Em caso de rajadas de vento: (não se abrigue debaixo de árvores, pois há risco de queda e descargas elétricas e não estacione veículos próximos a torres de transmissão e placas de propaganda)&lt;/li&gt;
+&lt;li&gt;Se possível, desligue aparelhos elétricos e quadro geral de energia.&lt;/li&gt;
+&lt;li&gt;Obtenha mais informações junto à Defesa Civil (telefone 199) e ao Corpo de Bombeiros (telefone 193).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;div id="chunk-8fdis"&gt;
+&lt;div class="mc-column content-text active-extra-styles " data-block-type="unstyled" data-block-weight="12" data-block-id="8"&gt;
+&lt;p class="content-text__container " data-track-category="Link no Texto" data-track-links=""&gt;Para Rio Branco, a previsão é de chuvas fortes com trovoadas.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li data-track-category="Link no Texto"&gt;Fonte: g1 AC.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.juruaemtempo.com.br/2022/12/dois-avisos-do-inmet-alertam-para-temporais-no-acre-nesta-sexta-feira-2/</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/1ea1069d-32b7-4da8-a08b-3e2f4ac46d65.jpeg?fit=984%2C482&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>09:03:43</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Em Cruzeiro do Sul, Centro Cultural do Juruá é entregue revitalizado</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Em mais uma demonstração de compromisso com a cultura acreana, o governo do Estado, por meio da Secretaria de Infraestrutura (Seinfra), entregou na tarde desta quinta-feira, 1º, a revitalização do antigo prédio do Centro Cultural do Juruá, em Cruzeiro do Sul.&lt;/p&gt;
+&lt;figure style="width: 902px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0062.jpg?resize=696%2C522" alt="" width="696" height="522" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Política estadual de revitalização de espaços públicos contribui para valorização da história do Acre. Foto: Edson Fernandes/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;A estrutura, que pertence ao Tribunal de Justiça do Acre (TJAC), recebeu pintura geral, troca de madeiras danificadas e da rede elétrica, revitalização da cobertura, forro, escadaria e mobiliário, além de estacionamento pavimentado, paisagismo, rampa de acesso, banheiro acessível, iluminação em LED, decoração natalina e revitalização da praça localizada em frente ao prédio, totalizando um investimento na ordem de R$ 330 mil.&lt;/p&gt;
+&lt;p&gt;Presente à solenidade de reinauguração do Centro, o titular da Seinfra, Cirleudo Alencar, definiu o momento como um marco para cultura da região e destacou a política estadual de restauração de espaços públicos, que tem contribuído para a valorização de servidores e da história do Acre.&lt;/p&gt;
+&lt;figure style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0046-1024x767.jpg?resize=696%2C521" alt="" width="696" height="521" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;A obra contou com o apoio da Prefeitura de Cruzeiro do Sul e do TJAC. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“O governador Gladson Cameli tem se empenhado no fortalecimento das instituições. O trabalho feito neste lugar é um resgate da história e uma forma de preservar a cultura local”, ratificou Alencar.&lt;/p&gt;
+&lt;p&gt;A arquitetura original do Centro foi mantida. Com ambiente mais atrativo, a expectativa é de ampliar o número de visitantes, anualmente.&lt;/p&gt;
+&lt;p&gt;Em suas palavras, a presidente do TJAC, desembargadora Waldirene Cordeiro, externou gratidão à bem-sucedida parceria. “Meus sinceros agradecimentos ao Poder Executivo e a todos que se uniram para realizar este sonho. Este lugar guarda parte da história acreana e do Poder Judiciário”, pontuou.&lt;/p&gt;
+&lt;p&gt;Também se fizeram presentes ao evento o prefeito Zequinha Lima e autoridades da região.&lt;/p&gt;
+&lt;figure style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0057-1024x768.jpg?resize=696%2C522" alt="" width="696" height="522" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Autoridades participaram da reinauguração do Centro na tarde desta quinta-feira. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;h4&gt;A história do prédio mais antigo do Acre&lt;/h4&gt;
+&lt;p&gt;O Centro Cultural do Juruá está localizado no prédio mais antigo da história do Acre. Começou a ser erguido em 1904 e sua construção foi concluída somente em 1911. O local foi a primeira sede da Prefeitura de Cruzeiro do Sul e posteriormente abrigou o Poder Judiciário.&lt;/p&gt;
+&lt;figure style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/IMG-20221201-WA0060-1024x767.jpg?resize=696%2C521" alt="" width="696" height="521" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Local dispõe de museu, biblioteca e auditório. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Com 116 anos, a edificação volta a oferecer ao público museu, biblioteca e auditório.&lt;/p&gt;
+&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="696" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 696px; height: 349px;" data-original-width="696" data-original-height="349" &gt; &lt;div class="gallery-group images-1" style="width: 465px; height: 349px;" data-original-width="465" data-original-height="349" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0049/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="461"&gt; &lt;meta itemprop="height" content="345"&gt; &lt;img data-attachment-id="232358" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg" data-orig-size="1280,959" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0049" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg?fit=696%2C521&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0049.jpg?w=461&amp;#038;h=345&amp;#038;ssl=1" width="461" height="345" data-original-width="461" data-original-height="345" itemprop="http://schema.org/image" title="IMG-20221201-WA0049" alt="Foto: Marcos Santos" style="width: 461px; height: 345px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-2" style="width: 231px; height: 349px;" data-original-width="231" data-original-height="349" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0052/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="227"&gt; &lt;meta itemprop="height" content="170"&gt; &lt;img data-attachment-id="232359" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg" data-orig-size="1280,959" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0052" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg?fit=696%2C521&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0052.jpg?w=227&amp;#038;h=170&amp;#038;ssl=1" width="227" height="170" data-original-width="227" data-original-height="170" itemprop="http://schema.org/image" title="IMG-20221201-WA0052" alt="Foto: Marcos Santos" style="width: 227px; height: 170px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0051/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="227"&gt; &lt;meta itemprop="height" content="171"&gt; &lt;img data-attachment-id="232360" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg" data-orig-size="1130,848" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0051" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg?fit=696%2C522&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0051.jpg?w=227&amp;#038;h=171&amp;#038;ssl=1" width="227" height="171" data-original-width="227" data-original-height="171" itemprop="http://schema.org/image" title="IMG-20221201-WA0051" alt="Foto: Marcos Santos" style="width: 227px; height: 171px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 696px; height: 175px;" data-original-width="696" data-original-height="175" &gt; &lt;div class="gallery-group images-1" style="width: 232px; height: 175px;" data-original-width="232" data-original-height="175" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0054/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="228"&gt; &lt;meta itemprop="height" content="171"&gt; &lt;img data-attachment-id="232361" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg" data-orig-size="1280,960" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0054" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg?fit=696%2C522&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0054.jpg?w=228&amp;#038;h=171&amp;#038;ssl=1" width="228" height="171" data-original-width="228" data-original-height="171" itemprop="http://schema.org/image" title="IMG-20221201-WA0054" alt="Foto: Marcos Santos" style="width: 228px; height: 171px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 232px; height: 175px;" data-original-width="232" data-original-height="175" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0053/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="228"&gt; &lt;meta itemprop="height" content="171"&gt; &lt;img data-attachment-id="232362" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg" data-orig-size="1280,960" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0053" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg?fit=696%2C522&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0053.jpg?w=228&amp;#038;h=171&amp;#038;ssl=1" width="228" height="171" data-original-width="228" data-original-height="171" itemprop="http://schema.org/image" title="IMG-20221201-WA0053" alt="Foto: Marcos Santos" style="width: 228px; height: 171px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 232px; height: 175px;" data-original-width="232" data-original-height="175" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/img-20221201-wa0055/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="228"&gt; &lt;meta itemprop="height" content="171"&gt; &lt;img data-attachment-id="232363" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg" data-orig-size="1280,960" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="IMG-20221201-WA0055" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg?fit=696%2C522&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0055.jpg?w=228&amp;#038;h=171&amp;#038;ssl=1" width="228" height="171" data-original-width="228" data-original-height="171" itemprop="http://schema.org/image" title="IMG-20221201-WA0055" alt="Foto: Marcos Santos" style="width: 228px; height: 171px;" /&gt; &lt;/a&gt; &lt;div class="tiled-gallery-caption" itemprop="caption description"&gt; Foto: Marcos Santos &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;Por Eliel Mesquita, da Agência de Notícias do Acre.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.juruaemtempo.com.br/2022/12/centro-cultural-do-jurua-e-entregue-revitalizado/</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/IMG-20221201-WA0045-1.jpg?fit=1027%2C769&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>08:51:58</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Governo conclui primeira etapa da obra na Unidade Mista de Saúde da Vila Santa Luzia</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Os investimentos que o Estado tem realizado em infraestrutura nos 22 municípios do Acre geram postos de trabalho e melhorias nos serviços prestados pelos órgãos públicos. Em virtude disto, o governo, por meio da Secretaria de Estado de Infraestrutura (Seinfra), possui olhar cuidadoso para as benfeitorias dos prédios na área de Saúde, a saber, a Unidade Mista de Saúde da comunidade Santa Luzia, que atualmente passa por reforma e ampliação, em Cruzeiro do Sul.&lt;/p&gt;
+&lt;figure style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/B38F2F16-B2D0-46D0-A497-5EF3E8359692-1024x768.jpeg?resize=696%2C522" alt="" width="696" height="522" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Secretário de Infraestrutura dialoga com servidores da Unidade sobre os benefícios da obra. Foto: Marcos Santos/Secom&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;Bastante alinhadas, a parceria entre a Secretaria de Estado de Saúde (Sesacre) e a Seinfra garantirá melhorias nos atendimentos dos moradores da vila.&lt;br /&gt;
+Na manhã desta quinta-feira, 1, a unidade recebeu a visita técnica do secretário de Infraestrutura, Cirleudo Alencar, que pôde verificar o andamento do trabalho executado pela Seinfra.&lt;/p&gt;
+&lt;p&gt;O espaço vem sendo beneficiado com nova pintura, cobertura, forro e piso; troca dos sistemas elétrico, hidráulico e sanitário; revestimento de esquadrias, além da implantação de sistemas de combate a incêndio, de sonorização e climatização, entre outros serviços.&lt;/p&gt;
+&lt;p&gt;“A primeira etapa dessa obra foi concluída. Temos um bloco novo da unidade que será referência em todo o estado. Nossa gestão preocupa-se com o bem-estar da população da zona rural, que procura atendimentos na área da Saúde”, destacou o titular da Seinfra.&lt;/p&gt;
+&lt;p&gt;Mais de R$ 700 mil, advindos de recursos de emenda parlamentar do deputado federal Alan Rick, vêm sendo aplicados para reformar o bloco 2 da unidade.&lt;/p&gt;
+&lt;p&gt;“O governo tem atuado com seriedade para melhorar a saúde pública. Com muita dedicação e compromisso, a Seinfra tem desempenhado um grande trabalho, juntamente com a Sesacre, para servir à população do interior”, declarou Catiana Rodrigues, coordenadora Regional de Saúde no Juruá.&lt;/p&gt;
+&lt;figure style="width: 1024px" class="wp-caption alignnone"&gt;&lt;img decoding="async" loading="lazy" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/F8928DC6-C704-4C17-B041-510D842A0F83-1024x768.jpeg?resize=696%2C522" alt="" width="696" height="522" data-recalc-dims="1" /&gt;&lt;figcaption class="wp-caption-text"&gt;Recentemente, a unidade recebeu equipamentos novos. Foto: Marcos Santos/Secom.&lt;/figcaption&gt;&lt;/figure&gt;
+&lt;p&gt;“Essa obra vai impactar nossas vidas. É um alívio vermos essa estrutura. Sabemos que os serviços irão melhorar, pois há muitos anos que moro aqui e espero por isso. Só tenho a agradecer ao nosso governo, por nos proporcionar uma nova unidade”, refletiu Auricélia Gomes, moradora da comunidade.&lt;/p&gt;
+&lt;p&gt;Importa destacar que o prédio foi construído em 1982. O Centro de Urgência e Emergência atende mais de 20 mil moradores do vilarejo e ramais adjacentes. Pela primeira vez, em 40 anos de história, a estrutura recebe intervenção do Estado.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.juruaemtempo.com.br/2022/12/governo-conclui-primeira-etapa-da-obra-na-unidade-mista-de-saude-da-vila-santa-luzia/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/AE549805-A7D1-4DE6-B573-FF97C95919FC-1536x1151-1.jpeg?fit=1536%2C1151&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>08:51:54</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Economia: Educação e Saúde têm maiores bloqueios orçamentários no 5º bimestre</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;O Ministério da Economia detalhou nesta quarta-feira, 30, o bloqueio adicional de R$ 5,663 bilhões no Orçamento de 2022. Com isso, o total de recursos congelados subiu para R$ 15,380 bilhões. O Ministério da Educação, com R$ 1,434 bilhão, e o Ministério da Saúde, com R$ 1,396 bilhão, sofreram os maiores contingenciamentos adicionais da Esplanada no 5º bimestre.&lt;/p&gt;
+&lt;p&gt;No ano, o Ministério do Desenvolvimento Regional acumula o maior bloqueio, de R$ 3,943 bilhões, apesar de, no último bimestre, ter tido um contingenciamento adicional de apenas R$ 176,9 milhões. O contingenciamento da Saúde, no ano, soma R$ 3,780 bilhões e da Educação, R$ 2,368 bilhões.&lt;/p&gt;
+&lt;p&gt;De acordo com o Relatório de Receitas e Despesas do 5º Bimestre, o corte adicional foi necessário para pagar benefícios previdenciários (R$ 2,3 bilhões) e em razão da suspensão da medida provisória que adiava para o ano que vem repasses da Lei Adir Blanc.&lt;/p&gt;
+&lt;p&gt;O bloqueio foi necessário para que os desembolsos não ultrapassassem o limite do teto de gastos, regra que proíbe dispêndios acima dos registrados no ano passado, corrigidos pela inflação.&lt;/p&gt;
+&lt;p&gt;O Ministério da Defesa sofreu um bloqueio orçamentário adicional de R$ 599,6 milhões, o Ministério da Ciência e Tecnologia, outros R$ 379,6 milhões, e o Ministério da Infraestrutura, mais R$ 349,4 milhões.&lt;/p&gt;
+</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.juruaemtempo.com.br/2022/12/economia-educacao-e-saude-tem-maiores-bloqueios-orcamentarios-no-5o-bimestre/</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/naom_5f75892745419.jpg?fit=1920%2C1080&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>08:51:50</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Acre inicia campanha de conscientização e prevenção ao HIV/Aids</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p&gt;Com foco no combate à desinformação, preconceito e discriminação para com a pessoa vivendo com HIV, a Secretaria de Estado de Saúde (Sesacre) lança a programação do Dezembro Vermelho, mês voltado para a prevenção do HIV/Aids. Mundialmente, o dia 1° de dezembro é lembrado pela realização de atividades alusivas à luta contra a doença.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.38.54.jpeg?w=696" data-recalc-dims="1" /&gt;&lt;/p&gt;
 &lt;p&gt;Para a chefe da Coordenação de ISTs/HIV/Aids, Hepatites Virais e Sífilis da Sesacre, Suilany Souza, a campanha reforça as discussões em torno do tema, além de potencializar as informações acerca da prevenção e do tratamento da Aids.&lt;/p&gt;
-&lt;p&gt;“&lt;em&gt;O objetivo é estabelecer o entrelaçamento da comunicação, promover troca de informações e experiências, e de criar um espírito de tolerância social. O Dia Mundial da Luta Contra a Aids nos proporciona a oportunidade de falar mais a respeito da infecção por HIV e da Aids. Isso resulta na diminuição das notificações da doença e influencia que mais pessoas procurem assistência médica no caso de suspeitas&lt;/em&gt;”, disse.&lt;/p&gt;
+&lt;p&gt;“O objetivo é estabelecer o entrelaçamento da comunicação, promover troca de informações e experiências, e de criar um espírito de tolerância social. O Dia Mundial da Luta Contra a Aids nos proporciona a oportunidade de falar mais a respeito da infecção por HIV e da Aids. Isso resulta na diminuição das notificações da doença e influencia que mais pessoas procurem assistência médica no caso de suspeitas”, disse.&lt;/p&gt;
 &lt;p&gt;De acordo com dados do Sistema de Informação de Agravos de Notificação (Sinan), foram notificados 296 novos casos de infecção por HIV este ano. No Acre, em 2022, houve uma redução de 15% em relação aos dados do ano passado. Mesmo com a diminuição dos casos e o aumento de testagens pós-pandemia, a gestão estadual reforça que a prevenção é o melhor tratamento contra a doença.&lt;/p&gt;
-&lt;figure class="wp-block-image aligncenter" id="attachment_585673"&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg" alt="" class="wp-image-585673" data-recalc-dims="1"/&gt;&lt;figcaption class="wp-element-caption"&gt;&lt;em&gt;Foto: cedida&lt;/em&gt;&lt;/figcaption&gt;&lt;/figure&gt;
-&lt;p&gt;“A conscientização das pessoas, sobretudo dos jovens, de que o cuidado e a prevenção são essenciais para conseguirmos reduzir os números e, principalmente,&amp;nbsp; quebrar a cadeia de transmissão do vírus em nosso estado é a nossa luta diária”, alertou Souza.&lt;/p&gt;
+&lt;p&gt;&lt;img decoding="async" src="https://i0.wp.com/agencia.ac.gov.br/wp-content/uploads/2022/12/WhatsApp-Image-2022-12-01-at-14.41.02.jpeg?w=696" data-recalc-dims="1" /&gt;&lt;/p&gt;
+&lt;p&gt;“A conscientização das pessoas, sobretudo dos jovens, de que o cuidado e a prevenção são essenciais para conseguirmos reduzir os números e, principalmente,  quebrar a cadeia de transmissão do vírus em nosso estado é a nossa luta diária”, alertou Souza.&lt;/p&gt;
 &lt;h4&gt;Programação:&lt;/h4&gt;
 &lt;p&gt;Em alusão ao Dezembro Vermelho, a cordenação de ISTs/HIV/Aids, Hepatites Virais e Sífilis da Sesacre, em parceria com outras instituições, realizará nos dias 19, 20 e 21 o Bazar Solidário em prol das pessoas que vivem com HIV. O evento, que terá o serviço de testagem rápida, contará, ainda, com som ao vivo, encenação teatral relacionada ao contexto, com orientações e informações sobre a prevenção, diagnóstico e o tratamento para HIV, hepatites e sífilis.&lt;/p&gt;
-&lt;p&gt;“&lt;em&gt;Pela Política do Sistema Único de Saúde (SUS), cada município fica responsável pelas ações de conscientização sobre a Aids. Municípios como Rio Branco, Senador Guiomard e Porto Walter já estão se mobilizando nesse sentido. O Estado organiza, ainda, para o início de 2023, duas atividades importantes: o 1° Fórum Estadual para Gestores sobre HIV e Sífilis e a 1ª  Mesa redonda estadual sobre o HIV&lt;/em&gt;”, informou Suilany.&lt;/p&gt;
-&lt;p&gt;&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Com informações Agência de Notícias do Acre&lt;/em&gt;&lt;/p&gt;
-</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://www.juruaonline.com.br/dezembro-vermelho-saude-do-acre-inicia-campanha-de-conscientizacao-e-prevencao-ao-hiv-aids/</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>https://i0.wp.com/www.juruaonline.com.br/wp-content/uploads/2022/12/Novo-Projeto-2022-12-01T181354.715.jpg?fit=1080%2C600&amp;ssl=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>17:08:15</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Programa Voar de Novo traz influenciadores para mostrar as belezas do Juruá</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p&gt;O Programa Voar de novo, trouxe dois casais de influenciadores para conhecerem e apresentarem aos seus seguidores as belezas do Vale do Juruá. Crônicas na Bagagem são jornalista e farão uma cobertura a respeito do turismo local; e Ricks Pelo Mundo apresentará os pontos turísticos locais.&lt;/p&gt;
-&lt;p&gt;Os influenciadores já visitaram o Rio Crôa e seguirão para a Fábrica Minerale, além de um ‘Citty Tour’ por Casas de Farinha, Marchetarias, Casa do Artesão, Morro da Glória e SESC. Na sexta-feira (02) o passeio será pelo município de Mâncio Lima.&lt;/p&gt;
-&lt;p&gt;Francisco da Secretaria de Turismo disse que a visita também tem como objetivo “incentivar a retomada das viagens de avião aos destinos turísticos nacionais”.&lt;/p&gt;
-&lt;p&gt;O voar de novo é um Programa de divulgação de destinos brasileiros e do papel da aviação na retornada segura das viagens pós crise da pandemia de Covid-19. Ele foi criado e é gerido pela Associação Brasileira das Empresas Aéreas (AVEAR), em parceria com o Fórum Nacional dos Secretários e Dirigentes Estaduais de Turismo (FORNATUR).&lt;/p&gt;
-&lt;div class="tiled-gallery type-rectangular tiled-gallery-unresized" data-original-width="696" data-carousel-extra='null' itemscope itemtype="http://schema.org/ImageGallery" &gt; &lt;div class="gallery-row" style="width: 696px; height: 251px;" data-original-width="696" data-original-height="251" &gt; &lt;div class="gallery-group images-1" style="width: 143px; height: 251px;" data-original-width="143" data-original-height="251" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/programa-voar-de-novo-traz-influenciadores-para-mostrar-as-belezas-do-jurua/07316a64-7c95-4cc3-9db6-f8d7faa75130/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="139"&gt; &lt;meta itemprop="height" content="247"&gt; &lt;img data-attachment-id="232300" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/07316a64-7c95-4cc3-9db6-f8d7faa75130.jpeg" data-orig-size="576,1024" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="07316a64-7c95-4cc3-9db6-f8d7faa75130" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/07316a64-7c95-4cc3-9db6-f8d7faa75130.jpeg?fit=281%2C500&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/07316a64-7c95-4cc3-9db6-f8d7faa75130.jpeg?fit=576%2C1024&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/07316a64-7c95-4cc3-9db6-f8d7faa75130.jpeg?w=139&amp;#038;h=247&amp;#038;ssl=1" width="139" height="247" data-original-width="139" data-original-height="247" itemprop="http://schema.org/image" title="07316a64-7c95-4cc3-9db6-f8d7faa75130" alt="07316a64-7c95-4cc3-9db6-f8d7faa75130" style="width: 139px; height: 247px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 553px; height: 251px;" data-original-width="553" data-original-height="251" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-large" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/programa-voar-de-novo-traz-influenciadores-para-mostrar-as-belezas-do-jurua/04667f82-d0db-4a41-a669-d39627d1b1cf/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="549"&gt; &lt;meta itemprop="height" content="247"&gt; &lt;img data-attachment-id="232301" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/04667f82-d0db-4a41-a669-d39627d1b1cf.jpeg" data-orig-size="1024,461" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="04667f82-d0db-4a41-a669-d39627d1b1cf" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/04667f82-d0db-4a41-a669-d39627d1b1cf.jpeg?fit=500%2C225&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/04667f82-d0db-4a41-a669-d39627d1b1cf.jpeg?fit=696%2C313&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/04667f82-d0db-4a41-a669-d39627d1b1cf.jpeg?w=549&amp;#038;h=247&amp;#038;ssl=1" width="549" height="247" data-original-width="549" data-original-height="247" itemprop="http://schema.org/image" title="04667f82-d0db-4a41-a669-d39627d1b1cf" alt="04667f82-d0db-4a41-a669-d39627d1b1cf" style="width: 549px; height: 247px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;/div&gt; &lt;!-- close row --&gt; &lt;div class="gallery-row" style="width: 696px; height: 111px;" data-original-width="696" data-original-height="111" &gt; &lt;div class="gallery-group images-1" style="width: 242px; height: 111px;" data-original-width="242" data-original-height="111" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/programa-voar-de-novo-traz-influenciadores-para-mostrar-as-belezas-do-jurua/fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="238"&gt; &lt;meta itemprop="height" content="107"&gt; &lt;img data-attachment-id="232302" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e.jpeg" data-orig-size="1024,461" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e.jpeg?fit=500%2C225&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e.jpeg?fit=696%2C313&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e.jpeg?w=238&amp;#038;h=107&amp;#038;ssl=1" width="238" height="107" data-original-width="238" data-original-height="107" itemprop="http://schema.org/image" title="fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e" alt="fdf886b2-8b4d-4e22-8b13-5fd2e5c6946e" style="width: 238px; height: 107px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 147px; height: 111px;" data-original-width="147" data-original-height="111" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/programa-voar-de-novo-traz-influenciadores-para-mostrar-as-belezas-do-jurua/3e615459-5337-4083-a826-9b1995b9e5fd/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="143"&gt; &lt;meta itemprop="height" content="107"&gt; &lt;img data-attachment-id="232304" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/3e615459-5337-4083-a826-9b1995b9e5fd.jpeg" data-orig-size="1024,768" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="3e615459-5337-4083-a826-9b1995b9e5fd" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/3e615459-5337-4083-a826-9b1995b9e5fd.jpeg?fit=500%2C375&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/3e615459-5337-4083-a826-9b1995b9e5fd.jpeg?fit=696%2C522&amp;#038;ssl=1" src="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/3e615459-5337-4083-a826-9b1995b9e5fd.jpeg?w=143&amp;#038;h=107&amp;#038;ssl=1" width="143" height="107" data-original-width="143" data-original-height="107" itemprop="http://schema.org/image" title="3e615459-5337-4083-a826-9b1995b9e5fd" alt="3e615459-5337-4083-a826-9b1995b9e5fd" style="width: 143px; height: 107px;" /&gt; &lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;!-- close group --&gt; &lt;div class="gallery-group images-1" style="width: 65px; height: 111px;" data-original-width="65" data-original-height="111" &gt; &lt;div class="tiled-gallery-item tiled-gallery-item-small" itemprop="associatedMedia" itemscope itemtype="http://schema.org/ImageObject"&gt; &lt;a href="https://www.juruaemtempo.com.br/2022/12/programa-voar-de-novo-traz-influenciadores-para-mostrar-as-belezas-do-jurua/6893b01e-62ff-4a00-a099-dfa304a7717f/" border="0" itemprop="url"&gt; &lt;meta itemprop="width" content="61"&gt; &lt;meta itemprop="height" content="107"&gt; &lt;img data-attachment-id="232305" data-orig-file="https://www.juruaemtempo.com.br/wp-content/uploads/2022/12/6893b01e-62ff-4a00-a099-dfa304a7717f.jpeg" data-orig-size="576,1024" data-comments-opened="" data-image-meta="{&amp;quot;aperture&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;credit&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;camera&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;caption&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;created_timestamp&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;copyright&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;focal_length&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;iso&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;shutter_speed&amp;quot;:&amp;quot;0&amp;quot;,&amp;quot;title&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;orientation&amp;quot;:&amp;quot;0&amp;quot;}" data-image-title="6893b01e-62ff-4a00-a099-dfa304a7717f" data-image-description="" data-medium-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/6893b01e-62ff-4a00-a099-dfa304a7717f.jpeg?fit=281%2C500&amp;#038;ssl=1" data-large-file="https://i0.wp.com/www.juruaemtempo.com.br/wp-content/uploads/2022/12/6893b01e-62ff-4a00-a099-dfa304a7717f.jpeg?fit=576%2C1024&amp;#038;ssl=1" src="https://